--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\user_data_for_haier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaiqi/Desktop/海尔数据收集/user_data_for_haier/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$12:$BS$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -509,10 +514,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ h:mm"/>
-    <numFmt numFmtId="182" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1135,12 +1140,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,33 +1176,132 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1207,123 +1311,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2510,72 +2515,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX4" workbookViewId="0">
-      <selection activeCell="BT28" sqref="BT28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.25" style="1" customWidth="1"/>
-    <col min="34" max="36" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="42.125" style="32" customWidth="1"/>
+    <col min="29" max="32" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.1640625" style="1" customWidth="1"/>
+    <col min="34" max="36" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="42.1640625" style="32" customWidth="1"/>
     <col min="41" max="41" width="9" style="32" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.1640625" style="32" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9" style="32" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.75" style="32" customWidth="1"/>
-    <col min="45" max="45" width="7.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.875" style="32" customWidth="1"/>
-    <col min="47" max="47" width="7.25" style="32" customWidth="1"/>
+    <col min="44" max="44" width="7.6640625" style="32" customWidth="1"/>
+    <col min="45" max="45" width="7.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.83203125" style="32" customWidth="1"/>
+    <col min="47" max="47" width="7.1640625" style="32" customWidth="1"/>
     <col min="48" max="48" width="8" style="32" customWidth="1"/>
-    <col min="49" max="49" width="7.875" style="32" customWidth="1"/>
+    <col min="49" max="49" width="7.83203125" style="32" customWidth="1"/>
     <col min="50" max="50" width="6.5" style="32" customWidth="1"/>
     <col min="51" max="51" width="7.5" style="32" customWidth="1"/>
     <col min="52" max="52" width="8" style="32" customWidth="1"/>
     <col min="53" max="53" width="7.5" style="32" customWidth="1"/>
-    <col min="54" max="54" width="7.75" style="1" customWidth="1"/>
+    <col min="54" max="54" width="7.6640625" style="1" customWidth="1"/>
     <col min="55" max="55" width="8" style="1" customWidth="1"/>
-    <col min="56" max="57" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.125" style="1" customWidth="1"/>
-    <col min="59" max="62" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.1640625" style="1" customWidth="1"/>
+    <col min="59" max="62" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="63" max="64" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="7.125" style="1" customWidth="1"/>
-    <col min="69" max="69" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="256" width="8.75" style="1" customWidth="1"/>
+    <col min="65" max="66" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="7.1640625" style="1" customWidth="1"/>
+    <col min="69" max="69" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="256" width="8.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
+    <row r="1" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2650,12 +2655,12 @@
       <c r="BR1" s="4"/>
       <c r="BS1" s="4"/>
     </row>
-    <row r="2" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+    <row r="2" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2727,26 +2732,26 @@
       <c r="BR2" s="4"/>
       <c r="BS2" s="4"/>
     </row>
-    <row r="3" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="35"/>
+    <row r="3" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="61"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="51" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="2"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2810,23 +2815,23 @@
       <c r="BR3" s="4"/>
       <c r="BS3" s="4"/>
     </row>
-    <row r="4" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34" t="s">
+    <row r="4" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="47" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="61"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="4"/>
@@ -2891,12 +2896,12 @@
       <c r="BR4" s="4"/>
       <c r="BS4" s="4"/>
     </row>
-    <row r="5" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2972,13 +2977,13 @@
       <c r="BR5" s="4"/>
       <c r="BS5" s="4"/>
     </row>
-    <row r="6" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3047,16 +3052,16 @@
       <c r="BR6" s="4"/>
       <c r="BS6" s="4"/>
     </row>
-    <row r="7" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
@@ -3126,14 +3131,14 @@
       <c r="BR7" s="4"/>
       <c r="BS7" s="4"/>
     </row>
-    <row r="8" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="53"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -3201,12 +3206,12 @@
       <c r="BR8" s="4"/>
       <c r="BS8" s="4"/>
     </row>
-    <row r="9" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3353,311 +3358,311 @@
       <c r="BR10" s="10"/>
       <c r="BS10" s="10"/>
     </row>
-    <row r="11" spans="1:71" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:71" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="42" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="41" t="s">
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="42" t="s">
+      <c r="K11" s="74"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="40"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="41" t="s">
+      <c r="R11" s="66"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="80" t="s">
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="81"/>
-      <c r="AQ11" s="81"/>
-      <c r="AR11" s="81"/>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="81"/>
-      <c r="AU11" s="81"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="81"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="81"/>
-      <c r="AZ11" s="81"/>
-      <c r="BA11" s="82"/>
-      <c r="BB11" s="41" t="s">
+      <c r="AO11" s="80"/>
+      <c r="AP11" s="80"/>
+      <c r="AQ11" s="80"/>
+      <c r="AR11" s="80"/>
+      <c r="AS11" s="80"/>
+      <c r="AT11" s="80"/>
+      <c r="AU11" s="80"/>
+      <c r="AV11" s="80"/>
+      <c r="AW11" s="80"/>
+      <c r="AX11" s="80"/>
+      <c r="AY11" s="80"/>
+      <c r="AZ11" s="80"/>
+      <c r="BA11" s="81"/>
+      <c r="BB11" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="36" t="s">
+      <c r="BC11" s="74"/>
+      <c r="BD11" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BE11" s="37"/>
-      <c r="BF11" s="37"/>
-      <c r="BG11" s="38"/>
-      <c r="BH11" s="39"/>
-      <c r="BI11" s="39"/>
-      <c r="BJ11" s="39"/>
-      <c r="BK11" s="40"/>
-      <c r="BL11" s="37"/>
-      <c r="BM11" s="37"/>
-      <c r="BN11" s="37"/>
-      <c r="BO11" s="48" t="s">
+      <c r="BE11" s="67"/>
+      <c r="BF11" s="67"/>
+      <c r="BG11" s="74"/>
+      <c r="BH11" s="68"/>
+      <c r="BI11" s="68"/>
+      <c r="BJ11" s="68"/>
+      <c r="BK11" s="66"/>
+      <c r="BL11" s="67"/>
+      <c r="BM11" s="67"/>
+      <c r="BN11" s="67"/>
+      <c r="BO11" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="BP11" s="40"/>
-      <c r="BQ11" s="42" t="s">
+      <c r="BP11" s="66"/>
+      <c r="BQ11" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="BR11" s="39"/>
-      <c r="BS11" s="40"/>
+      <c r="BR11" s="68"/>
+      <c r="BS11" s="66"/>
     </row>
-    <row r="12" spans="1:71" s="73" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:71" s="53" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="N12" s="66" t="s">
+      <c r="N12" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="66" t="s">
+      <c r="O12" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="66" t="s">
+      <c r="P12" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="67" t="s">
+      <c r="Q12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="R12" s="67" t="s">
+      <c r="R12" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="S12" s="67" t="s">
+      <c r="S12" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="T12" s="67" t="s">
+      <c r="T12" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="V12" s="67" t="s">
+      <c r="V12" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="W12" s="67" t="s">
+      <c r="W12" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="X12" s="67" t="s">
+      <c r="X12" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="Y12" s="68" t="s">
+      <c r="Y12" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="68" t="s">
+      <c r="Z12" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="AA12" s="68" t="s">
+      <c r="AA12" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="AB12" s="68" t="s">
+      <c r="AB12" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AC12" s="68" t="s">
+      <c r="AC12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="AD12" s="68" t="s">
+      <c r="AD12" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="AE12" s="68" t="s">
+      <c r="AE12" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="AF12" s="68" t="s">
+      <c r="AF12" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="AG12" s="68" t="s">
+      <c r="AG12" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="AH12" s="68" t="s">
+      <c r="AH12" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="AI12" s="68" t="s">
+      <c r="AI12" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="AJ12" s="68" t="s">
+      <c r="AJ12" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AK12" s="68" t="s">
+      <c r="AK12" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AL12" s="68" t="s">
+      <c r="AL12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AM12" s="68" t="s">
+      <c r="AM12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AN12" s="69" t="s">
+      <c r="AN12" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AO12" s="70" t="s">
+      <c r="AO12" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="AP12" s="70" t="s">
+      <c r="AP12" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="AQ12" s="70" t="s">
+      <c r="AQ12" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="AR12" s="70" t="s">
+      <c r="AR12" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="AS12" s="70" t="s">
+      <c r="AS12" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="AT12" s="70" t="s">
+      <c r="AT12" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="AU12" s="70" t="s">
+      <c r="AU12" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="AV12" s="70" t="s">
+      <c r="AV12" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="AW12" s="70" t="s">
+      <c r="AW12" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AX12" s="70" t="s">
+      <c r="AX12" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="AY12" s="70" t="s">
+      <c r="AY12" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="AZ12" s="70" t="s">
+      <c r="AZ12" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="BA12" s="70" t="s">
+      <c r="BA12" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="BB12" s="71" t="s">
+      <c r="BB12" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="BC12" s="71" t="s">
+      <c r="BC12" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="BD12" s="72" t="s">
+      <c r="BD12" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="BE12" s="72" t="s">
+      <c r="BE12" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="BF12" s="72" t="s">
+      <c r="BF12" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="BG12" s="72" t="s">
+      <c r="BG12" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="BH12" s="72" t="s">
+      <c r="BH12" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="BI12" s="72" t="s">
+      <c r="BI12" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="BJ12" s="72" t="s">
+      <c r="BJ12" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="BK12" s="72" t="s">
+      <c r="BK12" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="BL12" s="72" t="s">
+      <c r="BL12" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="BM12" s="72" t="s">
+      <c r="BM12" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="BN12" s="72" t="s">
+      <c r="BN12" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="BO12" s="72" t="s">
+      <c r="BO12" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="BP12" s="72" t="s">
+      <c r="BP12" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="BQ12" s="72" t="s">
+      <c r="BQ12" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="BR12" s="72" t="s">
+      <c r="BR12" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="BS12" s="72" t="s">
+      <c r="BS12" s="52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3680,19 +3685,19 @@
       <c r="F13" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="36">
         <v>42730.910416666666</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="36">
         <v>42727</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="36">
         <v>42727</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="39">
         <v>42728</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="36">
         <v>42730</v>
       </c>
       <c r="L13" s="15">
@@ -3779,7 +3784,7 @@
       <c r="AM13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AN13" s="76" t="s">
+      <c r="AN13" s="56" t="s">
         <v>110</v>
       </c>
       <c r="AO13" s="15">
@@ -3876,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>2</v>
       </c>
@@ -3895,19 +3900,19 @@
       <c r="F14" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="37">
         <v>42694.6875</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="37">
         <v>42691</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="37">
         <v>42691</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="40">
         <v>42692</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="37">
         <v>42694</v>
       </c>
       <c r="L14" s="20">
@@ -3994,7 +3999,7 @@
       <c r="AM14" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AN14" s="77" t="s">
+      <c r="AN14" s="57" t="s">
         <v>110</v>
       </c>
       <c r="AO14" s="20">
@@ -4091,7 +4096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>3</v>
       </c>
@@ -4110,19 +4115,19 @@
       <c r="F15" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="37">
         <v>42708.658333333333</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="37">
         <v>42698</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="37">
         <v>42698</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="40">
         <v>42699</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="37">
         <v>42702</v>
       </c>
       <c r="L15" s="20">
@@ -4209,7 +4214,7 @@
       <c r="AM15" s="20">
         <v>1</v>
       </c>
-      <c r="AN15" s="77" t="s">
+      <c r="AN15" s="57" t="s">
         <v>110</v>
       </c>
       <c r="AO15" s="20">
@@ -4306,7 +4311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>4</v>
       </c>
@@ -4325,19 +4330,19 @@
       <c r="F16" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="37">
         <v>42624.602777777778</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="37">
         <v>42616</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="37">
         <v>42616</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="40">
         <v>42617</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="37">
         <v>42624</v>
       </c>
       <c r="L16" s="20">
@@ -4424,7 +4429,7 @@
       <c r="AM16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AN16" s="77" t="s">
+      <c r="AN16" s="57" t="s">
         <v>110</v>
       </c>
       <c r="AO16" s="20">
@@ -4521,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>5</v>
       </c>
@@ -4540,19 +4545,19 @@
       <c r="F17" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="37">
         <v>42659.479166666664</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="37">
         <v>42653</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="37">
         <v>42654</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="40">
         <v>42655</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="37">
         <v>42659</v>
       </c>
       <c r="L17" s="20">
@@ -4639,7 +4644,7 @@
       <c r="AM17" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AN17" s="77" t="s">
+      <c r="AN17" s="57" t="s">
         <v>110</v>
       </c>
       <c r="AO17" s="20">
@@ -4736,7 +4741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>6</v>
       </c>
@@ -4755,19 +4760,19 @@
       <c r="F18" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="37">
         <v>42661.405555555553</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="37">
         <v>42654</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="37">
         <v>42654</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="40">
         <v>42655</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="37">
         <v>42660</v>
       </c>
       <c r="L18" s="20">
@@ -4854,7 +4859,7 @@
       <c r="AM18" s="20">
         <v>0</v>
       </c>
-      <c r="AN18" s="77" t="s">
+      <c r="AN18" s="57" t="s">
         <v>110</v>
       </c>
       <c r="AO18" s="20">
@@ -4951,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>7</v>
       </c>
@@ -4967,22 +4972,22 @@
       <c r="E19" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="37">
         <v>42610.713888888888</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="37">
         <v>42604</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="37">
         <v>42604</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="40">
         <v>42604</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="37">
         <v>42609</v>
       </c>
       <c r="L19" s="20">
@@ -5069,7 +5074,7 @@
       <c r="AM19" s="20">
         <v>0</v>
       </c>
-      <c r="AN19" s="77" t="s">
+      <c r="AN19" s="57" t="s">
         <v>110</v>
       </c>
       <c r="AO19" s="20">
@@ -5166,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>8</v>
       </c>
@@ -5182,22 +5187,22 @@
       <c r="E20" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="37">
         <v>42737.87222222222</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="37">
         <v>42736.375</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="37">
         <v>42736.375</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="40">
         <v>42736.375</v>
       </c>
-      <c r="K20" s="57">
+      <c r="K20" s="37">
         <v>42737.416666666664</v>
       </c>
       <c r="L20" s="20">
@@ -5284,7 +5289,7 @@
       <c r="AM20" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AN20" s="77" t="s">
+      <c r="AN20" s="57" t="s">
         <v>125</v>
       </c>
       <c r="AO20" s="20">
@@ -5381,7 +5386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
         <v>9</v>
       </c>
@@ -5400,19 +5405,19 @@
       <c r="F21" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="37">
         <v>42731.886111111111</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="37">
         <v>42730</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="37">
         <v>42730</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="40">
         <v>42730</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="37">
         <v>42731.416666666664</v>
       </c>
       <c r="L21" s="20">
@@ -5499,7 +5504,7 @@
       <c r="AM21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AN21" s="77" t="s">
+      <c r="AN21" s="57" t="s">
         <v>125</v>
       </c>
       <c r="AO21" s="20">
@@ -5596,7 +5601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
         <v>10</v>
       </c>
@@ -5615,19 +5620,19 @@
       <c r="F22" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="37">
         <v>42732.80972222222</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="37">
         <v>42730</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="37">
         <v>42730</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="40">
         <v>42730</v>
       </c>
-      <c r="K22" s="57">
+      <c r="K22" s="37">
         <v>42732</v>
       </c>
       <c r="L22" s="20">
@@ -5714,7 +5719,7 @@
       <c r="AM22" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AN22" s="77" t="s">
+      <c r="AN22" s="57" t="s">
         <v>125</v>
       </c>
       <c r="AO22" s="20">
@@ -5811,7 +5816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="17">
         <v>11</v>
       </c>
@@ -5830,19 +5835,19 @@
       <c r="F23" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="37">
         <v>42606.796527777777</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="37">
         <v>42593</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="37">
         <v>42593</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="40">
         <v>42594</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="37">
         <v>42597</v>
       </c>
       <c r="L23" s="20">
@@ -5929,7 +5934,7 @@
       <c r="AM23" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AN23" s="77" t="s">
+      <c r="AN23" s="57" t="s">
         <v>125</v>
       </c>
       <c r="AO23" s="20">
@@ -6026,7 +6031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="17">
         <v>12</v>
       </c>
@@ -6045,19 +6050,19 @@
       <c r="F24" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="37">
         <v>42609.773611111108</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="37">
         <v>42607</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="37">
         <v>42607</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="40">
         <v>42607</v>
       </c>
-      <c r="K24" s="57">
+      <c r="K24" s="37">
         <v>42609.583333333336</v>
       </c>
       <c r="L24" s="20">
@@ -6144,7 +6149,7 @@
       <c r="AM24" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AN24" s="77" t="s">
+      <c r="AN24" s="57" t="s">
         <v>125</v>
       </c>
       <c r="AO24" s="20">
@@ -6241,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="17">
         <v>13</v>
       </c>
@@ -6260,19 +6265,19 @@
       <c r="F25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="37">
         <v>42663.486805555556</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="37">
         <v>42655</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="37">
         <v>42655</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="40">
         <v>42656</v>
       </c>
-      <c r="K25" s="57">
+      <c r="K25" s="37">
         <v>42658</v>
       </c>
       <c r="L25" s="20">
@@ -6359,7 +6364,7 @@
       <c r="AM25" s="20">
         <v>1</v>
       </c>
-      <c r="AN25" s="77" t="s">
+      <c r="AN25" s="57" t="s">
         <v>125</v>
       </c>
       <c r="AO25" s="20">
@@ -6456,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="17">
         <v>14</v>
       </c>
@@ -6475,19 +6480,19 @@
       <c r="F26" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="37">
         <v>42722.495138888888</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="37">
         <v>42718</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="37">
         <v>42718</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="40">
         <v>42718</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="37">
         <v>42720</v>
       </c>
       <c r="L26" s="20">
@@ -6574,7 +6579,7 @@
       <c r="AM26" s="20">
         <v>1</v>
       </c>
-      <c r="AN26" s="77" t="s">
+      <c r="AN26" s="57" t="s">
         <v>125</v>
       </c>
       <c r="AO26" s="20">
@@ -6671,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="17">
         <v>15</v>
       </c>
@@ -6690,19 +6695,19 @@
       <c r="F27" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="57">
+      <c r="G27" s="37">
         <v>42693.520138888889</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="37">
         <v>42688</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="37">
         <v>42688</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="40">
         <v>42688</v>
       </c>
-      <c r="K27" s="57">
+      <c r="K27" s="37">
         <v>42690</v>
       </c>
       <c r="L27" s="20">
@@ -6720,7 +6725,7 @@
       <c r="P27" s="20">
         <v>5</v>
       </c>
-      <c r="Q27" s="74" t="s">
+      <c r="Q27" s="54" t="s">
         <v>138</v>
       </c>
       <c r="R27" s="20">
@@ -6789,7 +6794,7 @@
       <c r="AM27" s="20">
         <v>0</v>
       </c>
-      <c r="AN27" s="77" t="s">
+      <c r="AN27" s="57" t="s">
         <v>125</v>
       </c>
       <c r="AO27" s="20">
@@ -6886,11 +6891,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:71" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:71" ht="42" x14ac:dyDescent="0.15">
       <c r="A28" s="17">
         <v>16</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="35" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="19" t="s">
@@ -6905,20 +6910,20 @@
       <c r="F28" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="37">
         <v>42718.534722222219</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="37">
         <v>42717.625</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="37">
         <v>42717.625</v>
       </c>
-      <c r="J28" s="60">
-        <v>42717</v>
-      </c>
-      <c r="K28" s="57">
-        <v>42717.5</v>
+      <c r="J28" s="40">
+        <v>42717.666666666664</v>
+      </c>
+      <c r="K28" s="37">
+        <v>42718.5</v>
       </c>
       <c r="L28" s="20">
         <v>1</v>
@@ -6935,40 +6940,40 @@
       <c r="P28" s="20">
         <v>5</v>
       </c>
-      <c r="Q28" s="74" t="s">
+      <c r="Q28" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="R28" s="75">
-        <v>5</v>
-      </c>
-      <c r="S28" s="75">
-        <v>5</v>
-      </c>
-      <c r="T28" s="75">
-        <v>5</v>
-      </c>
-      <c r="U28" s="75">
-        <v>5</v>
-      </c>
-      <c r="V28" s="75">
-        <v>0</v>
-      </c>
-      <c r="W28" s="75">
-        <v>1</v>
-      </c>
-      <c r="X28" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="75">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="75">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="74" t="s">
+      <c r="R28" s="55">
+        <v>5</v>
+      </c>
+      <c r="S28" s="55">
+        <v>5</v>
+      </c>
+      <c r="T28" s="55">
+        <v>5</v>
+      </c>
+      <c r="U28" s="55">
+        <v>5</v>
+      </c>
+      <c r="V28" s="55">
+        <v>0</v>
+      </c>
+      <c r="W28" s="55">
+        <v>1</v>
+      </c>
+      <c r="X28" s="55">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="55">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="55">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="54" t="s">
         <v>135</v>
       </c>
       <c r="AC28" s="19" t="s">
@@ -7004,19 +7009,19 @@
       <c r="AM28" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AN28" s="78" t="s">
+      <c r="AN28" s="58" t="s">
         <v>137</v>
       </c>
       <c r="AO28" s="20">
         <v>0</v>
       </c>
-      <c r="AP28" s="74" t="s">
+      <c r="AP28" s="54" t="s">
         <v>136</v>
       </c>
       <c r="AQ28" s="20">
         <v>0</v>
       </c>
-      <c r="AR28" s="74" t="s">
+      <c r="AR28" s="54" t="s">
         <v>135</v>
       </c>
       <c r="AS28" s="20">
@@ -7040,7 +7045,7 @@
       <c r="AY28" s="20">
         <v>0</v>
       </c>
-      <c r="AZ28" s="74" t="s">
+      <c r="AZ28" s="54" t="s">
         <v>135</v>
       </c>
       <c r="BA28" s="20">
@@ -7064,10 +7069,10 @@
       <c r="BG28" s="20">
         <v>5</v>
       </c>
-      <c r="BH28" s="75">
-        <v>5</v>
-      </c>
-      <c r="BI28" s="75">
+      <c r="BH28" s="55">
+        <v>5</v>
+      </c>
+      <c r="BI28" s="55">
         <v>5</v>
       </c>
       <c r="BJ28" s="20">
@@ -7101,7 +7106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17">
         <v>17</v>
       </c>
@@ -7110,11 +7115,11 @@
       <c r="D29" s="20"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="57"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="37"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
@@ -7143,7 +7148,7 @@
       <c r="AK29" s="20"/>
       <c r="AL29" s="20"/>
       <c r="AM29" s="20"/>
-      <c r="AN29" s="77"/>
+      <c r="AN29" s="57"/>
       <c r="AO29" s="20"/>
       <c r="AP29" s="19"/>
       <c r="AQ29" s="20"/>
@@ -7176,7 +7181,7 @@
       <c r="BR29" s="20"/>
       <c r="BS29" s="21"/>
     </row>
-    <row r="30" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17">
         <v>18</v>
       </c>
@@ -7185,11 +7190,11 @@
       <c r="D30" s="20"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="57"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="37"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
@@ -7218,7 +7223,7 @@
       <c r="AK30" s="20"/>
       <c r="AL30" s="20"/>
       <c r="AM30" s="20"/>
-      <c r="AN30" s="77"/>
+      <c r="AN30" s="57"/>
       <c r="AO30" s="20"/>
       <c r="AP30" s="19"/>
       <c r="AQ30" s="20"/>
@@ -7251,7 +7256,7 @@
       <c r="BR30" s="20"/>
       <c r="BS30" s="21"/>
     </row>
-    <row r="31" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17">
         <v>19</v>
       </c>
@@ -7260,11 +7265,11 @@
       <c r="D31" s="20"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="57"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="37"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
@@ -7293,7 +7298,7 @@
       <c r="AK31" s="20"/>
       <c r="AL31" s="20"/>
       <c r="AM31" s="20"/>
-      <c r="AN31" s="77"/>
+      <c r="AN31" s="57"/>
       <c r="AO31" s="20"/>
       <c r="AP31" s="19"/>
       <c r="AQ31" s="20"/>
@@ -7326,7 +7331,7 @@
       <c r="BR31" s="20"/>
       <c r="BS31" s="21"/>
     </row>
-    <row r="32" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17">
         <v>20</v>
       </c>
@@ -7335,11 +7340,11 @@
       <c r="D32" s="20"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="57"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="37"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
@@ -7368,7 +7373,7 @@
       <c r="AK32" s="20"/>
       <c r="AL32" s="20"/>
       <c r="AM32" s="20"/>
-      <c r="AN32" s="77"/>
+      <c r="AN32" s="57"/>
       <c r="AO32" s="20"/>
       <c r="AP32" s="19"/>
       <c r="AQ32" s="20"/>
@@ -7401,7 +7406,7 @@
       <c r="BR32" s="20"/>
       <c r="BS32" s="21"/>
     </row>
-    <row r="33" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17">
         <v>21</v>
       </c>
@@ -7410,11 +7415,11 @@
       <c r="D33" s="20"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="57"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="37"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
@@ -7443,7 +7448,7 @@
       <c r="AK33" s="20"/>
       <c r="AL33" s="20"/>
       <c r="AM33" s="20"/>
-      <c r="AN33" s="77"/>
+      <c r="AN33" s="57"/>
       <c r="AO33" s="20"/>
       <c r="AP33" s="19"/>
       <c r="AQ33" s="20"/>
@@ -7476,7 +7481,7 @@
       <c r="BR33" s="20"/>
       <c r="BS33" s="21"/>
     </row>
-    <row r="34" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17">
         <v>22</v>
       </c>
@@ -7485,11 +7490,11 @@
       <c r="D34" s="20"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="57"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="37"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
@@ -7518,7 +7523,7 @@
       <c r="AK34" s="20"/>
       <c r="AL34" s="20"/>
       <c r="AM34" s="20"/>
-      <c r="AN34" s="77"/>
+      <c r="AN34" s="57"/>
       <c r="AO34" s="20"/>
       <c r="AP34" s="19"/>
       <c r="AQ34" s="20"/>
@@ -7551,7 +7556,7 @@
       <c r="BR34" s="20"/>
       <c r="BS34" s="21"/>
     </row>
-    <row r="35" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17">
         <v>23</v>
       </c>
@@ -7560,11 +7565,11 @@
       <c r="D35" s="20"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="57"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="37"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
@@ -7593,7 +7598,7 @@
       <c r="AK35" s="20"/>
       <c r="AL35" s="20"/>
       <c r="AM35" s="20"/>
-      <c r="AN35" s="77"/>
+      <c r="AN35" s="57"/>
       <c r="AO35" s="20"/>
       <c r="AP35" s="19"/>
       <c r="AQ35" s="20"/>
@@ -7626,7 +7631,7 @@
       <c r="BR35" s="20"/>
       <c r="BS35" s="21"/>
     </row>
-    <row r="36" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17">
         <v>24</v>
       </c>
@@ -7635,11 +7640,11 @@
       <c r="D36" s="20"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="57"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="37"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
@@ -7668,7 +7673,7 @@
       <c r="AK36" s="20"/>
       <c r="AL36" s="20"/>
       <c r="AM36" s="20"/>
-      <c r="AN36" s="77"/>
+      <c r="AN36" s="57"/>
       <c r="AO36" s="20"/>
       <c r="AP36" s="19"/>
       <c r="AQ36" s="20"/>
@@ -7701,7 +7706,7 @@
       <c r="BR36" s="20"/>
       <c r="BS36" s="21"/>
     </row>
-    <row r="37" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:71" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17">
         <v>25</v>
       </c>
@@ -7710,11 +7715,11 @@
       <c r="D37" s="20"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="57"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="37"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
@@ -7743,7 +7748,7 @@
       <c r="AK37" s="20"/>
       <c r="AL37" s="20"/>
       <c r="AM37" s="20"/>
-      <c r="AN37" s="77"/>
+      <c r="AN37" s="57"/>
       <c r="AO37" s="20"/>
       <c r="AP37" s="19"/>
       <c r="AQ37" s="20"/>
@@ -7783,11 +7788,11 @@
       <c r="D38" s="28"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="58"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="38"/>
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
@@ -7816,7 +7821,7 @@
       <c r="AK38" s="28"/>
       <c r="AL38" s="28"/>
       <c r="AM38" s="28"/>
-      <c r="AN38" s="79"/>
+      <c r="AN38" s="59"/>
       <c r="AO38" s="28"/>
       <c r="AP38" s="27"/>
       <c r="AQ38" s="28"/>
@@ -7851,16 +7856,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="BQ11:BS11"/>
-    <mergeCell ref="BO11:BP11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="BD11:BN11"/>
     <mergeCell ref="J11:P11"/>
@@ -7877,6 +7872,16 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="BQ11:BS11"/>
+    <mergeCell ref="BO11:BP11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="10">
@@ -7925,75 +7930,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.75" style="30" customWidth="1"/>
+    <col min="1" max="256" width="8.6640625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -8016,75 +8021,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.75" style="32" customWidth="1"/>
+    <col min="1" max="256" width="8.6640625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="5900" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="1020" yWindow="6080" windowWidth="25600" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="197">
   <si>
     <t>是否型问题：</t>
   </si>
@@ -756,6 +756,64 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <rPh sb="0" eb="1">
+      <t>bei j</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修</t>
+    <rPh sb="0" eb="1">
+      <t>bao xiu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1639,55 +1697,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,6 +1723,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1712,6 +1743,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2906,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FY150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="BS41" sqref="BS41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="BT44" sqref="BT44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3138,14 +3196,14 @@
         <v>7</v>
       </c>
       <c r="E3" s="72"/>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="97" t="s">
+      <c r="G3" s="90"/>
+      <c r="H3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="96"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="55"/>
       <c r="K3" s="55"/>
       <c r="L3" s="3"/>
@@ -3222,11 +3280,11 @@
       <c r="E4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="96"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="56"/>
       <c r="J4" s="55"/>
       <c r="K4" s="55"/>
@@ -3455,11 +3513,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="72"/>
-      <c r="C7" s="83"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
@@ -3535,9 +3593,9 @@
         <v>21</v>
       </c>
       <c r="B8" s="72"/>
-      <c r="C8" s="75"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="72"/>
-      <c r="E8" s="75"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="2"/>
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
@@ -3611,7 +3669,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="72"/>
-      <c r="C9" s="81"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3762,96 +3820,96 @@
     </row>
     <row r="11" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="76" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="79" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="89" t="s">
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
       <c r="O11" s="77"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="76" t="s">
+      <c r="P11" s="74"/>
+      <c r="Q11" s="79" t="s">
         <v>28</v>
       </c>
       <c r="R11" s="77"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="84" t="s">
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="85"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="85"/>
-      <c r="AM11" s="85"/>
-      <c r="AN11" s="86"/>
-      <c r="AO11" s="92" t="s">
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="96"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="93"/>
-      <c r="AW11" s="93"/>
-      <c r="AX11" s="93"/>
-      <c r="AY11" s="93"/>
-      <c r="AZ11" s="93"/>
-      <c r="BA11" s="93"/>
-      <c r="BB11" s="94"/>
-      <c r="BC11" s="89" t="s">
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="84"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="84"/>
+      <c r="BA11" s="84"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="BD11" s="88"/>
-      <c r="BE11" s="87" t="s">
+      <c r="BD11" s="75"/>
+      <c r="BE11" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="BF11" s="78"/>
-      <c r="BG11" s="78"/>
-      <c r="BH11" s="88"/>
-      <c r="BI11" s="79"/>
-      <c r="BJ11" s="79"/>
-      <c r="BK11" s="79"/>
+      <c r="BF11" s="74"/>
+      <c r="BG11" s="74"/>
+      <c r="BH11" s="75"/>
+      <c r="BI11" s="76"/>
+      <c r="BJ11" s="76"/>
+      <c r="BK11" s="76"/>
       <c r="BL11" s="77"/>
-      <c r="BM11" s="78"/>
-      <c r="BN11" s="78"/>
-      <c r="BO11" s="78"/>
-      <c r="BP11" s="80" t="s">
+      <c r="BM11" s="74"/>
+      <c r="BN11" s="74"/>
+      <c r="BO11" s="74"/>
+      <c r="BP11" s="92" t="s">
         <v>33</v>
       </c>
       <c r="BQ11" s="77"/>
-      <c r="BR11" s="76" t="s">
+      <c r="BR11" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="BS11" s="79"/>
+      <c r="BS11" s="76"/>
       <c r="BT11" s="77"/>
     </row>
     <row r="12" spans="1:72" s="48" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.2">
@@ -10719,7 +10777,7 @@
       <c r="FX41" s="31"/>
       <c r="FY41" s="31"/>
     </row>
-    <row r="42" spans="1:181" ht="28" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:181" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="62">
         <v>28</v>
       </c>
@@ -11046,81 +11104,223 @@
       <c r="FX42" s="31"/>
       <c r="FY42" s="31"/>
     </row>
-    <row r="43" spans="1:181" x14ac:dyDescent="0.15">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
+    <row r="43" spans="1:181" ht="28" x14ac:dyDescent="0.15">
+      <c r="A43" s="62">
+        <v>29</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="65">
+        <v>1299</v>
+      </c>
       <c r="E43" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="65"/>
-      <c r="S43" s="65"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="65"/>
-      <c r="V43" s="65"/>
-      <c r="W43" s="65"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="68"/>
-      <c r="AE43" s="67"/>
-      <c r="AF43" s="68"/>
-      <c r="AG43" s="68"/>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="68"/>
-      <c r="AL43" s="68"/>
-      <c r="AM43" s="68"/>
-      <c r="AN43" s="68"/>
-      <c r="AO43" s="69"/>
-      <c r="AP43" s="65"/>
-      <c r="AQ43" s="64"/>
-      <c r="AR43" s="65"/>
-      <c r="AS43" s="64"/>
-      <c r="AT43" s="65"/>
-      <c r="AU43" s="65"/>
-      <c r="AV43" s="65"/>
-      <c r="AW43" s="65"/>
-      <c r="AX43" s="65"/>
-      <c r="AY43" s="65"/>
-      <c r="AZ43" s="65"/>
-      <c r="BA43" s="64"/>
-      <c r="BB43" s="65"/>
-      <c r="BC43" s="65"/>
-      <c r="BD43" s="65"/>
-      <c r="BE43" s="65"/>
-      <c r="BF43" s="65"/>
-      <c r="BG43" s="65"/>
-      <c r="BH43" s="65"/>
-      <c r="BI43" s="65"/>
-      <c r="BJ43" s="65"/>
-      <c r="BK43" s="65"/>
-      <c r="BL43" s="65"/>
-      <c r="BM43" s="65"/>
-      <c r="BN43" s="65"/>
-      <c r="BO43" s="64"/>
-      <c r="BP43" s="65"/>
-      <c r="BQ43" s="65"/>
-      <c r="BR43" s="65"/>
-      <c r="BS43" s="65"/>
-      <c r="BT43" s="70"/>
+      <c r="F43" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="66">
+        <v>42750.931944444441</v>
+      </c>
+      <c r="H43" s="66">
+        <v>42745.375</v>
+      </c>
+      <c r="I43" s="66">
+        <v>42745.416666666664</v>
+      </c>
+      <c r="J43" s="66">
+        <v>42746.375</v>
+      </c>
+      <c r="K43" s="66">
+        <v>42748.75</v>
+      </c>
+      <c r="L43" s="65">
+        <v>1</v>
+      </c>
+      <c r="M43" s="65">
+        <v>1</v>
+      </c>
+      <c r="N43" s="65">
+        <v>5</v>
+      </c>
+      <c r="O43" s="65">
+        <v>1</v>
+      </c>
+      <c r="P43" s="65">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="R43" s="65">
+        <v>5</v>
+      </c>
+      <c r="S43" s="65">
+        <v>5</v>
+      </c>
+      <c r="T43" s="65">
+        <v>5</v>
+      </c>
+      <c r="U43" s="65">
+        <v>5</v>
+      </c>
+      <c r="V43" s="65">
+        <v>0</v>
+      </c>
+      <c r="W43" s="65">
+        <v>1</v>
+      </c>
+      <c r="X43" s="65">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO43" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR43" s="65">
+        <v>-1</v>
+      </c>
+      <c r="AS43" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT43" s="65">
+        <v>3</v>
+      </c>
+      <c r="AU43" s="65">
+        <v>3</v>
+      </c>
+      <c r="AV43" s="65">
+        <v>2</v>
+      </c>
+      <c r="AW43" s="65">
+        <v>3</v>
+      </c>
+      <c r="AX43" s="65">
+        <v>3</v>
+      </c>
+      <c r="AY43" s="65">
+        <v>3</v>
+      </c>
+      <c r="AZ43" s="65">
+        <v>1</v>
+      </c>
+      <c r="BA43" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB43" s="65">
+        <v>3</v>
+      </c>
+      <c r="BC43" s="65">
+        <v>2</v>
+      </c>
+      <c r="BD43" s="65">
+        <v>2</v>
+      </c>
+      <c r="BE43" s="65">
+        <v>4</v>
+      </c>
+      <c r="BF43" s="65">
+        <v>4</v>
+      </c>
+      <c r="BG43" s="65">
+        <v>4</v>
+      </c>
+      <c r="BH43" s="65">
+        <v>4</v>
+      </c>
+      <c r="BI43" s="65">
+        <v>4</v>
+      </c>
+      <c r="BJ43" s="65">
+        <v>3</v>
+      </c>
+      <c r="BK43" s="65">
+        <v>2</v>
+      </c>
+      <c r="BL43" s="65">
+        <v>2</v>
+      </c>
+      <c r="BM43" s="65">
+        <v>2</v>
+      </c>
+      <c r="BN43" s="65">
+        <v>3</v>
+      </c>
+      <c r="BO43" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP43" s="65">
+        <v>4</v>
+      </c>
+      <c r="BQ43" s="65">
+        <v>2</v>
+      </c>
+      <c r="BR43" s="65">
+        <v>1</v>
+      </c>
+      <c r="BS43" s="65">
+        <v>1</v>
+      </c>
+      <c r="BT43" s="70">
+        <v>1</v>
+      </c>
       <c r="BU43" s="31"/>
       <c r="BV43" s="31"/>
       <c r="BW43" s="31"/>
@@ -11231,81 +11431,223 @@
       <c r="FX43" s="31"/>
       <c r="FY43" s="31"/>
     </row>
-    <row r="44" spans="1:181" x14ac:dyDescent="0.15">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
+    <row r="44" spans="1:181" ht="28" x14ac:dyDescent="0.15">
+      <c r="A44" s="62">
+        <v>30</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="65">
+        <v>1299</v>
+      </c>
       <c r="E44" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="65"/>
-      <c r="U44" s="65"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="67"/>
-      <c r="AC44" s="68"/>
-      <c r="AD44" s="68"/>
-      <c r="AE44" s="67"/>
-      <c r="AF44" s="68"/>
-      <c r="AG44" s="68"/>
-      <c r="AH44" s="67"/>
-      <c r="AI44" s="68"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="68"/>
-      <c r="AL44" s="68"/>
-      <c r="AM44" s="68"/>
-      <c r="AN44" s="68"/>
-      <c r="AO44" s="69"/>
-      <c r="AP44" s="65"/>
-      <c r="AQ44" s="64"/>
-      <c r="AR44" s="65"/>
-      <c r="AS44" s="64"/>
-      <c r="AT44" s="65"/>
-      <c r="AU44" s="65"/>
-      <c r="AV44" s="65"/>
-      <c r="AW44" s="65"/>
-      <c r="AX44" s="65"/>
-      <c r="AY44" s="65"/>
-      <c r="AZ44" s="65"/>
-      <c r="BA44" s="64"/>
-      <c r="BB44" s="65"/>
-      <c r="BC44" s="65"/>
-      <c r="BD44" s="65"/>
-      <c r="BE44" s="65"/>
-      <c r="BF44" s="65"/>
-      <c r="BG44" s="65"/>
-      <c r="BH44" s="65"/>
-      <c r="BI44" s="65"/>
-      <c r="BJ44" s="65"/>
-      <c r="BK44" s="65"/>
-      <c r="BL44" s="65"/>
-      <c r="BM44" s="65"/>
-      <c r="BN44" s="65"/>
-      <c r="BO44" s="64"/>
-      <c r="BP44" s="65"/>
-      <c r="BQ44" s="65"/>
-      <c r="BR44" s="65"/>
-      <c r="BS44" s="65"/>
-      <c r="BT44" s="70"/>
+      <c r="F44" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="66">
+        <v>42707.661111111112</v>
+      </c>
+      <c r="H44" s="66">
+        <v>42685</v>
+      </c>
+      <c r="I44" s="66">
+        <v>42685.75</v>
+      </c>
+      <c r="J44" s="66">
+        <v>42687.416666666664</v>
+      </c>
+      <c r="K44" s="66">
+        <v>42694.375</v>
+      </c>
+      <c r="L44" s="65">
+        <v>0</v>
+      </c>
+      <c r="M44" s="65">
+        <v>1</v>
+      </c>
+      <c r="N44" s="65">
+        <v>4</v>
+      </c>
+      <c r="O44" s="65">
+        <v>1</v>
+      </c>
+      <c r="P44" s="65">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="R44" s="65">
+        <v>5</v>
+      </c>
+      <c r="S44" s="65">
+        <v>5</v>
+      </c>
+      <c r="T44" s="65">
+        <v>5</v>
+      </c>
+      <c r="U44" s="65">
+        <v>5</v>
+      </c>
+      <c r="V44" s="65">
+        <v>0</v>
+      </c>
+      <c r="W44" s="65">
+        <v>1</v>
+      </c>
+      <c r="X44" s="65">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="65">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="65">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="67">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD44" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE44" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG44" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH44" s="67">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ44" s="67">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL44" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM44" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN44" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO44" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP44" s="65">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR44" s="65">
+        <v>-1</v>
+      </c>
+      <c r="AS44" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT44" s="65">
+        <v>2</v>
+      </c>
+      <c r="AU44" s="65">
+        <v>3</v>
+      </c>
+      <c r="AV44" s="65">
+        <v>2</v>
+      </c>
+      <c r="AW44" s="65">
+        <v>4</v>
+      </c>
+      <c r="AX44" s="65">
+        <v>4</v>
+      </c>
+      <c r="AY44" s="65">
+        <v>4</v>
+      </c>
+      <c r="AZ44" s="65">
+        <v>1</v>
+      </c>
+      <c r="BA44" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="BB44" s="65">
+        <v>3</v>
+      </c>
+      <c r="BC44" s="65">
+        <v>1</v>
+      </c>
+      <c r="BD44" s="65">
+        <v>1</v>
+      </c>
+      <c r="BE44" s="65">
+        <v>4</v>
+      </c>
+      <c r="BF44" s="65">
+        <v>1</v>
+      </c>
+      <c r="BG44" s="65">
+        <v>4</v>
+      </c>
+      <c r="BH44" s="65">
+        <v>3</v>
+      </c>
+      <c r="BI44" s="65">
+        <v>4</v>
+      </c>
+      <c r="BJ44" s="65">
+        <v>5</v>
+      </c>
+      <c r="BK44" s="65">
+        <v>1</v>
+      </c>
+      <c r="BL44" s="65">
+        <v>2</v>
+      </c>
+      <c r="BM44" s="65">
+        <v>2</v>
+      </c>
+      <c r="BN44" s="65">
+        <v>3</v>
+      </c>
+      <c r="BO44" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP44" s="65">
+        <v>3</v>
+      </c>
+      <c r="BQ44" s="65">
+        <v>1</v>
+      </c>
+      <c r="BR44" s="65">
+        <v>2</v>
+      </c>
+      <c r="BS44" s="65">
+        <v>3</v>
+      </c>
+      <c r="BT44" s="70">
+        <v>1</v>
+      </c>
       <c r="BU44" s="31"/>
       <c r="BV44" s="31"/>
       <c r="BW44" s="31"/>
@@ -31028,6 +31370,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="BR11:BT11"/>
+    <mergeCell ref="BP11:BQ11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="Y11:AN11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="BE11:BO11"/>
     <mergeCell ref="J11:P11"/>
@@ -31044,16 +31396,6 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="BR11:BT11"/>
-    <mergeCell ref="BP11:BQ11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="Y11:AN11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="7280" windowWidth="25600" windowHeight="13560"/>
+    <workbookView xWindow="2720" yWindow="7540" windowWidth="25600" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="263">
   <si>
     <t>是否型问题：</t>
   </si>
@@ -980,6 +980,29 @@
     <t>4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <rPh sb="0" eb="1">
+      <t>guang d</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/12/03 09:38</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1847,53 +1870,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1907,7 +1888,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1925,8 +1927,29 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2273,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FX147"/>
+  <dimension ref="A1:FX146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW54" zoomScale="85" workbookViewId="0">
-      <selection activeCell="BL62" sqref="BL62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2330,10 +2353,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="72"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2409,11 +2432,11 @@
       <c r="BS1" s="5"/>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
@@ -2486,25 +2509,25 @@
       <c r="BS2" s="5"/>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="72"/>
+      <c r="A3" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="78"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="89" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="96" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="95"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="5"/>
@@ -2569,22 +2592,22 @@
       <c r="BS3" s="5"/>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="A4" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="95"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="9"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -2650,11 +2673,11 @@
       <c r="BS4" s="5"/>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
@@ -2731,12 +2754,12 @@
       <c r="BS5" s="5"/>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
@@ -2806,15 +2829,15 @@
       <c r="BS6" s="5"/>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="71" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="93"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
@@ -2885,13 +2908,13 @@
       <c r="BS7" s="5"/>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="91"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2960,11 +2983,11 @@
       <c r="BS8" s="5"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
@@ -3113,96 +3136,96 @@
     </row>
     <row r="11" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="74" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="83" t="s">
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="74" t="s">
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="76"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="77" t="s">
+      <c r="R11" s="79"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="84" t="s">
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="85"/>
-      <c r="AT11" s="85"/>
-      <c r="AU11" s="85"/>
-      <c r="AV11" s="85"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="85"/>
-      <c r="AY11" s="85"/>
-      <c r="AZ11" s="85"/>
-      <c r="BA11" s="85"/>
-      <c r="BB11" s="86"/>
-      <c r="BC11" s="83" t="s">
+      <c r="AP11" s="95"/>
+      <c r="AQ11" s="95"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="95"/>
+      <c r="AT11" s="95"/>
+      <c r="AU11" s="95"/>
+      <c r="AV11" s="95"/>
+      <c r="AW11" s="95"/>
+      <c r="AX11" s="95"/>
+      <c r="AY11" s="95"/>
+      <c r="AZ11" s="95"/>
+      <c r="BA11" s="95"/>
+      <c r="BB11" s="96"/>
+      <c r="BC11" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="BD11" s="82"/>
-      <c r="BE11" s="80" t="s">
+      <c r="BD11" s="83"/>
+      <c r="BE11" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="BF11" s="81"/>
-      <c r="BG11" s="81"/>
-      <c r="BH11" s="82"/>
-      <c r="BI11" s="75"/>
-      <c r="BJ11" s="75"/>
-      <c r="BK11" s="75"/>
-      <c r="BL11" s="76"/>
-      <c r="BM11" s="81"/>
-      <c r="BN11" s="81"/>
-      <c r="BO11" s="81"/>
-      <c r="BP11" s="97" t="s">
+      <c r="BF11" s="80"/>
+      <c r="BG11" s="80"/>
+      <c r="BH11" s="83"/>
+      <c r="BI11" s="84"/>
+      <c r="BJ11" s="84"/>
+      <c r="BK11" s="84"/>
+      <c r="BL11" s="79"/>
+      <c r="BM11" s="80"/>
+      <c r="BN11" s="80"/>
+      <c r="BO11" s="80"/>
+      <c r="BP11" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="BQ11" s="74" t="s">
+      <c r="BQ11" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="BR11" s="75"/>
-      <c r="BS11" s="76"/>
+      <c r="BR11" s="84"/>
+      <c r="BS11" s="79"/>
     </row>
     <row r="12" spans="1:71" s="17" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
@@ -13761,7 +13784,7 @@
       <c r="FW52" s="3"/>
       <c r="FX52" s="3"/>
     </row>
-    <row r="53" spans="1:180" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="53">
         <v>41</v>
       </c>
@@ -14085,227 +14108,336 @@
       <c r="FW53" s="3"/>
       <c r="FX53" s="3"/>
     </row>
-    <row r="54" spans="1:180" s="17" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="J54" s="23" t="s">
+    <row r="54" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+      <c r="A54" s="53">
         <v>42</v>
       </c>
-      <c r="K54" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L54" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N54" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="O54" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="P54" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q54" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="R54" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="S54" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="T54" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="U54" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="V54" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="W54" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="X54" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y54" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z54" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA54" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB54" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC54" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD54" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE54" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF54" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG54" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH54" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI54" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ54" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK54" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL54" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM54" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN54" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO54" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP54" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ54" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR54" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS54" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT54" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU54" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV54" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW54" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX54" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY54" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ54" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA54" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB54" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC54" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD54" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="BE54" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="BF54" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG54" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="BH54" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI54" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ54" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK54" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL54" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="BM54" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="BN54" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="BO54" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="BP54" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="BQ54" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR54" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="BS54" s="30" t="s">
-        <v>102</v>
-      </c>
+      <c r="B54" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="56">
+        <v>1299</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="57">
+        <v>42740.818055555559</v>
+      </c>
+      <c r="H54" s="57">
+        <v>43099.375</v>
+      </c>
+      <c r="I54" s="57">
+        <v>43099.416666666664</v>
+      </c>
+      <c r="J54" s="57">
+        <v>43100.75</v>
+      </c>
+      <c r="K54" s="57">
+        <v>42739.375</v>
+      </c>
+      <c r="L54" s="56">
+        <v>1</v>
+      </c>
+      <c r="M54" s="56">
+        <v>1</v>
+      </c>
+      <c r="N54" s="56">
+        <v>5</v>
+      </c>
+      <c r="O54" s="56">
+        <v>1</v>
+      </c>
+      <c r="P54" s="56">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="R54" s="56">
+        <v>5</v>
+      </c>
+      <c r="S54" s="56">
+        <v>5</v>
+      </c>
+      <c r="T54" s="56">
+        <v>5</v>
+      </c>
+      <c r="U54" s="56">
+        <v>5</v>
+      </c>
+      <c r="V54" s="56">
+        <v>0</v>
+      </c>
+      <c r="W54" s="56">
+        <v>1</v>
+      </c>
+      <c r="X54" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="56">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="56">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="41">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD54" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE54" s="41">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG54" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH54" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ54" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL54" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM54" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN54" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO54" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP54" s="41">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR54" s="41">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT54" s="56">
+        <v>3</v>
+      </c>
+      <c r="AU54" s="56">
+        <v>3</v>
+      </c>
+      <c r="AV54" s="56">
+        <v>3</v>
+      </c>
+      <c r="AW54" s="56">
+        <v>3</v>
+      </c>
+      <c r="AX54" s="56">
+        <v>3</v>
+      </c>
+      <c r="AY54" s="56">
+        <v>3</v>
+      </c>
+      <c r="AZ54" s="56">
+        <v>0</v>
+      </c>
+      <c r="BA54" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB54" s="56">
+        <v>3</v>
+      </c>
+      <c r="BC54" s="56">
+        <v>2</v>
+      </c>
+      <c r="BD54" s="56">
+        <v>4</v>
+      </c>
+      <c r="BE54" s="56">
+        <v>3</v>
+      </c>
+      <c r="BF54" s="56">
+        <v>4</v>
+      </c>
+      <c r="BG54" s="56">
+        <v>2</v>
+      </c>
+      <c r="BH54" s="56">
+        <v>4</v>
+      </c>
+      <c r="BI54" s="56">
+        <v>5</v>
+      </c>
+      <c r="BJ54" s="56">
+        <v>1</v>
+      </c>
+      <c r="BK54" s="56">
+        <v>3</v>
+      </c>
+      <c r="BL54" s="56">
+        <v>3</v>
+      </c>
+      <c r="BM54" s="56">
+        <v>2</v>
+      </c>
+      <c r="BN54" s="56">
+        <v>3</v>
+      </c>
+      <c r="BO54" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP54" s="56">
+        <v>3</v>
+      </c>
+      <c r="BQ54" s="56">
+        <v>2</v>
+      </c>
+      <c r="BR54" s="56">
+        <v>2</v>
+      </c>
+      <c r="BS54" s="58">
+        <v>2</v>
+      </c>
+      <c r="BT54" s="3"/>
+      <c r="BU54" s="3"/>
+      <c r="BV54" s="3"/>
+      <c r="BW54" s="3"/>
+      <c r="BX54" s="3"/>
+      <c r="BY54" s="3"/>
+      <c r="BZ54" s="3"/>
+      <c r="CA54" s="3"/>
+      <c r="CB54" s="3"/>
+      <c r="CC54" s="3"/>
+      <c r="CD54" s="3"/>
+      <c r="CE54" s="3"/>
+      <c r="CF54" s="3"/>
+      <c r="CG54" s="3"/>
+      <c r="CH54" s="3"/>
+      <c r="CI54" s="3"/>
+      <c r="CJ54" s="3"/>
+      <c r="CK54" s="3"/>
+      <c r="CL54" s="3"/>
+      <c r="CM54" s="3"/>
+      <c r="CN54" s="3"/>
+      <c r="CO54" s="3"/>
+      <c r="CP54" s="3"/>
+      <c r="CQ54" s="3"/>
+      <c r="CR54" s="3"/>
+      <c r="CS54" s="3"/>
+      <c r="CT54" s="3"/>
+      <c r="CU54" s="3"/>
+      <c r="CV54" s="3"/>
+      <c r="CW54" s="3"/>
+      <c r="CX54" s="3"/>
+      <c r="CY54" s="3"/>
+      <c r="CZ54" s="3"/>
+      <c r="DA54" s="3"/>
+      <c r="DB54" s="3"/>
+      <c r="DC54" s="3"/>
+      <c r="DD54" s="3"/>
+      <c r="DE54" s="3"/>
+      <c r="DF54" s="3"/>
+      <c r="DG54" s="3"/>
+      <c r="DH54" s="3"/>
+      <c r="DI54" s="3"/>
+      <c r="DJ54" s="3"/>
+      <c r="DK54" s="3"/>
+      <c r="DL54" s="3"/>
+      <c r="DM54" s="3"/>
+      <c r="DN54" s="3"/>
+      <c r="DO54" s="3"/>
+      <c r="DP54" s="3"/>
+      <c r="DQ54" s="3"/>
+      <c r="DR54" s="3"/>
+      <c r="DS54" s="3"/>
+      <c r="DT54" s="3"/>
+      <c r="DU54" s="3"/>
+      <c r="DV54" s="3"/>
+      <c r="DW54" s="3"/>
+      <c r="DX54" s="3"/>
+      <c r="DY54" s="3"/>
+      <c r="DZ54" s="3"/>
+      <c r="EA54" s="3"/>
+      <c r="EB54" s="3"/>
+      <c r="EC54" s="3"/>
+      <c r="ED54" s="3"/>
+      <c r="EE54" s="3"/>
+      <c r="EF54" s="3"/>
+      <c r="EG54" s="3"/>
+      <c r="EH54" s="3"/>
+      <c r="EI54" s="3"/>
+      <c r="EJ54" s="3"/>
+      <c r="EK54" s="3"/>
+      <c r="EL54" s="3"/>
+      <c r="EM54" s="3"/>
+      <c r="EN54" s="3"/>
+      <c r="EO54" s="3"/>
+      <c r="EP54" s="3"/>
+      <c r="EQ54" s="3"/>
+      <c r="ER54" s="3"/>
+      <c r="ES54" s="3"/>
+      <c r="ET54" s="3"/>
+      <c r="EU54" s="3"/>
+      <c r="EV54" s="3"/>
+      <c r="EW54" s="3"/>
+      <c r="EX54" s="3"/>
+      <c r="EY54" s="3"/>
+      <c r="EZ54" s="3"/>
+      <c r="FA54" s="3"/>
+      <c r="FB54" s="3"/>
+      <c r="FC54" s="3"/>
+      <c r="FD54" s="3"/>
+      <c r="FE54" s="3"/>
+      <c r="FF54" s="3"/>
+      <c r="FG54" s="3"/>
+      <c r="FH54" s="3"/>
+      <c r="FI54" s="3"/>
+      <c r="FJ54" s="3"/>
+      <c r="FK54" s="3"/>
+      <c r="FL54" s="3"/>
+      <c r="FM54" s="3"/>
+      <c r="FN54" s="3"/>
+      <c r="FO54" s="3"/>
+      <c r="FP54" s="3"/>
+      <c r="FQ54" s="3"/>
+      <c r="FR54" s="3"/>
+      <c r="FS54" s="3"/>
+      <c r="FT54" s="3"/>
+      <c r="FU54" s="3"/>
+      <c r="FV54" s="3"/>
+      <c r="FW54" s="3"/>
+      <c r="FX54" s="3"/>
     </row>
     <row r="55" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A55" s="53">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C55" s="55" t="s">
         <v>122</v>
@@ -14317,22 +14449,22 @@
         <v>105</v>
       </c>
       <c r="F55" s="55" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G55" s="57">
-        <v>42740.818055555559</v>
+        <v>42755.759722222225</v>
       </c>
       <c r="H55" s="57">
-        <v>43099.375</v>
+        <v>42748.375</v>
       </c>
       <c r="I55" s="57">
-        <v>43099.416666666664</v>
+        <v>42748.416666666664</v>
       </c>
       <c r="J55" s="57">
-        <v>43100.75</v>
+        <v>42749.666666666664</v>
       </c>
       <c r="K55" s="57">
-        <v>42739.375</v>
+        <v>42751.625</v>
       </c>
       <c r="L55" s="56">
         <v>1</v>
@@ -14347,10 +14479,10 @@
         <v>1</v>
       </c>
       <c r="P55" s="56">
-        <v>3</v>
-      </c>
-      <c r="Q55" s="55" t="s">
-        <v>237</v>
+        <v>5</v>
+      </c>
+      <c r="Q55" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="R55" s="56">
         <v>5</v>
@@ -14365,7 +14497,7 @@
         <v>5</v>
       </c>
       <c r="V55" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55" s="56">
         <v>1</v>
@@ -14374,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="56">
         <v>0</v>
@@ -14383,13 +14515,13 @@
         <v>0</v>
       </c>
       <c r="AB55" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="40" t="s">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="AD55" s="40" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="AE55" s="41">
         <v>0</v>
@@ -14413,13 +14545,13 @@
         <v>108</v>
       </c>
       <c r="AL55" s="40" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="AM55" s="40" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="AN55" s="40" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="AO55" s="43" t="s">
         <v>142</v>
@@ -14437,55 +14569,55 @@
         <v>143</v>
       </c>
       <c r="AT55" s="56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU55" s="56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV55" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW55" s="56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX55" s="56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY55" s="56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ55" s="56">
         <v>0</v>
       </c>
       <c r="BA55" s="55" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="BB55" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC55" s="56">
         <v>2</v>
       </c>
       <c r="BD55" s="56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE55" s="56">
         <v>3</v>
       </c>
       <c r="BF55" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG55" s="56">
+        <v>5</v>
+      </c>
+      <c r="BH55" s="56">
+        <v>5</v>
+      </c>
+      <c r="BI55" s="56">
         <v>2</v>
       </c>
-      <c r="BH55" s="56">
-        <v>4</v>
-      </c>
-      <c r="BI55" s="56">
-        <v>5</v>
-      </c>
-      <c r="BJ55" s="56">
-        <v>1</v>
+      <c r="BJ55" s="56" t="s">
+        <v>196</v>
       </c>
       <c r="BK55" s="56">
         <v>3</v>
@@ -14494,7 +14626,7 @@
         <v>3</v>
       </c>
       <c r="BM55" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BN55" s="56">
         <v>3</v>
@@ -14506,13 +14638,13 @@
         <v>3</v>
       </c>
       <c r="BQ55" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR55" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BS55" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT55" s="3"/>
       <c r="BU55" s="3"/>
@@ -14626,13 +14758,13 @@
     </row>
     <row r="56" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="53">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D56" s="56">
         <v>1299</v>
@@ -14644,19 +14776,19 @@
         <v>106</v>
       </c>
       <c r="G56" s="57">
-        <v>42755.759722222225</v>
+        <v>42737.700694444444</v>
       </c>
       <c r="H56" s="57">
-        <v>42748.375</v>
+        <v>43095.375</v>
       </c>
       <c r="I56" s="57">
-        <v>42748.416666666664</v>
+        <v>43095.791666666664</v>
       </c>
       <c r="J56" s="57">
-        <v>42749.666666666664</v>
+        <v>43096.375</v>
       </c>
       <c r="K56" s="57">
-        <v>42751.625</v>
+        <v>43098.75</v>
       </c>
       <c r="L56" s="56">
         <v>1</v>
@@ -14671,79 +14803,79 @@
         <v>1</v>
       </c>
       <c r="P56" s="56">
-        <v>5</v>
-      </c>
-      <c r="Q56" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="R56" s="56">
-        <v>5</v>
-      </c>
-      <c r="S56" s="56">
-        <v>5</v>
-      </c>
-      <c r="T56" s="56">
-        <v>5</v>
-      </c>
-      <c r="U56" s="56">
-        <v>5</v>
-      </c>
-      <c r="V56" s="56">
-        <v>1</v>
-      </c>
-      <c r="W56" s="56">
-        <v>1</v>
-      </c>
-      <c r="X56" s="56">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q56" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="R56" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="S56" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="T56" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="U56" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="V56" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="W56" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="X56" s="56" t="s">
+        <v>203</v>
       </c>
       <c r="Y56" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56" s="56">
         <v>0</v>
       </c>
-      <c r="AA56" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="41">
-        <v>0</v>
+      <c r="AA56" s="56">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="59">
+        <v>1</v>
       </c>
       <c r="AC56" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD56" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE56" s="41">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG56" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH56" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ56" s="41">
-        <v>0</v>
-      </c>
-      <c r="AK56" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL56" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM56" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN56" s="40" t="s">
-        <v>108</v>
+        <v>240</v>
+      </c>
+      <c r="AD56" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE56" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG56" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH56" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ56" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL56" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM56" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN56" s="60" t="s">
+        <v>249</v>
       </c>
       <c r="AO56" s="43" t="s">
         <v>142</v>
@@ -14761,55 +14893,55 @@
         <v>143</v>
       </c>
       <c r="AT56" s="56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU56" s="56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV56" s="56">
+        <v>3</v>
+      </c>
+      <c r="AW56" s="56">
+        <v>3</v>
+      </c>
+      <c r="AX56" s="56">
+        <v>3</v>
+      </c>
+      <c r="AY56" s="56">
+        <v>3</v>
+      </c>
+      <c r="AZ56" s="56">
+        <v>0</v>
+      </c>
+      <c r="BA56" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="BB56" s="56">
+        <v>1</v>
+      </c>
+      <c r="BC56" s="56">
+        <v>1</v>
+      </c>
+      <c r="BD56" s="56">
         <v>2</v>
       </c>
-      <c r="AW56" s="56">
-        <v>5</v>
-      </c>
-      <c r="AX56" s="56">
-        <v>5</v>
-      </c>
-      <c r="AY56" s="56">
-        <v>5</v>
-      </c>
-      <c r="AZ56" s="56">
-        <v>0</v>
-      </c>
-      <c r="BA56" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB56" s="56">
+      <c r="BE56" s="56">
+        <v>2</v>
+      </c>
+      <c r="BF56" s="56">
+        <v>5</v>
+      </c>
+      <c r="BG56" s="56">
+        <v>5</v>
+      </c>
+      <c r="BH56" s="56">
         <v>4</v>
       </c>
-      <c r="BC56" s="56">
-        <v>2</v>
-      </c>
-      <c r="BD56" s="56">
-        <v>3</v>
-      </c>
-      <c r="BE56" s="56">
-        <v>3</v>
-      </c>
-      <c r="BF56" s="56">
-        <v>5</v>
-      </c>
-      <c r="BG56" s="56">
-        <v>5</v>
-      </c>
-      <c r="BH56" s="56">
-        <v>5</v>
-      </c>
       <c r="BI56" s="56">
-        <v>2</v>
-      </c>
-      <c r="BJ56" s="56" t="s">
-        <v>196</v>
+        <v>1</v>
+      </c>
+      <c r="BJ56" s="56">
+        <v>1</v>
       </c>
       <c r="BK56" s="56">
         <v>3</v>
@@ -14818,7 +14950,7 @@
         <v>3</v>
       </c>
       <c r="BM56" s="56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN56" s="56">
         <v>3</v>
@@ -14827,16 +14959,16 @@
         <v>115</v>
       </c>
       <c r="BP56" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ56" s="56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BR56" s="56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS56" s="58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT56" s="3"/>
       <c r="BU56" s="3"/>
@@ -14950,13 +15082,13 @@
     </row>
     <row r="57" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A57" s="53">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D57" s="56">
         <v>1299</v>
@@ -14965,22 +15097,22 @@
         <v>105</v>
       </c>
       <c r="F57" s="55" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G57" s="57">
-        <v>42737.700694444444</v>
+        <v>42748.989583333336</v>
       </c>
       <c r="H57" s="57">
-        <v>43095.375</v>
+        <v>42739.375</v>
       </c>
       <c r="I57" s="57">
-        <v>43095.791666666664</v>
+        <v>42739.397222222222</v>
       </c>
       <c r="J57" s="57">
-        <v>43096.375</v>
+        <v>42740.416666666664</v>
       </c>
       <c r="K57" s="57">
-        <v>43098.75</v>
+        <v>42741.541666666664</v>
       </c>
       <c r="L57" s="56">
         <v>1</v>
@@ -14995,31 +15127,31 @@
         <v>1</v>
       </c>
       <c r="P57" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q57" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="R57" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="S57" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="T57" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="U57" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="V57" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="W57" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="X57" s="56" t="s">
-        <v>203</v>
+        <v>250</v>
+      </c>
+      <c r="R57" s="56">
+        <v>5</v>
+      </c>
+      <c r="S57" s="56">
+        <v>5</v>
+      </c>
+      <c r="T57" s="56">
+        <v>5</v>
+      </c>
+      <c r="U57" s="56">
+        <v>3</v>
+      </c>
+      <c r="V57" s="56">
+        <v>0</v>
+      </c>
+      <c r="W57" s="56">
+        <v>1</v>
+      </c>
+      <c r="X57" s="56">
+        <v>0</v>
       </c>
       <c r="Y57" s="56">
         <v>1</v>
@@ -15027,47 +15159,47 @@
       <c r="Z57" s="56">
         <v>0</v>
       </c>
-      <c r="AA57" s="56">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="59">
+      <c r="AA57" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="41">
         <v>1</v>
       </c>
       <c r="AC57" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="AD57" s="60" t="s">
+      <c r="AD57" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="AE57" s="59">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG57" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH57" s="59">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ57" s="59">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL57" s="60" t="s">
+      <c r="AE57" s="41">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG57" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH57" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ57" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL57" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="AM57" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="AN57" s="60" t="s">
-        <v>249</v>
+      <c r="AM57" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN57" s="40" t="s">
+        <v>213</v>
       </c>
       <c r="AO57" s="43" t="s">
         <v>142</v>
@@ -15106,28 +15238,28 @@
         <v>0</v>
       </c>
       <c r="BA57" s="55" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="BB57" s="56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC57" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD57" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE57" s="56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF57" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG57" s="56">
         <v>5</v>
       </c>
       <c r="BH57" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI57" s="56">
         <v>1</v>
@@ -15142,7 +15274,7 @@
         <v>3</v>
       </c>
       <c r="BM57" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN57" s="56">
         <v>3</v>
@@ -15154,13 +15286,13 @@
         <v>4</v>
       </c>
       <c r="BQ57" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR57" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS57" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT57" s="3"/>
       <c r="BU57" s="3"/>
@@ -15274,10 +15406,10 @@
     </row>
     <row r="58" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A58" s="53">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="C58" s="55" t="s">
         <v>104</v>
@@ -15289,22 +15421,22 @@
         <v>105</v>
       </c>
       <c r="F58" s="55" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="G58" s="57">
-        <v>42748.989583333336</v>
+        <v>42739.859722222223</v>
       </c>
       <c r="H58" s="57">
-        <v>42739.375</v>
+        <v>42732.375</v>
       </c>
       <c r="I58" s="57">
-        <v>42739.397222222222</v>
+        <v>42732.416666666664</v>
       </c>
       <c r="J58" s="57">
-        <v>42740.416666666664</v>
+        <v>42732.583333333336</v>
       </c>
       <c r="K58" s="57">
-        <v>42741.541666666664</v>
+        <v>42733.375</v>
       </c>
       <c r="L58" s="56">
         <v>1</v>
@@ -15321,17 +15453,17 @@
       <c r="P58" s="56">
         <v>5</v>
       </c>
-      <c r="Q58" s="55" t="s">
-        <v>250</v>
+      <c r="Q58" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="R58" s="56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S58" s="56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T58" s="56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U58" s="56">
         <v>3</v>
@@ -15351,46 +15483,46 @@
       <c r="Z58" s="56">
         <v>0</v>
       </c>
-      <c r="AA58" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="41">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD58" s="40" t="s">
+      <c r="AA58" s="56">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD58" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE58" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG58" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="AE58" s="41">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG58" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH58" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ58" s="41">
-        <v>0</v>
-      </c>
-      <c r="AK58" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL58" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM58" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN58" s="40" t="s">
+      <c r="AH58" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ58" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL58" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM58" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN58" s="60" t="s">
         <v>213</v>
       </c>
       <c r="AO58" s="43" t="s">
@@ -15415,37 +15547,37 @@
         <v>3</v>
       </c>
       <c r="AV58" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW58" s="56">
         <v>3</v>
       </c>
       <c r="AX58" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY58" s="56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ58" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA58" s="55" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="BB58" s="56">
         <v>4</v>
       </c>
       <c r="BC58" s="56">
+        <v>1</v>
+      </c>
+      <c r="BD58" s="56">
+        <v>1</v>
+      </c>
+      <c r="BE58" s="56">
         <v>2</v>
       </c>
-      <c r="BD58" s="56">
-        <v>3</v>
-      </c>
-      <c r="BE58" s="56">
-        <v>4</v>
-      </c>
       <c r="BF58" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG58" s="56">
         <v>5</v>
@@ -15454,19 +15586,19 @@
         <v>5</v>
       </c>
       <c r="BI58" s="56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ58" s="56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BK58" s="56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL58" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM58" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN58" s="56">
         <v>3</v>
@@ -15475,7 +15607,7 @@
         <v>115</v>
       </c>
       <c r="BP58" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BQ58" s="56">
         <v>2</v>
@@ -15598,13 +15730,13 @@
     </row>
     <row r="59" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="53">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D59" s="56">
         <v>1299</v>
@@ -15613,22 +15745,22 @@
         <v>105</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="G59" s="57">
-        <v>42739.859722222223</v>
+        <v>42753.328472222223</v>
       </c>
       <c r="H59" s="57">
-        <v>42732.375</v>
+        <v>42746.355555555558</v>
       </c>
       <c r="I59" s="57">
-        <v>42732.416666666664</v>
+        <v>42746.375</v>
       </c>
       <c r="J59" s="57">
-        <v>42732.583333333336</v>
+        <v>42747.606249999997</v>
       </c>
       <c r="K59" s="57">
-        <v>42733.375</v>
+        <v>42749.375</v>
       </c>
       <c r="L59" s="56">
         <v>1</v>
@@ -15649,16 +15781,16 @@
         <v>107</v>
       </c>
       <c r="R59" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S59" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T59" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U59" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V59" s="56">
         <v>0</v>
@@ -15670,52 +15802,52 @@
         <v>0</v>
       </c>
       <c r="Y59" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="56">
         <v>0</v>
       </c>
-      <c r="AA59" s="56">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="59">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD59" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE59" s="59">
-        <v>1</v>
-      </c>
-      <c r="AF59" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG59" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH59" s="59">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ59" s="59">
-        <v>0</v>
-      </c>
-      <c r="AK59" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL59" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM59" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="AN59" s="60" t="s">
-        <v>213</v>
+      <c r="AA59" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD59" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE59" s="41">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG59" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH59" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ59" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL59" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM59" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN59" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="AO59" s="43" t="s">
         <v>142</v>
@@ -15733,40 +15865,40 @@
         <v>143</v>
       </c>
       <c r="AT59" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU59" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV59" s="56">
         <v>2</v>
       </c>
       <c r="AW59" s="56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX59" s="56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY59" s="56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ59" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BB59" s="56">
         <v>4</v>
       </c>
       <c r="BC59" s="56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BD59" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE59" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF59" s="56">
         <v>5</v>
@@ -15778,16 +15910,16 @@
         <v>5</v>
       </c>
       <c r="BI59" s="56">
-        <v>5</v>
-      </c>
-      <c r="BJ59" s="56">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="BJ59" s="56" t="s">
+        <v>259</v>
       </c>
       <c r="BK59" s="56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL59" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM59" s="56">
         <v>1</v>
@@ -15799,13 +15931,13 @@
         <v>115</v>
       </c>
       <c r="BP59" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BQ59" s="56">
         <v>2</v>
       </c>
       <c r="BR59" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS59" s="58">
         <v>2</v>
@@ -15920,80 +16052,220 @@
       <c r="FW59" s="3"/>
       <c r="FX59" s="3"/>
     </row>
-    <row r="60" spans="1:180" x14ac:dyDescent="0.15">
-      <c r="A60" s="53"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="56"/>
+    <row r="60" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+      <c r="A60" s="53">
+        <v>48</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="56">
+        <v>1299</v>
+      </c>
       <c r="E60" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F60" s="55"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="56"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="56"/>
-      <c r="X60" s="56"/>
-      <c r="Y60" s="56"/>
-      <c r="Z60" s="56"/>
-      <c r="AA60" s="56"/>
-      <c r="AB60" s="59"/>
-      <c r="AC60" s="60"/>
-      <c r="AD60" s="60"/>
-      <c r="AE60" s="59"/>
-      <c r="AF60" s="60"/>
-      <c r="AG60" s="60"/>
-      <c r="AH60" s="59"/>
-      <c r="AI60" s="60"/>
-      <c r="AJ60" s="59"/>
-      <c r="AK60" s="60"/>
-      <c r="AL60" s="60"/>
-      <c r="AM60" s="60"/>
-      <c r="AN60" s="60"/>
-      <c r="AO60" s="61"/>
-      <c r="AP60" s="56"/>
-      <c r="AQ60" s="55"/>
-      <c r="AR60" s="56"/>
-      <c r="AS60" s="55"/>
-      <c r="AT60" s="56"/>
-      <c r="AU60" s="56"/>
-      <c r="AV60" s="56"/>
-      <c r="AW60" s="56"/>
-      <c r="AX60" s="56"/>
-      <c r="AY60" s="56"/>
-      <c r="AZ60" s="56"/>
-      <c r="BA60" s="55"/>
-      <c r="BB60" s="56"/>
-      <c r="BC60" s="56"/>
-      <c r="BD60" s="56"/>
-      <c r="BE60" s="56"/>
-      <c r="BF60" s="56"/>
-      <c r="BG60" s="56"/>
-      <c r="BH60" s="56"/>
-      <c r="BI60" s="56"/>
-      <c r="BJ60" s="56"/>
-      <c r="BK60" s="56"/>
-      <c r="BL60" s="56"/>
-      <c r="BM60" s="56"/>
-      <c r="BN60" s="56"/>
-      <c r="BO60" s="55"/>
-      <c r="BP60" s="56"/>
-      <c r="BQ60" s="56"/>
-      <c r="BR60" s="56"/>
-      <c r="BS60" s="58"/>
+      <c r="F60" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="57">
+        <v>42714.925694444442</v>
+      </c>
+      <c r="H60" s="57">
+        <v>42706.890277777777</v>
+      </c>
+      <c r="I60" s="57">
+        <v>42707.354861111111</v>
+      </c>
+      <c r="J60" s="57">
+        <v>42707.573611111111</v>
+      </c>
+      <c r="K60" s="57">
+        <v>42709.620138888888</v>
+      </c>
+      <c r="L60" s="56">
+        <v>1</v>
+      </c>
+      <c r="M60" s="56">
+        <v>1</v>
+      </c>
+      <c r="N60" s="56">
+        <v>5</v>
+      </c>
+      <c r="O60" s="56">
+        <v>1</v>
+      </c>
+      <c r="P60" s="56">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="R60" s="56">
+        <v>4</v>
+      </c>
+      <c r="S60" s="56">
+        <v>5</v>
+      </c>
+      <c r="T60" s="56">
+        <v>3</v>
+      </c>
+      <c r="U60" s="56">
+        <v>1</v>
+      </c>
+      <c r="V60" s="56">
+        <v>1</v>
+      </c>
+      <c r="W60" s="56">
+        <v>1</v>
+      </c>
+      <c r="X60" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="56">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="56">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD60" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE60" s="41">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG60" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH60" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ60" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL60" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM60" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN60" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO60" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP60" s="41">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR60" s="41">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT60" s="56">
+        <v>3</v>
+      </c>
+      <c r="AU60" s="56">
+        <v>3</v>
+      </c>
+      <c r="AV60" s="56">
+        <v>3</v>
+      </c>
+      <c r="AW60" s="56">
+        <v>3</v>
+      </c>
+      <c r="AX60" s="56">
+        <v>3</v>
+      </c>
+      <c r="AY60" s="56">
+        <v>3</v>
+      </c>
+      <c r="AZ60" s="56">
+        <v>0</v>
+      </c>
+      <c r="BA60" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB60" s="56">
+        <v>3</v>
+      </c>
+      <c r="BC60" s="56">
+        <v>2</v>
+      </c>
+      <c r="BD60" s="56">
+        <v>3</v>
+      </c>
+      <c r="BE60" s="56">
+        <v>3</v>
+      </c>
+      <c r="BF60" s="56">
+        <v>4</v>
+      </c>
+      <c r="BG60" s="56">
+        <v>5</v>
+      </c>
+      <c r="BH60" s="56">
+        <v>5</v>
+      </c>
+      <c r="BI60" s="56">
+        <v>1</v>
+      </c>
+      <c r="BJ60" s="56">
+        <v>1</v>
+      </c>
+      <c r="BK60" s="56">
+        <v>3</v>
+      </c>
+      <c r="BL60" s="56">
+        <v>3</v>
+      </c>
+      <c r="BM60" s="56">
+        <v>2</v>
+      </c>
+      <c r="BN60" s="56">
+        <v>3</v>
+      </c>
+      <c r="BO60" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP60" s="56">
+        <v>3</v>
+      </c>
+      <c r="BQ60" s="56">
+        <v>3</v>
+      </c>
+      <c r="BR60" s="56">
+        <v>2</v>
+      </c>
+      <c r="BS60" s="58">
+        <v>2</v>
+      </c>
       <c r="BT60" s="3"/>
       <c r="BU60" s="3"/>
       <c r="BV60" s="3"/>
@@ -16104,80 +16376,220 @@
       <c r="FW60" s="3"/>
       <c r="FX60" s="3"/>
     </row>
-    <row r="61" spans="1:180" x14ac:dyDescent="0.15">
-      <c r="A61" s="53"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="56"/>
+    <row r="61" spans="1:180" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="53">
+        <v>49</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="56">
+        <v>1299</v>
+      </c>
       <c r="E61" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="56"/>
-      <c r="T61" s="56"/>
-      <c r="U61" s="56"/>
-      <c r="V61" s="56"/>
-      <c r="W61" s="56"/>
-      <c r="X61" s="56"/>
-      <c r="Y61" s="56"/>
-      <c r="Z61" s="56"/>
-      <c r="AA61" s="56"/>
-      <c r="AB61" s="59"/>
-      <c r="AC61" s="60"/>
-      <c r="AD61" s="60"/>
-      <c r="AE61" s="59"/>
-      <c r="AF61" s="60"/>
-      <c r="AG61" s="60"/>
-      <c r="AH61" s="59"/>
-      <c r="AI61" s="60"/>
-      <c r="AJ61" s="59"/>
-      <c r="AK61" s="60"/>
-      <c r="AL61" s="60"/>
-      <c r="AM61" s="60"/>
-      <c r="AN61" s="60"/>
-      <c r="AO61" s="61"/>
-      <c r="AP61" s="56"/>
-      <c r="AQ61" s="55"/>
-      <c r="AR61" s="56"/>
-      <c r="AS61" s="55"/>
-      <c r="AT61" s="56"/>
-      <c r="AU61" s="56"/>
-      <c r="AV61" s="56"/>
-      <c r="AW61" s="56"/>
-      <c r="AX61" s="56"/>
-      <c r="AY61" s="56"/>
-      <c r="AZ61" s="56"/>
-      <c r="BA61" s="55"/>
-      <c r="BB61" s="56"/>
-      <c r="BC61" s="56"/>
-      <c r="BD61" s="56"/>
-      <c r="BE61" s="56"/>
-      <c r="BF61" s="56"/>
-      <c r="BG61" s="56"/>
-      <c r="BH61" s="56"/>
-      <c r="BI61" s="56"/>
-      <c r="BJ61" s="56"/>
-      <c r="BK61" s="56"/>
-      <c r="BL61" s="56"/>
-      <c r="BM61" s="56"/>
-      <c r="BN61" s="56"/>
-      <c r="BO61" s="55"/>
-      <c r="BP61" s="56"/>
-      <c r="BQ61" s="56"/>
-      <c r="BR61" s="56"/>
-      <c r="BS61" s="58"/>
+      <c r="F61" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="57">
+        <v>42707.521527777775</v>
+      </c>
+      <c r="H61" s="57">
+        <v>42702.375</v>
+      </c>
+      <c r="I61" s="57">
+        <v>42702.416666666664</v>
+      </c>
+      <c r="J61" s="57">
+        <v>42703.45</v>
+      </c>
+      <c r="K61" s="57">
+        <v>42705.938194444447</v>
+      </c>
+      <c r="L61" s="56">
+        <v>1</v>
+      </c>
+      <c r="M61" s="56">
+        <v>0</v>
+      </c>
+      <c r="N61" s="56">
+        <v>4</v>
+      </c>
+      <c r="O61" s="56">
+        <v>0</v>
+      </c>
+      <c r="P61" s="56">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="R61" s="56">
+        <v>5</v>
+      </c>
+      <c r="S61" s="56">
+        <v>4</v>
+      </c>
+      <c r="T61" s="56">
+        <v>4</v>
+      </c>
+      <c r="U61" s="56">
+        <v>4</v>
+      </c>
+      <c r="V61" s="56">
+        <v>0</v>
+      </c>
+      <c r="W61" s="56">
+        <v>1</v>
+      </c>
+      <c r="X61" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="56">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="56">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD61" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE61" s="41">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG61" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH61" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ61" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL61" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM61" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN61" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO61" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP61" s="41">
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR61" s="41">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT61" s="56">
+        <v>3</v>
+      </c>
+      <c r="AU61" s="56">
+        <v>3</v>
+      </c>
+      <c r="AV61" s="56">
+        <v>3</v>
+      </c>
+      <c r="AW61" s="56">
+        <v>3</v>
+      </c>
+      <c r="AX61" s="56">
+        <v>3</v>
+      </c>
+      <c r="AY61" s="56">
+        <v>4</v>
+      </c>
+      <c r="AZ61" s="56">
+        <v>0</v>
+      </c>
+      <c r="BA61" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB61" s="56">
+        <v>3</v>
+      </c>
+      <c r="BC61" s="56">
+        <v>1</v>
+      </c>
+      <c r="BD61" s="56">
+        <v>3</v>
+      </c>
+      <c r="BE61" s="56">
+        <v>3</v>
+      </c>
+      <c r="BF61" s="56">
+        <v>5</v>
+      </c>
+      <c r="BG61" s="56">
+        <v>4</v>
+      </c>
+      <c r="BH61" s="56">
+        <v>1</v>
+      </c>
+      <c r="BI61" s="56">
+        <v>3</v>
+      </c>
+      <c r="BJ61" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK61" s="56">
+        <v>3</v>
+      </c>
+      <c r="BL61" s="56">
+        <v>2</v>
+      </c>
+      <c r="BM61" s="56">
+        <v>1</v>
+      </c>
+      <c r="BN61" s="56">
+        <v>1</v>
+      </c>
+      <c r="BO61" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP61" s="56">
+        <v>5</v>
+      </c>
+      <c r="BQ61" s="56">
+        <v>2</v>
+      </c>
+      <c r="BR61" s="56">
+        <v>1</v>
+      </c>
+      <c r="BS61" s="58">
+        <v>2</v>
+      </c>
       <c r="BT61" s="3"/>
       <c r="BU61" s="3"/>
       <c r="BV61" s="3"/>
@@ -16288,189 +16700,220 @@
       <c r="FW61" s="3"/>
       <c r="FX61" s="3"/>
     </row>
-    <row r="62" spans="1:180" x14ac:dyDescent="0.15">
-      <c r="A62" s="53"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62" s="55"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="56"/>
-      <c r="T62" s="56"/>
-      <c r="U62" s="56"/>
-      <c r="V62" s="56"/>
-      <c r="W62" s="56"/>
-      <c r="X62" s="56"/>
-      <c r="Y62" s="56"/>
-      <c r="Z62" s="56"/>
-      <c r="AA62" s="56"/>
-      <c r="AB62" s="59"/>
-      <c r="AC62" s="60"/>
-      <c r="AD62" s="60"/>
-      <c r="AE62" s="59"/>
-      <c r="AF62" s="60"/>
-      <c r="AG62" s="60"/>
-      <c r="AH62" s="59"/>
-      <c r="AI62" s="60"/>
-      <c r="AJ62" s="59"/>
-      <c r="AK62" s="60"/>
-      <c r="AL62" s="60"/>
-      <c r="AM62" s="60"/>
-      <c r="AN62" s="60"/>
-      <c r="AO62" s="61"/>
-      <c r="AP62" s="56"/>
-      <c r="AQ62" s="55"/>
-      <c r="AR62" s="56"/>
-      <c r="AS62" s="55"/>
-      <c r="AT62" s="56"/>
-      <c r="AU62" s="56"/>
-      <c r="AV62" s="56"/>
-      <c r="AW62" s="56"/>
-      <c r="AX62" s="56"/>
-      <c r="AY62" s="56"/>
-      <c r="AZ62" s="56"/>
-      <c r="BA62" s="55"/>
-      <c r="BB62" s="56"/>
-      <c r="BC62" s="56"/>
-      <c r="BD62" s="56"/>
-      <c r="BE62" s="56"/>
-      <c r="BF62" s="56"/>
-      <c r="BG62" s="56"/>
-      <c r="BH62" s="56"/>
-      <c r="BI62" s="56"/>
-      <c r="BJ62" s="56"/>
-      <c r="BK62" s="56"/>
-      <c r="BL62" s="56"/>
-      <c r="BM62" s="56"/>
-      <c r="BN62" s="56"/>
-      <c r="BO62" s="55"/>
-      <c r="BP62" s="56"/>
-      <c r="BQ62" s="56"/>
-      <c r="BR62" s="56"/>
-      <c r="BS62" s="58"/>
-      <c r="BT62" s="3"/>
-      <c r="BU62" s="3"/>
-      <c r="BV62" s="3"/>
-      <c r="BW62" s="3"/>
-      <c r="BX62" s="3"/>
-      <c r="BY62" s="3"/>
-      <c r="BZ62" s="3"/>
-      <c r="CA62" s="3"/>
-      <c r="CB62" s="3"/>
-      <c r="CC62" s="3"/>
-      <c r="CD62" s="3"/>
-      <c r="CE62" s="3"/>
-      <c r="CF62" s="3"/>
-      <c r="CG62" s="3"/>
-      <c r="CH62" s="3"/>
-      <c r="CI62" s="3"/>
-      <c r="CJ62" s="3"/>
-      <c r="CK62" s="3"/>
-      <c r="CL62" s="3"/>
-      <c r="CM62" s="3"/>
-      <c r="CN62" s="3"/>
-      <c r="CO62" s="3"/>
-      <c r="CP62" s="3"/>
-      <c r="CQ62" s="3"/>
-      <c r="CR62" s="3"/>
-      <c r="CS62" s="3"/>
-      <c r="CT62" s="3"/>
-      <c r="CU62" s="3"/>
-      <c r="CV62" s="3"/>
-      <c r="CW62" s="3"/>
-      <c r="CX62" s="3"/>
-      <c r="CY62" s="3"/>
-      <c r="CZ62" s="3"/>
-      <c r="DA62" s="3"/>
-      <c r="DB62" s="3"/>
-      <c r="DC62" s="3"/>
-      <c r="DD62" s="3"/>
-      <c r="DE62" s="3"/>
-      <c r="DF62" s="3"/>
-      <c r="DG62" s="3"/>
-      <c r="DH62" s="3"/>
-      <c r="DI62" s="3"/>
-      <c r="DJ62" s="3"/>
-      <c r="DK62" s="3"/>
-      <c r="DL62" s="3"/>
-      <c r="DM62" s="3"/>
-      <c r="DN62" s="3"/>
-      <c r="DO62" s="3"/>
-      <c r="DP62" s="3"/>
-      <c r="DQ62" s="3"/>
-      <c r="DR62" s="3"/>
-      <c r="DS62" s="3"/>
-      <c r="DT62" s="3"/>
-      <c r="DU62" s="3"/>
-      <c r="DV62" s="3"/>
-      <c r="DW62" s="3"/>
-      <c r="DX62" s="3"/>
-      <c r="DY62" s="3"/>
-      <c r="DZ62" s="3"/>
-      <c r="EA62" s="3"/>
-      <c r="EB62" s="3"/>
-      <c r="EC62" s="3"/>
-      <c r="ED62" s="3"/>
-      <c r="EE62" s="3"/>
-      <c r="EF62" s="3"/>
-      <c r="EG62" s="3"/>
-      <c r="EH62" s="3"/>
-      <c r="EI62" s="3"/>
-      <c r="EJ62" s="3"/>
-      <c r="EK62" s="3"/>
-      <c r="EL62" s="3"/>
-      <c r="EM62" s="3"/>
-      <c r="EN62" s="3"/>
-      <c r="EO62" s="3"/>
-      <c r="EP62" s="3"/>
-      <c r="EQ62" s="3"/>
-      <c r="ER62" s="3"/>
-      <c r="ES62" s="3"/>
-      <c r="ET62" s="3"/>
-      <c r="EU62" s="3"/>
-      <c r="EV62" s="3"/>
-      <c r="EW62" s="3"/>
-      <c r="EX62" s="3"/>
-      <c r="EY62" s="3"/>
-      <c r="EZ62" s="3"/>
-      <c r="FA62" s="3"/>
-      <c r="FB62" s="3"/>
-      <c r="FC62" s="3"/>
-      <c r="FD62" s="3"/>
-      <c r="FE62" s="3"/>
-      <c r="FF62" s="3"/>
-      <c r="FG62" s="3"/>
-      <c r="FH62" s="3"/>
-      <c r="FI62" s="3"/>
-      <c r="FJ62" s="3"/>
-      <c r="FK62" s="3"/>
-      <c r="FL62" s="3"/>
-      <c r="FM62" s="3"/>
-      <c r="FN62" s="3"/>
-      <c r="FO62" s="3"/>
-      <c r="FP62" s="3"/>
-      <c r="FQ62" s="3"/>
-      <c r="FR62" s="3"/>
-      <c r="FS62" s="3"/>
-      <c r="FT62" s="3"/>
-      <c r="FU62" s="3"/>
-      <c r="FV62" s="3"/>
-      <c r="FW62" s="3"/>
-      <c r="FX62" s="3"/>
+    <row r="62" spans="1:180" s="17" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L62" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N62" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O62" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="P62" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q62" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="R62" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="S62" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="T62" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="U62" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="V62" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="W62" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="X62" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y62" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z62" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA62" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB62" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC62" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD62" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE62" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF62" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG62" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH62" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI62" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ62" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK62" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL62" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM62" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN62" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO62" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP62" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ62" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR62" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS62" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT62" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU62" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV62" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW62" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX62" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY62" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ62" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA62" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB62" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC62" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD62" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="BE62" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF62" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG62" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH62" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI62" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ62" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK62" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL62" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM62" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN62" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO62" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP62" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ62" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR62" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS62" s="30" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="63" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A63" s="53"/>
@@ -31744,80 +32187,80 @@
       <c r="FW145" s="3"/>
       <c r="FX145" s="3"/>
     </row>
-    <row r="146" spans="1:180" x14ac:dyDescent="0.15">
-      <c r="A146" s="53"/>
-      <c r="B146" s="54"/>
-      <c r="C146" s="55"/>
-      <c r="D146" s="56"/>
+    <row r="146" spans="1:180" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="62"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="65"/>
       <c r="E146" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F146" s="55"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="57"/>
-      <c r="I146" s="57"/>
-      <c r="J146" s="57"/>
-      <c r="K146" s="57"/>
-      <c r="L146" s="56"/>
-      <c r="M146" s="56"/>
-      <c r="N146" s="56"/>
-      <c r="O146" s="56"/>
-      <c r="P146" s="56"/>
-      <c r="Q146" s="55"/>
-      <c r="R146" s="56"/>
-      <c r="S146" s="56"/>
-      <c r="T146" s="56"/>
-      <c r="U146" s="56"/>
-      <c r="V146" s="56"/>
-      <c r="W146" s="56"/>
-      <c r="X146" s="56"/>
-      <c r="Y146" s="56"/>
-      <c r="Z146" s="56"/>
-      <c r="AA146" s="56"/>
-      <c r="AB146" s="59"/>
-      <c r="AC146" s="60"/>
-      <c r="AD146" s="60"/>
-      <c r="AE146" s="59"/>
-      <c r="AF146" s="60"/>
-      <c r="AG146" s="60"/>
-      <c r="AH146" s="59"/>
-      <c r="AI146" s="60"/>
-      <c r="AJ146" s="59"/>
-      <c r="AK146" s="60"/>
-      <c r="AL146" s="60"/>
-      <c r="AM146" s="60"/>
-      <c r="AN146" s="60"/>
-      <c r="AO146" s="61"/>
-      <c r="AP146" s="56"/>
-      <c r="AQ146" s="55"/>
-      <c r="AR146" s="56"/>
-      <c r="AS146" s="55"/>
-      <c r="AT146" s="56"/>
-      <c r="AU146" s="56"/>
-      <c r="AV146" s="56"/>
-      <c r="AW146" s="56"/>
-      <c r="AX146" s="56"/>
-      <c r="AY146" s="56"/>
-      <c r="AZ146" s="56"/>
-      <c r="BA146" s="55"/>
-      <c r="BB146" s="56"/>
-      <c r="BC146" s="56"/>
-      <c r="BD146" s="56"/>
-      <c r="BE146" s="56"/>
-      <c r="BF146" s="56"/>
-      <c r="BG146" s="56"/>
-      <c r="BH146" s="56"/>
-      <c r="BI146" s="56"/>
-      <c r="BJ146" s="56"/>
-      <c r="BK146" s="56"/>
-      <c r="BL146" s="56"/>
-      <c r="BM146" s="56"/>
-      <c r="BN146" s="56"/>
-      <c r="BO146" s="55"/>
-      <c r="BP146" s="56"/>
-      <c r="BQ146" s="56"/>
-      <c r="BR146" s="56"/>
-      <c r="BS146" s="58"/>
+      <c r="F146" s="64"/>
+      <c r="G146" s="66"/>
+      <c r="H146" s="66"/>
+      <c r="I146" s="66"/>
+      <c r="J146" s="66"/>
+      <c r="K146" s="66"/>
+      <c r="L146" s="65"/>
+      <c r="M146" s="65"/>
+      <c r="N146" s="65"/>
+      <c r="O146" s="65"/>
+      <c r="P146" s="65"/>
+      <c r="Q146" s="64"/>
+      <c r="R146" s="65"/>
+      <c r="S146" s="65"/>
+      <c r="T146" s="65"/>
+      <c r="U146" s="65"/>
+      <c r="V146" s="65"/>
+      <c r="W146" s="65"/>
+      <c r="X146" s="65"/>
+      <c r="Y146" s="65"/>
+      <c r="Z146" s="65"/>
+      <c r="AA146" s="65"/>
+      <c r="AB146" s="65"/>
+      <c r="AC146" s="64"/>
+      <c r="AD146" s="65"/>
+      <c r="AE146" s="65"/>
+      <c r="AF146" s="64"/>
+      <c r="AG146" s="64"/>
+      <c r="AH146" s="65"/>
+      <c r="AI146" s="64"/>
+      <c r="AJ146" s="65"/>
+      <c r="AK146" s="64"/>
+      <c r="AL146" s="65"/>
+      <c r="AM146" s="65"/>
+      <c r="AN146" s="65"/>
+      <c r="AO146" s="67"/>
+      <c r="AP146" s="65"/>
+      <c r="AQ146" s="64"/>
+      <c r="AR146" s="65"/>
+      <c r="AS146" s="64"/>
+      <c r="AT146" s="65"/>
+      <c r="AU146" s="65"/>
+      <c r="AV146" s="65"/>
+      <c r="AW146" s="65"/>
+      <c r="AX146" s="65"/>
+      <c r="AY146" s="65"/>
+      <c r="AZ146" s="65"/>
+      <c r="BA146" s="64"/>
+      <c r="BB146" s="65"/>
+      <c r="BC146" s="65"/>
+      <c r="BD146" s="65"/>
+      <c r="BE146" s="65"/>
+      <c r="BF146" s="65"/>
+      <c r="BG146" s="65"/>
+      <c r="BH146" s="65"/>
+      <c r="BI146" s="65"/>
+      <c r="BJ146" s="65"/>
+      <c r="BK146" s="65"/>
+      <c r="BL146" s="65"/>
+      <c r="BM146" s="65"/>
+      <c r="BN146" s="65"/>
+      <c r="BO146" s="64"/>
+      <c r="BP146" s="65"/>
+      <c r="BQ146" s="65"/>
+      <c r="BR146" s="65"/>
+      <c r="BS146" s="68"/>
       <c r="BT146" s="3"/>
       <c r="BU146" s="3"/>
       <c r="BV146" s="3"/>
@@ -31928,192 +32371,19 @@
       <c r="FW146" s="3"/>
       <c r="FX146" s="3"/>
     </row>
-    <row r="147" spans="1:180" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="62"/>
-      <c r="B147" s="63"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F147" s="64"/>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="66"/>
-      <c r="J147" s="66"/>
-      <c r="K147" s="66"/>
-      <c r="L147" s="65"/>
-      <c r="M147" s="65"/>
-      <c r="N147" s="65"/>
-      <c r="O147" s="65"/>
-      <c r="P147" s="65"/>
-      <c r="Q147" s="64"/>
-      <c r="R147" s="65"/>
-      <c r="S147" s="65"/>
-      <c r="T147" s="65"/>
-      <c r="U147" s="65"/>
-      <c r="V147" s="65"/>
-      <c r="W147" s="65"/>
-      <c r="X147" s="65"/>
-      <c r="Y147" s="65"/>
-      <c r="Z147" s="65"/>
-      <c r="AA147" s="65"/>
-      <c r="AB147" s="65"/>
-      <c r="AC147" s="64"/>
-      <c r="AD147" s="65"/>
-      <c r="AE147" s="65"/>
-      <c r="AF147" s="64"/>
-      <c r="AG147" s="64"/>
-      <c r="AH147" s="65"/>
-      <c r="AI147" s="64"/>
-      <c r="AJ147" s="65"/>
-      <c r="AK147" s="64"/>
-      <c r="AL147" s="65"/>
-      <c r="AM147" s="65"/>
-      <c r="AN147" s="65"/>
-      <c r="AO147" s="67"/>
-      <c r="AP147" s="65"/>
-      <c r="AQ147" s="64"/>
-      <c r="AR147" s="65"/>
-      <c r="AS147" s="64"/>
-      <c r="AT147" s="65"/>
-      <c r="AU147" s="65"/>
-      <c r="AV147" s="65"/>
-      <c r="AW147" s="65"/>
-      <c r="AX147" s="65"/>
-      <c r="AY147" s="65"/>
-      <c r="AZ147" s="65"/>
-      <c r="BA147" s="64"/>
-      <c r="BB147" s="65"/>
-      <c r="BC147" s="65"/>
-      <c r="BD147" s="65"/>
-      <c r="BE147" s="65"/>
-      <c r="BF147" s="65"/>
-      <c r="BG147" s="65"/>
-      <c r="BH147" s="65"/>
-      <c r="BI147" s="65"/>
-      <c r="BJ147" s="65"/>
-      <c r="BK147" s="65"/>
-      <c r="BL147" s="65"/>
-      <c r="BM147" s="65"/>
-      <c r="BN147" s="65"/>
-      <c r="BO147" s="64"/>
-      <c r="BP147" s="65"/>
-      <c r="BQ147" s="65"/>
-      <c r="BR147" s="65"/>
-      <c r="BS147" s="68"/>
-      <c r="BT147" s="3"/>
-      <c r="BU147" s="3"/>
-      <c r="BV147" s="3"/>
-      <c r="BW147" s="3"/>
-      <c r="BX147" s="3"/>
-      <c r="BY147" s="3"/>
-      <c r="BZ147" s="3"/>
-      <c r="CA147" s="3"/>
-      <c r="CB147" s="3"/>
-      <c r="CC147" s="3"/>
-      <c r="CD147" s="3"/>
-      <c r="CE147" s="3"/>
-      <c r="CF147" s="3"/>
-      <c r="CG147" s="3"/>
-      <c r="CH147" s="3"/>
-      <c r="CI147" s="3"/>
-      <c r="CJ147" s="3"/>
-      <c r="CK147" s="3"/>
-      <c r="CL147" s="3"/>
-      <c r="CM147" s="3"/>
-      <c r="CN147" s="3"/>
-      <c r="CO147" s="3"/>
-      <c r="CP147" s="3"/>
-      <c r="CQ147" s="3"/>
-      <c r="CR147" s="3"/>
-      <c r="CS147" s="3"/>
-      <c r="CT147" s="3"/>
-      <c r="CU147" s="3"/>
-      <c r="CV147" s="3"/>
-      <c r="CW147" s="3"/>
-      <c r="CX147" s="3"/>
-      <c r="CY147" s="3"/>
-      <c r="CZ147" s="3"/>
-      <c r="DA147" s="3"/>
-      <c r="DB147" s="3"/>
-      <c r="DC147" s="3"/>
-      <c r="DD147" s="3"/>
-      <c r="DE147" s="3"/>
-      <c r="DF147" s="3"/>
-      <c r="DG147" s="3"/>
-      <c r="DH147" s="3"/>
-      <c r="DI147" s="3"/>
-      <c r="DJ147" s="3"/>
-      <c r="DK147" s="3"/>
-      <c r="DL147" s="3"/>
-      <c r="DM147" s="3"/>
-      <c r="DN147" s="3"/>
-      <c r="DO147" s="3"/>
-      <c r="DP147" s="3"/>
-      <c r="DQ147" s="3"/>
-      <c r="DR147" s="3"/>
-      <c r="DS147" s="3"/>
-      <c r="DT147" s="3"/>
-      <c r="DU147" s="3"/>
-      <c r="DV147" s="3"/>
-      <c r="DW147" s="3"/>
-      <c r="DX147" s="3"/>
-      <c r="DY147" s="3"/>
-      <c r="DZ147" s="3"/>
-      <c r="EA147" s="3"/>
-      <c r="EB147" s="3"/>
-      <c r="EC147" s="3"/>
-      <c r="ED147" s="3"/>
-      <c r="EE147" s="3"/>
-      <c r="EF147" s="3"/>
-      <c r="EG147" s="3"/>
-      <c r="EH147" s="3"/>
-      <c r="EI147" s="3"/>
-      <c r="EJ147" s="3"/>
-      <c r="EK147" s="3"/>
-      <c r="EL147" s="3"/>
-      <c r="EM147" s="3"/>
-      <c r="EN147" s="3"/>
-      <c r="EO147" s="3"/>
-      <c r="EP147" s="3"/>
-      <c r="EQ147" s="3"/>
-      <c r="ER147" s="3"/>
-      <c r="ES147" s="3"/>
-      <c r="ET147" s="3"/>
-      <c r="EU147" s="3"/>
-      <c r="EV147" s="3"/>
-      <c r="EW147" s="3"/>
-      <c r="EX147" s="3"/>
-      <c r="EY147" s="3"/>
-      <c r="EZ147" s="3"/>
-      <c r="FA147" s="3"/>
-      <c r="FB147" s="3"/>
-      <c r="FC147" s="3"/>
-      <c r="FD147" s="3"/>
-      <c r="FE147" s="3"/>
-      <c r="FF147" s="3"/>
-      <c r="FG147" s="3"/>
-      <c r="FH147" s="3"/>
-      <c r="FI147" s="3"/>
-      <c r="FJ147" s="3"/>
-      <c r="FK147" s="3"/>
-      <c r="FL147" s="3"/>
-      <c r="FM147" s="3"/>
-      <c r="FN147" s="3"/>
-      <c r="FO147" s="3"/>
-      <c r="FP147" s="3"/>
-      <c r="FQ147" s="3"/>
-      <c r="FR147" s="3"/>
-      <c r="FS147" s="3"/>
-      <c r="FT147" s="3"/>
-      <c r="FU147" s="3"/>
-      <c r="FV147" s="3"/>
-      <c r="FW147" s="3"/>
-      <c r="FX147" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="BQ11:BS11"/>
+    <mergeCell ref="Y11:AN11"/>
+    <mergeCell ref="BE11:BO11"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="AO11:BB11"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A6:D6"/>
@@ -32128,36 +32398,25 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="BQ11:BS11"/>
-    <mergeCell ref="Y11:AN11"/>
-    <mergeCell ref="BE11:BO11"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="AO11:BB11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO13:BO53 BO55:BO147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO13:BO53 BO54:BO61 BO63:BO146">
       <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E53 E55:E147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E53 E54:E61 E63:E146">
       <formula1>"京东"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55:F147 F13:F53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F53 F54:F61 F63:F146">
       <formula1>"安卓客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O55:O147 L55:M147 O13:O53 L13:M53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L63:M146 L13:M53 O13:O53 L54:M61 O54:O61 O63:O146">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P55:P147 N55:N147 N13:N53 P13:P53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N63:N146 P13:P53 N13:N53 N54:N61 P54:P61 P63:P146">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55:C147 C13:C53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C53 C54:C61 C63:C146">
       <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员"</formula1>
     </dataValidation>
   </dataValidations>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="6040" windowWidth="21500" windowHeight="10360"/>
+    <workbookView xWindow="1460" yWindow="6100" windowWidth="21500" windowHeight="10360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="203">
   <si>
     <t>是否型问题：</t>
   </si>
@@ -680,15 +680,102 @@
     <t>2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>浙江</t>
+    <rPh sb="0" eb="1">
+      <t>zhe j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <rPh sb="0" eb="1">
+      <t>bei j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <rPh sb="0" eb="1">
+      <t>si chuan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流配送</t>
+    <rPh sb="0" eb="1">
+      <t>wu liu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei song</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>／</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd\ h:mm"/>
-    <numFmt numFmtId="182" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1377,7 +1464,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1416,13 +1503,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1476,22 +1563,22 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1500,10 +1587,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,10 +1602,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,72 +1644,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1641,8 +1662,74 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1986,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FX146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="BS66" sqref="BS66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="111" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="BT69" sqref="BT69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2041,10 +2128,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2120,11 +2207,11 @@
       <c r="BS1" s="6"/>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2197,25 +2284,25 @@
       <c r="BS2" s="6"/>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="64"/>
+      <c r="A3" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="77"/>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="6"/>
@@ -2280,22 +2367,22 @@
       <c r="BS3" s="6"/>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A4" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="63" t="s">
+      <c r="A4" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="63" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="88"/>
+      <c r="G4" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="8"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2361,11 +2448,11 @@
       <c r="BS4" s="6"/>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
@@ -2442,14 +2529,14 @@
       <c r="BS5" s="6"/>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2517,15 +2604,15 @@
       <c r="BS6" s="6"/>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="63" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="74"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
@@ -2596,13 +2683,13 @@
       <c r="BS7" s="6"/>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="75"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="5"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2671,11 +2758,11 @@
       <c r="BS8" s="6"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
@@ -2824,96 +2911,96 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="77" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82" t="s">
+      <c r="F11" s="74"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="77" t="s">
+      <c r="K11" s="70"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="80"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="85" t="s">
+      <c r="R11" s="74"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="87"/>
-      <c r="AO11" s="88" t="s">
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="89"/>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="90"/>
-      <c r="BC11" s="82" t="s">
+      <c r="AP11" s="67"/>
+      <c r="AQ11" s="67"/>
+      <c r="AR11" s="67"/>
+      <c r="AS11" s="67"/>
+      <c r="AT11" s="67"/>
+      <c r="AU11" s="67"/>
+      <c r="AV11" s="67"/>
+      <c r="AW11" s="67"/>
+      <c r="AX11" s="67"/>
+      <c r="AY11" s="67"/>
+      <c r="AZ11" s="67"/>
+      <c r="BA11" s="67"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BD11" s="83"/>
-      <c r="BE11" s="91" t="s">
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="BF11" s="81"/>
-      <c r="BG11" s="81"/>
-      <c r="BH11" s="83"/>
-      <c r="BI11" s="84"/>
-      <c r="BJ11" s="84"/>
-      <c r="BK11" s="84"/>
-      <c r="BL11" s="80"/>
-      <c r="BM11" s="81"/>
-      <c r="BN11" s="81"/>
-      <c r="BO11" s="81"/>
+      <c r="BF11" s="72"/>
+      <c r="BG11" s="72"/>
+      <c r="BH11" s="70"/>
+      <c r="BI11" s="73"/>
+      <c r="BJ11" s="73"/>
+      <c r="BK11" s="73"/>
+      <c r="BL11" s="74"/>
+      <c r="BM11" s="72"/>
+      <c r="BN11" s="72"/>
+      <c r="BO11" s="72"/>
       <c r="BP11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="BQ11" s="77" t="s">
+      <c r="BQ11" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="BR11" s="84"/>
-      <c r="BS11" s="80"/>
+      <c r="BR11" s="73"/>
+      <c r="BS11" s="74"/>
     </row>
     <row r="12" spans="1:71" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
@@ -14738,230 +14825,650 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A67" s="34"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
+    <row r="67" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+      <c r="A67" s="34">
+        <v>54</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="32">
+        <v>1299</v>
+      </c>
       <c r="E67" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="31"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="32"/>
-      <c r="Z67" s="32"/>
-      <c r="AA67" s="32"/>
-      <c r="AB67" s="42"/>
-      <c r="AC67" s="43"/>
-      <c r="AD67" s="43"/>
-      <c r="AE67" s="42"/>
-      <c r="AF67" s="43"/>
-      <c r="AG67" s="43"/>
-      <c r="AH67" s="42"/>
-      <c r="AI67" s="43"/>
-      <c r="AJ67" s="42"/>
-      <c r="AK67" s="43"/>
-      <c r="AL67" s="43"/>
-      <c r="AM67" s="43"/>
-      <c r="AN67" s="43"/>
-      <c r="AO67" s="48"/>
-      <c r="AP67" s="32"/>
-      <c r="AQ67" s="31"/>
-      <c r="AR67" s="32"/>
-      <c r="AS67" s="31"/>
-      <c r="AT67" s="32"/>
-      <c r="AU67" s="32"/>
-      <c r="AV67" s="32"/>
-      <c r="AW67" s="32"/>
-      <c r="AX67" s="32"/>
-      <c r="AY67" s="32"/>
-      <c r="AZ67" s="32"/>
-      <c r="BA67" s="31"/>
-      <c r="BB67" s="32"/>
-      <c r="BC67" s="32"/>
-      <c r="BD67" s="32"/>
-      <c r="BE67" s="32"/>
-      <c r="BF67" s="32"/>
-      <c r="BG67" s="32"/>
-      <c r="BH67" s="32"/>
-      <c r="BI67" s="32"/>
-      <c r="BJ67" s="32"/>
-      <c r="BK67" s="32"/>
-      <c r="BL67" s="32"/>
-      <c r="BM67" s="32"/>
-      <c r="BN67" s="32"/>
-      <c r="BO67" s="31"/>
-      <c r="BP67" s="32"/>
-      <c r="BQ67" s="32"/>
-      <c r="BR67" s="32"/>
-      <c r="BS67" s="55"/>
+      <c r="F67" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" s="33">
+        <v>42710.852083333331</v>
+      </c>
+      <c r="H67" s="33">
+        <v>42707.458333333336</v>
+      </c>
+      <c r="I67" s="33">
+        <v>42707.583333333336</v>
+      </c>
+      <c r="J67" s="33">
+        <v>42708.375</v>
+      </c>
+      <c r="K67" s="33">
+        <v>42709.375</v>
+      </c>
+      <c r="L67" s="32">
+        <v>1</v>
+      </c>
+      <c r="M67" s="32">
+        <v>1</v>
+      </c>
+      <c r="N67" s="32">
+        <v>5</v>
+      </c>
+      <c r="O67" s="32">
+        <v>1</v>
+      </c>
+      <c r="P67" s="32">
+        <v>4</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R67" s="32">
+        <v>3</v>
+      </c>
+      <c r="S67" s="32">
+        <v>1</v>
+      </c>
+      <c r="T67" s="32">
+        <v>1</v>
+      </c>
+      <c r="U67" s="32">
+        <v>2</v>
+      </c>
+      <c r="V67" s="32">
+        <v>0</v>
+      </c>
+      <c r="W67" s="32">
+        <v>1</v>
+      </c>
+      <c r="X67" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="42">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD67" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE67" s="42">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG67" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH67" s="42">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ67" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL67" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM67" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN67" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO67" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT67" s="32">
+        <v>3</v>
+      </c>
+      <c r="AU67" s="32">
+        <v>3</v>
+      </c>
+      <c r="AV67" s="32">
+        <v>2</v>
+      </c>
+      <c r="AW67" s="32">
+        <v>3</v>
+      </c>
+      <c r="AX67" s="32">
+        <v>4</v>
+      </c>
+      <c r="AY67" s="32">
+        <v>3</v>
+      </c>
+      <c r="AZ67" s="32">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB67" s="32">
+        <v>3</v>
+      </c>
+      <c r="BC67" s="32">
+        <v>2</v>
+      </c>
+      <c r="BD67" s="32">
+        <v>2</v>
+      </c>
+      <c r="BE67" s="32">
+        <v>2</v>
+      </c>
+      <c r="BF67" s="32">
+        <v>3</v>
+      </c>
+      <c r="BG67" s="32">
+        <v>4</v>
+      </c>
+      <c r="BH67" s="32">
+        <v>5</v>
+      </c>
+      <c r="BI67" s="32">
+        <v>1</v>
+      </c>
+      <c r="BJ67" s="32">
+        <v>3</v>
+      </c>
+      <c r="BK67" s="32">
+        <v>3</v>
+      </c>
+      <c r="BL67" s="32">
+        <v>3</v>
+      </c>
+      <c r="BM67" s="32">
+        <v>2</v>
+      </c>
+      <c r="BN67" s="32">
+        <v>1</v>
+      </c>
+      <c r="BO67" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP67" s="32">
+        <v>3</v>
+      </c>
+      <c r="BQ67" s="32">
+        <v>1</v>
+      </c>
+      <c r="BR67" s="32">
+        <v>2</v>
+      </c>
+      <c r="BS67" s="55">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A68" s="34"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
+    <row r="68" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+      <c r="A68" s="34">
+        <v>55</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="32">
+        <v>1299</v>
+      </c>
       <c r="E68" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F68" s="31"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="32"/>
-      <c r="V68" s="32"/>
-      <c r="W68" s="32"/>
-      <c r="X68" s="32"/>
-      <c r="Y68" s="32"/>
-      <c r="Z68" s="32"/>
-      <c r="AA68" s="32"/>
-      <c r="AB68" s="42"/>
-      <c r="AC68" s="43"/>
-      <c r="AD68" s="43"/>
-      <c r="AE68" s="42"/>
-      <c r="AF68" s="43"/>
-      <c r="AG68" s="43"/>
-      <c r="AH68" s="42"/>
-      <c r="AI68" s="43"/>
-      <c r="AJ68" s="42"/>
-      <c r="AK68" s="43"/>
-      <c r="AL68" s="43"/>
-      <c r="AM68" s="43"/>
-      <c r="AN68" s="43"/>
-      <c r="AO68" s="48"/>
-      <c r="AP68" s="32"/>
-      <c r="AQ68" s="31"/>
-      <c r="AR68" s="32"/>
-      <c r="AS68" s="31"/>
-      <c r="AT68" s="32"/>
-      <c r="AU68" s="32"/>
-      <c r="AV68" s="32"/>
-      <c r="AW68" s="32"/>
-      <c r="AX68" s="32"/>
-      <c r="AY68" s="32"/>
-      <c r="AZ68" s="32"/>
-      <c r="BA68" s="31"/>
-      <c r="BB68" s="32"/>
-      <c r="BC68" s="32"/>
-      <c r="BD68" s="32"/>
-      <c r="BE68" s="32"/>
-      <c r="BF68" s="32"/>
-      <c r="BG68" s="32"/>
-      <c r="BH68" s="32"/>
-      <c r="BI68" s="32"/>
-      <c r="BJ68" s="32"/>
-      <c r="BK68" s="32"/>
-      <c r="BL68" s="32"/>
-      <c r="BM68" s="32"/>
-      <c r="BN68" s="32"/>
-      <c r="BO68" s="31"/>
-      <c r="BP68" s="32"/>
-      <c r="BQ68" s="32"/>
-      <c r="BR68" s="32"/>
-      <c r="BS68" s="55"/>
+      <c r="F68" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="33">
+        <v>42720.470138888886</v>
+      </c>
+      <c r="H68" s="33">
+        <v>42715.791666666664</v>
+      </c>
+      <c r="I68" s="33">
+        <v>42715.81527777778</v>
+      </c>
+      <c r="J68" s="33">
+        <v>42716.416666666664</v>
+      </c>
+      <c r="K68" s="33">
+        <v>42718.416666666664</v>
+      </c>
+      <c r="L68" s="32">
+        <v>1</v>
+      </c>
+      <c r="M68" s="32">
+        <v>1</v>
+      </c>
+      <c r="N68" s="32">
+        <v>4</v>
+      </c>
+      <c r="O68" s="32">
+        <v>1</v>
+      </c>
+      <c r="P68" s="32">
+        <v>3</v>
+      </c>
+      <c r="Q68" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="R68" s="32">
+        <v>4</v>
+      </c>
+      <c r="S68" s="32">
+        <v>4</v>
+      </c>
+      <c r="T68" s="32">
+        <v>3</v>
+      </c>
+      <c r="U68" s="32">
+        <v>4</v>
+      </c>
+      <c r="V68" s="32">
+        <v>0</v>
+      </c>
+      <c r="W68" s="32">
+        <v>1</v>
+      </c>
+      <c r="X68" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD68" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE68" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG68" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH68" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ68" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL68" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM68" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN68" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO68" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT68" s="32">
+        <v>3</v>
+      </c>
+      <c r="AU68" s="32">
+        <v>3</v>
+      </c>
+      <c r="AV68" s="32">
+        <v>2</v>
+      </c>
+      <c r="AW68" s="32">
+        <v>3</v>
+      </c>
+      <c r="AX68" s="32">
+        <v>2</v>
+      </c>
+      <c r="AY68" s="32">
+        <v>1</v>
+      </c>
+      <c r="AZ68" s="32">
+        <v>0</v>
+      </c>
+      <c r="BA68" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB68" s="32">
+        <v>3</v>
+      </c>
+      <c r="BC68" s="32">
+        <v>2</v>
+      </c>
+      <c r="BD68" s="32">
+        <v>2</v>
+      </c>
+      <c r="BE68" s="32">
+        <v>1</v>
+      </c>
+      <c r="BF68" s="32">
+        <v>2</v>
+      </c>
+      <c r="BG68" s="32">
+        <v>5</v>
+      </c>
+      <c r="BH68" s="32">
+        <v>5</v>
+      </c>
+      <c r="BI68" s="32">
+        <v>3</v>
+      </c>
+      <c r="BJ68" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK68" s="32">
+        <v>1</v>
+      </c>
+      <c r="BL68" s="32">
+        <v>1</v>
+      </c>
+      <c r="BM68" s="32">
+        <v>1</v>
+      </c>
+      <c r="BN68" s="32">
+        <v>1</v>
+      </c>
+      <c r="BO68" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP68" s="32">
+        <v>4</v>
+      </c>
+      <c r="BQ68" s="32">
+        <v>1</v>
+      </c>
+      <c r="BR68" s="32">
+        <v>2</v>
+      </c>
+      <c r="BS68" s="55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A69" s="34"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32"/>
+    <row r="69" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+      <c r="A69" s="34">
+        <v>56</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="32">
+        <v>1299</v>
+      </c>
       <c r="E69" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
-      <c r="V69" s="32"/>
-      <c r="W69" s="32"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="32"/>
-      <c r="Z69" s="32"/>
-      <c r="AA69" s="32"/>
-      <c r="AB69" s="42"/>
-      <c r="AC69" s="43"/>
-      <c r="AD69" s="43"/>
-      <c r="AE69" s="42"/>
-      <c r="AF69" s="43"/>
-      <c r="AG69" s="43"/>
-      <c r="AH69" s="42"/>
-      <c r="AI69" s="43"/>
-      <c r="AJ69" s="42"/>
-      <c r="AK69" s="43"/>
-      <c r="AL69" s="43"/>
-      <c r="AM69" s="43"/>
-      <c r="AN69" s="43"/>
-      <c r="AO69" s="48"/>
-      <c r="AP69" s="32"/>
-      <c r="AQ69" s="31"/>
-      <c r="AR69" s="32"/>
-      <c r="AS69" s="31"/>
-      <c r="AT69" s="32"/>
-      <c r="AU69" s="32"/>
-      <c r="AV69" s="32"/>
-      <c r="AW69" s="32"/>
-      <c r="AX69" s="32"/>
-      <c r="AY69" s="32"/>
-      <c r="AZ69" s="32"/>
-      <c r="BA69" s="31"/>
-      <c r="BB69" s="32"/>
-      <c r="BC69" s="32"/>
-      <c r="BD69" s="32"/>
-      <c r="BE69" s="32"/>
-      <c r="BF69" s="32"/>
-      <c r="BG69" s="32"/>
-      <c r="BH69" s="32"/>
-      <c r="BI69" s="32"/>
-      <c r="BJ69" s="32"/>
-      <c r="BK69" s="32"/>
-      <c r="BL69" s="32"/>
-      <c r="BM69" s="32"/>
-      <c r="BN69" s="32"/>
-      <c r="BO69" s="31"/>
-      <c r="BP69" s="32"/>
-      <c r="BQ69" s="32"/>
-      <c r="BR69" s="32"/>
-      <c r="BS69" s="55"/>
+      <c r="F69" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" s="33">
+        <v>42738.706250000003</v>
+      </c>
+      <c r="H69" s="33">
+        <v>42736.375</v>
+      </c>
+      <c r="I69" s="33">
+        <v>42736.5</v>
+      </c>
+      <c r="J69" s="33">
+        <v>42736.791666666664</v>
+      </c>
+      <c r="K69" s="33">
+        <v>42738.706250000003</v>
+      </c>
+      <c r="L69" s="32">
+        <v>0</v>
+      </c>
+      <c r="M69" s="32">
+        <v>1</v>
+      </c>
+      <c r="N69" s="32">
+        <v>4</v>
+      </c>
+      <c r="O69" s="32">
+        <v>1</v>
+      </c>
+      <c r="P69" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="R69" s="32">
+        <v>4</v>
+      </c>
+      <c r="S69" s="32">
+        <v>4</v>
+      </c>
+      <c r="T69" s="32">
+        <v>4</v>
+      </c>
+      <c r="U69" s="32">
+        <v>5</v>
+      </c>
+      <c r="V69" s="32">
+        <v>0</v>
+      </c>
+      <c r="W69" s="32">
+        <v>1</v>
+      </c>
+      <c r="X69" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="42">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD69" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE69" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG69" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH69" s="42">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ69" s="42">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL69" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM69" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN69" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO69" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT69" s="32">
+        <v>3</v>
+      </c>
+      <c r="AU69" s="32">
+        <v>4</v>
+      </c>
+      <c r="AV69" s="32">
+        <v>4</v>
+      </c>
+      <c r="AW69" s="32">
+        <v>3</v>
+      </c>
+      <c r="AX69" s="32">
+        <v>3</v>
+      </c>
+      <c r="AY69" s="32">
+        <v>3</v>
+      </c>
+      <c r="AZ69" s="32">
+        <v>0</v>
+      </c>
+      <c r="BA69" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB69" s="32">
+        <v>3</v>
+      </c>
+      <c r="BC69" s="32">
+        <v>1</v>
+      </c>
+      <c r="BD69" s="32">
+        <v>3</v>
+      </c>
+      <c r="BE69" s="32">
+        <v>3</v>
+      </c>
+      <c r="BF69" s="32">
+        <v>3</v>
+      </c>
+      <c r="BG69" s="32">
+        <v>4</v>
+      </c>
+      <c r="BH69" s="32">
+        <v>1</v>
+      </c>
+      <c r="BI69" s="32">
+        <v>3</v>
+      </c>
+      <c r="BJ69" s="32">
+        <v>1</v>
+      </c>
+      <c r="BK69" s="32">
+        <v>3</v>
+      </c>
+      <c r="BL69" s="32">
+        <v>3</v>
+      </c>
+      <c r="BM69" s="32">
+        <v>1</v>
+      </c>
+      <c r="BN69" s="32">
+        <v>1</v>
+      </c>
+      <c r="BO69" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP69" s="32">
+        <v>5</v>
+      </c>
+      <c r="BQ69" s="32">
+        <v>1</v>
+      </c>
+      <c r="BR69" s="32">
+        <v>1</v>
+      </c>
+      <c r="BS69" s="55">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A70" s="34"/>
@@ -20740,31 +21247,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:X11"/>
     <mergeCell ref="Y11:AN11"/>
     <mergeCell ref="AO11:BB11"/>
     <mergeCell ref="BC11:BD11"/>
     <mergeCell ref="BE11:BO11"/>
     <mergeCell ref="BQ11:BS11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:X11"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="6">

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="10695" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>是否型问题：</t>
   </si>
@@ -608,20 +608,62 @@
   <si>
     <t>2016/6/26 9:00:00</t>
   </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>2017/1/17 14:00:00</t>
+  </si>
+  <si>
+    <t>海尔(Haier)60升APP智能控制 动态增容 预约洗浴中温保温 防电墙电热水器EC6002-D6(U1) 一级能效</t>
+  </si>
+  <si>
+    <t>2017/1/18 14:00:00</t>
+  </si>
+  <si>
+    <t>退货</t>
+  </si>
+  <si>
+    <t>2016/12/14 14:00:00</t>
+  </si>
+  <si>
+    <t>海尔（Haier）360°立体拢烟 低噪音侧吸式油烟机 CXW-200-C150</t>
+  </si>
+  <si>
+    <t>2016/12/9 14:00:00</t>
+  </si>
+  <si>
+    <t>2016/12/5 10:00:00</t>
+  </si>
+  <si>
+    <t>2016/11/14 14:00:00</t>
+  </si>
+  <si>
+    <t>2017/1/23 14:00:00</t>
+  </si>
+  <si>
+    <t>2016/11/12 14:00:00</t>
+  </si>
+  <si>
+    <t>2016/10/18 14:00:00</t>
+  </si>
+  <si>
+    <t>2016/11/13 14:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ h:mm"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -646,6 +688,36 @@
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -686,14 +758,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -716,16 +780,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,28 +797,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,14 +827,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,13 +917,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,13 +965,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,19 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,13 +1001,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,49 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,19 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,6 +1755,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1733,36 +1790,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1793,15 +1820,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1810,153 +1828,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2138,10 +2180,10 @@
     <xf numFmtId="176" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2649,10 +2691,10 @@
   <sheetPr/>
   <dimension ref="A1:BS343"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" topLeftCell="AX1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BS79" sqref="BS79"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -2665,7 +2707,7 @@
     <col min="7" max="11" width="18.25" style="4" customWidth="1"/>
     <col min="12" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="16" width="7.16666666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="1" customWidth="1"/>
     <col min="18" max="19" width="7.16666666666667" style="1" customWidth="1"/>
     <col min="20" max="21" width="9" style="1" customWidth="1"/>
     <col min="22" max="25" width="7.16666666666667" style="1" customWidth="1"/>
@@ -18260,770 +18302,2171 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:71">
+    <row r="80" ht="27" spans="1:71">
       <c r="A80" s="41">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="52"/>
+      <c r="B80" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="52">
+        <v>1799</v>
+      </c>
       <c r="E80" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F80" s="51"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="51"/>
-      <c r="R80" s="52"/>
-      <c r="S80" s="52"/>
-      <c r="T80" s="52"/>
-      <c r="U80" s="52"/>
-      <c r="V80" s="52"/>
-      <c r="W80" s="52"/>
-      <c r="X80" s="52"/>
-      <c r="Y80" s="52"/>
-      <c r="Z80" s="52"/>
-      <c r="AA80" s="52"/>
-      <c r="AB80" s="52"/>
-      <c r="AC80" s="51"/>
-      <c r="AD80" s="51"/>
-      <c r="AE80" s="52"/>
-      <c r="AF80" s="51"/>
-      <c r="AG80" s="51"/>
-      <c r="AH80" s="52"/>
-      <c r="AI80" s="51"/>
-      <c r="AJ80" s="52"/>
-      <c r="AK80" s="51"/>
-      <c r="AL80" s="51"/>
-      <c r="AM80" s="51"/>
-      <c r="AN80" s="51"/>
-      <c r="AO80" s="81"/>
-      <c r="AP80" s="52"/>
-      <c r="AQ80" s="51"/>
-      <c r="AR80" s="52"/>
-      <c r="AS80" s="51"/>
-      <c r="AT80" s="52"/>
-      <c r="AU80" s="52"/>
-      <c r="AV80" s="52"/>
-      <c r="AW80" s="52"/>
-      <c r="AX80" s="52"/>
-      <c r="AY80" s="52"/>
-      <c r="AZ80" s="52"/>
-      <c r="BA80" s="51"/>
-      <c r="BB80" s="52"/>
-      <c r="BC80" s="52"/>
-      <c r="BD80" s="52"/>
-      <c r="BE80" s="52"/>
-      <c r="BF80" s="52"/>
-      <c r="BG80" s="52"/>
-      <c r="BH80" s="52"/>
-      <c r="BI80" s="52"/>
-      <c r="BJ80" s="52"/>
-      <c r="BK80" s="52"/>
-      <c r="BL80" s="52"/>
-      <c r="BM80" s="52"/>
-      <c r="BN80" s="52"/>
-      <c r="BO80" s="51"/>
-      <c r="BP80" s="52"/>
-      <c r="BQ80" s="91"/>
-      <c r="BR80" s="48"/>
-      <c r="BS80" s="90"/>
+      <c r="F80" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G80" s="53">
+        <v>42752.7770833333</v>
+      </c>
+      <c r="H80" s="53">
+        <v>42751.4583333333</v>
+      </c>
+      <c r="I80" s="53">
+        <v>42751.5833333333</v>
+      </c>
+      <c r="J80" s="53">
+        <v>42751.6666666667</v>
+      </c>
+      <c r="K80" s="53">
+        <v>42752.4166666667</v>
+      </c>
+      <c r="L80" s="52">
+        <v>1</v>
+      </c>
+      <c r="M80" s="52">
+        <v>1</v>
+      </c>
+      <c r="N80" s="52">
+        <v>5</v>
+      </c>
+      <c r="O80" s="52">
+        <v>1</v>
+      </c>
+      <c r="P80" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="R80" s="52">
+        <v>5</v>
+      </c>
+      <c r="S80" s="52">
+        <v>5</v>
+      </c>
+      <c r="T80" s="52">
+        <v>5</v>
+      </c>
+      <c r="U80" s="52">
+        <v>5</v>
+      </c>
+      <c r="V80" s="52">
+        <v>0</v>
+      </c>
+      <c r="W80" s="52">
+        <v>1</v>
+      </c>
+      <c r="X80" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE80" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH80" s="52">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ80" s="52">
+        <v>0</v>
+      </c>
+      <c r="AK80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO80" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP80" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR80" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT80" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU80" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV80" s="52">
+        <v>5</v>
+      </c>
+      <c r="AW80" s="52">
+        <v>5</v>
+      </c>
+      <c r="AX80" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY80" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ80" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA80" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BD80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BE80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BF80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ80" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BL80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BM80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BN80" s="52">
+        <v>5</v>
+      </c>
+      <c r="BO80" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP80" s="52">
+        <v>1</v>
+      </c>
+      <c r="BQ80" s="91">
+        <v>4</v>
+      </c>
+      <c r="BR80" s="48">
+        <v>5</v>
+      </c>
+      <c r="BS80" s="90">
+        <v>5</v>
+      </c>
     </row>
-    <row r="81" spans="1:71">
+    <row r="81" ht="27" spans="1:71">
       <c r="A81" s="41">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="52"/>
+      <c r="B81" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="52">
+        <v>1799</v>
+      </c>
       <c r="E81" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F81" s="51"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="52"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="51"/>
-      <c r="R81" s="52"/>
-      <c r="S81" s="52"/>
-      <c r="T81" s="52"/>
-      <c r="U81" s="52"/>
-      <c r="V81" s="52"/>
-      <c r="W81" s="52"/>
-      <c r="X81" s="52"/>
-      <c r="Y81" s="52"/>
-      <c r="Z81" s="52"/>
-      <c r="AA81" s="52"/>
-      <c r="AB81" s="52"/>
-      <c r="AC81" s="51"/>
-      <c r="AD81" s="51"/>
-      <c r="AE81" s="52"/>
-      <c r="AF81" s="51"/>
-      <c r="AG81" s="51"/>
-      <c r="AH81" s="52"/>
-      <c r="AI81" s="51"/>
-      <c r="AJ81" s="52"/>
-      <c r="AK81" s="51"/>
-      <c r="AL81" s="51"/>
-      <c r="AM81" s="51"/>
-      <c r="AN81" s="51"/>
-      <c r="AO81" s="81"/>
-      <c r="AP81" s="52"/>
-      <c r="AQ81" s="51"/>
-      <c r="AR81" s="52"/>
-      <c r="AS81" s="51"/>
-      <c r="AT81" s="52"/>
-      <c r="AU81" s="52"/>
-      <c r="AV81" s="52"/>
-      <c r="AW81" s="52"/>
-      <c r="AX81" s="52"/>
-      <c r="AY81" s="52"/>
-      <c r="AZ81" s="52"/>
-      <c r="BA81" s="51"/>
-      <c r="BB81" s="52"/>
-      <c r="BC81" s="52"/>
-      <c r="BD81" s="52"/>
-      <c r="BE81" s="52"/>
-      <c r="BF81" s="52"/>
-      <c r="BG81" s="52"/>
-      <c r="BH81" s="52"/>
-      <c r="BI81" s="52"/>
-      <c r="BJ81" s="52"/>
-      <c r="BK81" s="52"/>
-      <c r="BL81" s="52"/>
-      <c r="BM81" s="52"/>
-      <c r="BN81" s="52"/>
-      <c r="BO81" s="51"/>
-      <c r="BP81" s="52"/>
-      <c r="BQ81" s="91"/>
-      <c r="BR81" s="48"/>
-      <c r="BS81" s="90"/>
+      <c r="F81" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" s="53">
+        <v>42755.3326388889</v>
+      </c>
+      <c r="H81" s="53">
+        <v>42752.4583333333</v>
+      </c>
+      <c r="I81" s="53">
+        <v>42752.5833333333</v>
+      </c>
+      <c r="J81" s="53">
+        <v>42752.6666666667</v>
+      </c>
+      <c r="K81" s="53">
+        <v>42753.4166666667</v>
+      </c>
+      <c r="L81" s="52">
+        <v>1</v>
+      </c>
+      <c r="M81" s="52">
+        <v>1</v>
+      </c>
+      <c r="N81" s="52">
+        <v>5</v>
+      </c>
+      <c r="O81" s="52">
+        <v>1</v>
+      </c>
+      <c r="P81" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="R81" s="52">
+        <v>5</v>
+      </c>
+      <c r="S81" s="52">
+        <v>5</v>
+      </c>
+      <c r="T81" s="52">
+        <v>5</v>
+      </c>
+      <c r="U81" s="52">
+        <v>5</v>
+      </c>
+      <c r="V81" s="52">
+        <v>0</v>
+      </c>
+      <c r="W81" s="52">
+        <v>1</v>
+      </c>
+      <c r="X81" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="52">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD81" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE81" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG81" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH81" s="52">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ81" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK81" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL81" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM81" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN81" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO81" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP81" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR81" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT81" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU81" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV81" s="52">
+        <v>1</v>
+      </c>
+      <c r="AW81" s="52">
+        <v>5</v>
+      </c>
+      <c r="AX81" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY81" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ81" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA81" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB81" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC81" s="52">
+        <v>3</v>
+      </c>
+      <c r="BD81" s="52">
+        <v>1</v>
+      </c>
+      <c r="BE81" s="52">
+        <v>2</v>
+      </c>
+      <c r="BF81" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG81" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH81" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI81" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ81" s="52">
+        <v>1</v>
+      </c>
+      <c r="BK81" s="52">
+        <v>2</v>
+      </c>
+      <c r="BL81" s="52">
+        <v>2</v>
+      </c>
+      <c r="BM81" s="52">
+        <v>2</v>
+      </c>
+      <c r="BN81" s="52">
+        <v>1</v>
+      </c>
+      <c r="BO81" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP81" s="52">
+        <v>5</v>
+      </c>
+      <c r="BQ81" s="91">
+        <v>1</v>
+      </c>
+      <c r="BR81" s="48">
+        <v>1</v>
+      </c>
+      <c r="BS81" s="90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:71">
+    <row r="82" ht="27" spans="1:71">
       <c r="A82" s="41">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="B82" s="50"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="52"/>
+      <c r="B82" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="52">
+        <v>799</v>
+      </c>
       <c r="E82" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F82" s="51"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="52"/>
-      <c r="M82" s="52"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="52"/>
-      <c r="P82" s="52"/>
-      <c r="Q82" s="51"/>
-      <c r="R82" s="52"/>
-      <c r="S82" s="52"/>
-      <c r="T82" s="52"/>
-      <c r="U82" s="52"/>
-      <c r="V82" s="52"/>
-      <c r="W82" s="52"/>
-      <c r="X82" s="52"/>
-      <c r="Y82" s="52"/>
-      <c r="Z82" s="52"/>
-      <c r="AA82" s="52"/>
-      <c r="AB82" s="52"/>
-      <c r="AC82" s="51"/>
-      <c r="AD82" s="51"/>
-      <c r="AE82" s="52"/>
-      <c r="AF82" s="51"/>
-      <c r="AG82" s="51"/>
-      <c r="AH82" s="52"/>
-      <c r="AI82" s="51"/>
-      <c r="AJ82" s="52"/>
-      <c r="AK82" s="51"/>
-      <c r="AL82" s="51"/>
-      <c r="AM82" s="51"/>
-      <c r="AN82" s="51"/>
-      <c r="AO82" s="81"/>
-      <c r="AP82" s="52"/>
-      <c r="AQ82" s="51"/>
-      <c r="AR82" s="52"/>
-      <c r="AS82" s="51"/>
-      <c r="AT82" s="52"/>
-      <c r="AU82" s="52"/>
-      <c r="AV82" s="52"/>
-      <c r="AW82" s="52"/>
-      <c r="AX82" s="52"/>
-      <c r="AY82" s="52"/>
-      <c r="AZ82" s="52"/>
-      <c r="BA82" s="51"/>
-      <c r="BB82" s="52"/>
-      <c r="BC82" s="52"/>
-      <c r="BD82" s="52"/>
-      <c r="BE82" s="52"/>
-      <c r="BF82" s="52"/>
-      <c r="BG82" s="52"/>
-      <c r="BH82" s="52"/>
-      <c r="BI82" s="52"/>
-      <c r="BJ82" s="52"/>
-      <c r="BK82" s="52"/>
-      <c r="BL82" s="52"/>
-      <c r="BM82" s="52"/>
-      <c r="BN82" s="52"/>
-      <c r="BO82" s="51"/>
-      <c r="BP82" s="52"/>
-      <c r="BQ82" s="91"/>
-      <c r="BR82" s="48"/>
-      <c r="BS82" s="90"/>
+      <c r="F82" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" s="53">
+        <v>42718.8972222222</v>
+      </c>
+      <c r="H82" s="53">
+        <v>42716.4583333333</v>
+      </c>
+      <c r="I82" s="53">
+        <v>42716.5833333333</v>
+      </c>
+      <c r="J82" s="53">
+        <v>42717.6666666667</v>
+      </c>
+      <c r="K82" s="53">
+        <v>42718.4166666667</v>
+      </c>
+      <c r="L82" s="52">
+        <v>1</v>
+      </c>
+      <c r="M82" s="52">
+        <v>1</v>
+      </c>
+      <c r="N82" s="52">
+        <v>5</v>
+      </c>
+      <c r="O82" s="52">
+        <v>1</v>
+      </c>
+      <c r="P82" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q82" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="R82" s="52">
+        <v>5</v>
+      </c>
+      <c r="S82" s="52">
+        <v>5</v>
+      </c>
+      <c r="T82" s="52">
+        <v>5</v>
+      </c>
+      <c r="U82" s="52">
+        <v>5</v>
+      </c>
+      <c r="V82" s="52">
+        <v>0</v>
+      </c>
+      <c r="W82" s="52">
+        <v>1</v>
+      </c>
+      <c r="X82" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE82" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH82" s="52">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ82" s="52">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO82" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP82" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR82" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT82" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU82" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV82" s="52">
+        <v>5</v>
+      </c>
+      <c r="AW82" s="52">
+        <v>5</v>
+      </c>
+      <c r="AX82" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY82" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ82" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA82" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BD82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BE82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BF82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BK82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BL82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BM82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BN82" s="52">
+        <v>5</v>
+      </c>
+      <c r="BO82" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP82" s="52">
+        <v>1</v>
+      </c>
+      <c r="BQ82" s="91">
+        <v>5</v>
+      </c>
+      <c r="BR82" s="48">
+        <v>5</v>
+      </c>
+      <c r="BS82" s="90">
+        <v>5</v>
+      </c>
     </row>
-    <row r="83" spans="1:71">
+    <row r="83" ht="27" spans="1:71">
       <c r="A83" s="41">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="52"/>
+      <c r="B83" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="52">
+        <v>799</v>
+      </c>
       <c r="E83" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F83" s="51"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="52"/>
-      <c r="P83" s="52"/>
-      <c r="Q83" s="51"/>
-      <c r="R83" s="52"/>
-      <c r="S83" s="52"/>
-      <c r="T83" s="52"/>
-      <c r="U83" s="52"/>
-      <c r="V83" s="52"/>
-      <c r="W83" s="52"/>
-      <c r="X83" s="52"/>
-      <c r="Y83" s="52"/>
-      <c r="Z83" s="52"/>
-      <c r="AA83" s="52"/>
-      <c r="AB83" s="52"/>
-      <c r="AC83" s="51"/>
-      <c r="AD83" s="51"/>
-      <c r="AE83" s="52"/>
-      <c r="AF83" s="51"/>
-      <c r="AG83" s="51"/>
-      <c r="AH83" s="52"/>
-      <c r="AI83" s="51"/>
-      <c r="AJ83" s="52"/>
-      <c r="AK83" s="51"/>
-      <c r="AL83" s="51"/>
-      <c r="AM83" s="51"/>
-      <c r="AN83" s="51"/>
-      <c r="AO83" s="81"/>
-      <c r="AP83" s="52"/>
-      <c r="AQ83" s="51"/>
-      <c r="AR83" s="52"/>
-      <c r="AS83" s="51"/>
-      <c r="AT83" s="52"/>
-      <c r="AU83" s="52"/>
-      <c r="AV83" s="52"/>
-      <c r="AW83" s="52"/>
-      <c r="AX83" s="52"/>
-      <c r="AY83" s="52"/>
-      <c r="AZ83" s="52"/>
-      <c r="BA83" s="51"/>
-      <c r="BB83" s="52"/>
-      <c r="BC83" s="52"/>
-      <c r="BD83" s="52"/>
-      <c r="BE83" s="52"/>
-      <c r="BF83" s="52"/>
-      <c r="BG83" s="52"/>
-      <c r="BH83" s="52"/>
-      <c r="BI83" s="52"/>
-      <c r="BJ83" s="52"/>
-      <c r="BK83" s="52"/>
-      <c r="BL83" s="52"/>
-      <c r="BM83" s="52"/>
-      <c r="BN83" s="52"/>
-      <c r="BO83" s="51"/>
-      <c r="BP83" s="52"/>
-      <c r="BQ83" s="91"/>
-      <c r="BR83" s="48"/>
-      <c r="BS83" s="90"/>
+      <c r="F83" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" s="53">
+        <v>42713.9430555556</v>
+      </c>
+      <c r="H83" s="53">
+        <v>42712.4583333333</v>
+      </c>
+      <c r="I83" s="53">
+        <v>42712.5833333333</v>
+      </c>
+      <c r="J83" s="53">
+        <v>42712.6666666667</v>
+      </c>
+      <c r="K83" s="53">
+        <v>42713.4166666667</v>
+      </c>
+      <c r="L83" s="52">
+        <v>1</v>
+      </c>
+      <c r="M83" s="52">
+        <v>1</v>
+      </c>
+      <c r="N83" s="52">
+        <v>5</v>
+      </c>
+      <c r="O83" s="52">
+        <v>1</v>
+      </c>
+      <c r="P83" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="R83" s="52">
+        <v>5</v>
+      </c>
+      <c r="S83" s="52">
+        <v>5</v>
+      </c>
+      <c r="T83" s="52">
+        <v>2</v>
+      </c>
+      <c r="U83" s="52">
+        <v>3</v>
+      </c>
+      <c r="V83" s="52">
+        <v>1</v>
+      </c>
+      <c r="W83" s="52">
+        <v>1</v>
+      </c>
+      <c r="X83" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE83" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH83" s="52">
+        <v>1</v>
+      </c>
+      <c r="AI83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ83" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO83" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP83" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR83" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT83" s="52">
+        <v>4</v>
+      </c>
+      <c r="AU83" s="52">
+        <v>4</v>
+      </c>
+      <c r="AV83" s="52">
+        <v>4</v>
+      </c>
+      <c r="AW83" s="52">
+        <v>4</v>
+      </c>
+      <c r="AX83" s="52">
+        <v>4</v>
+      </c>
+      <c r="AY83" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ83" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA83" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB83" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC83" s="52">
+        <v>3</v>
+      </c>
+      <c r="BD83" s="52">
+        <v>1</v>
+      </c>
+      <c r="BE83" s="52">
+        <v>2</v>
+      </c>
+      <c r="BF83" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG83" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH83" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI83" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ83" s="52">
+        <v>2</v>
+      </c>
+      <c r="BK83" s="52">
+        <v>3</v>
+      </c>
+      <c r="BL83" s="52">
+        <v>3</v>
+      </c>
+      <c r="BM83" s="52">
+        <v>2</v>
+      </c>
+      <c r="BN83" s="52">
+        <v>2</v>
+      </c>
+      <c r="BO83" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP83" s="52">
+        <v>4</v>
+      </c>
+      <c r="BQ83" s="91">
+        <v>1</v>
+      </c>
+      <c r="BR83" s="48">
+        <v>1</v>
+      </c>
+      <c r="BS83" s="90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="1:71">
-      <c r="A84" s="92"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="52"/>
+    <row r="84" ht="27" spans="1:71">
+      <c r="A84" s="41">
+        <f t="shared" ref="A84:A92" si="5">A83+1</f>
+        <v>72</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="52">
+        <v>799</v>
+      </c>
       <c r="E84" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F84" s="51"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="52"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="52"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="52"/>
-      <c r="Q84" s="51"/>
-      <c r="R84" s="52"/>
-      <c r="S84" s="52"/>
-      <c r="T84" s="52"/>
-      <c r="U84" s="52"/>
-      <c r="V84" s="52"/>
-      <c r="W84" s="52"/>
-      <c r="X84" s="52"/>
-      <c r="Y84" s="52"/>
-      <c r="Z84" s="52"/>
-      <c r="AA84" s="52"/>
-      <c r="AB84" s="52"/>
-      <c r="AC84" s="51"/>
-      <c r="AD84" s="51"/>
-      <c r="AE84" s="52"/>
-      <c r="AF84" s="51"/>
-      <c r="AG84" s="51"/>
-      <c r="AH84" s="52"/>
-      <c r="AI84" s="51"/>
-      <c r="AJ84" s="52"/>
-      <c r="AK84" s="51"/>
-      <c r="AL84" s="51"/>
-      <c r="AM84" s="51"/>
-      <c r="AN84" s="51"/>
-      <c r="AO84" s="81"/>
-      <c r="AP84" s="52"/>
-      <c r="AQ84" s="51"/>
-      <c r="AR84" s="52"/>
-      <c r="AS84" s="51"/>
-      <c r="AT84" s="52"/>
-      <c r="AU84" s="52"/>
-      <c r="AV84" s="52"/>
-      <c r="AW84" s="52"/>
-      <c r="AX84" s="52"/>
-      <c r="AY84" s="52"/>
-      <c r="AZ84" s="52"/>
-      <c r="BA84" s="51"/>
-      <c r="BB84" s="52"/>
-      <c r="BC84" s="52"/>
-      <c r="BD84" s="52"/>
-      <c r="BE84" s="52"/>
-      <c r="BF84" s="52"/>
-      <c r="BG84" s="52"/>
-      <c r="BH84" s="52"/>
-      <c r="BI84" s="52"/>
-      <c r="BJ84" s="52"/>
-      <c r="BK84" s="52"/>
-      <c r="BL84" s="52"/>
-      <c r="BM84" s="52"/>
-      <c r="BN84" s="52"/>
-      <c r="BO84" s="51"/>
-      <c r="BP84" s="52"/>
-      <c r="BQ84" s="91"/>
-      <c r="BR84" s="48"/>
-      <c r="BS84" s="90"/>
+      <c r="F84" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" s="53">
+        <v>42709.0277777778</v>
+      </c>
+      <c r="H84" s="53">
+        <v>42706.4583333333</v>
+      </c>
+      <c r="I84" s="53">
+        <v>42706.5833333333</v>
+      </c>
+      <c r="J84" s="53">
+        <v>42707.6666666667</v>
+      </c>
+      <c r="K84" s="53">
+        <v>42708.7083333333</v>
+      </c>
+      <c r="L84" s="52">
+        <v>0</v>
+      </c>
+      <c r="M84" s="52">
+        <v>1</v>
+      </c>
+      <c r="N84" s="52">
+        <v>5</v>
+      </c>
+      <c r="O84" s="52">
+        <v>1</v>
+      </c>
+      <c r="P84" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q84" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="R84" s="52">
+        <v>5</v>
+      </c>
+      <c r="S84" s="52">
+        <v>5</v>
+      </c>
+      <c r="T84" s="52">
+        <v>2</v>
+      </c>
+      <c r="U84" s="52">
+        <v>3</v>
+      </c>
+      <c r="V84" s="52">
+        <v>1</v>
+      </c>
+      <c r="W84" s="52">
+        <v>1</v>
+      </c>
+      <c r="X84" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE84" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH84" s="52">
+        <v>2</v>
+      </c>
+      <c r="AI84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ84" s="52">
+        <v>2</v>
+      </c>
+      <c r="AK84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO84" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP84" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR84" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT84" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU84" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV84" s="52">
+        <v>5</v>
+      </c>
+      <c r="AW84" s="52">
+        <v>5</v>
+      </c>
+      <c r="AX84" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY84" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ84" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA84" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB84" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC84" s="52">
+        <v>5</v>
+      </c>
+      <c r="BD84" s="52">
+        <v>5</v>
+      </c>
+      <c r="BE84" s="52">
+        <v>5</v>
+      </c>
+      <c r="BF84" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG84" s="52">
+        <v>4</v>
+      </c>
+      <c r="BH84" s="52">
+        <v>3</v>
+      </c>
+      <c r="BI84" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ84" s="52">
+        <v>3</v>
+      </c>
+      <c r="BK84" s="52">
+        <v>5</v>
+      </c>
+      <c r="BL84" s="52">
+        <v>5</v>
+      </c>
+      <c r="BM84" s="52">
+        <v>3</v>
+      </c>
+      <c r="BN84" s="52">
+        <v>3</v>
+      </c>
+      <c r="BO84" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP84" s="52">
+        <v>4</v>
+      </c>
+      <c r="BQ84" s="91">
+        <v>1</v>
+      </c>
+      <c r="BR84" s="48">
+        <v>2</v>
+      </c>
+      <c r="BS84" s="90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="1:71">
-      <c r="A85" s="92"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="52"/>
+    <row r="85" ht="27" spans="1:71">
+      <c r="A85" s="41">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="52">
+        <v>799</v>
+      </c>
       <c r="E85" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F85" s="51"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="52"/>
-      <c r="M85" s="52"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="52"/>
-      <c r="P85" s="52"/>
-      <c r="Q85" s="51"/>
-      <c r="R85" s="52"/>
-      <c r="S85" s="52"/>
-      <c r="T85" s="52"/>
-      <c r="U85" s="52"/>
-      <c r="V85" s="52"/>
-      <c r="W85" s="52"/>
-      <c r="X85" s="52"/>
-      <c r="Y85" s="52"/>
-      <c r="Z85" s="52"/>
-      <c r="AA85" s="52"/>
-      <c r="AB85" s="52"/>
-      <c r="AC85" s="51"/>
-      <c r="AD85" s="51"/>
-      <c r="AE85" s="52"/>
-      <c r="AF85" s="51"/>
-      <c r="AG85" s="51"/>
-      <c r="AH85" s="52"/>
-      <c r="AI85" s="51"/>
-      <c r="AJ85" s="52"/>
-      <c r="AK85" s="51"/>
-      <c r="AL85" s="51"/>
-      <c r="AM85" s="51"/>
-      <c r="AN85" s="51"/>
-      <c r="AO85" s="81"/>
-      <c r="AP85" s="52"/>
-      <c r="AQ85" s="51"/>
-      <c r="AR85" s="52"/>
-      <c r="AS85" s="51"/>
-      <c r="AT85" s="52"/>
-      <c r="AU85" s="52"/>
-      <c r="AV85" s="52"/>
-      <c r="AW85" s="52"/>
-      <c r="AX85" s="52"/>
-      <c r="AY85" s="52"/>
-      <c r="AZ85" s="52"/>
-      <c r="BA85" s="51"/>
-      <c r="BB85" s="52"/>
-      <c r="BC85" s="52"/>
-      <c r="BD85" s="52"/>
-      <c r="BE85" s="52"/>
-      <c r="BF85" s="52"/>
-      <c r="BG85" s="52"/>
-      <c r="BH85" s="52"/>
-      <c r="BI85" s="52"/>
-      <c r="BJ85" s="52"/>
-      <c r="BK85" s="52"/>
-      <c r="BL85" s="52"/>
-      <c r="BM85" s="52"/>
-      <c r="BN85" s="52"/>
-      <c r="BO85" s="51"/>
-      <c r="BP85" s="52"/>
-      <c r="BQ85" s="91"/>
-      <c r="BR85" s="48"/>
-      <c r="BS85" s="90"/>
+      <c r="F85" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="G85" s="53">
+        <v>42688.9277777778</v>
+      </c>
+      <c r="H85" s="53">
+        <v>42676.4583333333</v>
+      </c>
+      <c r="I85" s="53">
+        <v>42676.5833333333</v>
+      </c>
+      <c r="J85" s="53">
+        <v>42676.6666666667</v>
+      </c>
+      <c r="K85" s="53">
+        <v>42704.4166666667</v>
+      </c>
+      <c r="L85" s="52">
+        <v>1</v>
+      </c>
+      <c r="M85" s="52">
+        <v>1</v>
+      </c>
+      <c r="N85" s="52">
+        <v>5</v>
+      </c>
+      <c r="O85" s="52">
+        <v>1</v>
+      </c>
+      <c r="P85" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q85" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="R85" s="52">
+        <v>5</v>
+      </c>
+      <c r="S85" s="52">
+        <v>5</v>
+      </c>
+      <c r="T85" s="52">
+        <v>5</v>
+      </c>
+      <c r="U85" s="52">
+        <v>5</v>
+      </c>
+      <c r="V85" s="52">
+        <v>0</v>
+      </c>
+      <c r="W85" s="52">
+        <v>1</v>
+      </c>
+      <c r="X85" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE85" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH85" s="52">
+        <v>3</v>
+      </c>
+      <c r="AI85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ85" s="52">
+        <v>3</v>
+      </c>
+      <c r="AK85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO85" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP85" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR85" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT85" s="52">
+        <v>4</v>
+      </c>
+      <c r="AU85" s="52">
+        <v>4</v>
+      </c>
+      <c r="AV85" s="52">
+        <v>2</v>
+      </c>
+      <c r="AW85" s="52">
+        <v>2</v>
+      </c>
+      <c r="AX85" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY85" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ85" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA85" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB85" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC85" s="52">
+        <v>3</v>
+      </c>
+      <c r="BD85" s="52">
+        <v>3</v>
+      </c>
+      <c r="BE85" s="52">
+        <v>4</v>
+      </c>
+      <c r="BF85" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG85" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH85" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI85" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ85" s="52">
+        <v>5</v>
+      </c>
+      <c r="BK85" s="52">
+        <v>4</v>
+      </c>
+      <c r="BL85" s="52">
+        <v>4</v>
+      </c>
+      <c r="BM85" s="52">
+        <v>4</v>
+      </c>
+      <c r="BN85" s="52">
+        <v>3</v>
+      </c>
+      <c r="BO85" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP85" s="52">
+        <v>2</v>
+      </c>
+      <c r="BQ85" s="91">
+        <v>2</v>
+      </c>
+      <c r="BR85" s="48">
+        <v>2</v>
+      </c>
+      <c r="BS85" s="90">
+        <v>2</v>
+      </c>
     </row>
-    <row r="86" spans="1:71">
-      <c r="A86" s="92"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="52"/>
+    <row r="86" ht="27" spans="1:71">
+      <c r="A86" s="41">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="B86" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="52">
+        <v>799</v>
+      </c>
       <c r="E86" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F86" s="51"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="52"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="52"/>
-      <c r="P86" s="52"/>
-      <c r="Q86" s="51"/>
-      <c r="R86" s="52"/>
-      <c r="S86" s="52"/>
-      <c r="T86" s="52"/>
-      <c r="U86" s="52"/>
-      <c r="V86" s="52"/>
-      <c r="W86" s="52"/>
-      <c r="X86" s="52"/>
-      <c r="Y86" s="52"/>
-      <c r="Z86" s="52"/>
-      <c r="AA86" s="52"/>
-      <c r="AB86" s="52"/>
-      <c r="AC86" s="51"/>
-      <c r="AD86" s="51"/>
-      <c r="AE86" s="52"/>
-      <c r="AF86" s="51"/>
-      <c r="AG86" s="51"/>
-      <c r="AH86" s="52"/>
-      <c r="AI86" s="51"/>
-      <c r="AJ86" s="52"/>
-      <c r="AK86" s="51"/>
-      <c r="AL86" s="51"/>
-      <c r="AM86" s="51"/>
-      <c r="AN86" s="51"/>
-      <c r="AO86" s="81"/>
-      <c r="AP86" s="52"/>
-      <c r="AQ86" s="51"/>
-      <c r="AR86" s="52"/>
-      <c r="AS86" s="51"/>
-      <c r="AT86" s="52"/>
-      <c r="AU86" s="52"/>
-      <c r="AV86" s="52"/>
-      <c r="AW86" s="52"/>
-      <c r="AX86" s="52"/>
-      <c r="AY86" s="52"/>
-      <c r="AZ86" s="52"/>
-      <c r="BA86" s="51"/>
-      <c r="BB86" s="52"/>
-      <c r="BC86" s="52"/>
-      <c r="BD86" s="52"/>
-      <c r="BE86" s="52"/>
-      <c r="BF86" s="52"/>
-      <c r="BG86" s="52"/>
-      <c r="BH86" s="52"/>
-      <c r="BI86" s="52"/>
-      <c r="BJ86" s="52"/>
-      <c r="BK86" s="52"/>
-      <c r="BL86" s="52"/>
-      <c r="BM86" s="52"/>
-      <c r="BN86" s="52"/>
-      <c r="BO86" s="51"/>
-      <c r="BP86" s="52"/>
-      <c r="BQ86" s="91"/>
-      <c r="BR86" s="48"/>
-      <c r="BS86" s="90"/>
+      <c r="F86" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G86" s="53">
+        <v>42758.6659722222</v>
+      </c>
+      <c r="H86" s="53">
+        <v>42757.4583333333</v>
+      </c>
+      <c r="I86" s="53">
+        <v>42757.5833333333</v>
+      </c>
+      <c r="J86" s="53">
+        <v>42757.6666666667</v>
+      </c>
+      <c r="K86" s="53">
+        <v>42758.4166666667</v>
+      </c>
+      <c r="L86" s="52">
+        <v>1</v>
+      </c>
+      <c r="M86" s="52">
+        <v>1</v>
+      </c>
+      <c r="N86" s="52">
+        <v>5</v>
+      </c>
+      <c r="O86" s="52">
+        <v>1</v>
+      </c>
+      <c r="P86" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q86" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="R86" s="52">
+        <v>5</v>
+      </c>
+      <c r="S86" s="52">
+        <v>5</v>
+      </c>
+      <c r="T86" s="52">
+        <v>1</v>
+      </c>
+      <c r="U86" s="52">
+        <v>1</v>
+      </c>
+      <c r="V86" s="52">
+        <v>0</v>
+      </c>
+      <c r="W86" s="52">
+        <v>1</v>
+      </c>
+      <c r="X86" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE86" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH86" s="52">
+        <v>4</v>
+      </c>
+      <c r="AI86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ86" s="52">
+        <v>4</v>
+      </c>
+      <c r="AK86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO86" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP86" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR86" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT86" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU86" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV86" s="52">
+        <v>5</v>
+      </c>
+      <c r="AW86" s="52">
+        <v>5</v>
+      </c>
+      <c r="AX86" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY86" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ86" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA86" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB86" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC86" s="52">
+        <v>5</v>
+      </c>
+      <c r="BD86" s="52">
+        <v>5</v>
+      </c>
+      <c r="BE86" s="52">
+        <v>5</v>
+      </c>
+      <c r="BF86" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG86" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH86" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI86" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ86" s="52">
+        <v>2</v>
+      </c>
+      <c r="BK86" s="52">
+        <v>5</v>
+      </c>
+      <c r="BL86" s="52">
+        <v>5</v>
+      </c>
+      <c r="BM86" s="52">
+        <v>4</v>
+      </c>
+      <c r="BN86" s="52">
+        <v>3</v>
+      </c>
+      <c r="BO86" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP86" s="52">
+        <v>3</v>
+      </c>
+      <c r="BQ86" s="91">
+        <v>3</v>
+      </c>
+      <c r="BR86" s="48">
+        <v>3</v>
+      </c>
+      <c r="BS86" s="90">
+        <v>3</v>
+      </c>
     </row>
-    <row r="87" spans="1:71">
-      <c r="A87" s="92"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="52"/>
+    <row r="87" ht="27" spans="1:71">
+      <c r="A87" s="41">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="B87" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="52">
+        <v>799</v>
+      </c>
       <c r="E87" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F87" s="51"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="52"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="52"/>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="51"/>
-      <c r="R87" s="52"/>
-      <c r="S87" s="52"/>
-      <c r="T87" s="52"/>
-      <c r="U87" s="52"/>
-      <c r="V87" s="52"/>
-      <c r="W87" s="52"/>
-      <c r="X87" s="52"/>
-      <c r="Y87" s="52"/>
-      <c r="Z87" s="52"/>
-      <c r="AA87" s="52"/>
-      <c r="AB87" s="52"/>
-      <c r="AC87" s="51"/>
-      <c r="AD87" s="51"/>
-      <c r="AE87" s="52"/>
-      <c r="AF87" s="51"/>
-      <c r="AG87" s="51"/>
-      <c r="AH87" s="52"/>
-      <c r="AI87" s="51"/>
-      <c r="AJ87" s="52"/>
-      <c r="AK87" s="51"/>
-      <c r="AL87" s="51"/>
-      <c r="AM87" s="51"/>
-      <c r="AN87" s="51"/>
-      <c r="AO87" s="81"/>
-      <c r="AP87" s="52"/>
-      <c r="AQ87" s="51"/>
-      <c r="AR87" s="52"/>
-      <c r="AS87" s="51"/>
-      <c r="AT87" s="52"/>
-      <c r="AU87" s="52"/>
-      <c r="AV87" s="52"/>
-      <c r="AW87" s="52"/>
-      <c r="AX87" s="52"/>
-      <c r="AY87" s="52"/>
-      <c r="AZ87" s="52"/>
-      <c r="BA87" s="51"/>
-      <c r="BB87" s="52"/>
-      <c r="BC87" s="52"/>
-      <c r="BD87" s="52"/>
-      <c r="BE87" s="52"/>
-      <c r="BF87" s="52"/>
-      <c r="BG87" s="52"/>
-      <c r="BH87" s="52"/>
-      <c r="BI87" s="52"/>
-      <c r="BJ87" s="52"/>
-      <c r="BK87" s="52"/>
-      <c r="BL87" s="52"/>
-      <c r="BM87" s="52"/>
-      <c r="BN87" s="52"/>
-      <c r="BO87" s="51"/>
-      <c r="BP87" s="52"/>
-      <c r="BQ87" s="91"/>
-      <c r="BR87" s="48"/>
-      <c r="BS87" s="90"/>
+      <c r="F87" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="53">
+        <v>42686.7708333333</v>
+      </c>
+      <c r="H87" s="53">
+        <v>42684.4583333333</v>
+      </c>
+      <c r="I87" s="53">
+        <v>42684.5833333333</v>
+      </c>
+      <c r="J87" s="53">
+        <v>42685.6666666667</v>
+      </c>
+      <c r="K87" s="53">
+        <v>42686.4166666667</v>
+      </c>
+      <c r="L87" s="52">
+        <v>1</v>
+      </c>
+      <c r="M87" s="52">
+        <v>1</v>
+      </c>
+      <c r="N87" s="52">
+        <v>5</v>
+      </c>
+      <c r="O87" s="52">
+        <v>1</v>
+      </c>
+      <c r="P87" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q87" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="R87" s="52">
+        <v>5</v>
+      </c>
+      <c r="S87" s="52">
+        <v>5</v>
+      </c>
+      <c r="T87" s="52">
+        <v>5</v>
+      </c>
+      <c r="U87" s="52">
+        <v>5</v>
+      </c>
+      <c r="V87" s="52">
+        <v>0</v>
+      </c>
+      <c r="W87" s="52">
+        <v>1</v>
+      </c>
+      <c r="X87" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE87" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH87" s="52">
+        <v>5</v>
+      </c>
+      <c r="AI87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ87" s="52">
+        <v>5</v>
+      </c>
+      <c r="AK87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO87" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP87" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR87" s="52">
+        <v>1</v>
+      </c>
+      <c r="AS87" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT87" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU87" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV87" s="52">
+        <v>2</v>
+      </c>
+      <c r="AW87" s="52">
+        <v>2</v>
+      </c>
+      <c r="AX87" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY87" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ87" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA87" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB87" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC87" s="52">
+        <v>4</v>
+      </c>
+      <c r="BD87" s="52">
+        <v>2</v>
+      </c>
+      <c r="BE87" s="52">
+        <v>2</v>
+      </c>
+      <c r="BF87" s="52">
+        <v>2</v>
+      </c>
+      <c r="BG87" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH87" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI87" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ87" s="52">
+        <v>5</v>
+      </c>
+      <c r="BK87" s="52">
+        <v>3</v>
+      </c>
+      <c r="BL87" s="52">
+        <v>4</v>
+      </c>
+      <c r="BM87" s="52">
+        <v>3</v>
+      </c>
+      <c r="BN87" s="52">
+        <v>3</v>
+      </c>
+      <c r="BO87" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP87" s="52">
+        <v>4</v>
+      </c>
+      <c r="BQ87" s="91">
+        <v>1</v>
+      </c>
+      <c r="BR87" s="48">
+        <v>2</v>
+      </c>
+      <c r="BS87" s="90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:71">
-      <c r="A88" s="92"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="52"/>
+    <row r="88" ht="27" spans="1:71">
+      <c r="A88" s="41">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="B88" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="52">
+        <v>799</v>
+      </c>
       <c r="E88" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F88" s="51"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="52"/>
-      <c r="M88" s="52"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="52"/>
-      <c r="P88" s="52"/>
-      <c r="Q88" s="51"/>
-      <c r="R88" s="52"/>
-      <c r="S88" s="52"/>
-      <c r="T88" s="52"/>
-      <c r="U88" s="52"/>
-      <c r="V88" s="52"/>
-      <c r="W88" s="52"/>
-      <c r="X88" s="52"/>
-      <c r="Y88" s="52"/>
-      <c r="Z88" s="52"/>
-      <c r="AA88" s="52"/>
-      <c r="AB88" s="52"/>
-      <c r="AC88" s="51"/>
-      <c r="AD88" s="51"/>
-      <c r="AE88" s="52"/>
-      <c r="AF88" s="51"/>
-      <c r="AG88" s="51"/>
-      <c r="AH88" s="52"/>
-      <c r="AI88" s="51"/>
-      <c r="AJ88" s="52"/>
-      <c r="AK88" s="51"/>
-      <c r="AL88" s="51"/>
-      <c r="AM88" s="51"/>
-      <c r="AN88" s="51"/>
-      <c r="AO88" s="81"/>
-      <c r="AP88" s="52"/>
-      <c r="AQ88" s="51"/>
-      <c r="AR88" s="52"/>
-      <c r="AS88" s="51"/>
-      <c r="AT88" s="52"/>
-      <c r="AU88" s="52"/>
-      <c r="AV88" s="52"/>
-      <c r="AW88" s="52"/>
-      <c r="AX88" s="52"/>
-      <c r="AY88" s="52"/>
-      <c r="AZ88" s="52"/>
-      <c r="BA88" s="51"/>
-      <c r="BB88" s="52"/>
-      <c r="BC88" s="52"/>
-      <c r="BD88" s="52"/>
-      <c r="BE88" s="52"/>
-      <c r="BF88" s="52"/>
-      <c r="BG88" s="52"/>
-      <c r="BH88" s="52"/>
-      <c r="BI88" s="52"/>
-      <c r="BJ88" s="52"/>
-      <c r="BK88" s="52"/>
-      <c r="BL88" s="52"/>
-      <c r="BM88" s="52"/>
-      <c r="BN88" s="52"/>
-      <c r="BO88" s="51"/>
-      <c r="BP88" s="52"/>
-      <c r="BQ88" s="91"/>
-      <c r="BR88" s="48"/>
-      <c r="BS88" s="90"/>
+      <c r="F88" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" s="53">
+        <v>42661.7201388889</v>
+      </c>
+      <c r="H88" s="53">
+        <v>42660.4583333333</v>
+      </c>
+      <c r="I88" s="53">
+        <v>42660.5833333333</v>
+      </c>
+      <c r="J88" s="53">
+        <v>42660.6666666667</v>
+      </c>
+      <c r="K88" s="53">
+        <v>42661.4166666667</v>
+      </c>
+      <c r="L88" s="52">
+        <v>1</v>
+      </c>
+      <c r="M88" s="52">
+        <v>1</v>
+      </c>
+      <c r="N88" s="52">
+        <v>5</v>
+      </c>
+      <c r="O88" s="52">
+        <v>1</v>
+      </c>
+      <c r="P88" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q88" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="R88" s="52">
+        <v>5</v>
+      </c>
+      <c r="S88" s="52">
+        <v>5</v>
+      </c>
+      <c r="T88" s="52">
+        <v>5</v>
+      </c>
+      <c r="U88" s="52">
+        <v>5</v>
+      </c>
+      <c r="V88" s="52">
+        <v>0</v>
+      </c>
+      <c r="W88" s="52">
+        <v>1</v>
+      </c>
+      <c r="X88" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE88" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH88" s="52">
+        <v>6</v>
+      </c>
+      <c r="AI88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ88" s="52">
+        <v>6</v>
+      </c>
+      <c r="AK88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO88" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP88" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR88" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT88" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU88" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV88" s="52">
+        <v>3</v>
+      </c>
+      <c r="AW88" s="52">
+        <v>2</v>
+      </c>
+      <c r="AX88" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY88" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ88" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA88" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB88" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC88" s="52">
+        <v>4</v>
+      </c>
+      <c r="BD88" s="52">
+        <v>3</v>
+      </c>
+      <c r="BE88" s="52">
+        <v>4</v>
+      </c>
+      <c r="BF88" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG88" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH88" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI88" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ88" s="52">
+        <v>5</v>
+      </c>
+      <c r="BK88" s="52">
+        <v>4</v>
+      </c>
+      <c r="BL88" s="52">
+        <v>4</v>
+      </c>
+      <c r="BM88" s="52">
+        <v>4</v>
+      </c>
+      <c r="BN88" s="52">
+        <v>3</v>
+      </c>
+      <c r="BO88" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP88" s="52">
+        <v>2</v>
+      </c>
+      <c r="BQ88" s="91">
+        <v>3</v>
+      </c>
+      <c r="BR88" s="48">
+        <v>3</v>
+      </c>
+      <c r="BS88" s="90">
+        <v>3</v>
+      </c>
     </row>
-    <row r="89" spans="1:71">
-      <c r="A89" s="92"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="52"/>
+    <row r="89" ht="27" spans="1:71">
+      <c r="A89" s="41">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="52">
+        <v>799</v>
+      </c>
       <c r="E89" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F89" s="51"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="52"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="52"/>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="51"/>
-      <c r="R89" s="52"/>
-      <c r="S89" s="52"/>
-      <c r="T89" s="52"/>
-      <c r="U89" s="52"/>
-      <c r="V89" s="52"/>
-      <c r="W89" s="52"/>
-      <c r="X89" s="52"/>
-      <c r="Y89" s="52"/>
-      <c r="Z89" s="52"/>
-      <c r="AA89" s="52"/>
-      <c r="AB89" s="52"/>
-      <c r="AC89" s="51"/>
-      <c r="AD89" s="51"/>
-      <c r="AE89" s="52"/>
-      <c r="AF89" s="51"/>
-      <c r="AG89" s="51"/>
-      <c r="AH89" s="52"/>
-      <c r="AI89" s="51"/>
-      <c r="AJ89" s="52"/>
-      <c r="AK89" s="51"/>
-      <c r="AL89" s="51"/>
-      <c r="AM89" s="51"/>
-      <c r="AN89" s="51"/>
-      <c r="AO89" s="81"/>
-      <c r="AP89" s="52"/>
-      <c r="AQ89" s="51"/>
-      <c r="AR89" s="52"/>
-      <c r="AS89" s="51"/>
-      <c r="AT89" s="52"/>
-      <c r="AU89" s="52"/>
-      <c r="AV89" s="52"/>
-      <c r="AW89" s="52"/>
-      <c r="AX89" s="52"/>
-      <c r="AY89" s="52"/>
-      <c r="AZ89" s="52"/>
-      <c r="BA89" s="51"/>
-      <c r="BB89" s="52"/>
-      <c r="BC89" s="52"/>
-      <c r="BD89" s="52"/>
-      <c r="BE89" s="52"/>
-      <c r="BF89" s="52"/>
-      <c r="BG89" s="52"/>
-      <c r="BH89" s="52"/>
-      <c r="BI89" s="52"/>
-      <c r="BJ89" s="52"/>
-      <c r="BK89" s="52"/>
-      <c r="BL89" s="52"/>
-      <c r="BM89" s="52"/>
-      <c r="BN89" s="52"/>
-      <c r="BO89" s="51"/>
-      <c r="BP89" s="52"/>
-      <c r="BQ89" s="91"/>
-      <c r="BR89" s="48"/>
-      <c r="BS89" s="90"/>
+      <c r="F89" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G89" s="53">
+        <v>42694.0138888889</v>
+      </c>
+      <c r="H89" s="53">
+        <v>42685.4583333333</v>
+      </c>
+      <c r="I89" s="53">
+        <v>42685.5833333333</v>
+      </c>
+      <c r="J89" s="53">
+        <v>42686.6666666667</v>
+      </c>
+      <c r="K89" s="53">
+        <v>42687.4166666667</v>
+      </c>
+      <c r="L89" s="52">
+        <v>1</v>
+      </c>
+      <c r="M89" s="52">
+        <v>1</v>
+      </c>
+      <c r="N89" s="52">
+        <v>5</v>
+      </c>
+      <c r="O89" s="52">
+        <v>1</v>
+      </c>
+      <c r="P89" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="R89" s="52">
+        <v>5</v>
+      </c>
+      <c r="S89" s="52">
+        <v>5</v>
+      </c>
+      <c r="T89" s="52">
+        <v>5</v>
+      </c>
+      <c r="U89" s="52">
+        <v>5</v>
+      </c>
+      <c r="V89" s="52">
+        <v>0</v>
+      </c>
+      <c r="W89" s="52">
+        <v>1</v>
+      </c>
+      <c r="X89" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE89" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH89" s="52">
+        <v>7</v>
+      </c>
+      <c r="AI89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ89" s="52">
+        <v>7</v>
+      </c>
+      <c r="AK89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO89" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP89" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR89" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT89" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU89" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV89" s="52">
+        <v>3</v>
+      </c>
+      <c r="AW89" s="52">
+        <v>2</v>
+      </c>
+      <c r="AX89" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY89" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ89" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA89" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB89" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC89" s="52">
+        <v>2</v>
+      </c>
+      <c r="BD89" s="52">
+        <v>2</v>
+      </c>
+      <c r="BE89" s="52">
+        <v>3</v>
+      </c>
+      <c r="BF89" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG89" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH89" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI89" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ89" s="52">
+        <v>5</v>
+      </c>
+      <c r="BK89" s="52">
+        <v>3</v>
+      </c>
+      <c r="BL89" s="52">
+        <v>3</v>
+      </c>
+      <c r="BM89" s="52">
+        <v>3</v>
+      </c>
+      <c r="BN89" s="52">
+        <v>3</v>
+      </c>
+      <c r="BO89" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP89" s="52">
+        <v>2</v>
+      </c>
+      <c r="BQ89" s="91">
+        <v>2</v>
+      </c>
+      <c r="BR89" s="48">
+        <v>3</v>
+      </c>
+      <c r="BS89" s="90">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" spans="1:71">
-      <c r="A90" s="92"/>
+      <c r="A90" s="41">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
       <c r="B90" s="50"/>
       <c r="C90" s="51"/>
       <c r="D90" s="52"/>
@@ -19098,7 +20541,10 @@
       <c r="BS90" s="90"/>
     </row>
     <row r="91" spans="1:71">
-      <c r="A91" s="92"/>
+      <c r="A91" s="41">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
       <c r="B91" s="50"/>
       <c r="C91" s="51"/>
       <c r="D91" s="52"/>
@@ -19173,7 +20619,10 @@
       <c r="BS91" s="90"/>
     </row>
     <row r="92" spans="1:71">
-      <c r="A92" s="92"/>
+      <c r="A92" s="41">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
       <c r="B92" s="50"/>
       <c r="C92" s="51"/>
       <c r="D92" s="52"/>
@@ -36736,29 +38185,29 @@
     <mergeCell ref="BQ11:BS11"/>
   </mergeCells>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N30 P30 N31 P31 N32 P32 N73 P73 N74 P74 N75 P75 N76 P76 N77 P77 N78 P78 N79 P79 N80 P80 N81 P81 N82 P82 N83 P83 N84 P84 N85 P85 N86 P86 N87 P87 N13:N29 N33:N65 N66:N72 N88:N89 N90:N148 P13:P29 P33:P65 P66:P72 P88:P89 P90:P148">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C31 C32 C73 C74 C75 C76 C77 C78 C79 C13:C29 C33:C65 C66:C72 C80:C148">
       <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R73:U73 AD73 R74:U74 AD74 R75:U75 AD75 R76:U76 AD76 R77:U77 AD77 R78:U78 AD78 R79:U79 AD79 AD13:AD72 AD80:AD175 R13:U72 R80:U82">
-      <formula1>"1,2,3,4,5,/"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V78:AA78 V79:AA79 V84:X84 Y84:AA84 V85:X85 Y85:AA85 V86:X86 Y86:AA86 V87:X87 Y87:AA87 V88:X88 Y88:AA88 V89:X89 Y89:AA89 V13:AA77 V80:AA83 V90:AA149">
+      <formula1>"0,1,/"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30 E31 E32 E73 E74 E75 E76 E77 E78 E79 E13:E29 E33:E65 E66:E72 E80:E148">
       <formula1>"京东"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L30:M30 O30 L31:M31 O31 L32:M32 O32 L73:M73 O73 AB73 L74:M74 O74 AB74 L75:M75 O75 AB75 L76:M76 O76 AB76 L77:M77 O77 AB77 L78:M78 O78 AB78 L79:M79 O79 AB79 O13:O29 O33:O65 O66:O72 O80:O148 AB13:AB72 AB80:AB98 L13:M29 L33:M65 L66:M72 L80:M148">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30 F31 F32 F73 F74 F75 F76 F77 F78 F79 F13:F29 F33:F65 F66:F72 F80:F148">
       <formula1>"安卓客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V78:AA78 V79:AA79 V13:AA77 V80:AA149">
-      <formula1>"0,1,/"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L30:M30 O30 L31:M31 O31 L32:M32 O32 L73:M73 O73 AB73 L74:M74 O74 AB74 L75:M75 O75 AB75 L76:M76 O76 AB76 L77:M77 O77 AB77 L78:M78 O78 AB78 L79:M79 O79 AB79 L80:M80 O80 L81:M81 O81 L82:M82 O82 L83:M83 O83 L84:M84 O84 L85:M85 O85 L86:M86 O86 L87:M87 O87 L88:L89 M88:M89 O13:O29 O33:O65 O66:O72 O88:O89 O90:O148 AB13:AB72 AB80:AB98 L13:M29 L33:M65 L66:M72 L90:M148">
+      <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO30 BO31 BO32 BO73 BO74 BO75 BO76 BO77 BO78 BO79 BO13:BO29 BO33:BO65 BO66:BO72 BO80:BO148">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO30 BO31 BO32 BO73 BO74 BO75 BO76 BO77 BO78 BO79 BO13:BO29 BO33:BO65 BO66:BO72 BO80:BO83 BO84:BO89 BO90:BO148">
       <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N30 P30 N31 P31 N32 P32 N73 P73 N74 P74 N75 P75 N76 P76 N77 P77 N78 P78 N79 P79 N13:N29 N33:N65 N66:N72 N80:N148 P13:P29 P33:P65 P66:P72 P80:P148">
-      <formula1>"1,2,3,4,5"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R73:U73 AD73 R74:U74 AD74 R75:U75 AD75 R76:U76 AD76 R77:U77 AD77 R78:U78 AD78 R79:U79 AD79 R85:U85 R86:U86 R87:U87 R88:U88 R89:U89 AD13:AD72 AD80:AD85 AD86:AD89 AD90:AD175 R13:U72 R80:U82">
+      <formula1>"1,2,3,4,5,/"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>是否型问题：</t>
   </si>
@@ -650,16 +650,22 @@
   <si>
     <t>2016/11/13 14:00:00</t>
   </si>
+  <si>
+    <t>2017/12/19 10:00:00</t>
+  </si>
+  <si>
+    <t>2017/1/25 10:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm"/>
@@ -691,22 +697,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -714,21 +720,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,8 +748,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,17 +772,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -780,39 +786,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,7 +811,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,7 +923,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +1055,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,103 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,55 +1097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,6 +1761,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1770,11 +1785,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1796,30 +1841,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1832,23 +1853,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1857,148 +1863,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2691,10 +2697,10 @@
   <sheetPr/>
   <dimension ref="A1:BS343"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" topLeftCell="BJ1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="BS91" sqref="BS91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -19052,13 +19058,13 @@
         <v>111</v>
       </c>
       <c r="AH83" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI83" s="51" t="s">
         <v>111</v>
       </c>
       <c r="AJ83" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK83" s="51" t="s">
         <v>111</v>
@@ -19268,13 +19274,13 @@
         <v>111</v>
       </c>
       <c r="AH84" s="52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI84" s="51" t="s">
         <v>111</v>
       </c>
       <c r="AJ84" s="52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK84" s="51" t="s">
         <v>111</v>
@@ -19484,13 +19490,13 @@
         <v>111</v>
       </c>
       <c r="AH85" s="52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI85" s="51" t="s">
         <v>111</v>
       </c>
       <c r="AJ85" s="52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK85" s="51" t="s">
         <v>111</v>
@@ -19700,13 +19706,13 @@
         <v>111</v>
       </c>
       <c r="AH86" s="52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI86" s="51" t="s">
         <v>111</v>
       </c>
       <c r="AJ86" s="52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK86" s="51" t="s">
         <v>111</v>
@@ -19916,13 +19922,13 @@
         <v>111</v>
       </c>
       <c r="AH87" s="52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI87" s="51" t="s">
         <v>111</v>
       </c>
       <c r="AJ87" s="52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK87" s="51" t="s">
         <v>111</v>
@@ -20132,13 +20138,13 @@
         <v>111</v>
       </c>
       <c r="AH88" s="52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI88" s="51" t="s">
         <v>111</v>
       </c>
       <c r="AJ88" s="52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK88" s="51" t="s">
         <v>111</v>
@@ -20348,13 +20354,13 @@
         <v>111</v>
       </c>
       <c r="AH89" s="52">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI89" s="51" t="s">
         <v>111</v>
       </c>
       <c r="AJ89" s="52">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK89" s="51" t="s">
         <v>111</v>
@@ -20462,241 +20468,655 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:71">
+    <row r="90" ht="27" spans="1:71">
       <c r="A90" s="41">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="B90" s="50"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="52"/>
+      <c r="B90" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="52">
+        <v>799</v>
+      </c>
       <c r="E90" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F90" s="51"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="52"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="52"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="51"/>
-      <c r="R90" s="52"/>
-      <c r="S90" s="52"/>
-      <c r="T90" s="52"/>
-      <c r="U90" s="52"/>
-      <c r="V90" s="52"/>
-      <c r="W90" s="52"/>
-      <c r="X90" s="52"/>
-      <c r="Y90" s="52"/>
-      <c r="Z90" s="52"/>
-      <c r="AA90" s="52"/>
-      <c r="AB90" s="52"/>
-      <c r="AC90" s="51"/>
-      <c r="AD90" s="51"/>
-      <c r="AE90" s="52"/>
-      <c r="AF90" s="51"/>
-      <c r="AG90" s="51"/>
-      <c r="AH90" s="52"/>
-      <c r="AI90" s="51"/>
-      <c r="AJ90" s="52"/>
-      <c r="AK90" s="51"/>
-      <c r="AL90" s="51"/>
-      <c r="AM90" s="51"/>
-      <c r="AN90" s="51"/>
-      <c r="AO90" s="81"/>
-      <c r="AP90" s="52"/>
-      <c r="AQ90" s="51"/>
-      <c r="AR90" s="52"/>
-      <c r="AS90" s="51"/>
-      <c r="AT90" s="52"/>
-      <c r="AU90" s="52"/>
-      <c r="AV90" s="52"/>
-      <c r="AW90" s="52"/>
-      <c r="AX90" s="52"/>
-      <c r="AY90" s="52"/>
-      <c r="AZ90" s="52"/>
-      <c r="BA90" s="51"/>
-      <c r="BB90" s="52"/>
-      <c r="BC90" s="52"/>
-      <c r="BD90" s="52"/>
-      <c r="BE90" s="52"/>
-      <c r="BF90" s="52"/>
-      <c r="BG90" s="52"/>
-      <c r="BH90" s="52"/>
-      <c r="BI90" s="52"/>
-      <c r="BJ90" s="52"/>
-      <c r="BK90" s="52"/>
-      <c r="BL90" s="52"/>
-      <c r="BM90" s="52"/>
-      <c r="BN90" s="52"/>
-      <c r="BO90" s="51"/>
-      <c r="BP90" s="52"/>
-      <c r="BQ90" s="91"/>
-      <c r="BR90" s="48"/>
-      <c r="BS90" s="90"/>
+      <c r="F90" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G90" s="53">
+        <v>42754.6534722222</v>
+      </c>
+      <c r="H90" s="53">
+        <v>42751.4583333333</v>
+      </c>
+      <c r="I90" s="53">
+        <v>42751.5833333333</v>
+      </c>
+      <c r="J90" s="53">
+        <v>42751.6666666667</v>
+      </c>
+      <c r="K90" s="53">
+        <v>42752.4166666667</v>
+      </c>
+      <c r="L90" s="52">
+        <v>1</v>
+      </c>
+      <c r="M90" s="52">
+        <v>1</v>
+      </c>
+      <c r="N90" s="52">
+        <v>5</v>
+      </c>
+      <c r="O90" s="52">
+        <v>1</v>
+      </c>
+      <c r="P90" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q90" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="R90" s="52">
+        <v>5</v>
+      </c>
+      <c r="S90" s="52">
+        <v>5</v>
+      </c>
+      <c r="T90" s="52">
+        <v>5</v>
+      </c>
+      <c r="U90" s="52">
+        <v>5</v>
+      </c>
+      <c r="V90" s="52">
+        <v>0</v>
+      </c>
+      <c r="W90" s="52">
+        <v>1</v>
+      </c>
+      <c r="X90" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="52">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD90" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE90" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG90" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH90" s="52">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ90" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK90" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL90" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM90" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN90" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO90" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP90" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ90" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR90" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS90" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT90" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU90" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV90" s="52">
+        <v>2</v>
+      </c>
+      <c r="AW90" s="52">
+        <v>5</v>
+      </c>
+      <c r="AX90" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY90" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ90" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA90" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB90" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC90" s="52">
+        <v>1</v>
+      </c>
+      <c r="BD90" s="52">
+        <v>1</v>
+      </c>
+      <c r="BE90" s="52">
+        <v>1</v>
+      </c>
+      <c r="BF90" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG90" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH90" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI90" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ90" s="52">
+        <v>3</v>
+      </c>
+      <c r="BK90" s="52">
+        <v>2</v>
+      </c>
+      <c r="BL90" s="52">
+        <v>3</v>
+      </c>
+      <c r="BM90" s="52">
+        <v>2</v>
+      </c>
+      <c r="BN90" s="52">
+        <v>1</v>
+      </c>
+      <c r="BO90" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP90" s="52">
+        <v>5</v>
+      </c>
+      <c r="BQ90" s="91">
+        <v>1</v>
+      </c>
+      <c r="BR90" s="48">
+        <v>1</v>
+      </c>
+      <c r="BS90" s="90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:71">
+    <row r="91" ht="27" spans="1:71">
       <c r="A91" s="41">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="B91" s="50"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="52"/>
+      <c r="B91" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91" s="52">
+        <v>799</v>
+      </c>
       <c r="E91" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F91" s="51"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="52"/>
-      <c r="M91" s="52"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="52"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="51"/>
-      <c r="R91" s="52"/>
-      <c r="S91" s="52"/>
-      <c r="T91" s="52"/>
-      <c r="U91" s="52"/>
-      <c r="V91" s="52"/>
-      <c r="W91" s="52"/>
-      <c r="X91" s="52"/>
-      <c r="Y91" s="52"/>
-      <c r="Z91" s="52"/>
-      <c r="AA91" s="52"/>
-      <c r="AB91" s="52"/>
-      <c r="AC91" s="51"/>
-      <c r="AD91" s="51"/>
-      <c r="AE91" s="52"/>
-      <c r="AF91" s="51"/>
-      <c r="AG91" s="51"/>
-      <c r="AH91" s="52"/>
-      <c r="AI91" s="51"/>
-      <c r="AJ91" s="52"/>
-      <c r="AK91" s="51"/>
-      <c r="AL91" s="51"/>
-      <c r="AM91" s="51"/>
-      <c r="AN91" s="51"/>
-      <c r="AO91" s="81"/>
-      <c r="AP91" s="52"/>
-      <c r="AQ91" s="51"/>
-      <c r="AR91" s="52"/>
-      <c r="AS91" s="51"/>
-      <c r="AT91" s="52"/>
-      <c r="AU91" s="52"/>
-      <c r="AV91" s="52"/>
-      <c r="AW91" s="52"/>
-      <c r="AX91" s="52"/>
-      <c r="AY91" s="52"/>
-      <c r="AZ91" s="52"/>
-      <c r="BA91" s="51"/>
-      <c r="BB91" s="52"/>
-      <c r="BC91" s="52"/>
-      <c r="BD91" s="52"/>
-      <c r="BE91" s="52"/>
-      <c r="BF91" s="52"/>
-      <c r="BG91" s="52"/>
-      <c r="BH91" s="52"/>
-      <c r="BI91" s="52"/>
-      <c r="BJ91" s="52"/>
-      <c r="BK91" s="52"/>
-      <c r="BL91" s="52"/>
-      <c r="BM91" s="52"/>
-      <c r="BN91" s="52"/>
-      <c r="BO91" s="51"/>
-      <c r="BP91" s="52"/>
-      <c r="BQ91" s="91"/>
-      <c r="BR91" s="48"/>
-      <c r="BS91" s="90"/>
+      <c r="F91" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" s="53">
+        <v>42739.4854166667</v>
+      </c>
+      <c r="H91" s="53">
+        <v>43080.4583333333</v>
+      </c>
+      <c r="I91" s="53">
+        <v>43080.5833333333</v>
+      </c>
+      <c r="J91" s="53">
+        <v>43080.6666666667</v>
+      </c>
+      <c r="K91" s="53">
+        <v>43081.4166666667</v>
+      </c>
+      <c r="L91" s="52">
+        <v>1</v>
+      </c>
+      <c r="M91" s="52">
+        <v>1</v>
+      </c>
+      <c r="N91" s="52">
+        <v>5</v>
+      </c>
+      <c r="O91" s="52">
+        <v>1</v>
+      </c>
+      <c r="P91" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="R91" s="52">
+        <v>5</v>
+      </c>
+      <c r="S91" s="52">
+        <v>5</v>
+      </c>
+      <c r="T91" s="52">
+        <v>5</v>
+      </c>
+      <c r="U91" s="52">
+        <v>5</v>
+      </c>
+      <c r="V91" s="52">
+        <v>0</v>
+      </c>
+      <c r="W91" s="52">
+        <v>1</v>
+      </c>
+      <c r="X91" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="52">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD91" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE91" s="52">
+        <v>1</v>
+      </c>
+      <c r="AF91" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG91" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH91" s="52">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ91" s="52">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL91" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM91" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN91" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO91" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP91" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR91" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS91" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT91" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU91" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV91" s="52">
+        <v>5</v>
+      </c>
+      <c r="AW91" s="52">
+        <v>5</v>
+      </c>
+      <c r="AX91" s="52">
+        <v>5</v>
+      </c>
+      <c r="AY91" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ91" s="52">
+        <v>1</v>
+      </c>
+      <c r="BA91" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB91" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC91" s="52">
+        <v>3</v>
+      </c>
+      <c r="BD91" s="52">
+        <v>2</v>
+      </c>
+      <c r="BE91" s="52">
+        <v>2</v>
+      </c>
+      <c r="BF91" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG91" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH91" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI91" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ91" s="52">
+        <v>4</v>
+      </c>
+      <c r="BK91" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL91" s="52">
+        <v>4</v>
+      </c>
+      <c r="BM91" s="52">
+        <v>2</v>
+      </c>
+      <c r="BN91" s="52">
+        <v>1</v>
+      </c>
+      <c r="BO91" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP91" s="52">
+        <v>4</v>
+      </c>
+      <c r="BQ91" s="91">
+        <v>1</v>
+      </c>
+      <c r="BR91" s="48">
+        <v>2</v>
+      </c>
+      <c r="BS91" s="90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:71">
+    <row r="92" ht="27" spans="1:71">
       <c r="A92" s="41">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="B92" s="50"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="52"/>
+      <c r="B92" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="52">
+        <v>799</v>
+      </c>
       <c r="E92" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F92" s="51"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="52"/>
-      <c r="M92" s="52"/>
-      <c r="N92" s="52"/>
-      <c r="O92" s="52"/>
-      <c r="P92" s="52"/>
-      <c r="Q92" s="51"/>
-      <c r="R92" s="52"/>
-      <c r="S92" s="52"/>
-      <c r="T92" s="52"/>
-      <c r="U92" s="52"/>
-      <c r="V92" s="52"/>
-      <c r="W92" s="52"/>
-      <c r="X92" s="52"/>
-      <c r="Y92" s="52"/>
-      <c r="Z92" s="52"/>
-      <c r="AA92" s="52"/>
-      <c r="AB92" s="52"/>
-      <c r="AC92" s="51"/>
-      <c r="AD92" s="51"/>
-      <c r="AE92" s="52"/>
-      <c r="AF92" s="51"/>
-      <c r="AG92" s="51"/>
-      <c r="AH92" s="52"/>
-      <c r="AI92" s="51"/>
-      <c r="AJ92" s="52"/>
-      <c r="AK92" s="51"/>
-      <c r="AL92" s="51"/>
-      <c r="AM92" s="51"/>
-      <c r="AN92" s="51"/>
-      <c r="AO92" s="81"/>
-      <c r="AP92" s="52"/>
-      <c r="AQ92" s="51"/>
-      <c r="AR92" s="52"/>
-      <c r="AS92" s="51"/>
-      <c r="AT92" s="52"/>
-      <c r="AU92" s="52"/>
-      <c r="AV92" s="52"/>
-      <c r="AW92" s="52"/>
-      <c r="AX92" s="52"/>
-      <c r="AY92" s="52"/>
-      <c r="AZ92" s="52"/>
-      <c r="BA92" s="51"/>
-      <c r="BB92" s="52"/>
-      <c r="BC92" s="52"/>
-      <c r="BD92" s="52"/>
-      <c r="BE92" s="52"/>
-      <c r="BF92" s="52"/>
-      <c r="BG92" s="52"/>
-      <c r="BH92" s="52"/>
-      <c r="BI92" s="52"/>
-      <c r="BJ92" s="52"/>
-      <c r="BK92" s="52"/>
-      <c r="BL92" s="52"/>
-      <c r="BM92" s="52"/>
-      <c r="BN92" s="52"/>
-      <c r="BO92" s="51"/>
-      <c r="BP92" s="52"/>
-      <c r="BQ92" s="91"/>
-      <c r="BR92" s="48"/>
-      <c r="BS92" s="90"/>
+      <c r="F92" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G92" s="53">
+        <v>42759.4763888889</v>
+      </c>
+      <c r="H92" s="53">
+        <v>42758.4583333333</v>
+      </c>
+      <c r="I92" s="53">
+        <v>42758.5833333333</v>
+      </c>
+      <c r="J92" s="53">
+        <v>42758.6666666667</v>
+      </c>
+      <c r="K92" s="53">
+        <v>42759.4166666667</v>
+      </c>
+      <c r="L92" s="52">
+        <v>1</v>
+      </c>
+      <c r="M92" s="52">
+        <v>1</v>
+      </c>
+      <c r="N92" s="52">
+        <v>5</v>
+      </c>
+      <c r="O92" s="52">
+        <v>1</v>
+      </c>
+      <c r="P92" s="52">
+        <v>5</v>
+      </c>
+      <c r="Q92" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="R92" s="52">
+        <v>5</v>
+      </c>
+      <c r="S92" s="52">
+        <v>5</v>
+      </c>
+      <c r="T92" s="52">
+        <v>5</v>
+      </c>
+      <c r="U92" s="52">
+        <v>5</v>
+      </c>
+      <c r="V92" s="52">
+        <v>0</v>
+      </c>
+      <c r="W92" s="52">
+        <v>1</v>
+      </c>
+      <c r="X92" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="52">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="52">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD92" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE92" s="52">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG92" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH92" s="52">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ92" s="52">
+        <v>1</v>
+      </c>
+      <c r="AK92" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL92" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM92" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN92" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO92" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP92" s="52">
+        <v>0</v>
+      </c>
+      <c r="AQ92" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR92" s="52">
+        <v>0</v>
+      </c>
+      <c r="AS92" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT92" s="52">
+        <v>5</v>
+      </c>
+      <c r="AU92" s="52">
+        <v>5</v>
+      </c>
+      <c r="AV92" s="52">
+        <v>5</v>
+      </c>
+      <c r="AW92" s="52">
+        <v>1</v>
+      </c>
+      <c r="AX92" s="52">
+        <v>3</v>
+      </c>
+      <c r="AY92" s="52">
+        <v>5</v>
+      </c>
+      <c r="AZ92" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA92" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB92" s="52">
+        <v>5</v>
+      </c>
+      <c r="BC92" s="52">
+        <v>1</v>
+      </c>
+      <c r="BD92" s="52">
+        <v>1</v>
+      </c>
+      <c r="BE92" s="52">
+        <v>1</v>
+      </c>
+      <c r="BF92" s="52">
+        <v>5</v>
+      </c>
+      <c r="BG92" s="52">
+        <v>5</v>
+      </c>
+      <c r="BH92" s="52">
+        <v>5</v>
+      </c>
+      <c r="BI92" s="52">
+        <v>5</v>
+      </c>
+      <c r="BJ92" s="52">
+        <v>1</v>
+      </c>
+      <c r="BK92" s="52">
+        <v>1</v>
+      </c>
+      <c r="BL92" s="52">
+        <v>1</v>
+      </c>
+      <c r="BM92" s="52">
+        <v>1</v>
+      </c>
+      <c r="BN92" s="52">
+        <v>1</v>
+      </c>
+      <c r="BO92" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP92" s="52">
+        <v>5</v>
+      </c>
+      <c r="BQ92" s="91">
+        <v>1</v>
+      </c>
+      <c r="BR92" s="48">
+        <v>1</v>
+      </c>
+      <c r="BS92" s="90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:71">
+    <row r="93" ht="27" spans="1:71">
       <c r="A93" s="92"/>
       <c r="B93" s="50"/>
       <c r="C93" s="51"/>
@@ -38191,7 +38611,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C31 C32 C73 C74 C75 C76 C77 C78 C79 C13:C29 C33:C65 C66:C72 C80:C148">
       <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V78:AA78 V79:AA79 V84:X84 Y84:AA84 V85:X85 Y85:AA85 V86:X86 Y86:AA86 V87:X87 Y87:AA87 V88:X88 Y88:AA88 V89:X89 Y89:AA89 V13:AA77 V80:AA83 V90:AA149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V78:AA78 V79:AA79 V84:X84 Y84:AA84 V85:X85 Y85:AA85 V86:X86 Y86:AA86 V87:X87 Y87:AA87 V88:W88 AA88 V89:W89 AA89 AA90:AA92 V13:AA77 V80:AA83 V90:W92 V93:AA149 X88:Z92">
       <formula1>"0,1,/"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30 E31 E32 E73 E74 E75 E76 E77 E78 E79 E13:E29 E33:E65 E66:E72 E80:E148">

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10080" windowHeight="9930"/>
+    <workbookView windowWidth="11100" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
   <si>
     <t>说明：
 1、是否型问题：0:否 1:是
@@ -637,16 +637,22 @@
   <si>
     <t>安装</t>
   </si>
+  <si>
+    <t>海尔(Haier)65升空气能热水器(一体壁挂式)智能APP远程遥控电热水器KG15/65-AE3-U1</t>
+  </si>
+  <si>
+    <t>维修</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm"/>
@@ -680,23 +686,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,7 +698,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,24 +713,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,48 +726,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,8 +755,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,6 +798,37 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,7 +910,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +1012,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,25 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,67 +1060,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,61 +1090,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,6 +1601,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1624,6 +1645,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1635,30 +1665,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1677,8 +1683,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1687,148 +1693,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2046,10 +2052,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2456,14 +2462,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:FX333"/>
+  <dimension ref="A1:FX334"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BM83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BK93" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BS95" sqref="BS95"/>
+      <selection pane="bottomRight" activeCell="BS104" sqref="BS104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -19886,7 +19892,7 @@
     </row>
     <row r="82" ht="27" spans="1:71">
       <c r="A82" s="20">
-        <f>A81+1</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B82" s="29" t="s">
@@ -20391,7 +20397,7 @@
     </row>
     <row r="85" ht="27" spans="1:180">
       <c r="A85" s="20">
-        <f t="shared" ref="A84:A102" si="6">A84+1</f>
+        <f t="shared" ref="A84:A103" si="6">A84+1</f>
         <v>82</v>
       </c>
       <c r="B85" s="29" t="s">
@@ -23965,16 +23971,11 @@
       <c r="FX95"/>
     </row>
     <row r="96" spans="1:180">
-      <c r="A96" s="20">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
+      <c r="A96" s="20"/>
       <c r="B96" s="29"/>
       <c r="C96" s="30"/>
       <c r="D96" s="31"/>
-      <c r="E96" s="30" t="s">
-        <v>83</v>
-      </c>
+      <c r="E96" s="30"/>
       <c r="F96" s="30"/>
       <c r="G96" s="32"/>
       <c r="H96" s="32"/>
@@ -24151,83 +24152,221 @@
       <c r="FW96"/>
       <c r="FX96"/>
     </row>
-    <row r="97" spans="1:180">
+    <row r="97" ht="27" spans="1:180">
       <c r="A97" s="20">
-        <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="31"/>
+        <f>A95+1</f>
+        <v>93</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" s="31">
+        <v>5499</v>
+      </c>
       <c r="E97" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F97" s="30"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="32"/>
-      <c r="L97" s="31"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31"/>
-      <c r="P97" s="31"/>
-      <c r="Q97" s="30"/>
-      <c r="R97" s="31"/>
-      <c r="S97" s="31"/>
-      <c r="T97" s="31"/>
-      <c r="U97" s="31"/>
-      <c r="V97" s="31"/>
-      <c r="W97" s="31"/>
-      <c r="X97" s="31"/>
-      <c r="Y97" s="31"/>
-      <c r="Z97" s="31"/>
-      <c r="AA97" s="31"/>
-      <c r="AB97" s="31"/>
-      <c r="AC97" s="30"/>
-      <c r="AD97" s="30"/>
-      <c r="AE97" s="31"/>
-      <c r="AF97" s="30"/>
-      <c r="AG97" s="30"/>
-      <c r="AH97" s="31"/>
-      <c r="AI97" s="30"/>
-      <c r="AJ97" s="31"/>
-      <c r="AK97" s="30"/>
-      <c r="AL97" s="30"/>
-      <c r="AM97" s="30"/>
-      <c r="AN97" s="30"/>
-      <c r="AO97" s="60"/>
-      <c r="AP97" s="31"/>
-      <c r="AQ97" s="30"/>
-      <c r="AR97" s="31"/>
-      <c r="AS97" s="30"/>
-      <c r="AT97" s="31"/>
-      <c r="AU97" s="31"/>
-      <c r="AV97" s="31"/>
-      <c r="AW97" s="31"/>
-      <c r="AX97" s="31"/>
-      <c r="AY97" s="31"/>
-      <c r="AZ97" s="31"/>
-      <c r="BA97" s="30"/>
-      <c r="BB97" s="31"/>
-      <c r="BC97" s="31"/>
-      <c r="BD97" s="31"/>
-      <c r="BE97" s="31"/>
-      <c r="BF97" s="31"/>
-      <c r="BG97" s="31"/>
-      <c r="BH97" s="31"/>
-      <c r="BI97" s="31"/>
-      <c r="BJ97" s="31"/>
-      <c r="BK97" s="31"/>
-      <c r="BL97" s="31"/>
-      <c r="BM97" s="31"/>
-      <c r="BN97" s="31"/>
-      <c r="BO97" s="30"/>
-      <c r="BP97" s="31"/>
-      <c r="BQ97" s="70"/>
-      <c r="BR97" s="27"/>
-      <c r="BS97" s="69"/>
+      <c r="F97" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G97" s="32">
+        <v>42687.8381944444</v>
+      </c>
+      <c r="H97" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I97" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J97" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K97" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L97" s="31">
+        <v>1</v>
+      </c>
+      <c r="M97" s="31">
+        <v>1</v>
+      </c>
+      <c r="N97" s="31">
+        <v>3</v>
+      </c>
+      <c r="O97" s="31">
+        <v>1</v>
+      </c>
+      <c r="P97" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="R97" s="31">
+        <v>3</v>
+      </c>
+      <c r="S97" s="31">
+        <v>3</v>
+      </c>
+      <c r="T97" s="31">
+        <v>3</v>
+      </c>
+      <c r="U97" s="31">
+        <v>3</v>
+      </c>
+      <c r="V97" s="31">
+        <v>0</v>
+      </c>
+      <c r="W97" s="31">
+        <v>1</v>
+      </c>
+      <c r="X97" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE97" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH97" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ97" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO97" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP97" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR97" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT97" s="31">
+        <v>3</v>
+      </c>
+      <c r="AU97" s="31">
+        <v>3</v>
+      </c>
+      <c r="AV97" s="31">
+        <v>3</v>
+      </c>
+      <c r="AW97" s="31">
+        <v>2</v>
+      </c>
+      <c r="AX97" s="31">
+        <v>3</v>
+      </c>
+      <c r="AY97" s="31">
+        <v>3</v>
+      </c>
+      <c r="AZ97" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA97" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB97" s="31">
+        <v>3</v>
+      </c>
+      <c r="BC97" s="31">
+        <v>3</v>
+      </c>
+      <c r="BD97" s="31">
+        <v>4</v>
+      </c>
+      <c r="BE97" s="31">
+        <v>4</v>
+      </c>
+      <c r="BF97" s="31">
+        <v>3</v>
+      </c>
+      <c r="BG97" s="31">
+        <v>3</v>
+      </c>
+      <c r="BH97" s="31">
+        <v>3</v>
+      </c>
+      <c r="BI97" s="31">
+        <v>3</v>
+      </c>
+      <c r="BJ97" s="31">
+        <v>3</v>
+      </c>
+      <c r="BK97" s="31">
+        <v>3</v>
+      </c>
+      <c r="BL97" s="31">
+        <v>3</v>
+      </c>
+      <c r="BM97" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN97" s="31">
+        <v>5</v>
+      </c>
+      <c r="BO97" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP97" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ97" s="70">
+        <v>3</v>
+      </c>
+      <c r="BR97" s="27">
+        <v>3</v>
+      </c>
+      <c r="BS97" s="69">
+        <v>3</v>
+      </c>
       <c r="BT97"/>
       <c r="BU97"/>
       <c r="BV97"/>
@@ -24338,83 +24477,221 @@
       <c r="FW97"/>
       <c r="FX97"/>
     </row>
-    <row r="98" spans="1:180">
+    <row r="98" ht="27" spans="1:180">
       <c r="A98" s="20">
-        <f t="shared" si="6"/>
-        <v>95</v>
-      </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="31"/>
+        <f>A97+1</f>
+        <v>94</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="31">
+        <v>5499</v>
+      </c>
       <c r="E98" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F98" s="30"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="31"/>
-      <c r="M98" s="31"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
-      <c r="P98" s="31"/>
-      <c r="Q98" s="30"/>
-      <c r="R98" s="31"/>
-      <c r="S98" s="31"/>
-      <c r="T98" s="31"/>
-      <c r="U98" s="31"/>
-      <c r="V98" s="31"/>
-      <c r="W98" s="31"/>
-      <c r="X98" s="31"/>
-      <c r="Y98" s="31"/>
-      <c r="Z98" s="31"/>
-      <c r="AA98" s="31"/>
-      <c r="AB98" s="31"/>
-      <c r="AC98" s="30"/>
-      <c r="AD98" s="30"/>
-      <c r="AE98" s="31"/>
-      <c r="AF98" s="30"/>
-      <c r="AG98" s="30"/>
-      <c r="AH98" s="31"/>
-      <c r="AI98" s="30"/>
-      <c r="AJ98" s="31"/>
-      <c r="AK98" s="30"/>
-      <c r="AL98" s="30"/>
-      <c r="AM98" s="30"/>
-      <c r="AN98" s="30"/>
-      <c r="AO98" s="60"/>
-      <c r="AP98" s="31"/>
-      <c r="AQ98" s="30"/>
-      <c r="AR98" s="31"/>
-      <c r="AS98" s="30"/>
-      <c r="AT98" s="31"/>
-      <c r="AU98" s="31"/>
-      <c r="AV98" s="31"/>
-      <c r="AW98" s="31"/>
-      <c r="AX98" s="31"/>
-      <c r="AY98" s="31"/>
-      <c r="AZ98" s="31"/>
-      <c r="BA98" s="30"/>
-      <c r="BB98" s="31"/>
-      <c r="BC98" s="31"/>
-      <c r="BD98" s="31"/>
-      <c r="BE98" s="31"/>
-      <c r="BF98" s="31"/>
-      <c r="BG98" s="31"/>
-      <c r="BH98" s="31"/>
-      <c r="BI98" s="31"/>
-      <c r="BJ98" s="31"/>
-      <c r="BK98" s="31"/>
-      <c r="BL98" s="31"/>
-      <c r="BM98" s="31"/>
-      <c r="BN98" s="31"/>
-      <c r="BO98" s="30"/>
-      <c r="BP98" s="31"/>
-      <c r="BQ98" s="70"/>
-      <c r="BR98" s="27"/>
-      <c r="BS98" s="69"/>
+      <c r="F98" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G98" s="32">
+        <v>42760.7479166667</v>
+      </c>
+      <c r="H98" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I98" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J98" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K98" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L98" s="31">
+        <v>1</v>
+      </c>
+      <c r="M98" s="31">
+        <v>1</v>
+      </c>
+      <c r="N98" s="31">
+        <v>2</v>
+      </c>
+      <c r="O98" s="31">
+        <v>1</v>
+      </c>
+      <c r="P98" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q98" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="R98" s="31">
+        <v>3</v>
+      </c>
+      <c r="S98" s="31">
+        <v>3</v>
+      </c>
+      <c r="T98" s="31">
+        <v>3</v>
+      </c>
+      <c r="U98" s="31">
+        <v>3</v>
+      </c>
+      <c r="V98" s="31">
+        <v>0</v>
+      </c>
+      <c r="W98" s="31">
+        <v>1</v>
+      </c>
+      <c r="X98" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z98" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="31">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD98" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE98" s="31">
+        <v>1</v>
+      </c>
+      <c r="AF98" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG98" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH98" s="31">
+        <v>1</v>
+      </c>
+      <c r="AI98" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ98" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK98" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL98" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM98" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN98" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO98" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP98" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ98" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR98" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS98" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT98" s="31">
+        <v>3</v>
+      </c>
+      <c r="AU98" s="31">
+        <v>3</v>
+      </c>
+      <c r="AV98" s="31">
+        <v>3</v>
+      </c>
+      <c r="AW98" s="31">
+        <v>2</v>
+      </c>
+      <c r="AX98" s="31">
+        <v>3</v>
+      </c>
+      <c r="AY98" s="31">
+        <v>3</v>
+      </c>
+      <c r="AZ98" s="31">
+        <v>1</v>
+      </c>
+      <c r="BA98" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB98" s="31">
+        <v>3</v>
+      </c>
+      <c r="BC98" s="31">
+        <v>3</v>
+      </c>
+      <c r="BD98" s="31">
+        <v>3</v>
+      </c>
+      <c r="BE98" s="31">
+        <v>3</v>
+      </c>
+      <c r="BF98" s="31">
+        <v>3</v>
+      </c>
+      <c r="BG98" s="31">
+        <v>3</v>
+      </c>
+      <c r="BH98" s="31">
+        <v>3</v>
+      </c>
+      <c r="BI98" s="31">
+        <v>3</v>
+      </c>
+      <c r="BJ98" s="31">
+        <v>4</v>
+      </c>
+      <c r="BK98" s="31">
+        <v>2</v>
+      </c>
+      <c r="BL98" s="31">
+        <v>3</v>
+      </c>
+      <c r="BM98" s="31">
+        <v>3</v>
+      </c>
+      <c r="BN98" s="31">
+        <v>5</v>
+      </c>
+      <c r="BO98" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP98" s="31">
+        <v>2</v>
+      </c>
+      <c r="BQ98" s="70">
+        <v>3</v>
+      </c>
+      <c r="BR98" s="27">
+        <v>3</v>
+      </c>
+      <c r="BS98" s="69">
+        <v>2</v>
+      </c>
       <c r="BT98"/>
       <c r="BU98"/>
       <c r="BV98"/>
@@ -24525,83 +24802,221 @@
       <c r="FW98"/>
       <c r="FX98"/>
     </row>
-    <row r="99" spans="1:180">
+    <row r="99" ht="27" spans="1:180">
       <c r="A99" s="20">
-        <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-      <c r="B99" s="29"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="31"/>
+        <f>A98+1</f>
+        <v>95</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" s="31">
+        <v>5499</v>
+      </c>
       <c r="E99" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F99" s="30"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="31"/>
-      <c r="M99" s="31"/>
-      <c r="N99" s="31"/>
-      <c r="O99" s="31"/>
-      <c r="P99" s="31"/>
-      <c r="Q99" s="30"/>
-      <c r="R99" s="31"/>
-      <c r="S99" s="31"/>
-      <c r="T99" s="31"/>
-      <c r="U99" s="31"/>
-      <c r="V99" s="31"/>
-      <c r="W99" s="31"/>
-      <c r="X99" s="31"/>
-      <c r="Y99" s="31"/>
-      <c r="Z99" s="31"/>
-      <c r="AA99" s="31"/>
-      <c r="AB99" s="31"/>
-      <c r="AC99" s="30"/>
-      <c r="AD99" s="30"/>
-      <c r="AE99" s="31"/>
-      <c r="AF99" s="30"/>
-      <c r="AG99" s="30"/>
-      <c r="AH99" s="31"/>
-      <c r="AI99" s="30"/>
-      <c r="AJ99" s="31"/>
-      <c r="AK99" s="30"/>
-      <c r="AL99" s="30"/>
-      <c r="AM99" s="30"/>
-      <c r="AN99" s="30"/>
-      <c r="AO99" s="60"/>
-      <c r="AP99" s="31"/>
-      <c r="AQ99" s="30"/>
-      <c r="AR99" s="31"/>
-      <c r="AS99" s="30"/>
-      <c r="AT99" s="31"/>
-      <c r="AU99" s="31"/>
-      <c r="AV99" s="31"/>
-      <c r="AW99" s="31"/>
-      <c r="AX99" s="31"/>
-      <c r="AY99" s="31"/>
-      <c r="AZ99" s="31"/>
-      <c r="BA99" s="30"/>
-      <c r="BB99" s="31"/>
-      <c r="BC99" s="31"/>
-      <c r="BD99" s="31"/>
-      <c r="BE99" s="31"/>
-      <c r="BF99" s="31"/>
-      <c r="BG99" s="31"/>
-      <c r="BH99" s="31"/>
-      <c r="BI99" s="31"/>
-      <c r="BJ99" s="31"/>
-      <c r="BK99" s="31"/>
-      <c r="BL99" s="31"/>
-      <c r="BM99" s="31"/>
-      <c r="BN99" s="31"/>
-      <c r="BO99" s="30"/>
-      <c r="BP99" s="31"/>
-      <c r="BQ99" s="70"/>
-      <c r="BR99" s="27"/>
-      <c r="BS99" s="69"/>
+      <c r="F99" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G99" s="32">
+        <v>42534.8208333333</v>
+      </c>
+      <c r="H99" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J99" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K99" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L99" s="31">
+        <v>1</v>
+      </c>
+      <c r="M99" s="31">
+        <v>1</v>
+      </c>
+      <c r="N99" s="31">
+        <v>3</v>
+      </c>
+      <c r="O99" s="31">
+        <v>1</v>
+      </c>
+      <c r="P99" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="R99" s="31">
+        <v>3</v>
+      </c>
+      <c r="S99" s="31">
+        <v>3</v>
+      </c>
+      <c r="T99" s="31">
+        <v>3</v>
+      </c>
+      <c r="U99" s="31">
+        <v>3</v>
+      </c>
+      <c r="V99" s="31">
+        <v>0</v>
+      </c>
+      <c r="W99" s="31">
+        <v>1</v>
+      </c>
+      <c r="X99" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE99" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH99" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ99" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO99" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP99" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR99" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT99" s="31">
+        <v>3</v>
+      </c>
+      <c r="AU99" s="31">
+        <v>3</v>
+      </c>
+      <c r="AV99" s="31">
+        <v>3</v>
+      </c>
+      <c r="AW99" s="31">
+        <v>2</v>
+      </c>
+      <c r="AX99" s="31">
+        <v>3</v>
+      </c>
+      <c r="AY99" s="31">
+        <v>3</v>
+      </c>
+      <c r="AZ99" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA99" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BC99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BD99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BE99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BF99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BG99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BH99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BI99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BJ99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BK99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BL99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BM99" s="31">
+        <v>3</v>
+      </c>
+      <c r="BN99" s="31">
+        <v>4</v>
+      </c>
+      <c r="BO99" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP99" s="31">
+        <v>2</v>
+      </c>
+      <c r="BQ99" s="70">
+        <v>3</v>
+      </c>
+      <c r="BR99" s="27">
+        <v>3</v>
+      </c>
+      <c r="BS99" s="69">
+        <v>3</v>
+      </c>
       <c r="BT99"/>
       <c r="BU99"/>
       <c r="BV99"/>
@@ -24712,83 +25127,221 @@
       <c r="FW99"/>
       <c r="FX99"/>
     </row>
-    <row r="100" spans="1:180">
+    <row r="100" ht="27" spans="1:180">
       <c r="A100" s="20">
-        <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="31"/>
+        <f>A99+1</f>
+        <v>96</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100" s="31">
+        <v>5499</v>
+      </c>
       <c r="E100" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F100" s="30"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="32"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
-      <c r="P100" s="31"/>
-      <c r="Q100" s="30"/>
-      <c r="R100" s="31"/>
-      <c r="S100" s="31"/>
-      <c r="T100" s="31"/>
-      <c r="U100" s="31"/>
-      <c r="V100" s="31"/>
-      <c r="W100" s="31"/>
-      <c r="X100" s="31"/>
-      <c r="Y100" s="31"/>
-      <c r="Z100" s="31"/>
-      <c r="AA100" s="31"/>
-      <c r="AB100" s="31"/>
-      <c r="AC100" s="30"/>
-      <c r="AD100" s="30"/>
-      <c r="AE100" s="31"/>
-      <c r="AF100" s="30"/>
-      <c r="AG100" s="30"/>
-      <c r="AH100" s="31"/>
-      <c r="AI100" s="30"/>
-      <c r="AJ100" s="31"/>
-      <c r="AK100" s="30"/>
-      <c r="AL100" s="30"/>
-      <c r="AM100" s="30"/>
-      <c r="AN100" s="30"/>
-      <c r="AO100" s="60"/>
-      <c r="AP100" s="31"/>
-      <c r="AQ100" s="30"/>
-      <c r="AR100" s="31"/>
-      <c r="AS100" s="30"/>
-      <c r="AT100" s="31"/>
-      <c r="AU100" s="31"/>
-      <c r="AV100" s="31"/>
-      <c r="AW100" s="31"/>
-      <c r="AX100" s="31"/>
-      <c r="AY100" s="31"/>
-      <c r="AZ100" s="31"/>
-      <c r="BA100" s="30"/>
-      <c r="BB100" s="31"/>
-      <c r="BC100" s="31"/>
-      <c r="BD100" s="31"/>
-      <c r="BE100" s="31"/>
-      <c r="BF100" s="31"/>
-      <c r="BG100" s="31"/>
-      <c r="BH100" s="31"/>
-      <c r="BI100" s="31"/>
-      <c r="BJ100" s="31"/>
-      <c r="BK100" s="31"/>
-      <c r="BL100" s="31"/>
-      <c r="BM100" s="31"/>
-      <c r="BN100" s="31"/>
-      <c r="BO100" s="30"/>
-      <c r="BP100" s="31"/>
-      <c r="BQ100" s="70"/>
-      <c r="BR100" s="27"/>
-      <c r="BS100" s="69"/>
+      <c r="F100" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G100" s="32">
+        <v>42698.3826388889</v>
+      </c>
+      <c r="H100" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I100" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J100" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K100" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L100" s="31">
+        <v>1</v>
+      </c>
+      <c r="M100" s="31">
+        <v>1</v>
+      </c>
+      <c r="N100" s="31">
+        <v>3</v>
+      </c>
+      <c r="O100" s="31">
+        <v>1</v>
+      </c>
+      <c r="P100" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="R100" s="31">
+        <v>3</v>
+      </c>
+      <c r="S100" s="31">
+        <v>3</v>
+      </c>
+      <c r="T100" s="31">
+        <v>3</v>
+      </c>
+      <c r="U100" s="31">
+        <v>3</v>
+      </c>
+      <c r="V100" s="31">
+        <v>0</v>
+      </c>
+      <c r="W100" s="31">
+        <v>1</v>
+      </c>
+      <c r="X100" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE100" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH100" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ100" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO100" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP100" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR100" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT100" s="31">
+        <v>3</v>
+      </c>
+      <c r="AU100" s="31">
+        <v>3</v>
+      </c>
+      <c r="AV100" s="31">
+        <v>2</v>
+      </c>
+      <c r="AW100" s="31">
+        <v>2</v>
+      </c>
+      <c r="AX100" s="31">
+        <v>3</v>
+      </c>
+      <c r="AY100" s="31">
+        <v>3</v>
+      </c>
+      <c r="AZ100" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA100" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BC100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BD100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BE100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BF100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BG100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BH100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BI100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BJ100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BK100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BL100" s="31">
+        <v>3</v>
+      </c>
+      <c r="BM100" s="31">
+        <v>2</v>
+      </c>
+      <c r="BN100" s="31">
+        <v>5</v>
+      </c>
+      <c r="BO100" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP100" s="31">
+        <v>2</v>
+      </c>
+      <c r="BQ100" s="70">
+        <v>3</v>
+      </c>
+      <c r="BR100" s="27">
+        <v>3</v>
+      </c>
+      <c r="BS100" s="69">
+        <v>3</v>
+      </c>
       <c r="BT100"/>
       <c r="BU100"/>
       <c r="BV100"/>
@@ -24899,83 +25452,221 @@
       <c r="FW100"/>
       <c r="FX100"/>
     </row>
-    <row r="101" spans="1:180">
+    <row r="101" ht="27" spans="1:180">
       <c r="A101" s="20">
-        <f t="shared" si="6"/>
-        <v>98</v>
-      </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="31"/>
+        <f>A100+1</f>
+        <v>97</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" s="31">
+        <v>5499</v>
+      </c>
       <c r="E101" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F101" s="30"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="31"/>
-      <c r="P101" s="31"/>
-      <c r="Q101" s="30"/>
-      <c r="R101" s="31"/>
-      <c r="S101" s="31"/>
-      <c r="T101" s="31"/>
-      <c r="U101" s="31"/>
-      <c r="V101" s="31"/>
-      <c r="W101" s="31"/>
-      <c r="X101" s="31"/>
-      <c r="Y101" s="31"/>
-      <c r="Z101" s="31"/>
-      <c r="AA101" s="31"/>
-      <c r="AB101" s="31"/>
-      <c r="AC101" s="30"/>
-      <c r="AD101" s="30"/>
-      <c r="AE101" s="31"/>
-      <c r="AF101" s="30"/>
-      <c r="AG101" s="30"/>
-      <c r="AH101" s="31"/>
-      <c r="AI101" s="30"/>
-      <c r="AJ101" s="31"/>
-      <c r="AK101" s="30"/>
-      <c r="AL101" s="30"/>
-      <c r="AM101" s="30"/>
-      <c r="AN101" s="30"/>
-      <c r="AO101" s="60"/>
-      <c r="AP101" s="31"/>
-      <c r="AQ101" s="30"/>
-      <c r="AR101" s="31"/>
-      <c r="AS101" s="30"/>
-      <c r="AT101" s="31"/>
-      <c r="AU101" s="31"/>
-      <c r="AV101" s="31"/>
-      <c r="AW101" s="31"/>
-      <c r="AX101" s="31"/>
-      <c r="AY101" s="31"/>
-      <c r="AZ101" s="31"/>
-      <c r="BA101" s="30"/>
-      <c r="BB101" s="31"/>
-      <c r="BC101" s="31"/>
-      <c r="BD101" s="31"/>
-      <c r="BE101" s="31"/>
-      <c r="BF101" s="31"/>
-      <c r="BG101" s="31"/>
-      <c r="BH101" s="31"/>
-      <c r="BI101" s="31"/>
-      <c r="BJ101" s="31"/>
-      <c r="BK101" s="31"/>
-      <c r="BL101" s="31"/>
-      <c r="BM101" s="31"/>
-      <c r="BN101" s="31"/>
-      <c r="BO101" s="30"/>
-      <c r="BP101" s="31"/>
-      <c r="BQ101" s="70"/>
-      <c r="BR101" s="27"/>
-      <c r="BS101" s="69"/>
+      <c r="F101" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G101" s="32">
+        <v>42450.3958333333</v>
+      </c>
+      <c r="H101" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I101" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J101" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K101" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L101" s="31">
+        <v>1</v>
+      </c>
+      <c r="M101" s="31">
+        <v>1</v>
+      </c>
+      <c r="N101" s="31">
+        <v>3</v>
+      </c>
+      <c r="O101" s="31">
+        <v>1</v>
+      </c>
+      <c r="P101" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="R101" s="31">
+        <v>3</v>
+      </c>
+      <c r="S101" s="31">
+        <v>3</v>
+      </c>
+      <c r="T101" s="31">
+        <v>3</v>
+      </c>
+      <c r="U101" s="31">
+        <v>3</v>
+      </c>
+      <c r="V101" s="31">
+        <v>0</v>
+      </c>
+      <c r="W101" s="31">
+        <v>1</v>
+      </c>
+      <c r="X101" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE101" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH101" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ101" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO101" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP101" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR101" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT101" s="31">
+        <v>5</v>
+      </c>
+      <c r="AU101" s="31">
+        <v>3</v>
+      </c>
+      <c r="AV101" s="31">
+        <v>3</v>
+      </c>
+      <c r="AW101" s="31">
+        <v>3</v>
+      </c>
+      <c r="AX101" s="31">
+        <v>3</v>
+      </c>
+      <c r="AY101" s="31">
+        <v>3</v>
+      </c>
+      <c r="AZ101" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA101" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB101" s="31">
+        <v>3</v>
+      </c>
+      <c r="BC101" s="31">
+        <v>3</v>
+      </c>
+      <c r="BD101" s="31">
+        <v>3</v>
+      </c>
+      <c r="BE101" s="31">
+        <v>4</v>
+      </c>
+      <c r="BF101" s="31">
+        <v>3</v>
+      </c>
+      <c r="BG101" s="31">
+        <v>3</v>
+      </c>
+      <c r="BH101" s="31">
+        <v>3</v>
+      </c>
+      <c r="BI101" s="31">
+        <v>3</v>
+      </c>
+      <c r="BJ101" s="31">
+        <v>3</v>
+      </c>
+      <c r="BK101" s="31">
+        <v>3</v>
+      </c>
+      <c r="BL101" s="31">
+        <v>4</v>
+      </c>
+      <c r="BM101" s="31">
+        <v>4</v>
+      </c>
+      <c r="BN101" s="31">
+        <v>5</v>
+      </c>
+      <c r="BO101" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP101" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ101" s="70">
+        <v>4</v>
+      </c>
+      <c r="BR101" s="27">
+        <v>3</v>
+      </c>
+      <c r="BS101" s="69">
+        <v>3</v>
+      </c>
       <c r="BT101"/>
       <c r="BU101"/>
       <c r="BV101"/>
@@ -25086,83 +25777,221 @@
       <c r="FW101"/>
       <c r="FX101"/>
     </row>
-    <row r="102" spans="1:180">
+    <row r="102" ht="27" spans="1:180">
       <c r="A102" s="20">
-        <f t="shared" si="6"/>
+        <f>A101+1</f>
+        <v>98</v>
+      </c>
+      <c r="B102" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="31"/>
+      <c r="C102" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" s="31">
+        <v>5499</v>
+      </c>
       <c r="E102" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F102" s="30"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="31"/>
-      <c r="M102" s="31"/>
-      <c r="N102" s="31"/>
-      <c r="O102" s="31"/>
-      <c r="P102" s="31"/>
-      <c r="Q102" s="30"/>
-      <c r="R102" s="31"/>
-      <c r="S102" s="31"/>
-      <c r="T102" s="31"/>
-      <c r="U102" s="31"/>
-      <c r="V102" s="31"/>
-      <c r="W102" s="31"/>
-      <c r="X102" s="31"/>
-      <c r="Y102" s="31"/>
-      <c r="Z102" s="31"/>
-      <c r="AA102" s="31"/>
-      <c r="AB102" s="31"/>
-      <c r="AC102" s="30"/>
-      <c r="AD102" s="30"/>
-      <c r="AE102" s="31"/>
-      <c r="AF102" s="30"/>
-      <c r="AG102" s="30"/>
-      <c r="AH102" s="31"/>
-      <c r="AI102" s="30"/>
-      <c r="AJ102" s="31"/>
-      <c r="AK102" s="30"/>
-      <c r="AL102" s="30"/>
-      <c r="AM102" s="30"/>
-      <c r="AN102" s="30"/>
-      <c r="AO102" s="60"/>
-      <c r="AP102" s="31"/>
-      <c r="AQ102" s="30"/>
-      <c r="AR102" s="31"/>
-      <c r="AS102" s="30"/>
-      <c r="AT102" s="31"/>
-      <c r="AU102" s="31"/>
-      <c r="AV102" s="31"/>
-      <c r="AW102" s="31"/>
-      <c r="AX102" s="31"/>
-      <c r="AY102" s="31"/>
-      <c r="AZ102" s="31"/>
-      <c r="BA102" s="30"/>
-      <c r="BB102" s="31"/>
-      <c r="BC102" s="31"/>
-      <c r="BD102" s="31"/>
-      <c r="BE102" s="31"/>
-      <c r="BF102" s="31"/>
-      <c r="BG102" s="31"/>
-      <c r="BH102" s="31"/>
-      <c r="BI102" s="31"/>
-      <c r="BJ102" s="31"/>
-      <c r="BK102" s="31"/>
-      <c r="BL102" s="31"/>
-      <c r="BM102" s="31"/>
-      <c r="BN102" s="31"/>
-      <c r="BO102" s="30"/>
-      <c r="BP102" s="31"/>
-      <c r="BQ102" s="70"/>
-      <c r="BR102" s="27"/>
-      <c r="BS102" s="69"/>
+      <c r="F102" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G102" s="32">
+        <v>42580.925</v>
+      </c>
+      <c r="H102" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I102" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J102" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K102" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L102" s="31">
+        <v>1</v>
+      </c>
+      <c r="M102" s="31">
+        <v>1</v>
+      </c>
+      <c r="N102" s="31">
+        <v>3</v>
+      </c>
+      <c r="O102" s="31">
+        <v>1</v>
+      </c>
+      <c r="P102" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="R102" s="31">
+        <v>3</v>
+      </c>
+      <c r="S102" s="31">
+        <v>2</v>
+      </c>
+      <c r="T102" s="31">
+        <v>3</v>
+      </c>
+      <c r="U102" s="31">
+        <v>2</v>
+      </c>
+      <c r="V102" s="31">
+        <v>0</v>
+      </c>
+      <c r="W102" s="31">
+        <v>1</v>
+      </c>
+      <c r="X102" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE102" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH102" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ102" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO102" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP102" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR102" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT102" s="31">
+        <v>3</v>
+      </c>
+      <c r="AU102" s="31">
+        <v>3</v>
+      </c>
+      <c r="AV102" s="31">
+        <v>3</v>
+      </c>
+      <c r="AW102" s="31">
+        <v>2</v>
+      </c>
+      <c r="AX102" s="31">
+        <v>3</v>
+      </c>
+      <c r="AY102" s="31">
+        <v>3</v>
+      </c>
+      <c r="AZ102" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA102" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB102" s="31">
+        <v>2</v>
+      </c>
+      <c r="BC102" s="31">
+        <v>2</v>
+      </c>
+      <c r="BD102" s="31">
+        <v>2</v>
+      </c>
+      <c r="BE102" s="31">
+        <v>3</v>
+      </c>
+      <c r="BF102" s="31">
+        <v>3</v>
+      </c>
+      <c r="BG102" s="31">
+        <v>3</v>
+      </c>
+      <c r="BH102" s="31">
+        <v>3</v>
+      </c>
+      <c r="BI102" s="31">
+        <v>2</v>
+      </c>
+      <c r="BJ102" s="31">
+        <v>2</v>
+      </c>
+      <c r="BK102" s="31">
+        <v>3</v>
+      </c>
+      <c r="BL102" s="31">
+        <v>3</v>
+      </c>
+      <c r="BM102" s="31">
+        <v>3</v>
+      </c>
+      <c r="BN102" s="31">
+        <v>5</v>
+      </c>
+      <c r="BO102" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP102" s="31">
+        <v>2</v>
+      </c>
+      <c r="BQ102" s="70">
+        <v>3</v>
+      </c>
+      <c r="BR102" s="27">
+        <v>2</v>
+      </c>
+      <c r="BS102" s="69">
+        <v>3</v>
+      </c>
       <c r="BT102"/>
       <c r="BU102"/>
       <c r="BV102"/>
@@ -25273,161 +26102,545 @@
       <c r="FW102"/>
       <c r="FX102"/>
     </row>
-    <row r="103" spans="1:71">
+    <row r="103" ht="27" spans="1:180">
       <c r="A103" s="20">
         <f>A102+1</f>
-        <v>100</v>
-      </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="31"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="31">
+        <v>5499</v>
+      </c>
       <c r="E103" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F103" s="30"/>
-      <c r="G103" s="71"/>
-      <c r="H103" s="71"/>
-      <c r="I103" s="71"/>
-      <c r="J103" s="71"/>
-      <c r="K103" s="71"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="31"/>
-      <c r="O103" s="31"/>
-      <c r="P103" s="31"/>
-      <c r="Q103" s="30"/>
-      <c r="R103" s="31"/>
-      <c r="S103" s="31"/>
-      <c r="T103" s="31"/>
-      <c r="U103" s="31"/>
-      <c r="V103" s="31"/>
-      <c r="W103" s="31"/>
-      <c r="X103" s="31"/>
-      <c r="Y103" s="31"/>
-      <c r="Z103" s="31"/>
-      <c r="AA103" s="31"/>
-      <c r="AB103" s="31"/>
-      <c r="AC103" s="30"/>
-      <c r="AD103" s="30"/>
-      <c r="AE103" s="31"/>
-      <c r="AF103" s="30"/>
-      <c r="AG103" s="30"/>
-      <c r="AH103" s="31"/>
-      <c r="AI103" s="30"/>
-      <c r="AJ103" s="31"/>
-      <c r="AK103" s="30"/>
-      <c r="AL103" s="30"/>
-      <c r="AM103" s="30"/>
-      <c r="AN103" s="30"/>
-      <c r="AO103" s="60"/>
-      <c r="AP103" s="31"/>
-      <c r="AQ103" s="30"/>
-      <c r="AR103" s="31"/>
-      <c r="AS103" s="30"/>
-      <c r="AT103" s="31"/>
-      <c r="AU103" s="31"/>
-      <c r="AV103" s="31"/>
-      <c r="AW103" s="31"/>
-      <c r="AX103" s="31"/>
-      <c r="AY103" s="31"/>
-      <c r="AZ103" s="31"/>
-      <c r="BA103" s="30"/>
-      <c r="BB103" s="31"/>
-      <c r="BC103" s="31"/>
-      <c r="BD103" s="31"/>
-      <c r="BE103" s="31"/>
-      <c r="BF103" s="31"/>
-      <c r="BG103" s="31"/>
-      <c r="BH103" s="31"/>
-      <c r="BI103" s="31"/>
-      <c r="BJ103" s="31"/>
-      <c r="BK103" s="31"/>
-      <c r="BL103" s="31"/>
-      <c r="BM103" s="31"/>
-      <c r="BN103" s="31"/>
-      <c r="BO103" s="30"/>
-      <c r="BP103" s="31"/>
-      <c r="BQ103" s="70"/>
-      <c r="BR103" s="27"/>
-      <c r="BS103" s="69"/>
+      <c r="F103" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" s="32">
+        <v>42541.4881944444</v>
+      </c>
+      <c r="H103" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I103" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J103" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K103" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L103" s="31">
+        <v>1</v>
+      </c>
+      <c r="M103" s="31">
+        <v>1</v>
+      </c>
+      <c r="N103" s="31">
+        <v>3</v>
+      </c>
+      <c r="O103" s="31">
+        <v>1</v>
+      </c>
+      <c r="P103" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q103" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="R103" s="31">
+        <v>3</v>
+      </c>
+      <c r="S103" s="31">
+        <v>3</v>
+      </c>
+      <c r="T103" s="31">
+        <v>1</v>
+      </c>
+      <c r="U103" s="31">
+        <v>2</v>
+      </c>
+      <c r="V103" s="31">
+        <v>0</v>
+      </c>
+      <c r="W103" s="31">
+        <v>1</v>
+      </c>
+      <c r="X103" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="31">
+        <v>1</v>
+      </c>
+      <c r="AC103" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD103" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE103" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG103" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH103" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ103" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK103" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL103" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM103" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN103" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO103" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP103" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ103" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR103" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS103" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT103" s="31">
+        <v>3</v>
+      </c>
+      <c r="AU103" s="31">
+        <v>3</v>
+      </c>
+      <c r="AV103" s="31">
+        <v>3</v>
+      </c>
+      <c r="AW103" s="31">
+        <v>1</v>
+      </c>
+      <c r="AX103" s="31">
+        <v>3</v>
+      </c>
+      <c r="AY103" s="31">
+        <v>3</v>
+      </c>
+      <c r="AZ103" s="31">
+        <v>1</v>
+      </c>
+      <c r="BA103" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB103" s="31">
+        <v>2</v>
+      </c>
+      <c r="BC103" s="31">
+        <v>2</v>
+      </c>
+      <c r="BD103" s="31">
+        <v>1</v>
+      </c>
+      <c r="BE103" s="31">
+        <v>2</v>
+      </c>
+      <c r="BF103" s="31">
+        <v>3</v>
+      </c>
+      <c r="BG103" s="31">
+        <v>3</v>
+      </c>
+      <c r="BH103" s="31">
+        <v>3</v>
+      </c>
+      <c r="BI103" s="31">
+        <v>2</v>
+      </c>
+      <c r="BJ103" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK103" s="31">
+        <v>3</v>
+      </c>
+      <c r="BL103" s="31">
+        <v>3</v>
+      </c>
+      <c r="BM103" s="31">
+        <v>2</v>
+      </c>
+      <c r="BN103" s="31">
+        <v>3</v>
+      </c>
+      <c r="BO103" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP103" s="31">
+        <v>4</v>
+      </c>
+      <c r="BQ103" s="70">
+        <v>2</v>
+      </c>
+      <c r="BR103" s="27">
+        <v>1</v>
+      </c>
+      <c r="BS103" s="69">
+        <v>1</v>
+      </c>
+      <c r="BT103"/>
+      <c r="BU103"/>
+      <c r="BV103"/>
+      <c r="BW103"/>
+      <c r="BX103"/>
+      <c r="BY103"/>
+      <c r="BZ103"/>
+      <c r="CA103"/>
+      <c r="CB103"/>
+      <c r="CC103"/>
+      <c r="CD103"/>
+      <c r="CE103"/>
+      <c r="CF103"/>
+      <c r="CG103"/>
+      <c r="CH103"/>
+      <c r="CI103"/>
+      <c r="CJ103"/>
+      <c r="CK103"/>
+      <c r="CL103"/>
+      <c r="CM103"/>
+      <c r="CN103"/>
+      <c r="CO103"/>
+      <c r="CP103"/>
+      <c r="CQ103"/>
+      <c r="CR103"/>
+      <c r="CS103"/>
+      <c r="CT103"/>
+      <c r="CU103"/>
+      <c r="CV103"/>
+      <c r="CW103"/>
+      <c r="CX103"/>
+      <c r="CY103"/>
+      <c r="CZ103"/>
+      <c r="DA103"/>
+      <c r="DB103"/>
+      <c r="DC103"/>
+      <c r="DD103"/>
+      <c r="DE103"/>
+      <c r="DF103"/>
+      <c r="DG103"/>
+      <c r="DH103"/>
+      <c r="DI103"/>
+      <c r="DJ103"/>
+      <c r="DK103"/>
+      <c r="DL103"/>
+      <c r="DM103"/>
+      <c r="DN103"/>
+      <c r="DO103"/>
+      <c r="DP103"/>
+      <c r="DQ103"/>
+      <c r="DR103"/>
+      <c r="DS103"/>
+      <c r="DT103"/>
+      <c r="DU103"/>
+      <c r="DV103"/>
+      <c r="DW103"/>
+      <c r="DX103"/>
+      <c r="DY103"/>
+      <c r="DZ103"/>
+      <c r="EA103"/>
+      <c r="EB103"/>
+      <c r="EC103"/>
+      <c r="ED103"/>
+      <c r="EE103"/>
+      <c r="EF103"/>
+      <c r="EG103"/>
+      <c r="EH103"/>
+      <c r="EI103"/>
+      <c r="EJ103"/>
+      <c r="EK103"/>
+      <c r="EL103"/>
+      <c r="EM103"/>
+      <c r="EN103"/>
+      <c r="EO103"/>
+      <c r="EP103"/>
+      <c r="EQ103"/>
+      <c r="ER103"/>
+      <c r="ES103"/>
+      <c r="ET103"/>
+      <c r="EU103"/>
+      <c r="EV103"/>
+      <c r="EW103"/>
+      <c r="EX103"/>
+      <c r="EY103"/>
+      <c r="EZ103"/>
+      <c r="FA103"/>
+      <c r="FB103"/>
+      <c r="FC103"/>
+      <c r="FD103"/>
+      <c r="FE103"/>
+      <c r="FF103"/>
+      <c r="FG103"/>
+      <c r="FH103"/>
+      <c r="FI103"/>
+      <c r="FJ103"/>
+      <c r="FK103"/>
+      <c r="FL103"/>
+      <c r="FM103"/>
+      <c r="FN103"/>
+      <c r="FO103"/>
+      <c r="FP103"/>
+      <c r="FQ103"/>
+      <c r="FR103"/>
+      <c r="FS103"/>
+      <c r="FT103"/>
+      <c r="FU103"/>
+      <c r="FV103"/>
+      <c r="FW103"/>
+      <c r="FX103"/>
     </row>
-    <row r="104" spans="1:71">
-      <c r="A104" s="72"/>
+    <row r="104" ht="27" spans="1:71">
+      <c r="A104" s="20">
+        <f>A103+1</f>
+        <v>100</v>
+      </c>
       <c r="B104" s="29"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="31"/>
+      <c r="C104" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104" s="31">
+        <v>5499</v>
+      </c>
       <c r="E104" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F104" s="30"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="71"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="71"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="31"/>
-      <c r="O104" s="31"/>
-      <c r="P104" s="31"/>
-      <c r="Q104" s="30"/>
-      <c r="R104" s="31"/>
-      <c r="S104" s="31"/>
-      <c r="T104" s="31"/>
-      <c r="U104" s="31"/>
-      <c r="V104" s="31"/>
-      <c r="W104" s="31"/>
-      <c r="X104" s="31"/>
-      <c r="Y104" s="31"/>
-      <c r="Z104" s="31"/>
-      <c r="AA104" s="31"/>
-      <c r="AB104" s="31"/>
-      <c r="AC104" s="30"/>
-      <c r="AD104" s="30"/>
-      <c r="AE104" s="31"/>
-      <c r="AF104" s="30"/>
-      <c r="AG104" s="30"/>
-      <c r="AH104" s="31"/>
-      <c r="AI104" s="30"/>
-      <c r="AJ104" s="31"/>
-      <c r="AK104" s="30"/>
-      <c r="AL104" s="30"/>
-      <c r="AM104" s="30"/>
-      <c r="AN104" s="30"/>
-      <c r="AO104" s="60"/>
-      <c r="AP104" s="31"/>
-      <c r="AQ104" s="30"/>
-      <c r="AR104" s="31"/>
-      <c r="AS104" s="30"/>
-      <c r="AT104" s="31"/>
-      <c r="AU104" s="31"/>
-      <c r="AV104" s="31"/>
-      <c r="AW104" s="31"/>
-      <c r="AX104" s="31"/>
-      <c r="AY104" s="31"/>
-      <c r="AZ104" s="31"/>
-      <c r="BA104" s="30"/>
-      <c r="BB104" s="31"/>
-      <c r="BC104" s="31"/>
-      <c r="BD104" s="31"/>
-      <c r="BE104" s="31"/>
-      <c r="BF104" s="31"/>
-      <c r="BG104" s="31"/>
-      <c r="BH104" s="31"/>
-      <c r="BI104" s="31"/>
-      <c r="BJ104" s="31"/>
-      <c r="BK104" s="31"/>
-      <c r="BL104" s="31"/>
-      <c r="BM104" s="31"/>
-      <c r="BN104" s="31"/>
-      <c r="BO104" s="30"/>
-      <c r="BP104" s="31"/>
-      <c r="BQ104" s="70"/>
-      <c r="BR104" s="27"/>
+      <c r="F104" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G104" s="32">
+        <v>42603.025</v>
+      </c>
+      <c r="H104" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I104" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J104" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K104" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L104" s="31">
+        <v>1</v>
+      </c>
+      <c r="M104" s="31">
+        <v>1</v>
+      </c>
+      <c r="N104" s="31">
+        <v>3</v>
+      </c>
+      <c r="O104" s="31">
+        <v>1</v>
+      </c>
+      <c r="P104" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="R104" s="31">
+        <v>2</v>
+      </c>
+      <c r="S104" s="31">
+        <v>1</v>
+      </c>
+      <c r="T104" s="31">
+        <v>2</v>
+      </c>
+      <c r="U104" s="31">
+        <v>2</v>
+      </c>
+      <c r="V104" s="31">
+        <v>0</v>
+      </c>
+      <c r="W104" s="31">
+        <v>1</v>
+      </c>
+      <c r="X104" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE104" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH104" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ104" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO104" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP104" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR104" s="31">
+        <v>0</v>
+      </c>
+      <c r="AS104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT104" s="31">
+        <v>3</v>
+      </c>
+      <c r="AU104" s="31">
+        <v>3</v>
+      </c>
+      <c r="AV104" s="31">
+        <v>3</v>
+      </c>
+      <c r="AW104" s="31">
+        <v>3</v>
+      </c>
+      <c r="AX104" s="31">
+        <v>3</v>
+      </c>
+      <c r="AY104" s="31">
+        <v>3</v>
+      </c>
+      <c r="AZ104" s="31">
+        <v>0</v>
+      </c>
+      <c r="BA104" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB104" s="31">
+        <v>1</v>
+      </c>
+      <c r="BC104" s="31">
+        <v>2</v>
+      </c>
+      <c r="BD104" s="31">
+        <v>2</v>
+      </c>
+      <c r="BE104" s="31">
+        <v>3</v>
+      </c>
+      <c r="BF104" s="31">
+        <v>3</v>
+      </c>
+      <c r="BG104" s="31">
+        <v>3</v>
+      </c>
+      <c r="BH104" s="31">
+        <v>3</v>
+      </c>
+      <c r="BI104" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ104" s="31">
+        <v>3</v>
+      </c>
+      <c r="BK104" s="31">
+        <v>3</v>
+      </c>
+      <c r="BL104" s="31">
+        <v>3</v>
+      </c>
+      <c r="BM104" s="31">
+        <v>3</v>
+      </c>
+      <c r="BN104" s="31">
+        <v>2</v>
+      </c>
+      <c r="BO104" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP104" s="31">
+        <v>3</v>
+      </c>
+      <c r="BQ104" s="70">
+        <v>3</v>
+      </c>
+      <c r="BR104" s="27">
+        <v>3</v>
+      </c>
       <c r="BS104" s="69"/>
     </row>
     <row r="105" spans="1:71">
-      <c r="A105" s="72"/>
+      <c r="A105" s="71"/>
       <c r="B105" s="29"/>
       <c r="C105" s="30"/>
       <c r="D105" s="31"/>
@@ -25435,11 +26648,11 @@
         <v>83</v>
       </c>
       <c r="F105" s="30"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="71"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="71"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="72"/>
       <c r="L105" s="31"/>
       <c r="M105" s="31"/>
       <c r="N105" s="31"/>
@@ -25502,7 +26715,7 @@
       <c r="BS105" s="69"/>
     </row>
     <row r="106" spans="1:71">
-      <c r="A106" s="72"/>
+      <c r="A106" s="71"/>
       <c r="B106" s="29"/>
       <c r="C106" s="30"/>
       <c r="D106" s="31"/>
@@ -25510,11 +26723,11 @@
         <v>83</v>
       </c>
       <c r="F106" s="30"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="71"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="71"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
       <c r="L106" s="31"/>
       <c r="M106" s="31"/>
       <c r="N106" s="31"/>
@@ -25577,7 +26790,7 @@
       <c r="BS106" s="69"/>
     </row>
     <row r="107" spans="1:71">
-      <c r="A107" s="72"/>
+      <c r="A107" s="71"/>
       <c r="B107" s="29"/>
       <c r="C107" s="30"/>
       <c r="D107" s="31"/>
@@ -25585,11 +26798,11 @@
         <v>83</v>
       </c>
       <c r="F107" s="30"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="71"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="72"/>
       <c r="L107" s="31"/>
       <c r="M107" s="31"/>
       <c r="N107" s="31"/>
@@ -25652,7 +26865,7 @@
       <c r="BS107" s="69"/>
     </row>
     <row r="108" spans="1:71">
-      <c r="A108" s="72"/>
+      <c r="A108" s="71"/>
       <c r="B108" s="29"/>
       <c r="C108" s="30"/>
       <c r="D108" s="31"/>
@@ -25660,11 +26873,11 @@
         <v>83</v>
       </c>
       <c r="F108" s="30"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="71"/>
-      <c r="J108" s="71"/>
-      <c r="K108" s="71"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="72"/>
       <c r="L108" s="31"/>
       <c r="M108" s="31"/>
       <c r="N108" s="31"/>
@@ -25727,7 +26940,7 @@
       <c r="BS108" s="69"/>
     </row>
     <row r="109" spans="1:71">
-      <c r="A109" s="72"/>
+      <c r="A109" s="71"/>
       <c r="B109" s="29"/>
       <c r="C109" s="30"/>
       <c r="D109" s="31"/>
@@ -25735,11 +26948,11 @@
         <v>83</v>
       </c>
       <c r="F109" s="30"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="71"/>
-      <c r="J109" s="71"/>
-      <c r="K109" s="71"/>
+      <c r="G109" s="72"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="72"/>
+      <c r="K109" s="72"/>
       <c r="L109" s="31"/>
       <c r="M109" s="31"/>
       <c r="N109" s="31"/>
@@ -25802,7 +27015,7 @@
       <c r="BS109" s="69"/>
     </row>
     <row r="110" spans="1:71">
-      <c r="A110" s="72"/>
+      <c r="A110" s="71"/>
       <c r="B110" s="29"/>
       <c r="C110" s="30"/>
       <c r="D110" s="31"/>
@@ -25810,11 +27023,11 @@
         <v>83</v>
       </c>
       <c r="F110" s="30"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="71"/>
-      <c r="K110" s="71"/>
+      <c r="G110" s="72"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="72"/>
+      <c r="K110" s="72"/>
       <c r="L110" s="31"/>
       <c r="M110" s="31"/>
       <c r="N110" s="31"/>
@@ -25877,7 +27090,7 @@
       <c r="BS110" s="69"/>
     </row>
     <row r="111" spans="1:71">
-      <c r="A111" s="72"/>
+      <c r="A111" s="71"/>
       <c r="B111" s="29"/>
       <c r="C111" s="30"/>
       <c r="D111" s="31"/>
@@ -25885,11 +27098,11 @@
         <v>83</v>
       </c>
       <c r="F111" s="30"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="71"/>
-      <c r="J111" s="71"/>
-      <c r="K111" s="71"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
+      <c r="K111" s="72"/>
       <c r="L111" s="31"/>
       <c r="M111" s="31"/>
       <c r="N111" s="31"/>
@@ -25952,7 +27165,7 @@
       <c r="BS111" s="69"/>
     </row>
     <row r="112" spans="1:71">
-      <c r="A112" s="72"/>
+      <c r="A112" s="71"/>
       <c r="B112" s="29"/>
       <c r="C112" s="30"/>
       <c r="D112" s="31"/>
@@ -25960,11 +27173,11 @@
         <v>83</v>
       </c>
       <c r="F112" s="30"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="71"/>
-      <c r="J112" s="71"/>
-      <c r="K112" s="71"/>
+      <c r="G112" s="72"/>
+      <c r="H112" s="72"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="72"/>
+      <c r="K112" s="72"/>
       <c r="L112" s="31"/>
       <c r="M112" s="31"/>
       <c r="N112" s="31"/>
@@ -26027,7 +27240,7 @@
       <c r="BS112" s="69"/>
     </row>
     <row r="113" spans="1:71">
-      <c r="A113" s="72"/>
+      <c r="A113" s="71"/>
       <c r="B113" s="29"/>
       <c r="C113" s="30"/>
       <c r="D113" s="31"/>
@@ -26035,11 +27248,11 @@
         <v>83</v>
       </c>
       <c r="F113" s="30"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="71"/>
-      <c r="J113" s="71"/>
-      <c r="K113" s="71"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="72"/>
       <c r="L113" s="31"/>
       <c r="M113" s="31"/>
       <c r="N113" s="31"/>
@@ -26102,7 +27315,7 @@
       <c r="BS113" s="69"/>
     </row>
     <row r="114" spans="1:71">
-      <c r="A114" s="72"/>
+      <c r="A114" s="71"/>
       <c r="B114" s="29"/>
       <c r="C114" s="30"/>
       <c r="D114" s="31"/>
@@ -26110,11 +27323,11 @@
         <v>83</v>
       </c>
       <c r="F114" s="30"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="71"/>
-      <c r="J114" s="71"/>
-      <c r="K114" s="71"/>
+      <c r="G114" s="72"/>
+      <c r="H114" s="72"/>
+      <c r="I114" s="72"/>
+      <c r="J114" s="72"/>
+      <c r="K114" s="72"/>
       <c r="L114" s="31"/>
       <c r="M114" s="31"/>
       <c r="N114" s="31"/>
@@ -26177,7 +27390,7 @@
       <c r="BS114" s="69"/>
     </row>
     <row r="115" spans="1:71">
-      <c r="A115" s="72"/>
+      <c r="A115" s="71"/>
       <c r="B115" s="29"/>
       <c r="C115" s="30"/>
       <c r="D115" s="31"/>
@@ -26185,11 +27398,11 @@
         <v>83</v>
       </c>
       <c r="F115" s="30"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="71"/>
-      <c r="J115" s="71"/>
-      <c r="K115" s="71"/>
+      <c r="G115" s="72"/>
+      <c r="H115" s="72"/>
+      <c r="I115" s="72"/>
+      <c r="J115" s="72"/>
+      <c r="K115" s="72"/>
       <c r="L115" s="31"/>
       <c r="M115" s="31"/>
       <c r="N115" s="31"/>
@@ -26252,7 +27465,7 @@
       <c r="BS115" s="69"/>
     </row>
     <row r="116" spans="1:71">
-      <c r="A116" s="72"/>
+      <c r="A116" s="71"/>
       <c r="B116" s="29"/>
       <c r="C116" s="30"/>
       <c r="D116" s="31"/>
@@ -26260,11 +27473,11 @@
         <v>83</v>
       </c>
       <c r="F116" s="30"/>
-      <c r="G116" s="71"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="71"/>
-      <c r="J116" s="71"/>
-      <c r="K116" s="71"/>
+      <c r="G116" s="72"/>
+      <c r="H116" s="72"/>
+      <c r="I116" s="72"/>
+      <c r="J116" s="72"/>
+      <c r="K116" s="72"/>
       <c r="L116" s="31"/>
       <c r="M116" s="31"/>
       <c r="N116" s="31"/>
@@ -26327,7 +27540,7 @@
       <c r="BS116" s="69"/>
     </row>
     <row r="117" spans="1:71">
-      <c r="A117" s="72"/>
+      <c r="A117" s="71"/>
       <c r="B117" s="29"/>
       <c r="C117" s="30"/>
       <c r="D117" s="31"/>
@@ -26335,11 +27548,11 @@
         <v>83</v>
       </c>
       <c r="F117" s="30"/>
-      <c r="G117" s="71"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="71"/>
-      <c r="K117" s="71"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="72"/>
+      <c r="I117" s="72"/>
+      <c r="J117" s="72"/>
+      <c r="K117" s="72"/>
       <c r="L117" s="31"/>
       <c r="M117" s="31"/>
       <c r="N117" s="31"/>
@@ -26402,7 +27615,7 @@
       <c r="BS117" s="69"/>
     </row>
     <row r="118" spans="1:71">
-      <c r="A118" s="72"/>
+      <c r="A118" s="71"/>
       <c r="B118" s="29"/>
       <c r="C118" s="30"/>
       <c r="D118" s="31"/>
@@ -26410,11 +27623,11 @@
         <v>83</v>
       </c>
       <c r="F118" s="30"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="71"/>
-      <c r="J118" s="71"/>
-      <c r="K118" s="71"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
+      <c r="K118" s="72"/>
       <c r="L118" s="31"/>
       <c r="M118" s="31"/>
       <c r="N118" s="31"/>
@@ -26477,7 +27690,7 @@
       <c r="BS118" s="69"/>
     </row>
     <row r="119" spans="1:71">
-      <c r="A119" s="72"/>
+      <c r="A119" s="71"/>
       <c r="B119" s="29"/>
       <c r="C119" s="30"/>
       <c r="D119" s="31"/>
@@ -26485,11 +27698,11 @@
         <v>83</v>
       </c>
       <c r="F119" s="30"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="71"/>
-      <c r="J119" s="71"/>
-      <c r="K119" s="71"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+      <c r="J119" s="72"/>
+      <c r="K119" s="72"/>
       <c r="L119" s="31"/>
       <c r="M119" s="31"/>
       <c r="N119" s="31"/>
@@ -26552,7 +27765,7 @@
       <c r="BS119" s="69"/>
     </row>
     <row r="120" spans="1:71">
-      <c r="A120" s="72"/>
+      <c r="A120" s="71"/>
       <c r="B120" s="29"/>
       <c r="C120" s="30"/>
       <c r="D120" s="31"/>
@@ -26560,11 +27773,11 @@
         <v>83</v>
       </c>
       <c r="F120" s="30"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="71"/>
-      <c r="J120" s="71"/>
-      <c r="K120" s="71"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
       <c r="L120" s="31"/>
       <c r="M120" s="31"/>
       <c r="N120" s="31"/>
@@ -26627,7 +27840,7 @@
       <c r="BS120" s="69"/>
     </row>
     <row r="121" spans="1:71">
-      <c r="A121" s="72"/>
+      <c r="A121" s="71"/>
       <c r="B121" s="29"/>
       <c r="C121" s="30"/>
       <c r="D121" s="31"/>
@@ -26635,11 +27848,11 @@
         <v>83</v>
       </c>
       <c r="F121" s="30"/>
-      <c r="G121" s="71"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="71"/>
-      <c r="J121" s="71"/>
-      <c r="K121" s="71"/>
+      <c r="G121" s="72"/>
+      <c r="H121" s="72"/>
+      <c r="I121" s="72"/>
+      <c r="J121" s="72"/>
+      <c r="K121" s="72"/>
       <c r="L121" s="31"/>
       <c r="M121" s="31"/>
       <c r="N121" s="31"/>
@@ -26702,7 +27915,7 @@
       <c r="BS121" s="69"/>
     </row>
     <row r="122" spans="1:71">
-      <c r="A122" s="72"/>
+      <c r="A122" s="71"/>
       <c r="B122" s="29"/>
       <c r="C122" s="30"/>
       <c r="D122" s="31"/>
@@ -26710,11 +27923,11 @@
         <v>83</v>
       </c>
       <c r="F122" s="30"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="71"/>
-      <c r="J122" s="71"/>
-      <c r="K122" s="71"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="72"/>
+      <c r="I122" s="72"/>
+      <c r="J122" s="72"/>
+      <c r="K122" s="72"/>
       <c r="L122" s="31"/>
       <c r="M122" s="31"/>
       <c r="N122" s="31"/>
@@ -26777,7 +27990,7 @@
       <c r="BS122" s="69"/>
     </row>
     <row r="123" spans="1:71">
-      <c r="A123" s="72"/>
+      <c r="A123" s="71"/>
       <c r="B123" s="29"/>
       <c r="C123" s="30"/>
       <c r="D123" s="31"/>
@@ -26785,11 +27998,11 @@
         <v>83</v>
       </c>
       <c r="F123" s="30"/>
-      <c r="G123" s="71"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="71"/>
-      <c r="J123" s="71"/>
-      <c r="K123" s="71"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="72"/>
+      <c r="K123" s="72"/>
       <c r="L123" s="31"/>
       <c r="M123" s="31"/>
       <c r="N123" s="31"/>
@@ -26852,7 +28065,7 @@
       <c r="BS123" s="69"/>
     </row>
     <row r="124" spans="1:71">
-      <c r="A124" s="72"/>
+      <c r="A124" s="71"/>
       <c r="B124" s="29"/>
       <c r="C124" s="30"/>
       <c r="D124" s="31"/>
@@ -26860,11 +28073,11 @@
         <v>83</v>
       </c>
       <c r="F124" s="30"/>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="71"/>
-      <c r="J124" s="71"/>
-      <c r="K124" s="71"/>
+      <c r="G124" s="72"/>
+      <c r="H124" s="72"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="72"/>
+      <c r="K124" s="72"/>
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
       <c r="N124" s="31"/>
@@ -26927,7 +28140,7 @@
       <c r="BS124" s="69"/>
     </row>
     <row r="125" spans="1:71">
-      <c r="A125" s="72"/>
+      <c r="A125" s="71"/>
       <c r="B125" s="29"/>
       <c r="C125" s="30"/>
       <c r="D125" s="31"/>
@@ -26935,11 +28148,11 @@
         <v>83</v>
       </c>
       <c r="F125" s="30"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="71"/>
-      <c r="J125" s="71"/>
-      <c r="K125" s="71"/>
+      <c r="G125" s="72"/>
+      <c r="H125" s="72"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="72"/>
+      <c r="K125" s="72"/>
       <c r="L125" s="31"/>
       <c r="M125" s="31"/>
       <c r="N125" s="31"/>
@@ -27002,7 +28215,7 @@
       <c r="BS125" s="69"/>
     </row>
     <row r="126" spans="1:71">
-      <c r="A126" s="72"/>
+      <c r="A126" s="71"/>
       <c r="B126" s="29"/>
       <c r="C126" s="30"/>
       <c r="D126" s="31"/>
@@ -27010,11 +28223,11 @@
         <v>83</v>
       </c>
       <c r="F126" s="30"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="71"/>
-      <c r="J126" s="71"/>
-      <c r="K126" s="71"/>
+      <c r="G126" s="72"/>
+      <c r="H126" s="72"/>
+      <c r="I126" s="72"/>
+      <c r="J126" s="72"/>
+      <c r="K126" s="72"/>
       <c r="L126" s="31"/>
       <c r="M126" s="31"/>
       <c r="N126" s="31"/>
@@ -27077,7 +28290,7 @@
       <c r="BS126" s="69"/>
     </row>
     <row r="127" spans="1:71">
-      <c r="A127" s="72"/>
+      <c r="A127" s="71"/>
       <c r="B127" s="29"/>
       <c r="C127" s="30"/>
       <c r="D127" s="31"/>
@@ -27085,11 +28298,11 @@
         <v>83</v>
       </c>
       <c r="F127" s="30"/>
-      <c r="G127" s="71"/>
-      <c r="H127" s="71"/>
-      <c r="I127" s="71"/>
-      <c r="J127" s="71"/>
-      <c r="K127" s="71"/>
+      <c r="G127" s="72"/>
+      <c r="H127" s="72"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="72"/>
       <c r="L127" s="31"/>
       <c r="M127" s="31"/>
       <c r="N127" s="31"/>
@@ -27152,7 +28365,7 @@
       <c r="BS127" s="69"/>
     </row>
     <row r="128" spans="1:71">
-      <c r="A128" s="72"/>
+      <c r="A128" s="71"/>
       <c r="B128" s="29"/>
       <c r="C128" s="30"/>
       <c r="D128" s="31"/>
@@ -27160,11 +28373,11 @@
         <v>83</v>
       </c>
       <c r="F128" s="30"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="71"/>
-      <c r="J128" s="71"/>
-      <c r="K128" s="71"/>
+      <c r="G128" s="72"/>
+      <c r="H128" s="72"/>
+      <c r="I128" s="72"/>
+      <c r="J128" s="72"/>
+      <c r="K128" s="72"/>
       <c r="L128" s="31"/>
       <c r="M128" s="31"/>
       <c r="N128" s="31"/>
@@ -27227,7 +28440,7 @@
       <c r="BS128" s="69"/>
     </row>
     <row r="129" spans="1:71">
-      <c r="A129" s="72"/>
+      <c r="A129" s="71"/>
       <c r="B129" s="29"/>
       <c r="C129" s="30"/>
       <c r="D129" s="31"/>
@@ -27235,11 +28448,11 @@
         <v>83</v>
       </c>
       <c r="F129" s="30"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="71"/>
-      <c r="J129" s="71"/>
-      <c r="K129" s="71"/>
+      <c r="G129" s="72"/>
+      <c r="H129" s="72"/>
+      <c r="I129" s="72"/>
+      <c r="J129" s="72"/>
+      <c r="K129" s="72"/>
       <c r="L129" s="31"/>
       <c r="M129" s="31"/>
       <c r="N129" s="31"/>
@@ -27302,7 +28515,7 @@
       <c r="BS129" s="69"/>
     </row>
     <row r="130" spans="1:71">
-      <c r="A130" s="72"/>
+      <c r="A130" s="71"/>
       <c r="B130" s="29"/>
       <c r="C130" s="30"/>
       <c r="D130" s="31"/>
@@ -27310,11 +28523,11 @@
         <v>83</v>
       </c>
       <c r="F130" s="30"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="71"/>
-      <c r="J130" s="71"/>
-      <c r="K130" s="71"/>
+      <c r="G130" s="72"/>
+      <c r="H130" s="72"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="72"/>
+      <c r="K130" s="72"/>
       <c r="L130" s="31"/>
       <c r="M130" s="31"/>
       <c r="N130" s="31"/>
@@ -27377,7 +28590,7 @@
       <c r="BS130" s="69"/>
     </row>
     <row r="131" spans="1:71">
-      <c r="A131" s="72"/>
+      <c r="A131" s="71"/>
       <c r="B131" s="29"/>
       <c r="C131" s="30"/>
       <c r="D131" s="31"/>
@@ -27385,11 +28598,11 @@
         <v>83</v>
       </c>
       <c r="F131" s="30"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="71"/>
-      <c r="J131" s="71"/>
-      <c r="K131" s="71"/>
+      <c r="G131" s="72"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="72"/>
+      <c r="J131" s="72"/>
+      <c r="K131" s="72"/>
       <c r="L131" s="31"/>
       <c r="M131" s="31"/>
       <c r="N131" s="31"/>
@@ -27452,7 +28665,7 @@
       <c r="BS131" s="69"/>
     </row>
     <row r="132" spans="1:71">
-      <c r="A132" s="72"/>
+      <c r="A132" s="71"/>
       <c r="B132" s="29"/>
       <c r="C132" s="30"/>
       <c r="D132" s="31"/>
@@ -27460,11 +28673,11 @@
         <v>83</v>
       </c>
       <c r="F132" s="30"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="71"/>
-      <c r="J132" s="71"/>
-      <c r="K132" s="71"/>
+      <c r="G132" s="72"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="72"/>
+      <c r="J132" s="72"/>
+      <c r="K132" s="72"/>
       <c r="L132" s="31"/>
       <c r="M132" s="31"/>
       <c r="N132" s="31"/>
@@ -27527,7 +28740,7 @@
       <c r="BS132" s="69"/>
     </row>
     <row r="133" spans="1:71">
-      <c r="A133" s="72"/>
+      <c r="A133" s="71"/>
       <c r="B133" s="29"/>
       <c r="C133" s="30"/>
       <c r="D133" s="31"/>
@@ -27535,11 +28748,11 @@
         <v>83</v>
       </c>
       <c r="F133" s="30"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="71"/>
-      <c r="J133" s="71"/>
-      <c r="K133" s="71"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="72"/>
       <c r="L133" s="31"/>
       <c r="M133" s="31"/>
       <c r="N133" s="31"/>
@@ -27602,7 +28815,7 @@
       <c r="BS133" s="69"/>
     </row>
     <row r="134" spans="1:71">
-      <c r="A134" s="72"/>
+      <c r="A134" s="71"/>
       <c r="B134" s="29"/>
       <c r="C134" s="30"/>
       <c r="D134" s="31"/>
@@ -27610,11 +28823,11 @@
         <v>83</v>
       </c>
       <c r="F134" s="30"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="71"/>
-      <c r="J134" s="71"/>
-      <c r="K134" s="71"/>
+      <c r="G134" s="72"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="72"/>
+      <c r="K134" s="72"/>
       <c r="L134" s="31"/>
       <c r="M134" s="31"/>
       <c r="N134" s="31"/>
@@ -27677,7 +28890,7 @@
       <c r="BS134" s="69"/>
     </row>
     <row r="135" spans="1:71">
-      <c r="A135" s="72"/>
+      <c r="A135" s="71"/>
       <c r="B135" s="29"/>
       <c r="C135" s="30"/>
       <c r="D135" s="31"/>
@@ -27685,11 +28898,11 @@
         <v>83</v>
       </c>
       <c r="F135" s="30"/>
-      <c r="G135" s="71"/>
-      <c r="H135" s="71"/>
-      <c r="I135" s="71"/>
-      <c r="J135" s="71"/>
-      <c r="K135" s="71"/>
+      <c r="G135" s="72"/>
+      <c r="H135" s="72"/>
+      <c r="I135" s="72"/>
+      <c r="J135" s="72"/>
+      <c r="K135" s="72"/>
       <c r="L135" s="31"/>
       <c r="M135" s="31"/>
       <c r="N135" s="31"/>
@@ -27752,7 +28965,7 @@
       <c r="BS135" s="69"/>
     </row>
     <row r="136" spans="1:71">
-      <c r="A136" s="72"/>
+      <c r="A136" s="71"/>
       <c r="B136" s="29"/>
       <c r="C136" s="30"/>
       <c r="D136" s="31"/>
@@ -27760,11 +28973,11 @@
         <v>83</v>
       </c>
       <c r="F136" s="30"/>
-      <c r="G136" s="71"/>
-      <c r="H136" s="71"/>
-      <c r="I136" s="71"/>
-      <c r="J136" s="71"/>
-      <c r="K136" s="71"/>
+      <c r="G136" s="72"/>
+      <c r="H136" s="72"/>
+      <c r="I136" s="72"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="72"/>
       <c r="L136" s="31"/>
       <c r="M136" s="31"/>
       <c r="N136" s="31"/>
@@ -27827,7 +29040,7 @@
       <c r="BS136" s="69"/>
     </row>
     <row r="137" spans="1:71">
-      <c r="A137" s="72"/>
+      <c r="A137" s="71"/>
       <c r="B137" s="29"/>
       <c r="C137" s="30"/>
       <c r="D137" s="31"/>
@@ -27835,11 +29048,11 @@
         <v>83</v>
       </c>
       <c r="F137" s="30"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="71"/>
-      <c r="J137" s="71"/>
-      <c r="K137" s="71"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="72"/>
+      <c r="J137" s="72"/>
+      <c r="K137" s="72"/>
       <c r="L137" s="31"/>
       <c r="M137" s="31"/>
       <c r="N137" s="31"/>
@@ -27901,20 +29114,20 @@
       <c r="BR137" s="27"/>
       <c r="BS137" s="69"/>
     </row>
-    <row r="138" ht="14.25" spans="1:71">
-      <c r="A138" s="73"/>
-      <c r="B138" s="74"/>
+    <row r="138" spans="1:71">
+      <c r="A138" s="71"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="30"/>
       <c r="D138" s="31"/>
       <c r="E138" s="30" t="s">
         <v>83</v>
       </c>
       <c r="F138" s="30"/>
-      <c r="G138" s="71"/>
-      <c r="H138" s="71"/>
-      <c r="I138" s="71"/>
-      <c r="J138" s="71"/>
-      <c r="K138" s="71"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="72"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="72"/>
       <c r="L138" s="31"/>
       <c r="M138" s="31"/>
       <c r="N138" s="31"/>
@@ -27933,7 +29146,7 @@
       <c r="AA138" s="31"/>
       <c r="AB138" s="31"/>
       <c r="AC138" s="30"/>
-      <c r="AD138" s="31"/>
+      <c r="AD138" s="30"/>
       <c r="AE138" s="31"/>
       <c r="AF138" s="30"/>
       <c r="AG138" s="30"/>
@@ -27941,9 +29154,9 @@
       <c r="AI138" s="30"/>
       <c r="AJ138" s="31"/>
       <c r="AK138" s="30"/>
-      <c r="AL138" s="31"/>
-      <c r="AM138" s="31"/>
-      <c r="AN138" s="31"/>
+      <c r="AL138" s="30"/>
+      <c r="AM138" s="30"/>
+      <c r="AN138" s="30"/>
       <c r="AO138" s="60"/>
       <c r="AP138" s="31"/>
       <c r="AQ138" s="30"/>
@@ -27972,77 +29185,84 @@
       <c r="BN138" s="31"/>
       <c r="BO138" s="30"/>
       <c r="BP138" s="31"/>
-      <c r="BQ138" s="77"/>
-      <c r="BR138" s="78"/>
-      <c r="BS138" s="79"/>
+      <c r="BQ138" s="70"/>
+      <c r="BR138" s="27"/>
+      <c r="BS138" s="69"/>
     </row>
-    <row r="139" spans="3:68">
-      <c r="C139" s="75"/>
-      <c r="D139" s="75"/>
-      <c r="E139" s="75"/>
-      <c r="F139" s="75"/>
-      <c r="G139" s="76"/>
-      <c r="H139" s="76"/>
-      <c r="I139" s="76"/>
-      <c r="J139" s="76"/>
-      <c r="K139" s="76"/>
-      <c r="L139" s="75"/>
-      <c r="M139" s="75"/>
-      <c r="N139" s="75"/>
-      <c r="O139" s="75"/>
-      <c r="P139" s="75"/>
-      <c r="Q139" s="75"/>
-      <c r="R139" s="75"/>
-      <c r="S139" s="75"/>
-      <c r="T139" s="75"/>
-      <c r="U139" s="75"/>
-      <c r="V139" s="75"/>
-      <c r="W139" s="75"/>
-      <c r="X139" s="75"/>
-      <c r="Y139" s="75"/>
-      <c r="Z139" s="75"/>
-      <c r="AA139" s="75"/>
-      <c r="AB139" s="75"/>
-      <c r="AC139" s="75"/>
-      <c r="AD139" s="75"/>
-      <c r="AE139" s="75"/>
-      <c r="AF139" s="75"/>
-      <c r="AG139" s="75"/>
-      <c r="AH139" s="75"/>
-      <c r="AI139" s="75"/>
-      <c r="AJ139" s="75"/>
-      <c r="AK139" s="75"/>
-      <c r="AL139" s="75"/>
-      <c r="AM139" s="75"/>
-      <c r="AN139" s="75"/>
-      <c r="AO139" s="75"/>
-      <c r="AP139" s="75"/>
-      <c r="AQ139" s="75"/>
-      <c r="AR139" s="75"/>
-      <c r="AS139" s="75"/>
-      <c r="AT139" s="75"/>
-      <c r="AU139" s="75"/>
-      <c r="AV139" s="75"/>
-      <c r="AW139" s="75"/>
-      <c r="AX139" s="75"/>
-      <c r="AY139" s="75"/>
-      <c r="AZ139" s="75"/>
-      <c r="BA139" s="75"/>
-      <c r="BB139" s="75"/>
-      <c r="BC139" s="75"/>
-      <c r="BD139" s="75"/>
-      <c r="BE139" s="75"/>
-      <c r="BF139" s="75"/>
-      <c r="BG139" s="75"/>
-      <c r="BH139" s="75"/>
-      <c r="BI139" s="75"/>
-      <c r="BJ139" s="75"/>
-      <c r="BK139" s="75"/>
-      <c r="BL139" s="75"/>
-      <c r="BM139" s="75"/>
-      <c r="BN139" s="75"/>
-      <c r="BO139" s="75"/>
-      <c r="BP139" s="75"/>
+    <row r="139" ht="14.25" spans="1:71">
+      <c r="A139" s="73"/>
+      <c r="B139" s="74"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F139" s="30"/>
+      <c r="G139" s="72"/>
+      <c r="H139" s="72"/>
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="72"/>
+      <c r="L139" s="31"/>
+      <c r="M139" s="31"/>
+      <c r="N139" s="31"/>
+      <c r="O139" s="31"/>
+      <c r="P139" s="31"/>
+      <c r="Q139" s="30"/>
+      <c r="R139" s="31"/>
+      <c r="S139" s="31"/>
+      <c r="T139" s="31"/>
+      <c r="U139" s="31"/>
+      <c r="V139" s="31"/>
+      <c r="W139" s="31"/>
+      <c r="X139" s="31"/>
+      <c r="Y139" s="31"/>
+      <c r="Z139" s="31"/>
+      <c r="AA139" s="31"/>
+      <c r="AB139" s="31"/>
+      <c r="AC139" s="30"/>
+      <c r="AD139" s="31"/>
+      <c r="AE139" s="31"/>
+      <c r="AF139" s="30"/>
+      <c r="AG139" s="30"/>
+      <c r="AH139" s="31"/>
+      <c r="AI139" s="30"/>
+      <c r="AJ139" s="31"/>
+      <c r="AK139" s="30"/>
+      <c r="AL139" s="31"/>
+      <c r="AM139" s="31"/>
+      <c r="AN139" s="31"/>
+      <c r="AO139" s="60"/>
+      <c r="AP139" s="31"/>
+      <c r="AQ139" s="30"/>
+      <c r="AR139" s="31"/>
+      <c r="AS139" s="30"/>
+      <c r="AT139" s="31"/>
+      <c r="AU139" s="31"/>
+      <c r="AV139" s="31"/>
+      <c r="AW139" s="31"/>
+      <c r="AX139" s="31"/>
+      <c r="AY139" s="31"/>
+      <c r="AZ139" s="31"/>
+      <c r="BA139" s="30"/>
+      <c r="BB139" s="31"/>
+      <c r="BC139" s="31"/>
+      <c r="BD139" s="31"/>
+      <c r="BE139" s="31"/>
+      <c r="BF139" s="31"/>
+      <c r="BG139" s="31"/>
+      <c r="BH139" s="31"/>
+      <c r="BI139" s="31"/>
+      <c r="BJ139" s="31"/>
+      <c r="BK139" s="31"/>
+      <c r="BL139" s="31"/>
+      <c r="BM139" s="31"/>
+      <c r="BN139" s="31"/>
+      <c r="BO139" s="30"/>
+      <c r="BP139" s="31"/>
+      <c r="BQ139" s="77"/>
+      <c r="BR139" s="78"/>
+      <c r="BS139" s="79"/>
     </row>
     <row r="140" spans="3:68">
       <c r="C140" s="75"/>
@@ -41236,6 +42456,74 @@
       <c r="BO333" s="75"/>
       <c r="BP333" s="75"/>
     </row>
+    <row r="334" spans="3:68">
+      <c r="C334" s="75"/>
+      <c r="D334" s="75"/>
+      <c r="E334" s="75"/>
+      <c r="F334" s="75"/>
+      <c r="G334" s="76"/>
+      <c r="H334" s="76"/>
+      <c r="I334" s="76"/>
+      <c r="J334" s="76"/>
+      <c r="K334" s="76"/>
+      <c r="L334" s="75"/>
+      <c r="M334" s="75"/>
+      <c r="N334" s="75"/>
+      <c r="O334" s="75"/>
+      <c r="P334" s="75"/>
+      <c r="Q334" s="75"/>
+      <c r="R334" s="75"/>
+      <c r="S334" s="75"/>
+      <c r="T334" s="75"/>
+      <c r="U334" s="75"/>
+      <c r="V334" s="75"/>
+      <c r="W334" s="75"/>
+      <c r="X334" s="75"/>
+      <c r="Y334" s="75"/>
+      <c r="Z334" s="75"/>
+      <c r="AA334" s="75"/>
+      <c r="AB334" s="75"/>
+      <c r="AC334" s="75"/>
+      <c r="AD334" s="75"/>
+      <c r="AE334" s="75"/>
+      <c r="AF334" s="75"/>
+      <c r="AG334" s="75"/>
+      <c r="AH334" s="75"/>
+      <c r="AI334" s="75"/>
+      <c r="AJ334" s="75"/>
+      <c r="AK334" s="75"/>
+      <c r="AL334" s="75"/>
+      <c r="AM334" s="75"/>
+      <c r="AN334" s="75"/>
+      <c r="AO334" s="75"/>
+      <c r="AP334" s="75"/>
+      <c r="AQ334" s="75"/>
+      <c r="AR334" s="75"/>
+      <c r="AS334" s="75"/>
+      <c r="AT334" s="75"/>
+      <c r="AU334" s="75"/>
+      <c r="AV334" s="75"/>
+      <c r="AW334" s="75"/>
+      <c r="AX334" s="75"/>
+      <c r="AY334" s="75"/>
+      <c r="AZ334" s="75"/>
+      <c r="BA334" s="75"/>
+      <c r="BB334" s="75"/>
+      <c r="BC334" s="75"/>
+      <c r="BD334" s="75"/>
+      <c r="BE334" s="75"/>
+      <c r="BF334" s="75"/>
+      <c r="BG334" s="75"/>
+      <c r="BH334" s="75"/>
+      <c r="BI334" s="75"/>
+      <c r="BJ334" s="75"/>
+      <c r="BK334" s="75"/>
+      <c r="BL334" s="75"/>
+      <c r="BM334" s="75"/>
+      <c r="BN334" s="75"/>
+      <c r="BO334" s="75"/>
+      <c r="BP334" s="75"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B1:D1"/>
@@ -41249,29 +42537,29 @@
     <mergeCell ref="BQ1:BS1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N20 P20 N21 P21 N22 P22 N63 P63 N64 P64 N65 P65 N66 P66 N67 P67 N68 P68 N69 P69 N70 P70 N71 P71 N72 P72 N73 P73 N74 P74 N75 P75 N76 P76 N77 P77 N80 P80 N81 P81 N82 P82 N83 P83 N84 P84 N85 P85 N86 P86 N87 P87 N88 P88 N89 P89 N90 P90 N91 P91 N92 P92 N93 P93 N94 P94 N95 P95 N3:N19 N23:N55 N56:N62 N78:N79 N96:N102 N103:N138 P3:P19 P23:P55 P56:P62 P78:P79 P96:P102 P103:P138">
-      <formula1>"1,2,3,4,5"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V68:AA68 V69:AA69 V74:X74 Y74:AA74 V75:X75 Y75:AA75 V76:X76 Y76:AA76 V77:X77 Y77:AA77 V78:W78 AA78 V79:W79 AA79 V80:W80 Y81:Z81 Y82 Z82 V83:X83 Y83 Z83 AA83 W91:X91 W92:X92 W95:X95 W96:X96 Y96 Z96:AB96 V97 W97 X97 Y97 V98 W98 X98 Y98 V99 W99 X99 Y99 V100 W100 X100 Y100 V101 W101 X101 Y101 V102 W102 X102 Y102 V103 W103 X103 Y103 V104 W104 X104 Y104 Y84:Y95 Z97:Z104 AA80:AA82 AA97:AA104 V3:AA67 V70:AA73 X78:Z80 V81:X82 V84:X90 Z84:AB95 V93:X94 V105:AA140">
+      <formula1>"0,1,/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 C21 C22 C63 C64 C65 C66 C67 C68 C69 C82 C83 C84 C3:C19 C23:C55 C56:C62 C70:C81 C85:C87 C88:C102 C103:C138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 C21 C22 C63 C64 C65 C66 C67 C68 C69 C82 C83 C84 C96 C3:C19 C23:C55 C56:C62 C70:C81 C85:C87 C88:C95 C97:C103 C104:C139">
       <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V68:AA68 V69:AA69 V74:X74 Y74:AA74 V75:X75 Y75:AA75 V76:X76 Y76:AA76 V77:X77 Y77:AA77 V78:W78 AA78 V79:W79 AA79 V80:W80 Y81:Z81 Y82 Z82 V83:X83 Y83 Z83 AA83 W91:X91 W92:X92 W95:X95 Y84:Y95 AA80:AA82 V3:AA67 V70:AA73 X78:Z80 V81:X82 V103:AA139 V96:AA102 V84:X90 Z84:AB95 V93:X94">
-      <formula1>"0,1,/"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20 E21 E22 E63 E64 E65 E66 E67 E68 E69 E82 E83 E84 E3:E19 E23:E55 E56:E62 E70:E81 E85:E87 E88:E102 E103:E138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20 E21 E22 E63 E64 E65 E66 E67 E68 E69 E82 E83 E84 E96 E3:E19 E23:E55 E56:E62 E70:E81 E85:E87 E88:E95 E97:E103 E104:E139">
       <formula1>"京东"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:M20 O20 L21:M21 O21 L22:M22 O22 L63:M63 O63 AB63 L64:M64 O64 AB64 L65:M65 O65 AB65 L66:M66 O66 AB66 L67:M67 O67 AB67 L68:M68 O68 AB68 L69:M69 O69 AB69 L70:M70 O70 L71:M71 O71 L72:M72 O72 L73:M73 O73 L74:M74 O74 L75:M75 O75 L76:M76 O76 L77:M77 O77 L80:M80 O80 O81 O82 AB82 L83 M83 O83 AB83 O84 O85 O86 O87 O88 O89 O90 O91 O92 O93 O94 O95 L78:L79 L81:L82 L84:L95 M78:M79 M81:M82 M84:M95 O3:O19 O23:O55 O56:O62 O78:O79 O96:O102 O103:O138 AB3:AB62 AB70:AB81 L3:M19 L23:M55 L56:M62 L103:M138 L96:M102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F83 F96 F3:F82 F84:F95 F97:F139">
+      <formula1>"android客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO20 BO21 BO22 BO63 BO64 BO65 BO66 BO67 BO68 BO69 BO82 BO83 BO84 BO96 BO3:BO19 BO23:BO55 BO56:BO62 BO70:BO73 BO74:BO79 BO80:BO81 BO85:BO95 BO97:BO104 BO105:BO139">
+      <formula1>"好评,中评,差评"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:M20 O20 L21:M21 O21 L22:M22 O22 L63:M63 O63 AB63 L64:M64 O64 AB64 L65:M65 O65 AB65 L66:M66 O66 AB66 L67:M67 O67 AB67 L68:M68 O68 AB68 L69:M69 O69 AB69 L70:M70 O70 L71:M71 O71 L72:M72 O72 L73:M73 O73 L74:M74 O74 L75:M75 O75 L76:M76 O76 L77:M77 O77 L80:M80 O80 O81 O82 AB82 L83 M83 O83 AB83 O84 O85 O86 O87 O88 O89 O90 O91 O92 O93 O94 O95 L96 M96 O96 O97 O98 O99 O100 O101 O102 O103 O104 L78:L79 L81:L82 L84:L95 L97:L104 M78:M79 M81:M82 M84:M95 M97:M104 O3:O19 O23:O55 O56:O62 O78:O79 O105:O139 AB3:AB62 AB70:AB81 L3:M19 L23:M55 L56:M62 L105:M139">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO20 BO21 BO22 BO63 BO64 BO65 BO66 BO67 BO68 BO69 BO82 BO83 BO84 BO3:BO19 BO23:BO55 BO56:BO62 BO70:BO73 BO74:BO79 BO80:BO81 BO85:BO102 BO103:BO138">
-      <formula1>"好评,中评,差评"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R63:U63 AD63 R64:U64 AD64 R65:U65 AD65 R66:U66 AD66 R67:U67 AD67 R68:U68 AD68 R69:U69 AD69 R75:U75 R76:U76 R77:U77 R78:U78 R79:U79 AD82 AD83 AD84 AD85 AD89 AD90 AD91 AD92 AD93 AD94 AD95 AD96 AD97 AD98 AD99 AD100 AD101 AD102 AD103 AD104 AD3:AD62 AD70:AD75 AD76:AD79 AD80:AD81 AD86:AD88 AD105:AD166 R3:U62 R70:U72">
+      <formula1>"1,2,3,4,5,/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F83 F3:F82 F84:F138">
-      <formula1>"android客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R63:U63 AD63 R64:U64 AD64 R65:U65 AD65 R66:U66 AD66 R67:U67 AD67 R68:U68 AD68 R69:U69 AD69 R75:U75 R76:U76 R77:U77 R78:U78 R79:U79 AD82 AD83 AD84 AD85 AD89 AD90 AD91 AD92 AD93 AD94 AD3:AD62 AD70:AD75 AD76:AD79 AD80:AD81 AD86:AD88 AD95:AD102 AD103:AD165 R3:U62 R70:U72">
-      <formula1>"1,2,3,4,5,/"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N20 P20 N21 P21 N22 P22 N63 P63 N64 P64 N65 P65 N66 P66 N67 P67 N68 P68 N69 P69 N70 P70 N71 P71 N72 P72 N73 P73 N74 P74 N75 P75 N76 P76 N77 P77 N80 P80 N81 P81 N82 P82 N83 P83 N84 P84 N85 P85 N86 P86 N87 P87 N88 P88 N89 P89 N90 P90 N91 P91 N92 P92 N93 P93 N94 P94 N95 P95 N96 P96 P97 P98 P99 P100 P101 P102 P103 P104 N3:N19 N23:N55 N56:N62 N78:N79 N97:N104 N105:N139 P3:P19 P23:P55 P56:P62 P78:P79 P105:P139">
+      <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11100" windowHeight="9930"/>
+    <workbookView windowWidth="10080" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,9 +650,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm"/>
@@ -683,27 +683,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -716,27 +695,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,6 +713,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -765,9 +774,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,14 +791,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,14 +814,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -829,6 +822,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,13 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,91 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,31 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,7 +982,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,15 +1645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1683,6 +1674,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1693,148 +1693,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2465,11 +2465,11 @@
   <dimension ref="A1:FX334"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BK93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BS104" sqref="BS104"/>
+      <selection pane="bottomRight" activeCell="BQ12" sqref="BQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O3" s="18">
         <v>1</v>
@@ -2966,7 +2966,7 @@
         <v>86</v>
       </c>
       <c r="AT3" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU3" s="18">
         <v>3</v>
@@ -2981,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="AY3" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ3" s="18">
         <v>0</v>
@@ -2993,10 +2993,10 @@
         <v>3</v>
       </c>
       <c r="BC3" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD3" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE3" s="18">
         <v>3</v>
@@ -3005,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="BG3" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH3" s="18">
         <v>5</v>
@@ -3086,13 +3086,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O4" s="23">
         <v>1</v>
       </c>
       <c r="P4" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>85</v>
@@ -3104,7 +3104,7 @@
         <v>5</v>
       </c>
       <c r="T4" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U4" s="23">
         <v>5</v>
@@ -3182,7 +3182,7 @@
         <v>86</v>
       </c>
       <c r="AT4" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU4" s="23">
         <v>3</v>
@@ -3197,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="AY4" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ4" s="23">
         <v>0</v>
@@ -3218,10 +3218,10 @@
         <v>5</v>
       </c>
       <c r="BF4" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG4" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH4" s="23">
         <v>5</v>
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5" s="23">
         <v>1</v>
@@ -3398,19 +3398,19 @@
         <v>86</v>
       </c>
       <c r="AT5" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU5" s="23">
         <v>3</v>
       </c>
       <c r="AV5" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW5" s="23">
         <v>2</v>
       </c>
       <c r="AX5" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY5" s="23">
         <v>2</v>
@@ -3428,16 +3428,16 @@
         <v>4</v>
       </c>
       <c r="BD5" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE5" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF5" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG5" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH5" s="23">
         <v>4</v>
@@ -3464,16 +3464,16 @@
         <v>88</v>
       </c>
       <c r="BP5" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ5" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR5" s="23">
         <v>5</v>
       </c>
       <c r="BS5" s="67">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -3518,28 +3518,28 @@
         <v>1</v>
       </c>
       <c r="N6" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O6" s="23">
         <v>1</v>
       </c>
       <c r="P6" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="22" t="s">
         <v>85</v>
       </c>
       <c r="R6" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6" s="23">
         <v>1</v>
       </c>
       <c r="T6" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" s="23">
         <v>1</v>
@@ -3620,7 +3620,7 @@
         <v>3</v>
       </c>
       <c r="AV6" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="23">
         <v>3</v>
@@ -3650,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="BF6" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG6" s="23">
         <v>2</v>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="BR6" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS6" s="67">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" s="23">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="AY7" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ7" s="23">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>86</v>
       </c>
       <c r="BK7" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL7" s="23">
         <v>3</v>
@@ -3899,7 +3899,7 @@
         <v>3</v>
       </c>
       <c r="BQ7" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR7" s="23">
         <v>3</v>
@@ -3950,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="N8" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O8" s="23">
         <v>1</v>
       </c>
       <c r="P8" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="22" t="s">
         <v>85</v>
@@ -4079,10 +4079,10 @@
         <v>3</v>
       </c>
       <c r="BE8" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF8" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG8" s="23">
         <v>1</v>
@@ -4166,28 +4166,28 @@
         <v>1</v>
       </c>
       <c r="N9" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O9" s="23">
         <v>1</v>
       </c>
       <c r="P9" s="23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="22" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S9" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U9" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V9" s="23">
         <v>0</v>
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="BI9" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ9" s="23">
         <v>1</v>
@@ -4382,13 +4382,13 @@
         <v>1</v>
       </c>
       <c r="N10" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O10" s="23">
         <v>1</v>
       </c>
       <c r="P10" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="39">
         <v>42737.5833333333</v>
@@ -4478,13 +4478,13 @@
         <v>86</v>
       </c>
       <c r="AT10" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU10" s="23">
         <v>3</v>
       </c>
       <c r="AV10" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW10" s="23">
         <v>5</v>
@@ -4505,16 +4505,16 @@
         <v>5</v>
       </c>
       <c r="BC10" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD10" s="23">
         <v>5</v>
       </c>
       <c r="BE10" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF10" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG10" s="23">
         <v>5</v>
@@ -4535,7 +4535,7 @@
         <v>5</v>
       </c>
       <c r="BM10" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BN10" s="23">
         <v>5</v>
@@ -4550,7 +4550,7 @@
         <v>4</v>
       </c>
       <c r="BR10" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS10" s="67">
         <v>5</v>
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O11" s="23">
         <v>1</v>
@@ -4694,22 +4694,22 @@
         <v>86</v>
       </c>
       <c r="AT11" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU11" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV11" s="23">
         <v>5</v>
       </c>
       <c r="AW11" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX11" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY11" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ11" s="23">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>86</v>
       </c>
       <c r="BB11" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC11" s="23">
         <v>4</v>
@@ -4730,7 +4730,7 @@
         <v>4</v>
       </c>
       <c r="BF11" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG11" s="23">
         <v>5</v>
@@ -4760,16 +4760,16 @@
         <v>88</v>
       </c>
       <c r="BP11" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ11" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR11" s="23">
         <v>4</v>
       </c>
       <c r="BS11" s="67">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:71">
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12" s="23">
         <v>1</v>
@@ -4913,46 +4913,46 @@
         <v>5</v>
       </c>
       <c r="AU12" s="23">
+        <v>3</v>
+      </c>
+      <c r="AV12" s="23">
+        <v>5</v>
+      </c>
+      <c r="AW12" s="23">
+        <v>5</v>
+      </c>
+      <c r="AX12" s="23">
+        <v>3</v>
+      </c>
+      <c r="AY12" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ12" s="23">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB12" s="23">
+        <v>5</v>
+      </c>
+      <c r="BC12" s="23">
+        <v>5</v>
+      </c>
+      <c r="BD12" s="23">
+        <v>5</v>
+      </c>
+      <c r="BE12" s="23">
+        <v>5</v>
+      </c>
+      <c r="BF12" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG12" s="23">
+        <v>5</v>
+      </c>
+      <c r="BH12" s="23">
         <v>4</v>
-      </c>
-      <c r="AV12" s="23">
-        <v>5</v>
-      </c>
-      <c r="AW12" s="23">
-        <v>5</v>
-      </c>
-      <c r="AX12" s="23">
-        <v>5</v>
-      </c>
-      <c r="AY12" s="23">
-        <v>5</v>
-      </c>
-      <c r="AZ12" s="23">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB12" s="23">
-        <v>5</v>
-      </c>
-      <c r="BC12" s="23">
-        <v>5</v>
-      </c>
-      <c r="BD12" s="23">
-        <v>5</v>
-      </c>
-      <c r="BE12" s="23">
-        <v>5</v>
-      </c>
-      <c r="BF12" s="23">
-        <v>5</v>
-      </c>
-      <c r="BG12" s="23">
-        <v>5</v>
-      </c>
-      <c r="BH12" s="23">
-        <v>5</v>
       </c>
       <c r="BI12" s="23">
         <v>5</v>
@@ -24479,7 +24479,7 @@
     </row>
     <row r="98" ht="27" spans="1:180">
       <c r="A98" s="20">
-        <f>A97+1</f>
+        <f t="shared" ref="A98:A104" si="7">A97+1</f>
         <v>94</v>
       </c>
       <c r="B98" s="29" t="s">
@@ -24804,7 +24804,7 @@
     </row>
     <row r="99" ht="27" spans="1:180">
       <c r="A99" s="20">
-        <f>A98+1</f>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="B99" s="29" t="s">
@@ -25129,7 +25129,7 @@
     </row>
     <row r="100" ht="27" spans="1:180">
       <c r="A100" s="20">
-        <f>A99+1</f>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="B100" s="29" t="s">
@@ -25454,7 +25454,7 @@
     </row>
     <row r="101" ht="27" spans="1:180">
       <c r="A101" s="20">
-        <f>A100+1</f>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="B101" s="29" t="s">
@@ -25779,7 +25779,7 @@
     </row>
     <row r="102" ht="27" spans="1:180">
       <c r="A102" s="20">
-        <f>A101+1</f>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="B102" s="29" t="s">
@@ -26104,7 +26104,7 @@
     </row>
     <row r="103" ht="27" spans="1:180">
       <c r="A103" s="20">
-        <f>A102+1</f>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="B103" s="29" t="s">
@@ -26429,7 +26429,7 @@
     </row>
     <row r="104" ht="27" spans="1:71">
       <c r="A104" s="20">
-        <f>A103+1</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="B104" s="29"/>
@@ -42537,20 +42537,20 @@
     <mergeCell ref="BQ1:BS1"/>
   </mergeCells>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 C21 C22 C63 C64 C65 C66 C67 C68 C69 C82 C83 C84 C96 C3:C19 C23:C55 C56:C62 C70:C81 C85:C87 C88:C95 C97:C103 C104:C139">
+      <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F83 F96 F3:F82 F84:F95 F97:F139">
+      <formula1>"android客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V68:AA68 V69:AA69 V74:X74 Y74:AA74 V75:X75 Y75:AA75 V76:X76 Y76:AA76 V77:X77 Y77:AA77 V78:W78 AA78 V79:W79 AA79 V80:W80 Y81:Z81 Y82 Z82 V83:X83 Y83 Z83 AA83 W91:X91 W92:X92 W95:X95 W96:X96 Y96 Z96:AB96 V97 W97 X97 Y97 V98 W98 X98 Y98 V99 W99 X99 Y99 V100 W100 X100 Y100 V101 W101 X101 Y101 V102 W102 X102 Y102 V103 W103 X103 Y103 V104 W104 X104 Y104 Y84:Y95 Z97:Z104 AA80:AA82 AA97:AA104 V3:AA67 V70:AA73 X78:Z80 V81:X82 V84:X90 Z84:AB95 V93:X94 V105:AA140">
       <formula1>"0,1,/"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 C21 C22 C63 C64 C65 C66 C67 C68 C69 C82 C83 C84 C96 C3:C19 C23:C55 C56:C62 C70:C81 C85:C87 C88:C95 C97:C103 C104:C139">
-      <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20 E21 E22 E63 E64 E65 E66 E67 E68 E69 E82 E83 E84 E96 E3:E19 E23:E55 E56:E62 E70:E81 E85:E87 E88:E95 E97:E103 E104:E139">
       <formula1>"京东"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F83 F96 F3:F82 F84:F95 F97:F139">
-      <formula1>"android客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO20 BO21 BO22 BO63 BO64 BO65 BO66 BO67 BO68 BO69 BO82 BO83 BO84 BO96 BO3:BO19 BO23:BO55 BO56:BO62 BO70:BO73 BO74:BO79 BO80:BO81 BO85:BO95 BO97:BO104 BO105:BO139">
-      <formula1>"好评,中评,差评"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N20 P20 N21 P21 N22 P22 N63 P63 N64 P64 N65 P65 N66 P66 N67 P67 N68 P68 N69 P69 N70 P70 N71 P71 N72 P72 N73 P73 N74 P74 N75 P75 N76 P76 N77 P77 N80 P80 N81 P81 N82 P82 N83 P83 N84 P84 N85 P85 N86 P86 N87 P87 N88 P88 N89 P89 N90 P90 N91 P91 N92 P92 N93 P93 N94 P94 N95 P95 N96 P96 P97 P98 P99 P100 P101 P102 P103 P104 N3:N19 N23:N55 N56:N62 N78:N79 N97:N104 N105:N139 P3:P19 P23:P55 P56:P62 P78:P79 P105:P139">
+      <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:M20 O20 L21:M21 O21 L22:M22 O22 L63:M63 O63 AB63 L64:M64 O64 AB64 L65:M65 O65 AB65 L66:M66 O66 AB66 L67:M67 O67 AB67 L68:M68 O68 AB68 L69:M69 O69 AB69 L70:M70 O70 L71:M71 O71 L72:M72 O72 L73:M73 O73 L74:M74 O74 L75:M75 O75 L76:M76 O76 L77:M77 O77 L80:M80 O80 O81 O82 AB82 L83 M83 O83 AB83 O84 O85 O86 O87 O88 O89 O90 O91 O92 O93 O94 O95 L96 M96 O96 O97 O98 O99 O100 O101 O102 O103 O104 L78:L79 L81:L82 L84:L95 L97:L104 M78:M79 M81:M82 M84:M95 M97:M104 O3:O19 O23:O55 O56:O62 O78:O79 O105:O139 AB3:AB62 AB70:AB81 L3:M19 L23:M55 L56:M62 L105:M139">
       <formula1>"0,1"</formula1>
@@ -42558,8 +42558,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R63:U63 AD63 R64:U64 AD64 R65:U65 AD65 R66:U66 AD66 R67:U67 AD67 R68:U68 AD68 R69:U69 AD69 R75:U75 R76:U76 R77:U77 R78:U78 R79:U79 AD82 AD83 AD84 AD85 AD89 AD90 AD91 AD92 AD93 AD94 AD95 AD96 AD97 AD98 AD99 AD100 AD101 AD102 AD103 AD104 AD3:AD62 AD70:AD75 AD76:AD79 AD80:AD81 AD86:AD88 AD105:AD166 R3:U62 R70:U72">
       <formula1>"1,2,3,4,5,/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N20 P20 N21 P21 N22 P22 N63 P63 N64 P64 N65 P65 N66 P66 N67 P67 N68 P68 N69 P69 N70 P70 N71 P71 N72 P72 N73 P73 N74 P74 N75 P75 N76 P76 N77 P77 N80 P80 N81 P81 N82 P82 N83 P83 N84 P84 N85 P85 N86 P86 N87 P87 N88 P88 N89 P89 N90 P90 N91 P91 N92 P92 N93 P93 N94 P94 N95 P95 N96 P96 P97 P98 P99 P100 P101 P102 P103 P104 N3:N19 N23:N55 N56:N62 N78:N79 N97:N104 N105:N139 P3:P19 P23:P55 P56:P62 P78:P79 P105:P139">
-      <formula1>"1,2,3,4,5"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO20 BO21 BO22 BO63 BO64 BO65 BO66 BO67 BO68 BO69 BO82 BO83 BO84 BO96 BO3:BO19 BO23:BO55 BO56:BO62 BO70:BO73 BO74:BO79 BO80:BO81 BO85:BO95 BO97:BO104 BO105:BO139">
+      <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,6 +275,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回购该品牌</t>
@@ -285,6 +286,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>同品类</t>
@@ -294,6 +296,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产品意愿</t>
@@ -305,6 +308,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回购</t>
@@ -315,6 +319,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>同品牌</t>
@@ -324,6 +329,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产品意愿</t>
@@ -695,18 +701,21 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -714,11 +723,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1783,10 +1794,10 @@
   <dimension ref="A1:FX212"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N61" sqref="N61"/>
+      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -9315,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="22">
         <v>1</v>
@@ -13419,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="26">
         <v>0</v>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="198">
   <si>
     <t>客户信息</t>
   </si>
@@ -672,6 +672,26 @@
     <t>3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1242,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,6 +1452,18 @@
     <xf numFmtId="180" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,16 +1509,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1835,10 +1861,10 @@
   <dimension ref="A1:FW214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BH23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BF38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BO27" sqref="BO27"/>
+      <selection pane="bottomRight" activeCell="BP49" sqref="BP49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -1894,98 +1920,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="66" t="s">
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="75"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="68" t="s">
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="BE1" s="69"/>
-      <c r="BF1" s="69"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="71"/>
-      <c r="BL1" s="69"/>
-      <c r="BM1" s="69"/>
-      <c r="BN1" s="69"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="71"/>
+      <c r="BH1" s="74"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="74"/>
+      <c r="BK1" s="75"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
       <c r="BO1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="BP1" s="72" t="s">
+      <c r="BP1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="BQ1" s="70"/>
-      <c r="BR1" s="71"/>
+      <c r="BQ1" s="74"/>
+      <c r="BR1" s="75"/>
     </row>
     <row r="2" spans="1:70" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -8293,7 +8319,7 @@
       <c r="AQ31" s="22">
         <v>0</v>
       </c>
-      <c r="AR31" s="80" t="s">
+      <c r="AR31" s="65" t="s">
         <v>190</v>
       </c>
       <c r="AS31" s="22">
@@ -8911,10 +8937,10 @@
       <c r="AJ34" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="AK34" s="78" t="s">
+      <c r="AK34" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="AL34" s="78" t="s">
+      <c r="AL34" s="63" t="s">
         <v>188</v>
       </c>
       <c r="AM34" s="17" t="s">
@@ -9169,7 +9195,7 @@
       <c r="AY35" s="22">
         <v>1</v>
       </c>
-      <c r="AZ35" s="81" t="s">
+      <c r="AZ35" s="66" t="s">
         <v>191</v>
       </c>
       <c r="BA35" s="22">
@@ -9382,7 +9408,7 @@
       <c r="AY36" s="22">
         <v>1</v>
       </c>
-      <c r="AZ36" s="81" t="s">
+      <c r="AZ36" s="66" t="s">
         <v>192</v>
       </c>
       <c r="BA36" s="22">
@@ -9676,9 +9702,15 @@
       <c r="G38" s="23">
         <v>42753.517361111102</v>
       </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
+      <c r="H38" s="22">
+        <v>3</v>
+      </c>
+      <c r="I38" s="22">
+        <v>3</v>
+      </c>
+      <c r="J38" s="22">
+        <v>3</v>
+      </c>
       <c r="K38" s="22">
         <v>1</v>
       </c>
@@ -9698,16 +9730,16 @@
         <v>84</v>
       </c>
       <c r="Q38" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R38" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S38" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U38" s="22">
         <v>0</v>
@@ -9785,10 +9817,10 @@
         <v>2</v>
       </c>
       <c r="AT38" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU38" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV38" s="22">
         <v>3</v>
@@ -9797,7 +9829,7 @@
         <v>3</v>
       </c>
       <c r="AX38" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY38" s="22">
         <v>0</v>
@@ -9809,25 +9841,25 @@
         <v>1</v>
       </c>
       <c r="BB38" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC38" s="22">
         <v>1</v>
       </c>
       <c r="BD38" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE38" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF38" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG38" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH38" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI38" s="22" t="s">
         <v>85</v>
@@ -9848,7 +9880,7 @@
         <v>92</v>
       </c>
       <c r="BO38" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP38" s="22">
         <v>1</v>
@@ -9883,9 +9915,15 @@
       <c r="G39" s="23">
         <v>42749.488888888904</v>
       </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
+      <c r="H39" s="22">
+        <v>3</v>
+      </c>
+      <c r="I39" s="22">
+        <v>3</v>
+      </c>
+      <c r="J39" s="22">
+        <v>3</v>
+      </c>
       <c r="K39" s="22">
         <v>1</v>
       </c>
@@ -9899,22 +9937,22 @@
         <v>1</v>
       </c>
       <c r="O39" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P39" s="17" t="s">
         <v>84</v>
       </c>
       <c r="Q39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R39" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U39" s="22">
         <v>0</v>
@@ -9989,19 +10027,19 @@
         <v>85</v>
       </c>
       <c r="AS39" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT39" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW39" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX39" s="22">
         <v>1</v>
@@ -10013,28 +10051,28 @@
         <v>85</v>
       </c>
       <c r="BA39" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB39" s="22">
         <v>2</v>
       </c>
       <c r="BC39" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI39" s="22" t="s">
         <v>85</v>
@@ -10055,7 +10093,7 @@
         <v>92</v>
       </c>
       <c r="BO39" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP39" s="22">
         <v>1</v>
@@ -10090,9 +10128,15 @@
       <c r="G40" s="23">
         <v>42738.423611111102</v>
       </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
+      <c r="H40" s="22">
+        <v>3</v>
+      </c>
+      <c r="I40" s="22">
+        <v>3</v>
+      </c>
+      <c r="J40" s="22">
+        <v>3</v>
+      </c>
       <c r="K40" s="22">
         <v>0</v>
       </c>
@@ -10106,22 +10150,22 @@
         <v>1</v>
       </c>
       <c r="O40" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P40" s="17" t="s">
         <v>84</v>
       </c>
       <c r="Q40" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R40" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S40" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T40" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U40" s="22">
         <v>0</v>
@@ -10199,7 +10243,7 @@
         <v>3</v>
       </c>
       <c r="AT40" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU40" s="22">
         <v>1</v>
@@ -10208,10 +10252,10 @@
         <v>3</v>
       </c>
       <c r="AW40" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX40" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY40" s="22">
         <v>0</v>
@@ -10220,7 +10264,7 @@
         <v>85</v>
       </c>
       <c r="BA40" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB40" s="22">
         <v>1</v>
@@ -10229,19 +10273,19 @@
         <v>1</v>
       </c>
       <c r="BD40" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE40" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF40" s="22">
         <v>2</v>
       </c>
       <c r="BG40" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH40" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI40" s="22" t="s">
         <v>85</v>
@@ -10297,9 +10341,15 @@
       <c r="G41" s="23">
         <v>42711.532638888901</v>
       </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="H41" s="22">
+        <v>4</v>
+      </c>
+      <c r="I41" s="22">
+        <v>2</v>
+      </c>
+      <c r="J41" s="22">
+        <v>2</v>
+      </c>
       <c r="K41" s="22">
         <v>0</v>
       </c>
@@ -10319,16 +10369,16 @@
         <v>84</v>
       </c>
       <c r="Q41" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R41" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S41" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T41" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U41" s="22">
         <v>0</v>
@@ -10418,7 +10468,7 @@
         <v>3</v>
       </c>
       <c r="AX41" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY41" s="22">
         <v>0</v>
@@ -10427,7 +10477,7 @@
         <v>85</v>
       </c>
       <c r="BA41" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB41" s="22">
         <v>3</v>
@@ -10439,16 +10489,16 @@
         <v>3</v>
       </c>
       <c r="BE41" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF41" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG41" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH41" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI41" s="22" t="s">
         <v>85</v>
@@ -10475,7 +10525,7 @@
         <v>2</v>
       </c>
       <c r="BQ41" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BR41" s="55">
         <v>2</v>
@@ -10504,9 +10554,15 @@
       <c r="G42" s="23">
         <v>42712.298611111102</v>
       </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="H42" s="22">
+        <v>2</v>
+      </c>
+      <c r="I42" s="22">
+        <v>3</v>
+      </c>
+      <c r="J42" s="22">
+        <v>3</v>
+      </c>
       <c r="K42" s="22">
         <v>1</v>
       </c>
@@ -10520,19 +10576,19 @@
         <v>1</v>
       </c>
       <c r="O42" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P42" s="17" t="s">
         <v>84</v>
       </c>
       <c r="Q42" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R42" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S42" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T42" s="22">
         <v>3</v>
@@ -10610,13 +10666,13 @@
         <v>85</v>
       </c>
       <c r="AS42" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT42" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU42" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV42" s="22">
         <v>3</v>
@@ -10655,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="BH42" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI42" s="22" t="s">
         <v>85</v>
@@ -10711,9 +10767,15 @@
       <c r="G43" s="23">
         <v>42700.716666666704</v>
       </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="H43" s="22">
+        <v>3</v>
+      </c>
+      <c r="I43" s="22">
+        <v>3</v>
+      </c>
+      <c r="J43" s="22">
+        <v>3</v>
+      </c>
       <c r="K43" s="22">
         <v>1</v>
       </c>
@@ -10727,22 +10789,22 @@
         <v>1</v>
       </c>
       <c r="O43" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P43" s="17" t="s">
         <v>84</v>
       </c>
       <c r="Q43" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R43" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U43" s="22">
         <v>0</v>
@@ -10832,19 +10894,19 @@
         <v>3</v>
       </c>
       <c r="AX43" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY43" s="22">
         <v>1</v>
       </c>
-      <c r="AZ43" s="21" t="s">
-        <v>113</v>
+      <c r="AZ43" s="66" t="s">
+        <v>196</v>
       </c>
       <c r="BA43" s="22">
         <v>3</v>
       </c>
       <c r="BB43" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC43" s="22">
         <v>2</v>
@@ -10865,7 +10927,7 @@
         <v>4</v>
       </c>
       <c r="BI43" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ43" s="22">
         <v>3</v>
@@ -10883,7 +10945,7 @@
         <v>92</v>
       </c>
       <c r="BO43" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP43" s="22">
         <v>1</v>
@@ -10892,7 +10954,7 @@
         <v>3</v>
       </c>
       <c r="BR43" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:70" ht="27" x14ac:dyDescent="0.15">
@@ -10918,9 +10980,15 @@
       <c r="G44" s="23">
         <v>42746.416666666701</v>
       </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="H44" s="22">
+        <v>4</v>
+      </c>
+      <c r="I44" s="22">
+        <v>3</v>
+      </c>
+      <c r="J44" s="22">
+        <v>3</v>
+      </c>
       <c r="K44" s="22">
         <v>1</v>
       </c>
@@ -10934,22 +11002,22 @@
         <v>1</v>
       </c>
       <c r="O44" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P44" s="17" t="s">
         <v>84</v>
       </c>
       <c r="Q44" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S44" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T44" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U44" s="22">
         <v>0</v>
@@ -11048,10 +11116,10 @@
         <v>85</v>
       </c>
       <c r="BA44" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB44" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC44" s="22">
         <v>1</v>
@@ -11060,16 +11128,16 @@
         <v>1</v>
       </c>
       <c r="BE44" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF44" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG44" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH44" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI44" s="22" t="s">
         <v>85</v>
@@ -11090,7 +11158,7 @@
         <v>92</v>
       </c>
       <c r="BO44" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP44" s="22">
         <v>1</v>
@@ -11125,9 +11193,15 @@
       <c r="G45" s="23">
         <v>42751.471527777801</v>
       </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="H45" s="22">
+        <v>4</v>
+      </c>
+      <c r="I45" s="22">
+        <v>4</v>
+      </c>
+      <c r="J45" s="22">
+        <v>3</v>
+      </c>
       <c r="K45" s="22">
         <v>1</v>
       </c>
@@ -11141,13 +11215,13 @@
         <v>1</v>
       </c>
       <c r="O45" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P45" s="17" t="s">
         <v>84</v>
       </c>
       <c r="Q45" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R45" s="22">
         <v>2</v>
@@ -11156,7 +11230,7 @@
         <v>2</v>
       </c>
       <c r="T45" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U45" s="22">
         <v>0</v>
@@ -11237,10 +11311,10 @@
         <v>3</v>
       </c>
       <c r="AU45" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV45" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW45" s="22">
         <v>3</v>
@@ -11270,10 +11344,10 @@
         <v>3</v>
       </c>
       <c r="BF45" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG45" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH45" s="22">
         <v>3</v>
@@ -11332,9 +11406,15 @@
       <c r="G46" s="23">
         <v>42739.441666666702</v>
       </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="H46" s="22">
+        <v>4</v>
+      </c>
+      <c r="I46" s="22">
+        <v>4</v>
+      </c>
+      <c r="J46" s="22">
+        <v>4</v>
+      </c>
       <c r="K46" s="22">
         <v>1</v>
       </c>
@@ -11438,10 +11518,10 @@
         <v>85</v>
       </c>
       <c r="AS46" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT46" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU46" s="22">
         <v>2</v>
@@ -11450,10 +11530,10 @@
         <v>3</v>
       </c>
       <c r="AW46" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX46" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY46" s="22">
         <v>0</v>
@@ -11474,7 +11554,7 @@
         <v>3</v>
       </c>
       <c r="BE46" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF46" s="22">
         <v>4</v>
@@ -11483,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="BH46" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI46" s="22">
         <v>5</v>
@@ -11510,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="BQ46" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BR46" s="55">
         <v>2</v>
@@ -11539,9 +11619,15 @@
       <c r="G47" s="23">
         <v>42719.004861111098</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="H47" s="22">
+        <v>3</v>
+      </c>
+      <c r="I47" s="22">
+        <v>3</v>
+      </c>
+      <c r="J47" s="22">
+        <v>3</v>
+      </c>
       <c r="K47" s="22">
         <v>1</v>
       </c>
@@ -11555,22 +11641,22 @@
         <v>1</v>
       </c>
       <c r="O47" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P47" s="17" t="s">
         <v>84</v>
       </c>
       <c r="Q47" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R47" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T47" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U47" s="22">
         <v>0</v>
@@ -11597,7 +11683,7 @@
         <v>107</v>
       </c>
       <c r="AC47" s="40" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="AD47" s="39">
         <v>0</v>
@@ -11621,10 +11707,10 @@
         <v>85</v>
       </c>
       <c r="AK47" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL47" s="40" t="s">
-        <v>117</v>
+        <v>193</v>
+      </c>
+      <c r="AL47" s="82" t="s">
+        <v>194</v>
       </c>
       <c r="AM47" s="40" t="s">
         <v>114</v>
@@ -11651,28 +11737,28 @@
         <v>3</v>
       </c>
       <c r="AU47" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV47" s="22">
         <v>1</v>
       </c>
       <c r="AW47" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX47" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY47" s="22">
         <v>1</v>
       </c>
-      <c r="AZ47" s="21" t="s">
-        <v>117</v>
+      <c r="AZ47" s="66" t="s">
+        <v>197</v>
       </c>
       <c r="BA47" s="22">
         <v>3</v>
       </c>
       <c r="BB47" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC47" s="22">
         <v>1</v>
@@ -11681,7 +11767,7 @@
         <v>2</v>
       </c>
       <c r="BE47" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF47" s="22">
         <v>4</v>
@@ -11693,7 +11779,7 @@
         <v>4</v>
       </c>
       <c r="BI47" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ47" s="22">
         <v>1</v>
@@ -11717,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="BQ47" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BR47" s="55">
         <v>1</v>
@@ -11746,9 +11832,15 @@
       <c r="G48" s="23">
         <v>42740.818055555603</v>
       </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="H48" s="22">
+        <v>4</v>
+      </c>
+      <c r="I48" s="22">
+        <v>4</v>
+      </c>
+      <c r="J48" s="22">
+        <v>3</v>
+      </c>
       <c r="K48" s="22">
         <v>1</v>
       </c>
@@ -11768,16 +11860,16 @@
         <v>135</v>
       </c>
       <c r="Q48" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R48" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S48" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U48" s="22">
         <v>0</v>
@@ -11833,8 +11925,8 @@
       <c r="AL48" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="AM48" s="42" t="s">
-        <v>114</v>
+      <c r="AM48" s="83" t="s">
+        <v>195</v>
       </c>
       <c r="AN48" s="45" t="s">
         <v>116</v>
@@ -11882,13 +11974,13 @@
         <v>2</v>
       </c>
       <c r="BC48" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD48" s="22">
         <v>3</v>
       </c>
       <c r="BE48" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF48" s="22">
         <v>2</v>
@@ -11897,7 +11989,7 @@
         <v>4</v>
       </c>
       <c r="BH48" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI48" s="22">
         <v>1</v>
@@ -11953,9 +12045,15 @@
       <c r="G49" s="23">
         <v>42755.759722222203</v>
       </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
+      <c r="H49" s="22">
+        <v>2</v>
+      </c>
+      <c r="I49" s="22">
+        <v>4</v>
+      </c>
+      <c r="J49" s="22">
+        <v>3</v>
+      </c>
       <c r="K49" s="22">
         <v>1</v>
       </c>
@@ -11969,22 +12067,22 @@
         <v>1</v>
       </c>
       <c r="O49" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P49" s="17" t="s">
         <v>84</v>
       </c>
       <c r="Q49" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R49" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U49" s="22">
         <v>1</v>
@@ -12059,22 +12157,22 @@
         <v>85</v>
       </c>
       <c r="AS49" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT49" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU49" s="22">
         <v>2</v>
       </c>
       <c r="AV49" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW49" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX49" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY49" s="22">
         <v>0</v>
@@ -12083,25 +12181,25 @@
         <v>85</v>
       </c>
       <c r="BA49" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB49" s="22">
         <v>2</v>
       </c>
       <c r="BC49" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD49" s="22">
         <v>3</v>
       </c>
       <c r="BE49" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF49" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG49" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH49" s="22">
         <v>2</v>
@@ -12131,7 +12229,7 @@
         <v>3</v>
       </c>
       <c r="BQ49" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR49" s="55">
         <v>3</v>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="204">
   <si>
     <t>客户信息</t>
   </si>
@@ -692,6 +692,30 @@
     <t>4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>产品咨询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1262,7 +1286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,6 +1537,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1861,10 +1897,10 @@
   <dimension ref="A1:FW214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BF38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BH50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BP49" sqref="BP49"/>
+      <selection pane="bottomRight" activeCell="BQ61" sqref="BQ61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -12258,9 +12294,15 @@
       <c r="G50" s="23">
         <v>42737.7006944444</v>
       </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+      <c r="H50" s="22">
+        <v>3</v>
+      </c>
+      <c r="I50" s="22">
+        <v>3</v>
+      </c>
+      <c r="J50" s="22">
+        <v>3</v>
+      </c>
       <c r="K50" s="22">
         <v>1</v>
       </c>
@@ -12274,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P50" s="21" t="s">
         <v>137</v>
@@ -12388,7 +12430,7 @@
         <v>85</v>
       </c>
       <c r="BA50" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB50" s="22">
         <v>1</v>
@@ -12400,13 +12442,13 @@
         <v>2</v>
       </c>
       <c r="BE50" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF50" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG50" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH50" s="22">
         <v>1</v>
@@ -12465,9 +12507,15 @@
       <c r="G51" s="23">
         <v>42748.989583333299</v>
       </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
+      <c r="H51" s="22">
+        <v>5</v>
+      </c>
+      <c r="I51" s="22">
+        <v>5</v>
+      </c>
+      <c r="J51" s="22">
+        <v>5</v>
+      </c>
       <c r="K51" s="22">
         <v>1</v>
       </c>
@@ -12481,31 +12529,31 @@
         <v>1</v>
       </c>
       <c r="O51" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P51" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="Q51" s="22">
-        <v>5</v>
-      </c>
-      <c r="R51" s="22">
-        <v>5</v>
-      </c>
-      <c r="S51" s="22">
-        <v>5</v>
-      </c>
-      <c r="T51" s="22">
-        <v>3</v>
-      </c>
-      <c r="U51" s="22">
-        <v>0</v>
-      </c>
-      <c r="V51" s="22">
-        <v>1</v>
-      </c>
-      <c r="W51" s="22">
-        <v>0</v>
+      <c r="Q51" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="R51" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="S51" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="T51" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="U51" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="V51" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="W51" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="X51" s="22">
         <v>1</v>
@@ -12549,8 +12597,8 @@
       <c r="AK51" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="AL51" s="17" t="s">
-        <v>117</v>
+      <c r="AL51" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="AM51" s="17" t="s">
         <v>114</v>
@@ -12595,25 +12643,25 @@
         <v>85</v>
       </c>
       <c r="BA51" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB51" s="22">
         <v>2</v>
       </c>
       <c r="BC51" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD51" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE51" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF51" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG51" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH51" s="22">
         <v>1</v>
@@ -12637,7 +12685,7 @@
         <v>92</v>
       </c>
       <c r="BO51" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP51" s="22">
         <v>2</v>
@@ -12672,9 +12720,15 @@
       <c r="G52" s="23">
         <v>42739.859722222202</v>
       </c>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
+      <c r="H52" s="22">
+        <v>5</v>
+      </c>
+      <c r="I52" s="22">
+        <v>5</v>
+      </c>
+      <c r="J52" s="22">
+        <v>5</v>
+      </c>
       <c r="K52" s="22">
         <v>1</v>
       </c>
@@ -12688,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="O52" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P52" s="17" t="s">
         <v>84</v>
@@ -12729,8 +12783,8 @@
       <c r="AB52" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="AC52" s="36" t="s">
-        <v>117</v>
+      <c r="AC52" s="85" t="s">
+        <v>193</v>
       </c>
       <c r="AD52" s="35">
         <v>1</v>
@@ -12753,11 +12807,11 @@
       <c r="AJ52" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AK52" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL52" s="36" t="s">
-        <v>117</v>
+      <c r="AK52" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL52" s="85" t="s">
+        <v>193</v>
       </c>
       <c r="AM52" s="36" t="s">
         <v>114</v>
@@ -12783,14 +12837,14 @@
       <c r="AT52" s="22">
         <v>3</v>
       </c>
-      <c r="AU52" s="22">
-        <v>2</v>
+      <c r="AU52" s="87">
+        <v>3</v>
       </c>
       <c r="AV52" s="22">
         <v>3</v>
       </c>
       <c r="AW52" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX52" s="22">
         <v>1</v>
@@ -12798,11 +12852,11 @@
       <c r="AY52" s="22">
         <v>1</v>
       </c>
-      <c r="AZ52" s="21" t="s">
-        <v>126</v>
+      <c r="AZ52" s="87" t="s">
+        <v>194</v>
       </c>
       <c r="BA52" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB52" s="22">
         <v>1</v>
@@ -12814,19 +12868,19 @@
         <v>2</v>
       </c>
       <c r="BE52" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF52" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG52" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH52" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI52" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ52" s="22">
         <v>1</v>
@@ -12844,7 +12898,7 @@
         <v>92</v>
       </c>
       <c r="BO52" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP52" s="22">
         <v>2</v>
@@ -12879,9 +12933,15 @@
       <c r="G53" s="23">
         <v>42753.328472222202</v>
       </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+      <c r="H53" s="22">
+        <v>4</v>
+      </c>
+      <c r="I53" s="22">
+        <v>3</v>
+      </c>
+      <c r="J53" s="22">
+        <v>3</v>
+      </c>
       <c r="K53" s="22">
         <v>1</v>
       </c>
@@ -12895,22 +12955,22 @@
         <v>1</v>
       </c>
       <c r="O53" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P53" s="21" t="s">
         <v>84</v>
       </c>
       <c r="Q53" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R53" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S53" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T53" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U53" s="22">
         <v>0</v>
@@ -12988,7 +13048,7 @@
         <v>2</v>
       </c>
       <c r="AT53" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU53" s="22">
         <v>2</v>
@@ -12997,10 +13057,10 @@
         <v>5</v>
       </c>
       <c r="AW53" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX53" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY53" s="22">
         <v>0</v>
@@ -13009,10 +13069,10 @@
         <v>85</v>
       </c>
       <c r="BA53" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB53" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC53" s="22">
         <v>2</v>
@@ -13021,16 +13081,16 @@
         <v>3</v>
       </c>
       <c r="BE53" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF53" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG53" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH53" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI53" s="22" t="s">
         <v>85</v>
@@ -13054,13 +13114,13 @@
         <v>4</v>
       </c>
       <c r="BP53" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ53" s="22">
         <v>3</v>
       </c>
       <c r="BR53" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:70" ht="27" x14ac:dyDescent="0.15">
@@ -13086,9 +13146,15 @@
       <c r="G54" s="27">
         <v>42714.925694444399</v>
       </c>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
+      <c r="H54" s="26">
+        <v>3</v>
+      </c>
+      <c r="I54" s="26">
+        <v>3</v>
+      </c>
+      <c r="J54" s="26">
+        <v>3</v>
+      </c>
       <c r="K54" s="26">
         <v>1</v>
       </c>
@@ -13111,7 +13177,7 @@
         <v>4</v>
       </c>
       <c r="R54" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S54" s="26">
         <v>3</v>
@@ -13219,22 +13285,22 @@
         <v>3</v>
       </c>
       <c r="BB54" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC54" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD54" s="26">
         <v>3</v>
       </c>
       <c r="BE54" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF54" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG54" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH54" s="26">
         <v>1</v>
@@ -13293,9 +13359,15 @@
       <c r="G55" s="27">
         <v>42707.521527777797</v>
       </c>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
+      <c r="H55" s="26">
+        <v>4</v>
+      </c>
+      <c r="I55" s="26">
+        <v>3</v>
+      </c>
+      <c r="J55" s="26">
+        <v>3</v>
+      </c>
       <c r="K55" s="26">
         <v>1</v>
       </c>
@@ -13315,16 +13387,16 @@
         <v>140</v>
       </c>
       <c r="Q55" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R55" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S55" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T55" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U55" s="26">
         <v>0</v>
@@ -13414,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AX55" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY55" s="26">
         <v>0</v>
@@ -13426,7 +13498,7 @@
         <v>3</v>
       </c>
       <c r="BB55" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC55" s="26">
         <v>3</v>
@@ -13435,10 +13507,10 @@
         <v>3</v>
       </c>
       <c r="BE55" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF55" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG55" s="26">
         <v>1</v>
@@ -13500,9 +13572,15 @@
       <c r="G56" s="27">
         <v>42737.926388888904</v>
       </c>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
+      <c r="H56" s="26">
+        <v>3</v>
+      </c>
+      <c r="I56" s="26">
+        <v>3</v>
+      </c>
+      <c r="J56" s="26">
+        <v>3</v>
+      </c>
       <c r="K56" s="26">
         <v>1</v>
       </c>
@@ -13516,22 +13594,22 @@
         <v>1</v>
       </c>
       <c r="O56" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P56" s="25" t="s">
         <v>141</v>
       </c>
       <c r="Q56" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R56" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S56" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T56" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U56" s="26">
         <v>0</v>
@@ -13558,7 +13636,7 @@
         <v>142</v>
       </c>
       <c r="AC56" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD56" s="26">
         <v>0</v>
@@ -13582,10 +13660,10 @@
         <v>85</v>
       </c>
       <c r="AK56" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL56" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM56" s="26">
         <v>1</v>
@@ -13606,19 +13684,19 @@
         <v>85</v>
       </c>
       <c r="AS56" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT56" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU56" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV56" s="26">
         <v>3</v>
       </c>
       <c r="AW56" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX56" s="26">
         <v>3</v>
@@ -13636,22 +13714,22 @@
         <v>1</v>
       </c>
       <c r="BC56" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD56" s="26">
         <v>3</v>
       </c>
       <c r="BE56" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF56" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG56" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH56" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI56" s="26">
         <v>4</v>
@@ -13707,9 +13785,15 @@
       <c r="G57" s="27">
         <v>42728.995138888902</v>
       </c>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
+      <c r="H57" s="26">
+        <v>4</v>
+      </c>
+      <c r="I57" s="26">
+        <v>2</v>
+      </c>
+      <c r="J57" s="26">
+        <v>1</v>
+      </c>
       <c r="K57" s="26">
         <v>0</v>
       </c>
@@ -13723,22 +13807,22 @@
         <v>1</v>
       </c>
       <c r="O57" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P57" s="25" t="s">
         <v>84</v>
       </c>
       <c r="Q57" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R57" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S57" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T57" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U57" s="26">
         <v>0</v>
@@ -13819,7 +13903,7 @@
         <v>3</v>
       </c>
       <c r="AU57" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV57" s="26">
         <v>1</v>
@@ -13840,16 +13924,16 @@
         <v>3</v>
       </c>
       <c r="BB57" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC57" s="26">
         <v>2</v>
       </c>
       <c r="BD57" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE57" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF57" s="26">
         <v>4</v>
@@ -13858,7 +13942,7 @@
         <v>1</v>
       </c>
       <c r="BH57" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI57" s="26" t="s">
         <v>85</v>
@@ -13914,9 +13998,15 @@
       <c r="G58" s="27">
         <v>42727.460416666698</v>
       </c>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
+      <c r="H58" s="26">
+        <v>3</v>
+      </c>
+      <c r="I58" s="26">
+        <v>3</v>
+      </c>
+      <c r="J58" s="26">
+        <v>3</v>
+      </c>
       <c r="K58" s="26">
         <v>1</v>
       </c>
@@ -13936,16 +14026,16 @@
         <v>84</v>
       </c>
       <c r="Q58" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R58" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S58" s="26">
         <v>3</v>
       </c>
       <c r="T58" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U58" s="26">
         <v>0</v>
@@ -13966,10 +14056,10 @@
         <v>1</v>
       </c>
       <c r="AA58" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="25" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="AB58" s="86" t="s">
+        <v>198</v>
       </c>
       <c r="AC58" s="26">
         <v>5</v>
@@ -14026,7 +14116,7 @@
         <v>3</v>
       </c>
       <c r="AU58" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV58" s="26">
         <v>1</v>
@@ -14040,8 +14130,8 @@
       <c r="AY58" s="26">
         <v>1</v>
       </c>
-      <c r="AZ58" s="25" t="s">
-        <v>113</v>
+      <c r="AZ58" s="86" t="s">
+        <v>203</v>
       </c>
       <c r="BA58" s="26">
         <v>3</v>
@@ -14059,10 +14149,10 @@
         <v>3</v>
       </c>
       <c r="BF58" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG58" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH58" s="26">
         <v>5</v>
@@ -14121,9 +14211,15 @@
       <c r="G59" s="27">
         <v>42710.852083333302</v>
       </c>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
+      <c r="H59" s="26">
+        <v>4</v>
+      </c>
+      <c r="I59" s="26">
+        <v>3</v>
+      </c>
+      <c r="J59" s="26">
+        <v>3</v>
+      </c>
       <c r="K59" s="26">
         <v>1</v>
       </c>
@@ -14137,7 +14233,7 @@
         <v>1</v>
       </c>
       <c r="O59" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P59" s="25" t="s">
         <v>84</v>
@@ -14149,7 +14245,7 @@
         <v>1</v>
       </c>
       <c r="S59" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T59" s="26">
         <v>2</v>
@@ -14178,8 +14274,8 @@
       <c r="AB59" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AC59" s="26">
-        <v>2</v>
+      <c r="AC59" s="84" t="s">
+        <v>199</v>
       </c>
       <c r="AD59" s="26">
         <v>1</v>
@@ -14202,14 +14298,14 @@
       <c r="AJ59" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AK59" s="26">
-        <v>2</v>
-      </c>
-      <c r="AL59" s="26">
-        <v>5</v>
-      </c>
-      <c r="AM59" s="26">
-        <v>1</v>
+      <c r="AK59" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL59" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM59" s="84" t="s">
+        <v>199</v>
       </c>
       <c r="AN59" s="47" t="s">
         <v>116</v>
@@ -14233,13 +14329,13 @@
         <v>3</v>
       </c>
       <c r="AU59" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV59" s="26">
         <v>3</v>
       </c>
       <c r="AW59" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX59" s="26">
         <v>3</v>
@@ -14260,7 +14356,7 @@
         <v>2</v>
       </c>
       <c r="BD59" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE59" s="26">
         <v>3</v>
@@ -14269,7 +14365,7 @@
         <v>4</v>
       </c>
       <c r="BG59" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH59" s="26">
         <v>1</v>
@@ -14328,9 +14424,15 @@
       <c r="G60" s="27">
         <v>42720.470138888901</v>
       </c>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
+      <c r="H60" s="26">
+        <v>2</v>
+      </c>
+      <c r="I60" s="26">
+        <v>3</v>
+      </c>
+      <c r="J60" s="26">
+        <v>3</v>
+      </c>
       <c r="K60" s="26">
         <v>1</v>
       </c>
@@ -14350,16 +14452,16 @@
         <v>84</v>
       </c>
       <c r="Q60" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R60" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S60" s="26">
         <v>3</v>
       </c>
       <c r="T60" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U60" s="26">
         <v>0</v>
@@ -14440,7 +14542,7 @@
         <v>3</v>
       </c>
       <c r="AU60" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV60" s="26">
         <v>3</v>
@@ -14473,10 +14575,10 @@
         <v>2</v>
       </c>
       <c r="BF60" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG60" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH60" s="26">
         <v>3</v>
@@ -14535,9 +14637,15 @@
       <c r="G61" s="27">
         <v>42738.706250000003</v>
       </c>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
+      <c r="H61" s="26">
+        <v>3</v>
+      </c>
+      <c r="I61" s="26">
+        <v>2</v>
+      </c>
+      <c r="J61" s="26">
+        <v>2</v>
+      </c>
       <c r="K61" s="26">
         <v>0</v>
       </c>
@@ -14557,16 +14665,16 @@
         <v>141</v>
       </c>
       <c r="Q61" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R61" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S61" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T61" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U61" s="26">
         <v>0</v>
@@ -14593,7 +14701,7 @@
         <v>96</v>
       </c>
       <c r="AC61" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD61" s="26">
         <v>0</v>
@@ -14617,13 +14725,13 @@
         <v>85</v>
       </c>
       <c r="AK61" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL61" s="26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM61" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN61" s="47" t="s">
         <v>116</v>
@@ -14644,10 +14752,10 @@
         <v>3</v>
       </c>
       <c r="AT61" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU61" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV61" s="26">
         <v>3</v>
@@ -14671,7 +14779,7 @@
         <v>1</v>
       </c>
       <c r="BC61" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD61" s="26">
         <v>3</v>
@@ -14680,7 +14788,7 @@
         <v>3</v>
       </c>
       <c r="BF61" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG61" s="26">
         <v>1</v>
@@ -14713,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="BQ61" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR61" s="55">
         <v>1</v>
@@ -27046,28 +27154,28 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E102 E103:E126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E126">
       <formula1>"京东"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V94:W94 Z78:Z82 U3:Z77 U78:Y80 X81:Y82 V90:W91 U95:Z102 U81:W89 X83:AA94 U92:W93 U103:Z126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V94:W94 Z78:Z82 U78:Y80 X81:Y82 V90:W91 U95:Z126 U81:W89 X83:AA94 U92:W93 U3:Z77">
       <formula1>"0,1,/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C102 C103:C126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C126">
       <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F102 F103:F126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F126">
       <formula1>"android客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J126 O3:O102 O103:O126 H3:I126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O126 H3:J126">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN3:BN102 BN103:BN126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN3:BN126">
       <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576 N3:N102 N103:N126 AA3:AA82 K3:L102 K103:L126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576 N3:N126 AA3:AA82 K3:L126">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC102 AC103:AC126 Q75:T79 Q3:T72 AZ3:AZ126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC126 Q75:T79 AZ3:AZ126 Q3:T72">
       <formula1>"1,2,3,4,5,/"</formula1>
     </dataValidation>
   </dataValidations>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1000" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="25600" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,6 +255,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回购该品牌</t>
@@ -265,6 +266,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>同品类</t>
@@ -274,6 +276,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产品意愿</t>
@@ -285,6 +288,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回购</t>
@@ -295,6 +299,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>同品牌</t>
@@ -304,6 +309,7 @@
         <sz val="11"/>
         <color indexed="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产品意愿</t>
@@ -690,24 +696,28 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -715,6 +725,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -735,6 +746,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -742,10 +754,11 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,12 +816,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="21"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,9 +1464,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,6 +1487,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1520,20 +1530,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1882,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FY212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O53" workbookViewId="0">
+      <selection activeCell="AB58" sqref="AB58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -1898,7 +1905,8 @@
     <col min="8" max="9" width="8.1640625" style="4" customWidth="1"/>
     <col min="10" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="14" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="21.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="6.1640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="7.1640625" style="1" customWidth="1"/>
     <col min="19" max="20" width="9" style="1" customWidth="1"/>
@@ -1933,42 +1941,41 @@
     <col min="69" max="69" width="6.5" style="1" customWidth="1"/>
     <col min="70" max="70" width="6.1640625" style="1" customWidth="1"/>
     <col min="71" max="179" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="180" max="180" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="181" max="181" width="8.6640625" hidden="1"/>
+    <col min="180" max="181" width="8.6640625" hidden="1" customWidth="1"/>
     <col min="182" max="16384" width="8.83203125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88"/>
-      <c r="B1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="82" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="83" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="86"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="85" t="s">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="87" t="s">
         <v>3</v>
       </c>
       <c r="Y1" s="86"/>
@@ -1985,48 +1992,48 @@
       <c r="AJ1" s="86"/>
       <c r="AK1" s="86"/>
       <c r="AL1" s="86"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="78" t="s">
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="64" t="s">
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="BP1" s="82" t="s">
+      <c r="BP1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="BQ1" s="80"/>
-      <c r="BR1" s="81"/>
+      <c r="BQ1" s="81"/>
+      <c r="BR1" s="82"/>
     </row>
     <row r="2" spans="1:70" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2074,7 +2081,7 @@
       <c r="O2" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="P2" s="89" t="s">
+      <c r="P2" s="73" t="s">
         <v>182</v>
       </c>
       <c r="Q2" s="31" t="s">
@@ -2448,7 +2455,7 @@
       <c r="BQ3" s="13">
         <v>4</v>
       </c>
-      <c r="BR3" s="65">
+      <c r="BR3" s="64">
         <v>4</v>
       </c>
     </row>
@@ -2661,7 +2668,7 @@
       <c r="BQ4" s="18">
         <v>5</v>
       </c>
-      <c r="BR4" s="66">
+      <c r="BR4" s="65">
         <v>5</v>
       </c>
     </row>
@@ -2874,7 +2881,7 @@
       <c r="BQ5" s="18">
         <v>5</v>
       </c>
-      <c r="BR5" s="66">
+      <c r="BR5" s="65">
         <v>3</v>
       </c>
     </row>
@@ -3087,7 +3094,7 @@
       <c r="BQ6" s="18">
         <v>2</v>
       </c>
-      <c r="BR6" s="66">
+      <c r="BR6" s="65">
         <v>1</v>
       </c>
     </row>
@@ -3300,7 +3307,7 @@
       <c r="BQ7" s="18">
         <v>3</v>
       </c>
-      <c r="BR7" s="66">
+      <c r="BR7" s="65">
         <v>2</v>
       </c>
     </row>
@@ -3513,7 +3520,7 @@
       <c r="BQ8" s="18">
         <v>1</v>
       </c>
-      <c r="BR8" s="66">
+      <c r="BR8" s="65">
         <v>1</v>
       </c>
     </row>
@@ -3726,7 +3733,7 @@
       <c r="BQ9" s="18">
         <v>1</v>
       </c>
-      <c r="BR9" s="66">
+      <c r="BR9" s="65">
         <v>1</v>
       </c>
     </row>
@@ -3939,7 +3946,7 @@
       <c r="BQ10" s="18">
         <v>4</v>
       </c>
-      <c r="BR10" s="66">
+      <c r="BR10" s="65">
         <v>5</v>
       </c>
     </row>
@@ -4152,7 +4159,7 @@
       <c r="BQ11" s="18">
         <v>4</v>
       </c>
-      <c r="BR11" s="66">
+      <c r="BR11" s="65">
         <v>4</v>
       </c>
     </row>
@@ -4365,7 +4372,7 @@
       <c r="BQ12" s="18">
         <v>5</v>
       </c>
-      <c r="BR12" s="66">
+      <c r="BR12" s="65">
         <v>5</v>
       </c>
     </row>
@@ -4578,7 +4585,7 @@
       <c r="BQ13" s="18">
         <v>2</v>
       </c>
-      <c r="BR13" s="66">
+      <c r="BR13" s="65">
         <v>2</v>
       </c>
     </row>
@@ -4791,7 +4798,7 @@
       <c r="BQ14" s="18">
         <v>1</v>
       </c>
-      <c r="BR14" s="66">
+      <c r="BR14" s="65">
         <v>1</v>
       </c>
     </row>
@@ -5004,7 +5011,7 @@
       <c r="BQ15" s="18">
         <v>1</v>
       </c>
-      <c r="BR15" s="66">
+      <c r="BR15" s="65">
         <v>1</v>
       </c>
     </row>
@@ -5217,7 +5224,7 @@
       <c r="BQ16" s="18">
         <v>1</v>
       </c>
-      <c r="BR16" s="66">
+      <c r="BR16" s="65">
         <v>1</v>
       </c>
     </row>
@@ -5430,7 +5437,7 @@
       <c r="BQ17" s="18">
         <v>1</v>
       </c>
-      <c r="BR17" s="67">
+      <c r="BR17" s="66">
         <v>1</v>
       </c>
     </row>
@@ -5643,7 +5650,7 @@
       <c r="BQ18" s="18">
         <v>5</v>
       </c>
-      <c r="BR18" s="66">
+      <c r="BR18" s="65">
         <v>5</v>
       </c>
     </row>
@@ -5856,7 +5863,7 @@
       <c r="BQ19" s="18">
         <v>3</v>
       </c>
-      <c r="BR19" s="66">
+      <c r="BR19" s="65">
         <v>3</v>
       </c>
     </row>
@@ -6069,7 +6076,7 @@
       <c r="BQ20" s="18">
         <v>1</v>
       </c>
-      <c r="BR20" s="66">
+      <c r="BR20" s="65">
         <v>1</v>
       </c>
     </row>
@@ -6282,7 +6289,7 @@
       <c r="BQ21" s="18">
         <v>4</v>
       </c>
-      <c r="BR21" s="66">
+      <c r="BR21" s="65">
         <v>3</v>
       </c>
     </row>
@@ -6495,7 +6502,7 @@
       <c r="BQ22" s="18">
         <v>3</v>
       </c>
-      <c r="BR22" s="66">
+      <c r="BR22" s="65">
         <v>2</v>
       </c>
     </row>
@@ -6708,7 +6715,7 @@
       <c r="BQ23" s="18">
         <v>3</v>
       </c>
-      <c r="BR23" s="66">
+      <c r="BR23" s="65">
         <v>3</v>
       </c>
     </row>
@@ -6921,7 +6928,7 @@
       <c r="BQ24" s="18">
         <v>2</v>
       </c>
-      <c r="BR24" s="66">
+      <c r="BR24" s="65">
         <v>2</v>
       </c>
     </row>
@@ -7134,7 +7141,7 @@
       <c r="BQ25" s="18">
         <v>5</v>
       </c>
-      <c r="BR25" s="66">
+      <c r="BR25" s="65">
         <v>5</v>
       </c>
     </row>
@@ -7347,7 +7354,7 @@
       <c r="BQ26" s="18">
         <v>3</v>
       </c>
-      <c r="BR26" s="66">
+      <c r="BR26" s="65">
         <v>2</v>
       </c>
     </row>
@@ -7560,7 +7567,7 @@
       <c r="BQ27" s="18">
         <v>5</v>
       </c>
-      <c r="BR27" s="66">
+      <c r="BR27" s="65">
         <v>5</v>
       </c>
     </row>
@@ -7773,7 +7780,7 @@
       <c r="BQ28" s="18">
         <v>5</v>
       </c>
-      <c r="BR28" s="66">
+      <c r="BR28" s="65">
         <v>5</v>
       </c>
     </row>
@@ -7986,7 +7993,7 @@
       <c r="BQ29" s="18">
         <v>5</v>
       </c>
-      <c r="BR29" s="66">
+      <c r="BR29" s="65">
         <v>5</v>
       </c>
     </row>
@@ -8199,7 +8206,7 @@
       <c r="BQ30" s="18">
         <v>5</v>
       </c>
-      <c r="BR30" s="66">
+      <c r="BR30" s="65">
         <v>3</v>
       </c>
     </row>
@@ -8412,7 +8419,7 @@
       <c r="BQ31" s="22">
         <v>5</v>
       </c>
-      <c r="BR31" s="68">
+      <c r="BR31" s="67">
         <v>5</v>
       </c>
     </row>
@@ -8625,7 +8632,7 @@
       <c r="BQ32" s="22">
         <v>4</v>
       </c>
-      <c r="BR32" s="68">
+      <c r="BR32" s="67">
         <v>4</v>
       </c>
     </row>
@@ -8838,7 +8845,7 @@
       <c r="BQ33" s="22">
         <v>2</v>
       </c>
-      <c r="BR33" s="68">
+      <c r="BR33" s="67">
         <v>3</v>
       </c>
     </row>
@@ -9051,7 +9058,7 @@
       <c r="BQ34" s="22">
         <v>4</v>
       </c>
-      <c r="BR34" s="68">
+      <c r="BR34" s="67">
         <v>3</v>
       </c>
     </row>
@@ -9264,7 +9271,7 @@
       <c r="BQ35" s="22">
         <v>1</v>
       </c>
-      <c r="BR35" s="68">
+      <c r="BR35" s="67">
         <v>1</v>
       </c>
     </row>
@@ -9477,7 +9484,7 @@
       <c r="BQ36" s="22">
         <v>3</v>
       </c>
-      <c r="BR36" s="68">
+      <c r="BR36" s="67">
         <v>1</v>
       </c>
     </row>
@@ -9690,7 +9697,7 @@
       <c r="BQ37" s="22">
         <v>2</v>
       </c>
-      <c r="BR37" s="68">
+      <c r="BR37" s="67">
         <v>2</v>
       </c>
     </row>
@@ -9903,7 +9910,7 @@
       <c r="BQ38" s="22">
         <v>3</v>
       </c>
-      <c r="BR38" s="68">
+      <c r="BR38" s="67">
         <v>1</v>
       </c>
     </row>
@@ -10116,7 +10123,7 @@
       <c r="BQ39" s="22">
         <v>3</v>
       </c>
-      <c r="BR39" s="68">
+      <c r="BR39" s="67">
         <v>2</v>
       </c>
     </row>
@@ -10329,7 +10336,7 @@
       <c r="BQ40" s="22">
         <v>1</v>
       </c>
-      <c r="BR40" s="68">
+      <c r="BR40" s="67">
         <v>1</v>
       </c>
     </row>
@@ -10542,7 +10549,7 @@
       <c r="BQ41" s="22">
         <v>2</v>
       </c>
-      <c r="BR41" s="68">
+      <c r="BR41" s="67">
         <v>2</v>
       </c>
     </row>
@@ -10755,7 +10762,7 @@
       <c r="BQ42" s="22">
         <v>1</v>
       </c>
-      <c r="BR42" s="68">
+      <c r="BR42" s="67">
         <v>1</v>
       </c>
     </row>
@@ -10968,7 +10975,7 @@
       <c r="BQ43" s="22">
         <v>3</v>
       </c>
-      <c r="BR43" s="68">
+      <c r="BR43" s="67">
         <v>2</v>
       </c>
     </row>
@@ -11181,7 +11188,7 @@
       <c r="BQ44" s="22">
         <v>3</v>
       </c>
-      <c r="BR44" s="68">
+      <c r="BR44" s="67">
         <v>1</v>
       </c>
     </row>
@@ -11394,7 +11401,7 @@
       <c r="BQ45" s="22">
         <v>2</v>
       </c>
-      <c r="BR45" s="68">
+      <c r="BR45" s="67">
         <v>1</v>
       </c>
     </row>
@@ -11607,7 +11614,7 @@
       <c r="BQ46" s="22">
         <v>3</v>
       </c>
-      <c r="BR46" s="68">
+      <c r="BR46" s="67">
         <v>2</v>
       </c>
     </row>
@@ -11820,7 +11827,7 @@
       <c r="BQ47" s="22">
         <v>2</v>
       </c>
-      <c r="BR47" s="68">
+      <c r="BR47" s="67">
         <v>1</v>
       </c>
     </row>
@@ -12033,7 +12040,7 @@
       <c r="BQ48" s="22">
         <v>2</v>
       </c>
-      <c r="BR48" s="68">
+      <c r="BR48" s="67">
         <v>2</v>
       </c>
     </row>
@@ -12246,7 +12253,7 @@
       <c r="BQ49" s="22">
         <v>3</v>
       </c>
-      <c r="BR49" s="68">
+      <c r="BR49" s="67">
         <v>3</v>
       </c>
     </row>
@@ -12459,7 +12466,7 @@
       <c r="BQ50" s="22">
         <v>1</v>
       </c>
-      <c r="BR50" s="68">
+      <c r="BR50" s="67">
         <v>1</v>
       </c>
     </row>
@@ -12672,7 +12679,7 @@
       <c r="BQ51" s="22">
         <v>2</v>
       </c>
-      <c r="BR51" s="68">
+      <c r="BR51" s="67">
         <v>2</v>
       </c>
     </row>
@@ -12885,7 +12892,7 @@
       <c r="BQ52" s="22">
         <v>2</v>
       </c>
-      <c r="BR52" s="68">
+      <c r="BR52" s="67">
         <v>2</v>
       </c>
     </row>
@@ -13098,7 +13105,7 @@
       <c r="BQ53" s="22">
         <v>3</v>
       </c>
-      <c r="BR53" s="68">
+      <c r="BR53" s="67">
         <v>1</v>
       </c>
     </row>
@@ -13305,13 +13312,13 @@
       <c r="BO54" s="26">
         <v>3</v>
       </c>
-      <c r="BP54" s="69">
+      <c r="BP54" s="68">
         <v>3</v>
       </c>
       <c r="BQ54" s="22">
         <v>2</v>
       </c>
-      <c r="BR54" s="68">
+      <c r="BR54" s="67">
         <v>2</v>
       </c>
     </row>
@@ -13518,13 +13525,13 @@
       <c r="BO55" s="26">
         <v>5</v>
       </c>
-      <c r="BP55" s="69">
+      <c r="BP55" s="68">
         <v>2</v>
       </c>
       <c r="BQ55" s="22">
         <v>1</v>
       </c>
-      <c r="BR55" s="68">
+      <c r="BR55" s="67">
         <v>2</v>
       </c>
     </row>
@@ -13731,13 +13738,13 @@
       <c r="BO56" s="26">
         <v>5</v>
       </c>
-      <c r="BP56" s="69">
+      <c r="BP56" s="68">
         <v>1</v>
       </c>
       <c r="BQ56" s="22">
         <v>1</v>
       </c>
-      <c r="BR56" s="68">
+      <c r="BR56" s="67">
         <v>1</v>
       </c>
     </row>
@@ -13944,13 +13951,13 @@
       <c r="BO57" s="26">
         <v>3</v>
       </c>
-      <c r="BP57" s="69">
+      <c r="BP57" s="68">
         <v>1</v>
       </c>
       <c r="BQ57" s="22">
         <v>3</v>
       </c>
-      <c r="BR57" s="68">
+      <c r="BR57" s="67">
         <v>2</v>
       </c>
     </row>
@@ -14037,8 +14044,8 @@
       <c r="AA58" s="26">
         <v>1</v>
       </c>
-      <c r="AB58" s="44" t="s">
-        <v>137</v>
+      <c r="AB58" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="AC58" s="26">
         <v>5</v>
@@ -14157,13 +14164,13 @@
       <c r="BO58" s="26">
         <v>3</v>
       </c>
-      <c r="BP58" s="69">
+      <c r="BP58" s="68">
         <v>1</v>
       </c>
       <c r="BQ58" s="22">
         <v>4</v>
       </c>
-      <c r="BR58" s="68">
+      <c r="BR58" s="67">
         <v>2</v>
       </c>
     </row>
@@ -14370,13 +14377,13 @@
       <c r="BO59" s="26">
         <v>3</v>
       </c>
-      <c r="BP59" s="69">
+      <c r="BP59" s="68">
         <v>1</v>
       </c>
       <c r="BQ59" s="22">
         <v>2</v>
       </c>
-      <c r="BR59" s="68">
+      <c r="BR59" s="67">
         <v>2</v>
       </c>
     </row>
@@ -14583,13 +14590,13 @@
       <c r="BO60" s="26">
         <v>4</v>
       </c>
-      <c r="BP60" s="69">
+      <c r="BP60" s="68">
         <v>1</v>
       </c>
       <c r="BQ60" s="22">
         <v>2</v>
       </c>
-      <c r="BR60" s="68">
+      <c r="BR60" s="67">
         <v>1</v>
       </c>
     </row>
@@ -14796,13 +14803,13 @@
       <c r="BO61" s="26">
         <v>5</v>
       </c>
-      <c r="BP61" s="69">
+      <c r="BP61" s="68">
         <v>1</v>
       </c>
       <c r="BQ61" s="22">
         <v>2</v>
       </c>
-      <c r="BR61" s="68">
+      <c r="BR61" s="67">
         <v>1</v>
       </c>
     </row>
@@ -15009,13 +15016,13 @@
       <c r="BO62" s="26">
         <v>3</v>
       </c>
-      <c r="BP62" s="69">
+      <c r="BP62" s="68">
         <v>3</v>
       </c>
       <c r="BQ62" s="22">
         <v>3</v>
       </c>
-      <c r="BR62" s="68">
+      <c r="BR62" s="67">
         <v>2</v>
       </c>
     </row>
@@ -15222,13 +15229,13 @@
       <c r="BO63" s="26">
         <v>4</v>
       </c>
-      <c r="BP63" s="69">
+      <c r="BP63" s="68">
         <v>2</v>
       </c>
       <c r="BQ63" s="22">
         <v>2</v>
       </c>
-      <c r="BR63" s="68">
+      <c r="BR63" s="67">
         <v>2</v>
       </c>
     </row>
@@ -15435,13 +15442,13 @@
       <c r="BO64" s="26">
         <v>5</v>
       </c>
-      <c r="BP64" s="69">
+      <c r="BP64" s="68">
         <v>3</v>
       </c>
       <c r="BQ64" s="22">
         <v>3</v>
       </c>
-      <c r="BR64" s="68">
+      <c r="BR64" s="67">
         <v>3</v>
       </c>
     </row>
@@ -15648,13 +15655,13 @@
       <c r="BO65" s="26">
         <v>4</v>
       </c>
-      <c r="BP65" s="69">
+      <c r="BP65" s="68">
         <v>1</v>
       </c>
       <c r="BQ65" s="22">
         <v>1</v>
       </c>
-      <c r="BR65" s="68">
+      <c r="BR65" s="67">
         <v>1</v>
       </c>
     </row>
@@ -15861,13 +15868,13 @@
       <c r="BO66" s="26">
         <v>5</v>
       </c>
-      <c r="BP66" s="69">
+      <c r="BP66" s="68">
         <v>1</v>
       </c>
       <c r="BQ66" s="22">
         <v>1</v>
       </c>
-      <c r="BR66" s="68">
+      <c r="BR66" s="67">
         <v>1</v>
       </c>
     </row>
@@ -16074,13 +16081,13 @@
       <c r="BO67" s="26">
         <v>5</v>
       </c>
-      <c r="BP67" s="69">
+      <c r="BP67" s="68">
         <v>1</v>
       </c>
       <c r="BQ67" s="22">
         <v>1</v>
       </c>
-      <c r="BR67" s="68">
+      <c r="BR67" s="67">
         <v>1</v>
       </c>
     </row>
@@ -16287,13 +16294,13 @@
       <c r="BO68" s="26">
         <v>5</v>
       </c>
-      <c r="BP68" s="69">
+      <c r="BP68" s="68">
         <v>1</v>
       </c>
       <c r="BQ68" s="22">
         <v>2</v>
       </c>
-      <c r="BR68" s="68">
+      <c r="BR68" s="67">
         <v>1</v>
       </c>
     </row>
@@ -16500,13 +16507,13 @@
       <c r="BO69" s="26">
         <v>5</v>
       </c>
-      <c r="BP69" s="69">
+      <c r="BP69" s="68">
         <v>1</v>
       </c>
       <c r="BQ69" s="22">
         <v>1</v>
       </c>
-      <c r="BR69" s="68">
+      <c r="BR69" s="67">
         <v>1</v>
       </c>
     </row>
@@ -16713,13 +16720,13 @@
       <c r="BO70" s="26">
         <v>1</v>
       </c>
-      <c r="BP70" s="69">
+      <c r="BP70" s="68">
         <v>4</v>
       </c>
       <c r="BQ70" s="22">
         <v>5</v>
       </c>
-      <c r="BR70" s="68">
+      <c r="BR70" s="67">
         <v>5</v>
       </c>
     </row>
@@ -16926,13 +16933,13 @@
       <c r="BO71" s="26">
         <v>5</v>
       </c>
-      <c r="BP71" s="69">
+      <c r="BP71" s="68">
         <v>1</v>
       </c>
       <c r="BQ71" s="22">
         <v>1</v>
       </c>
-      <c r="BR71" s="68">
+      <c r="BR71" s="67">
         <v>1</v>
       </c>
     </row>
@@ -17139,13 +17146,13 @@
       <c r="BO72" s="26">
         <v>1</v>
       </c>
-      <c r="BP72" s="69">
+      <c r="BP72" s="68">
         <v>5</v>
       </c>
       <c r="BQ72" s="22">
         <v>5</v>
       </c>
-      <c r="BR72" s="68">
+      <c r="BR72" s="67">
         <v>5</v>
       </c>
     </row>
@@ -17352,13 +17359,13 @@
       <c r="BO73" s="26">
         <v>4</v>
       </c>
-      <c r="BP73" s="69">
+      <c r="BP73" s="68">
         <v>1</v>
       </c>
       <c r="BQ73" s="22">
         <v>1</v>
       </c>
-      <c r="BR73" s="68">
+      <c r="BR73" s="67">
         <v>1</v>
       </c>
     </row>
@@ -17565,13 +17572,13 @@
       <c r="BO74" s="26">
         <v>3</v>
       </c>
-      <c r="BP74" s="69">
+      <c r="BP74" s="68">
         <v>1</v>
       </c>
       <c r="BQ74" s="22">
         <v>2</v>
       </c>
-      <c r="BR74" s="68">
+      <c r="BR74" s="67">
         <v>2</v>
       </c>
     </row>
@@ -17778,13 +17785,13 @@
       <c r="BO75" s="26">
         <v>2</v>
       </c>
-      <c r="BP75" s="69">
+      <c r="BP75" s="68">
         <v>2</v>
       </c>
       <c r="BQ75" s="22">
         <v>2</v>
       </c>
-      <c r="BR75" s="68">
+      <c r="BR75" s="67">
         <v>1</v>
       </c>
     </row>
@@ -17991,13 +17998,13 @@
       <c r="BO76" s="26">
         <v>3</v>
       </c>
-      <c r="BP76" s="69">
+      <c r="BP76" s="68">
         <v>3</v>
       </c>
       <c r="BQ76" s="22">
         <v>3</v>
       </c>
-      <c r="BR76" s="68">
+      <c r="BR76" s="67">
         <v>3</v>
       </c>
     </row>
@@ -18204,13 +18211,13 @@
       <c r="BO77" s="26">
         <v>4</v>
       </c>
-      <c r="BP77" s="69">
+      <c r="BP77" s="68">
         <v>1</v>
       </c>
       <c r="BQ77" s="22">
         <v>2</v>
       </c>
-      <c r="BR77" s="68">
+      <c r="BR77" s="67">
         <v>1</v>
       </c>
     </row>
@@ -18417,13 +18424,13 @@
       <c r="BO78" s="26">
         <v>2</v>
       </c>
-      <c r="BP78" s="69">
+      <c r="BP78" s="68">
         <v>3</v>
       </c>
       <c r="BQ78" s="22">
         <v>3</v>
       </c>
-      <c r="BR78" s="68">
+      <c r="BR78" s="67">
         <v>3</v>
       </c>
     </row>
@@ -18630,13 +18637,13 @@
       <c r="BO79" s="26">
         <v>2</v>
       </c>
-      <c r="BP79" s="69">
+      <c r="BP79" s="68">
         <v>1</v>
       </c>
       <c r="BQ79" s="22">
         <v>2</v>
       </c>
-      <c r="BR79" s="68">
+      <c r="BR79" s="67">
         <v>1</v>
       </c>
     </row>
@@ -18726,7 +18733,7 @@
       <c r="AB80" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="AC80" s="72" t="s">
+      <c r="AC80" s="71" t="s">
         <v>179</v>
       </c>
       <c r="AD80" s="26">
@@ -18750,7 +18757,7 @@
       <c r="AJ80" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="AK80" s="72" t="s">
+      <c r="AK80" s="71" t="s">
         <v>179</v>
       </c>
       <c r="AL80" s="25" t="s">
@@ -18843,13 +18850,13 @@
       <c r="BO80" s="26">
         <v>5</v>
       </c>
-      <c r="BP80" s="69">
+      <c r="BP80" s="68">
         <v>1</v>
       </c>
       <c r="BQ80" s="22">
         <v>1</v>
       </c>
-      <c r="BR80" s="68">
+      <c r="BR80" s="67">
         <v>1</v>
       </c>
     </row>
@@ -19056,13 +19063,13 @@
       <c r="BO81" s="26">
         <v>4</v>
       </c>
-      <c r="BP81" s="69">
+      <c r="BP81" s="68">
         <v>1</v>
       </c>
       <c r="BQ81" s="22">
         <v>2</v>
       </c>
-      <c r="BR81" s="68">
+      <c r="BR81" s="67">
         <v>1</v>
       </c>
     </row>
@@ -19269,13 +19276,13 @@
       <c r="BO82" s="26">
         <v>5</v>
       </c>
-      <c r="BP82" s="69">
+      <c r="BP82" s="68">
         <v>1</v>
       </c>
       <c r="BQ82" s="22">
         <v>1</v>
       </c>
-      <c r="BR82" s="68">
+      <c r="BR82" s="67">
         <v>1</v>
       </c>
     </row>
@@ -19482,13 +19489,13 @@
       <c r="BO83" s="26">
         <v>1</v>
       </c>
-      <c r="BP83" s="69">
+      <c r="BP83" s="68">
         <v>4</v>
       </c>
       <c r="BQ83" s="22">
         <v>5</v>
       </c>
-      <c r="BR83" s="68">
+      <c r="BR83" s="67">
         <v>5</v>
       </c>
     </row>
@@ -19695,13 +19702,13 @@
       <c r="BO84" s="26">
         <v>1</v>
       </c>
-      <c r="BP84" s="69">
+      <c r="BP84" s="68">
         <v>4</v>
       </c>
       <c r="BQ84" s="22">
         <v>4</v>
       </c>
-      <c r="BR84" s="68">
+      <c r="BR84" s="67">
         <v>4</v>
       </c>
       <c r="BS84"/>
@@ -19900,7 +19907,7 @@
       <c r="AB85" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="AC85" s="72" t="s">
+      <c r="AC85" s="71" t="s">
         <v>180</v>
       </c>
       <c r="AD85" s="26">
@@ -19924,7 +19931,7 @@
       <c r="AJ85" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AK85" s="72" t="s">
+      <c r="AK85" s="71" t="s">
         <v>179</v>
       </c>
       <c r="AL85" s="25" t="s">
@@ -20017,13 +20024,13 @@
       <c r="BO85" s="26">
         <v>1</v>
       </c>
-      <c r="BP85" s="69">
+      <c r="BP85" s="68">
         <v>3</v>
       </c>
       <c r="BQ85" s="22">
         <v>3</v>
       </c>
-      <c r="BR85" s="68">
+      <c r="BR85" s="67">
         <v>2</v>
       </c>
       <c r="BS85"/>
@@ -20249,7 +20256,7 @@
       <c r="AK86" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="AL86" s="72" t="s">
+      <c r="AL86" s="71" t="s">
         <v>181</v>
       </c>
       <c r="AM86" s="25" t="s">
@@ -20339,13 +20346,13 @@
       <c r="BO86" s="26">
         <v>4</v>
       </c>
-      <c r="BP86" s="69">
+      <c r="BP86" s="68">
         <v>2</v>
       </c>
       <c r="BQ86" s="22">
         <v>3</v>
       </c>
-      <c r="BR86" s="68">
+      <c r="BR86" s="67">
         <v>2</v>
       </c>
       <c r="BS86"/>
@@ -20661,13 +20668,13 @@
       <c r="BO87" s="26">
         <v>4</v>
       </c>
-      <c r="BP87" s="69">
+      <c r="BP87" s="68">
         <v>3</v>
       </c>
       <c r="BQ87" s="22">
         <v>2</v>
       </c>
-      <c r="BR87" s="68">
+      <c r="BR87" s="67">
         <v>2</v>
       </c>
       <c r="BS87"/>
@@ -20983,13 +20990,13 @@
       <c r="BO88" s="26">
         <v>3</v>
       </c>
-      <c r="BP88" s="69">
+      <c r="BP88" s="68">
         <v>1</v>
       </c>
       <c r="BQ88" s="22">
         <v>3</v>
       </c>
-      <c r="BR88" s="68">
+      <c r="BR88" s="67">
         <v>1</v>
       </c>
       <c r="BS88"/>
@@ -21305,13 +21312,13 @@
       <c r="BO89" s="26">
         <v>5</v>
       </c>
-      <c r="BP89" s="69">
+      <c r="BP89" s="68">
         <v>1</v>
       </c>
       <c r="BQ89" s="22">
         <v>1</v>
       </c>
-      <c r="BR89" s="68">
+      <c r="BR89" s="67">
         <v>1</v>
       </c>
       <c r="BS89"/>
@@ -21627,13 +21634,13 @@
       <c r="BO90" s="26">
         <v>4</v>
       </c>
-      <c r="BP90" s="69">
+      <c r="BP90" s="68">
         <v>3</v>
       </c>
       <c r="BQ90" s="22">
         <v>3</v>
       </c>
-      <c r="BR90" s="68">
+      <c r="BR90" s="67">
         <v>3</v>
       </c>
       <c r="BS90"/>
@@ -21949,13 +21956,13 @@
       <c r="BO91" s="26">
         <v>5</v>
       </c>
-      <c r="BP91" s="69">
+      <c r="BP91" s="68">
         <v>3</v>
       </c>
       <c r="BQ91" s="22">
         <v>3</v>
       </c>
-      <c r="BR91" s="68">
+      <c r="BR91" s="67">
         <v>3</v>
       </c>
       <c r="BS91"/>
@@ -22271,13 +22278,13 @@
       <c r="BO92" s="26">
         <v>4</v>
       </c>
-      <c r="BP92" s="69">
+      <c r="BP92" s="68">
         <v>1</v>
       </c>
       <c r="BQ92" s="22">
         <v>3</v>
       </c>
-      <c r="BR92" s="68">
+      <c r="BR92" s="67">
         <v>1</v>
       </c>
       <c r="BS92"/>
@@ -22593,13 +22600,13 @@
       <c r="BO93" s="26">
         <v>2</v>
       </c>
-      <c r="BP93" s="69">
+      <c r="BP93" s="68">
         <v>2</v>
       </c>
       <c r="BQ93" s="22">
         <v>4</v>
       </c>
-      <c r="BR93" s="68">
+      <c r="BR93" s="67">
         <v>3</v>
       </c>
       <c r="BS93"/>
@@ -22915,13 +22922,13 @@
       <c r="BO94" s="26">
         <v>5</v>
       </c>
-      <c r="BP94" s="69">
+      <c r="BP94" s="68">
         <v>2</v>
       </c>
       <c r="BQ94" s="22">
         <v>2</v>
       </c>
-      <c r="BR94" s="68">
+      <c r="BR94" s="67">
         <v>3</v>
       </c>
       <c r="BS94"/>
@@ -23237,13 +23244,13 @@
       <c r="BO95" s="26">
         <v>1</v>
       </c>
-      <c r="BP95" s="69">
+      <c r="BP95" s="68">
         <v>3</v>
       </c>
       <c r="BQ95" s="22">
         <v>3</v>
       </c>
-      <c r="BR95" s="68">
+      <c r="BR95" s="67">
         <v>3</v>
       </c>
       <c r="BS95"/>
@@ -23559,13 +23566,13 @@
       <c r="BO96" s="26">
         <v>2</v>
       </c>
-      <c r="BP96" s="69">
+      <c r="BP96" s="68">
         <v>3</v>
       </c>
       <c r="BQ96" s="22">
         <v>3</v>
       </c>
-      <c r="BR96" s="68">
+      <c r="BR96" s="67">
         <v>2</v>
       </c>
       <c r="BS96"/>
@@ -23881,13 +23888,13 @@
       <c r="BO97" s="26">
         <v>2</v>
       </c>
-      <c r="BP97" s="69">
+      <c r="BP97" s="68">
         <v>3</v>
       </c>
       <c r="BQ97" s="22">
         <v>3</v>
       </c>
-      <c r="BR97" s="68">
+      <c r="BR97" s="67">
         <v>3</v>
       </c>
       <c r="BS97"/>
@@ -24203,13 +24210,13 @@
       <c r="BO98" s="26">
         <v>2</v>
       </c>
-      <c r="BP98" s="69">
+      <c r="BP98" s="68">
         <v>3</v>
       </c>
       <c r="BQ98" s="22">
         <v>3</v>
       </c>
-      <c r="BR98" s="68">
+      <c r="BR98" s="67">
         <v>3</v>
       </c>
       <c r="BS98"/>
@@ -24525,13 +24532,13 @@
       <c r="BO99" s="26">
         <v>1</v>
       </c>
-      <c r="BP99" s="69">
+      <c r="BP99" s="68">
         <v>4</v>
       </c>
       <c r="BQ99" s="22">
         <v>3</v>
       </c>
-      <c r="BR99" s="68">
+      <c r="BR99" s="67">
         <v>3</v>
       </c>
       <c r="BS99"/>
@@ -24847,13 +24854,13 @@
       <c r="BO100" s="26">
         <v>2</v>
       </c>
-      <c r="BP100" s="69">
+      <c r="BP100" s="68">
         <v>3</v>
       </c>
       <c r="BQ100" s="22">
         <v>2</v>
       </c>
-      <c r="BR100" s="68">
+      <c r="BR100" s="67">
         <v>3</v>
       </c>
       <c r="BS100"/>
@@ -25169,13 +25176,13 @@
       <c r="BO101" s="26">
         <v>4</v>
       </c>
-      <c r="BP101" s="69">
+      <c r="BP101" s="68">
         <v>2</v>
       </c>
       <c r="BQ101" s="22">
         <v>1</v>
       </c>
-      <c r="BR101" s="68">
+      <c r="BR101" s="67">
         <v>1</v>
       </c>
       <c r="BS101"/>
@@ -25491,23 +25498,23 @@
       <c r="BO102" s="26">
         <v>3</v>
       </c>
-      <c r="BP102" s="69">
+      <c r="BP102" s="68">
         <v>3</v>
       </c>
       <c r="BQ102" s="22">
         <v>3</v>
       </c>
-      <c r="BR102" s="68">
+      <c r="BR102" s="67">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:179" x14ac:dyDescent="0.15">
-      <c r="A103" s="70"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="24"/>
       <c r="C103" s="25"/>
       <c r="D103" s="26"/>
       <c r="E103" s="25"/>
-      <c r="F103" s="71"/>
+      <c r="F103" s="70"/>
       <c r="G103" s="26"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
@@ -25569,17 +25576,17 @@
       <c r="BM103" s="26"/>
       <c r="BN103" s="25"/>
       <c r="BO103" s="26"/>
-      <c r="BP103" s="69"/>
+      <c r="BP103" s="68"/>
       <c r="BQ103" s="22"/>
-      <c r="BR103" s="68"/>
+      <c r="BR103" s="67"/>
     </row>
     <row r="104" spans="1:179" x14ac:dyDescent="0.15">
-      <c r="A104" s="70"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="24"/>
       <c r="C104" s="25"/>
       <c r="D104" s="26"/>
       <c r="E104" s="25"/>
-      <c r="F104" s="71"/>
+      <c r="F104" s="70"/>
       <c r="G104" s="26"/>
       <c r="H104" s="26"/>
       <c r="I104" s="26"/>
@@ -25641,17 +25648,17 @@
       <c r="BM104" s="26"/>
       <c r="BN104" s="25"/>
       <c r="BO104" s="26"/>
-      <c r="BP104" s="69"/>
+      <c r="BP104" s="68"/>
       <c r="BQ104" s="22"/>
-      <c r="BR104" s="68"/>
+      <c r="BR104" s="67"/>
     </row>
     <row r="105" spans="1:179" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="24"/>
       <c r="C105" s="25"/>
       <c r="D105" s="26"/>
       <c r="E105" s="25"/>
-      <c r="F105" s="71"/>
+      <c r="F105" s="70"/>
       <c r="G105" s="26"/>
       <c r="H105" s="26"/>
       <c r="I105" s="26"/>
@@ -25713,17 +25720,17 @@
       <c r="BM105" s="26"/>
       <c r="BN105" s="25"/>
       <c r="BO105" s="26"/>
-      <c r="BP105" s="69"/>
+      <c r="BP105" s="68"/>
       <c r="BQ105" s="22"/>
-      <c r="BR105" s="68"/>
+      <c r="BR105" s="67"/>
     </row>
     <row r="106" spans="1:179" x14ac:dyDescent="0.15">
-      <c r="A106" s="70"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="24"/>
       <c r="C106" s="25"/>
       <c r="D106" s="26"/>
       <c r="E106" s="25"/>
-      <c r="F106" s="71"/>
+      <c r="F106" s="70"/>
       <c r="G106" s="26"/>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
@@ -25785,17 +25792,17 @@
       <c r="BM106" s="26"/>
       <c r="BN106" s="25"/>
       <c r="BO106" s="26"/>
-      <c r="BP106" s="69"/>
+      <c r="BP106" s="68"/>
       <c r="BQ106" s="22"/>
-      <c r="BR106" s="68"/>
+      <c r="BR106" s="67"/>
     </row>
     <row r="107" spans="1:179" x14ac:dyDescent="0.15">
-      <c r="A107" s="70"/>
+      <c r="A107" s="69"/>
       <c r="B107" s="24"/>
       <c r="C107" s="25"/>
       <c r="D107" s="26"/>
       <c r="E107" s="25"/>
-      <c r="F107" s="71"/>
+      <c r="F107" s="70"/>
       <c r="G107" s="26"/>
       <c r="H107" s="26"/>
       <c r="I107" s="26"/>
@@ -25857,17 +25864,17 @@
       <c r="BM107" s="26"/>
       <c r="BN107" s="25"/>
       <c r="BO107" s="26"/>
-      <c r="BP107" s="69"/>
+      <c r="BP107" s="68"/>
       <c r="BQ107" s="22"/>
-      <c r="BR107" s="68"/>
+      <c r="BR107" s="67"/>
     </row>
     <row r="108" spans="1:179" x14ac:dyDescent="0.15">
-      <c r="A108" s="70"/>
+      <c r="A108" s="69"/>
       <c r="B108" s="24"/>
       <c r="C108" s="25"/>
       <c r="D108" s="26"/>
       <c r="E108" s="25"/>
-      <c r="F108" s="71"/>
+      <c r="F108" s="70"/>
       <c r="G108" s="26"/>
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
@@ -25929,17 +25936,17 @@
       <c r="BM108" s="26"/>
       <c r="BN108" s="25"/>
       <c r="BO108" s="26"/>
-      <c r="BP108" s="69"/>
+      <c r="BP108" s="68"/>
       <c r="BQ108" s="22"/>
-      <c r="BR108" s="68"/>
+      <c r="BR108" s="67"/>
     </row>
     <row r="109" spans="1:179" x14ac:dyDescent="0.15">
-      <c r="A109" s="70"/>
+      <c r="A109" s="69"/>
       <c r="B109" s="24"/>
       <c r="C109" s="25"/>
       <c r="D109" s="26"/>
       <c r="E109" s="25"/>
-      <c r="F109" s="71"/>
+      <c r="F109" s="70"/>
       <c r="G109" s="26"/>
       <c r="H109" s="26"/>
       <c r="I109" s="26"/>
@@ -26001,17 +26008,17 @@
       <c r="BM109" s="26"/>
       <c r="BN109" s="25"/>
       <c r="BO109" s="26"/>
-      <c r="BP109" s="69"/>
+      <c r="BP109" s="68"/>
       <c r="BQ109" s="22"/>
-      <c r="BR109" s="68"/>
+      <c r="BR109" s="67"/>
     </row>
     <row r="110" spans="1:179" x14ac:dyDescent="0.15">
-      <c r="A110" s="70"/>
+      <c r="A110" s="69"/>
       <c r="B110" s="24"/>
       <c r="C110" s="25"/>
       <c r="D110" s="26"/>
       <c r="E110" s="25"/>
-      <c r="F110" s="71"/>
+      <c r="F110" s="70"/>
       <c r="G110" s="26"/>
       <c r="H110" s="26"/>
       <c r="I110" s="26"/>
@@ -26073,17 +26080,17 @@
       <c r="BM110" s="26"/>
       <c r="BN110" s="25"/>
       <c r="BO110" s="26"/>
-      <c r="BP110" s="69"/>
+      <c r="BP110" s="68"/>
       <c r="BQ110" s="22"/>
-      <c r="BR110" s="68"/>
+      <c r="BR110" s="67"/>
     </row>
     <row r="111" spans="1:179" x14ac:dyDescent="0.15">
-      <c r="A111" s="70"/>
+      <c r="A111" s="69"/>
       <c r="B111" s="24"/>
       <c r="C111" s="25"/>
       <c r="D111" s="26"/>
       <c r="E111" s="25"/>
-      <c r="F111" s="71"/>
+      <c r="F111" s="70"/>
       <c r="G111" s="26"/>
       <c r="H111" s="26"/>
       <c r="I111" s="26"/>
@@ -26145,17 +26152,17 @@
       <c r="BM111" s="26"/>
       <c r="BN111" s="25"/>
       <c r="BO111" s="26"/>
-      <c r="BP111" s="69"/>
+      <c r="BP111" s="68"/>
       <c r="BQ111" s="22"/>
-      <c r="BR111" s="68"/>
+      <c r="BR111" s="67"/>
     </row>
     <row r="112" spans="1:179" x14ac:dyDescent="0.15">
-      <c r="A112" s="70"/>
+      <c r="A112" s="69"/>
       <c r="B112" s="24"/>
       <c r="C112" s="25"/>
       <c r="D112" s="26"/>
       <c r="E112" s="25"/>
-      <c r="F112" s="71"/>
+      <c r="F112" s="70"/>
       <c r="G112" s="26"/>
       <c r="H112" s="26"/>
       <c r="I112" s="26"/>
@@ -26217,17 +26224,17 @@
       <c r="BM112" s="26"/>
       <c r="BN112" s="25"/>
       <c r="BO112" s="26"/>
-      <c r="BP112" s="69"/>
+      <c r="BP112" s="68"/>
       <c r="BQ112" s="22"/>
-      <c r="BR112" s="68"/>
+      <c r="BR112" s="67"/>
     </row>
     <row r="113" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A113" s="70"/>
+      <c r="A113" s="69"/>
       <c r="B113" s="24"/>
       <c r="C113" s="25"/>
       <c r="D113" s="26"/>
       <c r="E113" s="25"/>
-      <c r="F113" s="71"/>
+      <c r="F113" s="70"/>
       <c r="G113" s="26"/>
       <c r="H113" s="26"/>
       <c r="I113" s="26"/>
@@ -26289,17 +26296,17 @@
       <c r="BM113" s="26"/>
       <c r="BN113" s="25"/>
       <c r="BO113" s="26"/>
-      <c r="BP113" s="69"/>
+      <c r="BP113" s="68"/>
       <c r="BQ113" s="22"/>
-      <c r="BR113" s="68"/>
+      <c r="BR113" s="67"/>
     </row>
     <row r="114" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A114" s="70"/>
+      <c r="A114" s="69"/>
       <c r="B114" s="24"/>
       <c r="C114" s="25"/>
       <c r="D114" s="26"/>
       <c r="E114" s="25"/>
-      <c r="F114" s="71"/>
+      <c r="F114" s="70"/>
       <c r="G114" s="26"/>
       <c r="H114" s="26"/>
       <c r="I114" s="26"/>
@@ -26361,17 +26368,17 @@
       <c r="BM114" s="26"/>
       <c r="BN114" s="25"/>
       <c r="BO114" s="26"/>
-      <c r="BP114" s="69"/>
+      <c r="BP114" s="68"/>
       <c r="BQ114" s="22"/>
-      <c r="BR114" s="68"/>
+      <c r="BR114" s="67"/>
     </row>
     <row r="115" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A115" s="70"/>
+      <c r="A115" s="69"/>
       <c r="B115" s="24"/>
       <c r="C115" s="25"/>
       <c r="D115" s="26"/>
       <c r="E115" s="25"/>
-      <c r="F115" s="71"/>
+      <c r="F115" s="70"/>
       <c r="G115" s="26"/>
       <c r="H115" s="26"/>
       <c r="I115" s="26"/>
@@ -26433,17 +26440,17 @@
       <c r="BM115" s="26"/>
       <c r="BN115" s="25"/>
       <c r="BO115" s="26"/>
-      <c r="BP115" s="69"/>
+      <c r="BP115" s="68"/>
       <c r="BQ115" s="22"/>
-      <c r="BR115" s="68"/>
+      <c r="BR115" s="67"/>
     </row>
     <row r="116" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A116" s="70"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="24"/>
       <c r="C116" s="25"/>
       <c r="D116" s="26"/>
       <c r="E116" s="25"/>
-      <c r="F116" s="71"/>
+      <c r="F116" s="70"/>
       <c r="G116" s="26"/>
       <c r="H116" s="26"/>
       <c r="I116" s="26"/>
@@ -26505,17 +26512,17 @@
       <c r="BM116" s="26"/>
       <c r="BN116" s="25"/>
       <c r="BO116" s="26"/>
-      <c r="BP116" s="69"/>
+      <c r="BP116" s="68"/>
       <c r="BQ116" s="22"/>
-      <c r="BR116" s="68"/>
+      <c r="BR116" s="67"/>
     </row>
     <row r="117" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A117" s="70"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="24"/>
       <c r="C117" s="25"/>
       <c r="D117" s="26"/>
       <c r="E117" s="25"/>
-      <c r="F117" s="71"/>
+      <c r="F117" s="70"/>
       <c r="G117" s="26"/>
       <c r="H117" s="26"/>
       <c r="I117" s="26"/>
@@ -26577,17 +26584,17 @@
       <c r="BM117" s="26"/>
       <c r="BN117" s="25"/>
       <c r="BO117" s="26"/>
-      <c r="BP117" s="69"/>
+      <c r="BP117" s="68"/>
       <c r="BQ117" s="22"/>
-      <c r="BR117" s="68"/>
+      <c r="BR117" s="67"/>
     </row>
     <row r="118" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A118" s="70"/>
+      <c r="A118" s="69"/>
       <c r="B118" s="24"/>
       <c r="C118" s="25"/>
       <c r="D118" s="26"/>
       <c r="E118" s="25"/>
-      <c r="F118" s="71"/>
+      <c r="F118" s="70"/>
       <c r="G118" s="26"/>
       <c r="H118" s="26"/>
       <c r="I118" s="26"/>
@@ -26649,17 +26656,17 @@
       <c r="BM118" s="26"/>
       <c r="BN118" s="25"/>
       <c r="BO118" s="26"/>
-      <c r="BP118" s="69"/>
+      <c r="BP118" s="68"/>
       <c r="BQ118" s="22"/>
-      <c r="BR118" s="68"/>
+      <c r="BR118" s="67"/>
     </row>
     <row r="119" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A119" s="70"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="24"/>
       <c r="C119" s="25"/>
       <c r="D119" s="26"/>
       <c r="E119" s="25"/>
-      <c r="F119" s="71"/>
+      <c r="F119" s="70"/>
       <c r="G119" s="26"/>
       <c r="H119" s="26"/>
       <c r="I119" s="26"/>
@@ -26721,17 +26728,17 @@
       <c r="BM119" s="26"/>
       <c r="BN119" s="25"/>
       <c r="BO119" s="26"/>
-      <c r="BP119" s="69"/>
+      <c r="BP119" s="68"/>
       <c r="BQ119" s="22"/>
-      <c r="BR119" s="68"/>
+      <c r="BR119" s="67"/>
     </row>
     <row r="120" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A120" s="70"/>
+      <c r="A120" s="69"/>
       <c r="B120" s="24"/>
       <c r="C120" s="25"/>
       <c r="D120" s="26"/>
       <c r="E120" s="25"/>
-      <c r="F120" s="71"/>
+      <c r="F120" s="70"/>
       <c r="G120" s="26"/>
       <c r="H120" s="26"/>
       <c r="I120" s="26"/>
@@ -26793,17 +26800,17 @@
       <c r="BM120" s="26"/>
       <c r="BN120" s="25"/>
       <c r="BO120" s="26"/>
-      <c r="BP120" s="69"/>
+      <c r="BP120" s="68"/>
       <c r="BQ120" s="22"/>
-      <c r="BR120" s="68"/>
+      <c r="BR120" s="67"/>
     </row>
     <row r="121" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A121" s="70"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="24"/>
       <c r="C121" s="25"/>
       <c r="D121" s="26"/>
       <c r="E121" s="25"/>
-      <c r="F121" s="71"/>
+      <c r="F121" s="70"/>
       <c r="G121" s="26"/>
       <c r="H121" s="26"/>
       <c r="I121" s="26"/>
@@ -26865,17 +26872,17 @@
       <c r="BM121" s="26"/>
       <c r="BN121" s="25"/>
       <c r="BO121" s="26"/>
-      <c r="BP121" s="69"/>
+      <c r="BP121" s="68"/>
       <c r="BQ121" s="22"/>
-      <c r="BR121" s="68"/>
+      <c r="BR121" s="67"/>
     </row>
     <row r="122" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A122" s="70"/>
+      <c r="A122" s="69"/>
       <c r="B122" s="24"/>
       <c r="C122" s="25"/>
       <c r="D122" s="26"/>
       <c r="E122" s="25"/>
-      <c r="F122" s="71"/>
+      <c r="F122" s="70"/>
       <c r="G122" s="26"/>
       <c r="H122" s="26"/>
       <c r="I122" s="26"/>
@@ -26937,17 +26944,17 @@
       <c r="BM122" s="26"/>
       <c r="BN122" s="25"/>
       <c r="BO122" s="26"/>
-      <c r="BP122" s="69"/>
+      <c r="BP122" s="68"/>
       <c r="BQ122" s="22"/>
-      <c r="BR122" s="68"/>
+      <c r="BR122" s="67"/>
     </row>
     <row r="123" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A123" s="70"/>
+      <c r="A123" s="69"/>
       <c r="B123" s="24"/>
       <c r="C123" s="25"/>
       <c r="D123" s="26"/>
       <c r="E123" s="25"/>
-      <c r="F123" s="71"/>
+      <c r="F123" s="70"/>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
       <c r="I123" s="26"/>
@@ -27009,17 +27016,17 @@
       <c r="BM123" s="26"/>
       <c r="BN123" s="25"/>
       <c r="BO123" s="26"/>
-      <c r="BP123" s="69"/>
+      <c r="BP123" s="68"/>
       <c r="BQ123" s="22"/>
-      <c r="BR123" s="68"/>
+      <c r="BR123" s="67"/>
     </row>
     <row r="124" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A124" s="70"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="24"/>
       <c r="C124" s="25"/>
       <c r="D124" s="26"/>
       <c r="E124" s="25"/>
-      <c r="F124" s="71"/>
+      <c r="F124" s="70"/>
       <c r="G124" s="26"/>
       <c r="H124" s="26"/>
       <c r="I124" s="26"/>
@@ -27081,17 +27088,17 @@
       <c r="BM124" s="26"/>
       <c r="BN124" s="25"/>
       <c r="BO124" s="26"/>
-      <c r="BP124" s="69"/>
+      <c r="BP124" s="68"/>
       <c r="BQ124" s="22"/>
-      <c r="BR124" s="68"/>
+      <c r="BR124" s="67"/>
     </row>
     <row r="125" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A125" s="70"/>
+      <c r="A125" s="69"/>
       <c r="B125" s="24"/>
       <c r="C125" s="25"/>
       <c r="D125" s="26"/>
       <c r="E125" s="25"/>
-      <c r="F125" s="71"/>
+      <c r="F125" s="70"/>
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
@@ -27153,17 +27160,17 @@
       <c r="BM125" s="26"/>
       <c r="BN125" s="25"/>
       <c r="BO125" s="26"/>
-      <c r="BP125" s="69"/>
+      <c r="BP125" s="68"/>
       <c r="BQ125" s="22"/>
-      <c r="BR125" s="68"/>
+      <c r="BR125" s="67"/>
     </row>
     <row r="126" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A126" s="70"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="24"/>
       <c r="C126" s="25"/>
       <c r="D126" s="26"/>
       <c r="E126" s="25"/>
-      <c r="F126" s="71"/>
+      <c r="F126" s="70"/>
       <c r="G126" s="26"/>
       <c r="H126" s="26"/>
       <c r="I126" s="26"/>
@@ -27225,9 +27232,9 @@
       <c r="BM126" s="26"/>
       <c r="BN126" s="25"/>
       <c r="BO126" s="26"/>
-      <c r="BP126" s="69"/>
+      <c r="BP126" s="68"/>
       <c r="BQ126" s="22"/>
-      <c r="BR126" s="68"/>
+      <c r="BR126" s="67"/>
     </row>
     <row r="127" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="128" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="720" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="25600" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1584,6 +1584,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1591,15 +1600,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1949,11 +1949,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FY212"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AC66" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BD30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ66" sqref="AZ66"/>
+      <selection pane="bottomRight" activeCell="BN33" sqref="BN33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -2015,12 +2015,12 @@
       </c>
       <c r="C1" s="85"/>
       <c r="D1" s="86"/>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="89"/>
       <c r="I1" s="78" t="s">
         <v>1</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="O1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="87"/>
+      <c r="P1" s="90"/>
       <c r="Q1" s="83"/>
       <c r="R1" s="81"/>
       <c r="S1" s="81"/>
@@ -2040,24 +2040,24 @@
       <c r="U1" s="81"/>
       <c r="V1" s="81"/>
       <c r="W1" s="81"/>
-      <c r="X1" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="89"/>
+      <c r="X1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="92"/>
       <c r="AN1" s="75" t="s">
         <v>4</v>
       </c>
@@ -27400,7 +27400,7 @@
     <mergeCell ref="X1:AM1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN3:BN126">
       <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
@@ -27421,6 +27421,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC126 AZ3:AZ126 Q75:T79 Q3:T72">
       <formula1>"1,2,3,4,5,/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576">
+      <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5820" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="2000" windowWidth="25600" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="205">
   <si>
     <t>客户信息</t>
   </si>
@@ -571,9 +571,6 @@
     <t>海尔(Haier)65升空气能热水器(一体壁挂式)智能APP远程遥控电热水器KG15/65-AE3-U1</t>
   </si>
   <si>
-    <t>／</t>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -605,22 +602,6 @@
     <rPh sb="5" eb="6">
       <t>shi jian</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>／</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>／</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>／</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>／</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -694,16 +675,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>售后有否小礼品／券赠送</t>
-    <rPh sb="4" eb="5">
-      <t>xiao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>quan</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -741,10 +712,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>／</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>浙江</t>
     <rPh sb="0" eb="1">
       <t>zhe jiang</t>
@@ -763,10 +730,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>／</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>钻石会员</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -781,10 +744,6 @@
     <rPh sb="3" eb="4">
       <t>an z</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>／</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -868,6 +827,23 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>次日</t>
+    <rPh sb="0" eb="1">
+      <t>ci r</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后有否小礼品/券赠送</t>
+    <rPh sb="4" eb="5">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>quan</t>
+    </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1693,6 +1669,12 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1738,6 +1720,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,15 +1731,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2104,10 +2080,10 @@
   <dimension ref="A1:FZ212"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M111" sqref="M111"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -2117,7 +2093,7 @@
     <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="94" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="76" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
     <col min="8" max="9" width="8.1640625" style="4" customWidth="1"/>
     <col min="10" max="13" width="8.1640625" style="1" customWidth="1"/>
@@ -2164,96 +2140,96 @@
   <sheetData>
     <row r="1" spans="1:71" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="65"/>
-      <c r="B1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="80" t="s">
+      <c r="B1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD1" s="81"/>
+      <c r="BE1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="BF1" s="81"/>
-      <c r="BG1" s="81"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="82"/>
-      <c r="BJ1" s="82"/>
-      <c r="BK1" s="82"/>
-      <c r="BL1" s="83"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="81"/>
-      <c r="BO1" s="81"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
       <c r="BP1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="BQ1" s="84" t="s">
+      <c r="BQ1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="BR1" s="82"/>
-      <c r="BS1" s="83"/>
+      <c r="BR1" s="84"/>
+      <c r="BS1" s="85"/>
     </row>
     <row r="2" spans="1:71" s="3" customFormat="1" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -2271,7 +2247,7 @@
       <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="75" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -2293,19 +2269,19 @@
         <v>20</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="N2" s="29" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q2" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R2" s="30" t="s">
         <v>22</v>
@@ -2314,7 +2290,7 @@
         <v>23</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="U2" s="30" t="s">
         <v>24</v>
@@ -2335,7 +2311,7 @@
         <v>29</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AB2" s="33" t="s">
         <v>30</v>
@@ -2347,7 +2323,7 @@
         <v>32</v>
       </c>
       <c r="AE2" s="33" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AF2" s="33" t="s">
         <v>33</v>
@@ -2419,7 +2395,7 @@
         <v>55</v>
       </c>
       <c r="BC2" s="55" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="BD2" s="55" t="s">
         <v>56</v>
@@ -2949,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="17">
         <v>2</v>
@@ -4029,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="17">
         <v>4</v>
@@ -5148,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD15" s="17">
         <v>5</v>
@@ -5307,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="17">
         <v>1</v>
@@ -5324,8 +5300,8 @@
       <c r="O16" s="17">
         <v>2</v>
       </c>
-      <c r="P16" s="32">
-        <v>42721</v>
+      <c r="P16" s="32" t="s">
+        <v>203</v>
       </c>
       <c r="Q16" s="17">
         <v>3</v>
@@ -5364,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD16" s="17">
         <v>1</v>
@@ -5580,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD17" s="17">
         <v>2</v>
@@ -7092,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD24" s="17">
         <v>1</v>
@@ -9213,7 +9189,7 @@
         <v>3</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Q34" s="21">
         <v>3</v>
@@ -9252,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AD34" s="16" t="s">
         <v>112</v>
@@ -9516,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="21" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AT35" s="21">
         <v>3</v>
@@ -9684,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD36" s="35" t="s">
         <v>106</v>
@@ -11196,7 +11172,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD43" s="35" t="s">
         <v>106</v>
@@ -11628,7 +11604,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD45" s="39" t="s">
         <v>102</v>
@@ -12060,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD47" s="39" t="s">
         <v>113</v>
@@ -12240,43 +12216,43 @@
         <v>122</v>
       </c>
       <c r="Q48" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R48" s="21">
+        <v>3</v>
+      </c>
+      <c r="S48" s="21">
+        <v>3</v>
+      </c>
+      <c r="T48" s="21">
+        <v>3</v>
+      </c>
+      <c r="U48" s="21">
+        <v>3</v>
+      </c>
+      <c r="V48" s="21">
+        <v>0</v>
+      </c>
+      <c r="W48" s="21">
+        <v>1</v>
+      </c>
+      <c r="X48" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="40">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="41" t="s">
         <v>169</v>
-      </c>
-      <c r="R48" s="21">
-        <v>3</v>
-      </c>
-      <c r="S48" s="21">
-        <v>3</v>
-      </c>
-      <c r="T48" s="21">
-        <v>3</v>
-      </c>
-      <c r="U48" s="21">
-        <v>3</v>
-      </c>
-      <c r="V48" s="21">
-        <v>0</v>
-      </c>
-      <c r="W48" s="21">
-        <v>1</v>
-      </c>
-      <c r="X48" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="40">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="40">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="41" t="s">
-        <v>174</v>
       </c>
       <c r="AD48" s="41" t="s">
         <v>103</v>
@@ -12672,7 +12648,7 @@
         <v>122</v>
       </c>
       <c r="Q50" s="21" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="R50" s="21" t="s">
         <v>76</v>
@@ -12708,7 +12684,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AD50" s="35" t="s">
         <v>103</v>
@@ -12888,7 +12864,7 @@
         <v>122</v>
       </c>
       <c r="Q51" s="21" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="R51" s="21" t="s">
         <v>76</v>
@@ -12924,7 +12900,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AD51" s="16" t="s">
         <v>103</v>
@@ -13140,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD52" s="42" t="s">
         <v>113</v>
@@ -15948,7 +15924,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD65" s="25">
         <v>3</v>
@@ -16164,7 +16140,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD66" s="25">
         <v>3</v>
@@ -16236,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="BA66" s="24" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="BB66" s="25">
         <v>3</v>
@@ -16344,7 +16320,7 @@
         <v>122</v>
       </c>
       <c r="Q67" s="25" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="R67" s="25" t="s">
         <v>76</v>
@@ -16380,7 +16356,7 @@
         <v>1</v>
       </c>
       <c r="AC67" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AD67" s="25">
         <v>1</v>
@@ -16560,7 +16536,7 @@
         <v>122</v>
       </c>
       <c r="Q68" s="25" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="R68" s="25">
         <v>3</v>
@@ -16773,7 +16749,7 @@
         <v>3</v>
       </c>
       <c r="P69" s="24" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Q69" s="25">
         <v>3</v>
@@ -16812,7 +16788,7 @@
         <v>1</v>
       </c>
       <c r="AC69" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD69" s="25">
         <v>1</v>
@@ -17244,7 +17220,7 @@
         <v>1</v>
       </c>
       <c r="AC71" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD71" s="24" t="s">
         <v>112</v>
@@ -17316,7 +17292,7 @@
         <v>1</v>
       </c>
       <c r="BA71" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BB71" s="25">
         <v>3</v>
@@ -17775,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="BJ73" s="25" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="BK73" s="25">
         <v>3</v>
@@ -19188,10 +19164,10 @@
         <v>1</v>
       </c>
       <c r="AC80" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AD80" s="24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AE80" s="25">
         <v>0</v>
@@ -19215,13 +19191,13 @@
         <v>118</v>
       </c>
       <c r="AL80" s="24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM80" s="24" t="s">
         <v>112</v>
       </c>
       <c r="AN80" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AO80" s="52" t="s">
         <v>137</v>
@@ -19404,7 +19380,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD81" s="24" t="s">
         <v>112</v>
@@ -19620,7 +19596,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD82" s="24" t="s">
         <v>103</v>
@@ -19692,7 +19668,7 @@
         <v>1</v>
       </c>
       <c r="BA82" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="BB82" s="25">
         <v>3</v>
@@ -20380,7 +20356,7 @@
         <v>151</v>
       </c>
       <c r="AD85" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AE85" s="25">
         <v>0</v>
@@ -20404,7 +20380,7 @@
         <v>76</v>
       </c>
       <c r="AL85" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM85" s="24" t="s">
         <v>102</v>
@@ -20732,7 +20708,7 @@
         <v>102</v>
       </c>
       <c r="AM86" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN86" s="24" t="s">
         <v>118</v>
@@ -21027,7 +21003,7 @@
         <v>1</v>
       </c>
       <c r="AC87" s="24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AD87" s="24" t="s">
         <v>103</v>
@@ -21057,7 +21033,7 @@
         <v>103</v>
       </c>
       <c r="AM87" s="24" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AN87" s="24" t="s">
         <v>118</v>
@@ -21677,7 +21653,7 @@
         <v>1</v>
       </c>
       <c r="AC89" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD89" s="24" t="s">
         <v>103</v>
@@ -21749,7 +21725,7 @@
         <v>1</v>
       </c>
       <c r="BA89" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="BB89" s="25">
         <v>3</v>
@@ -21963,7 +21939,7 @@
         <v>3</v>
       </c>
       <c r="P90" s="24" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="Q90" s="25">
         <v>3</v>
@@ -22291,7 +22267,7 @@
         <v>122</v>
       </c>
       <c r="Q91" s="25" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="R91" s="25" t="s">
         <v>76</v>
@@ -23266,7 +23242,7 @@
         <v>122</v>
       </c>
       <c r="Q94" s="25" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="R94" s="25" t="s">
         <v>76</v>
@@ -23302,34 +23278,34 @@
         <v>1</v>
       </c>
       <c r="AC94" s="24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AD94" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE94" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG94" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH94" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ94" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL94" s="24" t="s">
         <v>166</v>
-      </c>
-      <c r="AE94" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF94" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG94" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH94" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI94" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ94" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK94" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL94" s="24" t="s">
-        <v>167</v>
       </c>
       <c r="AM94" s="24" t="s">
         <v>103</v>
@@ -23952,7 +23928,7 @@
         <v>1</v>
       </c>
       <c r="AC96" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD96" s="24" t="s">
         <v>112</v>
@@ -25577,7 +25553,7 @@
         <v>1</v>
       </c>
       <c r="AC101" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AD101" s="24" t="s">
         <v>103</v>
@@ -25821,7 +25797,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="C102" s="24" t="s">
         <v>73</v>
@@ -26036,7 +26012,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>85</v>
@@ -26078,7 +26054,7 @@
         <v>3</v>
       </c>
       <c r="P103" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q103" s="25">
         <v>5</v>
@@ -26153,7 +26129,7 @@
         <v>76</v>
       </c>
       <c r="AO103" s="52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP103" s="25">
         <v>0</v>
@@ -26189,7 +26165,7 @@
         <v>0</v>
       </c>
       <c r="BA103" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BB103" s="25">
         <v>3</v>
@@ -26216,7 +26192,7 @@
         <v>5</v>
       </c>
       <c r="BJ103" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="BK103" s="25">
         <v>5</v>
@@ -26251,7 +26227,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>73</v>
@@ -26293,7 +26269,7 @@
         <v>3</v>
       </c>
       <c r="P104" s="24" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="Q104" s="25">
         <v>3</v>
@@ -26368,7 +26344,7 @@
         <v>76</v>
       </c>
       <c r="AO104" s="52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP104" s="25">
         <v>0</v>
@@ -26404,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="BA104" s="24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="BB104" s="25">
         <v>3</v>
@@ -26431,7 +26407,7 @@
         <v>3</v>
       </c>
       <c r="BJ104" s="25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="BK104" s="25">
         <v>4</v>
@@ -26466,7 +26442,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>85</v>
@@ -26508,7 +26484,7 @@
         <v>4</v>
       </c>
       <c r="P105" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q105" s="25">
         <v>5</v>
@@ -26583,7 +26559,7 @@
         <v>76</v>
       </c>
       <c r="AO105" s="52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP105" s="25">
         <v>0</v>
@@ -26619,7 +26595,7 @@
         <v>0</v>
       </c>
       <c r="BA105" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BB105" s="25">
         <v>3</v>
@@ -26646,7 +26622,7 @@
         <v>5</v>
       </c>
       <c r="BJ105" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BK105" s="25">
         <v>5</v>
@@ -26681,7 +26657,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>85</v>
@@ -26723,7 +26699,7 @@
         <v>5</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q106" s="25">
         <v>5</v>
@@ -26798,13 +26774,13 @@
         <v>76</v>
       </c>
       <c r="AO106" s="52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP106" s="25">
         <v>0</v>
       </c>
       <c r="AQ106" s="73" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AR106" s="25">
         <v>1</v>
@@ -26861,7 +26837,7 @@
         <v>5</v>
       </c>
       <c r="BJ106" s="25" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="BK106" s="25">
         <v>2</v>
@@ -26896,7 +26872,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>90</v>
@@ -26938,7 +26914,7 @@
         <v>3</v>
       </c>
       <c r="P107" s="24" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Q107" s="25">
         <v>3</v>
@@ -27013,7 +26989,7 @@
         <v>76</v>
       </c>
       <c r="AO107" s="52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP107" s="25">
         <v>0</v>
@@ -27076,7 +27052,7 @@
         <v>4</v>
       </c>
       <c r="BJ107" s="25" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="BK107" s="25">
         <v>4</v>
@@ -27111,10 +27087,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D108" s="25">
         <v>2039</v>
@@ -27153,7 +27129,7 @@
         <v>5</v>
       </c>
       <c r="P108" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q108" s="25">
         <v>5</v>
@@ -27228,7 +27204,7 @@
         <v>76</v>
       </c>
       <c r="AO108" s="52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP108" s="25">
         <v>0</v>
@@ -27291,7 +27267,7 @@
         <v>5</v>
       </c>
       <c r="BJ108" s="25" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="BK108" s="25">
         <v>3</v>
@@ -27326,7 +27302,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>73</v>
@@ -27368,7 +27344,7 @@
         <v>5</v>
       </c>
       <c r="P109" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q109" s="25">
         <v>5</v>
@@ -27443,7 +27419,7 @@
         <v>76</v>
       </c>
       <c r="AO109" s="52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP109" s="25">
         <v>0</v>
@@ -27479,7 +27455,7 @@
         <v>0</v>
       </c>
       <c r="BA109" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BB109" s="25">
         <v>3</v>
@@ -27506,7 +27482,7 @@
         <v>5</v>
       </c>
       <c r="BJ109" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BK109" s="25">
         <v>4</v>
@@ -27541,7 +27517,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>85</v>
@@ -27583,7 +27559,7 @@
         <v>3</v>
       </c>
       <c r="P110" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q110" s="25">
         <v>5</v>
@@ -27658,7 +27634,7 @@
         <v>76</v>
       </c>
       <c r="AO110" s="52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP110" s="25">
         <v>0</v>
@@ -27694,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="BA110" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BB110" s="25">
         <v>3</v>
@@ -27721,7 +27697,7 @@
         <v>3</v>
       </c>
       <c r="BJ110" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BK110" s="25">
         <v>4</v>
@@ -27756,7 +27732,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>99</v>
@@ -27798,7 +27774,7 @@
         <v>3</v>
       </c>
       <c r="P111" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q111" s="25">
         <v>5</v>
@@ -27873,7 +27849,7 @@
         <v>76</v>
       </c>
       <c r="AO111" s="52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP111" s="25">
         <v>0</v>
@@ -27909,7 +27885,7 @@
         <v>0</v>
       </c>
       <c r="BA111" s="24" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="BB111" s="25">
         <v>3</v>
@@ -27936,7 +27912,7 @@
         <v>5</v>
       </c>
       <c r="BJ111" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BK111" s="25">
         <v>5</v>
@@ -27971,7 +27947,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>73</v>
@@ -28013,7 +27989,7 @@
         <v>3</v>
       </c>
       <c r="P112" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q112" s="25">
         <v>5</v>
@@ -28088,7 +28064,7 @@
         <v>76</v>
       </c>
       <c r="AO112" s="52" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AP112" s="25">
         <v>0</v>
@@ -28124,7 +28100,7 @@
         <v>0</v>
       </c>
       <c r="BA112" s="24" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="BB112" s="25">
         <v>3</v>
@@ -28151,7 +28127,7 @@
         <v>3</v>
       </c>
       <c r="BJ112" s="25" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="BK112" s="25">
         <v>2</v>
@@ -29204,335 +29180,335 @@
       <c r="BS126" s="61"/>
     </row>
     <row r="127" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F127" s="94"/>
+      <c r="F127" s="76"/>
       <c r="AQ127" s="74"/>
     </row>
     <row r="128" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F128" s="94"/>
+      <c r="F128" s="76"/>
       <c r="AQ128" s="74"/>
     </row>
     <row r="129" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F129" s="94"/>
+      <c r="F129" s="76"/>
       <c r="AQ129" s="74"/>
     </row>
     <row r="130" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F130" s="94"/>
+      <c r="F130" s="76"/>
       <c r="AQ130" s="74"/>
     </row>
     <row r="131" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F131" s="94"/>
+      <c r="F131" s="76"/>
       <c r="AQ131" s="74"/>
     </row>
     <row r="132" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F132" s="94"/>
+      <c r="F132" s="76"/>
       <c r="AQ132" s="74"/>
     </row>
     <row r="133" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F133" s="94"/>
+      <c r="F133" s="76"/>
       <c r="AQ133" s="74"/>
     </row>
     <row r="134" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F134" s="94"/>
+      <c r="F134" s="76"/>
       <c r="AQ134" s="74"/>
     </row>
     <row r="135" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F135" s="94"/>
+      <c r="F135" s="76"/>
       <c r="AQ135" s="74"/>
     </row>
     <row r="136" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F136" s="94"/>
+      <c r="F136" s="76"/>
       <c r="AQ136" s="74"/>
     </row>
     <row r="137" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F137" s="94"/>
+      <c r="F137" s="76"/>
       <c r="AQ137" s="74"/>
     </row>
     <row r="138" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F138" s="94"/>
+      <c r="F138" s="76"/>
       <c r="AQ138" s="74"/>
     </row>
     <row r="139" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F139" s="94"/>
+      <c r="F139" s="76"/>
       <c r="AQ139" s="74"/>
     </row>
     <row r="140" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F140" s="94"/>
+      <c r="F140" s="76"/>
       <c r="AQ140" s="74"/>
     </row>
     <row r="141" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F141" s="94"/>
+      <c r="F141" s="76"/>
       <c r="AQ141" s="74"/>
     </row>
     <row r="142" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F142" s="94"/>
+      <c r="F142" s="76"/>
       <c r="AQ142" s="74"/>
     </row>
     <row r="143" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F143" s="94"/>
+      <c r="F143" s="76"/>
       <c r="AQ143" s="74"/>
     </row>
     <row r="144" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F144" s="94"/>
+      <c r="F144" s="76"/>
       <c r="AQ144" s="74"/>
     </row>
     <row r="145" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F145" s="94"/>
+      <c r="F145" s="76"/>
       <c r="AQ145" s="74"/>
     </row>
     <row r="146" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F146" s="94"/>
+      <c r="F146" s="76"/>
       <c r="AQ146" s="74"/>
     </row>
     <row r="147" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F147" s="94"/>
+      <c r="F147" s="76"/>
       <c r="AQ147" s="74"/>
     </row>
     <row r="148" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F148" s="94"/>
+      <c r="F148" s="76"/>
       <c r="AQ148" s="74"/>
     </row>
     <row r="149" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F149" s="94"/>
+      <c r="F149" s="76"/>
       <c r="AQ149" s="74"/>
     </row>
     <row r="150" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F150" s="94"/>
+      <c r="F150" s="76"/>
       <c r="AQ150" s="74"/>
     </row>
     <row r="151" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F151" s="94"/>
+      <c r="F151" s="76"/>
       <c r="AQ151" s="74"/>
     </row>
     <row r="152" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F152" s="94"/>
+      <c r="F152" s="76"/>
       <c r="AQ152" s="74"/>
     </row>
     <row r="153" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F153" s="94"/>
+      <c r="F153" s="76"/>
       <c r="AQ153" s="74"/>
     </row>
     <row r="154" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F154" s="94"/>
+      <c r="F154" s="76"/>
       <c r="AQ154" s="74"/>
     </row>
     <row r="155" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F155" s="94"/>
+      <c r="F155" s="76"/>
       <c r="AQ155" s="74"/>
     </row>
     <row r="156" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F156" s="94"/>
+      <c r="F156" s="76"/>
       <c r="AQ156" s="74"/>
     </row>
     <row r="157" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F157" s="94"/>
+      <c r="F157" s="76"/>
       <c r="AQ157" s="74"/>
     </row>
     <row r="158" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F158" s="94"/>
+      <c r="F158" s="76"/>
       <c r="AQ158" s="74"/>
     </row>
     <row r="159" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F159" s="94"/>
+      <c r="F159" s="76"/>
       <c r="AQ159" s="74"/>
     </row>
     <row r="160" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F160" s="94"/>
+      <c r="F160" s="76"/>
       <c r="AQ160" s="74"/>
     </row>
     <row r="161" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F161" s="94"/>
+      <c r="F161" s="76"/>
       <c r="AQ161" s="74"/>
     </row>
     <row r="162" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F162" s="94"/>
+      <c r="F162" s="76"/>
       <c r="AQ162" s="74"/>
     </row>
     <row r="163" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F163" s="94"/>
+      <c r="F163" s="76"/>
       <c r="AQ163" s="74"/>
     </row>
     <row r="164" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F164" s="94"/>
+      <c r="F164" s="76"/>
       <c r="AQ164" s="74"/>
     </row>
     <row r="165" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F165" s="94"/>
+      <c r="F165" s="76"/>
       <c r="AQ165" s="74"/>
     </row>
     <row r="166" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F166" s="94"/>
+      <c r="F166" s="76"/>
       <c r="AQ166" s="74"/>
     </row>
     <row r="167" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F167" s="94"/>
+      <c r="F167" s="76"/>
       <c r="AQ167" s="74"/>
     </row>
     <row r="168" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F168" s="94"/>
+      <c r="F168" s="76"/>
       <c r="AQ168" s="74"/>
     </row>
     <row r="169" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F169" s="94"/>
+      <c r="F169" s="76"/>
       <c r="AQ169" s="74"/>
     </row>
     <row r="170" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F170" s="94"/>
+      <c r="F170" s="76"/>
       <c r="AQ170" s="74"/>
     </row>
     <row r="171" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F171" s="94"/>
+      <c r="F171" s="76"/>
       <c r="AQ171" s="74"/>
     </row>
     <row r="172" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F172" s="94"/>
+      <c r="F172" s="76"/>
       <c r="AQ172" s="74"/>
     </row>
     <row r="173" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F173" s="94"/>
+      <c r="F173" s="76"/>
       <c r="AQ173" s="74"/>
     </row>
     <row r="174" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F174" s="94"/>
+      <c r="F174" s="76"/>
       <c r="AQ174" s="74"/>
     </row>
     <row r="175" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F175" s="94"/>
+      <c r="F175" s="76"/>
       <c r="AQ175" s="74"/>
     </row>
     <row r="176" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F176" s="94"/>
+      <c r="F176" s="76"/>
       <c r="AQ176" s="74"/>
     </row>
     <row r="177" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F177" s="94"/>
+      <c r="F177" s="76"/>
       <c r="AQ177" s="74"/>
     </row>
     <row r="178" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F178" s="94"/>
+      <c r="F178" s="76"/>
       <c r="AQ178" s="74"/>
     </row>
     <row r="179" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F179" s="94"/>
+      <c r="F179" s="76"/>
       <c r="AQ179" s="74"/>
     </row>
     <row r="180" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F180" s="94"/>
+      <c r="F180" s="76"/>
       <c r="AQ180" s="74"/>
     </row>
     <row r="181" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F181" s="94"/>
+      <c r="F181" s="76"/>
       <c r="AQ181" s="74"/>
     </row>
     <row r="182" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F182" s="94"/>
+      <c r="F182" s="76"/>
       <c r="AQ182" s="74"/>
     </row>
     <row r="183" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F183" s="94"/>
+      <c r="F183" s="76"/>
       <c r="AQ183" s="74"/>
     </row>
     <row r="184" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F184" s="94"/>
+      <c r="F184" s="76"/>
       <c r="AQ184" s="74"/>
     </row>
     <row r="185" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F185" s="94"/>
+      <c r="F185" s="76"/>
       <c r="AQ185" s="74"/>
     </row>
     <row r="186" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F186" s="94"/>
+      <c r="F186" s="76"/>
       <c r="AQ186" s="74"/>
     </row>
     <row r="187" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F187" s="94"/>
+      <c r="F187" s="76"/>
       <c r="AQ187" s="74"/>
     </row>
     <row r="188" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F188" s="94"/>
+      <c r="F188" s="76"/>
       <c r="AQ188" s="74"/>
     </row>
     <row r="189" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F189" s="94"/>
+      <c r="F189" s="76"/>
       <c r="AQ189" s="74"/>
     </row>
     <row r="190" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F190" s="94"/>
+      <c r="F190" s="76"/>
       <c r="AQ190" s="74"/>
     </row>
     <row r="191" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F191" s="94"/>
+      <c r="F191" s="76"/>
       <c r="AQ191" s="74"/>
     </row>
     <row r="192" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F192" s="94"/>
+      <c r="F192" s="76"/>
       <c r="AQ192" s="74"/>
     </row>
     <row r="193" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F193" s="94"/>
+      <c r="F193" s="76"/>
       <c r="AQ193" s="74"/>
     </row>
     <row r="194" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F194" s="94"/>
+      <c r="F194" s="76"/>
       <c r="AQ194" s="74"/>
     </row>
     <row r="195" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F195" s="94"/>
+      <c r="F195" s="76"/>
       <c r="AQ195" s="74"/>
     </row>
     <row r="196" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F196" s="94"/>
+      <c r="F196" s="76"/>
       <c r="AQ196" s="74"/>
     </row>
     <row r="197" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F197" s="94"/>
+      <c r="F197" s="76"/>
       <c r="AQ197" s="74"/>
     </row>
     <row r="198" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F198" s="94"/>
+      <c r="F198" s="76"/>
       <c r="AQ198" s="74"/>
     </row>
     <row r="199" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F199" s="94"/>
+      <c r="F199" s="76"/>
       <c r="AQ199" s="74"/>
     </row>
     <row r="200" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F200" s="94"/>
+      <c r="F200" s="76"/>
       <c r="AQ200" s="74"/>
     </row>
     <row r="201" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F201" s="94"/>
+      <c r="F201" s="76"/>
       <c r="AQ201" s="74"/>
     </row>
     <row r="202" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F202" s="94"/>
+      <c r="F202" s="76"/>
       <c r="AQ202" s="74"/>
     </row>
     <row r="203" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F203" s="94"/>
+      <c r="F203" s="76"/>
       <c r="AQ203" s="74"/>
     </row>
     <row r="204" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F204" s="94"/>
+      <c r="F204" s="76"/>
       <c r="AQ204" s="74"/>
     </row>
     <row r="205" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F205" s="94"/>
+      <c r="F205" s="76"/>
       <c r="AQ205" s="74"/>
     </row>
     <row r="206" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F206" s="94"/>
+      <c r="F206" s="76"/>
       <c r="AQ206" s="74"/>
     </row>
     <row r="207" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F207" s="94"/>
+      <c r="F207" s="76"/>
       <c r="AQ207" s="74"/>
     </row>
     <row r="208" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F208" s="94"/>
+      <c r="F208" s="76"/>
       <c r="AQ208" s="74"/>
     </row>
     <row r="209" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F209" s="94"/>
+      <c r="F209" s="76"/>
       <c r="AQ209" s="74"/>
     </row>
     <row r="210" spans="6:43" x14ac:dyDescent="0.15"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaiqi/Desktop/海尔数据收集/user_data_for_haier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\user_data_for_haier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2000" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="1995" windowWidth="25605" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="238">
   <si>
     <t>客户信息</t>
   </si>
@@ -846,11 +846,140 @@
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔（Haier）EG8012HB86S 8公斤洗烘一体变频滚筒洗衣机  免熨烫烘干 3年质保</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLUS会员[试用]</t>
+  </si>
+  <si>
+    <t>未安装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送员安装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己安装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
@@ -2079,66 +2208,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FZ212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AT102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="BS122" sqref="BS122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="76" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="8.1640625" style="4" customWidth="1"/>
-    <col min="10" max="13" width="8.1640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="76" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="8.125" style="4" customWidth="1"/>
+    <col min="10" max="13" width="8.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="6.125" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="1" customWidth="1"/>
     <col min="20" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="25" width="7.1640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="7.1640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5.1640625" style="1" customWidth="1"/>
+    <col min="22" max="25" width="7.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.125" style="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="1" customWidth="1"/>
-    <col min="30" max="37" width="5.1640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="7.1640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="5.1640625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="7.1640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="49.1640625" style="1" customWidth="1"/>
+    <col min="30" max="37" width="5.125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="7.125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="5.125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="7.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="49.125" style="1" customWidth="1"/>
     <col min="42" max="42" width="9" style="1" customWidth="1"/>
-    <col min="43" max="43" width="5.1640625" style="74" customWidth="1"/>
+    <col min="43" max="43" width="5.125" style="74" customWidth="1"/>
     <col min="44" max="44" width="9" style="1" customWidth="1"/>
-    <col min="45" max="45" width="7.6640625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="7.1640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="6.83203125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="7.1640625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="7.625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="7.125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="6.875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="7.125" style="1" customWidth="1"/>
     <col min="49" max="49" width="8" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.83203125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.875" style="1" customWidth="1"/>
     <col min="51" max="51" width="6.5" style="1" customWidth="1"/>
     <col min="52" max="52" width="7.5" style="1" customWidth="1"/>
     <col min="53" max="53" width="8" style="1" customWidth="1"/>
     <col min="54" max="54" width="7.5" style="1" customWidth="1"/>
-    <col min="55" max="63" width="6.1640625" style="1" customWidth="1"/>
-    <col min="64" max="65" width="8.1640625" style="1" customWidth="1"/>
-    <col min="66" max="67" width="6.1640625" style="1" customWidth="1"/>
-    <col min="68" max="68" width="8.83203125" style="1" customWidth="1"/>
+    <col min="55" max="63" width="6.125" style="1" customWidth="1"/>
+    <col min="64" max="65" width="8.125" style="1" customWidth="1"/>
+    <col min="66" max="67" width="6.125" style="1" customWidth="1"/>
+    <col min="68" max="68" width="8.875" style="1" customWidth="1"/>
     <col min="69" max="69" width="8.5" style="1" customWidth="1"/>
     <col min="70" max="70" width="6.5" style="1" customWidth="1"/>
-    <col min="71" max="71" width="6.1640625" style="1" customWidth="1"/>
-    <col min="72" max="180" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="181" max="182" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="183" max="16384" width="8.83203125" hidden="1"/>
+    <col min="71" max="71" width="6.125" style="1" customWidth="1"/>
+    <col min="72" max="180" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="181" max="182" width="8.625" hidden="1" customWidth="1"/>
+    <col min="183" max="16384" width="8.875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="65"/>
       <c r="B1" s="86" t="s">
         <v>0</v>
@@ -2231,7 +2360,7 @@
       <c r="BR1" s="84"/>
       <c r="BS1" s="85"/>
     </row>
-    <row r="2" spans="1:71" s="3" customFormat="1" ht="71" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" s="3" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -3957,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4173,7 +4302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4389,7 +4518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4605,7 +4734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4821,7 +4950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5037,7 +5166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5253,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <f t="shared" ref="A16:A21" si="1">A15+1</f>
         <v>14</v>
@@ -5469,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5685,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -5901,7 +6030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6117,7 +6246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6333,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6549,7 +6678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <f t="shared" ref="A22:A61" si="2">A21+1</f>
         <v>20</v>
@@ -6765,7 +6894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -6981,7 +7110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -7197,7 +7326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -7413,7 +7542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -7629,7 +7758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -7845,7 +7974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -8061,7 +8190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -8277,7 +8406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -8493,7 +8622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -8709,7 +8838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -8925,7 +9054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -9141,7 +9270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -9357,7 +9486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -9573,7 +9702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -9789,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -10005,7 +10134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -10221,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -10437,7 +10566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -10653,7 +10782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -10869,7 +10998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -11085,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -11301,7 +11430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -11517,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -11733,7 +11862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -11949,7 +12078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -12165,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -12381,7 +12510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -12597,7 +12726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -12813,7 +12942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -13029,7 +13158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -13245,7 +13374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -13461,7 +13590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="14">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -13677,7 +13806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -13893,7 +14022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="14">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -14109,7 +14238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -14325,7 +14454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="14">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -14541,7 +14670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -14757,7 +14886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="14">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -14973,7 +15102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="14">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -15189,7 +15318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="14">
         <f t="shared" ref="A62:A67" si="3">A61+1</f>
         <v>60</v>
@@ -15405,7 +15534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="14">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -15621,7 +15750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="14">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -15837,7 +15966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="14">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -16053,7 +16182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="14">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -16269,7 +16398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="14">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -16485,7 +16614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="14">
         <f t="shared" ref="A68:A73" si="4">A67+1</f>
         <v>66</v>
@@ -16701,7 +16830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="14">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -16917,7 +17046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="14">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -17133,7 +17262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="14">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -17349,7 +17478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="14">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -17565,7 +17694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="14">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -17781,7 +17910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="14">
         <f t="shared" ref="A74:A83" si="5">A73+1</f>
         <v>72</v>
@@ -17997,7 +18126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="14">
         <f t="shared" si="5"/>
         <v>73</v>
@@ -18213,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="14">
         <f t="shared" si="5"/>
         <v>74</v>
@@ -18429,7 +18558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="14">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -18645,7 +18774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="14">
         <f t="shared" si="5"/>
         <v>76</v>
@@ -18861,7 +18990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="14">
         <f t="shared" si="5"/>
         <v>77</v>
@@ -19077,7 +19206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="14">
         <f t="shared" si="5"/>
         <v>78</v>
@@ -19293,7 +19422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="14">
         <f t="shared" si="5"/>
         <v>79</v>
@@ -19509,7 +19638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="14">
         <f t="shared" si="5"/>
         <v>80</v>
@@ -19725,7 +19854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="14">
         <f t="shared" si="5"/>
         <v>81</v>
@@ -19941,7 +20070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="14">
         <f t="shared" ref="A84:A95" si="6">A83+1</f>
         <v>82</v>
@@ -20266,7 +20395,7 @@
       <c r="FW84"/>
       <c r="FX84"/>
     </row>
-    <row r="85" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="14">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -20591,7 +20720,7 @@
       <c r="FW85"/>
       <c r="FX85"/>
     </row>
-    <row r="86" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="14">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -20916,7 +21045,7 @@
       <c r="FW86"/>
       <c r="FX86"/>
     </row>
-    <row r="87" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="14">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -21241,7 +21370,7 @@
       <c r="FW87"/>
       <c r="FX87"/>
     </row>
-    <row r="88" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="14">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -21566,7 +21695,7 @@
       <c r="FW88"/>
       <c r="FX88"/>
     </row>
-    <row r="89" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="14">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -21891,7 +22020,7 @@
       <c r="FW89"/>
       <c r="FX89"/>
     </row>
-    <row r="90" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="14">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -22216,7 +22345,7 @@
       <c r="FW90"/>
       <c r="FX90"/>
     </row>
-    <row r="91" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="14">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -22541,7 +22670,7 @@
       <c r="FW91"/>
       <c r="FX91"/>
     </row>
-    <row r="92" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="14">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -22866,7 +22995,7 @@
       <c r="FW92"/>
       <c r="FX92"/>
     </row>
-    <row r="93" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="14">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -23191,7 +23320,7 @@
       <c r="FW93"/>
       <c r="FX93"/>
     </row>
-    <row r="94" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="14">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -23516,7 +23645,7 @@
       <c r="FW94"/>
       <c r="FX94"/>
     </row>
-    <row r="95" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="14">
         <f t="shared" si="6"/>
         <v>93</v>
@@ -23841,9 +23970,9 @@
       <c r="FW95"/>
       <c r="FX95"/>
     </row>
-    <row r="96" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="14">
-        <f t="shared" ref="A96:A102" si="7">A95+1</f>
+        <f t="shared" ref="A96:A139" si="7">A95+1</f>
         <v>94</v>
       </c>
       <c r="B96" s="23" t="s">
@@ -24166,7 +24295,7 @@
       <c r="FW96"/>
       <c r="FX96"/>
     </row>
-    <row r="97" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="14">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -24491,7 +24620,7 @@
       <c r="FW97"/>
       <c r="FX97"/>
     </row>
-    <row r="98" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="14">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -24816,7 +24945,7 @@
       <c r="FW98"/>
       <c r="FX98"/>
     </row>
-    <row r="99" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="14">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -25141,7 +25270,7 @@
       <c r="FW99"/>
       <c r="FX99"/>
     </row>
-    <row r="100" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="14">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -25466,7 +25595,7 @@
       <c r="FW100"/>
       <c r="FX100"/>
     </row>
-    <row r="101" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="14">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -25791,7 +25920,7 @@
       <c r="FW101"/>
       <c r="FX101"/>
     </row>
-    <row r="102" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="14">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -26007,8 +26136,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:180" ht="28" x14ac:dyDescent="0.15">
-      <c r="A103" s="63">
+    <row r="103" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+      <c r="A103" s="14">
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="B103" s="23" t="s">
@@ -26222,8 +26352,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:180" ht="28" x14ac:dyDescent="0.15">
-      <c r="A104" s="63">
+    <row r="104" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+      <c r="A104" s="14">
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="B104" s="23" t="s">
@@ -26437,8 +26568,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:180" ht="28" x14ac:dyDescent="0.15">
-      <c r="A105" s="63">
+    <row r="105" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+      <c r="A105" s="14">
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="B105" s="23" t="s">
@@ -26652,8 +26784,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:180" ht="28" x14ac:dyDescent="0.15">
-      <c r="A106" s="63">
+    <row r="106" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+      <c r="A106" s="14">
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="B106" s="23" t="s">
@@ -26867,8 +27000,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:180" ht="28" x14ac:dyDescent="0.15">
-      <c r="A107" s="63">
+    <row r="107" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+      <c r="A107" s="14">
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="B107" s="23" t="s">
@@ -27082,8 +27216,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:180" ht="28" x14ac:dyDescent="0.15">
-      <c r="A108" s="63">
+    <row r="108" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+      <c r="A108" s="14">
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="B108" s="23" t="s">
@@ -27297,8 +27432,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:180" ht="28" x14ac:dyDescent="0.15">
-      <c r="A109" s="63">
+    <row r="109" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+      <c r="A109" s="14">
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="B109" s="23" t="s">
@@ -27512,8 +27648,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:180" ht="28" x14ac:dyDescent="0.15">
-      <c r="A110" s="63">
+    <row r="110" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+      <c r="A110" s="14">
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="B110" s="23" t="s">
@@ -27727,8 +27864,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:180" ht="28" x14ac:dyDescent="0.15">
-      <c r="A111" s="63">
+    <row r="111" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+      <c r="A111" s="14">
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
       <c r="B111" s="23" t="s">
@@ -27942,8 +28080,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:180" ht="28" x14ac:dyDescent="0.15">
-      <c r="A112" s="63">
+    <row r="112" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+      <c r="A112" s="14">
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="B112" s="23" t="s">
@@ -28157,743 +28296,2186 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A113" s="63"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="25"/>
-      <c r="N113" s="25"/>
-      <c r="O113" s="25"/>
-      <c r="P113" s="24"/>
-      <c r="Q113" s="25"/>
-      <c r="R113" s="25"/>
-      <c r="S113" s="25"/>
-      <c r="T113" s="25"/>
-      <c r="U113" s="25"/>
-      <c r="V113" s="25"/>
-      <c r="W113" s="25"/>
-      <c r="X113" s="25"/>
-      <c r="Y113" s="25"/>
-      <c r="Z113" s="25"/>
-      <c r="AA113" s="25"/>
-      <c r="AB113" s="25"/>
-      <c r="AC113" s="24"/>
-      <c r="AD113" s="24"/>
-      <c r="AE113" s="25"/>
-      <c r="AF113" s="24"/>
-      <c r="AG113" s="24"/>
-      <c r="AH113" s="25"/>
-      <c r="AI113" s="24"/>
-      <c r="AJ113" s="25"/>
-      <c r="AK113" s="24"/>
-      <c r="AL113" s="24"/>
-      <c r="AM113" s="24"/>
-      <c r="AN113" s="24"/>
-      <c r="AO113" s="52"/>
-      <c r="AP113" s="25"/>
-      <c r="AQ113" s="73"/>
-      <c r="AR113" s="25"/>
-      <c r="AS113" s="25"/>
-      <c r="AT113" s="25"/>
-      <c r="AU113" s="25"/>
-      <c r="AV113" s="25"/>
-      <c r="AW113" s="25"/>
-      <c r="AX113" s="25"/>
-      <c r="AY113" s="25"/>
-      <c r="AZ113" s="25"/>
-      <c r="BA113" s="24"/>
-      <c r="BB113" s="25"/>
-      <c r="BC113" s="25"/>
-      <c r="BD113" s="25"/>
-      <c r="BE113" s="25"/>
-      <c r="BF113" s="25"/>
-      <c r="BG113" s="25"/>
-      <c r="BH113" s="25"/>
-      <c r="BI113" s="25"/>
-      <c r="BJ113" s="25"/>
-      <c r="BK113" s="25"/>
-      <c r="BL113" s="25"/>
-      <c r="BM113" s="25"/>
-      <c r="BN113" s="25"/>
-      <c r="BO113" s="24"/>
-      <c r="BP113" s="25"/>
-      <c r="BQ113" s="62"/>
-      <c r="BR113" s="21"/>
-      <c r="BS113" s="61"/>
+    <row r="113" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A113" s="14">
+        <f t="shared" si="7"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F113" s="26">
+        <v>42709.497916666704</v>
+      </c>
+      <c r="G113" s="25">
+        <v>3</v>
+      </c>
+      <c r="H113" s="25">
+        <v>3</v>
+      </c>
+      <c r="I113" s="25">
+        <v>3</v>
+      </c>
+      <c r="J113" s="25">
+        <v>1</v>
+      </c>
+      <c r="K113" s="25">
+        <v>1</v>
+      </c>
+      <c r="L113" s="25">
+        <v>1</v>
+      </c>
+      <c r="M113" s="25">
+        <v>0</v>
+      </c>
+      <c r="N113" s="25">
+        <v>1</v>
+      </c>
+      <c r="O113" s="25">
+        <v>3</v>
+      </c>
+      <c r="P113" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q113" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="R113" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="S113" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="T113" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="U113" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="V113" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="W113" s="25">
+        <v>1</v>
+      </c>
+      <c r="X113" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z113" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC113" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD113" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE113" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF113" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG113" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH113" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI113" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ113" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK113" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL113" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM113" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN113" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO113" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP113" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ113" s="73">
+        <v>300</v>
+      </c>
+      <c r="AR113" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS113" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT113" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU113" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV113" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW113" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX113" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY113" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ113" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA113" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB113" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC113" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD113" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE113" s="25">
+        <v>2</v>
+      </c>
+      <c r="BF113" s="25">
+        <v>1</v>
+      </c>
+      <c r="BG113" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH113" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI113" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ113" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK113" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL113" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM113" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN113" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO113" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP113" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ113" s="62">
+        <v>2</v>
+      </c>
+      <c r="BR113" s="21">
+        <v>3</v>
+      </c>
+      <c r="BS113" s="61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="114" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A114" s="63"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="25"/>
-      <c r="N114" s="25"/>
-      <c r="O114" s="25"/>
-      <c r="P114" s="24"/>
-      <c r="Q114" s="25"/>
-      <c r="R114" s="25"/>
-      <c r="S114" s="25"/>
-      <c r="T114" s="25"/>
-      <c r="U114" s="25"/>
-      <c r="V114" s="25"/>
-      <c r="W114" s="25"/>
-      <c r="X114" s="25"/>
-      <c r="Y114" s="25"/>
-      <c r="Z114" s="25"/>
-      <c r="AA114" s="25"/>
-      <c r="AB114" s="25"/>
-      <c r="AC114" s="24"/>
-      <c r="AD114" s="24"/>
-      <c r="AE114" s="25"/>
-      <c r="AF114" s="24"/>
-      <c r="AG114" s="24"/>
-      <c r="AH114" s="25"/>
-      <c r="AI114" s="24"/>
-      <c r="AJ114" s="25"/>
-      <c r="AK114" s="24"/>
-      <c r="AL114" s="24"/>
-      <c r="AM114" s="24"/>
-      <c r="AN114" s="24"/>
-      <c r="AO114" s="52"/>
-      <c r="AP114" s="25"/>
-      <c r="AQ114" s="73"/>
-      <c r="AR114" s="25"/>
-      <c r="AS114" s="25"/>
-      <c r="AT114" s="25"/>
-      <c r="AU114" s="25"/>
-      <c r="AV114" s="25"/>
-      <c r="AW114" s="25"/>
-      <c r="AX114" s="25"/>
-      <c r="AY114" s="25"/>
-      <c r="AZ114" s="25"/>
-      <c r="BA114" s="24"/>
-      <c r="BB114" s="25"/>
-      <c r="BC114" s="25"/>
-      <c r="BD114" s="25"/>
-      <c r="BE114" s="25"/>
-      <c r="BF114" s="25"/>
-      <c r="BG114" s="25"/>
-      <c r="BH114" s="25"/>
-      <c r="BI114" s="25"/>
-      <c r="BJ114" s="25"/>
-      <c r="BK114" s="25"/>
-      <c r="BL114" s="25"/>
-      <c r="BM114" s="25"/>
-      <c r="BN114" s="25"/>
-      <c r="BO114" s="24"/>
-      <c r="BP114" s="25"/>
-      <c r="BQ114" s="62"/>
-      <c r="BR114" s="21"/>
-      <c r="BS114" s="61"/>
+    <row r="114" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A114" s="14">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="26">
+        <v>42716.360416666699</v>
+      </c>
+      <c r="G114" s="25">
+        <v>3</v>
+      </c>
+      <c r="H114" s="25">
+        <v>3</v>
+      </c>
+      <c r="I114" s="25">
+        <v>1</v>
+      </c>
+      <c r="J114" s="25">
+        <v>0</v>
+      </c>
+      <c r="K114" s="25">
+        <v>1</v>
+      </c>
+      <c r="L114" s="25">
+        <v>1</v>
+      </c>
+      <c r="M114" s="25">
+        <v>0</v>
+      </c>
+      <c r="N114" s="25">
+        <v>1</v>
+      </c>
+      <c r="O114" s="25">
+        <v>3</v>
+      </c>
+      <c r="P114" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q114" s="25">
+        <v>3</v>
+      </c>
+      <c r="R114" s="25">
+        <v>3</v>
+      </c>
+      <c r="S114" s="25">
+        <v>3</v>
+      </c>
+      <c r="T114" s="25">
+        <v>3</v>
+      </c>
+      <c r="U114" s="25">
+        <v>3</v>
+      </c>
+      <c r="V114" s="25">
+        <v>0</v>
+      </c>
+      <c r="W114" s="25">
+        <v>1</v>
+      </c>
+      <c r="X114" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC114" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD114" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE114" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG114" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH114" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI114" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ114" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK114" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL114" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM114" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN114" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO114" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP114" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ114" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR114" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS114" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT114" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU114" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV114" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW114" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX114" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY114" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ114" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA114" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="BB114" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC114" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD114" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE114" s="25">
+        <v>2</v>
+      </c>
+      <c r="BF114" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG114" s="25">
+        <v>1</v>
+      </c>
+      <c r="BH114" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI114" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ114" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK114" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL114" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM114" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN114" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO114" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP114" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ114" s="62">
+        <v>2</v>
+      </c>
+      <c r="BR114" s="21">
+        <v>2</v>
+      </c>
+      <c r="BS114" s="61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="115" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A115" s="63"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="25"/>
-      <c r="N115" s="25"/>
-      <c r="O115" s="25"/>
-      <c r="P115" s="24"/>
-      <c r="Q115" s="25"/>
-      <c r="R115" s="25"/>
-      <c r="S115" s="25"/>
-      <c r="T115" s="25"/>
-      <c r="U115" s="25"/>
-      <c r="V115" s="25"/>
-      <c r="W115" s="25"/>
-      <c r="X115" s="25"/>
-      <c r="Y115" s="25"/>
-      <c r="Z115" s="25"/>
-      <c r="AA115" s="25"/>
-      <c r="AB115" s="25"/>
-      <c r="AC115" s="24"/>
-      <c r="AD115" s="24"/>
-      <c r="AE115" s="25"/>
-      <c r="AF115" s="24"/>
-      <c r="AG115" s="24"/>
-      <c r="AH115" s="25"/>
-      <c r="AI115" s="24"/>
-      <c r="AJ115" s="25"/>
-      <c r="AK115" s="24"/>
-      <c r="AL115" s="24"/>
-      <c r="AM115" s="24"/>
-      <c r="AN115" s="24"/>
-      <c r="AO115" s="52"/>
-      <c r="AP115" s="25"/>
-      <c r="AQ115" s="73"/>
-      <c r="AR115" s="25"/>
-      <c r="AS115" s="25"/>
-      <c r="AT115" s="25"/>
-      <c r="AU115" s="25"/>
-      <c r="AV115" s="25"/>
-      <c r="AW115" s="25"/>
-      <c r="AX115" s="25"/>
-      <c r="AY115" s="25"/>
-      <c r="AZ115" s="25"/>
-      <c r="BA115" s="24"/>
-      <c r="BB115" s="25"/>
-      <c r="BC115" s="25"/>
-      <c r="BD115" s="25"/>
-      <c r="BE115" s="25"/>
-      <c r="BF115" s="25"/>
-      <c r="BG115" s="25"/>
-      <c r="BH115" s="25"/>
-      <c r="BI115" s="25"/>
-      <c r="BJ115" s="25"/>
-      <c r="BK115" s="25"/>
-      <c r="BL115" s="25"/>
-      <c r="BM115" s="25"/>
-      <c r="BN115" s="25"/>
-      <c r="BO115" s="24"/>
-      <c r="BP115" s="25"/>
-      <c r="BQ115" s="62"/>
-      <c r="BR115" s="21"/>
-      <c r="BS115" s="61"/>
+    <row r="115" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A115" s="14">
+        <f t="shared" si="7"/>
+        <v>113</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F115" s="26">
+        <v>42694.503472222197</v>
+      </c>
+      <c r="G115" s="25">
+        <v>4</v>
+      </c>
+      <c r="H115" s="25">
+        <v>3</v>
+      </c>
+      <c r="I115" s="25">
+        <v>3</v>
+      </c>
+      <c r="J115" s="25">
+        <v>1</v>
+      </c>
+      <c r="K115" s="25">
+        <v>1</v>
+      </c>
+      <c r="L115" s="25">
+        <v>1</v>
+      </c>
+      <c r="M115" s="25">
+        <v>0</v>
+      </c>
+      <c r="N115" s="25">
+        <v>1</v>
+      </c>
+      <c r="O115" s="25">
+        <v>3</v>
+      </c>
+      <c r="P115" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q115" s="25">
+        <v>3</v>
+      </c>
+      <c r="R115" s="25">
+        <v>3</v>
+      </c>
+      <c r="S115" s="25">
+        <v>3</v>
+      </c>
+      <c r="T115" s="25">
+        <v>3</v>
+      </c>
+      <c r="U115" s="25">
+        <v>3</v>
+      </c>
+      <c r="V115" s="25">
+        <v>0</v>
+      </c>
+      <c r="W115" s="25">
+        <v>1</v>
+      </c>
+      <c r="X115" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD115" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE115" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG115" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH115" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI115" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ115" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK115" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL115" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM115" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN115" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO115" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP115" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ115" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR115" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS115" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT115" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU115" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV115" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW115" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX115" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY115" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ115" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA115" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB115" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC115" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD115" s="25">
+        <v>1</v>
+      </c>
+      <c r="BE115" s="25">
+        <v>1</v>
+      </c>
+      <c r="BF115" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG115" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH115" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI115" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ115" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK115" s="25">
+        <v>1</v>
+      </c>
+      <c r="BL115" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM115" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN115" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO115" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP115" s="25">
+        <v>5</v>
+      </c>
+      <c r="BQ115" s="62">
+        <v>1</v>
+      </c>
+      <c r="BR115" s="21">
+        <v>2</v>
+      </c>
+      <c r="BS115" s="61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="116" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A116" s="63"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="25"/>
-      <c r="N116" s="25"/>
-      <c r="O116" s="25"/>
-      <c r="P116" s="24"/>
-      <c r="Q116" s="25"/>
-      <c r="R116" s="25"/>
-      <c r="S116" s="25"/>
-      <c r="T116" s="25"/>
-      <c r="U116" s="25"/>
-      <c r="V116" s="25"/>
-      <c r="W116" s="25"/>
-      <c r="X116" s="25"/>
-      <c r="Y116" s="25"/>
-      <c r="Z116" s="25"/>
-      <c r="AA116" s="25"/>
-      <c r="AB116" s="25"/>
-      <c r="AC116" s="24"/>
-      <c r="AD116" s="24"/>
-      <c r="AE116" s="25"/>
-      <c r="AF116" s="24"/>
-      <c r="AG116" s="24"/>
-      <c r="AH116" s="25"/>
-      <c r="AI116" s="24"/>
-      <c r="AJ116" s="25"/>
-      <c r="AK116" s="24"/>
-      <c r="AL116" s="24"/>
-      <c r="AM116" s="24"/>
-      <c r="AN116" s="24"/>
-      <c r="AO116" s="52"/>
-      <c r="AP116" s="25"/>
-      <c r="AQ116" s="73"/>
-      <c r="AR116" s="25"/>
-      <c r="AS116" s="25"/>
-      <c r="AT116" s="25"/>
-      <c r="AU116" s="25"/>
-      <c r="AV116" s="25"/>
-      <c r="AW116" s="25"/>
-      <c r="AX116" s="25"/>
-      <c r="AY116" s="25"/>
-      <c r="AZ116" s="25"/>
-      <c r="BA116" s="24"/>
-      <c r="BB116" s="25"/>
-      <c r="BC116" s="25"/>
-      <c r="BD116" s="25"/>
-      <c r="BE116" s="25"/>
-      <c r="BF116" s="25"/>
-      <c r="BG116" s="25"/>
-      <c r="BH116" s="25"/>
-      <c r="BI116" s="25"/>
-      <c r="BJ116" s="25"/>
-      <c r="BK116" s="25"/>
-      <c r="BL116" s="25"/>
-      <c r="BM116" s="25"/>
-      <c r="BN116" s="25"/>
-      <c r="BO116" s="24"/>
-      <c r="BP116" s="25"/>
-      <c r="BQ116" s="62"/>
-      <c r="BR116" s="21"/>
-      <c r="BS116" s="61"/>
+    <row r="116" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A116" s="14">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F116" s="26">
+        <v>42690.939583333296</v>
+      </c>
+      <c r="G116" s="25">
+        <v>3</v>
+      </c>
+      <c r="H116" s="25">
+        <v>3</v>
+      </c>
+      <c r="I116" s="25">
+        <v>3</v>
+      </c>
+      <c r="J116" s="25">
+        <v>0</v>
+      </c>
+      <c r="K116" s="25">
+        <v>1</v>
+      </c>
+      <c r="L116" s="25">
+        <v>1</v>
+      </c>
+      <c r="M116" s="25">
+        <v>0</v>
+      </c>
+      <c r="N116" s="25">
+        <v>1</v>
+      </c>
+      <c r="O116" s="25">
+        <v>2</v>
+      </c>
+      <c r="P116" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q116" s="25">
+        <v>3</v>
+      </c>
+      <c r="R116" s="25">
+        <v>3</v>
+      </c>
+      <c r="S116" s="25">
+        <v>3</v>
+      </c>
+      <c r="T116" s="25">
+        <v>3</v>
+      </c>
+      <c r="U116" s="25">
+        <v>3</v>
+      </c>
+      <c r="V116" s="25">
+        <v>0</v>
+      </c>
+      <c r="W116" s="25">
+        <v>1</v>
+      </c>
+      <c r="X116" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD116" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE116" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG116" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH116" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI116" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ116" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK116" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL116" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM116" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN116" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO116" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP116" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ116" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR116" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS116" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT116" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU116" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV116" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW116" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX116" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY116" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ116" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA116" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="BB116" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC116" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD116" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE116" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF116" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG116" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH116" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI116" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ116" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK116" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL116" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM116" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN116" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO116" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP116" s="25">
+        <v>5</v>
+      </c>
+      <c r="BQ116" s="62">
+        <v>2</v>
+      </c>
+      <c r="BR116" s="21">
+        <v>2</v>
+      </c>
+      <c r="BS116" s="61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="117" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A117" s="63"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="25"/>
-      <c r="K117" s="25"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="25"/>
-      <c r="N117" s="25"/>
-      <c r="O117" s="25"/>
-      <c r="P117" s="24"/>
-      <c r="Q117" s="25"/>
-      <c r="R117" s="25"/>
-      <c r="S117" s="25"/>
-      <c r="T117" s="25"/>
-      <c r="U117" s="25"/>
-      <c r="V117" s="25"/>
-      <c r="W117" s="25"/>
-      <c r="X117" s="25"/>
-      <c r="Y117" s="25"/>
-      <c r="Z117" s="25"/>
-      <c r="AA117" s="25"/>
-      <c r="AB117" s="25"/>
-      <c r="AC117" s="24"/>
-      <c r="AD117" s="24"/>
-      <c r="AE117" s="25"/>
-      <c r="AF117" s="24"/>
-      <c r="AG117" s="24"/>
-      <c r="AH117" s="25"/>
-      <c r="AI117" s="24"/>
-      <c r="AJ117" s="25"/>
-      <c r="AK117" s="24"/>
-      <c r="AL117" s="24"/>
-      <c r="AM117" s="24"/>
-      <c r="AN117" s="24"/>
-      <c r="AO117" s="52"/>
-      <c r="AP117" s="25"/>
-      <c r="AQ117" s="73"/>
-      <c r="AR117" s="25"/>
-      <c r="AS117" s="25"/>
-      <c r="AT117" s="25"/>
-      <c r="AU117" s="25"/>
-      <c r="AV117" s="25"/>
-      <c r="AW117" s="25"/>
-      <c r="AX117" s="25"/>
-      <c r="AY117" s="25"/>
-      <c r="AZ117" s="25"/>
-      <c r="BA117" s="24"/>
-      <c r="BB117" s="25"/>
-      <c r="BC117" s="25"/>
-      <c r="BD117" s="25"/>
-      <c r="BE117" s="25"/>
-      <c r="BF117" s="25"/>
-      <c r="BG117" s="25"/>
-      <c r="BH117" s="25"/>
-      <c r="BI117" s="25"/>
-      <c r="BJ117" s="25"/>
-      <c r="BK117" s="25"/>
-      <c r="BL117" s="25"/>
-      <c r="BM117" s="25"/>
-      <c r="BN117" s="25"/>
-      <c r="BO117" s="24"/>
-      <c r="BP117" s="25"/>
-      <c r="BQ117" s="62"/>
-      <c r="BR117" s="21"/>
-      <c r="BS117" s="61"/>
+    <row r="117" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A117" s="14">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D117" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F117" s="26">
+        <v>42716.947916666701</v>
+      </c>
+      <c r="G117" s="25">
+        <v>3</v>
+      </c>
+      <c r="H117" s="25">
+        <v>3</v>
+      </c>
+      <c r="I117" s="25">
+        <v>1</v>
+      </c>
+      <c r="J117" s="25">
+        <v>0</v>
+      </c>
+      <c r="K117" s="25">
+        <v>1</v>
+      </c>
+      <c r="L117" s="25">
+        <v>1</v>
+      </c>
+      <c r="M117" s="25">
+        <v>0</v>
+      </c>
+      <c r="N117" s="25">
+        <v>1</v>
+      </c>
+      <c r="O117" s="25">
+        <v>4</v>
+      </c>
+      <c r="P117" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q117" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="R117" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="S117" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="T117" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="U117" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="V117" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="W117" s="25">
+        <v>1</v>
+      </c>
+      <c r="X117" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD117" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF117" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG117" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI117" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ117" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK117" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL117" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM117" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN117" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO117" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ117" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS117" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT117" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU117" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV117" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW117" s="25">
+        <v>2</v>
+      </c>
+      <c r="AX117" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY117" s="25">
+        <v>2</v>
+      </c>
+      <c r="AZ117" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA117" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC117" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD117" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG117" s="25">
+        <v>2</v>
+      </c>
+      <c r="BH117" s="25">
+        <v>4</v>
+      </c>
+      <c r="BI117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ117" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="BK117" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BN117" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO117" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BQ117" s="62">
+        <v>2</v>
+      </c>
+      <c r="BR117" s="21">
+        <v>3</v>
+      </c>
+      <c r="BS117" s="61">
+        <v>2</v>
+      </c>
     </row>
-    <row r="118" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A118" s="63"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="25"/>
-      <c r="O118" s="25"/>
-      <c r="P118" s="24"/>
-      <c r="Q118" s="25"/>
-      <c r="R118" s="25"/>
-      <c r="S118" s="25"/>
-      <c r="T118" s="25"/>
-      <c r="U118" s="25"/>
-      <c r="V118" s="25"/>
-      <c r="W118" s="25"/>
-      <c r="X118" s="25"/>
-      <c r="Y118" s="25"/>
-      <c r="Z118" s="25"/>
-      <c r="AA118" s="25"/>
-      <c r="AB118" s="25"/>
-      <c r="AC118" s="24"/>
-      <c r="AD118" s="24"/>
-      <c r="AE118" s="25"/>
-      <c r="AF118" s="24"/>
-      <c r="AG118" s="24"/>
-      <c r="AH118" s="25"/>
-      <c r="AI118" s="24"/>
-      <c r="AJ118" s="25"/>
-      <c r="AK118" s="24"/>
-      <c r="AL118" s="24"/>
-      <c r="AM118" s="24"/>
-      <c r="AN118" s="24"/>
-      <c r="AO118" s="52"/>
-      <c r="AP118" s="25"/>
-      <c r="AQ118" s="73"/>
-      <c r="AR118" s="25"/>
-      <c r="AS118" s="25"/>
-      <c r="AT118" s="25"/>
-      <c r="AU118" s="25"/>
-      <c r="AV118" s="25"/>
-      <c r="AW118" s="25"/>
-      <c r="AX118" s="25"/>
-      <c r="AY118" s="25"/>
-      <c r="AZ118" s="25"/>
-      <c r="BA118" s="24"/>
-      <c r="BB118" s="25"/>
-      <c r="BC118" s="25"/>
-      <c r="BD118" s="25"/>
-      <c r="BE118" s="25"/>
-      <c r="BF118" s="25"/>
-      <c r="BG118" s="25"/>
-      <c r="BH118" s="25"/>
-      <c r="BI118" s="25"/>
-      <c r="BJ118" s="25"/>
-      <c r="BK118" s="25"/>
-      <c r="BL118" s="25"/>
-      <c r="BM118" s="25"/>
-      <c r="BN118" s="25"/>
-      <c r="BO118" s="24"/>
-      <c r="BP118" s="25"/>
-      <c r="BQ118" s="62"/>
-      <c r="BR118" s="21"/>
-      <c r="BS118" s="61"/>
+    <row r="118" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A118" s="14">
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D118" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F118" s="26">
+        <v>42669.5847222222</v>
+      </c>
+      <c r="G118" s="25">
+        <v>3</v>
+      </c>
+      <c r="H118" s="25">
+        <v>4</v>
+      </c>
+      <c r="I118" s="25">
+        <v>3</v>
+      </c>
+      <c r="J118" s="25">
+        <v>0</v>
+      </c>
+      <c r="K118" s="25">
+        <v>1</v>
+      </c>
+      <c r="L118" s="25">
+        <v>1</v>
+      </c>
+      <c r="M118" s="25">
+        <v>1</v>
+      </c>
+      <c r="N118" s="25">
+        <v>0</v>
+      </c>
+      <c r="O118" s="25">
+        <v>2</v>
+      </c>
+      <c r="P118" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q118" s="25">
+        <v>3</v>
+      </c>
+      <c r="R118" s="25">
+        <v>3</v>
+      </c>
+      <c r="S118" s="25">
+        <v>2</v>
+      </c>
+      <c r="T118" s="25">
+        <v>1</v>
+      </c>
+      <c r="U118" s="25">
+        <v>1</v>
+      </c>
+      <c r="V118" s="25">
+        <v>0</v>
+      </c>
+      <c r="W118" s="25">
+        <v>1</v>
+      </c>
+      <c r="X118" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC118" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD118" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE118" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF118" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG118" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH118" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI118" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ118" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK118" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL118" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM118" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN118" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO118" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP118" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ118" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR118" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS118" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT118" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU118" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV118" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW118" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX118" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY118" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ118" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA118" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB118" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC118" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD118" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE118" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF118" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG118" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH118" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI118" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ118" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="BK118" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL118" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM118" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN118" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO118" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP118" s="25">
+        <v>5</v>
+      </c>
+      <c r="BQ118" s="62">
+        <v>1</v>
+      </c>
+      <c r="BR118" s="21">
+        <v>2</v>
+      </c>
+      <c r="BS118" s="61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A119" s="63"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="25"/>
-      <c r="N119" s="25"/>
-      <c r="O119" s="25"/>
-      <c r="P119" s="24"/>
-      <c r="Q119" s="25"/>
-      <c r="R119" s="25"/>
-      <c r="S119" s="25"/>
-      <c r="T119" s="25"/>
-      <c r="U119" s="25"/>
-      <c r="V119" s="25"/>
-      <c r="W119" s="25"/>
-      <c r="X119" s="25"/>
-      <c r="Y119" s="25"/>
-      <c r="Z119" s="25"/>
-      <c r="AA119" s="25"/>
-      <c r="AB119" s="25"/>
-      <c r="AC119" s="24"/>
-      <c r="AD119" s="24"/>
-      <c r="AE119" s="25"/>
-      <c r="AF119" s="24"/>
-      <c r="AG119" s="24"/>
-      <c r="AH119" s="25"/>
-      <c r="AI119" s="24"/>
-      <c r="AJ119" s="25"/>
-      <c r="AK119" s="24"/>
-      <c r="AL119" s="24"/>
-      <c r="AM119" s="24"/>
-      <c r="AN119" s="24"/>
-      <c r="AO119" s="52"/>
-      <c r="AP119" s="25"/>
-      <c r="AQ119" s="73"/>
-      <c r="AR119" s="25"/>
-      <c r="AS119" s="25"/>
-      <c r="AT119" s="25"/>
-      <c r="AU119" s="25"/>
-      <c r="AV119" s="25"/>
-      <c r="AW119" s="25"/>
-      <c r="AX119" s="25"/>
-      <c r="AY119" s="25"/>
-      <c r="AZ119" s="25"/>
-      <c r="BA119" s="24"/>
-      <c r="BB119" s="25"/>
-      <c r="BC119" s="25"/>
-      <c r="BD119" s="25"/>
-      <c r="BE119" s="25"/>
-      <c r="BF119" s="25"/>
-      <c r="BG119" s="25"/>
-      <c r="BH119" s="25"/>
-      <c r="BI119" s="25"/>
-      <c r="BJ119" s="25"/>
-      <c r="BK119" s="25"/>
-      <c r="BL119" s="25"/>
-      <c r="BM119" s="25"/>
-      <c r="BN119" s="25"/>
-      <c r="BO119" s="24"/>
-      <c r="BP119" s="25"/>
-      <c r="BQ119" s="62"/>
-      <c r="BR119" s="21"/>
-      <c r="BS119" s="61"/>
+    <row r="119" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A119" s="14">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D119" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119" s="26">
+        <v>42740.494444444397</v>
+      </c>
+      <c r="G119" s="25">
+        <v>4</v>
+      </c>
+      <c r="H119" s="25">
+        <v>3</v>
+      </c>
+      <c r="I119" s="25">
+        <v>3</v>
+      </c>
+      <c r="J119" s="25">
+        <v>1</v>
+      </c>
+      <c r="K119" s="25">
+        <v>1</v>
+      </c>
+      <c r="L119" s="25">
+        <v>1</v>
+      </c>
+      <c r="M119" s="25">
+        <v>0</v>
+      </c>
+      <c r="N119" s="25">
+        <v>1</v>
+      </c>
+      <c r="O119" s="25">
+        <v>4</v>
+      </c>
+      <c r="P119" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q119" s="25">
+        <v>3</v>
+      </c>
+      <c r="R119" s="25">
+        <v>3</v>
+      </c>
+      <c r="S119" s="25">
+        <v>5</v>
+      </c>
+      <c r="T119" s="25">
+        <v>3</v>
+      </c>
+      <c r="U119" s="25">
+        <v>5</v>
+      </c>
+      <c r="V119" s="25">
+        <v>0</v>
+      </c>
+      <c r="W119" s="25">
+        <v>1</v>
+      </c>
+      <c r="X119" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD119" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG119" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI119" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ119" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK119" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL119" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM119" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN119" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO119" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ119" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS119" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT119" s="25">
+        <v>5</v>
+      </c>
+      <c r="AU119" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV119" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW119" s="25">
+        <v>4</v>
+      </c>
+      <c r="AX119" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY119" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ119" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA119" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB119" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC119" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD119" s="25">
+        <v>5</v>
+      </c>
+      <c r="BE119" s="25">
+        <v>4</v>
+      </c>
+      <c r="BF119" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG119" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH119" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI119" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ119" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="BK119" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL119" s="25">
+        <v>5</v>
+      </c>
+      <c r="BM119" s="25">
+        <v>5</v>
+      </c>
+      <c r="BN119" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO119" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP119" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ119" s="62">
+        <v>4</v>
+      </c>
+      <c r="BR119" s="21">
+        <v>4</v>
+      </c>
+      <c r="BS119" s="61">
+        <v>5</v>
+      </c>
     </row>
-    <row r="120" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A120" s="63"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="25"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="25"/>
-      <c r="N120" s="25"/>
-      <c r="O120" s="25"/>
-      <c r="P120" s="24"/>
-      <c r="Q120" s="25"/>
-      <c r="R120" s="25"/>
-      <c r="S120" s="25"/>
-      <c r="T120" s="25"/>
-      <c r="U120" s="25"/>
-      <c r="V120" s="25"/>
-      <c r="W120" s="25"/>
-      <c r="X120" s="25"/>
-      <c r="Y120" s="25"/>
-      <c r="Z120" s="25"/>
-      <c r="AA120" s="25"/>
-      <c r="AB120" s="25"/>
-      <c r="AC120" s="24"/>
-      <c r="AD120" s="24"/>
-      <c r="AE120" s="25"/>
-      <c r="AF120" s="24"/>
-      <c r="AG120" s="24"/>
-      <c r="AH120" s="25"/>
-      <c r="AI120" s="24"/>
-      <c r="AJ120" s="25"/>
-      <c r="AK120" s="24"/>
-      <c r="AL120" s="24"/>
-      <c r="AM120" s="24"/>
-      <c r="AN120" s="24"/>
-      <c r="AO120" s="52"/>
-      <c r="AP120" s="25"/>
-      <c r="AQ120" s="73"/>
-      <c r="AR120" s="25"/>
-      <c r="AS120" s="25"/>
-      <c r="AT120" s="25"/>
-      <c r="AU120" s="25"/>
-      <c r="AV120" s="25"/>
-      <c r="AW120" s="25"/>
-      <c r="AX120" s="25"/>
-      <c r="AY120" s="25"/>
-      <c r="AZ120" s="25"/>
-      <c r="BA120" s="24"/>
-      <c r="BB120" s="25"/>
-      <c r="BC120" s="25"/>
-      <c r="BD120" s="25"/>
-      <c r="BE120" s="25"/>
-      <c r="BF120" s="25"/>
-      <c r="BG120" s="25"/>
-      <c r="BH120" s="25"/>
-      <c r="BI120" s="25"/>
-      <c r="BJ120" s="25"/>
-      <c r="BK120" s="25"/>
-      <c r="BL120" s="25"/>
-      <c r="BM120" s="25"/>
-      <c r="BN120" s="25"/>
-      <c r="BO120" s="24"/>
-      <c r="BP120" s="25"/>
-      <c r="BQ120" s="62"/>
-      <c r="BR120" s="21"/>
-      <c r="BS120" s="61"/>
+    <row r="120" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A120" s="14">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D120" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F120" s="26">
+        <v>42682.418749999997</v>
+      </c>
+      <c r="G120" s="25">
+        <v>3</v>
+      </c>
+      <c r="H120" s="25">
+        <v>3</v>
+      </c>
+      <c r="I120" s="25">
+        <v>3</v>
+      </c>
+      <c r="J120" s="25">
+        <v>1</v>
+      </c>
+      <c r="K120" s="25">
+        <v>1</v>
+      </c>
+      <c r="L120" s="25">
+        <v>1</v>
+      </c>
+      <c r="M120" s="25">
+        <v>1</v>
+      </c>
+      <c r="N120" s="25">
+        <v>1</v>
+      </c>
+      <c r="O120" s="25">
+        <v>5</v>
+      </c>
+      <c r="P120" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q120" s="25">
+        <v>3</v>
+      </c>
+      <c r="R120" s="25">
+        <v>3</v>
+      </c>
+      <c r="S120" s="25">
+        <v>5</v>
+      </c>
+      <c r="T120" s="25">
+        <v>5</v>
+      </c>
+      <c r="U120" s="25">
+        <v>5</v>
+      </c>
+      <c r="V120" s="25">
+        <v>0</v>
+      </c>
+      <c r="W120" s="25">
+        <v>1</v>
+      </c>
+      <c r="X120" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD120" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE120" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG120" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH120" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI120" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ120" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK120" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL120" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM120" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN120" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO120" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP120" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ120" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR120" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS120" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT120" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU120" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV120" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW120" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX120" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY120" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ120" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA120" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB120" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC120" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD120" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE120" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF120" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG120" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH120" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI120" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ120" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="BK120" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL120" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM120" s="25">
+        <v>3</v>
+      </c>
+      <c r="BN120" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO120" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP120" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ120" s="62">
+        <v>3</v>
+      </c>
+      <c r="BR120" s="21">
+        <v>3</v>
+      </c>
+      <c r="BS120" s="61">
+        <v>3</v>
+      </c>
     </row>
-    <row r="121" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A121" s="63"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="25"/>
-      <c r="L121" s="25"/>
-      <c r="M121" s="25"/>
-      <c r="N121" s="25"/>
-      <c r="O121" s="25"/>
-      <c r="P121" s="24"/>
-      <c r="Q121" s="25"/>
-      <c r="R121" s="25"/>
-      <c r="S121" s="25"/>
-      <c r="T121" s="25"/>
-      <c r="U121" s="25"/>
-      <c r="V121" s="25"/>
-      <c r="W121" s="25"/>
-      <c r="X121" s="25"/>
-      <c r="Y121" s="25"/>
-      <c r="Z121" s="25"/>
-      <c r="AA121" s="25"/>
-      <c r="AB121" s="25"/>
-      <c r="AC121" s="24"/>
-      <c r="AD121" s="24"/>
-      <c r="AE121" s="25"/>
-      <c r="AF121" s="24"/>
-      <c r="AG121" s="24"/>
-      <c r="AH121" s="25"/>
-      <c r="AI121" s="24"/>
-      <c r="AJ121" s="25"/>
-      <c r="AK121" s="24"/>
-      <c r="AL121" s="24"/>
-      <c r="AM121" s="24"/>
-      <c r="AN121" s="24"/>
-      <c r="AO121" s="52"/>
-      <c r="AP121" s="25"/>
-      <c r="AQ121" s="73"/>
-      <c r="AR121" s="25"/>
-      <c r="AS121" s="25"/>
-      <c r="AT121" s="25"/>
-      <c r="AU121" s="25"/>
-      <c r="AV121" s="25"/>
-      <c r="AW121" s="25"/>
-      <c r="AX121" s="25"/>
-      <c r="AY121" s="25"/>
-      <c r="AZ121" s="25"/>
-      <c r="BA121" s="24"/>
-      <c r="BB121" s="25"/>
-      <c r="BC121" s="25"/>
-      <c r="BD121" s="25"/>
-      <c r="BE121" s="25"/>
-      <c r="BF121" s="25"/>
-      <c r="BG121" s="25"/>
-      <c r="BH121" s="25"/>
-      <c r="BI121" s="25"/>
-      <c r="BJ121" s="25"/>
-      <c r="BK121" s="25"/>
-      <c r="BL121" s="25"/>
-      <c r="BM121" s="25"/>
-      <c r="BN121" s="25"/>
-      <c r="BO121" s="24"/>
-      <c r="BP121" s="25"/>
-      <c r="BQ121" s="62"/>
-      <c r="BR121" s="21"/>
-      <c r="BS121" s="61"/>
+    <row r="121" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A121" s="14">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D121" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F121" s="26">
+        <v>42709.9</v>
+      </c>
+      <c r="G121" s="25">
+        <v>4</v>
+      </c>
+      <c r="H121" s="25">
+        <v>4</v>
+      </c>
+      <c r="I121" s="25">
+        <v>5</v>
+      </c>
+      <c r="J121" s="25">
+        <v>1</v>
+      </c>
+      <c r="K121" s="25">
+        <v>1</v>
+      </c>
+      <c r="L121" s="25">
+        <v>1</v>
+      </c>
+      <c r="M121" s="25">
+        <v>0</v>
+      </c>
+      <c r="N121" s="25">
+        <v>1</v>
+      </c>
+      <c r="O121" s="25">
+        <v>4</v>
+      </c>
+      <c r="P121" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q121" s="25">
+        <v>3</v>
+      </c>
+      <c r="R121" s="25">
+        <v>3</v>
+      </c>
+      <c r="S121" s="25">
+        <v>3</v>
+      </c>
+      <c r="T121" s="25">
+        <v>3</v>
+      </c>
+      <c r="U121" s="25">
+        <v>3</v>
+      </c>
+      <c r="V121" s="25">
+        <v>0</v>
+      </c>
+      <c r="W121" s="25">
+        <v>1</v>
+      </c>
+      <c r="X121" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z121" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC121" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD121" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE121" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF121" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG121" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH121" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI121" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ121" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK121" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL121" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM121" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN121" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO121" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP121" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ121" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR121" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS121" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT121" s="25">
+        <v>5</v>
+      </c>
+      <c r="AU121" s="25">
+        <v>2</v>
+      </c>
+      <c r="AV121" s="25">
+        <v>2</v>
+      </c>
+      <c r="AW121" s="25">
+        <v>5</v>
+      </c>
+      <c r="AX121" s="25">
+        <v>5</v>
+      </c>
+      <c r="AY121" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ121" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA121" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB121" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC121" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD121" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE121" s="25">
+        <v>5</v>
+      </c>
+      <c r="BF121" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG121" s="25">
+        <v>4</v>
+      </c>
+      <c r="BH121" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI121" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ121" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK121" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL121" s="25">
+        <v>5</v>
+      </c>
+      <c r="BM121" s="25">
+        <v>5</v>
+      </c>
+      <c r="BN121" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO121" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP121" s="25">
+        <v>2</v>
+      </c>
+      <c r="BQ121" s="62">
+        <v>4</v>
+      </c>
+      <c r="BR121" s="21">
+        <v>4</v>
+      </c>
+      <c r="BS121" s="61">
+        <v>4</v>
+      </c>
     </row>
-    <row r="122" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A122" s="63"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="25"/>
-      <c r="O122" s="25"/>
-      <c r="P122" s="24"/>
-      <c r="Q122" s="25"/>
-      <c r="R122" s="25"/>
-      <c r="S122" s="25"/>
-      <c r="T122" s="25"/>
-      <c r="U122" s="25"/>
-      <c r="V122" s="25"/>
-      <c r="W122" s="25"/>
-      <c r="X122" s="25"/>
-      <c r="Y122" s="25"/>
-      <c r="Z122" s="25"/>
-      <c r="AA122" s="25"/>
-      <c r="AB122" s="25"/>
-      <c r="AC122" s="24"/>
-      <c r="AD122" s="24"/>
-      <c r="AE122" s="25"/>
-      <c r="AF122" s="24"/>
-      <c r="AG122" s="24"/>
-      <c r="AH122" s="25"/>
-      <c r="AI122" s="24"/>
-      <c r="AJ122" s="25"/>
-      <c r="AK122" s="24"/>
-      <c r="AL122" s="24"/>
-      <c r="AM122" s="24"/>
-      <c r="AN122" s="24"/>
-      <c r="AO122" s="52"/>
-      <c r="AP122" s="25"/>
-      <c r="AQ122" s="73"/>
-      <c r="AR122" s="25"/>
-      <c r="AS122" s="25"/>
-      <c r="AT122" s="25"/>
-      <c r="AU122" s="25"/>
-      <c r="AV122" s="25"/>
-      <c r="AW122" s="25"/>
-      <c r="AX122" s="25"/>
-      <c r="AY122" s="25"/>
-      <c r="AZ122" s="25"/>
-      <c r="BA122" s="24"/>
-      <c r="BB122" s="25"/>
-      <c r="BC122" s="25"/>
-      <c r="BD122" s="25"/>
-      <c r="BE122" s="25"/>
-      <c r="BF122" s="25"/>
-      <c r="BG122" s="25"/>
-      <c r="BH122" s="25"/>
-      <c r="BI122" s="25"/>
-      <c r="BJ122" s="25"/>
-      <c r="BK122" s="25"/>
-      <c r="BL122" s="25"/>
-      <c r="BM122" s="25"/>
-      <c r="BN122" s="25"/>
-      <c r="BO122" s="24"/>
-      <c r="BP122" s="25"/>
-      <c r="BQ122" s="62"/>
-      <c r="BR122" s="21"/>
-      <c r="BS122" s="61"/>
+    <row r="122" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A122" s="14">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F122" s="26">
+        <v>42745.396527777797</v>
+      </c>
+      <c r="G122" s="25">
+        <v>1</v>
+      </c>
+      <c r="H122" s="25">
+        <v>1</v>
+      </c>
+      <c r="I122" s="25">
+        <v>1</v>
+      </c>
+      <c r="J122" s="25">
+        <v>0</v>
+      </c>
+      <c r="K122" s="25">
+        <v>1</v>
+      </c>
+      <c r="L122" s="25">
+        <v>1</v>
+      </c>
+      <c r="M122" s="25">
+        <v>0</v>
+      </c>
+      <c r="N122" s="25">
+        <v>1</v>
+      </c>
+      <c r="O122" s="25">
+        <v>3</v>
+      </c>
+      <c r="P122" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q122" s="25">
+        <v>3</v>
+      </c>
+      <c r="R122" s="25">
+        <v>3</v>
+      </c>
+      <c r="S122" s="25">
+        <v>3</v>
+      </c>
+      <c r="T122" s="25">
+        <v>3</v>
+      </c>
+      <c r="U122" s="25">
+        <v>3</v>
+      </c>
+      <c r="V122" s="25">
+        <v>0</v>
+      </c>
+      <c r="W122" s="25">
+        <v>1</v>
+      </c>
+      <c r="X122" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y122" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC122" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD122" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE122" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF122" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG122" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH122" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI122" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ122" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK122" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL122" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM122" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN122" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO122" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP122" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ122" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR122" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS122" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT122" s="25">
+        <v>4</v>
+      </c>
+      <c r="AU122" s="25">
+        <v>4</v>
+      </c>
+      <c r="AV122" s="25">
+        <v>4</v>
+      </c>
+      <c r="AW122" s="25">
+        <v>4</v>
+      </c>
+      <c r="AX122" s="25">
+        <v>4</v>
+      </c>
+      <c r="AY122" s="25">
+        <v>4</v>
+      </c>
+      <c r="AZ122" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA122" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB122" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC122" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD122" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE122" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF122" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG122" s="25">
+        <v>1</v>
+      </c>
+      <c r="BH122" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI122" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ122" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK122" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL122" s="25">
+        <v>4</v>
+      </c>
+      <c r="BM122" s="25">
+        <v>3</v>
+      </c>
+      <c r="BN122" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO122" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP122" s="25">
+        <v>3</v>
+      </c>
+      <c r="BQ122" s="62">
+        <v>3</v>
+      </c>
+      <c r="BR122" s="21">
+        <v>3</v>
+      </c>
+      <c r="BS122" s="61">
+        <v>3</v>
+      </c>
     </row>
-    <row r="123" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A123" s="63"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="26"/>
+    <row r="123" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A123" s="14">
+        <f t="shared" si="7"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D123" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F123" s="26">
+        <v>42685.3881944444</v>
+      </c>
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
@@ -28928,7 +30510,9 @@
       <c r="AL123" s="24"/>
       <c r="AM123" s="24"/>
       <c r="AN123" s="24"/>
-      <c r="AO123" s="52"/>
+      <c r="AO123" s="52" t="s">
+        <v>209</v>
+      </c>
       <c r="AP123" s="25"/>
       <c r="AQ123" s="73"/>
       <c r="AR123" s="25"/>
@@ -28953,20 +30537,37 @@
       <c r="BK123" s="25"/>
       <c r="BL123" s="25"/>
       <c r="BM123" s="25"/>
-      <c r="BN123" s="25"/>
-      <c r="BO123" s="24"/>
+      <c r="BN123" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO123" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="BP123" s="25"/>
       <c r="BQ123" s="62"/>
       <c r="BR123" s="21"/>
       <c r="BS123" s="61"/>
     </row>
-    <row r="124" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A124" s="63"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="26"/>
+    <row r="124" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A124" s="14">
+        <f t="shared" si="7"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D124" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F124" s="26">
+        <v>42689.795833333301</v>
+      </c>
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
@@ -29001,7 +30602,9 @@
       <c r="AL124" s="24"/>
       <c r="AM124" s="24"/>
       <c r="AN124" s="24"/>
-      <c r="AO124" s="52"/>
+      <c r="AO124" s="52" t="s">
+        <v>209</v>
+      </c>
       <c r="AP124" s="25"/>
       <c r="AQ124" s="73"/>
       <c r="AR124" s="25"/>
@@ -29026,20 +30629,37 @@
       <c r="BK124" s="25"/>
       <c r="BL124" s="25"/>
       <c r="BM124" s="25"/>
-      <c r="BN124" s="25"/>
-      <c r="BO124" s="24"/>
+      <c r="BN124" s="25">
+        <v>3</v>
+      </c>
+      <c r="BO124" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="BP124" s="25"/>
       <c r="BQ124" s="62"/>
       <c r="BR124" s="21"/>
       <c r="BS124" s="61"/>
     </row>
-    <row r="125" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A125" s="63"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="26"/>
+    <row r="125" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A125" s="14">
+        <f t="shared" si="7"/>
+        <v>123</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F125" s="26">
+        <v>42706.452777777798</v>
+      </c>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
@@ -29074,7 +30694,9 @@
       <c r="AL125" s="24"/>
       <c r="AM125" s="24"/>
       <c r="AN125" s="24"/>
-      <c r="AO125" s="52"/>
+      <c r="AO125" s="52" t="s">
+        <v>209</v>
+      </c>
       <c r="AP125" s="25"/>
       <c r="AQ125" s="73"/>
       <c r="AR125" s="25"/>
@@ -29099,20 +30721,37 @@
       <c r="BK125" s="25"/>
       <c r="BL125" s="25"/>
       <c r="BM125" s="25"/>
-      <c r="BN125" s="25"/>
-      <c r="BO125" s="24"/>
+      <c r="BN125" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO125" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="BP125" s="25"/>
       <c r="BQ125" s="62"/>
       <c r="BR125" s="21"/>
       <c r="BS125" s="61"/>
     </row>
-    <row r="126" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A126" s="63"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="26"/>
+    <row r="126" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A126" s="14">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D126" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F126" s="26">
+        <v>42702.3618055556</v>
+      </c>
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
@@ -29147,7 +30786,9 @@
       <c r="AL126" s="24"/>
       <c r="AM126" s="24"/>
       <c r="AN126" s="24"/>
-      <c r="AO126" s="52"/>
+      <c r="AO126" s="52" t="s">
+        <v>209</v>
+      </c>
       <c r="AP126" s="25"/>
       <c r="AQ126" s="73"/>
       <c r="AR126" s="25"/>
@@ -29172,82 +30813,1166 @@
       <c r="BK126" s="25"/>
       <c r="BL126" s="25"/>
       <c r="BM126" s="25"/>
-      <c r="BN126" s="25"/>
-      <c r="BO126" s="24"/>
+      <c r="BN126" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO126" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="BP126" s="25"/>
       <c r="BQ126" s="62"/>
       <c r="BR126" s="21"/>
       <c r="BS126" s="61"/>
     </row>
-    <row r="127" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F127" s="76"/>
-      <c r="AQ127" s="74"/>
+    <row r="127" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A127" s="14">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D127" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F127" s="26">
+        <v>42648.804861111101</v>
+      </c>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="25"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="25"/>
+      <c r="O127" s="25"/>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="25"/>
+      <c r="R127" s="25"/>
+      <c r="S127" s="25"/>
+      <c r="T127" s="25"/>
+      <c r="U127" s="25"/>
+      <c r="V127" s="25"/>
+      <c r="W127" s="25"/>
+      <c r="X127" s="25"/>
+      <c r="Y127" s="25"/>
+      <c r="Z127" s="25"/>
+      <c r="AA127" s="25"/>
+      <c r="AB127" s="25"/>
+      <c r="AC127" s="24"/>
+      <c r="AD127" s="24"/>
+      <c r="AE127" s="25"/>
+      <c r="AF127" s="24"/>
+      <c r="AG127" s="24"/>
+      <c r="AH127" s="25"/>
+      <c r="AI127" s="24"/>
+      <c r="AJ127" s="25"/>
+      <c r="AK127" s="24"/>
+      <c r="AL127" s="24"/>
+      <c r="AM127" s="24"/>
+      <c r="AN127" s="24"/>
+      <c r="AO127" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP127" s="25"/>
+      <c r="AQ127" s="73"/>
+      <c r="AR127" s="25"/>
+      <c r="AS127" s="25"/>
+      <c r="AT127" s="25"/>
+      <c r="AU127" s="25"/>
+      <c r="AV127" s="25"/>
+      <c r="AW127" s="25"/>
+      <c r="AX127" s="25"/>
+      <c r="AY127" s="25"/>
+      <c r="AZ127" s="25"/>
+      <c r="BA127" s="24"/>
+      <c r="BB127" s="25"/>
+      <c r="BC127" s="25"/>
+      <c r="BD127" s="25"/>
+      <c r="BE127" s="25"/>
+      <c r="BF127" s="25"/>
+      <c r="BG127" s="25"/>
+      <c r="BH127" s="25"/>
+      <c r="BI127" s="25"/>
+      <c r="BJ127" s="25"/>
+      <c r="BK127" s="25"/>
+      <c r="BL127" s="25"/>
+      <c r="BM127" s="25"/>
+      <c r="BN127" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO127" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP127" s="25"/>
+      <c r="BQ127" s="62"/>
+      <c r="BR127" s="21"/>
+      <c r="BS127" s="61"/>
     </row>
-    <row r="128" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F128" s="76"/>
-      <c r="AQ128" s="74"/>
+    <row r="128" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A128" s="14">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D128" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F128" s="26">
+        <v>42739.761111111096</v>
+      </c>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="25"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="25"/>
+      <c r="S128" s="25"/>
+      <c r="T128" s="25"/>
+      <c r="U128" s="25"/>
+      <c r="V128" s="25"/>
+      <c r="W128" s="25"/>
+      <c r="X128" s="25"/>
+      <c r="Y128" s="25"/>
+      <c r="Z128" s="25"/>
+      <c r="AA128" s="25"/>
+      <c r="AB128" s="25"/>
+      <c r="AC128" s="24"/>
+      <c r="AD128" s="24"/>
+      <c r="AE128" s="25"/>
+      <c r="AF128" s="24"/>
+      <c r="AG128" s="24"/>
+      <c r="AH128" s="25"/>
+      <c r="AI128" s="24"/>
+      <c r="AJ128" s="25"/>
+      <c r="AK128" s="24"/>
+      <c r="AL128" s="24"/>
+      <c r="AM128" s="24"/>
+      <c r="AN128" s="24"/>
+      <c r="AO128" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP128" s="25"/>
+      <c r="AQ128" s="73"/>
+      <c r="AR128" s="25"/>
+      <c r="AS128" s="25"/>
+      <c r="AT128" s="25"/>
+      <c r="AU128" s="25"/>
+      <c r="AV128" s="25"/>
+      <c r="AW128" s="25"/>
+      <c r="AX128" s="25"/>
+      <c r="AY128" s="25"/>
+      <c r="AZ128" s="25"/>
+      <c r="BA128" s="24"/>
+      <c r="BB128" s="25"/>
+      <c r="BC128" s="25"/>
+      <c r="BD128" s="25"/>
+      <c r="BE128" s="25"/>
+      <c r="BF128" s="25"/>
+      <c r="BG128" s="25"/>
+      <c r="BH128" s="25"/>
+      <c r="BI128" s="25"/>
+      <c r="BJ128" s="25"/>
+      <c r="BK128" s="25"/>
+      <c r="BL128" s="25"/>
+      <c r="BM128" s="25"/>
+      <c r="BN128" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO128" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP128" s="25"/>
+      <c r="BQ128" s="62"/>
+      <c r="BR128" s="21"/>
+      <c r="BS128" s="61"/>
     </row>
-    <row r="129" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F129" s="76"/>
-      <c r="AQ129" s="74"/>
+    <row r="129" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A129" s="14">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D129" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F129" s="26">
+        <v>42749.402083333298</v>
+      </c>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="25"/>
+      <c r="N129" s="25"/>
+      <c r="O129" s="25"/>
+      <c r="P129" s="24"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="25"/>
+      <c r="S129" s="25"/>
+      <c r="T129" s="25"/>
+      <c r="U129" s="25"/>
+      <c r="V129" s="25"/>
+      <c r="W129" s="25"/>
+      <c r="X129" s="25"/>
+      <c r="Y129" s="25"/>
+      <c r="Z129" s="25"/>
+      <c r="AA129" s="25"/>
+      <c r="AB129" s="25"/>
+      <c r="AC129" s="24"/>
+      <c r="AD129" s="24"/>
+      <c r="AE129" s="25"/>
+      <c r="AF129" s="24"/>
+      <c r="AG129" s="24"/>
+      <c r="AH129" s="25"/>
+      <c r="AI129" s="24"/>
+      <c r="AJ129" s="25"/>
+      <c r="AK129" s="24"/>
+      <c r="AL129" s="24"/>
+      <c r="AM129" s="24"/>
+      <c r="AN129" s="24"/>
+      <c r="AO129" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP129" s="25"/>
+      <c r="AQ129" s="73"/>
+      <c r="AR129" s="25"/>
+      <c r="AS129" s="25"/>
+      <c r="AT129" s="25"/>
+      <c r="AU129" s="25"/>
+      <c r="AV129" s="25"/>
+      <c r="AW129" s="25"/>
+      <c r="AX129" s="25"/>
+      <c r="AY129" s="25"/>
+      <c r="AZ129" s="25"/>
+      <c r="BA129" s="24"/>
+      <c r="BB129" s="25"/>
+      <c r="BC129" s="25"/>
+      <c r="BD129" s="25"/>
+      <c r="BE129" s="25"/>
+      <c r="BF129" s="25"/>
+      <c r="BG129" s="25"/>
+      <c r="BH129" s="25"/>
+      <c r="BI129" s="25"/>
+      <c r="BJ129" s="25"/>
+      <c r="BK129" s="25"/>
+      <c r="BL129" s="25"/>
+      <c r="BM129" s="25"/>
+      <c r="BN129" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO129" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP129" s="25"/>
+      <c r="BQ129" s="62"/>
+      <c r="BR129" s="21"/>
+      <c r="BS129" s="61"/>
     </row>
-    <row r="130" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F130" s="76"/>
-      <c r="AQ130" s="74"/>
+    <row r="130" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A130" s="14">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D130" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F130" s="26">
+        <v>42717.407638888901</v>
+      </c>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="25"/>
+      <c r="P130" s="24"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="25"/>
+      <c r="S130" s="25"/>
+      <c r="T130" s="25"/>
+      <c r="U130" s="25"/>
+      <c r="V130" s="25"/>
+      <c r="W130" s="25"/>
+      <c r="X130" s="25"/>
+      <c r="Y130" s="25"/>
+      <c r="Z130" s="25"/>
+      <c r="AA130" s="25"/>
+      <c r="AB130" s="25"/>
+      <c r="AC130" s="24"/>
+      <c r="AD130" s="24"/>
+      <c r="AE130" s="25"/>
+      <c r="AF130" s="24"/>
+      <c r="AG130" s="24"/>
+      <c r="AH130" s="25"/>
+      <c r="AI130" s="24"/>
+      <c r="AJ130" s="25"/>
+      <c r="AK130" s="24"/>
+      <c r="AL130" s="24"/>
+      <c r="AM130" s="24"/>
+      <c r="AN130" s="24"/>
+      <c r="AO130" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP130" s="25"/>
+      <c r="AQ130" s="73"/>
+      <c r="AR130" s="25"/>
+      <c r="AS130" s="25"/>
+      <c r="AT130" s="25"/>
+      <c r="AU130" s="25"/>
+      <c r="AV130" s="25"/>
+      <c r="AW130" s="25"/>
+      <c r="AX130" s="25"/>
+      <c r="AY130" s="25"/>
+      <c r="AZ130" s="25"/>
+      <c r="BA130" s="24"/>
+      <c r="BB130" s="25"/>
+      <c r="BC130" s="25"/>
+      <c r="BD130" s="25"/>
+      <c r="BE130" s="25"/>
+      <c r="BF130" s="25"/>
+      <c r="BG130" s="25"/>
+      <c r="BH130" s="25"/>
+      <c r="BI130" s="25"/>
+      <c r="BJ130" s="25"/>
+      <c r="BK130" s="25"/>
+      <c r="BL130" s="25"/>
+      <c r="BM130" s="25"/>
+      <c r="BN130" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO130" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP130" s="25"/>
+      <c r="BQ130" s="62"/>
+      <c r="BR130" s="21"/>
+      <c r="BS130" s="61"/>
     </row>
-    <row r="131" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F131" s="76"/>
-      <c r="AQ131" s="74"/>
+    <row r="131" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A131" s="14">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D131" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F131" s="26">
+        <v>42731.697916666701</v>
+      </c>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="25"/>
+      <c r="L131" s="25"/>
+      <c r="M131" s="25"/>
+      <c r="N131" s="25"/>
+      <c r="O131" s="25"/>
+      <c r="P131" s="24"/>
+      <c r="Q131" s="25"/>
+      <c r="R131" s="25"/>
+      <c r="S131" s="25"/>
+      <c r="T131" s="25"/>
+      <c r="U131" s="25"/>
+      <c r="V131" s="25"/>
+      <c r="W131" s="25"/>
+      <c r="X131" s="25"/>
+      <c r="Y131" s="25"/>
+      <c r="Z131" s="25"/>
+      <c r="AA131" s="25"/>
+      <c r="AB131" s="25"/>
+      <c r="AC131" s="24"/>
+      <c r="AD131" s="24"/>
+      <c r="AE131" s="25"/>
+      <c r="AF131" s="24"/>
+      <c r="AG131" s="24"/>
+      <c r="AH131" s="25"/>
+      <c r="AI131" s="24"/>
+      <c r="AJ131" s="25"/>
+      <c r="AK131" s="24"/>
+      <c r="AL131" s="24"/>
+      <c r="AM131" s="24"/>
+      <c r="AN131" s="24"/>
+      <c r="AO131" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP131" s="25"/>
+      <c r="AQ131" s="73"/>
+      <c r="AR131" s="25"/>
+      <c r="AS131" s="25"/>
+      <c r="AT131" s="25"/>
+      <c r="AU131" s="25"/>
+      <c r="AV131" s="25"/>
+      <c r="AW131" s="25"/>
+      <c r="AX131" s="25"/>
+      <c r="AY131" s="25"/>
+      <c r="AZ131" s="25"/>
+      <c r="BA131" s="24"/>
+      <c r="BB131" s="25"/>
+      <c r="BC131" s="25"/>
+      <c r="BD131" s="25"/>
+      <c r="BE131" s="25"/>
+      <c r="BF131" s="25"/>
+      <c r="BG131" s="25"/>
+      <c r="BH131" s="25"/>
+      <c r="BI131" s="25"/>
+      <c r="BJ131" s="25"/>
+      <c r="BK131" s="25"/>
+      <c r="BL131" s="25"/>
+      <c r="BM131" s="25"/>
+      <c r="BN131" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO131" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP131" s="25"/>
+      <c r="BQ131" s="62"/>
+      <c r="BR131" s="21"/>
+      <c r="BS131" s="61"/>
     </row>
-    <row r="132" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F132" s="76"/>
-      <c r="AQ132" s="74"/>
+    <row r="132" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A132" s="14">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D132" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F132" s="26">
+        <v>42744.470138888901</v>
+      </c>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="25"/>
+      <c r="L132" s="25"/>
+      <c r="M132" s="25"/>
+      <c r="N132" s="25"/>
+      <c r="O132" s="25"/>
+      <c r="P132" s="24"/>
+      <c r="Q132" s="25"/>
+      <c r="R132" s="25"/>
+      <c r="S132" s="25"/>
+      <c r="T132" s="25"/>
+      <c r="U132" s="25"/>
+      <c r="V132" s="25"/>
+      <c r="W132" s="25"/>
+      <c r="X132" s="25"/>
+      <c r="Y132" s="25"/>
+      <c r="Z132" s="25"/>
+      <c r="AA132" s="25"/>
+      <c r="AB132" s="25"/>
+      <c r="AC132" s="24"/>
+      <c r="AD132" s="24"/>
+      <c r="AE132" s="25"/>
+      <c r="AF132" s="24"/>
+      <c r="AG132" s="24"/>
+      <c r="AH132" s="25"/>
+      <c r="AI132" s="24"/>
+      <c r="AJ132" s="25"/>
+      <c r="AK132" s="24"/>
+      <c r="AL132" s="24"/>
+      <c r="AM132" s="24"/>
+      <c r="AN132" s="24"/>
+      <c r="AO132" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP132" s="25"/>
+      <c r="AQ132" s="73"/>
+      <c r="AR132" s="25"/>
+      <c r="AS132" s="25"/>
+      <c r="AT132" s="25"/>
+      <c r="AU132" s="25"/>
+      <c r="AV132" s="25"/>
+      <c r="AW132" s="25"/>
+      <c r="AX132" s="25"/>
+      <c r="AY132" s="25"/>
+      <c r="AZ132" s="25"/>
+      <c r="BA132" s="24"/>
+      <c r="BB132" s="25"/>
+      <c r="BC132" s="25"/>
+      <c r="BD132" s="25"/>
+      <c r="BE132" s="25"/>
+      <c r="BF132" s="25"/>
+      <c r="BG132" s="25"/>
+      <c r="BH132" s="25"/>
+      <c r="BI132" s="25"/>
+      <c r="BJ132" s="25"/>
+      <c r="BK132" s="25"/>
+      <c r="BL132" s="25"/>
+      <c r="BM132" s="25"/>
+      <c r="BN132" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO132" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP132" s="25"/>
+      <c r="BQ132" s="62"/>
+      <c r="BR132" s="21"/>
+      <c r="BS132" s="61"/>
     </row>
-    <row r="133" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F133" s="76"/>
-      <c r="AQ133" s="74"/>
+    <row r="133" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A133" s="14"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
+      <c r="K133" s="25"/>
+      <c r="L133" s="25"/>
+      <c r="M133" s="25"/>
+      <c r="N133" s="25"/>
+      <c r="O133" s="25"/>
+      <c r="P133" s="24"/>
+      <c r="Q133" s="25"/>
+      <c r="R133" s="25"/>
+      <c r="S133" s="25"/>
+      <c r="T133" s="25"/>
+      <c r="U133" s="25"/>
+      <c r="V133" s="25"/>
+      <c r="W133" s="25"/>
+      <c r="X133" s="25"/>
+      <c r="Y133" s="25"/>
+      <c r="Z133" s="25"/>
+      <c r="AA133" s="25"/>
+      <c r="AB133" s="25"/>
+      <c r="AC133" s="24"/>
+      <c r="AD133" s="24"/>
+      <c r="AE133" s="25"/>
+      <c r="AF133" s="24"/>
+      <c r="AG133" s="24"/>
+      <c r="AH133" s="25"/>
+      <c r="AI133" s="24"/>
+      <c r="AJ133" s="25"/>
+      <c r="AK133" s="24"/>
+      <c r="AL133" s="24"/>
+      <c r="AM133" s="24"/>
+      <c r="AN133" s="24"/>
+      <c r="AO133" s="52"/>
+      <c r="AP133" s="25"/>
+      <c r="AQ133" s="73"/>
+      <c r="AR133" s="25"/>
+      <c r="AS133" s="25"/>
+      <c r="AT133" s="25"/>
+      <c r="AU133" s="25"/>
+      <c r="AV133" s="25"/>
+      <c r="AW133" s="25"/>
+      <c r="AX133" s="25"/>
+      <c r="AY133" s="25"/>
+      <c r="AZ133" s="25"/>
+      <c r="BA133" s="24"/>
+      <c r="BB133" s="25"/>
+      <c r="BC133" s="25"/>
+      <c r="BD133" s="25"/>
+      <c r="BE133" s="25"/>
+      <c r="BF133" s="25"/>
+      <c r="BG133" s="25"/>
+      <c r="BH133" s="25"/>
+      <c r="BI133" s="25"/>
+      <c r="BJ133" s="25"/>
+      <c r="BK133" s="25"/>
+      <c r="BL133" s="25"/>
+      <c r="BM133" s="25"/>
+      <c r="BN133" s="25"/>
+      <c r="BO133" s="24"/>
+      <c r="BP133" s="25"/>
+      <c r="BQ133" s="62"/>
+      <c r="BR133" s="21"/>
+      <c r="BS133" s="61"/>
     </row>
-    <row r="134" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F134" s="76"/>
-      <c r="AQ134" s="74"/>
+    <row r="134" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A134" s="14"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="25"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="25"/>
+      <c r="N134" s="25"/>
+      <c r="O134" s="25"/>
+      <c r="P134" s="24"/>
+      <c r="Q134" s="25"/>
+      <c r="R134" s="25"/>
+      <c r="S134" s="25"/>
+      <c r="T134" s="25"/>
+      <c r="U134" s="25"/>
+      <c r="V134" s="25"/>
+      <c r="W134" s="25"/>
+      <c r="X134" s="25"/>
+      <c r="Y134" s="25"/>
+      <c r="Z134" s="25"/>
+      <c r="AA134" s="25"/>
+      <c r="AB134" s="25"/>
+      <c r="AC134" s="24"/>
+      <c r="AD134" s="24"/>
+      <c r="AE134" s="25"/>
+      <c r="AF134" s="24"/>
+      <c r="AG134" s="24"/>
+      <c r="AH134" s="25"/>
+      <c r="AI134" s="24"/>
+      <c r="AJ134" s="25"/>
+      <c r="AK134" s="24"/>
+      <c r="AL134" s="24"/>
+      <c r="AM134" s="24"/>
+      <c r="AN134" s="24"/>
+      <c r="AO134" s="52"/>
+      <c r="AP134" s="25"/>
+      <c r="AQ134" s="73"/>
+      <c r="AR134" s="25"/>
+      <c r="AS134" s="25"/>
+      <c r="AT134" s="25"/>
+      <c r="AU134" s="25"/>
+      <c r="AV134" s="25"/>
+      <c r="AW134" s="25"/>
+      <c r="AX134" s="25"/>
+      <c r="AY134" s="25"/>
+      <c r="AZ134" s="25"/>
+      <c r="BA134" s="24"/>
+      <c r="BB134" s="25"/>
+      <c r="BC134" s="25"/>
+      <c r="BD134" s="25"/>
+      <c r="BE134" s="25"/>
+      <c r="BF134" s="25"/>
+      <c r="BG134" s="25"/>
+      <c r="BH134" s="25"/>
+      <c r="BI134" s="25"/>
+      <c r="BJ134" s="25"/>
+      <c r="BK134" s="25"/>
+      <c r="BL134" s="25"/>
+      <c r="BM134" s="25"/>
+      <c r="BN134" s="25"/>
+      <c r="BO134" s="24"/>
+      <c r="BP134" s="25"/>
+      <c r="BQ134" s="62"/>
+      <c r="BR134" s="21"/>
+      <c r="BS134" s="61"/>
     </row>
-    <row r="135" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F135" s="76"/>
-      <c r="AQ135" s="74"/>
+    <row r="135" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A135" s="14"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="25"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="25"/>
+      <c r="O135" s="25"/>
+      <c r="P135" s="24"/>
+      <c r="Q135" s="25"/>
+      <c r="R135" s="25"/>
+      <c r="S135" s="25"/>
+      <c r="T135" s="25"/>
+      <c r="U135" s="25"/>
+      <c r="V135" s="25"/>
+      <c r="W135" s="25"/>
+      <c r="X135" s="25"/>
+      <c r="Y135" s="25"/>
+      <c r="Z135" s="25"/>
+      <c r="AA135" s="25"/>
+      <c r="AB135" s="25"/>
+      <c r="AC135" s="24"/>
+      <c r="AD135" s="24"/>
+      <c r="AE135" s="25"/>
+      <c r="AF135" s="24"/>
+      <c r="AG135" s="24"/>
+      <c r="AH135" s="25"/>
+      <c r="AI135" s="24"/>
+      <c r="AJ135" s="25"/>
+      <c r="AK135" s="24"/>
+      <c r="AL135" s="24"/>
+      <c r="AM135" s="24"/>
+      <c r="AN135" s="24"/>
+      <c r="AO135" s="52"/>
+      <c r="AP135" s="25"/>
+      <c r="AQ135" s="73"/>
+      <c r="AR135" s="25"/>
+      <c r="AS135" s="25"/>
+      <c r="AT135" s="25"/>
+      <c r="AU135" s="25"/>
+      <c r="AV135" s="25"/>
+      <c r="AW135" s="25"/>
+      <c r="AX135" s="25"/>
+      <c r="AY135" s="25"/>
+      <c r="AZ135" s="25"/>
+      <c r="BA135" s="24"/>
+      <c r="BB135" s="25"/>
+      <c r="BC135" s="25"/>
+      <c r="BD135" s="25"/>
+      <c r="BE135" s="25"/>
+      <c r="BF135" s="25"/>
+      <c r="BG135" s="25"/>
+      <c r="BH135" s="25"/>
+      <c r="BI135" s="25"/>
+      <c r="BJ135" s="25"/>
+      <c r="BK135" s="25"/>
+      <c r="BL135" s="25"/>
+      <c r="BM135" s="25"/>
+      <c r="BN135" s="25"/>
+      <c r="BO135" s="24"/>
+      <c r="BP135" s="25"/>
+      <c r="BQ135" s="62"/>
+      <c r="BR135" s="21"/>
+      <c r="BS135" s="61"/>
     </row>
-    <row r="136" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F136" s="76"/>
-      <c r="AQ136" s="74"/>
+    <row r="136" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A136" s="14"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="25"/>
+      <c r="K136" s="25"/>
+      <c r="L136" s="25"/>
+      <c r="M136" s="25"/>
+      <c r="N136" s="25"/>
+      <c r="O136" s="25"/>
+      <c r="P136" s="24"/>
+      <c r="Q136" s="25"/>
+      <c r="R136" s="25"/>
+      <c r="S136" s="25"/>
+      <c r="T136" s="25"/>
+      <c r="U136" s="25"/>
+      <c r="V136" s="25"/>
+      <c r="W136" s="25"/>
+      <c r="X136" s="25"/>
+      <c r="Y136" s="25"/>
+      <c r="Z136" s="25"/>
+      <c r="AA136" s="25"/>
+      <c r="AB136" s="25"/>
+      <c r="AC136" s="24"/>
+      <c r="AD136" s="24"/>
+      <c r="AE136" s="25"/>
+      <c r="AF136" s="24"/>
+      <c r="AG136" s="24"/>
+      <c r="AH136" s="25"/>
+      <c r="AI136" s="24"/>
+      <c r="AJ136" s="25"/>
+      <c r="AK136" s="24"/>
+      <c r="AL136" s="24"/>
+      <c r="AM136" s="24"/>
+      <c r="AN136" s="24"/>
+      <c r="AO136" s="52"/>
+      <c r="AP136" s="25"/>
+      <c r="AQ136" s="73"/>
+      <c r="AR136" s="25"/>
+      <c r="AS136" s="25"/>
+      <c r="AT136" s="25"/>
+      <c r="AU136" s="25"/>
+      <c r="AV136" s="25"/>
+      <c r="AW136" s="25"/>
+      <c r="AX136" s="25"/>
+      <c r="AY136" s="25"/>
+      <c r="AZ136" s="25"/>
+      <c r="BA136" s="24"/>
+      <c r="BB136" s="25"/>
+      <c r="BC136" s="25"/>
+      <c r="BD136" s="25"/>
+      <c r="BE136" s="25"/>
+      <c r="BF136" s="25"/>
+      <c r="BG136" s="25"/>
+      <c r="BH136" s="25"/>
+      <c r="BI136" s="25"/>
+      <c r="BJ136" s="25"/>
+      <c r="BK136" s="25"/>
+      <c r="BL136" s="25"/>
+      <c r="BM136" s="25"/>
+      <c r="BN136" s="25"/>
+      <c r="BO136" s="24"/>
+      <c r="BP136" s="25"/>
+      <c r="BQ136" s="62"/>
+      <c r="BR136" s="21"/>
+      <c r="BS136" s="61"/>
     </row>
-    <row r="137" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F137" s="76"/>
-      <c r="AQ137" s="74"/>
+    <row r="137" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A137" s="14"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="25"/>
+      <c r="N137" s="25"/>
+      <c r="O137" s="25"/>
+      <c r="P137" s="24"/>
+      <c r="Q137" s="25"/>
+      <c r="R137" s="25"/>
+      <c r="S137" s="25"/>
+      <c r="T137" s="25"/>
+      <c r="U137" s="25"/>
+      <c r="V137" s="25"/>
+      <c r="W137" s="25"/>
+      <c r="X137" s="25"/>
+      <c r="Y137" s="25"/>
+      <c r="Z137" s="25"/>
+      <c r="AA137" s="25"/>
+      <c r="AB137" s="25"/>
+      <c r="AC137" s="24"/>
+      <c r="AD137" s="24"/>
+      <c r="AE137" s="25"/>
+      <c r="AF137" s="24"/>
+      <c r="AG137" s="24"/>
+      <c r="AH137" s="25"/>
+      <c r="AI137" s="24"/>
+      <c r="AJ137" s="25"/>
+      <c r="AK137" s="24"/>
+      <c r="AL137" s="24"/>
+      <c r="AM137" s="24"/>
+      <c r="AN137" s="24"/>
+      <c r="AO137" s="52"/>
+      <c r="AP137" s="25"/>
+      <c r="AQ137" s="73"/>
+      <c r="AR137" s="25"/>
+      <c r="AS137" s="25"/>
+      <c r="AT137" s="25"/>
+      <c r="AU137" s="25"/>
+      <c r="AV137" s="25"/>
+      <c r="AW137" s="25"/>
+      <c r="AX137" s="25"/>
+      <c r="AY137" s="25"/>
+      <c r="AZ137" s="25"/>
+      <c r="BA137" s="24"/>
+      <c r="BB137" s="25"/>
+      <c r="BC137" s="25"/>
+      <c r="BD137" s="25"/>
+      <c r="BE137" s="25"/>
+      <c r="BF137" s="25"/>
+      <c r="BG137" s="25"/>
+      <c r="BH137" s="25"/>
+      <c r="BI137" s="25"/>
+      <c r="BJ137" s="25"/>
+      <c r="BK137" s="25"/>
+      <c r="BL137" s="25"/>
+      <c r="BM137" s="25"/>
+      <c r="BN137" s="25"/>
+      <c r="BO137" s="24"/>
+      <c r="BP137" s="25"/>
+      <c r="BQ137" s="62"/>
+      <c r="BR137" s="21"/>
+      <c r="BS137" s="61"/>
     </row>
-    <row r="138" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F138" s="76"/>
-      <c r="AQ138" s="74"/>
+    <row r="138" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A138" s="14"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
+      <c r="K138" s="25"/>
+      <c r="L138" s="25"/>
+      <c r="M138" s="25"/>
+      <c r="N138" s="25"/>
+      <c r="O138" s="25"/>
+      <c r="P138" s="24"/>
+      <c r="Q138" s="25"/>
+      <c r="R138" s="25"/>
+      <c r="S138" s="25"/>
+      <c r="T138" s="25"/>
+      <c r="U138" s="25"/>
+      <c r="V138" s="25"/>
+      <c r="W138" s="25"/>
+      <c r="X138" s="25"/>
+      <c r="Y138" s="25"/>
+      <c r="Z138" s="25"/>
+      <c r="AA138" s="25"/>
+      <c r="AB138" s="25"/>
+      <c r="AC138" s="24"/>
+      <c r="AD138" s="24"/>
+      <c r="AE138" s="25"/>
+      <c r="AF138" s="24"/>
+      <c r="AG138" s="24"/>
+      <c r="AH138" s="25"/>
+      <c r="AI138" s="24"/>
+      <c r="AJ138" s="25"/>
+      <c r="AK138" s="24"/>
+      <c r="AL138" s="24"/>
+      <c r="AM138" s="24"/>
+      <c r="AN138" s="24"/>
+      <c r="AO138" s="52"/>
+      <c r="AP138" s="25"/>
+      <c r="AQ138" s="73"/>
+      <c r="AR138" s="25"/>
+      <c r="AS138" s="25"/>
+      <c r="AT138" s="25"/>
+      <c r="AU138" s="25"/>
+      <c r="AV138" s="25"/>
+      <c r="AW138" s="25"/>
+      <c r="AX138" s="25"/>
+      <c r="AY138" s="25"/>
+      <c r="AZ138" s="25"/>
+      <c r="BA138" s="24"/>
+      <c r="BB138" s="25"/>
+      <c r="BC138" s="25"/>
+      <c r="BD138" s="25"/>
+      <c r="BE138" s="25"/>
+      <c r="BF138" s="25"/>
+      <c r="BG138" s="25"/>
+      <c r="BH138" s="25"/>
+      <c r="BI138" s="25"/>
+      <c r="BJ138" s="25"/>
+      <c r="BK138" s="25"/>
+      <c r="BL138" s="25"/>
+      <c r="BM138" s="25"/>
+      <c r="BN138" s="25"/>
+      <c r="BO138" s="24"/>
+      <c r="BP138" s="25"/>
+      <c r="BQ138" s="62"/>
+      <c r="BR138" s="21"/>
+      <c r="BS138" s="61"/>
     </row>
-    <row r="139" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F139" s="76"/>
-      <c r="AQ139" s="74"/>
+    <row r="139" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A139" s="14"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="25"/>
+      <c r="O139" s="25"/>
+      <c r="P139" s="24"/>
+      <c r="Q139" s="25"/>
+      <c r="R139" s="25"/>
+      <c r="S139" s="25"/>
+      <c r="T139" s="25"/>
+      <c r="U139" s="25"/>
+      <c r="V139" s="25"/>
+      <c r="W139" s="25"/>
+      <c r="X139" s="25"/>
+      <c r="Y139" s="25"/>
+      <c r="Z139" s="25"/>
+      <c r="AA139" s="25"/>
+      <c r="AB139" s="25"/>
+      <c r="AC139" s="24"/>
+      <c r="AD139" s="24"/>
+      <c r="AE139" s="25"/>
+      <c r="AF139" s="24"/>
+      <c r="AG139" s="24"/>
+      <c r="AH139" s="25"/>
+      <c r="AI139" s="24"/>
+      <c r="AJ139" s="25"/>
+      <c r="AK139" s="24"/>
+      <c r="AL139" s="24"/>
+      <c r="AM139" s="24"/>
+      <c r="AN139" s="24"/>
+      <c r="AO139" s="52"/>
+      <c r="AP139" s="25"/>
+      <c r="AQ139" s="73"/>
+      <c r="AR139" s="25"/>
+      <c r="AS139" s="25"/>
+      <c r="AT139" s="25"/>
+      <c r="AU139" s="25"/>
+      <c r="AV139" s="25"/>
+      <c r="AW139" s="25"/>
+      <c r="AX139" s="25"/>
+      <c r="AY139" s="25"/>
+      <c r="AZ139" s="25"/>
+      <c r="BA139" s="24"/>
+      <c r="BB139" s="25"/>
+      <c r="BC139" s="25"/>
+      <c r="BD139" s="25"/>
+      <c r="BE139" s="25"/>
+      <c r="BF139" s="25"/>
+      <c r="BG139" s="25"/>
+      <c r="BH139" s="25"/>
+      <c r="BI139" s="25"/>
+      <c r="BJ139" s="25"/>
+      <c r="BK139" s="25"/>
+      <c r="BL139" s="25"/>
+      <c r="BM139" s="25"/>
+      <c r="BN139" s="25"/>
+      <c r="BO139" s="24"/>
+      <c r="BP139" s="25"/>
+      <c r="BQ139" s="62"/>
+      <c r="BR139" s="21"/>
+      <c r="BS139" s="61"/>
     </row>
-    <row r="140" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F140" s="76"/>
-      <c r="AQ140" s="74"/>
+    <row r="140" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A140" s="63"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="25"/>
+      <c r="M140" s="25"/>
+      <c r="N140" s="25"/>
+      <c r="O140" s="25"/>
+      <c r="P140" s="24"/>
+      <c r="Q140" s="25"/>
+      <c r="R140" s="25"/>
+      <c r="S140" s="25"/>
+      <c r="T140" s="25"/>
+      <c r="U140" s="25"/>
+      <c r="V140" s="25"/>
+      <c r="W140" s="25"/>
+      <c r="X140" s="25"/>
+      <c r="Y140" s="25"/>
+      <c r="Z140" s="25"/>
+      <c r="AA140" s="25"/>
+      <c r="AB140" s="25"/>
+      <c r="AC140" s="24"/>
+      <c r="AD140" s="24"/>
+      <c r="AE140" s="25"/>
+      <c r="AF140" s="24"/>
+      <c r="AG140" s="24"/>
+      <c r="AH140" s="25"/>
+      <c r="AI140" s="24"/>
+      <c r="AJ140" s="25"/>
+      <c r="AK140" s="24"/>
+      <c r="AL140" s="24"/>
+      <c r="AM140" s="24"/>
+      <c r="AN140" s="24"/>
+      <c r="AO140" s="52"/>
+      <c r="AP140" s="25"/>
+      <c r="AQ140" s="73"/>
+      <c r="AR140" s="25"/>
+      <c r="AS140" s="25"/>
+      <c r="AT140" s="25"/>
+      <c r="AU140" s="25"/>
+      <c r="AV140" s="25"/>
+      <c r="AW140" s="25"/>
+      <c r="AX140" s="25"/>
+      <c r="AY140" s="25"/>
+      <c r="AZ140" s="25"/>
+      <c r="BA140" s="24"/>
+      <c r="BB140" s="25"/>
+      <c r="BC140" s="25"/>
+      <c r="BD140" s="25"/>
+      <c r="BE140" s="25"/>
+      <c r="BF140" s="25"/>
+      <c r="BG140" s="25"/>
+      <c r="BH140" s="25"/>
+      <c r="BI140" s="25"/>
+      <c r="BJ140" s="25"/>
+      <c r="BK140" s="25"/>
+      <c r="BL140" s="25"/>
+      <c r="BM140" s="25"/>
+      <c r="BN140" s="25"/>
+      <c r="BO140" s="24"/>
+      <c r="BP140" s="25"/>
+      <c r="BQ140" s="62"/>
+      <c r="BR140" s="21"/>
+      <c r="BS140" s="61"/>
     </row>
-    <row r="141" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F141" s="76"/>
       <c r="AQ141" s="74"/>
     </row>
-    <row r="142" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F142" s="76"/>
       <c r="AQ142" s="74"/>
     </row>
-    <row r="143" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F143" s="76"/>
       <c r="AQ143" s="74"/>
     </row>
-    <row r="144" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F144" s="76"/>
       <c r="AQ144" s="74"/>
     </row>
@@ -29507,13 +32232,10 @@
       <c r="F208" s="76"/>
       <c r="AQ208" s="74"/>
     </row>
-    <row r="209" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F209" s="76"/>
-      <c r="AQ209" s="74"/>
-    </row>
-    <row r="210" spans="6:43" x14ac:dyDescent="0.15"/>
-    <row r="211" spans="6:43" x14ac:dyDescent="0.15"/>
-    <row r="212" spans="6:43" x14ac:dyDescent="0.15"/>
+    <row r="209" x14ac:dyDescent="0.15"/>
+    <row r="210" x14ac:dyDescent="0.15"/>
+    <row r="211" x14ac:dyDescent="0.15"/>
+    <row r="212" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AO1:BB1"/>
@@ -29527,30 +32249,33 @@
     <mergeCell ref="Y1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO126">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W94:X94 AA78:AA82 V78:Z80 Y81:Z82 W90:X91 V3:AA77 V81:X89 Y83:AB94 V92:X93 V95:AA140">
+      <formula1>"0,1,/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB82 M1 N3:N140 J3:K140 L1:L1048576 M3:M1048576 AZ3:AZ140">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:U72 R75:U79 BA3:BA140 AD3:AD140">
+      <formula1>"1,2,3,4,5,/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO140">
       <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W94:X94 AA78:AA82 V78:Z80 Y81:Z82 W90:X91 V3:AA77 V81:X89 Y83:AB94 V92:X93 V95:AA126">
-      <formula1>"0,1,/"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C140">
+      <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员,PLUS会员[使用]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K126 N3:N126 AB3:AB82 L1:L1048576 M1 M3:M1048576">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C126">
-      <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O126 G3:I126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O140 G3:I140">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E140">
       <formula1>"android客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:U72 BA3:BA126 R75:U79 AD3:AD126">
-      <formula1>"1,2,3,4,5,/"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC2 AC141:AC1048576">
+      <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC1048576">
-      <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC140">
+      <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动,/"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29567,75 +32292,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -29657,75 +32382,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="257">
   <si>
     <t>客户信息</t>
   </si>
@@ -565,9 +565,6 @@
     <t>2016/3/26 14:00:00</t>
   </si>
   <si>
-    <t>2016/4/30 14:00:00</t>
-  </si>
-  <si>
     <t>海尔(Haier)65升空气能热水器(一体壁挂式)智能APP远程遥控电热水器KG15/65-AE3-U1</t>
   </si>
   <si>
@@ -975,6 +972,85 @@
     <t>/</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>配送员安装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/4/30 14:00:00</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/11/30 18:30:00</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/12/4  14:17:00</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量问题</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1121,7 +1197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1548,16 +1624,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1572,7 +1678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1762,9 +1868,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1859,6 +1962,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2208,11 +2320,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FZ212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AT102" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="Y103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS122" sqref="BS122"/>
+      <selection pane="bottomRight" activeCell="Y120" sqref="Y120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -2222,7 +2334,7 @@
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="76" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="75" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="4" customWidth="1"/>
     <col min="8" max="9" width="8.125" style="4" customWidth="1"/>
     <col min="10" max="13" width="8.125" style="1" customWidth="1"/>
@@ -2243,7 +2355,7 @@
     <col min="40" max="40" width="7.125" style="1" customWidth="1"/>
     <col min="41" max="41" width="49.125" style="1" customWidth="1"/>
     <col min="42" max="42" width="9" style="1" customWidth="1"/>
-    <col min="43" max="43" width="5.125" style="74" customWidth="1"/>
+    <col min="43" max="43" width="8" style="73" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9" style="1" customWidth="1"/>
     <col min="45" max="45" width="7.625" style="1" customWidth="1"/>
     <col min="46" max="46" width="7.125" style="1" customWidth="1"/>
@@ -2268,97 +2380,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65"/>
-      <c r="B1" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="95"/>
-      <c r="AO1" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="82" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="94"/>
+      <c r="AO1" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="81"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
-      <c r="BK1" s="84"/>
-      <c r="BL1" s="85"/>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="67" t="s">
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="83"/>
+      <c r="BJ1" s="83"/>
+      <c r="BK1" s="83"/>
+      <c r="BL1" s="84"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="BQ1" s="86" t="s">
+      <c r="BQ1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="BR1" s="84"/>
-      <c r="BS1" s="85"/>
+      <c r="BR1" s="83"/>
+      <c r="BS1" s="84"/>
     </row>
     <row r="2" spans="1:71" s="3" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -2376,7 +2488,7 @@
       <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -2398,19 +2510,19 @@
         <v>20</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N2" s="29" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q2" s="66" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="Q2" s="65" t="s">
+        <v>163</v>
       </c>
       <c r="R2" s="30" t="s">
         <v>22</v>
@@ -2419,7 +2531,7 @@
         <v>23</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U2" s="30" t="s">
         <v>24</v>
@@ -2440,7 +2552,7 @@
         <v>29</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB2" s="33" t="s">
         <v>30</v>
@@ -2452,7 +2564,7 @@
         <v>32</v>
       </c>
       <c r="AE2" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF2" s="33" t="s">
         <v>33</v>
@@ -2487,13 +2599,13 @@
       <c r="AP2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="69" t="s">
+      <c r="AQ2" s="68" t="s">
         <v>44</v>
       </c>
       <c r="AR2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="68" t="s">
+      <c r="AS2" s="67" t="s">
         <v>46</v>
       </c>
       <c r="AT2" s="53" t="s">
@@ -2524,7 +2636,7 @@
         <v>55</v>
       </c>
       <c r="BC2" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BD2" s="55" t="s">
         <v>56</v>
@@ -2702,7 +2814,7 @@
       <c r="AP3" s="12">
         <v>0</v>
       </c>
-      <c r="AQ3" s="70" t="s">
+      <c r="AQ3" s="69" t="s">
         <v>76</v>
       </c>
       <c r="AR3" s="12">
@@ -2918,7 +3030,7 @@
       <c r="AP4" s="17">
         <v>0</v>
       </c>
-      <c r="AQ4" s="71" t="s">
+      <c r="AQ4" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR4" s="17">
@@ -3054,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="17">
         <v>2</v>
@@ -3134,7 +3246,7 @@
       <c r="AP5" s="17">
         <v>0</v>
       </c>
-      <c r="AQ5" s="71" t="s">
+      <c r="AQ5" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR5" s="17">
@@ -3350,7 +3462,7 @@
       <c r="AP6" s="17">
         <v>0</v>
       </c>
-      <c r="AQ6" s="71" t="s">
+      <c r="AQ6" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR6" s="17">
@@ -3566,7 +3678,7 @@
       <c r="AP7" s="17">
         <v>0</v>
       </c>
-      <c r="AQ7" s="71" t="s">
+      <c r="AQ7" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR7" s="17">
@@ -3782,7 +3894,7 @@
       <c r="AP8" s="17">
         <v>0</v>
       </c>
-      <c r="AQ8" s="71" t="s">
+      <c r="AQ8" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR8" s="17">
@@ -3998,7 +4110,7 @@
       <c r="AP9" s="17">
         <v>0</v>
       </c>
-      <c r="AQ9" s="71" t="s">
+      <c r="AQ9" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR9" s="17">
@@ -4134,7 +4246,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="17">
         <v>4</v>
@@ -4214,7 +4326,7 @@
       <c r="AP10" s="17">
         <v>0</v>
       </c>
-      <c r="AQ10" s="71" t="s">
+      <c r="AQ10" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR10" s="17">
@@ -4430,7 +4542,7 @@
       <c r="AP11" s="17">
         <v>0</v>
       </c>
-      <c r="AQ11" s="71" t="s">
+      <c r="AQ11" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR11" s="17">
@@ -4646,7 +4758,7 @@
       <c r="AP12" s="17">
         <v>0</v>
       </c>
-      <c r="AQ12" s="71" t="s">
+      <c r="AQ12" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR12" s="17">
@@ -4862,7 +4974,7 @@
       <c r="AP13" s="17">
         <v>0</v>
       </c>
-      <c r="AQ13" s="71" t="s">
+      <c r="AQ13" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR13" s="17">
@@ -5078,7 +5190,7 @@
       <c r="AP14" s="17">
         <v>0</v>
       </c>
-      <c r="AQ14" s="71" t="s">
+      <c r="AQ14" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR14" s="17">
@@ -5253,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD15" s="17">
         <v>5</v>
@@ -5294,7 +5406,7 @@
       <c r="AP15" s="17">
         <v>0</v>
       </c>
-      <c r="AQ15" s="71" t="s">
+      <c r="AQ15" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR15" s="17">
@@ -5430,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="17">
         <v>3</v>
@@ -5469,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD16" s="17">
         <v>1</v>
@@ -5510,7 +5622,7 @@
       <c r="AP16" s="17">
         <v>0</v>
       </c>
-      <c r="AQ16" s="71" t="s">
+      <c r="AQ16" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR16" s="17">
@@ -5685,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD17" s="17">
         <v>2</v>
@@ -5726,7 +5838,7 @@
       <c r="AP17" s="17">
         <v>0</v>
       </c>
-      <c r="AQ17" s="71" t="s">
+      <c r="AQ17" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR17" s="17">
@@ -5942,7 +6054,7 @@
       <c r="AP18" s="17">
         <v>0</v>
       </c>
-      <c r="AQ18" s="71" t="s">
+      <c r="AQ18" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR18" s="17">
@@ -6158,7 +6270,7 @@
       <c r="AP19" s="17">
         <v>0</v>
       </c>
-      <c r="AQ19" s="71" t="s">
+      <c r="AQ19" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR19" s="17">
@@ -6374,7 +6486,7 @@
       <c r="AP20" s="17">
         <v>0</v>
       </c>
-      <c r="AQ20" s="71" t="s">
+      <c r="AQ20" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR20" s="17">
@@ -6590,7 +6702,7 @@
       <c r="AP21" s="17">
         <v>0</v>
       </c>
-      <c r="AQ21" s="71" t="s">
+      <c r="AQ21" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR21" s="17">
@@ -6806,7 +6918,7 @@
       <c r="AP22" s="17">
         <v>0</v>
       </c>
-      <c r="AQ22" s="71" t="s">
+      <c r="AQ22" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR22" s="17">
@@ -7022,7 +7134,7 @@
       <c r="AP23" s="17">
         <v>0</v>
       </c>
-      <c r="AQ23" s="71" t="s">
+      <c r="AQ23" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR23" s="17">
@@ -7197,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD24" s="17">
         <v>1</v>
@@ -7238,7 +7350,7 @@
       <c r="AP24" s="17">
         <v>0</v>
       </c>
-      <c r="AQ24" s="71" t="s">
+      <c r="AQ24" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR24" s="17">
@@ -7454,7 +7566,7 @@
       <c r="AP25" s="17">
         <v>0</v>
       </c>
-      <c r="AQ25" s="71" t="s">
+      <c r="AQ25" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR25" s="17">
@@ -7670,7 +7782,7 @@
       <c r="AP26" s="17">
         <v>0</v>
       </c>
-      <c r="AQ26" s="71" t="s">
+      <c r="AQ26" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR26" s="17">
@@ -7886,7 +7998,7 @@
       <c r="AP27" s="17">
         <v>0</v>
       </c>
-      <c r="AQ27" s="71" t="s">
+      <c r="AQ27" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR27" s="17">
@@ -8102,7 +8214,7 @@
       <c r="AP28" s="17">
         <v>0</v>
       </c>
-      <c r="AQ28" s="71" t="s">
+      <c r="AQ28" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR28" s="17">
@@ -8318,7 +8430,7 @@
       <c r="AP29" s="17">
         <v>0</v>
       </c>
-      <c r="AQ29" s="71" t="s">
+      <c r="AQ29" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR29" s="17">
@@ -8534,7 +8646,7 @@
       <c r="AP30" s="17">
         <v>0</v>
       </c>
-      <c r="AQ30" s="71" t="s">
+      <c r="AQ30" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR30" s="17">
@@ -8750,7 +8862,7 @@
       <c r="AP31" s="17">
         <v>0</v>
       </c>
-      <c r="AQ31" s="71" t="s">
+      <c r="AQ31" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR31" s="21">
@@ -8966,7 +9078,7 @@
       <c r="AP32" s="17">
         <v>0</v>
       </c>
-      <c r="AQ32" s="71" t="s">
+      <c r="AQ32" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR32" s="17">
@@ -9182,7 +9294,7 @@
       <c r="AP33" s="17">
         <v>0</v>
       </c>
-      <c r="AQ33" s="71" t="s">
+      <c r="AQ33" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR33" s="17">
@@ -9318,7 +9430,7 @@
         <v>3</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q34" s="21">
         <v>3</v>
@@ -9357,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD34" s="16" t="s">
         <v>112</v>
@@ -9398,7 +9510,7 @@
       <c r="AP34" s="17">
         <v>0</v>
       </c>
-      <c r="AQ34" s="71" t="s">
+      <c r="AQ34" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR34" s="17">
@@ -9614,7 +9726,7 @@
       <c r="AP35" s="17">
         <v>0</v>
       </c>
-      <c r="AQ35" s="71" t="s">
+      <c r="AQ35" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR35" s="21">
@@ -9789,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD36" s="35" t="s">
         <v>106</v>
@@ -9830,7 +9942,7 @@
       <c r="AP36" s="21">
         <v>1</v>
       </c>
-      <c r="AQ36" s="72">
+      <c r="AQ36" s="71">
         <v>100</v>
       </c>
       <c r="AR36" s="21">
@@ -10046,7 +10158,7 @@
       <c r="AP37" s="21">
         <v>0</v>
       </c>
-      <c r="AQ37" s="72" t="s">
+      <c r="AQ37" s="71" t="s">
         <v>76</v>
       </c>
       <c r="AR37" s="21">
@@ -10262,7 +10374,7 @@
       <c r="AP38" s="17">
         <v>0</v>
       </c>
-      <c r="AQ38" s="71" t="s">
+      <c r="AQ38" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR38" s="17">
@@ -10478,7 +10590,7 @@
       <c r="AP39" s="17">
         <v>0</v>
       </c>
-      <c r="AQ39" s="71" t="s">
+      <c r="AQ39" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR39" s="17">
@@ -10694,7 +10806,7 @@
       <c r="AP40" s="21">
         <v>0</v>
       </c>
-      <c r="AQ40" s="72" t="s">
+      <c r="AQ40" s="71" t="s">
         <v>76</v>
       </c>
       <c r="AR40" s="21">
@@ -10910,7 +11022,7 @@
       <c r="AP41" s="17">
         <v>0</v>
       </c>
-      <c r="AQ41" s="71" t="s">
+      <c r="AQ41" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR41" s="17">
@@ -11126,7 +11238,7 @@
       <c r="AP42" s="17">
         <v>0</v>
       </c>
-      <c r="AQ42" s="71" t="s">
+      <c r="AQ42" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR42" s="17">
@@ -11301,7 +11413,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD43" s="35" t="s">
         <v>106</v>
@@ -11342,7 +11454,7 @@
       <c r="AP43" s="17">
         <v>0</v>
       </c>
-      <c r="AQ43" s="71" t="s">
+      <c r="AQ43" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR43" s="17">
@@ -11558,7 +11670,7 @@
       <c r="AP44" s="17">
         <v>0</v>
       </c>
-      <c r="AQ44" s="71" t="s">
+      <c r="AQ44" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR44" s="17">
@@ -11733,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD45" s="39" t="s">
         <v>102</v>
@@ -11774,7 +11886,7 @@
       <c r="AP45" s="17">
         <v>0</v>
       </c>
-      <c r="AQ45" s="71" t="s">
+      <c r="AQ45" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR45" s="17">
@@ -11990,7 +12102,7 @@
       <c r="AP46" s="17">
         <v>0</v>
       </c>
-      <c r="AQ46" s="71" t="s">
+      <c r="AQ46" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR46" s="17">
@@ -12165,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD47" s="39" t="s">
         <v>113</v>
@@ -12206,7 +12318,7 @@
       <c r="AP47" s="17">
         <v>0</v>
       </c>
-      <c r="AQ47" s="71" t="s">
+      <c r="AQ47" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR47" s="17">
@@ -12381,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD48" s="41" t="s">
         <v>103</v>
@@ -12422,7 +12534,7 @@
       <c r="AP48" s="17">
         <v>0</v>
       </c>
-      <c r="AQ48" s="71" t="s">
+      <c r="AQ48" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR48" s="17">
@@ -12638,7 +12750,7 @@
       <c r="AP49" s="17">
         <v>0</v>
       </c>
-      <c r="AQ49" s="71" t="s">
+      <c r="AQ49" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR49" s="17">
@@ -12813,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD50" s="35" t="s">
         <v>103</v>
@@ -12854,7 +12966,7 @@
       <c r="AP50" s="17">
         <v>0</v>
       </c>
-      <c r="AQ50" s="71" t="s">
+      <c r="AQ50" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR50" s="17">
@@ -13029,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD51" s="16" t="s">
         <v>103</v>
@@ -13070,7 +13182,7 @@
       <c r="AP51" s="17">
         <v>0</v>
       </c>
-      <c r="AQ51" s="71" t="s">
+      <c r="AQ51" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR51" s="17">
@@ -13245,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD52" s="42" t="s">
         <v>113</v>
@@ -13286,7 +13398,7 @@
       <c r="AP52" s="17">
         <v>0</v>
       </c>
-      <c r="AQ52" s="71" t="s">
+      <c r="AQ52" s="70" t="s">
         <v>76</v>
       </c>
       <c r="AR52" s="17">
@@ -13502,7 +13614,7 @@
       <c r="AP53" s="21">
         <v>0</v>
       </c>
-      <c r="AQ53" s="72" t="s">
+      <c r="AQ53" s="71" t="s">
         <v>76</v>
       </c>
       <c r="AR53" s="21">
@@ -13718,7 +13830,7 @@
       <c r="AP54" s="25">
         <v>0</v>
       </c>
-      <c r="AQ54" s="73" t="s">
+      <c r="AQ54" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR54" s="25">
@@ -13934,7 +14046,7 @@
       <c r="AP55" s="25">
         <v>0</v>
       </c>
-      <c r="AQ55" s="73" t="s">
+      <c r="AQ55" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR55" s="25">
@@ -14150,7 +14262,7 @@
       <c r="AP56" s="25">
         <v>0</v>
       </c>
-      <c r="AQ56" s="73" t="s">
+      <c r="AQ56" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR56" s="25">
@@ -14366,7 +14478,7 @@
       <c r="AP57" s="25">
         <v>0</v>
       </c>
-      <c r="AQ57" s="73" t="s">
+      <c r="AQ57" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR57" s="25">
@@ -14582,7 +14694,7 @@
       <c r="AP58" s="25">
         <v>0</v>
       </c>
-      <c r="AQ58" s="73" t="s">
+      <c r="AQ58" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR58" s="25">
@@ -14798,7 +14910,7 @@
       <c r="AP59" s="25">
         <v>0</v>
       </c>
-      <c r="AQ59" s="73" t="s">
+      <c r="AQ59" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR59" s="25">
@@ -15014,7 +15126,7 @@
       <c r="AP60" s="25">
         <v>0</v>
       </c>
-      <c r="AQ60" s="73" t="s">
+      <c r="AQ60" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR60" s="25">
@@ -15230,7 +15342,7 @@
       <c r="AP61" s="25">
         <v>0</v>
       </c>
-      <c r="AQ61" s="73" t="s">
+      <c r="AQ61" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR61" s="25">
@@ -15446,7 +15558,7 @@
       <c r="AP62" s="25">
         <v>0</v>
       </c>
-      <c r="AQ62" s="73" t="s">
+      <c r="AQ62" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR62" s="25">
@@ -15662,7 +15774,7 @@
       <c r="AP63" s="25">
         <v>0</v>
       </c>
-      <c r="AQ63" s="73" t="s">
+      <c r="AQ63" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR63" s="25">
@@ -15878,7 +15990,7 @@
       <c r="AP64" s="25">
         <v>0</v>
       </c>
-      <c r="AQ64" s="73" t="s">
+      <c r="AQ64" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR64" s="25">
@@ -16053,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD65" s="25">
         <v>3</v>
@@ -16094,7 +16206,7 @@
       <c r="AP65" s="25">
         <v>0</v>
       </c>
-      <c r="AQ65" s="73" t="s">
+      <c r="AQ65" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR65" s="25">
@@ -16269,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD66" s="25">
         <v>3</v>
@@ -16310,7 +16422,7 @@
       <c r="AP66" s="25">
         <v>0</v>
       </c>
-      <c r="AQ66" s="73" t="s">
+      <c r="AQ66" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR66" s="25">
@@ -16341,7 +16453,7 @@
         <v>1</v>
       </c>
       <c r="BA66" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BB66" s="25">
         <v>3</v>
@@ -16485,7 +16597,7 @@
         <v>1</v>
       </c>
       <c r="AC67" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD67" s="25">
         <v>1</v>
@@ -16526,7 +16638,7 @@
       <c r="AP67" s="25">
         <v>0</v>
       </c>
-      <c r="AQ67" s="73" t="s">
+      <c r="AQ67" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR67" s="25">
@@ -16742,7 +16854,7 @@
       <c r="AP68" s="25">
         <v>0</v>
       </c>
-      <c r="AQ68" s="73" t="s">
+      <c r="AQ68" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR68" s="25">
@@ -16878,7 +16990,7 @@
         <v>3</v>
       </c>
       <c r="P69" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q69" s="25">
         <v>3</v>
@@ -16917,7 +17029,7 @@
         <v>1</v>
       </c>
       <c r="AC69" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD69" s="25">
         <v>1</v>
@@ -16958,7 +17070,7 @@
       <c r="AP69" s="25">
         <v>0</v>
       </c>
-      <c r="AQ69" s="73" t="s">
+      <c r="AQ69" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR69" s="25">
@@ -17174,7 +17286,7 @@
       <c r="AP70" s="25">
         <v>0</v>
       </c>
-      <c r="AQ70" s="73" t="s">
+      <c r="AQ70" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR70" s="25">
@@ -17349,7 +17461,7 @@
         <v>1</v>
       </c>
       <c r="AC71" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD71" s="24" t="s">
         <v>112</v>
@@ -17390,7 +17502,7 @@
       <c r="AP71" s="25">
         <v>0</v>
       </c>
-      <c r="AQ71" s="73" t="s">
+      <c r="AQ71" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR71" s="25">
@@ -17421,7 +17533,7 @@
         <v>1</v>
       </c>
       <c r="BA71" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BB71" s="25">
         <v>3</v>
@@ -17606,7 +17718,7 @@
       <c r="AP72" s="25">
         <v>0</v>
       </c>
-      <c r="AQ72" s="73" t="s">
+      <c r="AQ72" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR72" s="25">
@@ -17822,7 +17934,7 @@
       <c r="AP73" s="25">
         <v>0</v>
       </c>
-      <c r="AQ73" s="73" t="s">
+      <c r="AQ73" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR73" s="25">
@@ -18038,7 +18150,7 @@
       <c r="AP74" s="25">
         <v>0</v>
       </c>
-      <c r="AQ74" s="73" t="s">
+      <c r="AQ74" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR74" s="25">
@@ -18254,7 +18366,7 @@
       <c r="AP75" s="25">
         <v>0</v>
       </c>
-      <c r="AQ75" s="73" t="s">
+      <c r="AQ75" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR75" s="25">
@@ -18470,7 +18582,7 @@
       <c r="AP76" s="25">
         <v>0</v>
       </c>
-      <c r="AQ76" s="73" t="s">
+      <c r="AQ76" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR76" s="25">
@@ -18686,7 +18798,7 @@
       <c r="AP77" s="25">
         <v>0</v>
       </c>
-      <c r="AQ77" s="73" t="s">
+      <c r="AQ77" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR77" s="25">
@@ -18902,7 +19014,7 @@
       <c r="AP78" s="25">
         <v>0</v>
       </c>
-      <c r="AQ78" s="73" t="s">
+      <c r="AQ78" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR78" s="25">
@@ -19118,7 +19230,7 @@
       <c r="AP79" s="25">
         <v>0</v>
       </c>
-      <c r="AQ79" s="73" t="s">
+      <c r="AQ79" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR79" s="25">
@@ -19293,10 +19405,10 @@
         <v>1</v>
       </c>
       <c r="AC80" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD80" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="AD80" s="24" t="s">
-        <v>176</v>
       </c>
       <c r="AE80" s="25">
         <v>0</v>
@@ -19320,13 +19432,13 @@
         <v>118</v>
       </c>
       <c r="AL80" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM80" s="24" t="s">
         <v>112</v>
       </c>
       <c r="AN80" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO80" s="52" t="s">
         <v>137</v>
@@ -19334,7 +19446,7 @@
       <c r="AP80" s="25">
         <v>0</v>
       </c>
-      <c r="AQ80" s="73" t="s">
+      <c r="AQ80" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR80" s="25">
@@ -19509,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD81" s="24" t="s">
         <v>112</v>
@@ -19550,7 +19662,7 @@
       <c r="AP81" s="25">
         <v>0</v>
       </c>
-      <c r="AQ81" s="73" t="s">
+      <c r="AQ81" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR81" s="25">
@@ -19725,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD82" s="24" t="s">
         <v>103</v>
@@ -19766,7 +19878,7 @@
       <c r="AP82" s="25">
         <v>0</v>
       </c>
-      <c r="AQ82" s="73" t="s">
+      <c r="AQ82" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR82" s="25">
@@ -19797,7 +19909,7 @@
         <v>1</v>
       </c>
       <c r="BA82" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BB82" s="25">
         <v>3</v>
@@ -19982,7 +20094,7 @@
       <c r="AP83" s="25">
         <v>0</v>
       </c>
-      <c r="AQ83" s="73" t="s">
+      <c r="AQ83" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR83" s="25">
@@ -20198,7 +20310,7 @@
       <c r="AP84" s="25">
         <v>0</v>
       </c>
-      <c r="AQ84" s="73" t="s">
+      <c r="AQ84" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR84" s="25">
@@ -20484,8 +20596,8 @@
       <c r="AC85" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="AD85" s="64" t="s">
-        <v>162</v>
+      <c r="AD85" s="63" t="s">
+        <v>161</v>
       </c>
       <c r="AE85" s="25">
         <v>0</v>
@@ -20508,8 +20620,8 @@
       <c r="AK85" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AL85" s="64" t="s">
-        <v>161</v>
+      <c r="AL85" s="63" t="s">
+        <v>160</v>
       </c>
       <c r="AM85" s="24" t="s">
         <v>102</v>
@@ -20523,7 +20635,7 @@
       <c r="AP85" s="25">
         <v>0</v>
       </c>
-      <c r="AQ85" s="73" t="s">
+      <c r="AQ85" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR85" s="25">
@@ -20836,8 +20948,8 @@
       <c r="AL86" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="AM86" s="64" t="s">
-        <v>163</v>
+      <c r="AM86" s="63" t="s">
+        <v>162</v>
       </c>
       <c r="AN86" s="24" t="s">
         <v>118</v>
@@ -21132,7 +21244,7 @@
         <v>1</v>
       </c>
       <c r="AC87" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD87" s="24" t="s">
         <v>103</v>
@@ -21162,7 +21274,7 @@
         <v>103</v>
       </c>
       <c r="AM87" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN87" s="24" t="s">
         <v>118</v>
@@ -21173,7 +21285,7 @@
       <c r="AP87" s="25">
         <v>0</v>
       </c>
-      <c r="AQ87" s="73" t="s">
+      <c r="AQ87" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR87" s="25">
@@ -21498,7 +21610,7 @@
       <c r="AP88" s="25">
         <v>0</v>
       </c>
-      <c r="AQ88" s="73" t="s">
+      <c r="AQ88" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR88" s="25">
@@ -21782,7 +21894,7 @@
         <v>1</v>
       </c>
       <c r="AC89" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD89" s="24" t="s">
         <v>103</v>
@@ -21823,7 +21935,7 @@
       <c r="AP89" s="25">
         <v>0</v>
       </c>
-      <c r="AQ89" s="73" t="s">
+      <c r="AQ89" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR89" s="25">
@@ -21854,7 +21966,7 @@
         <v>1</v>
       </c>
       <c r="BA89" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BB89" s="25">
         <v>3</v>
@@ -22148,7 +22260,7 @@
       <c r="AP90" s="25">
         <v>0</v>
       </c>
-      <c r="AQ90" s="73" t="s">
+      <c r="AQ90" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR90" s="25">
@@ -22473,7 +22585,7 @@
       <c r="AP91" s="25">
         <v>0</v>
       </c>
-      <c r="AQ91" s="73" t="s">
+      <c r="AQ91" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR91" s="25">
@@ -22798,7 +22910,7 @@
       <c r="AP92" s="25">
         <v>0</v>
       </c>
-      <c r="AQ92" s="73" t="s">
+      <c r="AQ92" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR92" s="25">
@@ -23043,7 +23155,7 @@
         <v>3</v>
       </c>
       <c r="P93" s="24" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="Q93" s="25">
         <v>3</v>
@@ -23123,7 +23235,7 @@
       <c r="AP93" s="25">
         <v>0</v>
       </c>
-      <c r="AQ93" s="73" t="s">
+      <c r="AQ93" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR93" s="25">
@@ -23407,34 +23519,34 @@
         <v>1</v>
       </c>
       <c r="AC94" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AD94" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE94" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG94" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH94" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ94" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL94" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="AE94" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF94" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG94" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH94" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI94" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ94" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK94" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL94" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="AM94" s="24" t="s">
         <v>103</v>
@@ -23448,7 +23560,7 @@
       <c r="AP94" s="25">
         <v>0</v>
       </c>
-      <c r="AQ94" s="73" t="s">
+      <c r="AQ94" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR94" s="25">
@@ -23768,12 +23880,12 @@
         <v>76</v>
       </c>
       <c r="AO95" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AP95" s="25">
         <v>0</v>
       </c>
-      <c r="AQ95" s="73" t="s">
+      <c r="AQ95" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR95" s="25">
@@ -23972,7 +24084,7 @@
     </row>
     <row r="96" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="14">
-        <f t="shared" ref="A96:A139" si="7">A95+1</f>
+        <f t="shared" ref="A96:A132" si="7">A95+1</f>
         <v>94</v>
       </c>
       <c r="B96" s="23" t="s">
@@ -24057,7 +24169,7 @@
         <v>1</v>
       </c>
       <c r="AC96" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD96" s="24" t="s">
         <v>112</v>
@@ -24093,12 +24205,12 @@
         <v>103</v>
       </c>
       <c r="AO96" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AP96" s="25">
         <v>0</v>
       </c>
-      <c r="AQ96" s="73" t="s">
+      <c r="AQ96" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR96" s="25">
@@ -24418,12 +24530,12 @@
         <v>76</v>
       </c>
       <c r="AO97" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AP97" s="25">
         <v>0</v>
       </c>
-      <c r="AQ97" s="73" t="s">
+      <c r="AQ97" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR97" s="25">
@@ -24743,12 +24855,12 @@
         <v>76</v>
       </c>
       <c r="AO98" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AP98" s="25">
         <v>0</v>
       </c>
-      <c r="AQ98" s="73" t="s">
+      <c r="AQ98" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR98" s="25">
@@ -25068,12 +25180,12 @@
         <v>76</v>
       </c>
       <c r="AO99" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AP99" s="25">
         <v>0</v>
       </c>
-      <c r="AQ99" s="73" t="s">
+      <c r="AQ99" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR99" s="25">
@@ -25393,12 +25505,12 @@
         <v>76</v>
       </c>
       <c r="AO100" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AP100" s="25">
         <v>0</v>
       </c>
-      <c r="AQ100" s="73" t="s">
+      <c r="AQ100" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR100" s="25">
@@ -25682,7 +25794,7 @@
         <v>1</v>
       </c>
       <c r="AC101" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD101" s="24" t="s">
         <v>103</v>
@@ -25718,12 +25830,12 @@
         <v>118</v>
       </c>
       <c r="AO101" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AP101" s="25">
         <v>0</v>
       </c>
-      <c r="AQ101" s="73" t="s">
+      <c r="AQ101" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR101" s="25">
@@ -26043,12 +26155,12 @@
         <v>76</v>
       </c>
       <c r="AO102" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AP102" s="25">
         <v>0</v>
       </c>
-      <c r="AQ102" s="73" t="s">
+      <c r="AQ102" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR102" s="25">
@@ -26142,7 +26254,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>85</v>
@@ -26184,7 +26296,7 @@
         <v>3</v>
       </c>
       <c r="P103" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q103" s="25">
         <v>5</v>
@@ -26259,12 +26371,12 @@
         <v>76</v>
       </c>
       <c r="AO103" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP103" s="25">
         <v>0</v>
       </c>
-      <c r="AQ103" s="73" t="s">
+      <c r="AQ103" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR103" s="25">
@@ -26295,34 +26407,34 @@
         <v>0</v>
       </c>
       <c r="BA103" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB103" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC103" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD103" s="25">
+        <v>5</v>
+      </c>
+      <c r="BE103" s="25">
+        <v>5</v>
+      </c>
+      <c r="BF103" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG103" s="25">
+        <v>5</v>
+      </c>
+      <c r="BH103" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI103" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ103" s="25" t="s">
         <v>182</v>
-      </c>
-      <c r="BB103" s="25">
-        <v>3</v>
-      </c>
-      <c r="BC103" s="25">
-        <v>5</v>
-      </c>
-      <c r="BD103" s="25">
-        <v>5</v>
-      </c>
-      <c r="BE103" s="25">
-        <v>5</v>
-      </c>
-      <c r="BF103" s="25">
-        <v>3</v>
-      </c>
-      <c r="BG103" s="25">
-        <v>5</v>
-      </c>
-      <c r="BH103" s="25">
-        <v>5</v>
-      </c>
-      <c r="BI103" s="25">
-        <v>5</v>
-      </c>
-      <c r="BJ103" s="25" t="s">
-        <v>183</v>
       </c>
       <c r="BK103" s="25">
         <v>5</v>
@@ -26358,7 +26470,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>73</v>
@@ -26475,12 +26587,12 @@
         <v>76</v>
       </c>
       <c r="AO104" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP104" s="25">
         <v>0</v>
       </c>
-      <c r="AQ104" s="73" t="s">
+      <c r="AQ104" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR104" s="25">
@@ -26511,34 +26623,34 @@
         <v>0</v>
       </c>
       <c r="BA104" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB104" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC104" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD104" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE104" s="25">
+        <v>5</v>
+      </c>
+      <c r="BF104" s="25">
+        <v>4</v>
+      </c>
+      <c r="BG104" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH104" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI104" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ104" s="25" t="s">
         <v>185</v>
-      </c>
-      <c r="BB104" s="25">
-        <v>3</v>
-      </c>
-      <c r="BC104" s="25">
-        <v>4</v>
-      </c>
-      <c r="BD104" s="25">
-        <v>4</v>
-      </c>
-      <c r="BE104" s="25">
-        <v>5</v>
-      </c>
-      <c r="BF104" s="25">
-        <v>4</v>
-      </c>
-      <c r="BG104" s="25">
-        <v>3</v>
-      </c>
-      <c r="BH104" s="25">
-        <v>3</v>
-      </c>
-      <c r="BI104" s="25">
-        <v>3</v>
-      </c>
-      <c r="BJ104" s="25" t="s">
-        <v>186</v>
       </c>
       <c r="BK104" s="25">
         <v>4</v>
@@ -26616,7 +26728,7 @@
         <v>4</v>
       </c>
       <c r="P105" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q105" s="25">
         <v>5</v>
@@ -26691,12 +26803,12 @@
         <v>76</v>
       </c>
       <c r="AO105" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP105" s="25">
         <v>0</v>
       </c>
-      <c r="AQ105" s="73" t="s">
+      <c r="AQ105" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR105" s="25">
@@ -26727,7 +26839,7 @@
         <v>0</v>
       </c>
       <c r="BA105" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BB105" s="25">
         <v>3</v>
@@ -26754,7 +26866,7 @@
         <v>5</v>
       </c>
       <c r="BJ105" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BK105" s="25">
         <v>5</v>
@@ -26790,7 +26902,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>85</v>
@@ -26832,7 +26944,7 @@
         <v>5</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q106" s="25">
         <v>5</v>
@@ -26907,12 +27019,12 @@
         <v>76</v>
       </c>
       <c r="AO106" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP106" s="25">
         <v>0</v>
       </c>
-      <c r="AQ106" s="73" t="s">
+      <c r="AQ106" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR106" s="25">
@@ -27006,7 +27118,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>90</v>
@@ -27048,7 +27160,7 @@
         <v>3</v>
       </c>
       <c r="P107" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q107" s="25">
         <v>3</v>
@@ -27123,12 +27235,12 @@
         <v>76</v>
       </c>
       <c r="AO107" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP107" s="25">
         <v>0</v>
       </c>
-      <c r="AQ107" s="73" t="s">
+      <c r="AQ107" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR107" s="25">
@@ -27225,7 +27337,7 @@
         <v>76</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D108" s="25">
         <v>2039</v>
@@ -27264,7 +27376,7 @@
         <v>5</v>
       </c>
       <c r="P108" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q108" s="25">
         <v>5</v>
@@ -27339,12 +27451,12 @@
         <v>76</v>
       </c>
       <c r="AO108" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP108" s="25">
         <v>0</v>
       </c>
-      <c r="AQ108" s="73" t="s">
+      <c r="AQ108" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR108" s="25">
@@ -27480,7 +27592,7 @@
         <v>5</v>
       </c>
       <c r="P109" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q109" s="25">
         <v>5</v>
@@ -27555,12 +27667,12 @@
         <v>76</v>
       </c>
       <c r="AO109" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP109" s="25">
         <v>0</v>
       </c>
-      <c r="AQ109" s="73" t="s">
+      <c r="AQ109" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR109" s="25">
@@ -27591,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="BA109" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BB109" s="25">
         <v>3</v>
@@ -27618,7 +27730,7 @@
         <v>5</v>
       </c>
       <c r="BJ109" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BK109" s="25">
         <v>4</v>
@@ -27654,7 +27766,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>85</v>
@@ -27696,7 +27808,7 @@
         <v>3</v>
       </c>
       <c r="P110" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q110" s="25">
         <v>5</v>
@@ -27771,12 +27883,12 @@
         <v>76</v>
       </c>
       <c r="AO110" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP110" s="25">
         <v>0</v>
       </c>
-      <c r="AQ110" s="73" t="s">
+      <c r="AQ110" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR110" s="25">
@@ -27807,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="BA110" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BB110" s="25">
         <v>3</v>
@@ -27834,7 +27946,7 @@
         <v>3</v>
       </c>
       <c r="BJ110" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BK110" s="25">
         <v>4</v>
@@ -27870,7 +27982,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>99</v>
@@ -27912,7 +28024,7 @@
         <v>3</v>
       </c>
       <c r="P111" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q111" s="25">
         <v>5</v>
@@ -27987,12 +28099,12 @@
         <v>76</v>
       </c>
       <c r="AO111" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP111" s="25">
         <v>0</v>
       </c>
-      <c r="AQ111" s="73" t="s">
+      <c r="AQ111" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR111" s="25">
@@ -28023,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="BA111" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BB111" s="25">
         <v>3</v>
@@ -28050,7 +28162,7 @@
         <v>5</v>
       </c>
       <c r="BJ111" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BK111" s="25">
         <v>5</v>
@@ -28086,7 +28198,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>73</v>
@@ -28128,7 +28240,7 @@
         <v>3</v>
       </c>
       <c r="P112" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q112" s="25">
         <v>5</v>
@@ -28203,12 +28315,12 @@
         <v>76</v>
       </c>
       <c r="AO112" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AP112" s="25">
         <v>0</v>
       </c>
-      <c r="AQ112" s="73" t="s">
+      <c r="AQ112" s="72" t="s">
         <v>76</v>
       </c>
       <c r="AR112" s="25">
@@ -28239,34 +28351,34 @@
         <v>0</v>
       </c>
       <c r="BA112" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="BB112" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC112" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD112" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE112" s="25">
+        <v>2</v>
+      </c>
+      <c r="BF112" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG112" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH112" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI112" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ112" s="25" t="s">
         <v>197</v>
-      </c>
-      <c r="BB112" s="25">
-        <v>3</v>
-      </c>
-      <c r="BC112" s="25">
-        <v>3</v>
-      </c>
-      <c r="BD112" s="25">
-        <v>2</v>
-      </c>
-      <c r="BE112" s="25">
-        <v>2</v>
-      </c>
-      <c r="BF112" s="25">
-        <v>3</v>
-      </c>
-      <c r="BG112" s="25">
-        <v>3</v>
-      </c>
-      <c r="BH112" s="25">
-        <v>3</v>
-      </c>
-      <c r="BI112" s="25">
-        <v>3</v>
-      </c>
-      <c r="BJ112" s="25" t="s">
-        <v>198</v>
       </c>
       <c r="BK112" s="25">
         <v>2</v>
@@ -28344,25 +28456,25 @@
         <v>3</v>
       </c>
       <c r="P113" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q113" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R113" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S113" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T113" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U113" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V113" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W113" s="25">
         <v>1</v>
@@ -28386,52 +28498,52 @@
         <v>153</v>
       </c>
       <c r="AD113" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AE113" s="25">
         <v>0</v>
       </c>
       <c r="AF113" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG113" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH113" s="25">
         <v>0</v>
       </c>
       <c r="AI113" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ113" s="25">
         <v>1</v>
       </c>
       <c r="AK113" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL113" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM113" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="AM113" s="24" t="s">
-        <v>224</v>
-      </c>
       <c r="AN113" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO113" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP113" s="25">
         <v>1</v>
       </c>
-      <c r="AQ113" s="73">
+      <c r="AQ113" s="72">
         <v>300</v>
       </c>
       <c r="AR113" s="25">
         <v>0</v>
       </c>
       <c r="AS113" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AT113" s="25">
         <v>3</v>
@@ -28560,7 +28672,7 @@
         <v>3</v>
       </c>
       <c r="P114" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q114" s="25">
         <v>3</v>
@@ -28602,52 +28714,52 @@
         <v>87</v>
       </c>
       <c r="AD114" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE114" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG114" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH114" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI114" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ114" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK114" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL114" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM114" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN114" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="AE114" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF114" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG114" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH114" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI114" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ114" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK114" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL114" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM114" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN114" s="24" t="s">
-        <v>219</v>
-      </c>
       <c r="AO114" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP114" s="25">
         <v>0</v>
       </c>
-      <c r="AQ114" s="73" t="s">
-        <v>206</v>
+      <c r="AQ114" s="72" t="s">
+        <v>205</v>
       </c>
       <c r="AR114" s="25">
         <v>0</v>
       </c>
       <c r="AS114" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT114" s="25">
         <v>3</v>
@@ -28671,7 +28783,7 @@
         <v>0</v>
       </c>
       <c r="BA114" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BB114" s="25">
         <v>3</v>
@@ -28776,7 +28888,7 @@
         <v>3</v>
       </c>
       <c r="P115" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q115" s="25">
         <v>3</v>
@@ -28818,52 +28930,52 @@
         <v>76</v>
       </c>
       <c r="AD115" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE115" s="25">
         <v>0</v>
       </c>
       <c r="AF115" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG115" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH115" s="25">
         <v>0</v>
       </c>
       <c r="AI115" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ115" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="AJ115" s="25">
+        <v>0</v>
       </c>
       <c r="AK115" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL115" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM115" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN115" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO115" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP115" s="25">
         <v>0</v>
       </c>
-      <c r="AQ115" s="73" t="s">
-        <v>206</v>
+      <c r="AQ115" s="72" t="s">
+        <v>205</v>
       </c>
       <c r="AR115" s="25">
         <v>0</v>
       </c>
       <c r="AS115" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AT115" s="25">
         <v>3</v>
@@ -28914,7 +29026,7 @@
         <v>3</v>
       </c>
       <c r="BJ115" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BK115" s="25">
         <v>1</v>
@@ -28950,7 +29062,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>85</v>
@@ -28992,7 +29104,7 @@
         <v>2</v>
       </c>
       <c r="P116" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q116" s="25">
         <v>3</v>
@@ -29034,52 +29146,52 @@
         <v>87</v>
       </c>
       <c r="AD116" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE116" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="AE116" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF116" s="24" t="s">
-        <v>227</v>
-      </c>
       <c r="AG116" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH116" s="25">
         <v>0</v>
       </c>
       <c r="AI116" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ116" s="25" t="s">
-        <v>206</v>
+        <v>224</v>
+      </c>
+      <c r="AJ116" s="25">
+        <v>0</v>
       </c>
       <c r="AK116" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AL116" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM116" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN116" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO116" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP116" s="25">
         <v>0</v>
       </c>
-      <c r="AQ116" s="73" t="s">
-        <v>206</v>
+      <c r="AQ116" s="72" t="s">
+        <v>205</v>
       </c>
       <c r="AR116" s="25">
         <v>0</v>
       </c>
       <c r="AS116" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT116" s="25">
         <v>3</v>
@@ -29103,7 +29215,7 @@
         <v>0</v>
       </c>
       <c r="BA116" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BB116" s="25">
         <v>3</v>
@@ -29166,7 +29278,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>73</v>
@@ -29208,145 +29320,145 @@
         <v>4</v>
       </c>
       <c r="P117" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q117" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="R117" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="S117" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="T117" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="U117" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="V117" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="W117" s="25">
+        <v>1</v>
+      </c>
+      <c r="X117" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD117" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF117" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG117" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI117" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK117" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL117" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM117" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN117" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO117" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ117" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR117" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS117" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="AT117" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU117" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV117" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW117" s="25">
+        <v>2</v>
+      </c>
+      <c r="AX117" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY117" s="25">
+        <v>2</v>
+      </c>
+      <c r="AZ117" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA117" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="R117" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="S117" s="25" t="s">
+      <c r="BB117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC117" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD117" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG117" s="25">
+        <v>2</v>
+      </c>
+      <c r="BH117" s="25">
+        <v>4</v>
+      </c>
+      <c r="BI117" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ117" s="25" t="s">
         <v>206</v>
-      </c>
-      <c r="T117" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="U117" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="V117" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="W117" s="25">
-        <v>1</v>
-      </c>
-      <c r="X117" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y117" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z117" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA117" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB117" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC117" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD117" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE117" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF117" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG117" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH117" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI117" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ117" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK117" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL117" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM117" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN117" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO117" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP117" s="25">
-        <v>0</v>
-      </c>
-      <c r="AQ117" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR117" s="25">
-        <v>0</v>
-      </c>
-      <c r="AS117" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT117" s="25">
-        <v>3</v>
-      </c>
-      <c r="AU117" s="25">
-        <v>3</v>
-      </c>
-      <c r="AV117" s="25">
-        <v>3</v>
-      </c>
-      <c r="AW117" s="25">
-        <v>2</v>
-      </c>
-      <c r="AX117" s="25">
-        <v>3</v>
-      </c>
-      <c r="AY117" s="25">
-        <v>2</v>
-      </c>
-      <c r="AZ117" s="25">
-        <v>0</v>
-      </c>
-      <c r="BA117" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="BB117" s="25">
-        <v>3</v>
-      </c>
-      <c r="BC117" s="25">
-        <v>2</v>
-      </c>
-      <c r="BD117" s="25">
-        <v>2</v>
-      </c>
-      <c r="BE117" s="25">
-        <v>3</v>
-      </c>
-      <c r="BF117" s="25">
-        <v>3</v>
-      </c>
-      <c r="BG117" s="25">
-        <v>2</v>
-      </c>
-      <c r="BH117" s="25">
-        <v>4</v>
-      </c>
-      <c r="BI117" s="25">
-        <v>3</v>
-      </c>
-      <c r="BJ117" s="25" t="s">
-        <v>207</v>
       </c>
       <c r="BK117" s="25">
         <v>2</v>
@@ -29382,7 +29494,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>73</v>
@@ -29424,7 +29536,7 @@
         <v>2</v>
       </c>
       <c r="P118" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q118" s="25">
         <v>3</v>
@@ -29463,55 +29575,55 @@
         <v>0</v>
       </c>
       <c r="AC118" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD118" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE118" s="25">
         <v>0</v>
       </c>
       <c r="AF118" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG118" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH118" s="25">
         <v>0</v>
       </c>
       <c r="AI118" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ118" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="AJ118" s="25">
+        <v>0</v>
       </c>
       <c r="AK118" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL118" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM118" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN118" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO118" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP118" s="25">
         <v>0</v>
       </c>
-      <c r="AQ118" s="73" t="s">
-        <v>206</v>
+      <c r="AQ118" s="72" t="s">
+        <v>205</v>
       </c>
       <c r="AR118" s="25">
         <v>0</v>
       </c>
       <c r="AS118" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT118" s="25">
         <v>3</v>
@@ -29562,7 +29674,7 @@
         <v>1</v>
       </c>
       <c r="BJ118" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BK118" s="25">
         <v>3</v>
@@ -29640,7 +29752,7 @@
         <v>4</v>
       </c>
       <c r="P119" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q119" s="25">
         <v>3</v>
@@ -29679,55 +29791,55 @@
         <v>0</v>
       </c>
       <c r="AC119" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD119" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE119" s="25">
         <v>0</v>
       </c>
       <c r="AF119" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG119" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH119" s="25">
         <v>0</v>
       </c>
       <c r="AI119" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ119" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="AJ119" s="25">
+        <v>0</v>
       </c>
       <c r="AK119" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL119" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM119" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN119" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO119" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP119" s="25">
         <v>0</v>
       </c>
-      <c r="AQ119" s="73" t="s">
-        <v>206</v>
+      <c r="AQ119" s="72" t="s">
+        <v>205</v>
       </c>
       <c r="AR119" s="25">
         <v>0</v>
       </c>
       <c r="AS119" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AT119" s="25">
         <v>5</v>
@@ -29778,7 +29890,7 @@
         <v>5</v>
       </c>
       <c r="BJ119" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BK119" s="25">
         <v>4</v>
@@ -29856,7 +29968,7 @@
         <v>5</v>
       </c>
       <c r="P120" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q120" s="25">
         <v>3</v>
@@ -29895,55 +30007,55 @@
         <v>0</v>
       </c>
       <c r="AC120" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD120" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE120" s="25">
         <v>0</v>
       </c>
       <c r="AF120" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG120" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH120" s="25">
         <v>0</v>
       </c>
       <c r="AI120" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ120" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="AJ120" s="25">
+        <v>0</v>
       </c>
       <c r="AK120" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL120" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM120" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN120" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO120" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP120" s="25">
         <v>0</v>
       </c>
-      <c r="AQ120" s="73" t="s">
-        <v>206</v>
+      <c r="AQ120" s="72" t="s">
+        <v>205</v>
       </c>
       <c r="AR120" s="25">
         <v>0</v>
       </c>
       <c r="AS120" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT120" s="25">
         <v>3</v>
@@ -29994,7 +30106,7 @@
         <v>5</v>
       </c>
       <c r="BJ120" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BK120" s="25">
         <v>3</v>
@@ -30030,7 +30142,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C121" s="24" t="s">
         <v>85</v>
@@ -30072,7 +30184,7 @@
         <v>4</v>
       </c>
       <c r="P121" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q121" s="25">
         <v>3</v>
@@ -30111,55 +30223,55 @@
         <v>0</v>
       </c>
       <c r="AC121" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD121" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE121" s="25">
         <v>0</v>
       </c>
       <c r="AF121" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG121" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH121" s="25">
         <v>0</v>
       </c>
       <c r="AI121" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ121" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="AJ121" s="25">
+        <v>0</v>
       </c>
       <c r="AK121" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL121" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM121" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN121" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO121" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP121" s="25">
         <v>0</v>
       </c>
-      <c r="AQ121" s="73" t="s">
-        <v>206</v>
+      <c r="AQ121" s="72" t="s">
+        <v>205</v>
       </c>
       <c r="AR121" s="25">
         <v>0</v>
       </c>
       <c r="AS121" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AT121" s="25">
         <v>5</v>
@@ -30210,7 +30322,7 @@
         <v>3</v>
       </c>
       <c r="BJ121" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BK121" s="25">
         <v>4</v>
@@ -30288,7 +30400,7 @@
         <v>3</v>
       </c>
       <c r="P122" s="24" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="Q122" s="25">
         <v>3</v>
@@ -30330,52 +30442,52 @@
         <v>87</v>
       </c>
       <c r="AD122" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AE122" s="25">
         <v>0</v>
       </c>
       <c r="AF122" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG122" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH122" s="25">
         <v>0</v>
       </c>
       <c r="AI122" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ122" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="AJ122" s="25">
+        <v>0</v>
       </c>
       <c r="AK122" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL122" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM122" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN122" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO122" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP122" s="25">
         <v>0</v>
       </c>
-      <c r="AQ122" s="73" t="s">
-        <v>206</v>
+      <c r="AQ122" s="72" t="s">
+        <v>205</v>
       </c>
       <c r="AR122" s="25">
         <v>0</v>
       </c>
       <c r="AS122" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT122" s="25">
         <v>4</v>
@@ -30476,77 +30588,201 @@
       <c r="F123" s="26">
         <v>42685.3881944444</v>
       </c>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="25"/>
-      <c r="N123" s="25"/>
-      <c r="O123" s="25"/>
-      <c r="P123" s="24"/>
-      <c r="Q123" s="25"/>
-      <c r="R123" s="25"/>
-      <c r="S123" s="25"/>
-      <c r="T123" s="25"/>
-      <c r="U123" s="25"/>
-      <c r="V123" s="25"/>
-      <c r="W123" s="25"/>
-      <c r="X123" s="25"/>
-      <c r="Y123" s="25"/>
-      <c r="Z123" s="25"/>
-      <c r="AA123" s="25"/>
-      <c r="AB123" s="25"/>
-      <c r="AC123" s="24"/>
-      <c r="AD123" s="24"/>
-      <c r="AE123" s="25"/>
-      <c r="AF123" s="24"/>
-      <c r="AG123" s="24"/>
-      <c r="AH123" s="25"/>
-      <c r="AI123" s="24"/>
-      <c r="AJ123" s="25"/>
-      <c r="AK123" s="24"/>
-      <c r="AL123" s="24"/>
-      <c r="AM123" s="24"/>
-      <c r="AN123" s="24"/>
+      <c r="G123" s="25">
+        <v>4</v>
+      </c>
+      <c r="H123" s="25">
+        <v>3</v>
+      </c>
+      <c r="I123" s="25">
+        <v>3</v>
+      </c>
+      <c r="J123" s="25">
+        <v>1</v>
+      </c>
+      <c r="K123" s="25">
+        <v>1</v>
+      </c>
+      <c r="L123" s="25">
+        <v>1</v>
+      </c>
+      <c r="M123" s="25">
+        <v>0</v>
+      </c>
+      <c r="N123" s="25">
+        <v>1</v>
+      </c>
+      <c r="O123" s="25">
+        <v>3</v>
+      </c>
+      <c r="P123" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q123" s="25">
+        <v>3</v>
+      </c>
+      <c r="R123" s="25">
+        <v>3</v>
+      </c>
+      <c r="S123" s="25">
+        <v>1</v>
+      </c>
+      <c r="T123" s="25">
+        <v>2</v>
+      </c>
+      <c r="U123" s="25">
+        <v>1</v>
+      </c>
+      <c r="V123" s="25">
+        <v>1</v>
+      </c>
+      <c r="W123" s="25">
+        <v>1</v>
+      </c>
+      <c r="X123" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD123" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF123" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG123" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI123" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK123" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL123" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM123" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN123" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="AO123" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP123" s="25"/>
-      <c r="AQ123" s="73"/>
-      <c r="AR123" s="25"/>
-      <c r="AS123" s="25"/>
-      <c r="AT123" s="25"/>
-      <c r="AU123" s="25"/>
-      <c r="AV123" s="25"/>
-      <c r="AW123" s="25"/>
-      <c r="AX123" s="25"/>
-      <c r="AY123" s="25"/>
-      <c r="AZ123" s="25"/>
-      <c r="BA123" s="24"/>
-      <c r="BB123" s="25"/>
-      <c r="BC123" s="25"/>
-      <c r="BD123" s="25"/>
-      <c r="BE123" s="25"/>
-      <c r="BF123" s="25"/>
-      <c r="BG123" s="25"/>
-      <c r="BH123" s="25"/>
-      <c r="BI123" s="25"/>
-      <c r="BJ123" s="25"/>
-      <c r="BK123" s="25"/>
-      <c r="BL123" s="25"/>
-      <c r="BM123" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="AP123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ123" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS123" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT123" s="25">
+        <v>4</v>
+      </c>
+      <c r="AU123" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV123" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW123" s="25">
+        <v>4</v>
+      </c>
+      <c r="AX123" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY123" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ123" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA123" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB123" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC123" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD123" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE123" s="25">
+        <v>4</v>
+      </c>
+      <c r="BF123" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG123" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH123" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI123" s="25">
+        <v>2</v>
+      </c>
+      <c r="BJ123" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK123" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL123" s="25">
+        <v>4</v>
+      </c>
+      <c r="BM123" s="25">
+        <v>4</v>
+      </c>
       <c r="BN123" s="25">
         <v>5</v>
       </c>
       <c r="BO123" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="BP123" s="25"/>
-      <c r="BQ123" s="62"/>
-      <c r="BR123" s="21"/>
-      <c r="BS123" s="61"/>
+      <c r="BP123" s="25">
+        <v>2</v>
+      </c>
+      <c r="BQ123" s="62">
+        <v>3</v>
+      </c>
+      <c r="BR123" s="21">
+        <v>2</v>
+      </c>
+      <c r="BS123" s="61">
+        <v>3</v>
+      </c>
     </row>
     <row r="124" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="14">
@@ -30554,7 +30790,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>73</v>
@@ -30568,77 +30804,201 @@
       <c r="F124" s="26">
         <v>42689.795833333301</v>
       </c>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="25"/>
-      <c r="N124" s="25"/>
-      <c r="O124" s="25"/>
-      <c r="P124" s="24"/>
-      <c r="Q124" s="25"/>
-      <c r="R124" s="25"/>
-      <c r="S124" s="25"/>
-      <c r="T124" s="25"/>
-      <c r="U124" s="25"/>
-      <c r="V124" s="25"/>
-      <c r="W124" s="25"/>
-      <c r="X124" s="25"/>
-      <c r="Y124" s="25"/>
-      <c r="Z124" s="25"/>
-      <c r="AA124" s="25"/>
-      <c r="AB124" s="25"/>
-      <c r="AC124" s="24"/>
-      <c r="AD124" s="24"/>
-      <c r="AE124" s="25"/>
-      <c r="AF124" s="24"/>
-      <c r="AG124" s="24"/>
-      <c r="AH124" s="25"/>
-      <c r="AI124" s="24"/>
-      <c r="AJ124" s="25"/>
-      <c r="AK124" s="24"/>
-      <c r="AL124" s="24"/>
-      <c r="AM124" s="24"/>
-      <c r="AN124" s="24"/>
+      <c r="G124" s="25">
+        <v>3</v>
+      </c>
+      <c r="H124" s="25">
+        <v>3</v>
+      </c>
+      <c r="I124" s="25">
+        <v>4</v>
+      </c>
+      <c r="J124" s="25">
+        <v>1</v>
+      </c>
+      <c r="K124" s="25">
+        <v>1</v>
+      </c>
+      <c r="L124" s="25">
+        <v>1</v>
+      </c>
+      <c r="M124" s="25">
+        <v>0</v>
+      </c>
+      <c r="N124" s="25">
+        <v>1</v>
+      </c>
+      <c r="O124" s="25">
+        <v>3</v>
+      </c>
+      <c r="P124" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q124" s="25">
+        <v>3</v>
+      </c>
+      <c r="R124" s="25">
+        <v>3</v>
+      </c>
+      <c r="S124" s="25">
+        <v>4</v>
+      </c>
+      <c r="T124" s="25">
+        <v>3</v>
+      </c>
+      <c r="U124" s="25">
+        <v>4</v>
+      </c>
+      <c r="V124" s="25">
+        <v>0</v>
+      </c>
+      <c r="W124" s="25">
+        <v>1</v>
+      </c>
+      <c r="X124" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD124" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF124" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG124" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI124" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK124" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL124" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM124" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN124" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="AO124" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP124" s="25"/>
-      <c r="AQ124" s="73"/>
-      <c r="AR124" s="25"/>
-      <c r="AS124" s="25"/>
-      <c r="AT124" s="25"/>
-      <c r="AU124" s="25"/>
-      <c r="AV124" s="25"/>
-      <c r="AW124" s="25"/>
-      <c r="AX124" s="25"/>
-      <c r="AY124" s="25"/>
-      <c r="AZ124" s="25"/>
-      <c r="BA124" s="24"/>
-      <c r="BB124" s="25"/>
-      <c r="BC124" s="25"/>
-      <c r="BD124" s="25"/>
-      <c r="BE124" s="25"/>
-      <c r="BF124" s="25"/>
-      <c r="BG124" s="25"/>
-      <c r="BH124" s="25"/>
-      <c r="BI124" s="25"/>
-      <c r="BJ124" s="25"/>
-      <c r="BK124" s="25"/>
-      <c r="BL124" s="25"/>
-      <c r="BM124" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="AP124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ124" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS124" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT124" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU124" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV124" s="25">
+        <v>2</v>
+      </c>
+      <c r="AW124" s="25">
+        <v>5</v>
+      </c>
+      <c r="AX124" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY124" s="25">
+        <v>2</v>
+      </c>
+      <c r="AZ124" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA124" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB124" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC124" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD124" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE124" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF124" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG124" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH124" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI124" s="25">
+        <v>4</v>
+      </c>
+      <c r="BJ124" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK124" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL124" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM124" s="25">
+        <v>2</v>
+      </c>
       <c r="BN124" s="25">
         <v>3</v>
       </c>
       <c r="BO124" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="BP124" s="25"/>
-      <c r="BQ124" s="62"/>
-      <c r="BR124" s="21"/>
-      <c r="BS124" s="61"/>
+      <c r="BP124" s="25">
+        <v>3</v>
+      </c>
+      <c r="BQ124" s="62">
+        <v>3</v>
+      </c>
+      <c r="BR124" s="21">
+        <v>3</v>
+      </c>
+      <c r="BS124" s="61">
+        <v>3</v>
+      </c>
     </row>
     <row r="125" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="14">
@@ -30660,77 +31020,201 @@
       <c r="F125" s="26">
         <v>42706.452777777798</v>
       </c>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="25"/>
-      <c r="N125" s="25"/>
-      <c r="O125" s="25"/>
-      <c r="P125" s="24"/>
-      <c r="Q125" s="25"/>
-      <c r="R125" s="25"/>
-      <c r="S125" s="25"/>
-      <c r="T125" s="25"/>
-      <c r="U125" s="25"/>
-      <c r="V125" s="25"/>
-      <c r="W125" s="25"/>
-      <c r="X125" s="25"/>
-      <c r="Y125" s="25"/>
-      <c r="Z125" s="25"/>
-      <c r="AA125" s="25"/>
-      <c r="AB125" s="25"/>
-      <c r="AC125" s="24"/>
-      <c r="AD125" s="24"/>
-      <c r="AE125" s="25"/>
-      <c r="AF125" s="24"/>
-      <c r="AG125" s="24"/>
-      <c r="AH125" s="25"/>
-      <c r="AI125" s="24"/>
-      <c r="AJ125" s="25"/>
-      <c r="AK125" s="24"/>
-      <c r="AL125" s="24"/>
-      <c r="AM125" s="24"/>
-      <c r="AN125" s="24"/>
+      <c r="G125" s="25">
+        <v>3</v>
+      </c>
+      <c r="H125" s="25">
+        <v>3</v>
+      </c>
+      <c r="I125" s="25">
+        <v>3</v>
+      </c>
+      <c r="J125" s="25">
+        <v>1</v>
+      </c>
+      <c r="K125" s="25">
+        <v>1</v>
+      </c>
+      <c r="L125" s="25">
+        <v>1</v>
+      </c>
+      <c r="M125" s="25">
+        <v>0</v>
+      </c>
+      <c r="N125" s="25">
+        <v>1</v>
+      </c>
+      <c r="O125" s="25">
+        <v>3</v>
+      </c>
+      <c r="P125" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q125" s="25">
+        <v>2</v>
+      </c>
+      <c r="R125" s="25">
+        <v>3</v>
+      </c>
+      <c r="S125" s="25">
+        <v>1</v>
+      </c>
+      <c r="T125" s="25">
+        <v>2</v>
+      </c>
+      <c r="U125" s="25">
+        <v>2</v>
+      </c>
+      <c r="V125" s="25">
+        <v>0</v>
+      </c>
+      <c r="W125" s="25">
+        <v>1</v>
+      </c>
+      <c r="X125" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC125" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD125" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE125" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF125" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG125" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH125" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI125" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ125" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK125" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL125" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM125" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN125" s="24" t="s">
+        <v>249</v>
+      </c>
       <c r="AO125" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP125" s="25"/>
-      <c r="AQ125" s="73"/>
-      <c r="AR125" s="25"/>
-      <c r="AS125" s="25"/>
-      <c r="AT125" s="25"/>
-      <c r="AU125" s="25"/>
-      <c r="AV125" s="25"/>
-      <c r="AW125" s="25"/>
-      <c r="AX125" s="25"/>
-      <c r="AY125" s="25"/>
-      <c r="AZ125" s="25"/>
-      <c r="BA125" s="24"/>
-      <c r="BB125" s="25"/>
-      <c r="BC125" s="25"/>
-      <c r="BD125" s="25"/>
-      <c r="BE125" s="25"/>
-      <c r="BF125" s="25"/>
-      <c r="BG125" s="25"/>
-      <c r="BH125" s="25"/>
-      <c r="BI125" s="25"/>
-      <c r="BJ125" s="25"/>
-      <c r="BK125" s="25"/>
-      <c r="BL125" s="25"/>
-      <c r="BM125" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="AP125" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ125" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR125" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS125" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT125" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU125" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV125" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW125" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX125" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY125" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ125" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA125" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB125" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC125" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD125" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE125" s="25">
+        <v>4</v>
+      </c>
+      <c r="BF125" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG125" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH125" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI125" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ125" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK125" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL125" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM125" s="25">
+        <v>3</v>
+      </c>
       <c r="BN125" s="25">
         <v>5</v>
       </c>
       <c r="BO125" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="BP125" s="25"/>
-      <c r="BQ125" s="62"/>
-      <c r="BR125" s="21"/>
-      <c r="BS125" s="61"/>
+      <c r="BP125" s="25">
+        <v>3</v>
+      </c>
+      <c r="BQ125" s="62">
+        <v>3</v>
+      </c>
+      <c r="BR125" s="21">
+        <v>3</v>
+      </c>
+      <c r="BS125" s="61">
+        <v>3</v>
+      </c>
     </row>
     <row r="126" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="14">
@@ -30752,77 +31236,201 @@
       <c r="F126" s="26">
         <v>42702.3618055556</v>
       </c>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="25"/>
-      <c r="N126" s="25"/>
-      <c r="O126" s="25"/>
-      <c r="P126" s="24"/>
-      <c r="Q126" s="25"/>
-      <c r="R126" s="25"/>
-      <c r="S126" s="25"/>
-      <c r="T126" s="25"/>
-      <c r="U126" s="25"/>
-      <c r="V126" s="25"/>
-      <c r="W126" s="25"/>
-      <c r="X126" s="25"/>
-      <c r="Y126" s="25"/>
-      <c r="Z126" s="25"/>
-      <c r="AA126" s="25"/>
-      <c r="AB126" s="25"/>
-      <c r="AC126" s="24"/>
-      <c r="AD126" s="24"/>
-      <c r="AE126" s="25"/>
-      <c r="AF126" s="24"/>
-      <c r="AG126" s="24"/>
-      <c r="AH126" s="25"/>
-      <c r="AI126" s="24"/>
-      <c r="AJ126" s="25"/>
-      <c r="AK126" s="24"/>
-      <c r="AL126" s="24"/>
-      <c r="AM126" s="24"/>
-      <c r="AN126" s="24"/>
+      <c r="G126" s="25">
+        <v>3</v>
+      </c>
+      <c r="H126" s="25">
+        <v>3</v>
+      </c>
+      <c r="I126" s="25">
+        <v>3</v>
+      </c>
+      <c r="J126" s="25">
+        <v>1</v>
+      </c>
+      <c r="K126" s="25">
+        <v>0</v>
+      </c>
+      <c r="L126" s="25">
+        <v>1</v>
+      </c>
+      <c r="M126" s="25">
+        <v>0</v>
+      </c>
+      <c r="N126" s="25">
+        <v>1</v>
+      </c>
+      <c r="O126" s="25">
+        <v>3</v>
+      </c>
+      <c r="P126" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q126" s="25">
+        <v>3</v>
+      </c>
+      <c r="R126" s="25">
+        <v>3</v>
+      </c>
+      <c r="S126" s="25">
+        <v>3</v>
+      </c>
+      <c r="T126" s="25">
+        <v>3</v>
+      </c>
+      <c r="U126" s="25">
+        <v>3</v>
+      </c>
+      <c r="V126" s="25">
+        <v>0</v>
+      </c>
+      <c r="W126" s="25">
+        <v>1</v>
+      </c>
+      <c r="X126" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z126" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB126" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC126" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD126" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE126" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF126" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG126" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH126" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI126" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ126" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK126" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL126" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM126" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN126" s="24" t="s">
+        <v>243</v>
+      </c>
       <c r="AO126" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP126" s="25"/>
-      <c r="AQ126" s="73"/>
-      <c r="AR126" s="25"/>
-      <c r="AS126" s="25"/>
-      <c r="AT126" s="25"/>
-      <c r="AU126" s="25"/>
-      <c r="AV126" s="25"/>
-      <c r="AW126" s="25"/>
-      <c r="AX126" s="25"/>
-      <c r="AY126" s="25"/>
-      <c r="AZ126" s="25"/>
-      <c r="BA126" s="24"/>
-      <c r="BB126" s="25"/>
-      <c r="BC126" s="25"/>
-      <c r="BD126" s="25"/>
-      <c r="BE126" s="25"/>
-      <c r="BF126" s="25"/>
-      <c r="BG126" s="25"/>
-      <c r="BH126" s="25"/>
-      <c r="BI126" s="25"/>
-      <c r="BJ126" s="25"/>
-      <c r="BK126" s="25"/>
-      <c r="BL126" s="25"/>
-      <c r="BM126" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="AP126" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ126" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR126" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS126" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT126" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU126" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV126" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW126" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX126" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY126" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ126" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA126" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB126" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC126" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD126" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE126" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF126" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG126" s="25">
+        <v>1</v>
+      </c>
+      <c r="BH126" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI126" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ126" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK126" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL126" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM126" s="25">
+        <v>2</v>
+      </c>
       <c r="BN126" s="25">
         <v>1</v>
       </c>
       <c r="BO126" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="BP126" s="25"/>
-      <c r="BQ126" s="62"/>
-      <c r="BR126" s="21"/>
-      <c r="BS126" s="61"/>
+      <c r="BP126" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ126" s="62">
+        <v>2</v>
+      </c>
+      <c r="BR126" s="21">
+        <v>2</v>
+      </c>
+      <c r="BS126" s="61">
+        <v>2</v>
+      </c>
     </row>
     <row r="127" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="14">
@@ -30830,7 +31438,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>73</v>
@@ -30844,77 +31452,201 @@
       <c r="F127" s="26">
         <v>42648.804861111101</v>
       </c>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
-      <c r="I127" s="25"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="25"/>
-      <c r="N127" s="25"/>
-      <c r="O127" s="25"/>
-      <c r="P127" s="24"/>
-      <c r="Q127" s="25"/>
-      <c r="R127" s="25"/>
-      <c r="S127" s="25"/>
-      <c r="T127" s="25"/>
-      <c r="U127" s="25"/>
-      <c r="V127" s="25"/>
-      <c r="W127" s="25"/>
-      <c r="X127" s="25"/>
-      <c r="Y127" s="25"/>
-      <c r="Z127" s="25"/>
-      <c r="AA127" s="25"/>
-      <c r="AB127" s="25"/>
-      <c r="AC127" s="24"/>
-      <c r="AD127" s="24"/>
-      <c r="AE127" s="25"/>
-      <c r="AF127" s="24"/>
-      <c r="AG127" s="24"/>
-      <c r="AH127" s="25"/>
-      <c r="AI127" s="24"/>
-      <c r="AJ127" s="25"/>
-      <c r="AK127" s="24"/>
-      <c r="AL127" s="24"/>
-      <c r="AM127" s="24"/>
-      <c r="AN127" s="24"/>
+      <c r="G127" s="25">
+        <v>3</v>
+      </c>
+      <c r="H127" s="25">
+        <v>3</v>
+      </c>
+      <c r="I127" s="25">
+        <v>3</v>
+      </c>
+      <c r="J127" s="25">
+        <v>1</v>
+      </c>
+      <c r="K127" s="25">
+        <v>1</v>
+      </c>
+      <c r="L127" s="25">
+        <v>1</v>
+      </c>
+      <c r="M127" s="25">
+        <v>0</v>
+      </c>
+      <c r="N127" s="25">
+        <v>1</v>
+      </c>
+      <c r="O127" s="25">
+        <v>3</v>
+      </c>
+      <c r="P127" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q127" s="25">
+        <v>3</v>
+      </c>
+      <c r="R127" s="25">
+        <v>3</v>
+      </c>
+      <c r="S127" s="25">
+        <v>3</v>
+      </c>
+      <c r="T127" s="25">
+        <v>3</v>
+      </c>
+      <c r="U127" s="25">
+        <v>3</v>
+      </c>
+      <c r="V127" s="25">
+        <v>0</v>
+      </c>
+      <c r="W127" s="25">
+        <v>1</v>
+      </c>
+      <c r="X127" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC127" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD127" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE127" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF127" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG127" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH127" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI127" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ127" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK127" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL127" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM127" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN127" s="24" t="s">
+        <v>249</v>
+      </c>
       <c r="AO127" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP127" s="25"/>
-      <c r="AQ127" s="73"/>
-      <c r="AR127" s="25"/>
-      <c r="AS127" s="25"/>
-      <c r="AT127" s="25"/>
-      <c r="AU127" s="25"/>
-      <c r="AV127" s="25"/>
-      <c r="AW127" s="25"/>
-      <c r="AX127" s="25"/>
-      <c r="AY127" s="25"/>
-      <c r="AZ127" s="25"/>
-      <c r="BA127" s="24"/>
-      <c r="BB127" s="25"/>
-      <c r="BC127" s="25"/>
-      <c r="BD127" s="25"/>
-      <c r="BE127" s="25"/>
-      <c r="BF127" s="25"/>
-      <c r="BG127" s="25"/>
-      <c r="BH127" s="25"/>
-      <c r="BI127" s="25"/>
-      <c r="BJ127" s="25"/>
-      <c r="BK127" s="25"/>
-      <c r="BL127" s="25"/>
-      <c r="BM127" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="AP127" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ127" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR127" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS127" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT127" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU127" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV127" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW127" s="25">
+        <v>1</v>
+      </c>
+      <c r="AX127" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY127" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ127" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA127" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB127" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC127" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD127" s="25">
+        <v>1</v>
+      </c>
+      <c r="BE127" s="25">
+        <v>2</v>
+      </c>
+      <c r="BF127" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG127" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH127" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI127" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ127" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK127" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL127" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM127" s="25">
+        <v>1</v>
+      </c>
       <c r="BN127" s="25">
         <v>1</v>
       </c>
       <c r="BO127" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="BP127" s="25"/>
-      <c r="BQ127" s="62"/>
-      <c r="BR127" s="21"/>
-      <c r="BS127" s="61"/>
+      <c r="BP127" s="25">
+        <v>5</v>
+      </c>
+      <c r="BQ127" s="62">
+        <v>1</v>
+      </c>
+      <c r="BR127" s="21">
+        <v>1</v>
+      </c>
+      <c r="BS127" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A128" s="14">
@@ -30934,79 +31666,203 @@
         <v>80</v>
       </c>
       <c r="F128" s="26">
-        <v>42739.761111111096</v>
-      </c>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="25"/>
-      <c r="O128" s="25"/>
-      <c r="P128" s="24"/>
-      <c r="Q128" s="25"/>
-      <c r="R128" s="25"/>
-      <c r="S128" s="25"/>
-      <c r="T128" s="25"/>
-      <c r="U128" s="25"/>
-      <c r="V128" s="25"/>
-      <c r="W128" s="25"/>
-      <c r="X128" s="25"/>
-      <c r="Y128" s="25"/>
-      <c r="Z128" s="25"/>
-      <c r="AA128" s="25"/>
-      <c r="AB128" s="25"/>
-      <c r="AC128" s="24"/>
-      <c r="AD128" s="24"/>
-      <c r="AE128" s="25"/>
-      <c r="AF128" s="24"/>
-      <c r="AG128" s="24"/>
-      <c r="AH128" s="25"/>
-      <c r="AI128" s="24"/>
-      <c r="AJ128" s="25"/>
-      <c r="AK128" s="24"/>
-      <c r="AL128" s="24"/>
-      <c r="AM128" s="24"/>
-      <c r="AN128" s="24"/>
+        <v>42739.761111111111</v>
+      </c>
+      <c r="G128" s="25">
+        <v>4</v>
+      </c>
+      <c r="H128" s="25">
+        <v>3</v>
+      </c>
+      <c r="I128" s="25">
+        <v>3</v>
+      </c>
+      <c r="J128" s="25">
+        <v>1</v>
+      </c>
+      <c r="K128" s="25">
+        <v>1</v>
+      </c>
+      <c r="L128" s="25">
+        <v>1</v>
+      </c>
+      <c r="M128" s="25">
+        <v>0</v>
+      </c>
+      <c r="N128" s="25">
+        <v>1</v>
+      </c>
+      <c r="O128" s="25">
+        <v>3</v>
+      </c>
+      <c r="P128" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q128" s="25">
+        <v>3</v>
+      </c>
+      <c r="R128" s="25">
+        <v>3</v>
+      </c>
+      <c r="S128" s="25">
+        <v>2</v>
+      </c>
+      <c r="T128" s="25">
+        <v>2</v>
+      </c>
+      <c r="U128" s="25">
+        <v>1</v>
+      </c>
+      <c r="V128" s="25">
+        <v>1</v>
+      </c>
+      <c r="W128" s="25">
+        <v>1</v>
+      </c>
+      <c r="X128" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC128" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD128" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE128" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF128" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG128" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH128" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI128" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ128" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK128" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL128" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM128" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN128" s="24" t="s">
+        <v>249</v>
+      </c>
       <c r="AO128" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP128" s="25"/>
-      <c r="AQ128" s="73"/>
-      <c r="AR128" s="25"/>
-      <c r="AS128" s="25"/>
-      <c r="AT128" s="25"/>
-      <c r="AU128" s="25"/>
-      <c r="AV128" s="25"/>
-      <c r="AW128" s="25"/>
-      <c r="AX128" s="25"/>
-      <c r="AY128" s="25"/>
-      <c r="AZ128" s="25"/>
-      <c r="BA128" s="24"/>
-      <c r="BB128" s="25"/>
-      <c r="BC128" s="25"/>
-      <c r="BD128" s="25"/>
-      <c r="BE128" s="25"/>
-      <c r="BF128" s="25"/>
-      <c r="BG128" s="25"/>
-      <c r="BH128" s="25"/>
-      <c r="BI128" s="25"/>
-      <c r="BJ128" s="25"/>
-      <c r="BK128" s="25"/>
-      <c r="BL128" s="25"/>
-      <c r="BM128" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="AP128" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ128" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR128" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS128" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT128" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU128" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV128" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW128" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX128" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY128" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ128" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA128" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB128" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC128" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD128" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE128" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF128" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG128" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH128" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI128" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ128" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK128" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL128" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM128" s="25">
+        <v>2</v>
+      </c>
       <c r="BN128" s="25">
         <v>1</v>
       </c>
       <c r="BO128" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="BP128" s="25"/>
-      <c r="BQ128" s="62"/>
-      <c r="BR128" s="21"/>
-      <c r="BS128" s="61"/>
+      <c r="BP128" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ128" s="62">
+        <v>2</v>
+      </c>
+      <c r="BR128" s="21">
+        <v>1</v>
+      </c>
+      <c r="BS128" s="61">
+        <v>2</v>
+      </c>
     </row>
     <row r="129" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="14">
@@ -31017,7 +31873,7 @@
         <v>94</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D129" s="25">
         <v>3199</v>
@@ -31028,77 +31884,201 @@
       <c r="F129" s="26">
         <v>42749.402083333298</v>
       </c>
-      <c r="G129" s="25"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="25"/>
-      <c r="L129" s="25"/>
-      <c r="M129" s="25"/>
-      <c r="N129" s="25"/>
-      <c r="O129" s="25"/>
-      <c r="P129" s="24"/>
-      <c r="Q129" s="25"/>
-      <c r="R129" s="25"/>
-      <c r="S129" s="25"/>
-      <c r="T129" s="25"/>
-      <c r="U129" s="25"/>
-      <c r="V129" s="25"/>
-      <c r="W129" s="25"/>
-      <c r="X129" s="25"/>
-      <c r="Y129" s="25"/>
-      <c r="Z129" s="25"/>
-      <c r="AA129" s="25"/>
-      <c r="AB129" s="25"/>
-      <c r="AC129" s="24"/>
-      <c r="AD129" s="24"/>
-      <c r="AE129" s="25"/>
-      <c r="AF129" s="24"/>
-      <c r="AG129" s="24"/>
-      <c r="AH129" s="25"/>
-      <c r="AI129" s="24"/>
-      <c r="AJ129" s="25"/>
-      <c r="AK129" s="24"/>
-      <c r="AL129" s="24"/>
-      <c r="AM129" s="24"/>
-      <c r="AN129" s="24"/>
+      <c r="G129" s="25">
+        <v>5</v>
+      </c>
+      <c r="H129" s="25">
+        <v>3</v>
+      </c>
+      <c r="I129" s="25">
+        <v>4</v>
+      </c>
+      <c r="J129" s="25">
+        <v>1</v>
+      </c>
+      <c r="K129" s="25">
+        <v>1</v>
+      </c>
+      <c r="L129" s="25">
+        <v>1</v>
+      </c>
+      <c r="M129" s="25">
+        <v>0</v>
+      </c>
+      <c r="N129" s="25">
+        <v>0</v>
+      </c>
+      <c r="O129" s="25">
+        <v>1</v>
+      </c>
+      <c r="P129" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q129" s="25">
+        <v>3</v>
+      </c>
+      <c r="R129" s="25">
+        <v>3</v>
+      </c>
+      <c r="S129" s="25">
+        <v>3</v>
+      </c>
+      <c r="T129" s="25">
+        <v>3</v>
+      </c>
+      <c r="U129" s="25">
+        <v>3</v>
+      </c>
+      <c r="V129" s="25">
+        <v>0</v>
+      </c>
+      <c r="W129" s="25">
+        <v>1</v>
+      </c>
+      <c r="X129" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC129" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD129" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF129" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG129" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI129" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK129" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL129" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM129" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN129" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="AO129" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP129" s="25"/>
-      <c r="AQ129" s="73"/>
-      <c r="AR129" s="25"/>
-      <c r="AS129" s="25"/>
-      <c r="AT129" s="25"/>
-      <c r="AU129" s="25"/>
-      <c r="AV129" s="25"/>
-      <c r="AW129" s="25"/>
-      <c r="AX129" s="25"/>
-      <c r="AY129" s="25"/>
-      <c r="AZ129" s="25"/>
-      <c r="BA129" s="24"/>
-      <c r="BB129" s="25"/>
-      <c r="BC129" s="25"/>
-      <c r="BD129" s="25"/>
-      <c r="BE129" s="25"/>
-      <c r="BF129" s="25"/>
-      <c r="BG129" s="25"/>
-      <c r="BH129" s="25"/>
-      <c r="BI129" s="25"/>
-      <c r="BJ129" s="25"/>
-      <c r="BK129" s="25"/>
-      <c r="BL129" s="25"/>
-      <c r="BM129" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="AP129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ129" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS129" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT129" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU129" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV129" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW129" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX129" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY129" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ129" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA129" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB129" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC129" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD129" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE129" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF129" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG129" s="25">
+        <v>1</v>
+      </c>
+      <c r="BH129" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI129" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ129" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK129" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL129" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM129" s="25">
+        <v>1</v>
+      </c>
       <c r="BN129" s="25">
         <v>1</v>
       </c>
       <c r="BO129" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="BP129" s="25"/>
-      <c r="BQ129" s="62"/>
-      <c r="BR129" s="21"/>
-      <c r="BS129" s="61"/>
+      <c r="BP129" s="25">
+        <v>5</v>
+      </c>
+      <c r="BQ129" s="62">
+        <v>1</v>
+      </c>
+      <c r="BR129" s="21">
+        <v>1</v>
+      </c>
+      <c r="BS129" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="14">
@@ -31120,77 +32100,201 @@
       <c r="F130" s="26">
         <v>42717.407638888901</v>
       </c>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="25"/>
-      <c r="L130" s="25"/>
-      <c r="M130" s="25"/>
-      <c r="N130" s="25"/>
-      <c r="O130" s="25"/>
-      <c r="P130" s="24"/>
-      <c r="Q130" s="25"/>
-      <c r="R130" s="25"/>
-      <c r="S130" s="25"/>
-      <c r="T130" s="25"/>
-      <c r="U130" s="25"/>
-      <c r="V130" s="25"/>
-      <c r="W130" s="25"/>
-      <c r="X130" s="25"/>
-      <c r="Y130" s="25"/>
-      <c r="Z130" s="25"/>
-      <c r="AA130" s="25"/>
-      <c r="AB130" s="25"/>
-      <c r="AC130" s="24"/>
-      <c r="AD130" s="24"/>
-      <c r="AE130" s="25"/>
-      <c r="AF130" s="24"/>
-      <c r="AG130" s="24"/>
-      <c r="AH130" s="25"/>
-      <c r="AI130" s="24"/>
-      <c r="AJ130" s="25"/>
-      <c r="AK130" s="24"/>
-      <c r="AL130" s="24"/>
-      <c r="AM130" s="24"/>
-      <c r="AN130" s="24"/>
+      <c r="G130" s="25">
+        <v>4</v>
+      </c>
+      <c r="H130" s="25">
+        <v>3</v>
+      </c>
+      <c r="I130" s="25">
+        <v>3</v>
+      </c>
+      <c r="J130" s="25">
+        <v>1</v>
+      </c>
+      <c r="K130" s="25">
+        <v>1</v>
+      </c>
+      <c r="L130" s="25">
+        <v>1</v>
+      </c>
+      <c r="M130" s="25">
+        <v>0</v>
+      </c>
+      <c r="N130" s="25">
+        <v>1</v>
+      </c>
+      <c r="O130" s="25">
+        <v>3</v>
+      </c>
+      <c r="P130" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q130" s="25">
+        <v>3</v>
+      </c>
+      <c r="R130" s="25">
+        <v>3</v>
+      </c>
+      <c r="S130" s="25">
+        <v>2</v>
+      </c>
+      <c r="T130" s="25">
+        <v>3</v>
+      </c>
+      <c r="U130" s="25">
+        <v>3</v>
+      </c>
+      <c r="V130" s="25">
+        <v>0</v>
+      </c>
+      <c r="W130" s="25">
+        <v>1</v>
+      </c>
+      <c r="X130" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z130" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC130" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD130" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE130" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF130" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG130" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH130" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI130" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ130" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK130" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL130" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM130" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN130" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="AO130" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP130" s="25"/>
-      <c r="AQ130" s="73"/>
-      <c r="AR130" s="25"/>
-      <c r="AS130" s="25"/>
-      <c r="AT130" s="25"/>
-      <c r="AU130" s="25"/>
-      <c r="AV130" s="25"/>
-      <c r="AW130" s="25"/>
-      <c r="AX130" s="25"/>
-      <c r="AY130" s="25"/>
-      <c r="AZ130" s="25"/>
-      <c r="BA130" s="24"/>
-      <c r="BB130" s="25"/>
-      <c r="BC130" s="25"/>
-      <c r="BD130" s="25"/>
-      <c r="BE130" s="25"/>
-      <c r="BF130" s="25"/>
-      <c r="BG130" s="25"/>
-      <c r="BH130" s="25"/>
-      <c r="BI130" s="25"/>
-      <c r="BJ130" s="25"/>
-      <c r="BK130" s="25"/>
-      <c r="BL130" s="25"/>
-      <c r="BM130" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="AP130" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ130" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR130" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS130" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT130" s="25">
+        <v>5</v>
+      </c>
+      <c r="AU130" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV130" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW130" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX130" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY130" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ130" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA130" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB130" s="25">
+        <v>5</v>
+      </c>
+      <c r="BC130" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD130" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE130" s="25">
+        <v>4</v>
+      </c>
+      <c r="BF130" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG130" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH130" s="25">
+        <v>4</v>
+      </c>
+      <c r="BI130" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ130" s="25">
+        <v>2</v>
+      </c>
+      <c r="BK130" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL130" s="25">
+        <v>4</v>
+      </c>
+      <c r="BM130" s="25">
+        <v>4</v>
+      </c>
       <c r="BN130" s="25">
         <v>5</v>
       </c>
       <c r="BO130" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="BP130" s="25"/>
-      <c r="BQ130" s="62"/>
-      <c r="BR130" s="21"/>
-      <c r="BS130" s="61"/>
+      <c r="BP130" s="25">
+        <v>2</v>
+      </c>
+      <c r="BQ130" s="62">
+        <v>4</v>
+      </c>
+      <c r="BR130" s="21">
+        <v>4</v>
+      </c>
+      <c r="BS130" s="61">
+        <v>4</v>
+      </c>
     </row>
     <row r="131" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="14">
@@ -31198,7 +32302,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>85</v>
@@ -31212,77 +32316,201 @@
       <c r="F131" s="26">
         <v>42731.697916666701</v>
       </c>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="25"/>
-      <c r="L131" s="25"/>
-      <c r="M131" s="25"/>
-      <c r="N131" s="25"/>
-      <c r="O131" s="25"/>
-      <c r="P131" s="24"/>
-      <c r="Q131" s="25"/>
-      <c r="R131" s="25"/>
-      <c r="S131" s="25"/>
-      <c r="T131" s="25"/>
-      <c r="U131" s="25"/>
-      <c r="V131" s="25"/>
-      <c r="W131" s="25"/>
-      <c r="X131" s="25"/>
-      <c r="Y131" s="25"/>
-      <c r="Z131" s="25"/>
-      <c r="AA131" s="25"/>
-      <c r="AB131" s="25"/>
-      <c r="AC131" s="24"/>
-      <c r="AD131" s="24"/>
-      <c r="AE131" s="25"/>
-      <c r="AF131" s="24"/>
-      <c r="AG131" s="24"/>
-      <c r="AH131" s="25"/>
-      <c r="AI131" s="24"/>
-      <c r="AJ131" s="25"/>
-      <c r="AK131" s="24"/>
-      <c r="AL131" s="24"/>
-      <c r="AM131" s="24"/>
-      <c r="AN131" s="24"/>
+      <c r="G131" s="25">
+        <v>3</v>
+      </c>
+      <c r="H131" s="25">
+        <v>3</v>
+      </c>
+      <c r="I131" s="25">
+        <v>3</v>
+      </c>
+      <c r="J131" s="25">
+        <v>1</v>
+      </c>
+      <c r="K131" s="25">
+        <v>1</v>
+      </c>
+      <c r="L131" s="25">
+        <v>1</v>
+      </c>
+      <c r="M131" s="25">
+        <v>0</v>
+      </c>
+      <c r="N131" s="25">
+        <v>1</v>
+      </c>
+      <c r="O131" s="25">
+        <v>5</v>
+      </c>
+      <c r="P131" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q131" s="25">
+        <v>3</v>
+      </c>
+      <c r="R131" s="25">
+        <v>3</v>
+      </c>
+      <c r="S131" s="25">
+        <v>5</v>
+      </c>
+      <c r="T131" s="25">
+        <v>5</v>
+      </c>
+      <c r="U131" s="25">
+        <v>5</v>
+      </c>
+      <c r="V131" s="25">
+        <v>0</v>
+      </c>
+      <c r="W131" s="25">
+        <v>1</v>
+      </c>
+      <c r="X131" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD131" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE131" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF131" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG131" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH131" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI131" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ131" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK131" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL131" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM131" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN131" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="AO131" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP131" s="25"/>
-      <c r="AQ131" s="73"/>
-      <c r="AR131" s="25"/>
-      <c r="AS131" s="25"/>
-      <c r="AT131" s="25"/>
-      <c r="AU131" s="25"/>
-      <c r="AV131" s="25"/>
-      <c r="AW131" s="25"/>
-      <c r="AX131" s="25"/>
-      <c r="AY131" s="25"/>
-      <c r="AZ131" s="25"/>
-      <c r="BA131" s="24"/>
-      <c r="BB131" s="25"/>
-      <c r="BC131" s="25"/>
-      <c r="BD131" s="25"/>
-      <c r="BE131" s="25"/>
-      <c r="BF131" s="25"/>
-      <c r="BG131" s="25"/>
-      <c r="BH131" s="25"/>
-      <c r="BI131" s="25"/>
-      <c r="BJ131" s="25"/>
-      <c r="BK131" s="25"/>
-      <c r="BL131" s="25"/>
-      <c r="BM131" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="AP131" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ131" s="72">
+        <v>-200</v>
+      </c>
+      <c r="AR131" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS131" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT131" s="25">
+        <v>4</v>
+      </c>
+      <c r="AU131" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV131" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW131" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX131" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY131" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ131" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA131" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB131" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC131" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD131" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE131" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF131" s="25">
+        <v>2</v>
+      </c>
+      <c r="BG131" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH131" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI131" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ131" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK131" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL131" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM131" s="25">
+        <v>3</v>
+      </c>
       <c r="BN131" s="25">
         <v>5</v>
       </c>
       <c r="BO131" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="BP131" s="25"/>
-      <c r="BQ131" s="62"/>
-      <c r="BR131" s="21"/>
-      <c r="BS131" s="61"/>
+      <c r="BP131" s="25">
+        <v>2</v>
+      </c>
+      <c r="BQ131" s="62">
+        <v>3</v>
+      </c>
+      <c r="BR131" s="21">
+        <v>3</v>
+      </c>
+      <c r="BS131" s="61">
+        <v>3</v>
+      </c>
     </row>
     <row r="132" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="14">
@@ -31290,7 +32518,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>85</v>
@@ -31304,77 +32532,201 @@
       <c r="F132" s="26">
         <v>42744.470138888901</v>
       </c>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
-      <c r="J132" s="25"/>
-      <c r="K132" s="25"/>
-      <c r="L132" s="25"/>
-      <c r="M132" s="25"/>
-      <c r="N132" s="25"/>
-      <c r="O132" s="25"/>
-      <c r="P132" s="24"/>
-      <c r="Q132" s="25"/>
-      <c r="R132" s="25"/>
-      <c r="S132" s="25"/>
-      <c r="T132" s="25"/>
-      <c r="U132" s="25"/>
-      <c r="V132" s="25"/>
-      <c r="W132" s="25"/>
-      <c r="X132" s="25"/>
-      <c r="Y132" s="25"/>
-      <c r="Z132" s="25"/>
-      <c r="AA132" s="25"/>
-      <c r="AB132" s="25"/>
-      <c r="AC132" s="24"/>
-      <c r="AD132" s="24"/>
-      <c r="AE132" s="25"/>
-      <c r="AF132" s="24"/>
-      <c r="AG132" s="24"/>
-      <c r="AH132" s="25"/>
-      <c r="AI132" s="24"/>
-      <c r="AJ132" s="25"/>
-      <c r="AK132" s="24"/>
-      <c r="AL132" s="24"/>
-      <c r="AM132" s="24"/>
-      <c r="AN132" s="24"/>
+      <c r="G132" s="25">
+        <v>4</v>
+      </c>
+      <c r="H132" s="25">
+        <v>3</v>
+      </c>
+      <c r="I132" s="25">
+        <v>3</v>
+      </c>
+      <c r="J132" s="25">
+        <v>1</v>
+      </c>
+      <c r="K132" s="25">
+        <v>1</v>
+      </c>
+      <c r="L132" s="25">
+        <v>1</v>
+      </c>
+      <c r="M132" s="25">
+        <v>0</v>
+      </c>
+      <c r="N132" s="25">
+        <v>1</v>
+      </c>
+      <c r="O132" s="25">
+        <v>3</v>
+      </c>
+      <c r="P132" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q132" s="25">
+        <v>3</v>
+      </c>
+      <c r="R132" s="25">
+        <v>3</v>
+      </c>
+      <c r="S132" s="25">
+        <v>3</v>
+      </c>
+      <c r="T132" s="25">
+        <v>3</v>
+      </c>
+      <c r="U132" s="25">
+        <v>3</v>
+      </c>
+      <c r="V132" s="25">
+        <v>0</v>
+      </c>
+      <c r="W132" s="25">
+        <v>1</v>
+      </c>
+      <c r="X132" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z132" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD132" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE132" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF132" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG132" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH132" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI132" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ132" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK132" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL132" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM132" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN132" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="AO132" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP132" s="25"/>
-      <c r="AQ132" s="73"/>
-      <c r="AR132" s="25"/>
-      <c r="AS132" s="25"/>
-      <c r="AT132" s="25"/>
-      <c r="AU132" s="25"/>
-      <c r="AV132" s="25"/>
-      <c r="AW132" s="25"/>
-      <c r="AX132" s="25"/>
-      <c r="AY132" s="25"/>
-      <c r="AZ132" s="25"/>
-      <c r="BA132" s="24"/>
-      <c r="BB132" s="25"/>
-      <c r="BC132" s="25"/>
-      <c r="BD132" s="25"/>
-      <c r="BE132" s="25"/>
-      <c r="BF132" s="25"/>
-      <c r="BG132" s="25"/>
-      <c r="BH132" s="25"/>
-      <c r="BI132" s="25"/>
-      <c r="BJ132" s="25"/>
-      <c r="BK132" s="25"/>
-      <c r="BL132" s="25"/>
-      <c r="BM132" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="AP132" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ132" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR132" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS132" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT132" s="25">
+        <v>5</v>
+      </c>
+      <c r="AU132" s="25">
+        <v>5</v>
+      </c>
+      <c r="AV132" s="25">
+        <v>5</v>
+      </c>
+      <c r="AW132" s="25">
+        <v>5</v>
+      </c>
+      <c r="AX132" s="25">
+        <v>5</v>
+      </c>
+      <c r="AY132" s="25">
+        <v>5</v>
+      </c>
+      <c r="AZ132" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA132" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB132" s="25">
+        <v>5</v>
+      </c>
+      <c r="BC132" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD132" s="25">
+        <v>5</v>
+      </c>
+      <c r="BE132" s="25">
+        <v>4</v>
+      </c>
+      <c r="BF132" s="25">
+        <v>4</v>
+      </c>
+      <c r="BG132" s="25">
+        <v>4</v>
+      </c>
+      <c r="BH132" s="25">
+        <v>4</v>
+      </c>
+      <c r="BI132" s="25">
+        <v>4</v>
+      </c>
+      <c r="BJ132" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="BK132" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL132" s="25">
+        <v>4</v>
+      </c>
+      <c r="BM132" s="25">
+        <v>4</v>
+      </c>
       <c r="BN132" s="25">
         <v>1</v>
       </c>
       <c r="BO132" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="BP132" s="25"/>
-      <c r="BQ132" s="62"/>
-      <c r="BR132" s="21"/>
-      <c r="BS132" s="61"/>
+      <c r="BP132" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ132" s="62">
+        <v>3</v>
+      </c>
+      <c r="BR132" s="21">
+        <v>1</v>
+      </c>
+      <c r="BS132" s="61">
+        <v>3</v>
+      </c>
     </row>
     <row r="133" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A133" s="14"/>
@@ -31419,7 +32771,7 @@
       <c r="AN133" s="24"/>
       <c r="AO133" s="52"/>
       <c r="AP133" s="25"/>
-      <c r="AQ133" s="73"/>
+      <c r="AQ133" s="72"/>
       <c r="AR133" s="25"/>
       <c r="AS133" s="25"/>
       <c r="AT133" s="25"/>
@@ -31492,7 +32844,7 @@
       <c r="AN134" s="24"/>
       <c r="AO134" s="52"/>
       <c r="AP134" s="25"/>
-      <c r="AQ134" s="73"/>
+      <c r="AQ134" s="72"/>
       <c r="AR134" s="25"/>
       <c r="AS134" s="25"/>
       <c r="AT134" s="25"/>
@@ -31565,7 +32917,7 @@
       <c r="AN135" s="24"/>
       <c r="AO135" s="52"/>
       <c r="AP135" s="25"/>
-      <c r="AQ135" s="73"/>
+      <c r="AQ135" s="72"/>
       <c r="AR135" s="25"/>
       <c r="AS135" s="25"/>
       <c r="AT135" s="25"/>
@@ -31638,7 +32990,7 @@
       <c r="AN136" s="24"/>
       <c r="AO136" s="52"/>
       <c r="AP136" s="25"/>
-      <c r="AQ136" s="73"/>
+      <c r="AQ136" s="72"/>
       <c r="AR136" s="25"/>
       <c r="AS136" s="25"/>
       <c r="AT136" s="25"/>
@@ -31711,7 +33063,7 @@
       <c r="AN137" s="24"/>
       <c r="AO137" s="52"/>
       <c r="AP137" s="25"/>
-      <c r="AQ137" s="73"/>
+      <c r="AQ137" s="72"/>
       <c r="AR137" s="25"/>
       <c r="AS137" s="25"/>
       <c r="AT137" s="25"/>
@@ -31784,7 +33136,7 @@
       <c r="AN138" s="24"/>
       <c r="AO138" s="52"/>
       <c r="AP138" s="25"/>
-      <c r="AQ138" s="73"/>
+      <c r="AQ138" s="72"/>
       <c r="AR138" s="25"/>
       <c r="AS138" s="25"/>
       <c r="AT138" s="25"/>
@@ -31857,7 +33209,7 @@
       <c r="AN139" s="24"/>
       <c r="AO139" s="52"/>
       <c r="AP139" s="25"/>
-      <c r="AQ139" s="73"/>
+      <c r="AQ139" s="72"/>
       <c r="AR139" s="25"/>
       <c r="AS139" s="25"/>
       <c r="AT139" s="25"/>
@@ -31888,8 +33240,8 @@
       <c r="BS139" s="61"/>
     </row>
     <row r="140" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A140" s="63"/>
-      <c r="B140" s="23"/>
+      <c r="A140" s="14"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="25"/>
       <c r="E140" s="24"/>
@@ -31930,7 +33282,7 @@
       <c r="AN140" s="24"/>
       <c r="AO140" s="52"/>
       <c r="AP140" s="25"/>
-      <c r="AQ140" s="73"/>
+      <c r="AQ140" s="72"/>
       <c r="AR140" s="25"/>
       <c r="AS140" s="25"/>
       <c r="AT140" s="25"/>
@@ -31956,281 +33308,281 @@
       <c r="BN140" s="25"/>
       <c r="BO140" s="24"/>
       <c r="BP140" s="25"/>
-      <c r="BQ140" s="62"/>
-      <c r="BR140" s="21"/>
-      <c r="BS140" s="61"/>
+      <c r="BQ140" s="95"/>
+      <c r="BR140" s="96"/>
+      <c r="BS140" s="97"/>
     </row>
     <row r="141" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F141" s="76"/>
-      <c r="AQ141" s="74"/>
+      <c r="F141" s="75"/>
+      <c r="AQ141" s="73"/>
     </row>
     <row r="142" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F142" s="76"/>
-      <c r="AQ142" s="74"/>
+      <c r="F142" s="75"/>
+      <c r="AQ142" s="73"/>
     </row>
     <row r="143" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F143" s="76"/>
-      <c r="AQ143" s="74"/>
+      <c r="F143" s="75"/>
+      <c r="AQ143" s="73"/>
     </row>
     <row r="144" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F144" s="76"/>
-      <c r="AQ144" s="74"/>
+      <c r="F144" s="75"/>
+      <c r="AQ144" s="73"/>
     </row>
     <row r="145" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F145" s="76"/>
-      <c r="AQ145" s="74"/>
+      <c r="F145" s="75"/>
+      <c r="AQ145" s="73"/>
     </row>
     <row r="146" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F146" s="76"/>
-      <c r="AQ146" s="74"/>
+      <c r="F146" s="75"/>
+      <c r="AQ146" s="73"/>
     </row>
     <row r="147" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F147" s="76"/>
-      <c r="AQ147" s="74"/>
+      <c r="F147" s="75"/>
+      <c r="AQ147" s="73"/>
     </row>
     <row r="148" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F148" s="76"/>
-      <c r="AQ148" s="74"/>
+      <c r="F148" s="75"/>
+      <c r="AQ148" s="73"/>
     </row>
     <row r="149" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F149" s="76"/>
-      <c r="AQ149" s="74"/>
+      <c r="F149" s="75"/>
+      <c r="AQ149" s="73"/>
     </row>
     <row r="150" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F150" s="76"/>
-      <c r="AQ150" s="74"/>
+      <c r="F150" s="75"/>
+      <c r="AQ150" s="73"/>
     </row>
     <row r="151" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F151" s="76"/>
-      <c r="AQ151" s="74"/>
+      <c r="F151" s="75"/>
+      <c r="AQ151" s="73"/>
     </row>
     <row r="152" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F152" s="76"/>
-      <c r="AQ152" s="74"/>
+      <c r="F152" s="75"/>
+      <c r="AQ152" s="73"/>
     </row>
     <row r="153" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F153" s="76"/>
-      <c r="AQ153" s="74"/>
+      <c r="F153" s="75"/>
+      <c r="AQ153" s="73"/>
     </row>
     <row r="154" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F154" s="76"/>
-      <c r="AQ154" s="74"/>
+      <c r="F154" s="75"/>
+      <c r="AQ154" s="73"/>
     </row>
     <row r="155" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F155" s="76"/>
-      <c r="AQ155" s="74"/>
+      <c r="F155" s="75"/>
+      <c r="AQ155" s="73"/>
     </row>
     <row r="156" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F156" s="76"/>
-      <c r="AQ156" s="74"/>
+      <c r="F156" s="75"/>
+      <c r="AQ156" s="73"/>
     </row>
     <row r="157" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F157" s="76"/>
-      <c r="AQ157" s="74"/>
+      <c r="F157" s="75"/>
+      <c r="AQ157" s="73"/>
     </row>
     <row r="158" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F158" s="76"/>
-      <c r="AQ158" s="74"/>
+      <c r="F158" s="75"/>
+      <c r="AQ158" s="73"/>
     </row>
     <row r="159" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F159" s="76"/>
-      <c r="AQ159" s="74"/>
+      <c r="F159" s="75"/>
+      <c r="AQ159" s="73"/>
     </row>
     <row r="160" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F160" s="76"/>
-      <c r="AQ160" s="74"/>
+      <c r="F160" s="75"/>
+      <c r="AQ160" s="73"/>
     </row>
     <row r="161" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F161" s="76"/>
-      <c r="AQ161" s="74"/>
+      <c r="F161" s="75"/>
+      <c r="AQ161" s="73"/>
     </row>
     <row r="162" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F162" s="76"/>
-      <c r="AQ162" s="74"/>
+      <c r="F162" s="75"/>
+      <c r="AQ162" s="73"/>
     </row>
     <row r="163" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F163" s="76"/>
-      <c r="AQ163" s="74"/>
+      <c r="F163" s="75"/>
+      <c r="AQ163" s="73"/>
     </row>
     <row r="164" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F164" s="76"/>
-      <c r="AQ164" s="74"/>
+      <c r="F164" s="75"/>
+      <c r="AQ164" s="73"/>
     </row>
     <row r="165" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F165" s="76"/>
-      <c r="AQ165" s="74"/>
+      <c r="F165" s="75"/>
+      <c r="AQ165" s="73"/>
     </row>
     <row r="166" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F166" s="76"/>
-      <c r="AQ166" s="74"/>
+      <c r="F166" s="75"/>
+      <c r="AQ166" s="73"/>
     </row>
     <row r="167" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F167" s="76"/>
-      <c r="AQ167" s="74"/>
+      <c r="F167" s="75"/>
+      <c r="AQ167" s="73"/>
     </row>
     <row r="168" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F168" s="76"/>
-      <c r="AQ168" s="74"/>
+      <c r="F168" s="75"/>
+      <c r="AQ168" s="73"/>
     </row>
     <row r="169" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F169" s="76"/>
-      <c r="AQ169" s="74"/>
+      <c r="F169" s="75"/>
+      <c r="AQ169" s="73"/>
     </row>
     <row r="170" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F170" s="76"/>
-      <c r="AQ170" s="74"/>
+      <c r="F170" s="75"/>
+      <c r="AQ170" s="73"/>
     </row>
     <row r="171" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F171" s="76"/>
-      <c r="AQ171" s="74"/>
+      <c r="F171" s="75"/>
+      <c r="AQ171" s="73"/>
     </row>
     <row r="172" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F172" s="76"/>
-      <c r="AQ172" s="74"/>
+      <c r="F172" s="75"/>
+      <c r="AQ172" s="73"/>
     </row>
     <row r="173" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F173" s="76"/>
-      <c r="AQ173" s="74"/>
+      <c r="F173" s="75"/>
+      <c r="AQ173" s="73"/>
     </row>
     <row r="174" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F174" s="76"/>
-      <c r="AQ174" s="74"/>
+      <c r="F174" s="75"/>
+      <c r="AQ174" s="73"/>
     </row>
     <row r="175" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F175" s="76"/>
-      <c r="AQ175" s="74"/>
+      <c r="F175" s="75"/>
+      <c r="AQ175" s="73"/>
     </row>
     <row r="176" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F176" s="76"/>
-      <c r="AQ176" s="74"/>
+      <c r="F176" s="75"/>
+      <c r="AQ176" s="73"/>
     </row>
     <row r="177" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F177" s="76"/>
-      <c r="AQ177" s="74"/>
+      <c r="F177" s="75"/>
+      <c r="AQ177" s="73"/>
     </row>
     <row r="178" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F178" s="76"/>
-      <c r="AQ178" s="74"/>
+      <c r="F178" s="75"/>
+      <c r="AQ178" s="73"/>
     </row>
     <row r="179" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F179" s="76"/>
-      <c r="AQ179" s="74"/>
+      <c r="F179" s="75"/>
+      <c r="AQ179" s="73"/>
     </row>
     <row r="180" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F180" s="76"/>
-      <c r="AQ180" s="74"/>
+      <c r="F180" s="75"/>
+      <c r="AQ180" s="73"/>
     </row>
     <row r="181" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F181" s="76"/>
-      <c r="AQ181" s="74"/>
+      <c r="F181" s="75"/>
+      <c r="AQ181" s="73"/>
     </row>
     <row r="182" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F182" s="76"/>
-      <c r="AQ182" s="74"/>
+      <c r="F182" s="75"/>
+      <c r="AQ182" s="73"/>
     </row>
     <row r="183" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F183" s="76"/>
-      <c r="AQ183" s="74"/>
+      <c r="F183" s="75"/>
+      <c r="AQ183" s="73"/>
     </row>
     <row r="184" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F184" s="76"/>
-      <c r="AQ184" s="74"/>
+      <c r="F184" s="75"/>
+      <c r="AQ184" s="73"/>
     </row>
     <row r="185" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F185" s="76"/>
-      <c r="AQ185" s="74"/>
+      <c r="F185" s="75"/>
+      <c r="AQ185" s="73"/>
     </row>
     <row r="186" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F186" s="76"/>
-      <c r="AQ186" s="74"/>
+      <c r="F186" s="75"/>
+      <c r="AQ186" s="73"/>
     </row>
     <row r="187" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F187" s="76"/>
-      <c r="AQ187" s="74"/>
+      <c r="F187" s="75"/>
+      <c r="AQ187" s="73"/>
     </row>
     <row r="188" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F188" s="76"/>
-      <c r="AQ188" s="74"/>
+      <c r="F188" s="75"/>
+      <c r="AQ188" s="73"/>
     </row>
     <row r="189" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F189" s="76"/>
-      <c r="AQ189" s="74"/>
+      <c r="F189" s="75"/>
+      <c r="AQ189" s="73"/>
     </row>
     <row r="190" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F190" s="76"/>
-      <c r="AQ190" s="74"/>
+      <c r="F190" s="75"/>
+      <c r="AQ190" s="73"/>
     </row>
     <row r="191" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F191" s="76"/>
-      <c r="AQ191" s="74"/>
+      <c r="F191" s="75"/>
+      <c r="AQ191" s="73"/>
     </row>
     <row r="192" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F192" s="76"/>
-      <c r="AQ192" s="74"/>
+      <c r="F192" s="75"/>
+      <c r="AQ192" s="73"/>
     </row>
     <row r="193" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F193" s="76"/>
-      <c r="AQ193" s="74"/>
+      <c r="F193" s="75"/>
+      <c r="AQ193" s="73"/>
     </row>
     <row r="194" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F194" s="76"/>
-      <c r="AQ194" s="74"/>
+      <c r="F194" s="75"/>
+      <c r="AQ194" s="73"/>
     </row>
     <row r="195" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F195" s="76"/>
-      <c r="AQ195" s="74"/>
+      <c r="F195" s="75"/>
+      <c r="AQ195" s="73"/>
     </row>
     <row r="196" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F196" s="76"/>
-      <c r="AQ196" s="74"/>
+      <c r="F196" s="75"/>
+      <c r="AQ196" s="73"/>
     </row>
     <row r="197" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F197" s="76"/>
-      <c r="AQ197" s="74"/>
+      <c r="F197" s="75"/>
+      <c r="AQ197" s="73"/>
     </row>
     <row r="198" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F198" s="76"/>
-      <c r="AQ198" s="74"/>
+      <c r="F198" s="75"/>
+      <c r="AQ198" s="73"/>
     </row>
     <row r="199" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F199" s="76"/>
-      <c r="AQ199" s="74"/>
+      <c r="F199" s="75"/>
+      <c r="AQ199" s="73"/>
     </row>
     <row r="200" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F200" s="76"/>
-      <c r="AQ200" s="74"/>
+      <c r="F200" s="75"/>
+      <c r="AQ200" s="73"/>
     </row>
     <row r="201" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F201" s="76"/>
-      <c r="AQ201" s="74"/>
+      <c r="F201" s="75"/>
+      <c r="AQ201" s="73"/>
     </row>
     <row r="202" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F202" s="76"/>
-      <c r="AQ202" s="74"/>
+      <c r="F202" s="75"/>
+      <c r="AQ202" s="73"/>
     </row>
     <row r="203" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F203" s="76"/>
-      <c r="AQ203" s="74"/>
+      <c r="F203" s="75"/>
+      <c r="AQ203" s="73"/>
     </row>
     <row r="204" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F204" s="76"/>
-      <c r="AQ204" s="74"/>
+      <c r="F204" s="75"/>
+      <c r="AQ204" s="73"/>
     </row>
     <row r="205" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F205" s="76"/>
-      <c r="AQ205" s="74"/>
+      <c r="F205" s="75"/>
+      <c r="AQ205" s="73"/>
     </row>
     <row r="206" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F206" s="76"/>
-      <c r="AQ206" s="74"/>
+      <c r="F206" s="75"/>
+      <c r="AQ206" s="73"/>
     </row>
     <row r="207" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F207" s="76"/>
-      <c r="AQ207" s="74"/>
+      <c r="F207" s="75"/>
+      <c r="AQ207" s="73"/>
     </row>
     <row r="208" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F208" s="76"/>
-      <c r="AQ208" s="74"/>
+      <c r="F208" s="75"/>
+      <c r="AQ208" s="73"/>
     </row>
     <row r="209" x14ac:dyDescent="0.15"/>
     <row r="210" x14ac:dyDescent="0.15"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\user_data_for_haier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaiqi/Desktop/海尔数据收集/user_data_for_haier/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1995" windowWidth="25605" windowHeight="13065"/>
+    <workbookView xWindow="20" yWindow="1980" windowWidth="25600" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1055,7 +1055,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
@@ -1907,6 +1907,15 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1962,15 +1971,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2320,159 +2320,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FZ212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Y103" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="30" zoomScalePageLayoutView="30" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y120" sqref="Y120"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="8.125" style="4" customWidth="1"/>
-    <col min="10" max="13" width="8.125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="6.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="75" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="8.1640625" style="4" customWidth="1"/>
+    <col min="10" max="13" width="8.1640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="6.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.1640625" style="1" customWidth="1"/>
     <col min="20" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="25" width="7.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="7.125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5.125" style="1" customWidth="1"/>
+    <col min="22" max="25" width="7.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.1640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="1" customWidth="1"/>
-    <col min="30" max="37" width="5.125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="7.125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="5.125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="7.125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="49.125" style="1" customWidth="1"/>
+    <col min="30" max="37" width="5.1640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="7.1640625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="5.1640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="7.1640625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="49.1640625" style="1" customWidth="1"/>
     <col min="42" max="42" width="9" style="1" customWidth="1"/>
     <col min="43" max="43" width="8" style="73" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9" style="1" customWidth="1"/>
-    <col min="45" max="45" width="7.625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="7.125" style="1" customWidth="1"/>
-    <col min="47" max="47" width="6.875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="7.125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="7.6640625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="7.1640625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="6.83203125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="7.1640625" style="1" customWidth="1"/>
     <col min="49" max="49" width="8" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.83203125" style="1" customWidth="1"/>
     <col min="51" max="51" width="6.5" style="1" customWidth="1"/>
     <col min="52" max="52" width="7.5" style="1" customWidth="1"/>
     <col min="53" max="53" width="8" style="1" customWidth="1"/>
     <col min="54" max="54" width="7.5" style="1" customWidth="1"/>
-    <col min="55" max="63" width="6.125" style="1" customWidth="1"/>
-    <col min="64" max="65" width="8.125" style="1" customWidth="1"/>
-    <col min="66" max="67" width="6.125" style="1" customWidth="1"/>
-    <col min="68" max="68" width="8.875" style="1" customWidth="1"/>
+    <col min="55" max="63" width="6.1640625" style="1" customWidth="1"/>
+    <col min="64" max="65" width="8.1640625" style="1" customWidth="1"/>
+    <col min="66" max="67" width="6.1640625" style="1" customWidth="1"/>
+    <col min="68" max="68" width="8.83203125" style="1" customWidth="1"/>
     <col min="69" max="69" width="8.5" style="1" customWidth="1"/>
     <col min="70" max="70" width="6.5" style="1" customWidth="1"/>
-    <col min="71" max="71" width="6.125" style="1" customWidth="1"/>
-    <col min="72" max="180" width="8.625" style="1" hidden="1" customWidth="1"/>
-    <col min="181" max="182" width="8.625" hidden="1" customWidth="1"/>
-    <col min="183" max="16384" width="8.875" hidden="1"/>
+    <col min="71" max="71" width="6.1640625" style="1" customWidth="1"/>
+    <col min="72" max="180" width="8.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="181" max="182" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="183" max="16384" width="8.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="64"/>
-      <c r="B1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88" t="s">
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="81" t="s">
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="BF1" s="82"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="83"/>
-      <c r="BK1" s="83"/>
-      <c r="BL1" s="84"/>
-      <c r="BM1" s="82"/>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="82"/>
+      <c r="BF1" s="85"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
+      <c r="BK1" s="86"/>
+      <c r="BL1" s="87"/>
+      <c r="BM1" s="85"/>
+      <c r="BN1" s="85"/>
+      <c r="BO1" s="85"/>
       <c r="BP1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="BQ1" s="85" t="s">
+      <c r="BQ1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="BR1" s="83"/>
-      <c r="BS1" s="84"/>
+      <c r="BR1" s="86"/>
+      <c r="BS1" s="87"/>
     </row>
-    <row r="2" spans="1:71" s="3" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" s="3" customFormat="1" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4414,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4630,7 +4630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4846,7 +4846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5062,7 +5062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <f t="shared" ref="A16:A21" si="1">A15+1</f>
         <v>14</v>
@@ -5710,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6142,7 +6142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6358,7 +6358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <f t="shared" ref="A22:A61" si="2">A21+1</f>
         <v>20</v>
@@ -7006,7 +7006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -7222,7 +7222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -7438,7 +7438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -7654,7 +7654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -7870,7 +7870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -8086,7 +8086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -8302,7 +8302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -8518,7 +8518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -8734,7 +8734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -8950,7 +8950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -9166,7 +9166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -9382,7 +9382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -9598,7 +9598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -10030,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -10246,7 +10246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -10462,7 +10462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -10678,7 +10678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -10894,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -11110,7 +11110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -11326,7 +11326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -11542,7 +11542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -11758,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -11974,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -12190,7 +12190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -12406,7 +12406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -12622,7 +12622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -12838,7 +12838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -13054,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -13270,7 +13270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -13702,7 +13702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A54" s="14">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -13918,7 +13918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="14">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -14350,7 +14350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -14566,7 +14566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A58" s="14">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -14782,7 +14782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -14998,7 +14998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A60" s="14">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -15214,7 +15214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A61" s="14">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -15430,7 +15430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A62" s="14">
         <f t="shared" ref="A62:A67" si="3">A61+1</f>
         <v>60</v>
@@ -15646,7 +15646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A63" s="14">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -15862,7 +15862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A64" s="14">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -16078,7 +16078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A65" s="14">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -16294,7 +16294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A66" s="14">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A67" s="14">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -16726,7 +16726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A68" s="14">
         <f t="shared" ref="A68:A73" si="4">A67+1</f>
         <v>66</v>
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A69" s="14">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="14">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -17374,7 +17374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A71" s="14">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -17590,7 +17590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A72" s="14">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -17806,7 +17806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A73" s="14">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -18022,7 +18022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A74" s="14">
         <f t="shared" ref="A74:A83" si="5">A73+1</f>
         <v>72</v>
@@ -18238,7 +18238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A75" s="14">
         <f t="shared" si="5"/>
         <v>73</v>
@@ -18454,7 +18454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A76" s="14">
         <f t="shared" si="5"/>
         <v>74</v>
@@ -18670,7 +18670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A77" s="14">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -18886,7 +18886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A78" s="14">
         <f t="shared" si="5"/>
         <v>76</v>
@@ -19102,7 +19102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A79" s="14">
         <f t="shared" si="5"/>
         <v>77</v>
@@ -19318,7 +19318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A80" s="14">
         <f t="shared" si="5"/>
         <v>78</v>
@@ -19534,7 +19534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A81" s="14">
         <f t="shared" si="5"/>
         <v>79</v>
@@ -19750,7 +19750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A82" s="14">
         <f t="shared" si="5"/>
         <v>80</v>
@@ -19966,7 +19966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A83" s="14">
         <f t="shared" si="5"/>
         <v>81</v>
@@ -20182,7 +20182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A84" s="14">
         <f t="shared" ref="A84:A95" si="6">A83+1</f>
         <v>82</v>
@@ -20507,7 +20507,7 @@
       <c r="FW84"/>
       <c r="FX84"/>
     </row>
-    <row r="85" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A85" s="14">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -20832,7 +20832,7 @@
       <c r="FW85"/>
       <c r="FX85"/>
     </row>
-    <row r="86" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A86" s="14">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -21157,7 +21157,7 @@
       <c r="FW86"/>
       <c r="FX86"/>
     </row>
-    <row r="87" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="14">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -21482,7 +21482,7 @@
       <c r="FW87"/>
       <c r="FX87"/>
     </row>
-    <row r="88" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A88" s="14">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -21807,7 +21807,7 @@
       <c r="FW88"/>
       <c r="FX88"/>
     </row>
-    <row r="89" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A89" s="14">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -22132,7 +22132,7 @@
       <c r="FW89"/>
       <c r="FX89"/>
     </row>
-    <row r="90" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A90" s="14">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -22457,7 +22457,7 @@
       <c r="FW90"/>
       <c r="FX90"/>
     </row>
-    <row r="91" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A91" s="14">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -22782,7 +22782,7 @@
       <c r="FW91"/>
       <c r="FX91"/>
     </row>
-    <row r="92" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A92" s="14">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -23107,7 +23107,7 @@
       <c r="FW92"/>
       <c r="FX92"/>
     </row>
-    <row r="93" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A93" s="14">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -23432,7 +23432,7 @@
       <c r="FW93"/>
       <c r="FX93"/>
     </row>
-    <row r="94" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A94" s="14">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -23757,7 +23757,7 @@
       <c r="FW94"/>
       <c r="FX94"/>
     </row>
-    <row r="95" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A95" s="14">
         <f t="shared" si="6"/>
         <v>93</v>
@@ -24082,7 +24082,7 @@
       <c r="FW95"/>
       <c r="FX95"/>
     </row>
-    <row r="96" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A96" s="14">
         <f t="shared" ref="A96:A132" si="7">A95+1</f>
         <v>94</v>
@@ -24407,7 +24407,7 @@
       <c r="FW96"/>
       <c r="FX96"/>
     </row>
-    <row r="97" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A97" s="14">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -24732,7 +24732,7 @@
       <c r="FW97"/>
       <c r="FX97"/>
     </row>
-    <row r="98" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A98" s="14">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -25057,7 +25057,7 @@
       <c r="FW98"/>
       <c r="FX98"/>
     </row>
-    <row r="99" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A99" s="14">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -25382,7 +25382,7 @@
       <c r="FW99"/>
       <c r="FX99"/>
     </row>
-    <row r="100" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A100" s="14">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -25707,7 +25707,7 @@
       <c r="FW100"/>
       <c r="FX100"/>
     </row>
-    <row r="101" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A101" s="14">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -26032,7 +26032,7 @@
       <c r="FW101"/>
       <c r="FX101"/>
     </row>
-    <row r="102" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A102" s="14">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -26248,7 +26248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A103" s="14">
         <f t="shared" si="7"/>
         <v>101</v>
@@ -26464,7 +26464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A104" s="14">
         <f t="shared" si="7"/>
         <v>102</v>
@@ -26680,7 +26680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A105" s="14">
         <f t="shared" si="7"/>
         <v>103</v>
@@ -26896,7 +26896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A106" s="14">
         <f t="shared" si="7"/>
         <v>104</v>
@@ -27112,7 +27112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A107" s="14">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -27328,7 +27328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A108" s="14">
         <f t="shared" si="7"/>
         <v>106</v>
@@ -27544,7 +27544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A109" s="14">
         <f t="shared" si="7"/>
         <v>107</v>
@@ -27760,7 +27760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A110" s="14">
         <f t="shared" si="7"/>
         <v>108</v>
@@ -27976,7 +27976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A111" s="14">
         <f t="shared" si="7"/>
         <v>109</v>
@@ -28192,7 +28192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:180" ht="27" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A112" s="14">
         <f t="shared" si="7"/>
         <v>110</v>
@@ -28408,7 +28408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A113" s="14">
         <f t="shared" si="7"/>
         <v>111</v>
@@ -28624,7 +28624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A114" s="14">
         <f t="shared" si="7"/>
         <v>112</v>
@@ -28840,7 +28840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A115" s="14">
         <f t="shared" si="7"/>
         <v>113</v>
@@ -29056,7 +29056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A116" s="14">
         <f t="shared" si="7"/>
         <v>114</v>
@@ -29272,7 +29272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A117" s="14">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -29488,7 +29488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A118" s="14">
         <f t="shared" si="7"/>
         <v>116</v>
@@ -29704,7 +29704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A119" s="14">
         <f t="shared" si="7"/>
         <v>117</v>
@@ -29920,7 +29920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A120" s="14">
         <f t="shared" si="7"/>
         <v>118</v>
@@ -30136,7 +30136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A121" s="14">
         <f t="shared" si="7"/>
         <v>119</v>
@@ -30352,7 +30352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A122" s="14">
         <f t="shared" si="7"/>
         <v>120</v>
@@ -30568,7 +30568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A123" s="14">
         <f t="shared" si="7"/>
         <v>121</v>
@@ -30784,7 +30784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A124" s="14">
         <f t="shared" si="7"/>
         <v>122</v>
@@ -31000,7 +31000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A125" s="14">
         <f t="shared" si="7"/>
         <v>123</v>
@@ -31216,7 +31216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A126" s="14">
         <f t="shared" si="7"/>
         <v>124</v>
@@ -31432,7 +31432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A127" s="14">
         <f t="shared" si="7"/>
         <v>125</v>
@@ -31648,7 +31648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A128" s="14">
         <f t="shared" si="7"/>
         <v>126</v>
@@ -31864,7 +31864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A129" s="14">
         <f t="shared" si="7"/>
         <v>127</v>
@@ -32080,7 +32080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A130" s="14">
         <f t="shared" si="7"/>
         <v>128</v>
@@ -32296,7 +32296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A131" s="14">
         <f t="shared" si="7"/>
         <v>129</v>
@@ -32512,7 +32512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:71" ht="28" x14ac:dyDescent="0.15">
       <c r="A132" s="14">
         <f t="shared" si="7"/>
         <v>130</v>
@@ -33308,9 +33308,9 @@
       <c r="BN140" s="25"/>
       <c r="BO140" s="24"/>
       <c r="BP140" s="25"/>
-      <c r="BQ140" s="95"/>
-      <c r="BR140" s="96"/>
-      <c r="BS140" s="97"/>
+      <c r="BQ140" s="76"/>
+      <c r="BR140" s="77"/>
+      <c r="BS140" s="78"/>
     </row>
     <row r="141" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F141" s="75"/>
@@ -33614,9 +33614,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO140">
       <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C140">
-      <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员,PLUS会员[使用]"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O140 G3:I140">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
@@ -33628,6 +33625,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC140">
       <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动,/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员,PLUS会员[试用]"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33644,75 +33644,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -33734,75 +33734,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1980" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="40" yWindow="1420" windowWidth="25600" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="234">
   <si>
     <t>客户信息</t>
   </si>
@@ -460,109 +460,28 @@
     <t>黑龙江</t>
   </si>
   <si>
-    <t>2016/12/03 09:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/01/04 12:00 </t>
-  </si>
-  <si>
-    <t>2016/3/27 14:00:00</t>
-  </si>
-  <si>
     <t>海尔（Haier）KFR-35GW/15DEA22AU1套机 劲铂自清洁 1.5匹 变频挂机 智能 除甲醛 二级能效 冷暖 壁挂式空调</t>
-  </si>
-  <si>
-    <t>2016/11/25 11:00:00</t>
-  </si>
-  <si>
-    <t>2016/5/9 11:00:00</t>
-  </si>
-  <si>
-    <t>2016/8/1 14:00:00</t>
-  </si>
-  <si>
-    <t>2016/3/14 14:00:00</t>
   </si>
   <si>
     <t>江西</t>
   </si>
   <si>
-    <t>2017/1/17 14:00:00</t>
-  </si>
-  <si>
     <t>海尔(Haier)60升APP智能控制 动态增容 预约洗浴中温保温 防电墙电热水器EC6002-D6(U1) 一级能效</t>
-  </si>
-  <si>
-    <t>2017/1/18 14:00:00</t>
-  </si>
-  <si>
-    <t>2016/12/14 14:00:00</t>
   </si>
   <si>
     <t>海尔（Haier）360°立体拢烟 低噪音侧吸式油烟机 CXW-200-C150</t>
   </si>
   <si>
-    <t>2016/12/9 14:00:00</t>
-  </si>
-  <si>
-    <t>2016/12/5 10:00:00</t>
-  </si>
-  <si>
-    <t>2016/11/14 14:00:00</t>
-  </si>
-  <si>
-    <t>2017/1/23 14:00:00</t>
-  </si>
-  <si>
-    <t>2016/11/12 14:00:00</t>
-  </si>
-  <si>
-    <t>2016/10/18 14:00:00</t>
-  </si>
-  <si>
-    <t>2016/11/13 14:00:00</t>
-  </si>
-  <si>
-    <t>2017/12/19 10:00:00</t>
-  </si>
-  <si>
-    <t>2017/1/25 10:00:00</t>
-  </si>
-  <si>
-    <t>2016/9/10 14:00:00</t>
-  </si>
-  <si>
     <t>海尔(Haier)80升空气能热水器(一体壁挂式) 智能APP远程遥控电热水器 KG15/80-AE3-U1</t>
   </si>
   <si>
-    <t>2016/3/1 14:00:00</t>
-  </si>
-  <si>
-    <t>2016/11/2 14:00:00</t>
-  </si>
-  <si>
     <t>安装问题</t>
-  </si>
-  <si>
-    <t>2015/12/14 14:00:00</t>
   </si>
   <si>
     <t>价格波动</t>
   </si>
   <si>
     <t>云南</t>
-  </si>
-  <si>
-    <t>2016/6/11 14:00:00</t>
-  </si>
-  <si>
-    <t>2016/3/17 14:00:00</t>
-  </si>
-  <si>
-    <t>2016/4/11 14:00:00</t>
-  </si>
-  <si>
-    <t>2016/3/26 14:00:00</t>
   </si>
   <si>
     <t>海尔(Haier)65升空气能热水器(一体壁挂式)智能APP远程遥控电热水器KG15/65-AE3-U1</t>
@@ -873,10 +792,6 @@
     <t>PLUS会员[试用]</t>
   </si>
   <si>
-    <t>未安装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -886,10 +801,6 @@
   </si>
   <si>
     <t>配送员安装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己安装</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -977,18 +888,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2016/4/30 14:00:00</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/11/30 18:30:00</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/12/4  14:17:00</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1046,6 +945,36 @@
   <si>
     <t>3</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三日</t>
+  </si>
+  <si>
+    <t>三到七日</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>次日</t>
+  </si>
+  <si>
+    <t>大于一周</t>
+  </si>
+  <si>
+    <t>当天下午</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>半天内</t>
   </si>
   <si>
     <t>/</t>
@@ -2321,10 +2250,10 @@
   <dimension ref="A1:FZ212"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="30" zoomScalePageLayoutView="30" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -2387,7 +2316,7 @@
       <c r="C1" s="89"/>
       <c r="D1" s="90"/>
       <c r="E1" s="91" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="F1" s="92"/>
       <c r="G1" s="92"/>
@@ -2510,19 +2439,19 @@
         <v>20</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="N2" s="29" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="Q2" s="65" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="R2" s="30" t="s">
         <v>22</v>
@@ -2531,7 +2460,7 @@
         <v>23</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="U2" s="30" t="s">
         <v>24</v>
@@ -2552,7 +2481,7 @@
         <v>29</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="AB2" s="33" t="s">
         <v>30</v>
@@ -2564,7 +2493,7 @@
         <v>32</v>
       </c>
       <c r="AE2" s="33" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="AF2" s="33" t="s">
         <v>33</v>
@@ -2636,7 +2565,7 @@
         <v>55</v>
       </c>
       <c r="BC2" s="55" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="BD2" s="55" t="s">
         <v>56</v>
@@ -3166,7 +3095,7 @@
         <v>5</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="17">
         <v>2</v>
@@ -4246,7 +4175,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="17">
         <v>4</v>
@@ -5365,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD15" s="17">
         <v>5</v>
@@ -5542,7 +5471,7 @@
         <v>2</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="17">
         <v>3</v>
@@ -5581,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD16" s="17">
         <v>1</v>
@@ -5797,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD17" s="17">
         <v>2</v>
@@ -7309,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD24" s="17">
         <v>1</v>
@@ -9430,7 +9359,7 @@
         <v>3</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="Q34" s="21">
         <v>3</v>
@@ -9469,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="16" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="AD34" s="16" t="s">
         <v>112</v>
@@ -9901,7 +9830,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD36" s="35" t="s">
         <v>106</v>
@@ -11413,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD43" s="35" t="s">
         <v>106</v>
@@ -11845,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD45" s="39" t="s">
         <v>102</v>
@@ -12277,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD47" s="39" t="s">
         <v>113</v>
@@ -12493,7 +12422,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="41" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="AD48" s="41" t="s">
         <v>103</v>
@@ -12925,7 +12854,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="16" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="AD50" s="35" t="s">
         <v>103</v>
@@ -13141,7 +13070,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="16" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="AD51" s="16" t="s">
         <v>103</v>
@@ -13357,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD52" s="42" t="s">
         <v>113</v>
@@ -13966,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="P55" s="24" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="Q55" s="25">
         <v>3</v>
@@ -14182,7 +14111,7 @@
         <v>3</v>
       </c>
       <c r="P56" s="24" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="Q56" s="25">
         <v>3</v>
@@ -15262,7 +15191,7 @@
         <v>1</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="Q61" s="25">
         <v>3</v>
@@ -15478,7 +15407,7 @@
         <v>2</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="Q62" s="25">
         <v>1</v>
@@ -15553,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="AO62" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP62" s="25">
         <v>0</v>
@@ -15694,7 +15623,7 @@
         <v>3</v>
       </c>
       <c r="P63" s="24" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="Q63" s="25">
         <v>3</v>
@@ -15769,7 +15698,7 @@
         <v>76</v>
       </c>
       <c r="AO63" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP63" s="25">
         <v>0</v>
@@ -15910,7 +15839,7 @@
         <v>3</v>
       </c>
       <c r="P64" s="24" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Q64" s="25">
         <v>3</v>
@@ -15985,7 +15914,7 @@
         <v>76</v>
       </c>
       <c r="AO64" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP64" s="25">
         <v>0</v>
@@ -16126,7 +16055,7 @@
         <v>3</v>
       </c>
       <c r="P65" s="24" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="Q65" s="25">
         <v>3</v>
@@ -16165,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD65" s="25">
         <v>3</v>
@@ -16201,7 +16130,7 @@
         <v>0</v>
       </c>
       <c r="AO65" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP65" s="25">
         <v>0</v>
@@ -16342,7 +16271,7 @@
         <v>3</v>
       </c>
       <c r="P66" s="24" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="Q66" s="25">
         <v>3</v>
@@ -16381,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD66" s="25">
         <v>3</v>
@@ -16417,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP66" s="25">
         <v>0</v>
@@ -16453,7 +16382,7 @@
         <v>1</v>
       </c>
       <c r="BA66" s="24" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="BB66" s="25">
         <v>3</v>
@@ -16597,7 +16526,7 @@
         <v>1</v>
       </c>
       <c r="AC67" s="24" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="AD67" s="25">
         <v>1</v>
@@ -16633,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="AO67" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP67" s="25">
         <v>0</v>
@@ -16849,7 +16778,7 @@
         <v>76</v>
       </c>
       <c r="AO68" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP68" s="25">
         <v>0</v>
@@ -16990,7 +16919,7 @@
         <v>3</v>
       </c>
       <c r="P69" s="24" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="Q69" s="25">
         <v>3</v>
@@ -17029,7 +16958,7 @@
         <v>1</v>
       </c>
       <c r="AC69" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD69" s="25">
         <v>1</v>
@@ -17065,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="AO69" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP69" s="25">
         <v>0</v>
@@ -17164,7 +17093,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>90</v>
@@ -17206,7 +17135,7 @@
         <v>3</v>
       </c>
       <c r="P70" s="24" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="Q70" s="25">
         <v>4</v>
@@ -17281,7 +17210,7 @@
         <v>76</v>
       </c>
       <c r="AO70" s="52" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AP70" s="25">
         <v>0</v>
@@ -17422,7 +17351,7 @@
         <v>3</v>
       </c>
       <c r="P71" s="24" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="Q71" s="25">
         <v>3</v>
@@ -17461,7 +17390,7 @@
         <v>1</v>
       </c>
       <c r="AC71" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD71" s="24" t="s">
         <v>112</v>
@@ -17497,7 +17426,7 @@
         <v>118</v>
       </c>
       <c r="AO71" s="52" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AP71" s="25">
         <v>0</v>
@@ -17533,7 +17462,7 @@
         <v>1</v>
       </c>
       <c r="BA71" s="24" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="BB71" s="25">
         <v>3</v>
@@ -17638,7 +17567,7 @@
         <v>3</v>
       </c>
       <c r="P72" s="24" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="Q72" s="25">
         <v>5</v>
@@ -17713,7 +17642,7 @@
         <v>76</v>
       </c>
       <c r="AO72" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP72" s="25">
         <v>0</v>
@@ -17854,7 +17783,7 @@
         <v>3</v>
       </c>
       <c r="P73" s="24" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="Q73" s="25">
         <v>3</v>
@@ -17929,7 +17858,7 @@
         <v>76</v>
       </c>
       <c r="AO73" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP73" s="25">
         <v>0</v>
@@ -18070,7 +17999,7 @@
         <v>3</v>
       </c>
       <c r="P74" s="24" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="Q74" s="25">
         <v>3</v>
@@ -18145,7 +18074,7 @@
         <v>76</v>
       </c>
       <c r="AO74" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP74" s="25">
         <v>0</v>
@@ -18286,7 +18215,7 @@
         <v>3</v>
       </c>
       <c r="P75" s="24" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="Q75" s="25">
         <v>3</v>
@@ -18361,7 +18290,7 @@
         <v>76</v>
       </c>
       <c r="AO75" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP75" s="25">
         <v>0</v>
@@ -18502,7 +18431,7 @@
         <v>4</v>
       </c>
       <c r="P76" s="24" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="Q76" s="25">
         <v>2</v>
@@ -18577,7 +18506,7 @@
         <v>76</v>
       </c>
       <c r="AO76" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP76" s="25">
         <v>0</v>
@@ -18718,7 +18647,7 @@
         <v>3</v>
       </c>
       <c r="P77" s="24" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="Q77" s="25">
         <v>3</v>
@@ -18793,7 +18722,7 @@
         <v>76</v>
       </c>
       <c r="AO77" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP77" s="25">
         <v>0</v>
@@ -18934,7 +18863,7 @@
         <v>3</v>
       </c>
       <c r="P78" s="24" t="s">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="Q78" s="25">
         <v>4</v>
@@ -19009,7 +18938,7 @@
         <v>76</v>
       </c>
       <c r="AO78" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP78" s="25">
         <v>0</v>
@@ -19150,7 +19079,7 @@
         <v>3</v>
       </c>
       <c r="P79" s="24" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="Q79" s="25">
         <v>3</v>
@@ -19225,7 +19154,7 @@
         <v>76</v>
       </c>
       <c r="AO79" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP79" s="25">
         <v>0</v>
@@ -19366,7 +19295,7 @@
         <v>3</v>
       </c>
       <c r="P80" s="24" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="Q80" s="25">
         <v>3</v>
@@ -19405,10 +19334,10 @@
         <v>1</v>
       </c>
       <c r="AC80" s="24" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="AD80" s="24" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="AE80" s="25">
         <v>0</v>
@@ -19432,16 +19361,16 @@
         <v>118</v>
       </c>
       <c r="AL80" s="24" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="AM80" s="24" t="s">
         <v>112</v>
       </c>
       <c r="AN80" s="24" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="AO80" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP80" s="25">
         <v>0</v>
@@ -19582,7 +19511,7 @@
         <v>4</v>
       </c>
       <c r="P81" s="24" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="Q81" s="25">
         <v>3</v>
@@ -19621,7 +19550,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD81" s="24" t="s">
         <v>112</v>
@@ -19657,7 +19586,7 @@
         <v>118</v>
       </c>
       <c r="AO81" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP81" s="25">
         <v>0</v>
@@ -19798,7 +19727,7 @@
         <v>3</v>
       </c>
       <c r="P82" s="24" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Q82" s="25">
         <v>3</v>
@@ -19837,7 +19766,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD82" s="24" t="s">
         <v>103</v>
@@ -19873,7 +19802,7 @@
         <v>118</v>
       </c>
       <c r="AO82" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AP82" s="25">
         <v>0</v>
@@ -19909,7 +19838,7 @@
         <v>1</v>
       </c>
       <c r="BA82" s="24" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="BB82" s="25">
         <v>3</v>
@@ -20014,7 +19943,7 @@
         <v>3</v>
       </c>
       <c r="P83" s="24" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="Q83" s="25">
         <v>4</v>
@@ -20089,7 +20018,7 @@
         <v>76</v>
       </c>
       <c r="AO83" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP83" s="25">
         <v>0</v>
@@ -20230,7 +20159,7 @@
         <v>3</v>
       </c>
       <c r="P84" s="24" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="Q84" s="25">
         <v>3</v>
@@ -20305,7 +20234,7 @@
         <v>76</v>
       </c>
       <c r="AO84" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP84" s="25">
         <v>0</v>
@@ -20555,7 +20484,7 @@
         <v>3</v>
       </c>
       <c r="P85" s="24" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="Q85" s="25">
         <v>2</v>
@@ -20594,10 +20523,10 @@
         <v>1</v>
       </c>
       <c r="AC85" s="24" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="AD85" s="63" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="AE85" s="25">
         <v>0</v>
@@ -20621,7 +20550,7 @@
         <v>76</v>
       </c>
       <c r="AL85" s="63" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="AM85" s="24" t="s">
         <v>102</v>
@@ -20630,7 +20559,7 @@
         <v>118</v>
       </c>
       <c r="AO85" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP85" s="25">
         <v>0</v>
@@ -20880,7 +20809,7 @@
         <v>3</v>
       </c>
       <c r="P86" s="24" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="Q86" s="25">
         <v>3</v>
@@ -20919,7 +20848,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="24" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="AD86" s="24" t="s">
         <v>102</v>
@@ -20949,19 +20878,19 @@
         <v>102</v>
       </c>
       <c r="AM86" s="63" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="AN86" s="24" t="s">
         <v>118</v>
       </c>
       <c r="AO86" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP86" s="25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ86" s="25">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR86" s="25">
         <v>0</v>
@@ -21163,7 +21092,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>99</v>
@@ -21205,7 +21134,7 @@
         <v>4</v>
       </c>
       <c r="P87" s="24" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="Q87" s="25">
         <v>3</v>
@@ -21244,7 +21173,7 @@
         <v>1</v>
       </c>
       <c r="AC87" s="24" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="AD87" s="24" t="s">
         <v>103</v>
@@ -21274,13 +21203,13 @@
         <v>103</v>
       </c>
       <c r="AM87" s="24" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="AN87" s="24" t="s">
         <v>118</v>
       </c>
       <c r="AO87" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP87" s="25">
         <v>0</v>
@@ -21530,7 +21459,7 @@
         <v>3</v>
       </c>
       <c r="P88" s="24" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="Q88" s="25">
         <v>3</v>
@@ -21605,7 +21534,7 @@
         <v>76</v>
       </c>
       <c r="AO88" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP88" s="25">
         <v>0</v>
@@ -21855,10 +21784,10 @@
         <v>3</v>
       </c>
       <c r="P89" s="24" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="Q89" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R89" s="25">
         <v>2</v>
@@ -21894,7 +21823,7 @@
         <v>1</v>
       </c>
       <c r="AC89" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD89" s="24" t="s">
         <v>103</v>
@@ -21930,7 +21859,7 @@
         <v>118</v>
       </c>
       <c r="AO89" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP89" s="25">
         <v>0</v>
@@ -21966,7 +21895,7 @@
         <v>1</v>
       </c>
       <c r="BA89" s="24" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="BB89" s="25">
         <v>3</v>
@@ -22255,7 +22184,7 @@
         <v>76</v>
       </c>
       <c r="AO90" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP90" s="25">
         <v>0</v>
@@ -22463,7 +22392,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C91" s="24" t="s">
         <v>90</v>
@@ -22580,7 +22509,7 @@
         <v>76</v>
       </c>
       <c r="AO91" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP91" s="25">
         <v>0</v>
@@ -22830,7 +22759,7 @@
         <v>3</v>
       </c>
       <c r="P92" s="24" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="Q92" s="25">
         <v>3</v>
@@ -22905,7 +22834,7 @@
         <v>76</v>
       </c>
       <c r="AO92" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP92" s="25">
         <v>0</v>
@@ -23155,7 +23084,7 @@
         <v>3</v>
       </c>
       <c r="P93" s="24" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="Q93" s="25">
         <v>3</v>
@@ -23230,7 +23159,7 @@
         <v>76</v>
       </c>
       <c r="AO93" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP93" s="25">
         <v>0</v>
@@ -23519,10 +23448,10 @@
         <v>1</v>
       </c>
       <c r="AC94" s="24" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="AD94" s="24" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="AE94" s="25">
         <v>0</v>
@@ -23546,7 +23475,7 @@
         <v>76</v>
       </c>
       <c r="AL94" s="24" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="AM94" s="24" t="s">
         <v>103</v>
@@ -23555,7 +23484,7 @@
         <v>118</v>
       </c>
       <c r="AO94" s="52" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AP94" s="25">
         <v>0</v>
@@ -23880,7 +23809,7 @@
         <v>76</v>
       </c>
       <c r="AO95" s="52" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AP95" s="25">
         <v>0</v>
@@ -24169,7 +24098,7 @@
         <v>1</v>
       </c>
       <c r="AC96" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD96" s="24" t="s">
         <v>112</v>
@@ -24205,7 +24134,7 @@
         <v>103</v>
       </c>
       <c r="AO96" s="52" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AP96" s="25">
         <v>0</v>
@@ -24530,7 +24459,7 @@
         <v>76</v>
       </c>
       <c r="AO97" s="52" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AP97" s="25">
         <v>0</v>
@@ -24855,7 +24784,7 @@
         <v>76</v>
       </c>
       <c r="AO98" s="52" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AP98" s="25">
         <v>0</v>
@@ -25180,7 +25109,7 @@
         <v>76</v>
       </c>
       <c r="AO99" s="52" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AP99" s="25">
         <v>0</v>
@@ -25505,7 +25434,7 @@
         <v>76</v>
       </c>
       <c r="AO100" s="52" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AP100" s="25">
         <v>0</v>
@@ -25755,7 +25684,7 @@
         <v>3</v>
       </c>
       <c r="P101" s="24" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="Q101" s="25">
         <v>3</v>
@@ -25794,7 +25723,7 @@
         <v>1</v>
       </c>
       <c r="AC101" s="24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AD101" s="24" t="s">
         <v>103</v>
@@ -25830,7 +25759,7 @@
         <v>118</v>
       </c>
       <c r="AO101" s="52" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AP101" s="25">
         <v>0</v>
@@ -26080,7 +26009,7 @@
         <v>3</v>
       </c>
       <c r="P102" s="24" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Q102" s="25">
         <v>2</v>
@@ -26155,7 +26084,7 @@
         <v>76</v>
       </c>
       <c r="AO102" s="52" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AP102" s="25">
         <v>0</v>
@@ -26254,7 +26183,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>85</v>
@@ -26296,7 +26225,7 @@
         <v>3</v>
       </c>
       <c r="P103" s="24" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="Q103" s="25">
         <v>5</v>
@@ -26371,7 +26300,7 @@
         <v>76</v>
       </c>
       <c r="AO103" s="52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AP103" s="25">
         <v>0</v>
@@ -26407,7 +26336,7 @@
         <v>0</v>
       </c>
       <c r="BA103" s="24" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="BB103" s="25">
         <v>3</v>
@@ -26434,7 +26363,7 @@
         <v>5</v>
       </c>
       <c r="BJ103" s="25" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="BK103" s="25">
         <v>5</v>
@@ -26470,7 +26399,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>73</v>
@@ -26587,7 +26516,7 @@
         <v>76</v>
       </c>
       <c r="AO104" s="52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AP104" s="25">
         <v>0</v>
@@ -26623,7 +26552,7 @@
         <v>0</v>
       </c>
       <c r="BA104" s="24" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="BB104" s="25">
         <v>3</v>
@@ -26650,7 +26579,7 @@
         <v>3</v>
       </c>
       <c r="BJ104" s="25" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="BK104" s="25">
         <v>4</v>
@@ -26728,7 +26657,7 @@
         <v>4</v>
       </c>
       <c r="P105" s="24" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="Q105" s="25">
         <v>5</v>
@@ -26803,7 +26732,7 @@
         <v>76</v>
       </c>
       <c r="AO105" s="52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AP105" s="25">
         <v>0</v>
@@ -26839,7 +26768,7 @@
         <v>0</v>
       </c>
       <c r="BA105" s="24" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="BB105" s="25">
         <v>3</v>
@@ -26866,7 +26795,7 @@
         <v>5</v>
       </c>
       <c r="BJ105" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="BK105" s="25">
         <v>5</v>
@@ -26902,7 +26831,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>85</v>
@@ -26944,7 +26873,7 @@
         <v>5</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="Q106" s="25">
         <v>5</v>
@@ -27019,7 +26948,7 @@
         <v>76</v>
       </c>
       <c r="AO106" s="52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AP106" s="25">
         <v>0</v>
@@ -27118,7 +27047,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>90</v>
@@ -27160,7 +27089,7 @@
         <v>3</v>
       </c>
       <c r="P107" s="24" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="Q107" s="25">
         <v>3</v>
@@ -27235,7 +27164,7 @@
         <v>76</v>
       </c>
       <c r="AO107" s="52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AP107" s="25">
         <v>0</v>
@@ -27337,7 +27266,7 @@
         <v>76</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D108" s="25">
         <v>2039</v>
@@ -27376,7 +27305,7 @@
         <v>5</v>
       </c>
       <c r="P108" s="24" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="Q108" s="25">
         <v>5</v>
@@ -27451,7 +27380,7 @@
         <v>76</v>
       </c>
       <c r="AO108" s="52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AP108" s="25">
         <v>0</v>
@@ -27592,7 +27521,7 @@
         <v>5</v>
       </c>
       <c r="P109" s="24" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="Q109" s="25">
         <v>5</v>
@@ -27667,7 +27596,7 @@
         <v>76</v>
       </c>
       <c r="AO109" s="52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AP109" s="25">
         <v>0</v>
@@ -27703,7 +27632,7 @@
         <v>0</v>
       </c>
       <c r="BA109" s="24" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="BB109" s="25">
         <v>3</v>
@@ -27730,7 +27659,7 @@
         <v>5</v>
       </c>
       <c r="BJ109" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="BK109" s="25">
         <v>4</v>
@@ -27766,7 +27695,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>85</v>
@@ -27808,7 +27737,7 @@
         <v>3</v>
       </c>
       <c r="P110" s="24" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="Q110" s="25">
         <v>5</v>
@@ -27883,7 +27812,7 @@
         <v>76</v>
       </c>
       <c r="AO110" s="52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AP110" s="25">
         <v>0</v>
@@ -27919,7 +27848,7 @@
         <v>0</v>
       </c>
       <c r="BA110" s="24" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="BB110" s="25">
         <v>3</v>
@@ -27946,7 +27875,7 @@
         <v>3</v>
       </c>
       <c r="BJ110" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="BK110" s="25">
         <v>4</v>
@@ -27982,7 +27911,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>99</v>
@@ -28024,7 +27953,7 @@
         <v>3</v>
       </c>
       <c r="P111" s="24" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="Q111" s="25">
         <v>5</v>
@@ -28099,7 +28028,7 @@
         <v>76</v>
       </c>
       <c r="AO111" s="52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AP111" s="25">
         <v>0</v>
@@ -28135,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="BA111" s="24" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="BB111" s="25">
         <v>3</v>
@@ -28162,7 +28091,7 @@
         <v>5</v>
       </c>
       <c r="BJ111" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="BK111" s="25">
         <v>5</v>
@@ -28198,7 +28127,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>73</v>
@@ -28240,7 +28169,7 @@
         <v>3</v>
       </c>
       <c r="P112" s="24" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="Q112" s="25">
         <v>5</v>
@@ -28315,7 +28244,7 @@
         <v>76</v>
       </c>
       <c r="AO112" s="52" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AP112" s="25">
         <v>0</v>
@@ -28351,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="BA112" s="24" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="BB112" s="25">
         <v>3</v>
@@ -28378,7 +28307,7 @@
         <v>3</v>
       </c>
       <c r="BJ112" s="25" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="BK112" s="25">
         <v>2</v>
@@ -28438,7 +28367,7 @@
         <v>3</v>
       </c>
       <c r="J113" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="25">
         <v>1</v>
@@ -28456,25 +28385,25 @@
         <v>3</v>
       </c>
       <c r="P113" s="24" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="Q113" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="R113" s="25" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="S113" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="T113" s="25" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="U113" s="25" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="V113" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="W113" s="25">
         <v>1</v>
@@ -28495,46 +28424,46 @@
         <v>1</v>
       </c>
       <c r="AC113" s="24" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="AD113" s="24" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="AE113" s="25">
         <v>0</v>
       </c>
       <c r="AF113" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AG113" s="24" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="AH113" s="25">
         <v>0</v>
       </c>
       <c r="AI113" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AJ113" s="25">
         <v>1</v>
       </c>
       <c r="AK113" s="24" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="AL113" s="24" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="AM113" s="24" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="AN113" s="24" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="AO113" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP113" s="25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ113" s="72">
         <v>300</v>
@@ -28543,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="AS113" s="25" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AT113" s="25">
         <v>3</v>
@@ -28672,7 +28601,7 @@
         <v>3</v>
       </c>
       <c r="P114" s="24" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="Q114" s="25">
         <v>3</v>
@@ -28714,52 +28643,52 @@
         <v>87</v>
       </c>
       <c r="AD114" s="24" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="AE114" s="25">
         <v>0</v>
       </c>
       <c r="AF114" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AG114" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AH114" s="25">
         <v>0</v>
       </c>
       <c r="AI114" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AJ114" s="25">
         <v>0</v>
       </c>
       <c r="AK114" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AL114" s="24" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="AM114" s="24" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="AN114" s="24" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="AO114" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP114" s="25">
         <v>0</v>
       </c>
       <c r="AQ114" s="72" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AR114" s="25">
         <v>0</v>
       </c>
       <c r="AS114" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AT114" s="25">
         <v>3</v>
@@ -28783,7 +28712,7 @@
         <v>0</v>
       </c>
       <c r="BA114" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="BB114" s="25">
         <v>3</v>
@@ -28888,7 +28817,7 @@
         <v>3</v>
       </c>
       <c r="P115" s="24" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="Q115" s="25">
         <v>3</v>
@@ -28930,52 +28859,52 @@
         <v>76</v>
       </c>
       <c r="AD115" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AE115" s="25">
         <v>0</v>
       </c>
       <c r="AF115" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AG115" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AH115" s="25">
         <v>0</v>
       </c>
       <c r="AI115" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AJ115" s="25">
         <v>0</v>
       </c>
       <c r="AK115" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AL115" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AM115" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AN115" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AO115" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP115" s="25">
         <v>0</v>
       </c>
       <c r="AQ115" s="72" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AR115" s="25">
         <v>0</v>
       </c>
       <c r="AS115" s="25" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AT115" s="25">
         <v>3</v>
@@ -29026,7 +28955,7 @@
         <v>3</v>
       </c>
       <c r="BJ115" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="BK115" s="25">
         <v>1</v>
@@ -29062,7 +28991,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>85</v>
@@ -29104,7 +29033,7 @@
         <v>2</v>
       </c>
       <c r="P116" s="24" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="Q116" s="25">
         <v>3</v>
@@ -29146,52 +29075,52 @@
         <v>87</v>
       </c>
       <c r="AD116" s="24" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="AE116" s="25">
         <v>0</v>
       </c>
       <c r="AF116" s="24" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="AG116" s="24" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="AH116" s="25">
         <v>0</v>
       </c>
       <c r="AI116" s="24" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="AJ116" s="25">
         <v>0</v>
       </c>
       <c r="AK116" s="24" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="AL116" s="24" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AM116" s="24" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="AN116" s="24" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="AO116" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP116" s="25">
         <v>0</v>
       </c>
       <c r="AQ116" s="72" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AR116" s="25">
         <v>0</v>
       </c>
       <c r="AS116" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AT116" s="25">
         <v>3</v>
@@ -29215,7 +29144,7 @@
         <v>0</v>
       </c>
       <c r="BA116" s="24" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="BB116" s="25">
         <v>3</v>
@@ -29278,7 +29207,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>73</v>
@@ -29320,25 +29249,25 @@
         <v>4</v>
       </c>
       <c r="P117" s="24" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="Q117" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="R117" s="25" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="S117" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="T117" s="25" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="U117" s="25" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="V117" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="W117" s="25">
         <v>1</v>
@@ -29362,52 +29291,52 @@
         <v>76</v>
       </c>
       <c r="AD117" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AE117" s="25">
         <v>0</v>
       </c>
       <c r="AF117" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AG117" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AH117" s="25">
         <v>0</v>
       </c>
       <c r="AI117" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AJ117" s="25">
         <v>0</v>
       </c>
       <c r="AK117" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AL117" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AM117" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AN117" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AO117" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP117" s="25">
         <v>0</v>
       </c>
       <c r="AQ117" s="72" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AR117" s="25">
         <v>0</v>
       </c>
       <c r="AS117" s="25" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AT117" s="25">
         <v>3</v>
@@ -29431,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="BA117" s="24" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="BB117" s="25">
         <v>3</v>
@@ -29458,7 +29387,7 @@
         <v>3</v>
       </c>
       <c r="BJ117" s="25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="BK117" s="25">
         <v>2</v>
@@ -29494,7 +29423,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>73</v>
@@ -29536,7 +29465,7 @@
         <v>2</v>
       </c>
       <c r="P118" s="24" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="Q118" s="25">
         <v>3</v>
@@ -29575,55 +29504,55 @@
         <v>0</v>
       </c>
       <c r="AC118" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AD118" s="24" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AE118" s="25">
         <v>0</v>
       </c>
       <c r="AF118" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AG118" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AH118" s="25">
         <v>0</v>
       </c>
       <c r="AI118" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AJ118" s="25">
         <v>0</v>
       </c>
       <c r="AK118" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AL118" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AM118" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AN118" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AO118" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP118" s="25">
         <v>0</v>
       </c>
       <c r="AQ118" s="72" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AR118" s="25">
         <v>0</v>
       </c>
       <c r="AS118" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AT118" s="25">
         <v>3</v>
@@ -29674,7 +29603,7 @@
         <v>1</v>
       </c>
       <c r="BJ118" s="25" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="BK118" s="25">
         <v>3</v>
@@ -29752,7 +29681,7 @@
         <v>4</v>
       </c>
       <c r="P119" s="24" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="Q119" s="25">
         <v>3</v>
@@ -29791,106 +29720,106 @@
         <v>0</v>
       </c>
       <c r="AC119" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD119" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG119" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI119" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK119" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL119" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM119" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN119" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO119" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ119" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR119" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS119" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT119" s="25">
+        <v>5</v>
+      </c>
+      <c r="AU119" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV119" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW119" s="25">
+        <v>4</v>
+      </c>
+      <c r="AX119" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY119" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ119" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA119" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB119" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC119" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD119" s="25">
+        <v>5</v>
+      </c>
+      <c r="BE119" s="25">
+        <v>4</v>
+      </c>
+      <c r="BF119" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG119" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH119" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI119" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ119" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="AD119" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE119" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF119" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG119" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH119" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI119" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ119" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK119" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL119" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM119" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN119" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO119" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP119" s="25">
-        <v>0</v>
-      </c>
-      <c r="AQ119" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="AR119" s="25">
-        <v>0</v>
-      </c>
-      <c r="AS119" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT119" s="25">
-        <v>5</v>
-      </c>
-      <c r="AU119" s="25">
-        <v>3</v>
-      </c>
-      <c r="AV119" s="25">
-        <v>3</v>
-      </c>
-      <c r="AW119" s="25">
-        <v>4</v>
-      </c>
-      <c r="AX119" s="25">
-        <v>3</v>
-      </c>
-      <c r="AY119" s="25">
-        <v>3</v>
-      </c>
-      <c r="AZ119" s="25">
-        <v>0</v>
-      </c>
-      <c r="BA119" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB119" s="25">
-        <v>4</v>
-      </c>
-      <c r="BC119" s="25">
-        <v>4</v>
-      </c>
-      <c r="BD119" s="25">
-        <v>5</v>
-      </c>
-      <c r="BE119" s="25">
-        <v>4</v>
-      </c>
-      <c r="BF119" s="25">
-        <v>3</v>
-      </c>
-      <c r="BG119" s="25">
-        <v>3</v>
-      </c>
-      <c r="BH119" s="25">
-        <v>3</v>
-      </c>
-      <c r="BI119" s="25">
-        <v>5</v>
-      </c>
-      <c r="BJ119" s="25" t="s">
-        <v>234</v>
       </c>
       <c r="BK119" s="25">
         <v>4</v>
@@ -29968,7 +29897,7 @@
         <v>5</v>
       </c>
       <c r="P120" s="24" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="Q120" s="25">
         <v>3</v>
@@ -30007,55 +29936,55 @@
         <v>0</v>
       </c>
       <c r="AC120" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AD120" s="24" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AE120" s="25">
         <v>0</v>
       </c>
       <c r="AF120" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AG120" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AH120" s="25">
         <v>0</v>
       </c>
       <c r="AI120" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AJ120" s="25">
         <v>0</v>
       </c>
       <c r="AK120" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AL120" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AM120" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AN120" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AO120" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP120" s="25">
         <v>0</v>
       </c>
       <c r="AQ120" s="72" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AR120" s="25">
         <v>0</v>
       </c>
       <c r="AS120" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AT120" s="25">
         <v>3</v>
@@ -30106,7 +30035,7 @@
         <v>5</v>
       </c>
       <c r="BJ120" s="25" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="BK120" s="25">
         <v>3</v>
@@ -30142,7 +30071,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C121" s="24" t="s">
         <v>85</v>
@@ -30184,7 +30113,7 @@
         <v>4</v>
       </c>
       <c r="P121" s="24" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="Q121" s="25">
         <v>3</v>
@@ -30223,55 +30152,55 @@
         <v>0</v>
       </c>
       <c r="AC121" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AD121" s="24" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="AE121" s="25">
         <v>0</v>
       </c>
       <c r="AF121" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AG121" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AH121" s="25">
         <v>0</v>
       </c>
       <c r="AI121" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AJ121" s="25">
         <v>0</v>
       </c>
       <c r="AK121" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AL121" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AM121" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AN121" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AO121" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP121" s="25">
         <v>0</v>
       </c>
       <c r="AQ121" s="72" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AR121" s="25">
         <v>0</v>
       </c>
       <c r="AS121" s="25" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="AT121" s="25">
         <v>5</v>
@@ -30322,7 +30251,7 @@
         <v>3</v>
       </c>
       <c r="BJ121" s="25" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="BK121" s="25">
         <v>4</v>
@@ -30400,7 +30329,7 @@
         <v>3</v>
       </c>
       <c r="P122" s="24" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="Q122" s="25">
         <v>3</v>
@@ -30442,52 +30371,52 @@
         <v>87</v>
       </c>
       <c r="AD122" s="24" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AE122" s="25">
         <v>0</v>
       </c>
       <c r="AF122" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AG122" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AH122" s="25">
         <v>0</v>
       </c>
       <c r="AI122" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AJ122" s="25">
         <v>0</v>
       </c>
       <c r="AK122" s="24" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AL122" s="24" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="AM122" s="24" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="AN122" s="24" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="AO122" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP122" s="25">
         <v>0</v>
       </c>
       <c r="AQ122" s="72" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AR122" s="25">
         <v>0</v>
       </c>
       <c r="AS122" s="25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AT122" s="25">
         <v>4</v>
@@ -30655,55 +30584,55 @@
         <v>0</v>
       </c>
       <c r="AC123" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD123" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF123" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG123" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI123" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ123" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK123" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL123" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM123" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN123" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO123" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="AD123" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE123" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF123" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG123" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH123" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI123" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ123" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK123" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL123" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM123" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN123" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO123" s="52" t="s">
-        <v>208</v>
-      </c>
       <c r="AP123" s="25">
         <v>0</v>
       </c>
       <c r="AQ123" s="72" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AR123" s="25">
         <v>0</v>
       </c>
       <c r="AS123" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AT123" s="25">
         <v>4</v>
@@ -30754,7 +30683,7 @@
         <v>2</v>
       </c>
       <c r="BJ123" s="25" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="BK123" s="25">
         <v>4</v>
@@ -30790,7 +30719,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>73</v>
@@ -30871,55 +30800,55 @@
         <v>0</v>
       </c>
       <c r="AC124" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD124" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF124" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG124" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI124" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ124" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK124" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL124" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM124" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN124" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO124" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="AD124" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE124" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF124" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG124" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH124" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI124" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ124" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK124" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL124" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM124" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN124" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO124" s="52" t="s">
-        <v>208</v>
-      </c>
       <c r="AP124" s="25">
         <v>0</v>
       </c>
       <c r="AQ124" s="72" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AR124" s="25">
         <v>0</v>
       </c>
       <c r="AS124" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AT124" s="25">
         <v>3</v>
@@ -31048,7 +30977,7 @@
         <v>3</v>
       </c>
       <c r="P125" s="24" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="Q125" s="25">
         <v>2</v>
@@ -31087,55 +31016,55 @@
         <v>1</v>
       </c>
       <c r="AC125" s="24" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="AD125" s="24" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AE125" s="25">
         <v>0</v>
       </c>
       <c r="AF125" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AG125" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AH125" s="25">
         <v>0</v>
       </c>
       <c r="AI125" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AJ125" s="25">
         <v>0</v>
       </c>
       <c r="AK125" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AL125" s="24" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="AM125" s="24" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="AN125" s="24" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="AO125" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP125" s="25">
         <v>0</v>
       </c>
       <c r="AQ125" s="72" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AR125" s="25">
         <v>0</v>
       </c>
       <c r="AS125" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AT125" s="25">
         <v>3</v>
@@ -31306,52 +31235,52 @@
         <v>87</v>
       </c>
       <c r="AD126" s="24" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="AE126" s="25">
         <v>0</v>
       </c>
       <c r="AF126" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AG126" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AH126" s="25">
         <v>1</v>
       </c>
       <c r="AI126" s="24" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AJ126" s="25">
         <v>0</v>
       </c>
       <c r="AK126" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AL126" s="24" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="AM126" s="24" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="AN126" s="24" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AO126" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP126" s="25">
         <v>0</v>
       </c>
       <c r="AQ126" s="72" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AR126" s="25">
         <v>0</v>
       </c>
       <c r="AS126" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AT126" s="25">
         <v>3</v>
@@ -31438,7 +31367,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C127" s="24" t="s">
         <v>73</v>
@@ -31519,55 +31448,55 @@
         <v>1</v>
       </c>
       <c r="AC127" s="24" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="AD127" s="24" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="AE127" s="25">
         <v>0</v>
       </c>
       <c r="AF127" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AG127" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AH127" s="25">
         <v>1</v>
       </c>
       <c r="AI127" s="24" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="AJ127" s="25">
         <v>1</v>
       </c>
       <c r="AK127" s="24" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="AL127" s="24" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="AM127" s="24" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="AN127" s="24" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="AO127" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP127" s="25">
         <v>0</v>
       </c>
       <c r="AQ127" s="72" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AR127" s="25">
         <v>0</v>
       </c>
       <c r="AS127" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AT127" s="25">
         <v>3</v>
@@ -31696,7 +31625,7 @@
         <v>3</v>
       </c>
       <c r="P128" s="24" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="Q128" s="25">
         <v>3</v>
@@ -31735,55 +31664,55 @@
         <v>1</v>
       </c>
       <c r="AC128" s="24" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="AD128" s="24" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="AE128" s="25">
         <v>0</v>
       </c>
       <c r="AF128" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AG128" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AH128" s="25">
         <v>0</v>
       </c>
       <c r="AI128" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AJ128" s="25">
         <v>0</v>
       </c>
       <c r="AK128" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AL128" s="24" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="AM128" s="24" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="AN128" s="24" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="AO128" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP128" s="25">
         <v>0</v>
       </c>
       <c r="AQ128" s="72" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AR128" s="25">
         <v>0</v>
       </c>
       <c r="AS128" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AT128" s="25">
         <v>3</v>
@@ -31873,7 +31802,7 @@
         <v>94</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D129" s="25">
         <v>3199</v>
@@ -31951,55 +31880,55 @@
         <v>0</v>
       </c>
       <c r="AC129" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD129" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF129" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG129" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI129" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ129" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK129" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL129" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM129" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN129" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO129" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="AD129" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE129" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF129" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG129" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH129" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI129" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ129" s="25">
-        <v>0</v>
-      </c>
-      <c r="AK129" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL129" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM129" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN129" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO129" s="52" t="s">
-        <v>208</v>
-      </c>
       <c r="AP129" s="25">
         <v>0</v>
       </c>
       <c r="AQ129" s="72" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AR129" s="25">
         <v>0</v>
       </c>
       <c r="AS129" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AT129" s="25">
         <v>3</v>
@@ -32167,55 +32096,55 @@
         <v>1</v>
       </c>
       <c r="AC130" s="24" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="AD130" s="24" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="AE130" s="25">
         <v>0</v>
       </c>
       <c r="AF130" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AG130" s="24" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="AH130" s="25">
         <v>0</v>
       </c>
       <c r="AI130" s="24" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="AJ130" s="25">
         <v>0</v>
       </c>
       <c r="AK130" s="24" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AL130" s="24" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="AM130" s="24" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="AN130" s="24" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="AO130" s="52" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AP130" s="25">
         <v>0</v>
       </c>
       <c r="AQ130" s="72" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AR130" s="25">
         <v>0</v>
       </c>
       <c r="AS130" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AT130" s="25">
         <v>5</v>
@@ -32302,7 +32231,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>85</v>
@@ -32383,55 +32312,55 @@
         <v>0</v>
       </c>
       <c r="AC131" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD131" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE131" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF131" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG131" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH131" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI131" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ131" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK131" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL131" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM131" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN131" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO131" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="AD131" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE131" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF131" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG131" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH131" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI131" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ131" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK131" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL131" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM131" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN131" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO131" s="52" t="s">
-        <v>208</v>
-      </c>
       <c r="AP131" s="25">
         <v>1</v>
       </c>
       <c r="AQ131" s="72">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="AR131" s="25">
         <v>0</v>
       </c>
       <c r="AS131" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AT131" s="25">
         <v>4</v>
@@ -32482,7 +32411,7 @@
         <v>5</v>
       </c>
       <c r="BJ131" s="25" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="BK131" s="25">
         <v>3</v>
@@ -32518,7 +32447,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>85</v>
@@ -32599,55 +32528,55 @@
         <v>0</v>
       </c>
       <c r="AC132" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD132" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE132" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF132" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG132" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH132" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI132" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ132" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK132" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL132" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM132" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN132" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO132" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="AD132" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE132" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF132" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG132" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH132" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI132" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ132" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK132" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL132" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM132" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN132" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO132" s="52" t="s">
-        <v>208</v>
-      </c>
       <c r="AP132" s="25">
         <v>0</v>
       </c>
       <c r="AQ132" s="72" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AR132" s="25">
         <v>0</v>
       </c>
       <c r="AS132" s="25" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="AT132" s="25">
         <v>5</v>
@@ -32698,7 +32627,7 @@
         <v>4</v>
       </c>
       <c r="BJ132" s="25" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="BK132" s="25">
         <v>4</v>
@@ -33601,7 +33530,7 @@
     <mergeCell ref="Y1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W94:X94 AA78:AA82 V78:Z80 Y81:Z82 W90:X91 V3:AA77 V81:X89 Y83:AB94 V92:X93 V95:AA140">
       <formula1>"0,1,/"</formula1>
     </dataValidation>
@@ -33628,6 +33557,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员,PLUS会员[试用]"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
+      <formula1>"配送员安装,半天内,当天下午,次日,第三日,三到七日,大于一周,/,无安装服务"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaiqi/Desktop/海尔数据收集/user_data_for_haier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\user_data_for_haier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="1420" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="45" yWindow="1425" windowWidth="25605" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="251">
   <si>
     <t>客户信息</t>
   </si>
@@ -980,11 +980,79 @@
     <t>/</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
@@ -2249,66 +2317,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FZ212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="30" zoomScalePageLayoutView="30" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="30" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AS133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
+      <selection pane="bottomRight" activeCell="BA135" sqref="BA135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="8.1640625" style="4" customWidth="1"/>
-    <col min="10" max="13" width="8.1640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="75" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="8.125" style="4" customWidth="1"/>
+    <col min="10" max="13" width="8.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="6.125" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="1" customWidth="1"/>
     <col min="20" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="25" width="7.1640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="7.1640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5.1640625" style="1" customWidth="1"/>
+    <col min="22" max="25" width="7.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.125" style="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="1" customWidth="1"/>
-    <col min="30" max="37" width="5.1640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="7.1640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="5.1640625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="7.1640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="49.1640625" style="1" customWidth="1"/>
+    <col min="30" max="37" width="5.125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="7.125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="5.125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="7.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="49.125" style="1" customWidth="1"/>
     <col min="42" max="42" width="9" style="1" customWidth="1"/>
     <col min="43" max="43" width="8" style="73" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9" style="1" customWidth="1"/>
-    <col min="45" max="45" width="7.6640625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="7.1640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="6.83203125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="7.1640625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="7.625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="7.125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="6.875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="7.125" style="1" customWidth="1"/>
     <col min="49" max="49" width="8" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.83203125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.875" style="1" customWidth="1"/>
     <col min="51" max="51" width="6.5" style="1" customWidth="1"/>
     <col min="52" max="52" width="7.5" style="1" customWidth="1"/>
     <col min="53" max="53" width="8" style="1" customWidth="1"/>
     <col min="54" max="54" width="7.5" style="1" customWidth="1"/>
-    <col min="55" max="63" width="6.1640625" style="1" customWidth="1"/>
-    <col min="64" max="65" width="8.1640625" style="1" customWidth="1"/>
-    <col min="66" max="67" width="6.1640625" style="1" customWidth="1"/>
-    <col min="68" max="68" width="8.83203125" style="1" customWidth="1"/>
+    <col min="55" max="63" width="6.125" style="1" customWidth="1"/>
+    <col min="64" max="65" width="8.125" style="1" customWidth="1"/>
+    <col min="66" max="67" width="6.125" style="1" customWidth="1"/>
+    <col min="68" max="68" width="8.875" style="1" customWidth="1"/>
     <col min="69" max="69" width="8.5" style="1" customWidth="1"/>
     <col min="70" max="70" width="6.5" style="1" customWidth="1"/>
-    <col min="71" max="71" width="6.1640625" style="1" customWidth="1"/>
-    <col min="72" max="180" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="181" max="182" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="183" max="16384" width="8.83203125" hidden="1"/>
+    <col min="71" max="71" width="6.125" style="1" customWidth="1"/>
+    <col min="72" max="180" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="181" max="182" width="8.625" hidden="1" customWidth="1"/>
+    <col min="183" max="16384" width="8.875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="64"/>
       <c r="B1" s="88" t="s">
         <v>0</v>
@@ -2401,7 +2469,7 @@
       <c r="BR1" s="86"/>
       <c r="BS1" s="87"/>
     </row>
-    <row r="2" spans="1:71" s="3" customFormat="1" ht="71" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" s="3" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -4127,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4343,7 +4411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4559,7 +4627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4775,7 +4843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4991,7 +5059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5207,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5423,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <f t="shared" ref="A16:A21" si="1">A15+1</f>
         <v>14</v>
@@ -5639,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5855,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6071,7 +6139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6287,7 +6355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6503,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6719,7 +6787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <f t="shared" ref="A22:A61" si="2">A21+1</f>
         <v>20</v>
@@ -6935,7 +7003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -7151,7 +7219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -7367,7 +7435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -7583,7 +7651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -7799,7 +7867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -8015,7 +8083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -8231,7 +8299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -8447,7 +8515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -8663,7 +8731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -8879,7 +8947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -9095,7 +9163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -9311,7 +9379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -9527,7 +9595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -9743,7 +9811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -9959,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -10175,7 +10243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -10391,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -10607,7 +10675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -10823,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -11039,7 +11107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -11255,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -11471,7 +11539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -11687,7 +11755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -11903,7 +11971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -12119,7 +12187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -12335,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -12551,7 +12619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -12767,7 +12835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -12983,7 +13051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -13199,7 +13267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -13415,7 +13483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -13631,7 +13699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="14">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -13847,7 +13915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -14063,7 +14131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="14">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -14279,7 +14347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -14495,7 +14563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="14">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -14711,7 +14779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -14927,7 +14995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="14">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -15143,7 +15211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="14">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -15359,7 +15427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="14">
         <f t="shared" ref="A62:A67" si="3">A61+1</f>
         <v>60</v>
@@ -15575,7 +15643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="14">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -15791,7 +15859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="14">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -16007,7 +16075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="14">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -16223,7 +16291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="14">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -16439,7 +16507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="14">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -16655,7 +16723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="14">
         <f t="shared" ref="A68:A73" si="4">A67+1</f>
         <v>66</v>
@@ -16871,7 +16939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="14">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -17087,7 +17155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="14">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -17303,7 +17371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="14">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -17519,7 +17587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="14">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -17735,7 +17803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="14">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -17951,7 +18019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="14">
         <f t="shared" ref="A74:A83" si="5">A73+1</f>
         <v>72</v>
@@ -18167,7 +18235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="14">
         <f t="shared" si="5"/>
         <v>73</v>
@@ -18383,7 +18451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="14">
         <f t="shared" si="5"/>
         <v>74</v>
@@ -18599,7 +18667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="14">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -18815,7 +18883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="14">
         <f t="shared" si="5"/>
         <v>76</v>
@@ -19031,7 +19099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="14">
         <f t="shared" si="5"/>
         <v>77</v>
@@ -19247,7 +19315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="14">
         <f t="shared" si="5"/>
         <v>78</v>
@@ -19463,7 +19531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="14">
         <f t="shared" si="5"/>
         <v>79</v>
@@ -19679,7 +19747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="14">
         <f t="shared" si="5"/>
         <v>80</v>
@@ -19895,7 +19963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="14">
         <f t="shared" si="5"/>
         <v>81</v>
@@ -20111,7 +20179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="14">
         <f t="shared" ref="A84:A95" si="6">A83+1</f>
         <v>82</v>
@@ -20436,7 +20504,7 @@
       <c r="FW84"/>
       <c r="FX84"/>
     </row>
-    <row r="85" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="14">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -20761,7 +20829,7 @@
       <c r="FW85"/>
       <c r="FX85"/>
     </row>
-    <row r="86" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="14">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -21086,7 +21154,7 @@
       <c r="FW86"/>
       <c r="FX86"/>
     </row>
-    <row r="87" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="14">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -21411,7 +21479,7 @@
       <c r="FW87"/>
       <c r="FX87"/>
     </row>
-    <row r="88" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="14">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -21736,7 +21804,7 @@
       <c r="FW88"/>
       <c r="FX88"/>
     </row>
-    <row r="89" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="14">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -22061,7 +22129,7 @@
       <c r="FW89"/>
       <c r="FX89"/>
     </row>
-    <row r="90" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="14">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -22386,7 +22454,7 @@
       <c r="FW90"/>
       <c r="FX90"/>
     </row>
-    <row r="91" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="14">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -22711,7 +22779,7 @@
       <c r="FW91"/>
       <c r="FX91"/>
     </row>
-    <row r="92" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="14">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -23036,7 +23104,7 @@
       <c r="FW92"/>
       <c r="FX92"/>
     </row>
-    <row r="93" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="14">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -23361,7 +23429,7 @@
       <c r="FW93"/>
       <c r="FX93"/>
     </row>
-    <row r="94" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="14">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -23686,7 +23754,7 @@
       <c r="FW94"/>
       <c r="FX94"/>
     </row>
-    <row r="95" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="14">
         <f t="shared" si="6"/>
         <v>93</v>
@@ -24011,9 +24079,9 @@
       <c r="FW95"/>
       <c r="FX95"/>
     </row>
-    <row r="96" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="14">
-        <f t="shared" ref="A96:A132" si="7">A95+1</f>
+        <f t="shared" ref="A96:A145" si="7">A95+1</f>
         <v>94</v>
       </c>
       <c r="B96" s="23" t="s">
@@ -24336,7 +24404,7 @@
       <c r="FW96"/>
       <c r="FX96"/>
     </row>
-    <row r="97" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="14">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -24661,7 +24729,7 @@
       <c r="FW97"/>
       <c r="FX97"/>
     </row>
-    <row r="98" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="14">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -24986,7 +25054,7 @@
       <c r="FW98"/>
       <c r="FX98"/>
     </row>
-    <row r="99" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="14">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -25311,7 +25379,7 @@
       <c r="FW99"/>
       <c r="FX99"/>
     </row>
-    <row r="100" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="14">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -25636,7 +25704,7 @@
       <c r="FW100"/>
       <c r="FX100"/>
     </row>
-    <row r="101" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="14">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -25961,7 +26029,7 @@
       <c r="FW101"/>
       <c r="FX101"/>
     </row>
-    <row r="102" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="14">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -26177,7 +26245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A103" s="14">
         <f t="shared" si="7"/>
         <v>101</v>
@@ -26393,7 +26461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="14">
         <f t="shared" si="7"/>
         <v>102</v>
@@ -26609,7 +26677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="14">
         <f t="shared" si="7"/>
         <v>103</v>
@@ -26825,7 +26893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="14">
         <f t="shared" si="7"/>
         <v>104</v>
@@ -27041,7 +27109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A107" s="14">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -27257,7 +27325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A108" s="14">
         <f t="shared" si="7"/>
         <v>106</v>
@@ -27473,7 +27541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A109" s="14">
         <f t="shared" si="7"/>
         <v>107</v>
@@ -27689,7 +27757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="14">
         <f t="shared" si="7"/>
         <v>108</v>
@@ -27905,7 +27973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="14">
         <f t="shared" si="7"/>
         <v>109</v>
@@ -28121,7 +28189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A112" s="14">
         <f t="shared" si="7"/>
         <v>110</v>
@@ -28337,7 +28405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A113" s="14">
         <f t="shared" si="7"/>
         <v>111</v>
@@ -28553,7 +28621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A114" s="14">
         <f t="shared" si="7"/>
         <v>112</v>
@@ -28769,7 +28837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="14">
         <f t="shared" si="7"/>
         <v>113</v>
@@ -28985,7 +29053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A116" s="14">
         <f t="shared" si="7"/>
         <v>114</v>
@@ -29201,7 +29269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A117" s="14">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -29417,7 +29485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A118" s="14">
         <f t="shared" si="7"/>
         <v>116</v>
@@ -29633,7 +29701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A119" s="14">
         <f t="shared" si="7"/>
         <v>117</v>
@@ -29849,7 +29917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A120" s="14">
         <f t="shared" si="7"/>
         <v>118</v>
@@ -30065,7 +30133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="14">
         <f t="shared" si="7"/>
         <v>119</v>
@@ -30281,7 +30349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A122" s="14">
         <f t="shared" si="7"/>
         <v>120</v>
@@ -30497,7 +30565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A123" s="14">
         <f t="shared" si="7"/>
         <v>121</v>
@@ -30713,7 +30781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="14">
         <f t="shared" si="7"/>
         <v>122</v>
@@ -30929,7 +30997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="14">
         <f t="shared" si="7"/>
         <v>123</v>
@@ -31145,7 +31213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="14">
         <f t="shared" si="7"/>
         <v>124</v>
@@ -31361,7 +31429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="14">
         <f t="shared" si="7"/>
         <v>125</v>
@@ -31577,7 +31645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A128" s="14">
         <f t="shared" si="7"/>
         <v>126</v>
@@ -31793,7 +31861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="14">
         <f t="shared" si="7"/>
         <v>127</v>
@@ -32009,7 +32077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="14">
         <f t="shared" si="7"/>
         <v>128</v>
@@ -32225,7 +32293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="14">
         <f t="shared" si="7"/>
         <v>129</v>
@@ -32441,7 +32509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="14">
         <f t="shared" si="7"/>
         <v>130</v>
@@ -32657,667 +32725,2442 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A133" s="14"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="25"/>
-      <c r="M133" s="25"/>
-      <c r="N133" s="25"/>
-      <c r="O133" s="25"/>
-      <c r="P133" s="24"/>
-      <c r="Q133" s="25"/>
-      <c r="R133" s="25"/>
-      <c r="S133" s="25"/>
-      <c r="T133" s="25"/>
-      <c r="U133" s="25"/>
-      <c r="V133" s="25"/>
-      <c r="W133" s="25"/>
-      <c r="X133" s="25"/>
-      <c r="Y133" s="25"/>
-      <c r="Z133" s="25"/>
-      <c r="AA133" s="25"/>
-      <c r="AB133" s="25"/>
-      <c r="AC133" s="24"/>
-      <c r="AD133" s="24"/>
-      <c r="AE133" s="25"/>
-      <c r="AF133" s="24"/>
-      <c r="AG133" s="24"/>
-      <c r="AH133" s="25"/>
-      <c r="AI133" s="24"/>
-      <c r="AJ133" s="25"/>
-      <c r="AK133" s="24"/>
-      <c r="AL133" s="24"/>
-      <c r="AM133" s="24"/>
-      <c r="AN133" s="24"/>
-      <c r="AO133" s="52"/>
-      <c r="AP133" s="25"/>
-      <c r="AQ133" s="72"/>
-      <c r="AR133" s="25"/>
-      <c r="AS133" s="25"/>
-      <c r="AT133" s="25"/>
-      <c r="AU133" s="25"/>
-      <c r="AV133" s="25"/>
-      <c r="AW133" s="25"/>
-      <c r="AX133" s="25"/>
-      <c r="AY133" s="25"/>
-      <c r="AZ133" s="25"/>
-      <c r="BA133" s="24"/>
-      <c r="BB133" s="25"/>
-      <c r="BC133" s="25"/>
-      <c r="BD133" s="25"/>
-      <c r="BE133" s="25"/>
-      <c r="BF133" s="25"/>
-      <c r="BG133" s="25"/>
-      <c r="BH133" s="25"/>
-      <c r="BI133" s="25"/>
-      <c r="BJ133" s="25"/>
-      <c r="BK133" s="25"/>
-      <c r="BL133" s="25"/>
-      <c r="BM133" s="25"/>
-      <c r="BN133" s="25"/>
-      <c r="BO133" s="24"/>
-      <c r="BP133" s="25"/>
-      <c r="BQ133" s="62"/>
-      <c r="BR133" s="21"/>
-      <c r="BS133" s="61"/>
+    <row r="133" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A133" s="14">
+        <f t="shared" si="7"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D133" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F133" s="26">
+        <v>42698.409722222197</v>
+      </c>
+      <c r="G133" s="25">
+        <v>3</v>
+      </c>
+      <c r="H133" s="25">
+        <v>3</v>
+      </c>
+      <c r="I133" s="25">
+        <v>3</v>
+      </c>
+      <c r="J133" s="25">
+        <v>1</v>
+      </c>
+      <c r="K133" s="25">
+        <v>1</v>
+      </c>
+      <c r="L133" s="25">
+        <v>1</v>
+      </c>
+      <c r="M133" s="25">
+        <v>0</v>
+      </c>
+      <c r="N133" s="25">
+        <v>1</v>
+      </c>
+      <c r="O133" s="25">
+        <v>3</v>
+      </c>
+      <c r="P133" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q133" s="25">
+        <v>1</v>
+      </c>
+      <c r="R133" s="25">
+        <v>3</v>
+      </c>
+      <c r="S133" s="25">
+        <v>3</v>
+      </c>
+      <c r="T133" s="25">
+        <v>3</v>
+      </c>
+      <c r="U133" s="25">
+        <v>3</v>
+      </c>
+      <c r="V133" s="25">
+        <v>0</v>
+      </c>
+      <c r="W133" s="25">
+        <v>1</v>
+      </c>
+      <c r="X133" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC133" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD133" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE133" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF133" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG133" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH133" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI133" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ133" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK133" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL133" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM133" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN133" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO133" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP133" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ133" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR133" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS133" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT133" s="25">
+        <v>5</v>
+      </c>
+      <c r="AU133" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV133" s="25">
+        <v>4</v>
+      </c>
+      <c r="AW133" s="25">
+        <v>5</v>
+      </c>
+      <c r="AX133" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY133" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ133" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA133" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="BB133" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC133" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD133" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE133" s="25">
+        <v>4</v>
+      </c>
+      <c r="BF133" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG133" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH133" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI133" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ133" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK133" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL133" s="25">
+        <v>4</v>
+      </c>
+      <c r="BM133" s="25">
+        <v>3</v>
+      </c>
+      <c r="BN133" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO133" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP133" s="25">
+        <v>3</v>
+      </c>
+      <c r="BQ133" s="62">
+        <v>3</v>
+      </c>
+      <c r="BR133" s="21">
+        <v>2</v>
+      </c>
+      <c r="BS133" s="61">
+        <v>4</v>
+      </c>
     </row>
-    <row r="134" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A134" s="14"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="25"/>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
-      <c r="M134" s="25"/>
-      <c r="N134" s="25"/>
-      <c r="O134" s="25"/>
-      <c r="P134" s="24"/>
-      <c r="Q134" s="25"/>
-      <c r="R134" s="25"/>
-      <c r="S134" s="25"/>
-      <c r="T134" s="25"/>
-      <c r="U134" s="25"/>
-      <c r="V134" s="25"/>
-      <c r="W134" s="25"/>
-      <c r="X134" s="25"/>
-      <c r="Y134" s="25"/>
-      <c r="Z134" s="25"/>
-      <c r="AA134" s="25"/>
-      <c r="AB134" s="25"/>
-      <c r="AC134" s="24"/>
-      <c r="AD134" s="24"/>
-      <c r="AE134" s="25"/>
-      <c r="AF134" s="24"/>
-      <c r="AG134" s="24"/>
-      <c r="AH134" s="25"/>
-      <c r="AI134" s="24"/>
-      <c r="AJ134" s="25"/>
-      <c r="AK134" s="24"/>
-      <c r="AL134" s="24"/>
-      <c r="AM134" s="24"/>
-      <c r="AN134" s="24"/>
-      <c r="AO134" s="52"/>
-      <c r="AP134" s="25"/>
-      <c r="AQ134" s="72"/>
-      <c r="AR134" s="25"/>
-      <c r="AS134" s="25"/>
-      <c r="AT134" s="25"/>
-      <c r="AU134" s="25"/>
-      <c r="AV134" s="25"/>
-      <c r="AW134" s="25"/>
-      <c r="AX134" s="25"/>
-      <c r="AY134" s="25"/>
-      <c r="AZ134" s="25"/>
-      <c r="BA134" s="24"/>
-      <c r="BB134" s="25"/>
-      <c r="BC134" s="25"/>
-      <c r="BD134" s="25"/>
-      <c r="BE134" s="25"/>
-      <c r="BF134" s="25"/>
-      <c r="BG134" s="25"/>
-      <c r="BH134" s="25"/>
-      <c r="BI134" s="25"/>
-      <c r="BJ134" s="25"/>
-      <c r="BK134" s="25"/>
-      <c r="BL134" s="25"/>
-      <c r="BM134" s="25"/>
-      <c r="BN134" s="25"/>
-      <c r="BO134" s="24"/>
-      <c r="BP134" s="25"/>
-      <c r="BQ134" s="62"/>
-      <c r="BR134" s="21"/>
-      <c r="BS134" s="61"/>
+    <row r="134" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A134" s="14">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D134" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F134" s="26">
+        <v>42652.320833333302</v>
+      </c>
+      <c r="G134" s="25">
+        <v>3</v>
+      </c>
+      <c r="H134" s="25">
+        <v>3</v>
+      </c>
+      <c r="I134" s="25">
+        <v>3</v>
+      </c>
+      <c r="J134" s="25">
+        <v>1</v>
+      </c>
+      <c r="K134" s="25">
+        <v>1</v>
+      </c>
+      <c r="L134" s="25">
+        <v>1</v>
+      </c>
+      <c r="M134" s="25">
+        <v>0</v>
+      </c>
+      <c r="N134" s="25">
+        <v>1</v>
+      </c>
+      <c r="O134" s="25">
+        <v>5</v>
+      </c>
+      <c r="P134" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q134" s="25">
+        <v>4</v>
+      </c>
+      <c r="R134" s="25">
+        <v>5</v>
+      </c>
+      <c r="S134" s="25">
+        <v>5</v>
+      </c>
+      <c r="T134" s="25">
+        <v>5</v>
+      </c>
+      <c r="U134" s="25">
+        <v>5</v>
+      </c>
+      <c r="V134" s="25">
+        <v>0</v>
+      </c>
+      <c r="W134" s="25">
+        <v>1</v>
+      </c>
+      <c r="X134" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z134" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD134" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE134" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF134" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG134" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH134" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI134" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ134" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK134" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL134" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM134" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN134" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO134" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP134" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ134" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR134" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS134" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT134" s="25">
+        <v>4</v>
+      </c>
+      <c r="AU134" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV134" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW134" s="25">
+        <v>5</v>
+      </c>
+      <c r="AX134" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY134" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ134" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA134" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="BB134" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC134" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD134" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE134" s="25">
+        <v>5</v>
+      </c>
+      <c r="BF134" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG134" s="25">
+        <v>4</v>
+      </c>
+      <c r="BH134" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI134" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ134" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="BK134" s="25">
+        <v>5</v>
+      </c>
+      <c r="BL134" s="25">
+        <v>5</v>
+      </c>
+      <c r="BM134" s="25">
+        <v>5</v>
+      </c>
+      <c r="BN134" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO134" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP134" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ134" s="62">
+        <v>5</v>
+      </c>
+      <c r="BR134" s="21">
+        <v>5</v>
+      </c>
+      <c r="BS134" s="61">
+        <v>5</v>
+      </c>
     </row>
-    <row r="135" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A135" s="14"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
-      <c r="J135" s="25"/>
-      <c r="K135" s="25"/>
-      <c r="L135" s="25"/>
-      <c r="M135" s="25"/>
-      <c r="N135" s="25"/>
-      <c r="O135" s="25"/>
-      <c r="P135" s="24"/>
-      <c r="Q135" s="25"/>
-      <c r="R135" s="25"/>
-      <c r="S135" s="25"/>
-      <c r="T135" s="25"/>
-      <c r="U135" s="25"/>
-      <c r="V135" s="25"/>
-      <c r="W135" s="25"/>
-      <c r="X135" s="25"/>
-      <c r="Y135" s="25"/>
-      <c r="Z135" s="25"/>
-      <c r="AA135" s="25"/>
-      <c r="AB135" s="25"/>
-      <c r="AC135" s="24"/>
-      <c r="AD135" s="24"/>
-      <c r="AE135" s="25"/>
-      <c r="AF135" s="24"/>
-      <c r="AG135" s="24"/>
-      <c r="AH135" s="25"/>
-      <c r="AI135" s="24"/>
-      <c r="AJ135" s="25"/>
-      <c r="AK135" s="24"/>
-      <c r="AL135" s="24"/>
-      <c r="AM135" s="24"/>
-      <c r="AN135" s="24"/>
-      <c r="AO135" s="52"/>
-      <c r="AP135" s="25"/>
-      <c r="AQ135" s="72"/>
-      <c r="AR135" s="25"/>
-      <c r="AS135" s="25"/>
-      <c r="AT135" s="25"/>
-      <c r="AU135" s="25"/>
-      <c r="AV135" s="25"/>
-      <c r="AW135" s="25"/>
-      <c r="AX135" s="25"/>
-      <c r="AY135" s="25"/>
-      <c r="AZ135" s="25"/>
-      <c r="BA135" s="24"/>
-      <c r="BB135" s="25"/>
-      <c r="BC135" s="25"/>
-      <c r="BD135" s="25"/>
-      <c r="BE135" s="25"/>
-      <c r="BF135" s="25"/>
-      <c r="BG135" s="25"/>
-      <c r="BH135" s="25"/>
-      <c r="BI135" s="25"/>
-      <c r="BJ135" s="25"/>
-      <c r="BK135" s="25"/>
-      <c r="BL135" s="25"/>
-      <c r="BM135" s="25"/>
-      <c r="BN135" s="25"/>
-      <c r="BO135" s="24"/>
-      <c r="BP135" s="25"/>
-      <c r="BQ135" s="62"/>
-      <c r="BR135" s="21"/>
-      <c r="BS135" s="61"/>
+    <row r="135" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A135" s="14">
+        <f t="shared" si="7"/>
+        <v>133</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D135" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F135" s="26">
+        <v>42718.863888888904</v>
+      </c>
+      <c r="G135" s="25">
+        <v>4</v>
+      </c>
+      <c r="H135" s="25">
+        <v>3</v>
+      </c>
+      <c r="I135" s="25">
+        <v>3</v>
+      </c>
+      <c r="J135" s="25">
+        <v>1</v>
+      </c>
+      <c r="K135" s="25">
+        <v>1</v>
+      </c>
+      <c r="L135" s="25">
+        <v>1</v>
+      </c>
+      <c r="M135" s="25">
+        <v>0</v>
+      </c>
+      <c r="N135" s="25">
+        <v>1</v>
+      </c>
+      <c r="O135" s="25">
+        <v>3</v>
+      </c>
+      <c r="P135" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q135" s="25">
+        <v>4</v>
+      </c>
+      <c r="R135" s="25">
+        <v>3</v>
+      </c>
+      <c r="S135" s="25">
+        <v>1</v>
+      </c>
+      <c r="T135" s="25">
+        <v>3</v>
+      </c>
+      <c r="U135" s="25">
+        <v>3</v>
+      </c>
+      <c r="V135" s="25">
+        <v>0</v>
+      </c>
+      <c r="W135" s="25">
+        <v>1</v>
+      </c>
+      <c r="X135" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z135" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC135" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD135" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE135" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF135" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG135" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH135" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI135" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ135" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK135" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL135" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM135" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN135" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO135" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP135" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ135" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR135" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS135" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT135" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU135" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV135" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW135" s="25">
+        <v>5</v>
+      </c>
+      <c r="AX135" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY135" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ135" s="25">
+        <v>1</v>
+      </c>
+      <c r="BA135" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB135" s="25">
+        <v>1</v>
+      </c>
+      <c r="BC135" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD135" s="25">
+        <v>1</v>
+      </c>
+      <c r="BE135" s="25">
+        <v>1</v>
+      </c>
+      <c r="BF135" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG135" s="25">
+        <v>4</v>
+      </c>
+      <c r="BH135" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI135" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ135" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK135" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL135" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM135" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN135" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO135" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP135" s="25">
+        <v>5</v>
+      </c>
+      <c r="BQ135" s="62">
+        <v>1</v>
+      </c>
+      <c r="BR135" s="21">
+        <v>1</v>
+      </c>
+      <c r="BS135" s="61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="136" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A136" s="14"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="25"/>
-      <c r="K136" s="25"/>
-      <c r="L136" s="25"/>
-      <c r="M136" s="25"/>
-      <c r="N136" s="25"/>
-      <c r="O136" s="25"/>
-      <c r="P136" s="24"/>
-      <c r="Q136" s="25"/>
-      <c r="R136" s="25"/>
-      <c r="S136" s="25"/>
-      <c r="T136" s="25"/>
-      <c r="U136" s="25"/>
-      <c r="V136" s="25"/>
-      <c r="W136" s="25"/>
-      <c r="X136" s="25"/>
-      <c r="Y136" s="25"/>
-      <c r="Z136" s="25"/>
-      <c r="AA136" s="25"/>
-      <c r="AB136" s="25"/>
-      <c r="AC136" s="24"/>
-      <c r="AD136" s="24"/>
-      <c r="AE136" s="25"/>
-      <c r="AF136" s="24"/>
-      <c r="AG136" s="24"/>
-      <c r="AH136" s="25"/>
-      <c r="AI136" s="24"/>
-      <c r="AJ136" s="25"/>
-      <c r="AK136" s="24"/>
-      <c r="AL136" s="24"/>
-      <c r="AM136" s="24"/>
-      <c r="AN136" s="24"/>
-      <c r="AO136" s="52"/>
-      <c r="AP136" s="25"/>
-      <c r="AQ136" s="72"/>
-      <c r="AR136" s="25"/>
-      <c r="AS136" s="25"/>
-      <c r="AT136" s="25"/>
-      <c r="AU136" s="25"/>
-      <c r="AV136" s="25"/>
-      <c r="AW136" s="25"/>
-      <c r="AX136" s="25"/>
-      <c r="AY136" s="25"/>
-      <c r="AZ136" s="25"/>
-      <c r="BA136" s="24"/>
-      <c r="BB136" s="25"/>
-      <c r="BC136" s="25"/>
-      <c r="BD136" s="25"/>
-      <c r="BE136" s="25"/>
-      <c r="BF136" s="25"/>
-      <c r="BG136" s="25"/>
-      <c r="BH136" s="25"/>
-      <c r="BI136" s="25"/>
-      <c r="BJ136" s="25"/>
-      <c r="BK136" s="25"/>
-      <c r="BL136" s="25"/>
-      <c r="BM136" s="25"/>
-      <c r="BN136" s="25"/>
-      <c r="BO136" s="24"/>
-      <c r="BP136" s="25"/>
-      <c r="BQ136" s="62"/>
-      <c r="BR136" s="21"/>
-      <c r="BS136" s="61"/>
+    <row r="136" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A136" s="14">
+        <f t="shared" si="7"/>
+        <v>134</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D136" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F136" s="26">
+        <v>42679.699305555601</v>
+      </c>
+      <c r="G136" s="25">
+        <v>3</v>
+      </c>
+      <c r="H136" s="25">
+        <v>3</v>
+      </c>
+      <c r="I136" s="25">
+        <v>3</v>
+      </c>
+      <c r="J136" s="25">
+        <v>1</v>
+      </c>
+      <c r="K136" s="25">
+        <v>1</v>
+      </c>
+      <c r="L136" s="25">
+        <v>0</v>
+      </c>
+      <c r="M136" s="25">
+        <v>0</v>
+      </c>
+      <c r="N136" s="25">
+        <v>1</v>
+      </c>
+      <c r="O136" s="25">
+        <v>3</v>
+      </c>
+      <c r="P136" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q136" s="25">
+        <v>3</v>
+      </c>
+      <c r="R136" s="25">
+        <v>3</v>
+      </c>
+      <c r="S136" s="25">
+        <v>3</v>
+      </c>
+      <c r="T136" s="25">
+        <v>2</v>
+      </c>
+      <c r="U136" s="25">
+        <v>2</v>
+      </c>
+      <c r="V136" s="25">
+        <v>0</v>
+      </c>
+      <c r="W136" s="25">
+        <v>1</v>
+      </c>
+      <c r="X136" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z136" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC136" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD136" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE136" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF136" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG136" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH136" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI136" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ136" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK136" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL136" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM136" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN136" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO136" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP136" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ136" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR136" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS136" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT136" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU136" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV136" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW136" s="25">
+        <v>1</v>
+      </c>
+      <c r="AX136" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY136" s="25">
+        <v>2</v>
+      </c>
+      <c r="AZ136" s="25">
+        <v>1</v>
+      </c>
+      <c r="BA136" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB136" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC136" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD136" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE136" s="25">
+        <v>2</v>
+      </c>
+      <c r="BF136" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG136" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH136" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI136" s="25">
+        <v>2</v>
+      </c>
+      <c r="BJ136" s="25">
+        <v>2</v>
+      </c>
+      <c r="BK136" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL136" s="25">
+        <v>2</v>
+      </c>
+      <c r="BM136" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN136" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO136" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP136" s="25">
+        <v>5</v>
+      </c>
+      <c r="BQ136" s="62">
+        <v>1</v>
+      </c>
+      <c r="BR136" s="21">
+        <v>1</v>
+      </c>
+      <c r="BS136" s="61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="137" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A137" s="14"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
-      <c r="J137" s="25"/>
-      <c r="K137" s="25"/>
-      <c r="L137" s="25"/>
-      <c r="M137" s="25"/>
-      <c r="N137" s="25"/>
-      <c r="O137" s="25"/>
-      <c r="P137" s="24"/>
-      <c r="Q137" s="25"/>
-      <c r="R137" s="25"/>
-      <c r="S137" s="25"/>
-      <c r="T137" s="25"/>
-      <c r="U137" s="25"/>
-      <c r="V137" s="25"/>
-      <c r="W137" s="25"/>
-      <c r="X137" s="25"/>
-      <c r="Y137" s="25"/>
-      <c r="Z137" s="25"/>
-      <c r="AA137" s="25"/>
-      <c r="AB137" s="25"/>
-      <c r="AC137" s="24"/>
-      <c r="AD137" s="24"/>
-      <c r="AE137" s="25"/>
-      <c r="AF137" s="24"/>
-      <c r="AG137" s="24"/>
-      <c r="AH137" s="25"/>
-      <c r="AI137" s="24"/>
-      <c r="AJ137" s="25"/>
-      <c r="AK137" s="24"/>
-      <c r="AL137" s="24"/>
-      <c r="AM137" s="24"/>
-      <c r="AN137" s="24"/>
-      <c r="AO137" s="52"/>
-      <c r="AP137" s="25"/>
-      <c r="AQ137" s="72"/>
-      <c r="AR137" s="25"/>
-      <c r="AS137" s="25"/>
-      <c r="AT137" s="25"/>
-      <c r="AU137" s="25"/>
-      <c r="AV137" s="25"/>
-      <c r="AW137" s="25"/>
-      <c r="AX137" s="25"/>
-      <c r="AY137" s="25"/>
-      <c r="AZ137" s="25"/>
-      <c r="BA137" s="24"/>
-      <c r="BB137" s="25"/>
-      <c r="BC137" s="25"/>
-      <c r="BD137" s="25"/>
-      <c r="BE137" s="25"/>
-      <c r="BF137" s="25"/>
-      <c r="BG137" s="25"/>
-      <c r="BH137" s="25"/>
-      <c r="BI137" s="25"/>
-      <c r="BJ137" s="25"/>
-      <c r="BK137" s="25"/>
-      <c r="BL137" s="25"/>
-      <c r="BM137" s="25"/>
-      <c r="BN137" s="25"/>
-      <c r="BO137" s="24"/>
-      <c r="BP137" s="25"/>
-      <c r="BQ137" s="62"/>
-      <c r="BR137" s="21"/>
-      <c r="BS137" s="61"/>
+    <row r="137" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A137" s="14">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D137" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F137" s="26">
+        <v>42691.865277777797</v>
+      </c>
+      <c r="G137" s="25">
+        <v>3</v>
+      </c>
+      <c r="H137" s="25">
+        <v>3</v>
+      </c>
+      <c r="I137" s="25">
+        <v>3</v>
+      </c>
+      <c r="J137" s="25">
+        <v>1</v>
+      </c>
+      <c r="K137" s="25">
+        <v>1</v>
+      </c>
+      <c r="L137" s="25">
+        <v>1</v>
+      </c>
+      <c r="M137" s="25">
+        <v>0</v>
+      </c>
+      <c r="N137" s="25">
+        <v>1</v>
+      </c>
+      <c r="O137" s="25">
+        <v>3</v>
+      </c>
+      <c r="P137" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q137" s="25">
+        <v>3</v>
+      </c>
+      <c r="R137" s="25">
+        <v>3</v>
+      </c>
+      <c r="S137" s="25">
+        <v>1</v>
+      </c>
+      <c r="T137" s="25">
+        <v>1</v>
+      </c>
+      <c r="U137" s="25">
+        <v>1</v>
+      </c>
+      <c r="V137" s="25">
+        <v>0</v>
+      </c>
+      <c r="W137" s="25">
+        <v>1</v>
+      </c>
+      <c r="X137" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z137" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB137" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC137" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD137" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE137" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF137" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG137" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH137" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI137" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ137" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK137" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL137" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM137" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN137" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO137" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP137" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ137" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR137" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS137" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT137" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU137" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV137" s="25">
+        <v>5</v>
+      </c>
+      <c r="AW137" s="25">
+        <v>5</v>
+      </c>
+      <c r="AX137" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY137" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ137" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA137" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB137" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC137" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD137" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE137" s="25">
+        <v>4</v>
+      </c>
+      <c r="BF137" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG137" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH137" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI137" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ137" s="25">
+        <v>5</v>
+      </c>
+      <c r="BK137" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL137" s="25">
+        <v>4</v>
+      </c>
+      <c r="BM137" s="25">
+        <v>4</v>
+      </c>
+      <c r="BN137" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO137" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP137" s="25">
+        <v>3</v>
+      </c>
+      <c r="BQ137" s="62">
+        <v>4</v>
+      </c>
+      <c r="BR137" s="21">
+        <v>4</v>
+      </c>
+      <c r="BS137" s="61">
+        <v>4</v>
+      </c>
     </row>
-    <row r="138" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A138" s="14"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="25"/>
-      <c r="H138" s="25"/>
-      <c r="I138" s="25"/>
-      <c r="J138" s="25"/>
-      <c r="K138" s="25"/>
-      <c r="L138" s="25"/>
-      <c r="M138" s="25"/>
-      <c r="N138" s="25"/>
-      <c r="O138" s="25"/>
-      <c r="P138" s="24"/>
-      <c r="Q138" s="25"/>
-      <c r="R138" s="25"/>
-      <c r="S138" s="25"/>
-      <c r="T138" s="25"/>
-      <c r="U138" s="25"/>
-      <c r="V138" s="25"/>
-      <c r="W138" s="25"/>
-      <c r="X138" s="25"/>
-      <c r="Y138" s="25"/>
-      <c r="Z138" s="25"/>
-      <c r="AA138" s="25"/>
-      <c r="AB138" s="25"/>
-      <c r="AC138" s="24"/>
-      <c r="AD138" s="24"/>
-      <c r="AE138" s="25"/>
-      <c r="AF138" s="24"/>
-      <c r="AG138" s="24"/>
-      <c r="AH138" s="25"/>
-      <c r="AI138" s="24"/>
-      <c r="AJ138" s="25"/>
-      <c r="AK138" s="24"/>
-      <c r="AL138" s="24"/>
-      <c r="AM138" s="24"/>
-      <c r="AN138" s="24"/>
-      <c r="AO138" s="52"/>
-      <c r="AP138" s="25"/>
-      <c r="AQ138" s="72"/>
-      <c r="AR138" s="25"/>
-      <c r="AS138" s="25"/>
-      <c r="AT138" s="25"/>
-      <c r="AU138" s="25"/>
-      <c r="AV138" s="25"/>
-      <c r="AW138" s="25"/>
-      <c r="AX138" s="25"/>
-      <c r="AY138" s="25"/>
-      <c r="AZ138" s="25"/>
-      <c r="BA138" s="24"/>
-      <c r="BB138" s="25"/>
-      <c r="BC138" s="25"/>
-      <c r="BD138" s="25"/>
-      <c r="BE138" s="25"/>
-      <c r="BF138" s="25"/>
-      <c r="BG138" s="25"/>
-      <c r="BH138" s="25"/>
-      <c r="BI138" s="25"/>
-      <c r="BJ138" s="25"/>
-      <c r="BK138" s="25"/>
-      <c r="BL138" s="25"/>
-      <c r="BM138" s="25"/>
-      <c r="BN138" s="25"/>
-      <c r="BO138" s="24"/>
-      <c r="BP138" s="25"/>
-      <c r="BQ138" s="62"/>
-      <c r="BR138" s="21"/>
-      <c r="BS138" s="61"/>
+    <row r="138" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A138" s="14">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D138" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F138" s="26">
+        <v>42649.5402777778</v>
+      </c>
+      <c r="G138" s="25">
+        <v>4</v>
+      </c>
+      <c r="H138" s="25">
+        <v>3</v>
+      </c>
+      <c r="I138" s="25">
+        <v>3</v>
+      </c>
+      <c r="J138" s="25">
+        <v>1</v>
+      </c>
+      <c r="K138" s="25">
+        <v>1</v>
+      </c>
+      <c r="L138" s="25">
+        <v>1</v>
+      </c>
+      <c r="M138" s="25">
+        <v>1</v>
+      </c>
+      <c r="N138" s="25">
+        <v>1</v>
+      </c>
+      <c r="O138" s="25">
+        <v>5</v>
+      </c>
+      <c r="P138" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q138" s="25">
+        <v>3</v>
+      </c>
+      <c r="R138" s="25">
+        <v>2</v>
+      </c>
+      <c r="S138" s="25">
+        <v>3</v>
+      </c>
+      <c r="T138" s="25">
+        <v>5</v>
+      </c>
+      <c r="U138" s="25">
+        <v>5</v>
+      </c>
+      <c r="V138" s="25">
+        <v>0</v>
+      </c>
+      <c r="W138" s="25">
+        <v>1</v>
+      </c>
+      <c r="X138" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z138" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA138" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB138" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC138" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD138" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE138" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF138" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG138" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH138" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI138" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ138" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK138" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL138" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM138" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN138" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO138" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP138" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ138" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR138" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS138" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT138" s="25">
+        <v>4</v>
+      </c>
+      <c r="AU138" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV138" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW138" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX138" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY138" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ138" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA138" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB138" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC138" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD138" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE138" s="25">
+        <v>4</v>
+      </c>
+      <c r="BF138" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG138" s="25">
+        <v>4</v>
+      </c>
+      <c r="BH138" s="25">
+        <v>4</v>
+      </c>
+      <c r="BI138" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ138" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="BK138" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL138" s="25">
+        <v>4</v>
+      </c>
+      <c r="BM138" s="25">
+        <v>4</v>
+      </c>
+      <c r="BN138" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO138" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP138" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ138" s="62">
+        <v>4</v>
+      </c>
+      <c r="BR138" s="21">
+        <v>5</v>
+      </c>
+      <c r="BS138" s="61">
+        <v>4</v>
+      </c>
     </row>
-    <row r="139" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A139" s="14"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
-      <c r="I139" s="25"/>
-      <c r="J139" s="25"/>
-      <c r="K139" s="25"/>
-      <c r="L139" s="25"/>
-      <c r="M139" s="25"/>
-      <c r="N139" s="25"/>
-      <c r="O139" s="25"/>
-      <c r="P139" s="24"/>
-      <c r="Q139" s="25"/>
-      <c r="R139" s="25"/>
-      <c r="S139" s="25"/>
-      <c r="T139" s="25"/>
-      <c r="U139" s="25"/>
-      <c r="V139" s="25"/>
-      <c r="W139" s="25"/>
-      <c r="X139" s="25"/>
-      <c r="Y139" s="25"/>
-      <c r="Z139" s="25"/>
-      <c r="AA139" s="25"/>
-      <c r="AB139" s="25"/>
-      <c r="AC139" s="24"/>
-      <c r="AD139" s="24"/>
-      <c r="AE139" s="25"/>
-      <c r="AF139" s="24"/>
-      <c r="AG139" s="24"/>
-      <c r="AH139" s="25"/>
-      <c r="AI139" s="24"/>
-      <c r="AJ139" s="25"/>
-      <c r="AK139" s="24"/>
-      <c r="AL139" s="24"/>
-      <c r="AM139" s="24"/>
-      <c r="AN139" s="24"/>
-      <c r="AO139" s="52"/>
-      <c r="AP139" s="25"/>
-      <c r="AQ139" s="72"/>
-      <c r="AR139" s="25"/>
-      <c r="AS139" s="25"/>
-      <c r="AT139" s="25"/>
-      <c r="AU139" s="25"/>
-      <c r="AV139" s="25"/>
-      <c r="AW139" s="25"/>
-      <c r="AX139" s="25"/>
-      <c r="AY139" s="25"/>
-      <c r="AZ139" s="25"/>
-      <c r="BA139" s="24"/>
-      <c r="BB139" s="25"/>
-      <c r="BC139" s="25"/>
-      <c r="BD139" s="25"/>
-      <c r="BE139" s="25"/>
-      <c r="BF139" s="25"/>
-      <c r="BG139" s="25"/>
-      <c r="BH139" s="25"/>
-      <c r="BI139" s="25"/>
-      <c r="BJ139" s="25"/>
-      <c r="BK139" s="25"/>
-      <c r="BL139" s="25"/>
-      <c r="BM139" s="25"/>
-      <c r="BN139" s="25"/>
-      <c r="BO139" s="24"/>
-      <c r="BP139" s="25"/>
-      <c r="BQ139" s="62"/>
-      <c r="BR139" s="21"/>
-      <c r="BS139" s="61"/>
+    <row r="139" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A139" s="14">
+        <f t="shared" si="7"/>
+        <v>137</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D139" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F139" s="26">
+        <v>42682.5222222222</v>
+      </c>
+      <c r="G139" s="25">
+        <v>3</v>
+      </c>
+      <c r="H139" s="25">
+        <v>3</v>
+      </c>
+      <c r="I139" s="25">
+        <v>3</v>
+      </c>
+      <c r="J139" s="25">
+        <v>1</v>
+      </c>
+      <c r="K139" s="25">
+        <v>1</v>
+      </c>
+      <c r="L139" s="25">
+        <v>1</v>
+      </c>
+      <c r="M139" s="25">
+        <v>0</v>
+      </c>
+      <c r="N139" s="25">
+        <v>1</v>
+      </c>
+      <c r="O139" s="25">
+        <v>3</v>
+      </c>
+      <c r="P139" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q139" s="25">
+        <v>5</v>
+      </c>
+      <c r="R139" s="25">
+        <v>5</v>
+      </c>
+      <c r="S139" s="25">
+        <v>5</v>
+      </c>
+      <c r="T139" s="25">
+        <v>5</v>
+      </c>
+      <c r="U139" s="25">
+        <v>5</v>
+      </c>
+      <c r="V139" s="25">
+        <v>0</v>
+      </c>
+      <c r="W139" s="25">
+        <v>1</v>
+      </c>
+      <c r="X139" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y139" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z139" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA139" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB139" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC139" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD139" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE139" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF139" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG139" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH139" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI139" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ139" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK139" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL139" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM139" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN139" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO139" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP139" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ139" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR139" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS139" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT139" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU139" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV139" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW139" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX139" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY139" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ139" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA139" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB139" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC139" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD139" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE139" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF139" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG139" s="25">
+        <v>2</v>
+      </c>
+      <c r="BH139" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI139" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ139" s="25">
+        <v>5</v>
+      </c>
+      <c r="BK139" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL139" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM139" s="25">
+        <v>3</v>
+      </c>
+      <c r="BN139" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO139" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP139" s="25">
+        <v>2</v>
+      </c>
+      <c r="BQ139" s="62">
+        <v>3</v>
+      </c>
+      <c r="BR139" s="21">
+        <v>5</v>
+      </c>
+      <c r="BS139" s="61">
+        <v>3</v>
+      </c>
     </row>
-    <row r="140" spans="1:71" x14ac:dyDescent="0.15">
-      <c r="A140" s="14"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
-      <c r="M140" s="25"/>
-      <c r="N140" s="25"/>
-      <c r="O140" s="25"/>
-      <c r="P140" s="24"/>
-      <c r="Q140" s="25"/>
-      <c r="R140" s="25"/>
-      <c r="S140" s="25"/>
-      <c r="T140" s="25"/>
-      <c r="U140" s="25"/>
-      <c r="V140" s="25"/>
-      <c r="W140" s="25"/>
-      <c r="X140" s="25"/>
-      <c r="Y140" s="25"/>
-      <c r="Z140" s="25"/>
-      <c r="AA140" s="25"/>
-      <c r="AB140" s="25"/>
-      <c r="AC140" s="24"/>
-      <c r="AD140" s="24"/>
-      <c r="AE140" s="25"/>
-      <c r="AF140" s="24"/>
-      <c r="AG140" s="24"/>
-      <c r="AH140" s="25"/>
-      <c r="AI140" s="24"/>
-      <c r="AJ140" s="25"/>
-      <c r="AK140" s="24"/>
-      <c r="AL140" s="24"/>
-      <c r="AM140" s="24"/>
-      <c r="AN140" s="24"/>
-      <c r="AO140" s="52"/>
-      <c r="AP140" s="25"/>
-      <c r="AQ140" s="72"/>
-      <c r="AR140" s="25"/>
-      <c r="AS140" s="25"/>
-      <c r="AT140" s="25"/>
-      <c r="AU140" s="25"/>
-      <c r="AV140" s="25"/>
-      <c r="AW140" s="25"/>
-      <c r="AX140" s="25"/>
-      <c r="AY140" s="25"/>
-      <c r="AZ140" s="25"/>
-      <c r="BA140" s="24"/>
-      <c r="BB140" s="25"/>
-      <c r="BC140" s="25"/>
-      <c r="BD140" s="25"/>
-      <c r="BE140" s="25"/>
-      <c r="BF140" s="25"/>
-      <c r="BG140" s="25"/>
-      <c r="BH140" s="25"/>
-      <c r="BI140" s="25"/>
-      <c r="BJ140" s="25"/>
-      <c r="BK140" s="25"/>
-      <c r="BL140" s="25"/>
-      <c r="BM140" s="25"/>
-      <c r="BN140" s="25"/>
-      <c r="BO140" s="24"/>
-      <c r="BP140" s="25"/>
-      <c r="BQ140" s="76"/>
-      <c r="BR140" s="77"/>
-      <c r="BS140" s="78"/>
+    <row r="140" spans="1:71" ht="27" x14ac:dyDescent="0.15">
+      <c r="A140" s="14">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D140" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F140" s="26">
+        <v>42685.672222222202</v>
+      </c>
+      <c r="G140" s="25">
+        <v>3</v>
+      </c>
+      <c r="H140" s="25">
+        <v>3</v>
+      </c>
+      <c r="I140" s="25">
+        <v>3</v>
+      </c>
+      <c r="J140" s="25">
+        <v>1</v>
+      </c>
+      <c r="K140" s="25">
+        <v>1</v>
+      </c>
+      <c r="L140" s="25">
+        <v>1</v>
+      </c>
+      <c r="M140" s="25">
+        <v>0</v>
+      </c>
+      <c r="N140" s="25">
+        <v>1</v>
+      </c>
+      <c r="O140" s="25">
+        <v>3</v>
+      </c>
+      <c r="P140" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q140" s="25">
+        <v>3</v>
+      </c>
+      <c r="R140" s="25">
+        <v>3</v>
+      </c>
+      <c r="S140" s="25">
+        <v>3</v>
+      </c>
+      <c r="T140" s="25">
+        <v>3</v>
+      </c>
+      <c r="U140" s="25">
+        <v>3</v>
+      </c>
+      <c r="V140" s="25">
+        <v>0</v>
+      </c>
+      <c r="W140" s="25">
+        <v>1</v>
+      </c>
+      <c r="X140" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y140" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z140" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA140" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB140" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC140" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD140" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE140" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF140" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG140" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH140" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI140" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ140" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK140" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL140" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM140" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN140" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO140" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP140" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ140" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR140" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS140" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT140" s="25">
+        <v>5</v>
+      </c>
+      <c r="AU140" s="25">
+        <v>4</v>
+      </c>
+      <c r="AV140" s="25">
+        <v>2</v>
+      </c>
+      <c r="AW140" s="25">
+        <v>1</v>
+      </c>
+      <c r="AX140" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY140" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ140" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA140" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB140" s="25">
+        <v>2</v>
+      </c>
+      <c r="BC140" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD140" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE140" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF140" s="25">
+        <v>4</v>
+      </c>
+      <c r="BG140" s="25">
+        <v>4</v>
+      </c>
+      <c r="BH140" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI140" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ140" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="BK140" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL140" s="25">
+        <v>4</v>
+      </c>
+      <c r="BM140" s="25">
+        <v>4</v>
+      </c>
+      <c r="BN140" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO140" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP140" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ140" s="76">
+        <v>4</v>
+      </c>
+      <c r="BR140" s="77">
+        <v>4</v>
+      </c>
+      <c r="BS140" s="78">
+        <v>4</v>
+      </c>
     </row>
-    <row r="141" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F141" s="75"/>
-      <c r="AQ141" s="73"/>
+    <row r="141" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A141" s="14">
+        <f t="shared" si="7"/>
+        <v>139</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D141" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F141" s="26">
+        <v>42748.7055555556</v>
+      </c>
+      <c r="G141" s="25">
+        <v>3</v>
+      </c>
+      <c r="H141" s="25">
+        <v>3</v>
+      </c>
+      <c r="I141" s="25">
+        <v>3</v>
+      </c>
+      <c r="J141" s="25">
+        <v>1</v>
+      </c>
+      <c r="K141" s="25">
+        <v>1</v>
+      </c>
+      <c r="L141" s="25">
+        <v>0</v>
+      </c>
+      <c r="M141" s="25">
+        <v>0</v>
+      </c>
+      <c r="N141" s="25">
+        <v>1</v>
+      </c>
+      <c r="O141" s="25">
+        <v>3</v>
+      </c>
+      <c r="P141" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q141" s="25">
+        <v>3</v>
+      </c>
+      <c r="R141" s="25">
+        <v>3</v>
+      </c>
+      <c r="S141" s="25">
+        <v>3</v>
+      </c>
+      <c r="T141" s="25">
+        <v>3</v>
+      </c>
+      <c r="U141" s="25">
+        <v>3</v>
+      </c>
+      <c r="V141" s="25">
+        <v>0</v>
+      </c>
+      <c r="W141" s="25">
+        <v>1</v>
+      </c>
+      <c r="X141" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y141" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z141" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA141" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB141" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC141" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD141" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE141" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF141" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG141" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH141" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI141" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ141" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK141" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL141" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM141" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN141" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO141" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP141" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ141" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR141" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS141" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT141" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU141" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV141" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW141" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX141" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY141" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ141" s="25">
+        <v>1</v>
+      </c>
+      <c r="BA141" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BB141" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC141" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD141" s="25">
+        <v>1</v>
+      </c>
+      <c r="BE141" s="25">
+        <v>1</v>
+      </c>
+      <c r="BF141" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG141" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH141" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI141" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ141" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK141" s="25">
+        <v>1</v>
+      </c>
+      <c r="BL141" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM141" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN141" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO141" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP141" s="25">
+        <v>5</v>
+      </c>
+      <c r="BQ141" s="62">
+        <v>1</v>
+      </c>
+      <c r="BR141" s="21">
+        <v>1</v>
+      </c>
+      <c r="BS141" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="142" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F142" s="75"/>
-      <c r="AQ142" s="73"/>
+    <row r="142" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A142" s="14">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D142" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E142" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F142" s="26">
+        <v>42686.784722222197</v>
+      </c>
+      <c r="G142" s="25">
+        <v>5</v>
+      </c>
+      <c r="H142" s="25">
+        <v>5</v>
+      </c>
+      <c r="I142" s="25">
+        <v>5</v>
+      </c>
+      <c r="J142" s="25">
+        <v>1</v>
+      </c>
+      <c r="K142" s="25">
+        <v>1</v>
+      </c>
+      <c r="L142" s="25">
+        <v>1</v>
+      </c>
+      <c r="M142" s="25">
+        <v>0</v>
+      </c>
+      <c r="N142" s="25">
+        <v>1</v>
+      </c>
+      <c r="O142" s="25">
+        <v>3</v>
+      </c>
+      <c r="P142" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q142" s="25">
+        <v>5</v>
+      </c>
+      <c r="R142" s="25">
+        <v>3</v>
+      </c>
+      <c r="S142" s="25">
+        <v>3</v>
+      </c>
+      <c r="T142" s="25">
+        <v>3</v>
+      </c>
+      <c r="U142" s="25">
+        <v>3</v>
+      </c>
+      <c r="V142" s="25">
+        <v>0</v>
+      </c>
+      <c r="W142" s="25">
+        <v>1</v>
+      </c>
+      <c r="X142" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z142" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB142" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD142" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE142" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF142" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG142" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH142" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI142" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ142" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK142" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL142" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM142" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN142" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO142" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP142" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ142" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR142" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS142" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT142" s="25">
+        <v>4</v>
+      </c>
+      <c r="AU142" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV142" s="25">
+        <v>5</v>
+      </c>
+      <c r="AW142" s="25">
+        <v>5</v>
+      </c>
+      <c r="AX142" s="25">
+        <v>4</v>
+      </c>
+      <c r="AY142" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ142" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA142" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB142" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC142" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD142" s="25">
+        <v>5</v>
+      </c>
+      <c r="BE142" s="25">
+        <v>5</v>
+      </c>
+      <c r="BF142" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG142" s="25">
+        <v>5</v>
+      </c>
+      <c r="BH142" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI142" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ142" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="BK142" s="25">
+        <v>5</v>
+      </c>
+      <c r="BL142" s="25">
+        <v>5</v>
+      </c>
+      <c r="BM142" s="25">
+        <v>5</v>
+      </c>
+      <c r="BN142" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO142" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP142" s="25">
+        <v>2</v>
+      </c>
+      <c r="BQ142" s="76">
+        <v>5</v>
+      </c>
+      <c r="BR142" s="77">
+        <v>5</v>
+      </c>
+      <c r="BS142" s="78">
+        <v>5</v>
+      </c>
     </row>
     <row r="143" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F143" s="75"/>
-      <c r="AQ143" s="73"/>
+      <c r="A143" s="14"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="25"/>
+      <c r="L143" s="25"/>
+      <c r="M143" s="25"/>
+      <c r="N143" s="25"/>
+      <c r="O143" s="25"/>
+      <c r="P143" s="24"/>
+      <c r="Q143" s="25"/>
+      <c r="R143" s="25"/>
+      <c r="S143" s="25"/>
+      <c r="T143" s="25"/>
+      <c r="U143" s="25"/>
+      <c r="V143" s="25"/>
+      <c r="W143" s="25"/>
+      <c r="X143" s="25"/>
+      <c r="Y143" s="25"/>
+      <c r="Z143" s="25"/>
+      <c r="AA143" s="25"/>
+      <c r="AB143" s="25"/>
+      <c r="AC143" s="24"/>
+      <c r="AD143" s="24"/>
+      <c r="AE143" s="25"/>
+      <c r="AF143" s="24"/>
+      <c r="AG143" s="24"/>
+      <c r="AH143" s="25"/>
+      <c r="AI143" s="24"/>
+      <c r="AJ143" s="25"/>
+      <c r="AK143" s="24"/>
+      <c r="AL143" s="24"/>
+      <c r="AM143" s="24"/>
+      <c r="AN143" s="24"/>
+      <c r="AO143" s="52"/>
+      <c r="AP143" s="25"/>
+      <c r="AQ143" s="72"/>
+      <c r="AR143" s="25"/>
+      <c r="AS143" s="25"/>
+      <c r="AT143" s="25"/>
+      <c r="AU143" s="25"/>
+      <c r="AV143" s="25"/>
+      <c r="AW143" s="25"/>
+      <c r="AX143" s="25"/>
+      <c r="AY143" s="25"/>
+      <c r="AZ143" s="25"/>
+      <c r="BA143" s="24"/>
+      <c r="BB143" s="25"/>
+      <c r="BC143" s="25"/>
+      <c r="BD143" s="25"/>
+      <c r="BE143" s="25"/>
+      <c r="BF143" s="25"/>
+      <c r="BG143" s="25"/>
+      <c r="BH143" s="25"/>
+      <c r="BI143" s="25"/>
+      <c r="BJ143" s="25"/>
+      <c r="BK143" s="25"/>
+      <c r="BL143" s="25"/>
+      <c r="BM143" s="25"/>
+      <c r="BN143" s="25"/>
+      <c r="BO143" s="24"/>
+      <c r="BP143" s="25"/>
+      <c r="BQ143" s="62"/>
+      <c r="BR143" s="21"/>
+      <c r="BS143" s="78"/>
     </row>
     <row r="144" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F144" s="75"/>
-      <c r="AQ144" s="73"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="25"/>
+      <c r="K144" s="25"/>
+      <c r="L144" s="25"/>
+      <c r="M144" s="25"/>
+      <c r="N144" s="25"/>
+      <c r="O144" s="25"/>
+      <c r="P144" s="24"/>
+      <c r="Q144" s="25"/>
+      <c r="R144" s="25"/>
+      <c r="S144" s="25"/>
+      <c r="T144" s="25"/>
+      <c r="U144" s="25"/>
+      <c r="V144" s="25"/>
+      <c r="W144" s="25"/>
+      <c r="X144" s="25"/>
+      <c r="Y144" s="25"/>
+      <c r="Z144" s="25"/>
+      <c r="AA144" s="25"/>
+      <c r="AB144" s="25"/>
+      <c r="AC144" s="24"/>
+      <c r="AD144" s="24"/>
+      <c r="AE144" s="25"/>
+      <c r="AF144" s="24"/>
+      <c r="AG144" s="24"/>
+      <c r="AH144" s="25"/>
+      <c r="AI144" s="24"/>
+      <c r="AJ144" s="25"/>
+      <c r="AK144" s="24"/>
+      <c r="AL144" s="24"/>
+      <c r="AM144" s="24"/>
+      <c r="AN144" s="24"/>
+      <c r="AO144" s="52"/>
+      <c r="AP144" s="25"/>
+      <c r="AQ144" s="72"/>
+      <c r="AR144" s="25"/>
+      <c r="AS144" s="25"/>
+      <c r="AT144" s="25"/>
+      <c r="AU144" s="25"/>
+      <c r="AV144" s="25"/>
+      <c r="AW144" s="25"/>
+      <c r="AX144" s="25"/>
+      <c r="AY144" s="25"/>
+      <c r="AZ144" s="25"/>
+      <c r="BA144" s="24"/>
+      <c r="BB144" s="25"/>
+      <c r="BC144" s="25"/>
+      <c r="BD144" s="25"/>
+      <c r="BE144" s="25"/>
+      <c r="BF144" s="25"/>
+      <c r="BG144" s="25"/>
+      <c r="BH144" s="25"/>
+      <c r="BI144" s="25"/>
+      <c r="BJ144" s="25"/>
+      <c r="BK144" s="25"/>
+      <c r="BL144" s="25"/>
+      <c r="BM144" s="25"/>
+      <c r="BN144" s="25"/>
+      <c r="BO144" s="24"/>
+      <c r="BP144" s="25"/>
+      <c r="BQ144" s="76"/>
+      <c r="BR144" s="77"/>
+      <c r="BS144" s="78"/>
     </row>
-    <row r="145" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F145" s="75"/>
-      <c r="AQ145" s="73"/>
+    <row r="145" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="14"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="25"/>
+      <c r="L145" s="25"/>
+      <c r="M145" s="25"/>
+      <c r="N145" s="25"/>
+      <c r="O145" s="25"/>
+      <c r="P145" s="24"/>
+      <c r="Q145" s="25"/>
+      <c r="R145" s="25"/>
+      <c r="S145" s="25"/>
+      <c r="T145" s="25"/>
+      <c r="U145" s="25"/>
+      <c r="V145" s="25"/>
+      <c r="W145" s="25"/>
+      <c r="X145" s="25"/>
+      <c r="Y145" s="25"/>
+      <c r="Z145" s="25"/>
+      <c r="AA145" s="25"/>
+      <c r="AB145" s="25"/>
+      <c r="AC145" s="24"/>
+      <c r="AD145" s="24"/>
+      <c r="AE145" s="25"/>
+      <c r="AF145" s="24"/>
+      <c r="AG145" s="24"/>
+      <c r="AH145" s="25"/>
+      <c r="AI145" s="24"/>
+      <c r="AJ145" s="25"/>
+      <c r="AK145" s="24"/>
+      <c r="AL145" s="24"/>
+      <c r="AM145" s="24"/>
+      <c r="AN145" s="24"/>
+      <c r="AO145" s="52"/>
+      <c r="AP145" s="25"/>
+      <c r="AQ145" s="72"/>
+      <c r="AR145" s="25"/>
+      <c r="AS145" s="25"/>
+      <c r="AT145" s="25"/>
+      <c r="AU145" s="25"/>
+      <c r="AV145" s="25"/>
+      <c r="AW145" s="25"/>
+      <c r="AX145" s="25"/>
+      <c r="AY145" s="25"/>
+      <c r="AZ145" s="25"/>
+      <c r="BA145" s="24"/>
+      <c r="BB145" s="25"/>
+      <c r="BC145" s="25"/>
+      <c r="BD145" s="25"/>
+      <c r="BE145" s="25"/>
+      <c r="BF145" s="25"/>
+      <c r="BG145" s="25"/>
+      <c r="BH145" s="25"/>
+      <c r="BI145" s="25"/>
+      <c r="BJ145" s="25"/>
+      <c r="BK145" s="25"/>
+      <c r="BL145" s="25"/>
+      <c r="BM145" s="25"/>
+      <c r="BN145" s="25"/>
+      <c r="BO145" s="24"/>
+      <c r="BP145" s="25"/>
+      <c r="BQ145" s="62"/>
+      <c r="BR145" s="21"/>
+      <c r="BS145" s="78"/>
     </row>
-    <row r="146" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F146" s="75"/>
       <c r="AQ146" s="73"/>
     </row>
-    <row r="147" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F147" s="75"/>
       <c r="AQ147" s="73"/>
     </row>
-    <row r="148" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F148" s="75"/>
       <c r="AQ148" s="73"/>
     </row>
-    <row r="149" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F149" s="75"/>
       <c r="AQ149" s="73"/>
     </row>
-    <row r="150" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F150" s="75"/>
       <c r="AQ150" s="73"/>
     </row>
-    <row r="151" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F151" s="75"/>
       <c r="AQ151" s="73"/>
     </row>
-    <row r="152" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F152" s="75"/>
       <c r="AQ152" s="73"/>
     </row>
-    <row r="153" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F153" s="75"/>
       <c r="AQ153" s="73"/>
     </row>
-    <row r="154" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F154" s="75"/>
       <c r="AQ154" s="73"/>
     </row>
-    <row r="155" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F155" s="75"/>
       <c r="AQ155" s="73"/>
     </row>
-    <row r="156" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F156" s="75"/>
       <c r="AQ156" s="73"/>
     </row>
-    <row r="157" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F157" s="75"/>
       <c r="AQ157" s="73"/>
     </row>
-    <row r="158" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F158" s="75"/>
       <c r="AQ158" s="73"/>
     </row>
-    <row r="159" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F159" s="75"/>
       <c r="AQ159" s="73"/>
     </row>
-    <row r="160" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F160" s="75"/>
       <c r="AQ160" s="73"/>
     </row>
@@ -33531,28 +35374,28 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W94:X94 AA78:AA82 V78:Z80 Y81:Z82 W90:X91 V3:AA77 V81:X89 Y83:AB94 V92:X93 V95:AA140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W94:X94 AA78:AA82 V78:Z80 Y81:Z82 W90:X91 V3:AA77 V81:X89 Y83:AB94 V92:X93 W95:AA145 V95:V134 V136:V145">
       <formula1>"0,1,/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB82 M1 N3:N140 J3:K140 L1:L1048576 M3:M1048576 AZ3:AZ140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB82 M1 N3:N145 J3:K145 M3:M1048576 L1:L1048576 AZ136:AZ145 AZ3:AZ134">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:U72 R75:U79 BA3:BA140 AD3:AD140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:U72 R75:U79 AD3:AD145 BA136:BA145 BA3:BA134">
       <formula1>"1,2,3,4,5,/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO145">
       <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O140 G3:I140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:I145 O3:O145">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E145">
       <formula1>"android客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC2 AC141:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC2 AC146:AC1048576">
       <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC145">
       <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动,/"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -33576,75 +35419,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -33666,75 +35509,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="253">
   <si>
     <t>客户信息</t>
   </si>
@@ -1026,10 +1026,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1053,6 +1049,18 @@
     <rPh sb="0" eb="1">
       <t>xu q</t>
     </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2325,10 +2333,10 @@
   <dimension ref="A1:FZ212"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="141" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AS133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y92" sqref="Y92"/>
+      <selection pane="bottomRight" activeCell="BA137" sqref="BA137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -2595,7 +2603,7 @@
         <v>40</v>
       </c>
       <c r="AN2" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AO2" s="45" t="s">
         <v>41</v>
@@ -9787,8 +9795,8 @@
       <c r="BI35" s="21">
         <v>3</v>
       </c>
-      <c r="BJ35" s="21">
-        <v>3</v>
+      <c r="BJ35" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="BK35" s="21">
         <v>2</v>
@@ -11488,8 +11496,8 @@
       <c r="AZ43" s="21">
         <v>1</v>
       </c>
-      <c r="BA43" s="57" t="s">
-        <v>102</v>
+      <c r="BA43" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="BB43" s="21">
         <v>3</v>
@@ -25870,7 +25878,7 @@
         <v>1</v>
       </c>
       <c r="BA101" s="24" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="BB101" s="25">
         <v>2</v>
@@ -33134,7 +33142,7 @@
         <v>5</v>
       </c>
       <c r="BJ134" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BK134" s="25">
         <v>5</v>
@@ -33323,7 +33331,7 @@
         <v>1</v>
       </c>
       <c r="BA135" s="24" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="BB135" s="25">
         <v>1</v>
@@ -33539,7 +33547,7 @@
         <v>1</v>
       </c>
       <c r="BA136" s="24" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="BB136" s="25">
         <v>3</v>
@@ -34430,7 +34438,7 @@
         <v>3</v>
       </c>
       <c r="BJ140" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK140" s="25">
         <v>4</v>
@@ -34619,7 +34627,7 @@
         <v>1</v>
       </c>
       <c r="BA141" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB141" s="25">
         <v>3</v>
@@ -34682,7 +34690,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C142" s="24" t="s">
         <v>89</v>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaiqi/Desktop/海尔数据收集/user_data_for_haier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\user_data_for_haier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1420" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="1425" windowWidth="25605" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="265">
   <si>
     <t>客户信息</t>
   </si>
@@ -1063,11 +1063,59 @@
     <t>2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
@@ -2332,66 +2380,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FZ212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="141" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AS133" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="U143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA137" sqref="BA137"/>
+      <selection pane="bottomRight" activeCell="Y152" sqref="Y152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="8.1640625" style="4" customWidth="1"/>
-    <col min="10" max="13" width="8.1640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="75" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="8.125" style="4" customWidth="1"/>
+    <col min="10" max="13" width="8.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="6.125" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="1" customWidth="1"/>
     <col min="20" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="25" width="7.1640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="7.1640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5.1640625" style="1" customWidth="1"/>
+    <col min="22" max="25" width="7.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.125" style="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="1" customWidth="1"/>
-    <col min="30" max="37" width="5.1640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="7.1640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="5.1640625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="7.1640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="49.1640625" style="1" customWidth="1"/>
+    <col min="30" max="37" width="5.125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="7.125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="5.125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="7.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="49.125" style="1" customWidth="1"/>
     <col min="42" max="42" width="9" style="1" customWidth="1"/>
     <col min="43" max="43" width="8" style="73" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9" style="1" customWidth="1"/>
-    <col min="45" max="45" width="7.6640625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="7.1640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="6.83203125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="7.1640625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="7.625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="7.125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="6.875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="7.125" style="1" customWidth="1"/>
     <col min="49" max="49" width="8" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.83203125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.875" style="1" customWidth="1"/>
     <col min="51" max="51" width="6.5" style="1" customWidth="1"/>
     <col min="52" max="52" width="7.5" style="1" customWidth="1"/>
     <col min="53" max="53" width="8" style="1" customWidth="1"/>
     <col min="54" max="54" width="7.5" style="1" customWidth="1"/>
-    <col min="55" max="63" width="6.1640625" style="1" customWidth="1"/>
-    <col min="64" max="65" width="8.1640625" style="1" customWidth="1"/>
-    <col min="66" max="67" width="6.1640625" style="1" customWidth="1"/>
-    <col min="68" max="68" width="8.83203125" style="1" customWidth="1"/>
+    <col min="55" max="63" width="6.125" style="1" customWidth="1"/>
+    <col min="64" max="65" width="8.125" style="1" customWidth="1"/>
+    <col min="66" max="67" width="6.125" style="1" customWidth="1"/>
+    <col min="68" max="68" width="8.875" style="1" customWidth="1"/>
     <col min="69" max="69" width="8.5" style="1" customWidth="1"/>
     <col min="70" max="70" width="6.5" style="1" customWidth="1"/>
-    <col min="71" max="71" width="6.1640625" style="1" customWidth="1"/>
-    <col min="72" max="180" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="181" max="182" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="183" max="16384" width="8.83203125" hidden="1"/>
+    <col min="71" max="71" width="6.125" style="1" customWidth="1"/>
+    <col min="72" max="180" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="181" max="182" width="8.625" hidden="1" customWidth="1"/>
+    <col min="183" max="16384" width="8.875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="64"/>
       <c r="B1" s="88" t="s">
         <v>0</v>
@@ -2484,7 +2532,7 @@
       <c r="BR1" s="86"/>
       <c r="BS1" s="87"/>
     </row>
-    <row r="2" spans="1:71" s="3" customFormat="1" ht="71" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" s="3" customFormat="1" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -4210,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4426,7 +4474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4642,7 +4690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4858,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5074,7 +5122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5290,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5506,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <f t="shared" ref="A16:A21" si="1">A15+1</f>
         <v>14</v>
@@ -5722,7 +5770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -5938,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6154,7 +6202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6370,7 +6418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6586,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6802,7 +6850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <f t="shared" ref="A22:A61" si="2">A21+1</f>
         <v>20</v>
@@ -7018,7 +7066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -7234,7 +7282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -7450,7 +7498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -7666,7 +7714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -7882,7 +7930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -8098,7 +8146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -8314,7 +8362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -8530,7 +8578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -8746,7 +8794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -8962,7 +9010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -9178,7 +9226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -9394,7 +9442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -9610,7 +9658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -9826,7 +9874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -10042,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -10258,7 +10306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -10474,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -10690,7 +10738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -10906,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -11122,7 +11170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -11338,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -11554,7 +11602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -11770,7 +11818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -11986,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -12202,7 +12250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -12418,7 +12466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -12634,7 +12682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -12850,7 +12898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -13066,7 +13114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -13282,7 +13330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -13498,7 +13546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -13714,7 +13762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="14">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -13930,7 +13978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -14146,7 +14194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="14">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -14362,7 +14410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -14578,7 +14626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="14">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -14794,7 +14842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -15010,7 +15058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="14">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -15226,7 +15274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="14">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -15442,7 +15490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="14">
         <f t="shared" ref="A62:A67" si="3">A61+1</f>
         <v>60</v>
@@ -15658,7 +15706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="14">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -15874,7 +15922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="14">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -16090,7 +16138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="14">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -16306,7 +16354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="14">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -16522,7 +16570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="14">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -16738,7 +16786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="14">
         <f t="shared" ref="A68:A73" si="4">A67+1</f>
         <v>66</v>
@@ -16954,7 +17002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="14">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -17170,7 +17218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="14">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -17386,7 +17434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="14">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -17602,7 +17650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="14">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -17818,7 +17866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="14">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -18034,7 +18082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="14">
         <f t="shared" ref="A74:A83" si="5">A73+1</f>
         <v>72</v>
@@ -18250,7 +18298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="14">
         <f t="shared" si="5"/>
         <v>73</v>
@@ -18466,7 +18514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="14">
         <f t="shared" si="5"/>
         <v>74</v>
@@ -18682,7 +18730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="14">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -18898,7 +18946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="14">
         <f t="shared" si="5"/>
         <v>76</v>
@@ -19114,7 +19162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="14">
         <f t="shared" si="5"/>
         <v>77</v>
@@ -19330,7 +19378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="14">
         <f t="shared" si="5"/>
         <v>78</v>
@@ -19546,7 +19594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="14">
         <f t="shared" si="5"/>
         <v>79</v>
@@ -19762,7 +19810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="14">
         <f t="shared" si="5"/>
         <v>80</v>
@@ -19978,7 +20026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="14">
         <f t="shared" si="5"/>
         <v>81</v>
@@ -20194,7 +20242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="14">
         <f t="shared" ref="A84:A95" si="6">A83+1</f>
         <v>82</v>
@@ -20519,7 +20567,7 @@
       <c r="FW84"/>
       <c r="FX84"/>
     </row>
-    <row r="85" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="14">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -20844,7 +20892,7 @@
       <c r="FW85"/>
       <c r="FX85"/>
     </row>
-    <row r="86" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="14">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -21169,7 +21217,7 @@
       <c r="FW86"/>
       <c r="FX86"/>
     </row>
-    <row r="87" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="14">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -21494,7 +21542,7 @@
       <c r="FW87"/>
       <c r="FX87"/>
     </row>
-    <row r="88" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="14">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -21819,7 +21867,7 @@
       <c r="FW88"/>
       <c r="FX88"/>
     </row>
-    <row r="89" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="14">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -22144,7 +22192,7 @@
       <c r="FW89"/>
       <c r="FX89"/>
     </row>
-    <row r="90" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="14">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -22469,7 +22517,7 @@
       <c r="FW90"/>
       <c r="FX90"/>
     </row>
-    <row r="91" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="14">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -22794,7 +22842,7 @@
       <c r="FW91"/>
       <c r="FX91"/>
     </row>
-    <row r="92" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="14">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -23119,7 +23167,7 @@
       <c r="FW92"/>
       <c r="FX92"/>
     </row>
-    <row r="93" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="14">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -23444,7 +23492,7 @@
       <c r="FW93"/>
       <c r="FX93"/>
     </row>
-    <row r="94" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="14">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -23769,7 +23817,7 @@
       <c r="FW94"/>
       <c r="FX94"/>
     </row>
-    <row r="95" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="14">
         <f t="shared" si="6"/>
         <v>93</v>
@@ -24094,9 +24142,9 @@
       <c r="FW95"/>
       <c r="FX95"/>
     </row>
-    <row r="96" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="14">
-        <f t="shared" ref="A96:A142" si="7">A95+1</f>
+        <f t="shared" ref="A96:A152" si="7">A95+1</f>
         <v>94</v>
       </c>
       <c r="B96" s="23" t="s">
@@ -24419,7 +24467,7 @@
       <c r="FW96"/>
       <c r="FX96"/>
     </row>
-    <row r="97" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="14">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -24744,7 +24792,7 @@
       <c r="FW97"/>
       <c r="FX97"/>
     </row>
-    <row r="98" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="14">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -25069,7 +25117,7 @@
       <c r="FW98"/>
       <c r="FX98"/>
     </row>
-    <row r="99" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="14">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -25394,7 +25442,7 @@
       <c r="FW99"/>
       <c r="FX99"/>
     </row>
-    <row r="100" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="14">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -25719,7 +25767,7 @@
       <c r="FW100"/>
       <c r="FX100"/>
     </row>
-    <row r="101" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="14">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -26044,7 +26092,7 @@
       <c r="FW101"/>
       <c r="FX101"/>
     </row>
-    <row r="102" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="14">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -26260,7 +26308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A103" s="14">
         <f t="shared" si="7"/>
         <v>101</v>
@@ -26476,7 +26524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="14">
         <f t="shared" si="7"/>
         <v>102</v>
@@ -26692,7 +26740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="14">
         <f t="shared" si="7"/>
         <v>103</v>
@@ -26908,7 +26956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="14">
         <f t="shared" si="7"/>
         <v>104</v>
@@ -27124,7 +27172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A107" s="14">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -27340,7 +27388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A108" s="14">
         <f t="shared" si="7"/>
         <v>106</v>
@@ -27556,7 +27604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A109" s="14">
         <f t="shared" si="7"/>
         <v>107</v>
@@ -27772,7 +27820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="14">
         <f t="shared" si="7"/>
         <v>108</v>
@@ -27988,7 +28036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="14">
         <f t="shared" si="7"/>
         <v>109</v>
@@ -28204,7 +28252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:180" ht="28" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:180" ht="27" x14ac:dyDescent="0.15">
       <c r="A112" s="14">
         <f t="shared" si="7"/>
         <v>110</v>
@@ -28420,7 +28468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A113" s="14">
         <f t="shared" si="7"/>
         <v>111</v>
@@ -28636,7 +28684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A114" s="14">
         <f t="shared" si="7"/>
         <v>112</v>
@@ -28852,7 +28900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="14">
         <f t="shared" si="7"/>
         <v>113</v>
@@ -29068,7 +29116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A116" s="14">
         <f t="shared" si="7"/>
         <v>114</v>
@@ -29284,7 +29332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A117" s="14">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -29500,7 +29548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A118" s="14">
         <f t="shared" si="7"/>
         <v>116</v>
@@ -29716,7 +29764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A119" s="14">
         <f t="shared" si="7"/>
         <v>117</v>
@@ -29932,7 +29980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A120" s="14">
         <f t="shared" si="7"/>
         <v>118</v>
@@ -30148,7 +30196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="14">
         <f t="shared" si="7"/>
         <v>119</v>
@@ -30364,7 +30412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A122" s="14">
         <f t="shared" si="7"/>
         <v>120</v>
@@ -30580,7 +30628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A123" s="14">
         <f t="shared" si="7"/>
         <v>121</v>
@@ -30796,7 +30844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="14">
         <f t="shared" si="7"/>
         <v>122</v>
@@ -31012,7 +31060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="14">
         <f t="shared" si="7"/>
         <v>123</v>
@@ -31228,7 +31276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="14">
         <f t="shared" si="7"/>
         <v>124</v>
@@ -31444,7 +31492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="14">
         <f t="shared" si="7"/>
         <v>125</v>
@@ -31660,7 +31708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A128" s="14">
         <f t="shared" si="7"/>
         <v>126</v>
@@ -31876,7 +31924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="14">
         <f t="shared" si="7"/>
         <v>127</v>
@@ -32092,7 +32140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="14">
         <f t="shared" si="7"/>
         <v>128</v>
@@ -32308,7 +32356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="14">
         <f t="shared" si="7"/>
         <v>129</v>
@@ -32524,7 +32572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="14">
         <f t="shared" si="7"/>
         <v>130</v>
@@ -32740,7 +32788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="14">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -32956,7 +33004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A134" s="14">
         <f t="shared" si="7"/>
         <v>132</v>
@@ -33172,7 +33220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A135" s="14">
         <f t="shared" si="7"/>
         <v>133</v>
@@ -33388,7 +33436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A136" s="14">
         <f t="shared" si="7"/>
         <v>134</v>
@@ -33604,7 +33652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A137" s="14">
         <f t="shared" si="7"/>
         <v>135</v>
@@ -33820,7 +33868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A138" s="14">
         <f t="shared" si="7"/>
         <v>136</v>
@@ -34036,7 +34084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A139" s="14">
         <f t="shared" si="7"/>
         <v>137</v>
@@ -34252,7 +34300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:71" ht="28" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:71" ht="27" x14ac:dyDescent="0.15">
       <c r="A140" s="14">
         <f t="shared" si="7"/>
         <v>138</v>
@@ -34468,7 +34516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="14">
         <f t="shared" si="7"/>
         <v>139</v>
@@ -34684,7 +34732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="14">
         <f t="shared" si="7"/>
         <v>140</v>
@@ -34900,346 +34948,2949 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="14"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
-      <c r="J143" s="25"/>
-      <c r="K143" s="25"/>
-      <c r="L143" s="25"/>
-      <c r="M143" s="25"/>
-      <c r="N143" s="25"/>
-      <c r="O143" s="25"/>
-      <c r="P143" s="24"/>
-      <c r="Q143" s="25"/>
-      <c r="R143" s="25"/>
-      <c r="S143" s="25"/>
-      <c r="T143" s="25"/>
-      <c r="U143" s="25"/>
-      <c r="V143" s="25"/>
-      <c r="W143" s="25"/>
-      <c r="X143" s="25"/>
-      <c r="Y143" s="25"/>
-      <c r="Z143" s="25"/>
-      <c r="AA143" s="25"/>
-      <c r="AB143" s="25"/>
-      <c r="AC143" s="24"/>
-      <c r="AD143" s="24"/>
-      <c r="AE143" s="25"/>
-      <c r="AF143" s="24"/>
-      <c r="AG143" s="24"/>
-      <c r="AH143" s="25"/>
-      <c r="AI143" s="24"/>
-      <c r="AJ143" s="25"/>
-      <c r="AK143" s="24"/>
-      <c r="AL143" s="24"/>
-      <c r="AM143" s="24"/>
-      <c r="AN143" s="24"/>
-      <c r="AO143" s="52"/>
-      <c r="AP143" s="25"/>
-      <c r="AQ143" s="72"/>
-      <c r="AR143" s="25"/>
-      <c r="AS143" s="25"/>
-      <c r="AT143" s="25"/>
-      <c r="AU143" s="25"/>
-      <c r="AV143" s="25"/>
-      <c r="AW143" s="25"/>
-      <c r="AX143" s="25"/>
-      <c r="AY143" s="25"/>
-      <c r="AZ143" s="25"/>
-      <c r="BA143" s="24"/>
-      <c r="BB143" s="25"/>
-      <c r="BC143" s="25"/>
-      <c r="BD143" s="25"/>
-      <c r="BE143" s="25"/>
-      <c r="BF143" s="25"/>
-      <c r="BG143" s="25"/>
-      <c r="BH143" s="25"/>
-      <c r="BI143" s="25"/>
-      <c r="BJ143" s="25"/>
-      <c r="BK143" s="25"/>
-      <c r="BL143" s="25"/>
-      <c r="BM143" s="25"/>
-      <c r="BN143" s="25"/>
-      <c r="BO143" s="24"/>
-      <c r="BP143" s="25"/>
-      <c r="BQ143" s="62"/>
-      <c r="BR143" s="21"/>
-      <c r="BS143" s="78"/>
+    <row r="143" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A143" s="14">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D143" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F143" s="26">
+        <v>42691.502083333296</v>
+      </c>
+      <c r="G143" s="25">
+        <v>3</v>
+      </c>
+      <c r="H143" s="25">
+        <v>3</v>
+      </c>
+      <c r="I143" s="25">
+        <v>3</v>
+      </c>
+      <c r="J143" s="25">
+        <v>1</v>
+      </c>
+      <c r="K143" s="25">
+        <v>1</v>
+      </c>
+      <c r="L143" s="25">
+        <v>1</v>
+      </c>
+      <c r="M143" s="25">
+        <v>0</v>
+      </c>
+      <c r="N143" s="25">
+        <v>1</v>
+      </c>
+      <c r="O143" s="25">
+        <v>3</v>
+      </c>
+      <c r="P143" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q143" s="25">
+        <v>3</v>
+      </c>
+      <c r="R143" s="25">
+        <v>3</v>
+      </c>
+      <c r="S143" s="25">
+        <v>5</v>
+      </c>
+      <c r="T143" s="25">
+        <v>5</v>
+      </c>
+      <c r="U143" s="25">
+        <v>5</v>
+      </c>
+      <c r="V143" s="25">
+        <v>0</v>
+      </c>
+      <c r="W143" s="25">
+        <v>1</v>
+      </c>
+      <c r="X143" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z143" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA143" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB143" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC143" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD143" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE143" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF143" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG143" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH143" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI143" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ143" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK143" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL143" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM143" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN143" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO143" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP143" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ143" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR143" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS143" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT143" s="25">
+        <v>5</v>
+      </c>
+      <c r="AU143" s="25">
+        <v>5</v>
+      </c>
+      <c r="AV143" s="25">
+        <v>5</v>
+      </c>
+      <c r="AW143" s="25">
+        <v>5</v>
+      </c>
+      <c r="AX143" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY143" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ143" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA143" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB143" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BE143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BF143" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG143" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH143" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ143" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BL143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BM143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BN143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO143" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP143" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ143" s="62">
+        <v>5</v>
+      </c>
+      <c r="BR143" s="21">
+        <v>5</v>
+      </c>
+      <c r="BS143" s="78">
+        <v>5</v>
+      </c>
     </row>
-    <row r="144" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="14"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="25"/>
-      <c r="K144" s="25"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="25"/>
-      <c r="N144" s="25"/>
-      <c r="O144" s="25"/>
-      <c r="P144" s="24"/>
-      <c r="Q144" s="25"/>
-      <c r="R144" s="25"/>
-      <c r="S144" s="25"/>
-      <c r="T144" s="25"/>
-      <c r="U144" s="25"/>
-      <c r="V144" s="25"/>
-      <c r="W144" s="25"/>
-      <c r="X144" s="25"/>
-      <c r="Y144" s="25"/>
-      <c r="Z144" s="25"/>
-      <c r="AA144" s="25"/>
-      <c r="AB144" s="25"/>
-      <c r="AC144" s="24"/>
-      <c r="AD144" s="24"/>
-      <c r="AE144" s="25"/>
-      <c r="AF144" s="24"/>
-      <c r="AG144" s="24"/>
-      <c r="AH144" s="25"/>
-      <c r="AI144" s="24"/>
-      <c r="AJ144" s="25"/>
-      <c r="AK144" s="24"/>
-      <c r="AL144" s="24"/>
-      <c r="AM144" s="24"/>
-      <c r="AN144" s="24"/>
-      <c r="AO144" s="52"/>
-      <c r="AP144" s="25"/>
-      <c r="AQ144" s="72"/>
-      <c r="AR144" s="25"/>
-      <c r="AS144" s="25"/>
-      <c r="AT144" s="25"/>
-      <c r="AU144" s="25"/>
-      <c r="AV144" s="25"/>
-      <c r="AW144" s="25"/>
-      <c r="AX144" s="25"/>
-      <c r="AY144" s="25"/>
-      <c r="AZ144" s="25"/>
-      <c r="BA144" s="24"/>
-      <c r="BB144" s="25"/>
-      <c r="BC144" s="25"/>
-      <c r="BD144" s="25"/>
-      <c r="BE144" s="25"/>
-      <c r="BF144" s="25"/>
-      <c r="BG144" s="25"/>
-      <c r="BH144" s="25"/>
-      <c r="BI144" s="25"/>
-      <c r="BJ144" s="25"/>
-      <c r="BK144" s="25"/>
-      <c r="BL144" s="25"/>
-      <c r="BM144" s="25"/>
-      <c r="BN144" s="25"/>
-      <c r="BO144" s="24"/>
-      <c r="BP144" s="25"/>
-      <c r="BQ144" s="76"/>
-      <c r="BR144" s="77"/>
-      <c r="BS144" s="78"/>
+    <row r="144" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A144" s="14">
+        <f t="shared" si="7"/>
+        <v>142</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D144" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E144" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F144" s="26">
+        <v>42696.8618055556</v>
+      </c>
+      <c r="G144" s="25">
+        <v>3</v>
+      </c>
+      <c r="H144" s="25">
+        <v>3</v>
+      </c>
+      <c r="I144" s="25">
+        <v>2</v>
+      </c>
+      <c r="J144" s="25">
+        <v>0</v>
+      </c>
+      <c r="K144" s="25">
+        <v>1</v>
+      </c>
+      <c r="L144" s="25">
+        <v>1</v>
+      </c>
+      <c r="M144" s="25">
+        <v>0</v>
+      </c>
+      <c r="N144" s="25">
+        <v>1</v>
+      </c>
+      <c r="O144" s="25">
+        <v>3</v>
+      </c>
+      <c r="P144" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q144" s="25">
+        <v>3</v>
+      </c>
+      <c r="R144" s="25">
+        <v>3</v>
+      </c>
+      <c r="S144" s="25">
+        <v>3</v>
+      </c>
+      <c r="T144" s="25">
+        <v>3</v>
+      </c>
+      <c r="U144" s="25">
+        <v>3</v>
+      </c>
+      <c r="V144" s="25">
+        <v>0</v>
+      </c>
+      <c r="W144" s="25">
+        <v>1</v>
+      </c>
+      <c r="X144" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z144" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB144" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC144" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD144" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE144" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF144" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG144" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH144" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI144" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ144" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK144" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL144" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM144" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN144" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO144" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP144" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ144" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR144" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS144" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ144" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA144" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH144" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ144" s="25">
+        <v>2</v>
+      </c>
+      <c r="BK144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BN144" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO144" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP144" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ144" s="76">
+        <v>3</v>
+      </c>
+      <c r="BR144" s="77">
+        <v>3</v>
+      </c>
+      <c r="BS144" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="145" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="14"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="25"/>
-      <c r="K145" s="25"/>
-      <c r="L145" s="25"/>
-      <c r="M145" s="25"/>
-      <c r="N145" s="25"/>
-      <c r="O145" s="25"/>
-      <c r="P145" s="24"/>
-      <c r="Q145" s="25"/>
-      <c r="R145" s="25"/>
-      <c r="S145" s="25"/>
-      <c r="T145" s="25"/>
-      <c r="U145" s="25"/>
-      <c r="V145" s="25"/>
-      <c r="W145" s="25"/>
-      <c r="X145" s="25"/>
-      <c r="Y145" s="25"/>
-      <c r="Z145" s="25"/>
-      <c r="AA145" s="25"/>
-      <c r="AB145" s="25"/>
-      <c r="AC145" s="24"/>
-      <c r="AD145" s="24"/>
-      <c r="AE145" s="25"/>
-      <c r="AF145" s="24"/>
-      <c r="AG145" s="24"/>
-      <c r="AH145" s="25"/>
-      <c r="AI145" s="24"/>
-      <c r="AJ145" s="25"/>
-      <c r="AK145" s="24"/>
-      <c r="AL145" s="24"/>
-      <c r="AM145" s="24"/>
-      <c r="AN145" s="24"/>
-      <c r="AO145" s="52"/>
-      <c r="AP145" s="25"/>
-      <c r="AQ145" s="72"/>
-      <c r="AR145" s="25"/>
-      <c r="AS145" s="25"/>
-      <c r="AT145" s="25"/>
-      <c r="AU145" s="25"/>
-      <c r="AV145" s="25"/>
-      <c r="AW145" s="25"/>
-      <c r="AX145" s="25"/>
-      <c r="AY145" s="25"/>
-      <c r="AZ145" s="25"/>
-      <c r="BA145" s="24"/>
-      <c r="BB145" s="25"/>
-      <c r="BC145" s="25"/>
-      <c r="BD145" s="25"/>
-      <c r="BE145" s="25"/>
-      <c r="BF145" s="25"/>
-      <c r="BG145" s="25"/>
-      <c r="BH145" s="25"/>
-      <c r="BI145" s="25"/>
-      <c r="BJ145" s="25"/>
-      <c r="BK145" s="25"/>
-      <c r="BL145" s="25"/>
-      <c r="BM145" s="25"/>
-      <c r="BN145" s="25"/>
-      <c r="BO145" s="24"/>
-      <c r="BP145" s="25"/>
-      <c r="BQ145" s="62"/>
-      <c r="BR145" s="21"/>
-      <c r="BS145" s="78"/>
+    <row r="145" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A145" s="14">
+        <f t="shared" si="7"/>
+        <v>143</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D145" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F145" s="26">
+        <v>42684.7631944444</v>
+      </c>
+      <c r="G145" s="25">
+        <v>5</v>
+      </c>
+      <c r="H145" s="25">
+        <v>5</v>
+      </c>
+      <c r="I145" s="25">
+        <v>5</v>
+      </c>
+      <c r="J145" s="25">
+        <v>1</v>
+      </c>
+      <c r="K145" s="25">
+        <v>1</v>
+      </c>
+      <c r="L145" s="25">
+        <v>1</v>
+      </c>
+      <c r="M145" s="25">
+        <v>0</v>
+      </c>
+      <c r="N145" s="25">
+        <v>1</v>
+      </c>
+      <c r="O145" s="25">
+        <v>5</v>
+      </c>
+      <c r="P145" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q145" s="25">
+        <v>3</v>
+      </c>
+      <c r="R145" s="25">
+        <v>3</v>
+      </c>
+      <c r="S145" s="25">
+        <v>3</v>
+      </c>
+      <c r="T145" s="25">
+        <v>3</v>
+      </c>
+      <c r="U145" s="25">
+        <v>5</v>
+      </c>
+      <c r="V145" s="25">
+        <v>0</v>
+      </c>
+      <c r="W145" s="25">
+        <v>1</v>
+      </c>
+      <c r="X145" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD145" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE145" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF145" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG145" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH145" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI145" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ145" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK145" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL145" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM145" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN145" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO145" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP145" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ145" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR145" s="25">
+        <v>1</v>
+      </c>
+      <c r="AS145" s="25">
+        <v>300</v>
+      </c>
+      <c r="AT145" s="25">
+        <v>4</v>
+      </c>
+      <c r="AU145" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV145" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW145" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX145" s="25">
+        <v>5</v>
+      </c>
+      <c r="AY145" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ145" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA145" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB145" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BE145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BF145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BG145" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH145" s="25">
+        <v>4</v>
+      </c>
+      <c r="BI145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ145" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BL145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BM145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BN145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO145" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP145" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ145" s="76">
+        <v>5</v>
+      </c>
+      <c r="BR145" s="77">
+        <v>5</v>
+      </c>
+      <c r="BS145" s="78">
+        <v>5</v>
+      </c>
     </row>
-    <row r="146" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F146" s="75"/>
-      <c r="AQ146" s="73"/>
+    <row r="146" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A146" s="14">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D146" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E146" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F146" s="26">
+        <v>42679.6652777778</v>
+      </c>
+      <c r="G146" s="25">
+        <v>5</v>
+      </c>
+      <c r="H146" s="25">
+        <v>5</v>
+      </c>
+      <c r="I146" s="25">
+        <v>5</v>
+      </c>
+      <c r="J146" s="25">
+        <v>1</v>
+      </c>
+      <c r="K146" s="25">
+        <v>1</v>
+      </c>
+      <c r="L146" s="25">
+        <v>1</v>
+      </c>
+      <c r="M146" s="25">
+        <v>0</v>
+      </c>
+      <c r="N146" s="25">
+        <v>1</v>
+      </c>
+      <c r="O146" s="25">
+        <v>5</v>
+      </c>
+      <c r="P146" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q146" s="25">
+        <v>3</v>
+      </c>
+      <c r="R146" s="25">
+        <v>3</v>
+      </c>
+      <c r="S146" s="25">
+        <v>3</v>
+      </c>
+      <c r="T146" s="25">
+        <v>5</v>
+      </c>
+      <c r="U146" s="25">
+        <v>5</v>
+      </c>
+      <c r="V146" s="25">
+        <v>0</v>
+      </c>
+      <c r="W146" s="25">
+        <v>1</v>
+      </c>
+      <c r="X146" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD146" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG146" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI146" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ146" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK146" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL146" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM146" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN146" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO146" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ146" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS146" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT146" s="25">
+        <v>4</v>
+      </c>
+      <c r="AU146" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV146" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW146" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX146" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY146" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ146" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA146" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB146" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD146" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE146" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF146" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BH146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ146" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BL146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BM146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BN146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO146" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP146" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ146" s="76">
+        <v>5</v>
+      </c>
+      <c r="BR146" s="77">
+        <v>5</v>
+      </c>
+      <c r="BS146" s="78">
+        <v>5</v>
+      </c>
     </row>
-    <row r="147" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F147" s="75"/>
-      <c r="AQ147" s="73"/>
+    <row r="147" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A147" s="14">
+        <f t="shared" si="7"/>
+        <v>145</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D147" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="26">
+        <v>42678.006944444402</v>
+      </c>
+      <c r="G147" s="25">
+        <v>3</v>
+      </c>
+      <c r="H147" s="25">
+        <v>3</v>
+      </c>
+      <c r="I147" s="25">
+        <v>3</v>
+      </c>
+      <c r="J147" s="25">
+        <v>1</v>
+      </c>
+      <c r="K147" s="25">
+        <v>1</v>
+      </c>
+      <c r="L147" s="25">
+        <v>1</v>
+      </c>
+      <c r="M147" s="25">
+        <v>0</v>
+      </c>
+      <c r="N147" s="25">
+        <v>1</v>
+      </c>
+      <c r="O147" s="25">
+        <v>4</v>
+      </c>
+      <c r="P147" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q147" s="25">
+        <v>3</v>
+      </c>
+      <c r="R147" s="25">
+        <v>3</v>
+      </c>
+      <c r="S147" s="25">
+        <v>3</v>
+      </c>
+      <c r="T147" s="25">
+        <v>4</v>
+      </c>
+      <c r="U147" s="25">
+        <v>5</v>
+      </c>
+      <c r="V147" s="25">
+        <v>0</v>
+      </c>
+      <c r="W147" s="25">
+        <v>1</v>
+      </c>
+      <c r="X147" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD147" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG147" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ147" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK147" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL147" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM147" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN147" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO147" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ147" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS147" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ147" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA147" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC147" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG147" s="25">
+        <v>4</v>
+      </c>
+      <c r="BH147" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI147" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ147" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BN147" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO147" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP147" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ147" s="76">
+        <v>3</v>
+      </c>
+      <c r="BR147" s="77">
+        <v>3</v>
+      </c>
+      <c r="BS147" s="78">
+        <v>3</v>
+      </c>
     </row>
-    <row r="148" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F148" s="75"/>
-      <c r="AQ148" s="73"/>
+    <row r="148" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A148" s="14">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D148" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F148" s="26">
+        <v>42698.923611111102</v>
+      </c>
+      <c r="G148" s="25">
+        <v>3</v>
+      </c>
+      <c r="H148" s="25">
+        <v>3</v>
+      </c>
+      <c r="I148" s="25">
+        <v>3</v>
+      </c>
+      <c r="J148" s="25">
+        <v>0</v>
+      </c>
+      <c r="K148" s="25">
+        <v>1</v>
+      </c>
+      <c r="L148" s="25">
+        <v>1</v>
+      </c>
+      <c r="M148" s="25">
+        <v>0</v>
+      </c>
+      <c r="N148" s="25">
+        <v>1</v>
+      </c>
+      <c r="O148" s="25">
+        <v>2</v>
+      </c>
+      <c r="P148" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q148" s="25">
+        <v>3</v>
+      </c>
+      <c r="R148" s="25">
+        <v>3</v>
+      </c>
+      <c r="S148" s="25">
+        <v>1</v>
+      </c>
+      <c r="T148" s="25">
+        <v>1</v>
+      </c>
+      <c r="U148" s="25">
+        <v>2</v>
+      </c>
+      <c r="V148" s="25">
+        <v>0</v>
+      </c>
+      <c r="W148" s="25">
+        <v>1</v>
+      </c>
+      <c r="X148" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y148" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB148" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC148" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD148" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF148" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG148" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI148" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ148" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK148" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL148" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM148" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN148" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="AO148" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ148" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS148" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ148" s="25">
+        <v>1</v>
+      </c>
+      <c r="BA148" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="BB148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BC148" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE148" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF148" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG148" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BI148" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ148" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL148" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BO148" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP148" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ148" s="76">
+        <v>2</v>
+      </c>
+      <c r="BR148" s="77">
+        <v>1</v>
+      </c>
+      <c r="BS148" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="149" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F149" s="75"/>
-      <c r="AQ149" s="73"/>
+    <row r="149" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A149" s="14">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F149" s="26">
+        <v>42649.786111111098</v>
+      </c>
+      <c r="G149" s="25">
+        <v>3</v>
+      </c>
+      <c r="H149" s="25">
+        <v>3</v>
+      </c>
+      <c r="I149" s="25">
+        <v>4</v>
+      </c>
+      <c r="J149" s="25">
+        <v>1</v>
+      </c>
+      <c r="K149" s="25">
+        <v>1</v>
+      </c>
+      <c r="L149" s="25">
+        <v>1</v>
+      </c>
+      <c r="M149" s="25">
+        <v>0</v>
+      </c>
+      <c r="N149" s="25">
+        <v>1</v>
+      </c>
+      <c r="O149" s="25">
+        <v>3</v>
+      </c>
+      <c r="P149" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q149" s="25">
+        <v>3</v>
+      </c>
+      <c r="R149" s="25">
+        <v>3</v>
+      </c>
+      <c r="S149" s="25">
+        <v>3</v>
+      </c>
+      <c r="T149" s="25">
+        <v>3</v>
+      </c>
+      <c r="U149" s="25">
+        <v>3</v>
+      </c>
+      <c r="V149" s="25">
+        <v>0</v>
+      </c>
+      <c r="W149" s="25">
+        <v>1</v>
+      </c>
+      <c r="X149" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD149" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF149" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG149" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI149" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ149" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK149" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL149" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM149" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN149" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO149" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ149" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS149" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT149" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU149" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV149" s="25">
+        <v>1</v>
+      </c>
+      <c r="AW149" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX149" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY149" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ149" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA149" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB149" s="25">
+        <v>1</v>
+      </c>
+      <c r="BC149" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD149" s="25">
+        <v>1</v>
+      </c>
+      <c r="BE149" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF149" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG149" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH149" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI149" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ149" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK149" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL149" s="25">
+        <v>2</v>
+      </c>
+      <c r="BM149" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN149" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO149" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP149" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ149" s="76">
+        <v>1</v>
+      </c>
+      <c r="BR149" s="77">
+        <v>1</v>
+      </c>
+      <c r="BS149" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="150" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F150" s="75"/>
-      <c r="AQ150" s="73"/>
+    <row r="150" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A150" s="14">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D150" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F150" s="26">
+        <v>42719.7902777778</v>
+      </c>
+      <c r="G150" s="25">
+        <v>3</v>
+      </c>
+      <c r="H150" s="25">
+        <v>3</v>
+      </c>
+      <c r="I150" s="25">
+        <v>2</v>
+      </c>
+      <c r="J150" s="25">
+        <v>0</v>
+      </c>
+      <c r="K150" s="25">
+        <v>1</v>
+      </c>
+      <c r="L150" s="25">
+        <v>1</v>
+      </c>
+      <c r="M150" s="25">
+        <v>0</v>
+      </c>
+      <c r="N150" s="25">
+        <v>1</v>
+      </c>
+      <c r="O150" s="25">
+        <v>4</v>
+      </c>
+      <c r="P150" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q150" s="25">
+        <v>3</v>
+      </c>
+      <c r="R150" s="25">
+        <v>3</v>
+      </c>
+      <c r="S150" s="25">
+        <v>3</v>
+      </c>
+      <c r="T150" s="25">
+        <v>3</v>
+      </c>
+      <c r="U150" s="25">
+        <v>4</v>
+      </c>
+      <c r="V150" s="25">
+        <v>0</v>
+      </c>
+      <c r="W150" s="25">
+        <v>1</v>
+      </c>
+      <c r="X150" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y150" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB150" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC150" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD150" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF150" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG150" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI150" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ150" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK150" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL150" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM150" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN150" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO150" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ150" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS150" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT150" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU150" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV150" s="25">
+        <v>1</v>
+      </c>
+      <c r="AW150" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX150" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY150" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ150" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA150" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD150" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG150" s="25">
+        <v>2</v>
+      </c>
+      <c r="BH150" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ150" s="25">
+        <v>2</v>
+      </c>
+      <c r="BK150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL150" s="25">
+        <v>2</v>
+      </c>
+      <c r="BM150" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN150" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO150" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP150" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ150" s="76">
+        <v>1</v>
+      </c>
+      <c r="BR150" s="77">
+        <v>2</v>
+      </c>
+      <c r="BS150" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F151" s="75"/>
-      <c r="AQ151" s="73"/>
+    <row r="151" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A151" s="14">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D151" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F151" s="26">
+        <v>42705.829861111102</v>
+      </c>
+      <c r="G151" s="25">
+        <v>2</v>
+      </c>
+      <c r="H151" s="25">
+        <v>2</v>
+      </c>
+      <c r="I151" s="25">
+        <v>2</v>
+      </c>
+      <c r="J151" s="25">
+        <v>1</v>
+      </c>
+      <c r="K151" s="25">
+        <v>1</v>
+      </c>
+      <c r="L151" s="25">
+        <v>1</v>
+      </c>
+      <c r="M151" s="25">
+        <v>0</v>
+      </c>
+      <c r="N151" s="25">
+        <v>1</v>
+      </c>
+      <c r="O151" s="25">
+        <v>3</v>
+      </c>
+      <c r="P151" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q151" s="25">
+        <v>3</v>
+      </c>
+      <c r="R151" s="25">
+        <v>3</v>
+      </c>
+      <c r="S151" s="25">
+        <v>2</v>
+      </c>
+      <c r="T151" s="25">
+        <v>3</v>
+      </c>
+      <c r="U151" s="25">
+        <v>2</v>
+      </c>
+      <c r="V151" s="25">
+        <v>0</v>
+      </c>
+      <c r="W151" s="25">
+        <v>1</v>
+      </c>
+      <c r="X151" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD151" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF151" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG151" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI151" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ151" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK151" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL151" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM151" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN151" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO151" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ151" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS151" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ151" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA151" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB151" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC151" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD151" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE151" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF151" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG151" s="25">
+        <v>2</v>
+      </c>
+      <c r="BH151" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI151" s="25">
+        <v>2</v>
+      </c>
+      <c r="BJ151" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK151" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL151" s="25">
+        <v>4</v>
+      </c>
+      <c r="BM151" s="25">
+        <v>4</v>
+      </c>
+      <c r="BN151" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO151" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP151" s="25">
+        <v>2</v>
+      </c>
+      <c r="BQ151" s="76">
+        <v>3</v>
+      </c>
+      <c r="BR151" s="77">
+        <v>4</v>
+      </c>
+      <c r="BS151" s="78">
+        <v>3</v>
+      </c>
     </row>
-    <row r="152" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F152" s="75"/>
-      <c r="AQ152" s="73"/>
+    <row r="152" spans="1:71" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A152" s="14">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D152" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F152" s="26">
+        <v>42709.9868055556</v>
+      </c>
+      <c r="G152" s="25">
+        <v>3</v>
+      </c>
+      <c r="H152" s="25">
+        <v>3</v>
+      </c>
+      <c r="I152" s="25">
+        <v>5</v>
+      </c>
+      <c r="J152" s="25">
+        <v>1</v>
+      </c>
+      <c r="K152" s="25">
+        <v>1</v>
+      </c>
+      <c r="L152" s="25">
+        <v>1</v>
+      </c>
+      <c r="M152" s="25">
+        <v>0</v>
+      </c>
+      <c r="N152" s="25">
+        <v>1</v>
+      </c>
+      <c r="O152" s="25">
+        <v>5</v>
+      </c>
+      <c r="P152" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q152" s="25">
+        <v>3</v>
+      </c>
+      <c r="R152" s="25">
+        <v>3</v>
+      </c>
+      <c r="S152" s="25">
+        <v>1</v>
+      </c>
+      <c r="T152" s="25">
+        <v>1</v>
+      </c>
+      <c r="U152" s="25">
+        <v>1</v>
+      </c>
+      <c r="V152" s="25">
+        <v>0</v>
+      </c>
+      <c r="W152" s="25">
+        <v>1</v>
+      </c>
+      <c r="X152" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y152" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB152" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC152" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD152" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF152" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG152" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI152" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ152" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK152" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL152" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM152" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN152" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO152" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ152" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS152" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT152" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU152" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV152" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW152" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX152" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY152" s="25">
+        <v>5</v>
+      </c>
+      <c r="AZ152" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA152" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG152" s="25">
+        <v>5</v>
+      </c>
+      <c r="BH152" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI152" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BK152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM152" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN152" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO152" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="BP152" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ152" s="76">
+        <v>2</v>
+      </c>
+      <c r="BR152" s="77">
+        <v>3</v>
+      </c>
+      <c r="BS152" s="78">
+        <v>2</v>
+      </c>
     </row>
     <row r="153" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F153" s="75"/>
-      <c r="AQ153" s="73"/>
+      <c r="A153" s="14"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="25"/>
+      <c r="L153" s="25"/>
+      <c r="M153" s="25"/>
+      <c r="N153" s="25"/>
+      <c r="O153" s="25"/>
+      <c r="P153" s="24"/>
+      <c r="Q153" s="25"/>
+      <c r="R153" s="25"/>
+      <c r="S153" s="25"/>
+      <c r="T153" s="25"/>
+      <c r="U153" s="25"/>
+      <c r="V153" s="25"/>
+      <c r="W153" s="25"/>
+      <c r="X153" s="25"/>
+      <c r="Y153" s="25"/>
+      <c r="Z153" s="25"/>
+      <c r="AA153" s="25"/>
+      <c r="AB153" s="25"/>
+      <c r="AC153" s="24"/>
+      <c r="AD153" s="24"/>
+      <c r="AE153" s="25"/>
+      <c r="AF153" s="24"/>
+      <c r="AG153" s="24"/>
+      <c r="AH153" s="25"/>
+      <c r="AI153" s="24"/>
+      <c r="AJ153" s="25"/>
+      <c r="AK153" s="24"/>
+      <c r="AL153" s="24"/>
+      <c r="AM153" s="24"/>
+      <c r="AN153" s="24"/>
+      <c r="AO153" s="52"/>
+      <c r="AP153" s="25"/>
+      <c r="AQ153" s="72"/>
+      <c r="AR153" s="25"/>
+      <c r="AS153" s="25"/>
+      <c r="AT153" s="25"/>
+      <c r="AU153" s="25"/>
+      <c r="AV153" s="25"/>
+      <c r="AW153" s="25"/>
+      <c r="AX153" s="25"/>
+      <c r="AY153" s="25"/>
+      <c r="AZ153" s="25"/>
+      <c r="BA153" s="24"/>
+      <c r="BB153" s="25"/>
+      <c r="BC153" s="25"/>
+      <c r="BD153" s="25"/>
+      <c r="BE153" s="25"/>
+      <c r="BF153" s="25"/>
+      <c r="BG153" s="25"/>
+      <c r="BH153" s="25"/>
+      <c r="BI153" s="25"/>
+      <c r="BJ153" s="25"/>
+      <c r="BK153" s="25"/>
+      <c r="BL153" s="25"/>
+      <c r="BM153" s="25"/>
+      <c r="BN153" s="25"/>
+      <c r="BO153" s="24"/>
+      <c r="BP153" s="25"/>
+      <c r="BQ153" s="76"/>
+      <c r="BR153" s="77"/>
+      <c r="BS153" s="78"/>
     </row>
     <row r="154" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F154" s="75"/>
-      <c r="AQ154" s="73"/>
+      <c r="A154" s="14"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25"/>
+      <c r="K154" s="25"/>
+      <c r="L154" s="25"/>
+      <c r="M154" s="25"/>
+      <c r="N154" s="25"/>
+      <c r="O154" s="25"/>
+      <c r="P154" s="24"/>
+      <c r="Q154" s="25"/>
+      <c r="R154" s="25"/>
+      <c r="S154" s="25"/>
+      <c r="T154" s="25"/>
+      <c r="U154" s="25"/>
+      <c r="V154" s="25"/>
+      <c r="W154" s="25"/>
+      <c r="X154" s="25"/>
+      <c r="Y154" s="25"/>
+      <c r="Z154" s="25"/>
+      <c r="AA154" s="25"/>
+      <c r="AB154" s="25"/>
+      <c r="AC154" s="24"/>
+      <c r="AD154" s="24"/>
+      <c r="AE154" s="25"/>
+      <c r="AF154" s="24"/>
+      <c r="AG154" s="24"/>
+      <c r="AH154" s="25"/>
+      <c r="AI154" s="24"/>
+      <c r="AJ154" s="25"/>
+      <c r="AK154" s="24"/>
+      <c r="AL154" s="24"/>
+      <c r="AM154" s="24"/>
+      <c r="AN154" s="24"/>
+      <c r="AO154" s="52"/>
+      <c r="AP154" s="25"/>
+      <c r="AQ154" s="72"/>
+      <c r="AR154" s="25"/>
+      <c r="AS154" s="25"/>
+      <c r="AT154" s="25"/>
+      <c r="AU154" s="25"/>
+      <c r="AV154" s="25"/>
+      <c r="AW154" s="25"/>
+      <c r="AX154" s="25"/>
+      <c r="AY154" s="25"/>
+      <c r="AZ154" s="25"/>
+      <c r="BA154" s="24"/>
+      <c r="BB154" s="25"/>
+      <c r="BC154" s="25"/>
+      <c r="BD154" s="25"/>
+      <c r="BE154" s="25"/>
+      <c r="BF154" s="25"/>
+      <c r="BG154" s="25"/>
+      <c r="BH154" s="25"/>
+      <c r="BI154" s="25"/>
+      <c r="BJ154" s="25"/>
+      <c r="BK154" s="25"/>
+      <c r="BL154" s="25"/>
+      <c r="BM154" s="25"/>
+      <c r="BN154" s="25"/>
+      <c r="BO154" s="24"/>
+      <c r="BP154" s="25"/>
+      <c r="BQ154" s="76"/>
+      <c r="BR154" s="77"/>
+      <c r="BS154" s="78"/>
     </row>
     <row r="155" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F155" s="75"/>
-      <c r="AQ155" s="73"/>
+      <c r="A155" s="14"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="25"/>
+      <c r="N155" s="25"/>
+      <c r="O155" s="25"/>
+      <c r="P155" s="24"/>
+      <c r="Q155" s="25"/>
+      <c r="R155" s="25"/>
+      <c r="S155" s="25"/>
+      <c r="T155" s="25"/>
+      <c r="U155" s="25"/>
+      <c r="V155" s="25"/>
+      <c r="W155" s="25"/>
+      <c r="X155" s="25"/>
+      <c r="Y155" s="25"/>
+      <c r="Z155" s="25"/>
+      <c r="AA155" s="25"/>
+      <c r="AB155" s="25"/>
+      <c r="AC155" s="24"/>
+      <c r="AD155" s="24"/>
+      <c r="AE155" s="25"/>
+      <c r="AF155" s="24"/>
+      <c r="AG155" s="24"/>
+      <c r="AH155" s="25"/>
+      <c r="AI155" s="24"/>
+      <c r="AJ155" s="25"/>
+      <c r="AK155" s="24"/>
+      <c r="AL155" s="24"/>
+      <c r="AM155" s="24"/>
+      <c r="AN155" s="24"/>
+      <c r="AO155" s="52"/>
+      <c r="AP155" s="25"/>
+      <c r="AQ155" s="72"/>
+      <c r="AR155" s="25"/>
+      <c r="AS155" s="25"/>
+      <c r="AT155" s="25"/>
+      <c r="AU155" s="25"/>
+      <c r="AV155" s="25"/>
+      <c r="AW155" s="25"/>
+      <c r="AX155" s="25"/>
+      <c r="AY155" s="25"/>
+      <c r="AZ155" s="25"/>
+      <c r="BA155" s="24"/>
+      <c r="BB155" s="25"/>
+      <c r="BC155" s="25"/>
+      <c r="BD155" s="25"/>
+      <c r="BE155" s="25"/>
+      <c r="BF155" s="25"/>
+      <c r="BG155" s="25"/>
+      <c r="BH155" s="25"/>
+      <c r="BI155" s="25"/>
+      <c r="BJ155" s="25"/>
+      <c r="BK155" s="25"/>
+      <c r="BL155" s="25"/>
+      <c r="BM155" s="25"/>
+      <c r="BN155" s="25"/>
+      <c r="BO155" s="24"/>
+      <c r="BP155" s="25"/>
+      <c r="BQ155" s="76"/>
+      <c r="BR155" s="77"/>
+      <c r="BS155" s="78"/>
     </row>
     <row r="156" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F156" s="75"/>
-      <c r="AQ156" s="73"/>
+      <c r="A156" s="14"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="25"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="25"/>
+      <c r="N156" s="25"/>
+      <c r="O156" s="25"/>
+      <c r="P156" s="24"/>
+      <c r="Q156" s="25"/>
+      <c r="R156" s="25"/>
+      <c r="S156" s="25"/>
+      <c r="T156" s="25"/>
+      <c r="U156" s="25"/>
+      <c r="V156" s="25"/>
+      <c r="W156" s="25"/>
+      <c r="X156" s="25"/>
+      <c r="Y156" s="25"/>
+      <c r="Z156" s="25"/>
+      <c r="AA156" s="25"/>
+      <c r="AB156" s="25"/>
+      <c r="AC156" s="24"/>
+      <c r="AD156" s="24"/>
+      <c r="AE156" s="25"/>
+      <c r="AF156" s="24"/>
+      <c r="AG156" s="24"/>
+      <c r="AH156" s="25"/>
+      <c r="AI156" s="24"/>
+      <c r="AJ156" s="25"/>
+      <c r="AK156" s="24"/>
+      <c r="AL156" s="24"/>
+      <c r="AM156" s="24"/>
+      <c r="AN156" s="24"/>
+      <c r="AO156" s="52"/>
+      <c r="AP156" s="25"/>
+      <c r="AQ156" s="72"/>
+      <c r="AR156" s="25"/>
+      <c r="AS156" s="25"/>
+      <c r="AT156" s="25"/>
+      <c r="AU156" s="25"/>
+      <c r="AV156" s="25"/>
+      <c r="AW156" s="25"/>
+      <c r="AX156" s="25"/>
+      <c r="AY156" s="25"/>
+      <c r="AZ156" s="25"/>
+      <c r="BA156" s="24"/>
+      <c r="BB156" s="25"/>
+      <c r="BC156" s="25"/>
+      <c r="BD156" s="25"/>
+      <c r="BE156" s="25"/>
+      <c r="BF156" s="25"/>
+      <c r="BG156" s="25"/>
+      <c r="BH156" s="25"/>
+      <c r="BI156" s="25"/>
+      <c r="BJ156" s="25"/>
+      <c r="BK156" s="25"/>
+      <c r="BL156" s="25"/>
+      <c r="BM156" s="25"/>
+      <c r="BN156" s="25"/>
+      <c r="BO156" s="24"/>
+      <c r="BP156" s="25"/>
+      <c r="BQ156" s="76"/>
+      <c r="BR156" s="77"/>
+      <c r="BS156" s="78"/>
     </row>
     <row r="157" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F157" s="75"/>
-      <c r="AQ157" s="73"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="25"/>
+      <c r="M157" s="25"/>
+      <c r="N157" s="25"/>
+      <c r="O157" s="25"/>
+      <c r="P157" s="24"/>
+      <c r="Q157" s="25"/>
+      <c r="R157" s="25"/>
+      <c r="S157" s="25"/>
+      <c r="T157" s="25"/>
+      <c r="U157" s="25"/>
+      <c r="V157" s="25"/>
+      <c r="W157" s="25"/>
+      <c r="X157" s="25"/>
+      <c r="Y157" s="25"/>
+      <c r="Z157" s="25"/>
+      <c r="AA157" s="25"/>
+      <c r="AB157" s="25"/>
+      <c r="AC157" s="24"/>
+      <c r="AD157" s="24"/>
+      <c r="AE157" s="25"/>
+      <c r="AF157" s="24"/>
+      <c r="AG157" s="24"/>
+      <c r="AH157" s="25"/>
+      <c r="AI157" s="24"/>
+      <c r="AJ157" s="25"/>
+      <c r="AK157" s="24"/>
+      <c r="AL157" s="24"/>
+      <c r="AM157" s="24"/>
+      <c r="AN157" s="24"/>
+      <c r="AO157" s="52"/>
+      <c r="AP157" s="25"/>
+      <c r="AQ157" s="72"/>
+      <c r="AR157" s="25"/>
+      <c r="AS157" s="25"/>
+      <c r="AT157" s="25"/>
+      <c r="AU157" s="25"/>
+      <c r="AV157" s="25"/>
+      <c r="AW157" s="25"/>
+      <c r="AX157" s="25"/>
+      <c r="AY157" s="25"/>
+      <c r="AZ157" s="25"/>
+      <c r="BA157" s="24"/>
+      <c r="BB157" s="25"/>
+      <c r="BC157" s="25"/>
+      <c r="BD157" s="25"/>
+      <c r="BE157" s="25"/>
+      <c r="BF157" s="25"/>
+      <c r="BG157" s="25"/>
+      <c r="BH157" s="25"/>
+      <c r="BI157" s="25"/>
+      <c r="BJ157" s="25"/>
+      <c r="BK157" s="25"/>
+      <c r="BL157" s="25"/>
+      <c r="BM157" s="25"/>
+      <c r="BN157" s="25"/>
+      <c r="BO157" s="24"/>
+      <c r="BP157" s="25"/>
+      <c r="BQ157" s="76"/>
+      <c r="BR157" s="77"/>
+      <c r="BS157" s="78"/>
     </row>
     <row r="158" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F158" s="75"/>
-      <c r="AQ158" s="73"/>
+      <c r="A158" s="14"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="25"/>
+      <c r="M158" s="25"/>
+      <c r="N158" s="25"/>
+      <c r="O158" s="25"/>
+      <c r="P158" s="24"/>
+      <c r="Q158" s="25"/>
+      <c r="R158" s="25"/>
+      <c r="S158" s="25"/>
+      <c r="T158" s="25"/>
+      <c r="U158" s="25"/>
+      <c r="V158" s="25"/>
+      <c r="W158" s="25"/>
+      <c r="X158" s="25"/>
+      <c r="Y158" s="25"/>
+      <c r="Z158" s="25"/>
+      <c r="AA158" s="25"/>
+      <c r="AB158" s="25"/>
+      <c r="AC158" s="24"/>
+      <c r="AD158" s="24"/>
+      <c r="AE158" s="25"/>
+      <c r="AF158" s="24"/>
+      <c r="AG158" s="24"/>
+      <c r="AH158" s="25"/>
+      <c r="AI158" s="24"/>
+      <c r="AJ158" s="25"/>
+      <c r="AK158" s="24"/>
+      <c r="AL158" s="24"/>
+      <c r="AM158" s="24"/>
+      <c r="AN158" s="24"/>
+      <c r="AO158" s="52"/>
+      <c r="AP158" s="25"/>
+      <c r="AQ158" s="72"/>
+      <c r="AR158" s="25"/>
+      <c r="AS158" s="25"/>
+      <c r="AT158" s="25"/>
+      <c r="AU158" s="25"/>
+      <c r="AV158" s="25"/>
+      <c r="AW158" s="25"/>
+      <c r="AX158" s="25"/>
+      <c r="AY158" s="25"/>
+      <c r="AZ158" s="25"/>
+      <c r="BA158" s="24"/>
+      <c r="BB158" s="25"/>
+      <c r="BC158" s="25"/>
+      <c r="BD158" s="25"/>
+      <c r="BE158" s="25"/>
+      <c r="BF158" s="25"/>
+      <c r="BG158" s="25"/>
+      <c r="BH158" s="25"/>
+      <c r="BI158" s="25"/>
+      <c r="BJ158" s="25"/>
+      <c r="BK158" s="25"/>
+      <c r="BL158" s="25"/>
+      <c r="BM158" s="25"/>
+      <c r="BN158" s="25"/>
+      <c r="BO158" s="24"/>
+      <c r="BP158" s="25"/>
+      <c r="BQ158" s="76"/>
+      <c r="BR158" s="77"/>
+      <c r="BS158" s="78"/>
     </row>
     <row r="159" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F159" s="75"/>
-      <c r="AQ159" s="73"/>
+      <c r="A159" s="14"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="25"/>
+      <c r="L159" s="25"/>
+      <c r="M159" s="25"/>
+      <c r="N159" s="25"/>
+      <c r="O159" s="25"/>
+      <c r="P159" s="24"/>
+      <c r="Q159" s="25"/>
+      <c r="R159" s="25"/>
+      <c r="S159" s="25"/>
+      <c r="T159" s="25"/>
+      <c r="U159" s="25"/>
+      <c r="V159" s="25"/>
+      <c r="W159" s="25"/>
+      <c r="X159" s="25"/>
+      <c r="Y159" s="25"/>
+      <c r="Z159" s="25"/>
+      <c r="AA159" s="25"/>
+      <c r="AB159" s="25"/>
+      <c r="AC159" s="24"/>
+      <c r="AD159" s="24"/>
+      <c r="AE159" s="25"/>
+      <c r="AF159" s="24"/>
+      <c r="AG159" s="24"/>
+      <c r="AH159" s="25"/>
+      <c r="AI159" s="24"/>
+      <c r="AJ159" s="25"/>
+      <c r="AK159" s="24"/>
+      <c r="AL159" s="24"/>
+      <c r="AM159" s="24"/>
+      <c r="AN159" s="24"/>
+      <c r="AO159" s="52"/>
+      <c r="AP159" s="25"/>
+      <c r="AQ159" s="72"/>
+      <c r="AR159" s="25"/>
+      <c r="AS159" s="25"/>
+      <c r="AT159" s="25"/>
+      <c r="AU159" s="25"/>
+      <c r="AV159" s="25"/>
+      <c r="AW159" s="25"/>
+      <c r="AX159" s="25"/>
+      <c r="AY159" s="25"/>
+      <c r="AZ159" s="25"/>
+      <c r="BA159" s="24"/>
+      <c r="BB159" s="25"/>
+      <c r="BC159" s="25"/>
+      <c r="BD159" s="25"/>
+      <c r="BE159" s="25"/>
+      <c r="BF159" s="25"/>
+      <c r="BG159" s="25"/>
+      <c r="BH159" s="25"/>
+      <c r="BI159" s="25"/>
+      <c r="BJ159" s="25"/>
+      <c r="BK159" s="25"/>
+      <c r="BL159" s="25"/>
+      <c r="BM159" s="25"/>
+      <c r="BN159" s="25"/>
+      <c r="BO159" s="24"/>
+      <c r="BP159" s="25"/>
+      <c r="BQ159" s="76"/>
+      <c r="BR159" s="77"/>
+      <c r="BS159" s="78"/>
     </row>
     <row r="160" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F160" s="75"/>
-      <c r="AQ160" s="73"/>
+      <c r="A160" s="14"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="25"/>
+      <c r="K160" s="25"/>
+      <c r="L160" s="25"/>
+      <c r="M160" s="25"/>
+      <c r="N160" s="25"/>
+      <c r="O160" s="25"/>
+      <c r="P160" s="24"/>
+      <c r="Q160" s="25"/>
+      <c r="R160" s="25"/>
+      <c r="S160" s="25"/>
+      <c r="T160" s="25"/>
+      <c r="U160" s="25"/>
+      <c r="V160" s="25"/>
+      <c r="W160" s="25"/>
+      <c r="X160" s="25"/>
+      <c r="Y160" s="25"/>
+      <c r="Z160" s="25"/>
+      <c r="AA160" s="25"/>
+      <c r="AB160" s="25"/>
+      <c r="AC160" s="24"/>
+      <c r="AD160" s="24"/>
+      <c r="AE160" s="25"/>
+      <c r="AF160" s="24"/>
+      <c r="AG160" s="24"/>
+      <c r="AH160" s="25"/>
+      <c r="AI160" s="24"/>
+      <c r="AJ160" s="25"/>
+      <c r="AK160" s="24"/>
+      <c r="AL160" s="24"/>
+      <c r="AM160" s="24"/>
+      <c r="AN160" s="24"/>
+      <c r="AO160" s="52"/>
+      <c r="AP160" s="25"/>
+      <c r="AQ160" s="72"/>
+      <c r="AR160" s="25"/>
+      <c r="AS160" s="25"/>
+      <c r="AT160" s="25"/>
+      <c r="AU160" s="25"/>
+      <c r="AV160" s="25"/>
+      <c r="AW160" s="25"/>
+      <c r="AX160" s="25"/>
+      <c r="AY160" s="25"/>
+      <c r="AZ160" s="25"/>
+      <c r="BA160" s="24"/>
+      <c r="BB160" s="25"/>
+      <c r="BC160" s="25"/>
+      <c r="BD160" s="25"/>
+      <c r="BE160" s="25"/>
+      <c r="BF160" s="25"/>
+      <c r="BG160" s="25"/>
+      <c r="BH160" s="25"/>
+      <c r="BI160" s="25"/>
+      <c r="BJ160" s="25"/>
+      <c r="BK160" s="25"/>
+      <c r="BL160" s="25"/>
+      <c r="BM160" s="25"/>
+      <c r="BN160" s="25"/>
+      <c r="BO160" s="24"/>
+      <c r="BP160" s="25"/>
+      <c r="BQ160" s="76"/>
+      <c r="BR160" s="77"/>
+      <c r="BS160" s="78"/>
     </row>
-    <row r="161" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F161" s="75"/>
-      <c r="AQ161" s="73"/>
+    <row r="161" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="14"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="25"/>
+      <c r="K161" s="25"/>
+      <c r="L161" s="25"/>
+      <c r="M161" s="25"/>
+      <c r="N161" s="25"/>
+      <c r="O161" s="25"/>
+      <c r="P161" s="24"/>
+      <c r="Q161" s="25"/>
+      <c r="R161" s="25"/>
+      <c r="S161" s="25"/>
+      <c r="T161" s="25"/>
+      <c r="U161" s="25"/>
+      <c r="V161" s="25"/>
+      <c r="W161" s="25"/>
+      <c r="X161" s="25"/>
+      <c r="Y161" s="25"/>
+      <c r="Z161" s="25"/>
+      <c r="AA161" s="25"/>
+      <c r="AB161" s="25"/>
+      <c r="AC161" s="24"/>
+      <c r="AD161" s="24"/>
+      <c r="AE161" s="25"/>
+      <c r="AF161" s="24"/>
+      <c r="AG161" s="24"/>
+      <c r="AH161" s="25"/>
+      <c r="AI161" s="24"/>
+      <c r="AJ161" s="25"/>
+      <c r="AK161" s="24"/>
+      <c r="AL161" s="24"/>
+      <c r="AM161" s="24"/>
+      <c r="AN161" s="24"/>
+      <c r="AO161" s="52"/>
+      <c r="AP161" s="25"/>
+      <c r="AQ161" s="72"/>
+      <c r="AR161" s="25"/>
+      <c r="AS161" s="25"/>
+      <c r="AT161" s="25"/>
+      <c r="AU161" s="25"/>
+      <c r="AV161" s="25"/>
+      <c r="AW161" s="25"/>
+      <c r="AX161" s="25"/>
+      <c r="AY161" s="25"/>
+      <c r="AZ161" s="25"/>
+      <c r="BA161" s="24"/>
+      <c r="BB161" s="25"/>
+      <c r="BC161" s="25"/>
+      <c r="BD161" s="25"/>
+      <c r="BE161" s="25"/>
+      <c r="BF161" s="25"/>
+      <c r="BG161" s="25"/>
+      <c r="BH161" s="25"/>
+      <c r="BI161" s="25"/>
+      <c r="BJ161" s="25"/>
+      <c r="BK161" s="25"/>
+      <c r="BL161" s="25"/>
+      <c r="BM161" s="25"/>
+      <c r="BN161" s="25"/>
+      <c r="BO161" s="24"/>
+      <c r="BP161" s="25"/>
+      <c r="BQ161" s="76"/>
+      <c r="BR161" s="77"/>
+      <c r="BS161" s="78"/>
     </row>
-    <row r="162" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F162" s="75"/>
-      <c r="AQ162" s="73"/>
+    <row r="162" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="14"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="25"/>
+      <c r="L162" s="25"/>
+      <c r="M162" s="25"/>
+      <c r="N162" s="25"/>
+      <c r="O162" s="25"/>
+      <c r="P162" s="24"/>
+      <c r="Q162" s="25"/>
+      <c r="R162" s="25"/>
+      <c r="S162" s="25"/>
+      <c r="T162" s="25"/>
+      <c r="U162" s="25"/>
+      <c r="V162" s="25"/>
+      <c r="W162" s="25"/>
+      <c r="X162" s="25"/>
+      <c r="Y162" s="25"/>
+      <c r="Z162" s="25"/>
+      <c r="AA162" s="25"/>
+      <c r="AB162" s="25"/>
+      <c r="AC162" s="24"/>
+      <c r="AD162" s="24"/>
+      <c r="AE162" s="25"/>
+      <c r="AF162" s="24"/>
+      <c r="AG162" s="24"/>
+      <c r="AH162" s="25"/>
+      <c r="AI162" s="24"/>
+      <c r="AJ162" s="25"/>
+      <c r="AK162" s="24"/>
+      <c r="AL162" s="24"/>
+      <c r="AM162" s="24"/>
+      <c r="AN162" s="24"/>
+      <c r="AO162" s="52"/>
+      <c r="AP162" s="25"/>
+      <c r="AQ162" s="72"/>
+      <c r="AR162" s="25"/>
+      <c r="AS162" s="25"/>
+      <c r="AT162" s="25"/>
+      <c r="AU162" s="25"/>
+      <c r="AV162" s="25"/>
+      <c r="AW162" s="25"/>
+      <c r="AX162" s="25"/>
+      <c r="AY162" s="25"/>
+      <c r="AZ162" s="25"/>
+      <c r="BA162" s="24"/>
+      <c r="BB162" s="25"/>
+      <c r="BC162" s="25"/>
+      <c r="BD162" s="25"/>
+      <c r="BE162" s="25"/>
+      <c r="BF162" s="25"/>
+      <c r="BG162" s="25"/>
+      <c r="BH162" s="25"/>
+      <c r="BI162" s="25"/>
+      <c r="BJ162" s="25"/>
+      <c r="BK162" s="25"/>
+      <c r="BL162" s="25"/>
+      <c r="BM162" s="25"/>
+      <c r="BN162" s="25"/>
+      <c r="BO162" s="24"/>
+      <c r="BP162" s="25"/>
+      <c r="BQ162" s="76"/>
+      <c r="BR162" s="77"/>
+      <c r="BS162" s="78"/>
     </row>
-    <row r="163" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F163" s="75"/>
       <c r="AQ163" s="73"/>
     </row>
-    <row r="164" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F164" s="75"/>
       <c r="AQ164" s="73"/>
     </row>
-    <row r="165" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F165" s="75"/>
       <c r="AQ165" s="73"/>
     </row>
-    <row r="166" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F166" s="75"/>
       <c r="AQ166" s="73"/>
     </row>
-    <row r="167" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F167" s="75"/>
       <c r="AQ167" s="73"/>
     </row>
-    <row r="168" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F168" s="75"/>
       <c r="AQ168" s="73"/>
     </row>
-    <row r="169" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F169" s="75"/>
       <c r="AQ169" s="73"/>
     </row>
-    <row r="170" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F170" s="75"/>
       <c r="AQ170" s="73"/>
     </row>
-    <row r="171" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F171" s="75"/>
       <c r="AQ171" s="73"/>
     </row>
-    <row r="172" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F172" s="75"/>
       <c r="AQ172" s="73"/>
     </row>
-    <row r="173" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F173" s="75"/>
       <c r="AQ173" s="73"/>
     </row>
-    <row r="174" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F174" s="75"/>
       <c r="AQ174" s="73"/>
     </row>
-    <row r="175" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F175" s="75"/>
       <c r="AQ175" s="73"/>
     </row>
-    <row r="176" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F176" s="75"/>
       <c r="AQ176" s="73"/>
     </row>
@@ -35389,28 +38040,28 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W94:X94 AA78:AA82 V78:Z80 Y81:Z82 W90:X91 V3:AA77 V81:X89 Y83:AB94 V92:X93 W95:AA145 V95:V134 V136:V145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W94:X94 AA78:AA82 V78:Z80 Y81:Z82 W90:X91 V3:AA77 V81:X89 Y83:AB94 V92:X93 V136:V162 V95:V134 W95:AA162">
       <formula1>"0,1,/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB82 M1 N3:N145 J3:K145 M3:M1048576 L1:L1048576 AZ136:AZ145 AZ3:AZ134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB82 M1 J3:K162 AZ136:AZ162 AZ3:AZ134 N3:N162 M3:M1048576 L1:L1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:U72 R75:U79 AD3:AD145 BA136:BA145 BA3:BA134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:U72 R75:U79 BA136:BA162 BA3:BA134 AD3:AD162">
       <formula1>"1,2,3,4,5,/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO162">
       <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:I145 O3:O145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O162 G3:I162">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E162">
       <formula1>"android客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC2 AC146:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC2 AC163:AC1048576">
       <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC162">
       <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动,/"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -35434,75 +38085,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -35524,75 +38175,75 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5480" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="-2720" yWindow="4240" windowWidth="25600" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="316">
   <si>
     <t>客户信息</t>
   </si>
@@ -1260,6 +1260,80 @@
   </si>
   <si>
     <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <rPh sb="0" eb="1">
+      <t>be j</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <rPh sb="0" eb="1">
+      <t>guanf dong</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2532,10 +2606,10 @@
   <dimension ref="A1:FZ212"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="168" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BG173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BC182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BQ174" sqref="BQ174"/>
+      <selection pane="bottomRight" activeCell="BS183" sqref="BS183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -41989,662 +42063,1940 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="14"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="24"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="25"/>
-      <c r="H175" s="25"/>
-      <c r="I175" s="25"/>
-      <c r="J175" s="25"/>
-      <c r="K175" s="25"/>
-      <c r="L175" s="25"/>
-      <c r="M175" s="25"/>
-      <c r="N175" s="25"/>
-      <c r="O175" s="25"/>
-      <c r="P175" s="24"/>
-      <c r="Q175" s="25"/>
-      <c r="R175" s="25"/>
-      <c r="S175" s="25"/>
-      <c r="T175" s="25"/>
-      <c r="U175" s="25"/>
-      <c r="V175" s="25"/>
-      <c r="W175" s="25"/>
-      <c r="X175" s="25"/>
-      <c r="Y175" s="25"/>
-      <c r="Z175" s="25"/>
-      <c r="AA175" s="25"/>
-      <c r="AB175" s="25"/>
-      <c r="AC175" s="24"/>
-      <c r="AD175" s="24"/>
-      <c r="AE175" s="25"/>
-      <c r="AF175" s="24"/>
-      <c r="AG175" s="24"/>
-      <c r="AH175" s="25"/>
-      <c r="AI175" s="24"/>
-      <c r="AJ175" s="25"/>
-      <c r="AK175" s="24"/>
-      <c r="AL175" s="24"/>
-      <c r="AM175" s="24"/>
-      <c r="AN175" s="24"/>
-      <c r="AO175" s="52"/>
-      <c r="AP175" s="25"/>
-      <c r="AQ175" s="72"/>
-      <c r="AR175" s="25"/>
-      <c r="AS175" s="25"/>
-      <c r="AT175" s="25"/>
-      <c r="AU175" s="25"/>
-      <c r="AV175" s="25"/>
-      <c r="AW175" s="25"/>
-      <c r="AX175" s="25"/>
-      <c r="AY175" s="25"/>
-      <c r="AZ175" s="25"/>
-      <c r="BA175" s="24"/>
-      <c r="BB175" s="25"/>
-      <c r="BC175" s="25"/>
-      <c r="BD175" s="25"/>
-      <c r="BE175" s="25"/>
-      <c r="BF175" s="25"/>
-      <c r="BG175" s="25"/>
-      <c r="BH175" s="25"/>
-      <c r="BI175" s="25"/>
-      <c r="BJ175" s="25"/>
-      <c r="BK175" s="25"/>
-      <c r="BL175" s="25"/>
-      <c r="BM175" s="25"/>
-      <c r="BN175" s="25"/>
-      <c r="BO175" s="24"/>
-      <c r="BP175" s="25"/>
-      <c r="BQ175" s="76"/>
-      <c r="BR175" s="77"/>
-      <c r="BS175" s="78"/>
+    <row r="175" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A175" s="14">
+        <v>173</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D175" s="25">
+        <v>819</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F175" s="26">
+        <v>42782.775694444441</v>
+      </c>
+      <c r="G175" s="25">
+        <v>3</v>
+      </c>
+      <c r="H175" s="25">
+        <v>3</v>
+      </c>
+      <c r="I175" s="25">
+        <v>3</v>
+      </c>
+      <c r="J175" s="25">
+        <v>1</v>
+      </c>
+      <c r="K175" s="25">
+        <v>1</v>
+      </c>
+      <c r="L175" s="25">
+        <v>1</v>
+      </c>
+      <c r="M175" s="25">
+        <v>1</v>
+      </c>
+      <c r="N175" s="25">
+        <v>1</v>
+      </c>
+      <c r="O175" s="25">
+        <v>5</v>
+      </c>
+      <c r="P175" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q175" s="25">
+        <v>3</v>
+      </c>
+      <c r="R175" s="25">
+        <v>3</v>
+      </c>
+      <c r="S175" s="25">
+        <v>3</v>
+      </c>
+      <c r="T175" s="25">
+        <v>3</v>
+      </c>
+      <c r="U175" s="25">
+        <v>4</v>
+      </c>
+      <c r="V175" s="25">
+        <v>0</v>
+      </c>
+      <c r="W175" s="25">
+        <v>1</v>
+      </c>
+      <c r="X175" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB175" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC175" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD175" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE175" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF175" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG175" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH175" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI175" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ175" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK175" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL175" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM175" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN175" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO175" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP175" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ175" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR175" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS175" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT175" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU175" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV175" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW175" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX175" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY175" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ175" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA175" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB175" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC175" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD175" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE175" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF175" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG175" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH175" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI175" s="25">
+        <v>4</v>
+      </c>
+      <c r="BJ175" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK175" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL175" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM175" s="25">
+        <v>4</v>
+      </c>
+      <c r="BN175" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO175" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP175" s="25">
+        <v>0</v>
+      </c>
+      <c r="BQ175" s="76">
+        <v>3</v>
+      </c>
+      <c r="BR175" s="77">
+        <v>4</v>
+      </c>
+      <c r="BS175" s="78">
+        <v>3</v>
+      </c>
     </row>
-    <row r="176" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="14"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="25"/>
-      <c r="H176" s="25"/>
-      <c r="I176" s="25"/>
-      <c r="J176" s="25"/>
-      <c r="K176" s="25"/>
-      <c r="L176" s="25"/>
-      <c r="M176" s="25"/>
-      <c r="N176" s="25"/>
-      <c r="O176" s="25"/>
-      <c r="P176" s="24"/>
-      <c r="Q176" s="25"/>
-      <c r="R176" s="25"/>
-      <c r="S176" s="25"/>
-      <c r="T176" s="25"/>
-      <c r="U176" s="25"/>
-      <c r="V176" s="25"/>
-      <c r="W176" s="25"/>
-      <c r="X176" s="25"/>
-      <c r="Y176" s="25"/>
-      <c r="Z176" s="25"/>
-      <c r="AA176" s="25"/>
-      <c r="AB176" s="25"/>
-      <c r="AC176" s="24"/>
-      <c r="AD176" s="24"/>
-      <c r="AE176" s="25"/>
-      <c r="AF176" s="24"/>
-      <c r="AG176" s="24"/>
-      <c r="AH176" s="25"/>
-      <c r="AI176" s="24"/>
-      <c r="AJ176" s="25"/>
-      <c r="AK176" s="24"/>
-      <c r="AL176" s="24"/>
-      <c r="AM176" s="24"/>
-      <c r="AN176" s="24"/>
-      <c r="AO176" s="52"/>
-      <c r="AP176" s="25"/>
-      <c r="AQ176" s="72"/>
-      <c r="AR176" s="25"/>
-      <c r="AS176" s="25"/>
-      <c r="AT176" s="25"/>
-      <c r="AU176" s="25"/>
-      <c r="AV176" s="25"/>
-      <c r="AW176" s="25"/>
-      <c r="AX176" s="25"/>
-      <c r="AY176" s="25"/>
-      <c r="AZ176" s="25"/>
-      <c r="BA176" s="24"/>
-      <c r="BB176" s="25"/>
-      <c r="BC176" s="25"/>
-      <c r="BD176" s="25"/>
-      <c r="BE176" s="25"/>
-      <c r="BF176" s="25"/>
-      <c r="BG176" s="25"/>
-      <c r="BH176" s="25"/>
-      <c r="BI176" s="25"/>
-      <c r="BJ176" s="25"/>
-      <c r="BK176" s="25"/>
-      <c r="BL176" s="25"/>
-      <c r="BM176" s="25"/>
-      <c r="BN176" s="25"/>
-      <c r="BO176" s="24"/>
-      <c r="BP176" s="25"/>
-      <c r="BQ176" s="76"/>
-      <c r="BR176" s="77"/>
-      <c r="BS176" s="78"/>
+    <row r="176" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A176" s="14">
+        <v>174</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D176" s="25">
+        <v>819</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F176" s="26">
+        <v>42778.443749999999</v>
+      </c>
+      <c r="G176" s="25">
+        <v>3</v>
+      </c>
+      <c r="H176" s="25">
+        <v>3</v>
+      </c>
+      <c r="I176" s="25">
+        <v>3</v>
+      </c>
+      <c r="J176" s="25">
+        <v>1</v>
+      </c>
+      <c r="K176" s="25">
+        <v>1</v>
+      </c>
+      <c r="L176" s="25">
+        <v>0</v>
+      </c>
+      <c r="M176" s="25">
+        <v>0</v>
+      </c>
+      <c r="N176" s="25">
+        <v>1</v>
+      </c>
+      <c r="O176" s="25">
+        <v>3</v>
+      </c>
+      <c r="P176" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q176" s="25">
+        <v>3</v>
+      </c>
+      <c r="R176" s="25">
+        <v>3</v>
+      </c>
+      <c r="S176" s="25">
+        <v>3</v>
+      </c>
+      <c r="T176" s="25">
+        <v>3</v>
+      </c>
+      <c r="U176" s="25">
+        <v>3</v>
+      </c>
+      <c r="V176" s="25">
+        <v>0</v>
+      </c>
+      <c r="W176" s="25">
+        <v>1</v>
+      </c>
+      <c r="X176" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA176" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB176" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC176" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD176" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE176" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF176" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG176" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH176" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI176" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ176" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK176" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL176" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM176" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN176" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO176" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP176" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ176" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR176" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS176" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT176" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU176" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV176" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW176" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX176" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY176" s="25">
+        <v>1</v>
+      </c>
+      <c r="AZ176" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA176" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="BB176" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC176" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD176" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE176" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF176" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG176" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH176" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI176" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ176" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK176" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL176" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM176" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN176" s="25">
+        <v>2</v>
+      </c>
+      <c r="BO176" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP176" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ176" s="76">
+        <v>3</v>
+      </c>
+      <c r="BR176" s="77">
+        <v>3</v>
+      </c>
+      <c r="BS176" s="78">
+        <v>3</v>
+      </c>
     </row>
-    <row r="177" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="14"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="25"/>
-      <c r="H177" s="25"/>
-      <c r="I177" s="25"/>
-      <c r="J177" s="25"/>
-      <c r="K177" s="25"/>
-      <c r="L177" s="25"/>
-      <c r="M177" s="25"/>
-      <c r="N177" s="25"/>
-      <c r="O177" s="25"/>
-      <c r="P177" s="24"/>
-      <c r="Q177" s="25"/>
-      <c r="R177" s="25"/>
-      <c r="S177" s="25"/>
-      <c r="T177" s="25"/>
-      <c r="U177" s="25"/>
-      <c r="V177" s="25"/>
-      <c r="W177" s="25"/>
-      <c r="X177" s="25"/>
-      <c r="Y177" s="25"/>
-      <c r="Z177" s="25"/>
-      <c r="AA177" s="25"/>
-      <c r="AB177" s="25"/>
-      <c r="AC177" s="24"/>
-      <c r="AD177" s="24"/>
-      <c r="AE177" s="25"/>
-      <c r="AF177" s="24"/>
-      <c r="AG177" s="24"/>
-      <c r="AH177" s="25"/>
-      <c r="AI177" s="24"/>
-      <c r="AJ177" s="25"/>
-      <c r="AK177" s="24"/>
-      <c r="AL177" s="24"/>
-      <c r="AM177" s="24"/>
-      <c r="AN177" s="24"/>
-      <c r="AO177" s="52"/>
-      <c r="AP177" s="25"/>
-      <c r="AQ177" s="72"/>
-      <c r="AR177" s="25"/>
-      <c r="AS177" s="25"/>
-      <c r="AT177" s="25"/>
-      <c r="AU177" s="25"/>
-      <c r="AV177" s="25"/>
-      <c r="AW177" s="25"/>
-      <c r="AX177" s="25"/>
-      <c r="AY177" s="25"/>
-      <c r="AZ177" s="25"/>
-      <c r="BA177" s="24"/>
-      <c r="BB177" s="25"/>
-      <c r="BC177" s="25"/>
-      <c r="BD177" s="25"/>
-      <c r="BE177" s="25"/>
-      <c r="BF177" s="25"/>
-      <c r="BG177" s="25"/>
-      <c r="BH177" s="25"/>
-      <c r="BI177" s="25"/>
-      <c r="BJ177" s="25"/>
-      <c r="BK177" s="25"/>
-      <c r="BL177" s="25"/>
-      <c r="BM177" s="25"/>
-      <c r="BN177" s="25"/>
-      <c r="BO177" s="24"/>
-      <c r="BP177" s="25"/>
-      <c r="BQ177" s="76"/>
-      <c r="BR177" s="77"/>
-      <c r="BS177" s="78"/>
+    <row r="177" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A177" s="14">
+        <v>175</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D177" s="25">
+        <v>819</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F177" s="26">
+        <v>42773.70208333333</v>
+      </c>
+      <c r="G177" s="25">
+        <v>3</v>
+      </c>
+      <c r="H177" s="25">
+        <v>3</v>
+      </c>
+      <c r="I177" s="25">
+        <v>3</v>
+      </c>
+      <c r="J177" s="25">
+        <v>1</v>
+      </c>
+      <c r="K177" s="25">
+        <v>1</v>
+      </c>
+      <c r="L177" s="25">
+        <v>1</v>
+      </c>
+      <c r="M177" s="25">
+        <v>0</v>
+      </c>
+      <c r="N177" s="25">
+        <v>1</v>
+      </c>
+      <c r="O177" s="25">
+        <v>3</v>
+      </c>
+      <c r="P177" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q177" s="25">
+        <v>3</v>
+      </c>
+      <c r="R177" s="25">
+        <v>3</v>
+      </c>
+      <c r="S177" s="25">
+        <v>3</v>
+      </c>
+      <c r="T177" s="25">
+        <v>3</v>
+      </c>
+      <c r="U177" s="25">
+        <v>3</v>
+      </c>
+      <c r="V177" s="25">
+        <v>0</v>
+      </c>
+      <c r="W177" s="25">
+        <v>1</v>
+      </c>
+      <c r="X177" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z177" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA177" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB177" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC177" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD177" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE177" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF177" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG177" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH177" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI177" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ177" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK177" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL177" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM177" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN177" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO177" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP177" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ177" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR177" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS177" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT177" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU177" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV177" s="25">
+        <v>2</v>
+      </c>
+      <c r="AW177" s="25">
+        <v>1</v>
+      </c>
+      <c r="AX177" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY177" s="25">
+        <v>1</v>
+      </c>
+      <c r="AZ177" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA177" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="BB177" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC177" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD177" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE177" s="25">
+        <v>2</v>
+      </c>
+      <c r="BF177" s="25">
+        <v>2</v>
+      </c>
+      <c r="BG177" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH177" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI177" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ177" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK177" s="25">
+        <v>1</v>
+      </c>
+      <c r="BL177" s="25">
+        <v>2</v>
+      </c>
+      <c r="BM177" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN177" s="25">
+        <v>3</v>
+      </c>
+      <c r="BO177" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP177" s="25">
+        <v>3</v>
+      </c>
+      <c r="BQ177" s="76">
+        <v>2</v>
+      </c>
+      <c r="BR177" s="77">
+        <v>1</v>
+      </c>
+      <c r="BS177" s="78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="178" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="14"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="25"/>
-      <c r="I178" s="25"/>
-      <c r="J178" s="25"/>
-      <c r="K178" s="25"/>
-      <c r="L178" s="25"/>
-      <c r="M178" s="25"/>
-      <c r="N178" s="25"/>
-      <c r="O178" s="25"/>
-      <c r="P178" s="24"/>
-      <c r="Q178" s="25"/>
-      <c r="R178" s="25"/>
-      <c r="S178" s="25"/>
-      <c r="T178" s="25"/>
-      <c r="U178" s="25"/>
-      <c r="V178" s="25"/>
-      <c r="W178" s="25"/>
-      <c r="X178" s="25"/>
-      <c r="Y178" s="25"/>
-      <c r="Z178" s="25"/>
-      <c r="AA178" s="25"/>
-      <c r="AB178" s="25"/>
-      <c r="AC178" s="24"/>
-      <c r="AD178" s="24"/>
-      <c r="AE178" s="25"/>
-      <c r="AF178" s="24"/>
-      <c r="AG178" s="24"/>
-      <c r="AH178" s="25"/>
-      <c r="AI178" s="24"/>
-      <c r="AJ178" s="25"/>
-      <c r="AK178" s="24"/>
-      <c r="AL178" s="24"/>
-      <c r="AM178" s="24"/>
-      <c r="AN178" s="24"/>
-      <c r="AO178" s="52"/>
-      <c r="AP178" s="25"/>
-      <c r="AQ178" s="72"/>
-      <c r="AR178" s="25"/>
-      <c r="AS178" s="25"/>
-      <c r="AT178" s="25"/>
-      <c r="AU178" s="25"/>
-      <c r="AV178" s="25"/>
-      <c r="AW178" s="25"/>
-      <c r="AX178" s="25"/>
-      <c r="AY178" s="25"/>
-      <c r="AZ178" s="25"/>
-      <c r="BA178" s="24"/>
-      <c r="BB178" s="25"/>
-      <c r="BC178" s="25"/>
-      <c r="BD178" s="25"/>
-      <c r="BE178" s="25"/>
-      <c r="BF178" s="25"/>
-      <c r="BG178" s="25"/>
-      <c r="BH178" s="25"/>
-      <c r="BI178" s="25"/>
-      <c r="BJ178" s="25"/>
-      <c r="BK178" s="25"/>
-      <c r="BL178" s="25"/>
-      <c r="BM178" s="25"/>
-      <c r="BN178" s="25"/>
-      <c r="BO178" s="24"/>
-      <c r="BP178" s="25"/>
-      <c r="BQ178" s="76"/>
-      <c r="BR178" s="77"/>
-      <c r="BS178" s="78"/>
+    <row r="178" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A178" s="14">
+        <v>176</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D178" s="25">
+        <v>819</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F178" s="26">
+        <v>42787.680555555555</v>
+      </c>
+      <c r="G178" s="25">
+        <v>3</v>
+      </c>
+      <c r="H178" s="25">
+        <v>3</v>
+      </c>
+      <c r="I178" s="25">
+        <v>3</v>
+      </c>
+      <c r="J178" s="25">
+        <v>1</v>
+      </c>
+      <c r="K178" s="25">
+        <v>1</v>
+      </c>
+      <c r="L178" s="25">
+        <v>1</v>
+      </c>
+      <c r="M178" s="25">
+        <v>0</v>
+      </c>
+      <c r="N178" s="25">
+        <v>1</v>
+      </c>
+      <c r="O178" s="25">
+        <v>1</v>
+      </c>
+      <c r="P178" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q178" s="25">
+        <v>3</v>
+      </c>
+      <c r="R178" s="25">
+        <v>3</v>
+      </c>
+      <c r="S178" s="25">
+        <v>2</v>
+      </c>
+      <c r="T178" s="25">
+        <v>2</v>
+      </c>
+      <c r="U178" s="25">
+        <v>1</v>
+      </c>
+      <c r="V178" s="25">
+        <v>0</v>
+      </c>
+      <c r="W178" s="25">
+        <v>1</v>
+      </c>
+      <c r="X178" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z178" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA178" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB178" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC178" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD178" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE178" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF178" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG178" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH178" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI178" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ178" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK178" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL178" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM178" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN178" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO178" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP178" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ178" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR178" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS178" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT178" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU178" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV178" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW178" s="25">
+        <v>1</v>
+      </c>
+      <c r="AX178" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY178" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ178" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA178" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="BB178" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC178" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD178" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE178" s="25">
+        <v>2</v>
+      </c>
+      <c r="BF178" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG178" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH178" s="25">
+        <v>2</v>
+      </c>
+      <c r="BI178" s="25">
+        <v>2</v>
+      </c>
+      <c r="BJ178" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="BK178" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL178" s="25">
+        <v>2</v>
+      </c>
+      <c r="BM178" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN178" s="25">
+        <v>3</v>
+      </c>
+      <c r="BO178" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP178" s="25">
+        <v>3</v>
+      </c>
+      <c r="BQ178" s="76">
+        <v>2</v>
+      </c>
+      <c r="BR178" s="77">
+        <v>2</v>
+      </c>
+      <c r="BS178" s="78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="179" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="14"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="25"/>
-      <c r="I179" s="25"/>
-      <c r="J179" s="25"/>
-      <c r="K179" s="25"/>
-      <c r="L179" s="25"/>
-      <c r="M179" s="25"/>
-      <c r="N179" s="25"/>
-      <c r="O179" s="25"/>
-      <c r="P179" s="24"/>
-      <c r="Q179" s="25"/>
-      <c r="R179" s="25"/>
-      <c r="S179" s="25"/>
-      <c r="T179" s="25"/>
-      <c r="U179" s="25"/>
-      <c r="V179" s="25"/>
-      <c r="W179" s="25"/>
-      <c r="X179" s="25"/>
-      <c r="Y179" s="25"/>
-      <c r="Z179" s="25"/>
-      <c r="AA179" s="25"/>
-      <c r="AB179" s="25"/>
-      <c r="AC179" s="24"/>
-      <c r="AD179" s="24"/>
-      <c r="AE179" s="25"/>
-      <c r="AF179" s="24"/>
-      <c r="AG179" s="24"/>
-      <c r="AH179" s="25"/>
-      <c r="AI179" s="24"/>
-      <c r="AJ179" s="25"/>
-      <c r="AK179" s="24"/>
-      <c r="AL179" s="24"/>
-      <c r="AM179" s="24"/>
-      <c r="AN179" s="24"/>
-      <c r="AO179" s="52"/>
-      <c r="AP179" s="25"/>
-      <c r="AQ179" s="72"/>
-      <c r="AR179" s="25"/>
-      <c r="AS179" s="25"/>
-      <c r="AT179" s="25"/>
-      <c r="AU179" s="25"/>
-      <c r="AV179" s="25"/>
-      <c r="AW179" s="25"/>
-      <c r="AX179" s="25"/>
-      <c r="AY179" s="25"/>
-      <c r="AZ179" s="25"/>
-      <c r="BA179" s="24"/>
-      <c r="BB179" s="25"/>
-      <c r="BC179" s="25"/>
-      <c r="BD179" s="25"/>
-      <c r="BE179" s="25"/>
-      <c r="BF179" s="25"/>
-      <c r="BG179" s="25"/>
-      <c r="BH179" s="25"/>
-      <c r="BI179" s="25"/>
-      <c r="BJ179" s="25"/>
-      <c r="BK179" s="25"/>
-      <c r="BL179" s="25"/>
-      <c r="BM179" s="25"/>
-      <c r="BN179" s="25"/>
-      <c r="BO179" s="24"/>
-      <c r="BP179" s="25"/>
-      <c r="BQ179" s="76"/>
-      <c r="BR179" s="77"/>
-      <c r="BS179" s="78"/>
+    <row r="179" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A179" s="14">
+        <v>177</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D179" s="25">
+        <v>819</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F179" s="26">
+        <v>42742.32916666667</v>
+      </c>
+      <c r="G179" s="25">
+        <v>3</v>
+      </c>
+      <c r="H179" s="25">
+        <v>3</v>
+      </c>
+      <c r="I179" s="25">
+        <v>3</v>
+      </c>
+      <c r="J179" s="25">
+        <v>1</v>
+      </c>
+      <c r="K179" s="25">
+        <v>1</v>
+      </c>
+      <c r="L179" s="25">
+        <v>1</v>
+      </c>
+      <c r="M179" s="25">
+        <v>0</v>
+      </c>
+      <c r="N179" s="25">
+        <v>1</v>
+      </c>
+      <c r="O179" s="25">
+        <v>2</v>
+      </c>
+      <c r="P179" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q179" s="25">
+        <v>3</v>
+      </c>
+      <c r="R179" s="25">
+        <v>2</v>
+      </c>
+      <c r="S179" s="25">
+        <v>1</v>
+      </c>
+      <c r="T179" s="25">
+        <v>2</v>
+      </c>
+      <c r="U179" s="25">
+        <v>2</v>
+      </c>
+      <c r="V179" s="25">
+        <v>0</v>
+      </c>
+      <c r="W179" s="25">
+        <v>1</v>
+      </c>
+      <c r="X179" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA179" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB179" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC179" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD179" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE179" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF179" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG179" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH179" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI179" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ179" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK179" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL179" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM179" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN179" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO179" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP179" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ179" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR179" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS179" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT179" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU179" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV179" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW179" s="25">
+        <v>2</v>
+      </c>
+      <c r="AX179" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY179" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ179" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA179" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB179" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC179" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD179" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE179" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF179" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG179" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH179" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI179" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ179" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK179" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL179" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM179" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN179" s="25">
+        <v>3</v>
+      </c>
+      <c r="BO179" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP179" s="25">
+        <v>3</v>
+      </c>
+      <c r="BQ179" s="76">
+        <v>3</v>
+      </c>
+      <c r="BR179" s="77">
+        <v>2</v>
+      </c>
+      <c r="BS179" s="78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="180" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="14"/>
-      <c r="B180" s="23"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="25"/>
-      <c r="I180" s="25"/>
-      <c r="J180" s="25"/>
-      <c r="K180" s="25"/>
-      <c r="L180" s="25"/>
-      <c r="M180" s="25"/>
-      <c r="N180" s="25"/>
-      <c r="O180" s="25"/>
-      <c r="P180" s="24"/>
-      <c r="Q180" s="25"/>
-      <c r="R180" s="25"/>
-      <c r="S180" s="25"/>
-      <c r="T180" s="25"/>
-      <c r="U180" s="25"/>
-      <c r="V180" s="25"/>
-      <c r="W180" s="25"/>
-      <c r="X180" s="25"/>
-      <c r="Y180" s="25"/>
-      <c r="Z180" s="25"/>
-      <c r="AA180" s="25"/>
-      <c r="AB180" s="25"/>
-      <c r="AC180" s="24"/>
-      <c r="AD180" s="24"/>
-      <c r="AE180" s="25"/>
-      <c r="AF180" s="24"/>
-      <c r="AG180" s="24"/>
-      <c r="AH180" s="25"/>
-      <c r="AI180" s="24"/>
-      <c r="AJ180" s="25"/>
-      <c r="AK180" s="24"/>
-      <c r="AL180" s="24"/>
-      <c r="AM180" s="24"/>
-      <c r="AN180" s="24"/>
-      <c r="AO180" s="52"/>
-      <c r="AP180" s="25"/>
-      <c r="AQ180" s="72"/>
-      <c r="AR180" s="25"/>
-      <c r="AS180" s="25"/>
-      <c r="AT180" s="25"/>
-      <c r="AU180" s="25"/>
-      <c r="AV180" s="25"/>
-      <c r="AW180" s="25"/>
-      <c r="AX180" s="25"/>
-      <c r="AY180" s="25"/>
-      <c r="AZ180" s="25"/>
-      <c r="BA180" s="24"/>
-      <c r="BB180" s="25"/>
-      <c r="BC180" s="25"/>
-      <c r="BD180" s="25"/>
-      <c r="BE180" s="25"/>
-      <c r="BF180" s="25"/>
-      <c r="BG180" s="25"/>
-      <c r="BH180" s="25"/>
-      <c r="BI180" s="25"/>
-      <c r="BJ180" s="25"/>
-      <c r="BK180" s="25"/>
-      <c r="BL180" s="25"/>
-      <c r="BM180" s="25"/>
-      <c r="BN180" s="25"/>
-      <c r="BO180" s="24"/>
-      <c r="BP180" s="25"/>
-      <c r="BQ180" s="76"/>
-      <c r="BR180" s="77"/>
-      <c r="BS180" s="78"/>
+    <row r="180" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A180" s="14">
+        <v>178</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D180" s="25">
+        <v>819</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F180" s="26">
+        <v>42750.806250000001</v>
+      </c>
+      <c r="G180" s="25">
+        <v>3</v>
+      </c>
+      <c r="H180" s="25">
+        <v>4</v>
+      </c>
+      <c r="I180" s="25">
+        <v>4</v>
+      </c>
+      <c r="J180" s="25">
+        <v>1</v>
+      </c>
+      <c r="K180" s="25">
+        <v>1</v>
+      </c>
+      <c r="L180" s="25">
+        <v>1</v>
+      </c>
+      <c r="M180" s="25">
+        <v>0</v>
+      </c>
+      <c r="N180" s="25">
+        <v>1</v>
+      </c>
+      <c r="O180" s="25">
+        <v>3</v>
+      </c>
+      <c r="P180" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q180" s="25">
+        <v>1</v>
+      </c>
+      <c r="R180" s="25">
+        <v>1</v>
+      </c>
+      <c r="S180" s="25">
+        <v>1</v>
+      </c>
+      <c r="T180" s="25">
+        <v>1</v>
+      </c>
+      <c r="U180" s="25">
+        <v>1</v>
+      </c>
+      <c r="V180" s="25">
+        <v>1</v>
+      </c>
+      <c r="W180" s="25">
+        <v>1</v>
+      </c>
+      <c r="X180" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA180" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB180" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC180" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD180" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE180" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF180" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG180" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH180" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI180" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ180" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK180" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL180" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM180" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN180" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO180" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP180" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ180" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR180" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS180" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT180" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU180" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV180" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW180" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX180" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY180" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ180" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA180" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="BB180" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC180" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD180" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE180" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF180" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG180" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH180" s="25">
+        <v>4</v>
+      </c>
+      <c r="BI180" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ180" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK180" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL180" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM180" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN180" s="25">
+        <v>3</v>
+      </c>
+      <c r="BO180" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP180" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ180" s="76">
+        <v>2</v>
+      </c>
+      <c r="BR180" s="77">
+        <v>1</v>
+      </c>
+      <c r="BS180" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="181" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="14"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="26"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="25"/>
-      <c r="I181" s="25"/>
-      <c r="J181" s="25"/>
-      <c r="K181" s="25"/>
-      <c r="L181" s="25"/>
-      <c r="M181" s="25"/>
-      <c r="N181" s="25"/>
-      <c r="O181" s="25"/>
-      <c r="P181" s="24"/>
-      <c r="Q181" s="25"/>
-      <c r="R181" s="25"/>
-      <c r="S181" s="25"/>
-      <c r="T181" s="25"/>
-      <c r="U181" s="25"/>
-      <c r="V181" s="25"/>
-      <c r="W181" s="25"/>
-      <c r="X181" s="25"/>
-      <c r="Y181" s="25"/>
-      <c r="Z181" s="25"/>
-      <c r="AA181" s="25"/>
-      <c r="AB181" s="25"/>
-      <c r="AC181" s="24"/>
-      <c r="AD181" s="24"/>
-      <c r="AE181" s="25"/>
-      <c r="AF181" s="24"/>
-      <c r="AG181" s="24"/>
-      <c r="AH181" s="25"/>
-      <c r="AI181" s="24"/>
-      <c r="AJ181" s="25"/>
-      <c r="AK181" s="24"/>
-      <c r="AL181" s="24"/>
-      <c r="AM181" s="24"/>
-      <c r="AN181" s="24"/>
-      <c r="AO181" s="52"/>
-      <c r="AP181" s="25"/>
-      <c r="AQ181" s="72"/>
-      <c r="AR181" s="25"/>
-      <c r="AS181" s="25"/>
-      <c r="AT181" s="25"/>
-      <c r="AU181" s="25"/>
-      <c r="AV181" s="25"/>
-      <c r="AW181" s="25"/>
-      <c r="AX181" s="25"/>
-      <c r="AY181" s="25"/>
-      <c r="AZ181" s="25"/>
-      <c r="BA181" s="24"/>
-      <c r="BB181" s="25"/>
-      <c r="BC181" s="25"/>
-      <c r="BD181" s="25"/>
-      <c r="BE181" s="25"/>
-      <c r="BF181" s="25"/>
-      <c r="BG181" s="25"/>
-      <c r="BH181" s="25"/>
-      <c r="BI181" s="25"/>
-      <c r="BJ181" s="25"/>
-      <c r="BK181" s="25"/>
-      <c r="BL181" s="25"/>
-      <c r="BM181" s="25"/>
-      <c r="BN181" s="25"/>
-      <c r="BO181" s="24"/>
-      <c r="BP181" s="25"/>
-      <c r="BQ181" s="76"/>
-      <c r="BR181" s="77"/>
-      <c r="BS181" s="78"/>
+    <row r="181" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A181" s="14">
+        <v>179</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D181" s="25">
+        <v>819</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F181" s="26">
+        <v>42788.693055555559</v>
+      </c>
+      <c r="G181" s="25">
+        <v>3</v>
+      </c>
+      <c r="H181" s="25">
+        <v>3</v>
+      </c>
+      <c r="I181" s="25">
+        <v>2</v>
+      </c>
+      <c r="J181" s="25">
+        <v>0</v>
+      </c>
+      <c r="K181" s="25">
+        <v>1</v>
+      </c>
+      <c r="L181" s="25">
+        <v>1</v>
+      </c>
+      <c r="M181" s="25">
+        <v>1</v>
+      </c>
+      <c r="N181" s="25">
+        <v>0</v>
+      </c>
+      <c r="O181" s="25">
+        <v>1</v>
+      </c>
+      <c r="P181" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q181" s="25">
+        <v>3</v>
+      </c>
+      <c r="R181" s="25">
+        <v>3</v>
+      </c>
+      <c r="S181" s="25">
+        <v>2</v>
+      </c>
+      <c r="T181" s="25">
+        <v>3</v>
+      </c>
+      <c r="U181" s="25">
+        <v>3</v>
+      </c>
+      <c r="V181" s="25">
+        <v>0</v>
+      </c>
+      <c r="W181" s="25">
+        <v>1</v>
+      </c>
+      <c r="X181" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z181" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA181" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB181" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC181" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD181" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE181" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF181" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG181" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH181" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI181" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ181" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK181" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL181" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM181" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN181" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO181" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP181" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ181" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR181" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS181" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT181" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU181" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV181" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW181" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX181" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY181" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ181" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA181" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="BB181" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC181" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD181" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE181" s="25">
+        <v>2</v>
+      </c>
+      <c r="BF181" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG181" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH181" s="25">
+        <v>2</v>
+      </c>
+      <c r="BI181" s="25">
+        <v>2</v>
+      </c>
+      <c r="BJ181" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK181" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL181" s="25">
+        <v>2</v>
+      </c>
+      <c r="BM181" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN181" s="25">
+        <v>3</v>
+      </c>
+      <c r="BO181" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP181" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ181" s="76">
+        <v>2</v>
+      </c>
+      <c r="BR181" s="77">
+        <v>2</v>
+      </c>
+      <c r="BS181" s="78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="182" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="14"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="25"/>
-      <c r="I182" s="25"/>
-      <c r="J182" s="25"/>
-      <c r="K182" s="25"/>
-      <c r="L182" s="25"/>
-      <c r="M182" s="25"/>
-      <c r="N182" s="25"/>
-      <c r="O182" s="25"/>
-      <c r="P182" s="24"/>
-      <c r="Q182" s="25"/>
-      <c r="R182" s="25"/>
-      <c r="S182" s="25"/>
-      <c r="T182" s="25"/>
-      <c r="U182" s="25"/>
-      <c r="V182" s="25"/>
-      <c r="W182" s="25"/>
-      <c r="X182" s="25"/>
-      <c r="Y182" s="25"/>
-      <c r="Z182" s="25"/>
-      <c r="AA182" s="25"/>
-      <c r="AB182" s="25"/>
-      <c r="AC182" s="24"/>
-      <c r="AD182" s="24"/>
-      <c r="AE182" s="25"/>
-      <c r="AF182" s="24"/>
-      <c r="AG182" s="24"/>
-      <c r="AH182" s="25"/>
-      <c r="AI182" s="24"/>
-      <c r="AJ182" s="25"/>
-      <c r="AK182" s="24"/>
-      <c r="AL182" s="24"/>
-      <c r="AM182" s="24"/>
-      <c r="AN182" s="24"/>
-      <c r="AO182" s="52"/>
-      <c r="AP182" s="25"/>
-      <c r="AQ182" s="72"/>
-      <c r="AR182" s="25"/>
-      <c r="AS182" s="25"/>
-      <c r="AT182" s="25"/>
-      <c r="AU182" s="25"/>
-      <c r="AV182" s="25"/>
-      <c r="AW182" s="25"/>
-      <c r="AX182" s="25"/>
-      <c r="AY182" s="25"/>
-      <c r="AZ182" s="25"/>
-      <c r="BA182" s="24"/>
-      <c r="BB182" s="25"/>
-      <c r="BC182" s="25"/>
-      <c r="BD182" s="25"/>
-      <c r="BE182" s="25"/>
-      <c r="BF182" s="25"/>
-      <c r="BG182" s="25"/>
-      <c r="BH182" s="25"/>
-      <c r="BI182" s="25"/>
-      <c r="BJ182" s="25"/>
-      <c r="BK182" s="25"/>
-      <c r="BL182" s="25"/>
-      <c r="BM182" s="25"/>
-      <c r="BN182" s="25"/>
-      <c r="BO182" s="24"/>
-      <c r="BP182" s="25"/>
-      <c r="BQ182" s="76"/>
-      <c r="BR182" s="77"/>
-      <c r="BS182" s="78"/>
+    <row r="182" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A182" s="14">
+        <v>180</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D182" s="25">
+        <v>819</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F182" s="26">
+        <v>42787.390277777777</v>
+      </c>
+      <c r="G182" s="25">
+        <v>3</v>
+      </c>
+      <c r="H182" s="25">
+        <v>3</v>
+      </c>
+      <c r="I182" s="25">
+        <v>2</v>
+      </c>
+      <c r="J182" s="25">
+        <v>0</v>
+      </c>
+      <c r="K182" s="25">
+        <v>1</v>
+      </c>
+      <c r="L182" s="25">
+        <v>1</v>
+      </c>
+      <c r="M182" s="25">
+        <v>0</v>
+      </c>
+      <c r="N182" s="25">
+        <v>0</v>
+      </c>
+      <c r="O182" s="25">
+        <v>3</v>
+      </c>
+      <c r="P182" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q182" s="25">
+        <v>3</v>
+      </c>
+      <c r="R182" s="25">
+        <v>3</v>
+      </c>
+      <c r="S182" s="25">
+        <v>3</v>
+      </c>
+      <c r="T182" s="25">
+        <v>3</v>
+      </c>
+      <c r="U182" s="25">
+        <v>3</v>
+      </c>
+      <c r="V182" s="25">
+        <v>0</v>
+      </c>
+      <c r="W182" s="25">
+        <v>1</v>
+      </c>
+      <c r="X182" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z182" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA182" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB182" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC182" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD182" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE182" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF182" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG182" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH182" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI182" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ182" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK182" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL182" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM182" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN182" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO182" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP182" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ182" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR182" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS182" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT182" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU182" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV182" s="25">
+        <v>4</v>
+      </c>
+      <c r="AW182" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX182" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY182" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ182" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA182" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="BB182" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC182" s="25">
+        <v>2</v>
+      </c>
+      <c r="BD182" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE182" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF182" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG182" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH182" s="25">
+        <v>2</v>
+      </c>
+      <c r="BI182" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ182" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK182" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL182" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM182" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN182" s="25">
+        <v>3</v>
+      </c>
+      <c r="BO182" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP182" s="25">
+        <v>3</v>
+      </c>
+      <c r="BQ182" s="76">
+        <v>3</v>
+      </c>
+      <c r="BR182" s="77">
+        <v>3</v>
+      </c>
+      <c r="BS182" s="78">
+        <v>2</v>
+      </c>
     </row>
-    <row r="183" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="14"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="25"/>
-      <c r="H183" s="25"/>
-      <c r="I183" s="25"/>
-      <c r="J183" s="25"/>
-      <c r="K183" s="25"/>
-      <c r="L183" s="25"/>
-      <c r="M183" s="25"/>
-      <c r="N183" s="25"/>
-      <c r="O183" s="25"/>
-      <c r="P183" s="24"/>
-      <c r="Q183" s="25"/>
-      <c r="R183" s="25"/>
-      <c r="S183" s="25"/>
-      <c r="T183" s="25"/>
-      <c r="U183" s="25"/>
-      <c r="V183" s="25"/>
-      <c r="W183" s="25"/>
-      <c r="X183" s="25"/>
-      <c r="Y183" s="25"/>
-      <c r="Z183" s="25"/>
-      <c r="AA183" s="25"/>
-      <c r="AB183" s="25"/>
-      <c r="AC183" s="24"/>
-      <c r="AD183" s="24"/>
-      <c r="AE183" s="25"/>
-      <c r="AF183" s="24"/>
-      <c r="AG183" s="24"/>
-      <c r="AH183" s="25"/>
-      <c r="AI183" s="24"/>
-      <c r="AJ183" s="25"/>
-      <c r="AK183" s="24"/>
-      <c r="AL183" s="24"/>
-      <c r="AM183" s="24"/>
-      <c r="AN183" s="24"/>
-      <c r="AO183" s="52"/>
-      <c r="AP183" s="25"/>
-      <c r="AQ183" s="72"/>
-      <c r="AR183" s="25"/>
-      <c r="AS183" s="25"/>
-      <c r="AT183" s="25"/>
-      <c r="AU183" s="25"/>
-      <c r="AV183" s="25"/>
-      <c r="AW183" s="25"/>
-      <c r="AX183" s="25"/>
-      <c r="AY183" s="25"/>
-      <c r="AZ183" s="25"/>
-      <c r="BA183" s="24"/>
-      <c r="BB183" s="25"/>
-      <c r="BC183" s="25"/>
-      <c r="BD183" s="25"/>
-      <c r="BE183" s="25"/>
-      <c r="BF183" s="25"/>
-      <c r="BG183" s="25"/>
-      <c r="BH183" s="25"/>
-      <c r="BI183" s="25"/>
-      <c r="BJ183" s="25"/>
-      <c r="BK183" s="25"/>
-      <c r="BL183" s="25"/>
-      <c r="BM183" s="25"/>
-      <c r="BN183" s="25"/>
-      <c r="BO183" s="24"/>
-      <c r="BP183" s="25"/>
-      <c r="BQ183" s="76"/>
-      <c r="BR183" s="77"/>
-      <c r="BS183" s="78"/>
+    <row r="183" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A183" s="14">
+        <v>181</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D183" s="25">
+        <v>819</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F183" s="26">
+        <v>42790.794444444444</v>
+      </c>
+      <c r="G183" s="25">
+        <v>3</v>
+      </c>
+      <c r="H183" s="25">
+        <v>3</v>
+      </c>
+      <c r="I183" s="25">
+        <v>3</v>
+      </c>
+      <c r="J183" s="25">
+        <v>1</v>
+      </c>
+      <c r="K183" s="25">
+        <v>1</v>
+      </c>
+      <c r="L183" s="25">
+        <v>1</v>
+      </c>
+      <c r="M183" s="25">
+        <v>0</v>
+      </c>
+      <c r="N183" s="25">
+        <v>1</v>
+      </c>
+      <c r="O183" s="25">
+        <v>3</v>
+      </c>
+      <c r="P183" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q183" s="25">
+        <v>3</v>
+      </c>
+      <c r="R183" s="25">
+        <v>3</v>
+      </c>
+      <c r="S183" s="25">
+        <v>3</v>
+      </c>
+      <c r="T183" s="25">
+        <v>3</v>
+      </c>
+      <c r="U183" s="25">
+        <v>3</v>
+      </c>
+      <c r="V183" s="25">
+        <v>0</v>
+      </c>
+      <c r="W183" s="25">
+        <v>1</v>
+      </c>
+      <c r="X183" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y183" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z183" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA183" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB183" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC183" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD183" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE183" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF183" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG183" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH183" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI183" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ183" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK183" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL183" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM183" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN183" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="AO183" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP183" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ183" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR183" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS183" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT183" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU183" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV183" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW183" s="25">
+        <v>1</v>
+      </c>
+      <c r="AX183" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY183" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ183" s="25">
+        <v>1</v>
+      </c>
+      <c r="BA183" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="BB183" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC183" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD183" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE183" s="25">
+        <v>2</v>
+      </c>
+      <c r="BF183" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG183" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH183" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI183" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ183" s="25">
+        <v>2</v>
+      </c>
+      <c r="BK183" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL183" s="25">
+        <v>2</v>
+      </c>
+      <c r="BM183" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN183" s="25">
+        <v>3</v>
+      </c>
+      <c r="BO183" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP183" s="25">
+        <v>2</v>
+      </c>
+      <c r="BQ183" s="76">
+        <v>1</v>
+      </c>
+      <c r="BR183" s="77">
+        <v>4</v>
+      </c>
+      <c r="BS183" s="78">
+        <v>3</v>
+      </c>
     </row>
     <row r="184" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="14"/>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2720" yWindow="4240" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="2040" windowWidth="25600" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="313">
   <si>
     <t>客户信息</t>
   </si>
@@ -1193,10 +1193,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>／</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1240,14 +1236,6 @@
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>／</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>／</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -39856,34 +39844,34 @@
         <v>0</v>
       </c>
       <c r="BA164" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="BB164" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC164" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD164" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE164" s="25">
+        <v>5</v>
+      </c>
+      <c r="BF164" s="25">
+        <v>4</v>
+      </c>
+      <c r="BG164" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH164" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI164" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ164" s="25" t="s">
         <v>284</v>
-      </c>
-      <c r="BB164" s="25">
-        <v>4</v>
-      </c>
-      <c r="BC164" s="25">
-        <v>3</v>
-      </c>
-      <c r="BD164" s="25">
-        <v>3</v>
-      </c>
-      <c r="BE164" s="25">
-        <v>5</v>
-      </c>
-      <c r="BF164" s="25">
-        <v>4</v>
-      </c>
-      <c r="BG164" s="25">
-        <v>3</v>
-      </c>
-      <c r="BH164" s="25">
-        <v>5</v>
-      </c>
-      <c r="BI164" s="25">
-        <v>5</v>
-      </c>
-      <c r="BJ164" s="25" t="s">
-        <v>285</v>
       </c>
       <c r="BK164" s="25">
         <v>4</v>
@@ -40133,7 +40121,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C166" s="24" t="s">
         <v>70</v>
@@ -40217,22 +40205,22 @@
         <v>215</v>
       </c>
       <c r="AD166" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE166" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF166" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="AE166" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF166" s="24" t="s">
+      <c r="AG166" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH166" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI166" s="24" t="s">
         <v>288</v>
-      </c>
-      <c r="AG166" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH166" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI166" s="24" t="s">
-        <v>289</v>
       </c>
       <c r="AJ166" s="25">
         <v>0</v>
@@ -40256,7 +40244,7 @@
         <v>0</v>
       </c>
       <c r="AQ166" s="72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AR166" s="25">
         <v>1</v>
@@ -40528,7 +40516,7 @@
         <v>3</v>
       </c>
       <c r="BJ167" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BK167" s="25">
         <v>3</v>
@@ -40778,7 +40766,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C169" s="24" t="s">
         <v>82</v>
@@ -41208,7 +41196,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C171" s="24" t="s">
         <v>70</v>
@@ -41361,7 +41349,7 @@
         <v>0</v>
       </c>
       <c r="BA171" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BB171" s="25">
         <v>2</v>
@@ -41603,7 +41591,7 @@
         <v>3</v>
       </c>
       <c r="BJ172" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BK172" s="25">
         <v>4</v>
@@ -41638,7 +41626,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C173" s="24" t="s">
         <v>70</v>
@@ -41728,31 +41716,31 @@
         <v>0</v>
       </c>
       <c r="AF173" s="24" t="s">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="AG173" s="24" t="s">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="AH173" s="25">
         <v>0</v>
       </c>
       <c r="AI173" s="24" t="s">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="AJ173" s="25">
         <v>0</v>
       </c>
       <c r="AK173" s="24" t="s">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="AL173" s="24" t="s">
         <v>142</v>
       </c>
       <c r="AM173" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AN173" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AO173" s="52" t="s">
         <v>275</v>
@@ -41791,7 +41779,7 @@
         <v>0</v>
       </c>
       <c r="BA173" s="24" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="BB173" s="25">
         <v>3</v>
@@ -42033,7 +42021,7 @@
         <v>4</v>
       </c>
       <c r="BJ174" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK174" s="25">
         <v>3</v>
@@ -42068,7 +42056,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C175" s="24" t="s">
         <v>70</v>
@@ -42221,7 +42209,7 @@
         <v>0</v>
       </c>
       <c r="BA175" s="24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BB175" s="25">
         <v>3</v>
@@ -42248,7 +42236,7 @@
         <v>4</v>
       </c>
       <c r="BJ175" s="25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BK175" s="25">
         <v>3</v>
@@ -42436,7 +42424,7 @@
         <v>0</v>
       </c>
       <c r="BA176" s="24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BB176" s="25">
         <v>3</v>
@@ -42463,7 +42451,7 @@
         <v>3</v>
       </c>
       <c r="BJ176" s="25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BK176" s="25">
         <v>3</v>
@@ -42651,7 +42639,7 @@
         <v>0</v>
       </c>
       <c r="BA177" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BB177" s="25">
         <v>3</v>
@@ -42678,7 +42666,7 @@
         <v>3</v>
       </c>
       <c r="BJ177" s="25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BK177" s="25">
         <v>1</v>
@@ -42713,7 +42701,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C178" s="24" t="s">
         <v>70</v>
@@ -42866,7 +42854,7 @@
         <v>0</v>
       </c>
       <c r="BA178" s="24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="BB178" s="25">
         <v>3</v>
@@ -42893,7 +42881,7 @@
         <v>2</v>
       </c>
       <c r="BJ178" s="25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BK178" s="25">
         <v>2</v>
@@ -43108,7 +43096,7 @@
         <v>1</v>
       </c>
       <c r="BJ179" s="25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK179" s="25">
         <v>2</v>
@@ -43296,34 +43284,34 @@
         <v>0</v>
       </c>
       <c r="BA180" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BB180" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC180" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD180" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE180" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF180" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG180" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH180" s="25">
+        <v>4</v>
+      </c>
+      <c r="BI180" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ180" s="25" t="s">
         <v>301</v>
-      </c>
-      <c r="BB180" s="25">
-        <v>3</v>
-      </c>
-      <c r="BC180" s="25">
-        <v>1</v>
-      </c>
-      <c r="BD180" s="25">
-        <v>2</v>
-      </c>
-      <c r="BE180" s="25">
-        <v>3</v>
-      </c>
-      <c r="BF180" s="25">
-        <v>3</v>
-      </c>
-      <c r="BG180" s="25">
-        <v>3</v>
-      </c>
-      <c r="BH180" s="25">
-        <v>4</v>
-      </c>
-      <c r="BI180" s="25">
-        <v>1</v>
-      </c>
-      <c r="BJ180" s="25" t="s">
-        <v>304</v>
       </c>
       <c r="BK180" s="25">
         <v>3</v>
@@ -43358,7 +43346,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C181" s="24" t="s">
         <v>82</v>
@@ -43466,7 +43454,7 @@
         <v>151</v>
       </c>
       <c r="AL181" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AM181" s="24" t="s">
         <v>130</v>
@@ -43511,7 +43499,7 @@
         <v>0</v>
       </c>
       <c r="BA181" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BB181" s="25">
         <v>3</v>
@@ -43657,13 +43645,13 @@
         <v>84</v>
       </c>
       <c r="AD182" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AE182" s="25">
         <v>0</v>
       </c>
       <c r="AF182" s="24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AG182" s="24" t="s">
         <v>151</v>
@@ -43678,10 +43666,10 @@
         <v>0</v>
       </c>
       <c r="AK182" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AL182" s="24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AM182" s="24" t="s">
         <v>130</v>
@@ -43726,7 +43714,7 @@
         <v>0</v>
       </c>
       <c r="BA182" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BB182" s="25">
         <v>3</v>
@@ -43788,7 +43776,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C183" s="24" t="s">
         <v>76</v>
@@ -43872,16 +43860,16 @@
         <v>215</v>
       </c>
       <c r="AD183" s="24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AE183" s="25">
         <v>0</v>
       </c>
       <c r="AF183" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AG183" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AH183" s="25">
         <v>0</v>
@@ -43893,7 +43881,7 @@
         <v>0</v>
       </c>
       <c r="AK183" s="24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AL183" s="24" t="s">
         <v>130</v>
@@ -43902,7 +43890,7 @@
         <v>130</v>
       </c>
       <c r="AN183" s="24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AO183" s="52" t="s">
         <v>275</v>
@@ -43941,7 +43929,7 @@
         <v>1</v>
       </c>
       <c r="BA183" s="24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="BB183" s="25">
         <v>3</v>

--- a/user_data_for_haier.xlsx
+++ b/user_data_for_haier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="5920" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="2120" windowWidth="25600" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="364">
   <si>
     <t>客户信息</t>
   </si>
@@ -1529,18 +1529,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>／</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>／</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>／</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2822,7 +2810,7 @@
   <dimension ref="A1:FZ314"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BB203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="BS204" sqref="BS204"/>
@@ -48388,28 +48376,28 @@
         <v>84</v>
       </c>
       <c r="AD203" s="24" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AE203" s="25">
         <v>0</v>
       </c>
       <c r="AF203" s="24" t="s">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="AG203" s="24" t="s">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="AH203" s="25">
         <v>0</v>
       </c>
       <c r="AI203" s="24" t="s">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="AJ203" s="25">
         <v>0</v>
       </c>
       <c r="AK203" s="24" t="s">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="AL203" s="24" t="s">
         <v>134</v>
@@ -48603,7 +48591,7 @@
         <v>84</v>
       </c>
       <c r="AD204" s="24" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE204" s="25">
         <v>0</v>
@@ -48630,7 +48618,7 @@
         <v>134</v>
       </c>
       <c r="AM204" s="24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AN204" s="24" t="s">
         <v>188</v>
